--- a/excel/finished/7高炉/7高炉参数日报表.xlsx
+++ b/excel/finished/7高炉/7高炉参数日报表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="91">
   <si>
     <t>高炉参数日报</t>
   </si>
@@ -83,6 +83,12 @@
   <si>
     <t>煤气利用率
 %</t>
+  </si>
+  <si>
+    <t>焦比 kg/t</t>
+  </si>
+  <si>
+    <t>小焦比 kg/t</t>
   </si>
   <si>
     <t>煤比
@@ -343,21 +349,33 @@
   <si>
     <t>BF7_L2C_BD_topgasn_1h_avg</t>
   </si>
+  <si>
+    <t>BF7_L2M_SHS_CoalRate_1h_avg</t>
+  </si>
+  <si>
+    <t>BF7_L2M_SHS_FuelRate_1h_avg</t>
+  </si>
+  <si>
+    <t>BF7_L2M_SHS_CokeRate_1h_avg</t>
+  </si>
+  <si>
+    <t>BF7_L2M_NTCokeRate_1h_avg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
     <numFmt numFmtId="178" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +390,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -413,6 +437,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -420,44 +459,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,25 +489,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,24 +511,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,7 +520,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,8 +540,47 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -566,6 +590,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,7 +619,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,13 +631,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,7 +667,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,31 +715,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,25 +727,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,13 +745,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,19 +763,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,36 +781,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -794,6 +824,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,41 +1006,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1037,6 +1047,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1057,16 +1091,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1075,31 +1120,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1108,105 +1159,99 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1220,6 +1265,9 @@
     </xf>
     <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1227,33 +1275,33 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1273,91 +1321,106 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1707,297 +1770,304 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AL38"/>
+  <dimension ref="A1:AN38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.775" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9" style="8"/>
-    <col min="3" max="4" width="9" style="9"/>
-    <col min="5" max="5" width="9" style="8"/>
-    <col min="6" max="6" width="9" style="10"/>
-    <col min="7" max="7" width="9" style="8"/>
-    <col min="8" max="9" width="9" style="10"/>
-    <col min="10" max="11" width="9" style="11"/>
-    <col min="12" max="12" width="9" style="10"/>
-    <col min="13" max="14" width="9" style="11"/>
-    <col min="15" max="15" width="9" style="10"/>
-    <col min="16" max="21" width="9" style="8"/>
-    <col min="22" max="25" width="9" style="10"/>
-    <col min="26" max="26" width="9" style="11"/>
-    <col min="27" max="28" width="9" style="8"/>
-    <col min="29" max="29" width="9" style="10"/>
-    <col min="30" max="32" width="9" style="8"/>
-    <col min="33" max="34" width="9" style="8" customWidth="1"/>
-    <col min="35" max="35" width="9.88333333333333" style="10" customWidth="1"/>
-    <col min="36" max="37" width="9" style="10"/>
-    <col min="38" max="38" width="8.66666666666667" style="10" customWidth="1"/>
-    <col min="39" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9.775" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9" style="9"/>
+    <col min="3" max="4" width="9" style="10"/>
+    <col min="5" max="5" width="9" style="9"/>
+    <col min="6" max="6" width="9" style="11"/>
+    <col min="7" max="7" width="9" style="9"/>
+    <col min="8" max="9" width="9" style="11"/>
+    <col min="10" max="11" width="9" style="12"/>
+    <col min="12" max="13" width="9" style="11"/>
+    <col min="14" max="14" width="9" style="12"/>
+    <col min="15" max="16" width="9" style="11"/>
+    <col min="17" max="17" width="9" style="9" hidden="1" customWidth="1"/>
+    <col min="18" max="23" width="9" style="9"/>
+    <col min="24" max="27" width="9" style="11"/>
+    <col min="28" max="28" width="9" style="12"/>
+    <col min="29" max="30" width="9" style="9"/>
+    <col min="31" max="31" width="9" style="11"/>
+    <col min="32" max="34" width="9" style="9"/>
+    <col min="35" max="36" width="9" style="9" customWidth="1"/>
+    <col min="37" max="37" width="9.88333333333333" style="11" customWidth="1"/>
+    <col min="38" max="39" width="9" style="11"/>
+    <col min="40" max="40" width="8.66666666666667" style="11" customWidth="1"/>
+    <col min="41" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" spans="1:36">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="26.25" spans="1:38">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12" t="str">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
     </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:38">
-      <c r="A2" s="13" t="s">
+    <row r="2" ht="19.5" customHeight="1" spans="1:40">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="51" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="55" t="s">
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="57"/>
+      <c r="AL2" s="62"/>
+      <c r="AM2" s="62"/>
+      <c r="AN2" s="63"/>
     </row>
-    <row r="3" ht="36.75" spans="1:38">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16" t="s">
+    <row r="3" ht="36.75" spans="1:40">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="40" t="s">
+      <c r="M3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="40" t="s">
+      <c r="N3" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="S3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="U3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="18" t="s">
+      <c r="V3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="18" t="s">
+      <c r="W3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="18" t="s">
+      <c r="X3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="18" t="s">
+      <c r="Y3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="40" t="s">
+      <c r="Z3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="16" t="s">
+      <c r="AA3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AB3" s="16" t="s">
+      <c r="AB3" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="AC3" s="18" t="s">
+      <c r="AC3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="AD3" s="53" t="s">
+      <c r="AD3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="AE3" s="53" t="s">
+      <c r="AE3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AF3" s="53" t="s">
+      <c r="AF3" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="AG3" s="53" t="s">
+      <c r="AG3" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="AH3" s="53" t="s">
+      <c r="AH3" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="AI3" s="18" t="s">
+      <c r="AI3" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="AJ3" s="18" t="s">
+      <c r="AJ3" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="AK3" s="18" t="s">
+      <c r="AK3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AL3" s="18" t="s">
+      <c r="AL3" s="19" t="s">
         <v>40</v>
       </c>
+      <c r="AM3" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN3" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="4" ht="88.8" hidden="1" customHeight="1" spans="1:38">
-      <c r="A4" s="19" t="s">
-        <v>41</v>
+    <row r="4" ht="88.8" hidden="1" customHeight="1" spans="1:40">
+      <c r="A4" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="41" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>51</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="P4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="O4" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="P4" s="45"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="5" t="s">
         <v>59</v>
       </c>
       <c r="T4" s="2" t="s">
@@ -2006,10 +2076,10 @@
       <c r="U4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="2" t="s">
         <v>63</v>
       </c>
       <c r="X4" s="4" t="s">
@@ -2018,37 +2088,37 @@
       <c r="Y4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="Z4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AA4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AB4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AC4" s="2" t="s">
         <v>69</v>
       </c>
       <c r="AD4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AE4" s="4" t="s">
         <v>71</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AI4" s="4" t="s">
+      <c r="AI4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AJ4" s="4" t="s">
+      <c r="AJ4" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AK4" s="4" t="s">
@@ -2057,4440 +2127,4678 @@
       <c r="AL4" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="AM4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="5" spans="1:38">
-      <c r="A5" s="20">
+    <row r="5" ht="13.5" spans="1:40">
+      <c r="A5" s="21">
         <v>1</v>
       </c>
-      <c r="B5" s="21" t="str">
+      <c r="B5" s="22" t="str">
         <f>IF(_tag_day_all!A2="","",_tag_day_all!A2)</f>
         <v/>
       </c>
-      <c r="C5" s="22" t="str">
+      <c r="C5" s="23" t="str">
         <f>IF(_tag_day_all!B2="","",_tag_day_all!B2)</f>
         <v/>
       </c>
-      <c r="D5" s="23" t="str">
+      <c r="D5" s="24" t="str">
         <f>IF(_tag_day_all!C2="","",_tag_day_all!C2)</f>
         <v/>
       </c>
-      <c r="E5" s="24" t="str">
+      <c r="E5" s="25" t="str">
         <f>IF(_tag_day_all!D2="","",_tag_day_all!D2)</f>
         <v/>
       </c>
-      <c r="F5" s="25" t="str">
+      <c r="F5" s="26" t="str">
         <f>IF(_tag_day_all!E2="","",_tag_day_all!E2)</f>
         <v/>
       </c>
-      <c r="G5" s="24" t="str">
+      <c r="G5" s="25" t="str">
         <f>IF(_tag_day_all!F2="","",_tag_day_all!F2)</f>
         <v/>
       </c>
-      <c r="H5" s="25" t="str">
+      <c r="H5" s="26" t="str">
         <f>IF(_tag_day_all!G2="","",_tag_day_all!G2)</f>
         <v/>
       </c>
-      <c r="I5" s="25" t="str">
+      <c r="I5" s="26" t="str">
         <f>IF(_tag_day_all!H2="","",_tag_day_all!H2)</f>
         <v/>
       </c>
-      <c r="J5" s="43" t="str">
+      <c r="J5" s="46" t="str">
         <f>IF(_tag_day_all!I2="","",_tag_day_all!I2)</f>
         <v/>
       </c>
-      <c r="K5" s="43" t="str">
+      <c r="K5" s="46" t="str">
         <f>IF(_tag_day_all!J2="","",_tag_day_all!J2)</f>
         <v/>
       </c>
-      <c r="L5" s="25" t="str">
+      <c r="L5" s="26" t="str">
         <f>IF(_tag_day_all!K2="","",_tag_day_all!K2)</f>
         <v/>
       </c>
-      <c r="M5" s="43" t="str">
+      <c r="M5" s="26" t="str">
         <f>IF(_tag_day_all!L2="","",_tag_day_all!L2)</f>
         <v/>
       </c>
-      <c r="N5" s="43" t="str">
+      <c r="N5" s="46" t="str">
         <f>IF(_tag_day_all!M2="","",_tag_day_all!M2)</f>
         <v/>
       </c>
-      <c r="O5" s="25" t="str">
+      <c r="O5" s="26" t="str">
         <f>IF(_tag_day_all!N2="","",_tag_day_all!N2*100)</f>
         <v/>
       </c>
-      <c r="P5" s="24" t="str">
+      <c r="P5" s="26" t="str">
+        <f>IF(_tag_day_all!AL2="","",_tag_day_all!AL2)</f>
+        <v/>
+      </c>
+      <c r="Q5" s="25" t="str">
+        <f>IF(_tag_day_all!AM2="","",_tag_day_all!AM2)</f>
+        <v/>
+      </c>
+      <c r="R5" s="25" t="str">
         <f>IF(_tag_day_all!O2="","",_tag_day_all!O2)</f>
         <v/>
       </c>
-      <c r="Q5" s="24" t="str">
+      <c r="S5" s="25" t="str">
         <f>IF(_tag_day_all!P2="","",_tag_day_all!P2)</f>
         <v/>
       </c>
-      <c r="R5" s="24" t="str">
+      <c r="T5" s="25" t="str">
         <f>IF(_tag_day_all!Q2="","",_tag_day_all!Q2)</f>
         <v/>
       </c>
-      <c r="S5" s="24" t="str">
+      <c r="U5" s="25" t="str">
         <f>IF(_tag_day_all!R2="","",_tag_day_all!R2)</f>
         <v/>
       </c>
-      <c r="T5" s="24" t="str">
+      <c r="V5" s="25" t="str">
         <f>IF(_tag_day_all!S2="","",_tag_day_all!S2)</f>
         <v/>
       </c>
-      <c r="U5" s="24" t="str">
+      <c r="W5" s="25" t="str">
         <f>IF(_tag_day_all!T2="","",_tag_day_all!T2)</f>
         <v/>
       </c>
-      <c r="V5" s="25" t="str">
+      <c r="X5" s="26" t="str">
         <f>IF(_tag_day_all!U2="","",_tag_day_all!U2)</f>
         <v/>
       </c>
-      <c r="W5" s="25" t="str">
+      <c r="Y5" s="26" t="str">
         <f>IF(_tag_day_all!V2="","",_tag_day_all!V2)</f>
         <v/>
       </c>
-      <c r="X5" s="25" t="str">
+      <c r="Z5" s="26" t="str">
         <f>IF(_tag_day_all!W2="","",_tag_day_all!W2)</f>
         <v/>
       </c>
-      <c r="Y5" s="25" t="str">
+      <c r="AA5" s="26" t="str">
         <f>IF(_tag_day_all!X2="","",_tag_day_all!X2)</f>
         <v/>
       </c>
-      <c r="Z5" s="43" t="str">
+      <c r="AB5" s="46" t="str">
         <f>IF(_tag_day_all!Y2="","",_tag_day_all!Y2)</f>
         <v/>
       </c>
-      <c r="AA5" s="24" t="str">
+      <c r="AC5" s="25" t="str">
         <f>IF(_tag_day_all!Z2="","",_tag_day_all!Z2)</f>
         <v/>
       </c>
-      <c r="AB5" s="24" t="str">
+      <c r="AD5" s="25" t="str">
         <f>IF(_tag_day_all!AA2="","",_tag_day_all!AA2)</f>
         <v/>
       </c>
-      <c r="AC5" s="25" t="str">
+      <c r="AE5" s="26" t="str">
         <f>IF(_tag_day_all!AB2="","",_tag_day_all!AB2)</f>
         <v/>
       </c>
-      <c r="AD5" s="24" t="str">
+      <c r="AF5" s="25" t="str">
         <f>IF(_tag_day_all!AC2="","",_tag_day_all!AC2)</f>
         <v/>
       </c>
-      <c r="AE5" s="24" t="str">
+      <c r="AG5" s="25" t="str">
         <f>IF(_tag_day_all!AD2="","",_tag_day_all!AD2)</f>
         <v/>
       </c>
-      <c r="AF5" s="24" t="str">
+      <c r="AH5" s="25" t="str">
         <f>IF(_tag_day_all!AE2="","",_tag_day_all!AE2)</f>
         <v/>
       </c>
-      <c r="AG5" s="24" t="str">
+      <c r="AI5" s="25" t="str">
         <f>IF(_tag_day_all!AF2="","",_tag_day_all!AF2)</f>
         <v/>
       </c>
-      <c r="AH5" s="24" t="str">
+      <c r="AJ5" s="25" t="str">
         <f>IF(_tag_day_all!AG2="","",_tag_day_all!AG2)</f>
         <v/>
       </c>
-      <c r="AI5" s="25" t="str">
+      <c r="AK5" s="26" t="str">
         <f>IF(_tag_day_all!AH2="","",_tag_day_all!AH2)</f>
         <v/>
       </c>
-      <c r="AJ5" s="25" t="str">
+      <c r="AL5" s="26" t="str">
         <f>IF(_tag_day_all!AI2="","",_tag_day_all!AI2)</f>
         <v/>
       </c>
-      <c r="AK5" s="25" t="str">
+      <c r="AM5" s="26" t="str">
         <f>IF(_tag_day_all!AJ2="","",_tag_day_all!AJ2)</f>
         <v/>
       </c>
-      <c r="AL5" s="25" t="str">
+      <c r="AN5" s="26" t="str">
         <f>IF(_tag_day_all!AK2="","",_tag_day_all!AK2)</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:38">
-      <c r="A6" s="20">
+    <row r="6" ht="13.5" spans="1:40">
+      <c r="A6" s="21">
         <v>2</v>
       </c>
-      <c r="B6" s="21" t="str">
+      <c r="B6" s="22" t="str">
         <f>IF(_tag_day_all!A3="","",_tag_day_all!A3)</f>
         <v/>
       </c>
-      <c r="C6" s="22" t="str">
+      <c r="C6" s="23" t="str">
         <f>IF(_tag_day_all!B3="","",_tag_day_all!B3)</f>
         <v/>
       </c>
-      <c r="D6" s="23" t="str">
+      <c r="D6" s="24" t="str">
         <f>IF(_tag_day_all!C3="","",_tag_day_all!C3)</f>
         <v/>
       </c>
-      <c r="E6" s="24" t="str">
+      <c r="E6" s="25" t="str">
         <f>IF(_tag_day_all!D3="","",_tag_day_all!D3)</f>
         <v/>
       </c>
-      <c r="F6" s="25" t="str">
+      <c r="F6" s="26" t="str">
         <f>IF(_tag_day_all!E3="","",_tag_day_all!E3)</f>
         <v/>
       </c>
-      <c r="G6" s="24" t="str">
+      <c r="G6" s="25" t="str">
         <f>IF(_tag_day_all!F3="","",_tag_day_all!F3)</f>
         <v/>
       </c>
-      <c r="H6" s="25" t="str">
+      <c r="H6" s="26" t="str">
         <f>IF(_tag_day_all!G3="","",_tag_day_all!G3)</f>
         <v/>
       </c>
-      <c r="I6" s="25" t="str">
+      <c r="I6" s="26" t="str">
         <f>IF(_tag_day_all!H3="","",_tag_day_all!H3)</f>
         <v/>
       </c>
-      <c r="J6" s="43" t="str">
+      <c r="J6" s="46" t="str">
         <f>IF(_tag_day_all!I3="","",_tag_day_all!I3)</f>
         <v/>
       </c>
-      <c r="K6" s="43" t="str">
+      <c r="K6" s="46" t="str">
         <f>IF(_tag_day_all!J3="","",_tag_day_all!J3)</f>
         <v/>
       </c>
-      <c r="L6" s="25" t="str">
+      <c r="L6" s="26" t="str">
         <f>IF(_tag_day_all!K3="","",_tag_day_all!K3)</f>
         <v/>
       </c>
-      <c r="M6" s="43" t="str">
+      <c r="M6" s="26" t="str">
         <f>IF(_tag_day_all!L3="","",_tag_day_all!L3)</f>
         <v/>
       </c>
-      <c r="N6" s="43" t="str">
+      <c r="N6" s="46" t="str">
         <f>IF(_tag_day_all!M3="","",_tag_day_all!M3)</f>
         <v/>
       </c>
-      <c r="O6" s="25" t="str">
+      <c r="O6" s="26" t="str">
         <f>IF(_tag_day_all!N3="","",_tag_day_all!N3*100)</f>
         <v/>
       </c>
-      <c r="P6" s="24" t="str">
+      <c r="P6" s="26" t="str">
+        <f>IF(_tag_day_all!AL3="","",_tag_day_all!AL3)</f>
+        <v/>
+      </c>
+      <c r="Q6" s="25" t="str">
+        <f>IF(_tag_day_all!AM3="","",_tag_day_all!AM3)</f>
+        <v/>
+      </c>
+      <c r="R6" s="25" t="str">
         <f>IF(_tag_day_all!O3="","",_tag_day_all!O3)</f>
         <v/>
       </c>
-      <c r="Q6" s="24" t="str">
+      <c r="S6" s="25" t="str">
         <f>IF(_tag_day_all!P3="","",_tag_day_all!P3)</f>
         <v/>
       </c>
-      <c r="R6" s="24" t="str">
+      <c r="T6" s="25" t="str">
         <f>IF(_tag_day_all!Q3="","",_tag_day_all!Q3)</f>
         <v/>
       </c>
-      <c r="S6" s="24" t="str">
+      <c r="U6" s="25" t="str">
         <f>IF(_tag_day_all!R3="","",_tag_day_all!R3)</f>
         <v/>
       </c>
-      <c r="T6" s="24" t="str">
+      <c r="V6" s="25" t="str">
         <f>IF(_tag_day_all!S3="","",_tag_day_all!S3)</f>
         <v/>
       </c>
-      <c r="U6" s="24" t="str">
+      <c r="W6" s="25" t="str">
         <f>IF(_tag_day_all!T3="","",_tag_day_all!T3)</f>
         <v/>
       </c>
-      <c r="V6" s="25" t="str">
+      <c r="X6" s="26" t="str">
         <f>IF(_tag_day_all!U3="","",_tag_day_all!U3)</f>
         <v/>
       </c>
-      <c r="W6" s="25" t="str">
+      <c r="Y6" s="26" t="str">
         <f>IF(_tag_day_all!V3="","",_tag_day_all!V3)</f>
         <v/>
       </c>
-      <c r="X6" s="25" t="str">
+      <c r="Z6" s="26" t="str">
         <f>IF(_tag_day_all!W3="","",_tag_day_all!W3)</f>
         <v/>
       </c>
-      <c r="Y6" s="25" t="str">
+      <c r="AA6" s="26" t="str">
         <f>IF(_tag_day_all!X3="","",_tag_day_all!X3)</f>
         <v/>
       </c>
-      <c r="Z6" s="43" t="str">
+      <c r="AB6" s="46" t="str">
         <f>IF(_tag_day_all!Y3="","",_tag_day_all!Y3)</f>
         <v/>
       </c>
-      <c r="AA6" s="24" t="str">
+      <c r="AC6" s="25" t="str">
         <f>IF(_tag_day_all!Z3="","",_tag_day_all!Z3)</f>
         <v/>
       </c>
-      <c r="AB6" s="24" t="str">
+      <c r="AD6" s="25" t="str">
         <f>IF(_tag_day_all!AA3="","",_tag_day_all!AA3)</f>
         <v/>
       </c>
-      <c r="AC6" s="25" t="str">
+      <c r="AE6" s="26" t="str">
         <f>IF(_tag_day_all!AB3="","",_tag_day_all!AB3)</f>
         <v/>
       </c>
-      <c r="AD6" s="24" t="str">
+      <c r="AF6" s="25" t="str">
         <f>IF(_tag_day_all!AC3="","",_tag_day_all!AC3)</f>
         <v/>
       </c>
-      <c r="AE6" s="24" t="str">
+      <c r="AG6" s="25" t="str">
         <f>IF(_tag_day_all!AD3="","",_tag_day_all!AD3)</f>
         <v/>
       </c>
-      <c r="AF6" s="24" t="str">
+      <c r="AH6" s="25" t="str">
         <f>IF(_tag_day_all!AE3="","",_tag_day_all!AE3)</f>
         <v/>
       </c>
-      <c r="AG6" s="24" t="str">
+      <c r="AI6" s="25" t="str">
         <f>IF(_tag_day_all!AF3="","",_tag_day_all!AF3)</f>
         <v/>
       </c>
-      <c r="AH6" s="24" t="str">
+      <c r="AJ6" s="25" t="str">
         <f>IF(_tag_day_all!AG3="","",_tag_day_all!AG3)</f>
         <v/>
       </c>
-      <c r="AI6" s="25" t="str">
+      <c r="AK6" s="26" t="str">
         <f>IF(_tag_day_all!AH3="","",_tag_day_all!AH3)</f>
         <v/>
       </c>
-      <c r="AJ6" s="25" t="str">
+      <c r="AL6" s="26" t="str">
         <f>IF(_tag_day_all!AI3="","",_tag_day_all!AI3)</f>
         <v/>
       </c>
-      <c r="AK6" s="25" t="str">
+      <c r="AM6" s="26" t="str">
         <f>IF(_tag_day_all!AJ3="","",_tag_day_all!AJ3)</f>
         <v/>
       </c>
-      <c r="AL6" s="25" t="str">
+      <c r="AN6" s="26" t="str">
         <f>IF(_tag_day_all!AK3="","",_tag_day_all!AK3)</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:38">
-      <c r="A7" s="20">
+    <row r="7" ht="13.5" spans="1:40">
+      <c r="A7" s="21">
         <v>3</v>
       </c>
-      <c r="B7" s="21" t="str">
+      <c r="B7" s="22" t="str">
         <f>IF(_tag_day_all!A4="","",_tag_day_all!A4)</f>
         <v/>
       </c>
-      <c r="C7" s="22" t="str">
+      <c r="C7" s="23" t="str">
         <f>IF(_tag_day_all!B4="","",_tag_day_all!B4)</f>
         <v/>
       </c>
-      <c r="D7" s="23" t="str">
+      <c r="D7" s="24" t="str">
         <f>IF(_tag_day_all!C4="","",_tag_day_all!C4)</f>
         <v/>
       </c>
-      <c r="E7" s="24" t="str">
+      <c r="E7" s="25" t="str">
         <f>IF(_tag_day_all!D4="","",_tag_day_all!D4)</f>
         <v/>
       </c>
-      <c r="F7" s="25" t="str">
+      <c r="F7" s="26" t="str">
         <f>IF(_tag_day_all!E4="","",_tag_day_all!E4)</f>
         <v/>
       </c>
-      <c r="G7" s="24" t="str">
+      <c r="G7" s="25" t="str">
         <f>IF(_tag_day_all!F4="","",_tag_day_all!F4)</f>
         <v/>
       </c>
-      <c r="H7" s="25" t="str">
+      <c r="H7" s="26" t="str">
         <f>IF(_tag_day_all!G4="","",_tag_day_all!G4)</f>
         <v/>
       </c>
-      <c r="I7" s="25" t="str">
+      <c r="I7" s="26" t="str">
         <f>IF(_tag_day_all!H4="","",_tag_day_all!H4)</f>
         <v/>
       </c>
-      <c r="J7" s="43" t="str">
+      <c r="J7" s="46" t="str">
         <f>IF(_tag_day_all!I4="","",_tag_day_all!I4)</f>
         <v/>
       </c>
-      <c r="K7" s="43" t="str">
+      <c r="K7" s="46" t="str">
         <f>IF(_tag_day_all!J4="","",_tag_day_all!J4)</f>
         <v/>
       </c>
-      <c r="L7" s="25" t="str">
+      <c r="L7" s="26" t="str">
         <f>IF(_tag_day_all!K4="","",_tag_day_all!K4)</f>
         <v/>
       </c>
-      <c r="M7" s="43" t="str">
+      <c r="M7" s="26" t="str">
         <f>IF(_tag_day_all!L4="","",_tag_day_all!L4)</f>
         <v/>
       </c>
-      <c r="N7" s="43" t="str">
+      <c r="N7" s="46" t="str">
         <f>IF(_tag_day_all!M4="","",_tag_day_all!M4)</f>
         <v/>
       </c>
-      <c r="O7" s="25" t="str">
+      <c r="O7" s="26" t="str">
         <f>IF(_tag_day_all!N4="","",_tag_day_all!N4*100)</f>
         <v/>
       </c>
-      <c r="P7" s="24" t="str">
+      <c r="P7" s="26" t="str">
+        <f>IF(_tag_day_all!AL4="","",_tag_day_all!AL4)</f>
+        <v/>
+      </c>
+      <c r="Q7" s="25" t="str">
+        <f>IF(_tag_day_all!AM4="","",_tag_day_all!AM4)</f>
+        <v/>
+      </c>
+      <c r="R7" s="25" t="str">
         <f>IF(_tag_day_all!O4="","",_tag_day_all!O4)</f>
         <v/>
       </c>
-      <c r="Q7" s="24" t="str">
+      <c r="S7" s="25" t="str">
         <f>IF(_tag_day_all!P4="","",_tag_day_all!P4)</f>
         <v/>
       </c>
-      <c r="R7" s="24" t="str">
+      <c r="T7" s="25" t="str">
         <f>IF(_tag_day_all!Q4="","",_tag_day_all!Q4)</f>
         <v/>
       </c>
-      <c r="S7" s="24" t="str">
+      <c r="U7" s="25" t="str">
         <f>IF(_tag_day_all!R4="","",_tag_day_all!R4)</f>
         <v/>
       </c>
-      <c r="T7" s="24" t="str">
+      <c r="V7" s="25" t="str">
         <f>IF(_tag_day_all!S4="","",_tag_day_all!S4)</f>
         <v/>
       </c>
-      <c r="U7" s="24" t="str">
+      <c r="W7" s="25" t="str">
         <f>IF(_tag_day_all!T4="","",_tag_day_all!T4)</f>
         <v/>
       </c>
-      <c r="V7" s="25" t="str">
+      <c r="X7" s="26" t="str">
         <f>IF(_tag_day_all!U4="","",_tag_day_all!U4)</f>
         <v/>
       </c>
-      <c r="W7" s="25" t="str">
+      <c r="Y7" s="26" t="str">
         <f>IF(_tag_day_all!V4="","",_tag_day_all!V4)</f>
         <v/>
       </c>
-      <c r="X7" s="25" t="str">
+      <c r="Z7" s="26" t="str">
         <f>IF(_tag_day_all!W4="","",_tag_day_all!W4)</f>
         <v/>
       </c>
-      <c r="Y7" s="25" t="str">
+      <c r="AA7" s="26" t="str">
         <f>IF(_tag_day_all!X4="","",_tag_day_all!X4)</f>
         <v/>
       </c>
-      <c r="Z7" s="43" t="str">
+      <c r="AB7" s="46" t="str">
         <f>IF(_tag_day_all!Y4="","",_tag_day_all!Y4)</f>
         <v/>
       </c>
-      <c r="AA7" s="24" t="str">
+      <c r="AC7" s="25" t="str">
         <f>IF(_tag_day_all!Z4="","",_tag_day_all!Z4)</f>
         <v/>
       </c>
-      <c r="AB7" s="24" t="str">
+      <c r="AD7" s="25" t="str">
         <f>IF(_tag_day_all!AA4="","",_tag_day_all!AA4)</f>
         <v/>
       </c>
-      <c r="AC7" s="25" t="str">
+      <c r="AE7" s="26" t="str">
         <f>IF(_tag_day_all!AB4="","",_tag_day_all!AB4)</f>
         <v/>
       </c>
-      <c r="AD7" s="24" t="str">
+      <c r="AF7" s="25" t="str">
         <f>IF(_tag_day_all!AC4="","",_tag_day_all!AC4)</f>
         <v/>
       </c>
-      <c r="AE7" s="24" t="str">
+      <c r="AG7" s="25" t="str">
         <f>IF(_tag_day_all!AD4="","",_tag_day_all!AD4)</f>
         <v/>
       </c>
-      <c r="AF7" s="24" t="str">
+      <c r="AH7" s="25" t="str">
         <f>IF(_tag_day_all!AE4="","",_tag_day_all!AE4)</f>
         <v/>
       </c>
-      <c r="AG7" s="24" t="str">
+      <c r="AI7" s="25" t="str">
         <f>IF(_tag_day_all!AF4="","",_tag_day_all!AF4)</f>
         <v/>
       </c>
-      <c r="AH7" s="24" t="str">
+      <c r="AJ7" s="25" t="str">
         <f>IF(_tag_day_all!AG4="","",_tag_day_all!AG4)</f>
         <v/>
       </c>
-      <c r="AI7" s="25" t="str">
+      <c r="AK7" s="26" t="str">
         <f>IF(_tag_day_all!AH4="","",_tag_day_all!AH4)</f>
         <v/>
       </c>
-      <c r="AJ7" s="25" t="str">
+      <c r="AL7" s="26" t="str">
         <f>IF(_tag_day_all!AI4="","",_tag_day_all!AI4)</f>
         <v/>
       </c>
-      <c r="AK7" s="25" t="str">
+      <c r="AM7" s="26" t="str">
         <f>IF(_tag_day_all!AJ4="","",_tag_day_all!AJ4)</f>
         <v/>
       </c>
-      <c r="AL7" s="25" t="str">
+      <c r="AN7" s="26" t="str">
         <f>IF(_tag_day_all!AK4="","",_tag_day_all!AK4)</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:38">
-      <c r="A8" s="20">
+    <row r="8" ht="13.5" spans="1:40">
+      <c r="A8" s="21">
         <v>4</v>
       </c>
-      <c r="B8" s="21" t="str">
+      <c r="B8" s="22" t="str">
         <f>IF(_tag_day_all!A5="","",_tag_day_all!A5)</f>
         <v/>
       </c>
-      <c r="C8" s="22" t="str">
+      <c r="C8" s="23" t="str">
         <f>IF(_tag_day_all!B5="","",_tag_day_all!B5)</f>
         <v/>
       </c>
-      <c r="D8" s="23" t="str">
+      <c r="D8" s="24" t="str">
         <f>IF(_tag_day_all!C5="","",_tag_day_all!C5)</f>
         <v/>
       </c>
-      <c r="E8" s="24" t="str">
+      <c r="E8" s="25" t="str">
         <f>IF(_tag_day_all!D5="","",_tag_day_all!D5)</f>
         <v/>
       </c>
-      <c r="F8" s="25" t="str">
+      <c r="F8" s="26" t="str">
         <f>IF(_tag_day_all!E5="","",_tag_day_all!E5)</f>
         <v/>
       </c>
-      <c r="G8" s="24" t="str">
+      <c r="G8" s="25" t="str">
         <f>IF(_tag_day_all!F5="","",_tag_day_all!F5)</f>
         <v/>
       </c>
-      <c r="H8" s="25" t="str">
+      <c r="H8" s="26" t="str">
         <f>IF(_tag_day_all!G5="","",_tag_day_all!G5)</f>
         <v/>
       </c>
-      <c r="I8" s="25" t="str">
+      <c r="I8" s="26" t="str">
         <f>IF(_tag_day_all!H5="","",_tag_day_all!H5)</f>
         <v/>
       </c>
-      <c r="J8" s="43" t="str">
+      <c r="J8" s="46" t="str">
         <f>IF(_tag_day_all!I5="","",_tag_day_all!I5)</f>
         <v/>
       </c>
-      <c r="K8" s="43" t="str">
+      <c r="K8" s="46" t="str">
         <f>IF(_tag_day_all!J5="","",_tag_day_all!J5)</f>
         <v/>
       </c>
-      <c r="L8" s="25" t="str">
+      <c r="L8" s="26" t="str">
         <f>IF(_tag_day_all!K5="","",_tag_day_all!K5)</f>
         <v/>
       </c>
-      <c r="M8" s="43" t="str">
+      <c r="M8" s="26" t="str">
         <f>IF(_tag_day_all!L5="","",_tag_day_all!L5)</f>
         <v/>
       </c>
-      <c r="N8" s="43" t="str">
+      <c r="N8" s="46" t="str">
         <f>IF(_tag_day_all!M5="","",_tag_day_all!M5)</f>
         <v/>
       </c>
-      <c r="O8" s="25" t="str">
+      <c r="O8" s="26" t="str">
         <f>IF(_tag_day_all!N5="","",_tag_day_all!N5*100)</f>
         <v/>
       </c>
-      <c r="P8" s="24" t="str">
+      <c r="P8" s="26" t="str">
+        <f>IF(_tag_day_all!AL5="","",_tag_day_all!AL5)</f>
+        <v/>
+      </c>
+      <c r="Q8" s="25" t="str">
+        <f>IF(_tag_day_all!AM5="","",_tag_day_all!AM5)</f>
+        <v/>
+      </c>
+      <c r="R8" s="25" t="str">
         <f>IF(_tag_day_all!O5="","",_tag_day_all!O5)</f>
         <v/>
       </c>
-      <c r="Q8" s="24" t="str">
+      <c r="S8" s="25" t="str">
         <f>IF(_tag_day_all!P5="","",_tag_day_all!P5)</f>
         <v/>
       </c>
-      <c r="R8" s="24" t="str">
+      <c r="T8" s="25" t="str">
         <f>IF(_tag_day_all!Q5="","",_tag_day_all!Q5)</f>
         <v/>
       </c>
-      <c r="S8" s="24" t="str">
+      <c r="U8" s="25" t="str">
         <f>IF(_tag_day_all!R5="","",_tag_day_all!R5)</f>
         <v/>
       </c>
-      <c r="T8" s="24" t="str">
+      <c r="V8" s="25" t="str">
         <f>IF(_tag_day_all!S5="","",_tag_day_all!S5)</f>
         <v/>
       </c>
-      <c r="U8" s="24" t="str">
+      <c r="W8" s="25" t="str">
         <f>IF(_tag_day_all!T5="","",_tag_day_all!T5)</f>
         <v/>
       </c>
-      <c r="V8" s="25" t="str">
+      <c r="X8" s="26" t="str">
         <f>IF(_tag_day_all!U5="","",_tag_day_all!U5)</f>
         <v/>
       </c>
-      <c r="W8" s="25" t="str">
+      <c r="Y8" s="26" t="str">
         <f>IF(_tag_day_all!V5="","",_tag_day_all!V5)</f>
         <v/>
       </c>
-      <c r="X8" s="25" t="str">
+      <c r="Z8" s="26" t="str">
         <f>IF(_tag_day_all!W5="","",_tag_day_all!W5)</f>
         <v/>
       </c>
-      <c r="Y8" s="25" t="str">
+      <c r="AA8" s="26" t="str">
         <f>IF(_tag_day_all!X5="","",_tag_day_all!X5)</f>
         <v/>
       </c>
-      <c r="Z8" s="43" t="str">
+      <c r="AB8" s="46" t="str">
         <f>IF(_tag_day_all!Y5="","",_tag_day_all!Y5)</f>
         <v/>
       </c>
-      <c r="AA8" s="24" t="str">
+      <c r="AC8" s="25" t="str">
         <f>IF(_tag_day_all!Z5="","",_tag_day_all!Z5)</f>
         <v/>
       </c>
-      <c r="AB8" s="24" t="str">
+      <c r="AD8" s="25" t="str">
         <f>IF(_tag_day_all!AA5="","",_tag_day_all!AA5)</f>
         <v/>
       </c>
-      <c r="AC8" s="25" t="str">
+      <c r="AE8" s="26" t="str">
         <f>IF(_tag_day_all!AB5="","",_tag_day_all!AB5)</f>
         <v/>
       </c>
-      <c r="AD8" s="24" t="str">
+      <c r="AF8" s="25" t="str">
         <f>IF(_tag_day_all!AC5="","",_tag_day_all!AC5)</f>
         <v/>
       </c>
-      <c r="AE8" s="24" t="str">
+      <c r="AG8" s="25" t="str">
         <f>IF(_tag_day_all!AD5="","",_tag_day_all!AD5)</f>
         <v/>
       </c>
-      <c r="AF8" s="24" t="str">
+      <c r="AH8" s="25" t="str">
         <f>IF(_tag_day_all!AE5="","",_tag_day_all!AE5)</f>
         <v/>
       </c>
-      <c r="AG8" s="24" t="str">
+      <c r="AI8" s="25" t="str">
         <f>IF(_tag_day_all!AF5="","",_tag_day_all!AF5)</f>
         <v/>
       </c>
-      <c r="AH8" s="24" t="str">
+      <c r="AJ8" s="25" t="str">
         <f>IF(_tag_day_all!AG5="","",_tag_day_all!AG5)</f>
         <v/>
       </c>
-      <c r="AI8" s="25" t="str">
+      <c r="AK8" s="26" t="str">
         <f>IF(_tag_day_all!AH5="","",_tag_day_all!AH5)</f>
         <v/>
       </c>
-      <c r="AJ8" s="25" t="str">
+      <c r="AL8" s="26" t="str">
         <f>IF(_tag_day_all!AI5="","",_tag_day_all!AI5)</f>
         <v/>
       </c>
-      <c r="AK8" s="25" t="str">
+      <c r="AM8" s="26" t="str">
         <f>IF(_tag_day_all!AJ5="","",_tag_day_all!AJ5)</f>
         <v/>
       </c>
-      <c r="AL8" s="25" t="str">
+      <c r="AN8" s="26" t="str">
         <f>IF(_tag_day_all!AK5="","",_tag_day_all!AK5)</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:38">
-      <c r="A9" s="20">
+    <row r="9" ht="13.5" spans="1:40">
+      <c r="A9" s="21">
         <v>5</v>
       </c>
-      <c r="B9" s="21" t="str">
+      <c r="B9" s="22" t="str">
         <f>IF(_tag_day_all!A6="","",_tag_day_all!A6)</f>
         <v/>
       </c>
-      <c r="C9" s="22" t="str">
+      <c r="C9" s="23" t="str">
         <f>IF(_tag_day_all!B6="","",_tag_day_all!B6)</f>
         <v/>
       </c>
-      <c r="D9" s="23" t="str">
+      <c r="D9" s="24" t="str">
         <f>IF(_tag_day_all!C6="","",_tag_day_all!C6)</f>
         <v/>
       </c>
-      <c r="E9" s="24" t="str">
+      <c r="E9" s="25" t="str">
         <f>IF(_tag_day_all!D6="","",_tag_day_all!D6)</f>
         <v/>
       </c>
-      <c r="F9" s="25" t="str">
+      <c r="F9" s="26" t="str">
         <f>IF(_tag_day_all!E6="","",_tag_day_all!E6)</f>
         <v/>
       </c>
-      <c r="G9" s="24" t="str">
+      <c r="G9" s="25" t="str">
         <f>IF(_tag_day_all!F6="","",_tag_day_all!F6)</f>
         <v/>
       </c>
-      <c r="H9" s="25" t="str">
+      <c r="H9" s="26" t="str">
         <f>IF(_tag_day_all!G6="","",_tag_day_all!G6)</f>
         <v/>
       </c>
-      <c r="I9" s="25" t="str">
+      <c r="I9" s="26" t="str">
         <f>IF(_tag_day_all!H6="","",_tag_day_all!H6)</f>
         <v/>
       </c>
-      <c r="J9" s="43" t="str">
+      <c r="J9" s="46" t="str">
         <f>IF(_tag_day_all!I6="","",_tag_day_all!I6)</f>
         <v/>
       </c>
-      <c r="K9" s="43" t="str">
+      <c r="K9" s="46" t="str">
         <f>IF(_tag_day_all!J6="","",_tag_day_all!J6)</f>
         <v/>
       </c>
-      <c r="L9" s="25" t="str">
+      <c r="L9" s="26" t="str">
         <f>IF(_tag_day_all!K6="","",_tag_day_all!K6)</f>
         <v/>
       </c>
-      <c r="M9" s="43" t="str">
+      <c r="M9" s="26" t="str">
         <f>IF(_tag_day_all!L6="","",_tag_day_all!L6)</f>
         <v/>
       </c>
-      <c r="N9" s="43" t="str">
+      <c r="N9" s="46" t="str">
         <f>IF(_tag_day_all!M6="","",_tag_day_all!M6)</f>
         <v/>
       </c>
-      <c r="O9" s="25" t="str">
+      <c r="O9" s="26" t="str">
         <f>IF(_tag_day_all!N6="","",_tag_day_all!N6*100)</f>
         <v/>
       </c>
-      <c r="P9" s="24" t="str">
+      <c r="P9" s="26" t="str">
+        <f>IF(_tag_day_all!AL6="","",_tag_day_all!AL6)</f>
+        <v/>
+      </c>
+      <c r="Q9" s="25" t="str">
+        <f>IF(_tag_day_all!AM6="","",_tag_day_all!AM6)</f>
+        <v/>
+      </c>
+      <c r="R9" s="25" t="str">
         <f>IF(_tag_day_all!O6="","",_tag_day_all!O6)</f>
         <v/>
       </c>
-      <c r="Q9" s="24" t="str">
+      <c r="S9" s="25" t="str">
         <f>IF(_tag_day_all!P6="","",_tag_day_all!P6)</f>
         <v/>
       </c>
-      <c r="R9" s="24" t="str">
+      <c r="T9" s="25" t="str">
         <f>IF(_tag_day_all!Q6="","",_tag_day_all!Q6)</f>
         <v/>
       </c>
-      <c r="S9" s="24" t="str">
+      <c r="U9" s="25" t="str">
         <f>IF(_tag_day_all!R6="","",_tag_day_all!R6)</f>
         <v/>
       </c>
-      <c r="T9" s="24" t="str">
+      <c r="V9" s="25" t="str">
         <f>IF(_tag_day_all!S6="","",_tag_day_all!S6)</f>
         <v/>
       </c>
-      <c r="U9" s="24" t="str">
+      <c r="W9" s="25" t="str">
         <f>IF(_tag_day_all!T6="","",_tag_day_all!T6)</f>
         <v/>
       </c>
-      <c r="V9" s="25" t="str">
+      <c r="X9" s="26" t="str">
         <f>IF(_tag_day_all!U6="","",_tag_day_all!U6)</f>
         <v/>
       </c>
-      <c r="W9" s="25" t="str">
+      <c r="Y9" s="26" t="str">
         <f>IF(_tag_day_all!V6="","",_tag_day_all!V6)</f>
         <v/>
       </c>
-      <c r="X9" s="25" t="str">
+      <c r="Z9" s="26" t="str">
         <f>IF(_tag_day_all!W6="","",_tag_day_all!W6)</f>
         <v/>
       </c>
-      <c r="Y9" s="25" t="str">
+      <c r="AA9" s="26" t="str">
         <f>IF(_tag_day_all!X6="","",_tag_day_all!X6)</f>
         <v/>
       </c>
-      <c r="Z9" s="43" t="str">
+      <c r="AB9" s="46" t="str">
         <f>IF(_tag_day_all!Y6="","",_tag_day_all!Y6)</f>
         <v/>
       </c>
-      <c r="AA9" s="24" t="str">
+      <c r="AC9" s="25" t="str">
         <f>IF(_tag_day_all!Z6="","",_tag_day_all!Z6)</f>
         <v/>
       </c>
-      <c r="AB9" s="24" t="str">
+      <c r="AD9" s="25" t="str">
         <f>IF(_tag_day_all!AA6="","",_tag_day_all!AA6)</f>
         <v/>
       </c>
-      <c r="AC9" s="25" t="str">
+      <c r="AE9" s="26" t="str">
         <f>IF(_tag_day_all!AB6="","",_tag_day_all!AB6)</f>
         <v/>
       </c>
-      <c r="AD9" s="24" t="str">
+      <c r="AF9" s="25" t="str">
         <f>IF(_tag_day_all!AC6="","",_tag_day_all!AC6)</f>
         <v/>
       </c>
-      <c r="AE9" s="24" t="str">
+      <c r="AG9" s="25" t="str">
         <f>IF(_tag_day_all!AD6="","",_tag_day_all!AD6)</f>
         <v/>
       </c>
-      <c r="AF9" s="24" t="str">
+      <c r="AH9" s="25" t="str">
         <f>IF(_tag_day_all!AE6="","",_tag_day_all!AE6)</f>
         <v/>
       </c>
-      <c r="AG9" s="24" t="str">
+      <c r="AI9" s="25" t="str">
         <f>IF(_tag_day_all!AF6="","",_tag_day_all!AF6)</f>
         <v/>
       </c>
-      <c r="AH9" s="24" t="str">
+      <c r="AJ9" s="25" t="str">
         <f>IF(_tag_day_all!AG6="","",_tag_day_all!AG6)</f>
         <v/>
       </c>
-      <c r="AI9" s="25" t="str">
+      <c r="AK9" s="26" t="str">
         <f>IF(_tag_day_all!AH6="","",_tag_day_all!AH6)</f>
         <v/>
       </c>
-      <c r="AJ9" s="25" t="str">
+      <c r="AL9" s="26" t="str">
         <f>IF(_tag_day_all!AI6="","",_tag_day_all!AI6)</f>
         <v/>
       </c>
-      <c r="AK9" s="25" t="str">
+      <c r="AM9" s="26" t="str">
         <f>IF(_tag_day_all!AJ6="","",_tag_day_all!AJ6)</f>
         <v/>
       </c>
-      <c r="AL9" s="25" t="str">
+      <c r="AN9" s="26" t="str">
         <f>IF(_tag_day_all!AK6="","",_tag_day_all!AK6)</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:38">
-      <c r="A10" s="20">
+    <row r="10" ht="13.5" spans="1:40">
+      <c r="A10" s="21">
         <v>6</v>
       </c>
-      <c r="B10" s="21" t="str">
+      <c r="B10" s="22" t="str">
         <f>IF(_tag_day_all!A7="","",_tag_day_all!A7)</f>
         <v/>
       </c>
-      <c r="C10" s="22" t="str">
+      <c r="C10" s="23" t="str">
         <f>IF(_tag_day_all!B7="","",_tag_day_all!B7)</f>
         <v/>
       </c>
-      <c r="D10" s="23" t="str">
+      <c r="D10" s="24" t="str">
         <f>IF(_tag_day_all!C7="","",_tag_day_all!C7)</f>
         <v/>
       </c>
-      <c r="E10" s="24" t="str">
+      <c r="E10" s="25" t="str">
         <f>IF(_tag_day_all!D7="","",_tag_day_all!D7)</f>
         <v/>
       </c>
-      <c r="F10" s="25" t="str">
+      <c r="F10" s="26" t="str">
         <f>IF(_tag_day_all!E7="","",_tag_day_all!E7)</f>
         <v/>
       </c>
-      <c r="G10" s="24" t="str">
+      <c r="G10" s="25" t="str">
         <f>IF(_tag_day_all!F7="","",_tag_day_all!F7)</f>
         <v/>
       </c>
-      <c r="H10" s="25" t="str">
+      <c r="H10" s="26" t="str">
         <f>IF(_tag_day_all!G7="","",_tag_day_all!G7)</f>
         <v/>
       </c>
-      <c r="I10" s="25" t="str">
+      <c r="I10" s="26" t="str">
         <f>IF(_tag_day_all!H7="","",_tag_day_all!H7)</f>
         <v/>
       </c>
-      <c r="J10" s="43" t="str">
+      <c r="J10" s="46" t="str">
         <f>IF(_tag_day_all!I7="","",_tag_day_all!I7)</f>
         <v/>
       </c>
-      <c r="K10" s="43" t="str">
+      <c r="K10" s="46" t="str">
         <f>IF(_tag_day_all!J7="","",_tag_day_all!J7)</f>
         <v/>
       </c>
-      <c r="L10" s="25" t="str">
+      <c r="L10" s="26" t="str">
         <f>IF(_tag_day_all!K7="","",_tag_day_all!K7)</f>
         <v/>
       </c>
-      <c r="M10" s="43" t="str">
+      <c r="M10" s="26" t="str">
         <f>IF(_tag_day_all!L7="","",_tag_day_all!L7)</f>
         <v/>
       </c>
-      <c r="N10" s="43" t="str">
+      <c r="N10" s="46" t="str">
         <f>IF(_tag_day_all!M7="","",_tag_day_all!M7)</f>
         <v/>
       </c>
-      <c r="O10" s="25" t="str">
+      <c r="O10" s="26" t="str">
         <f>IF(_tag_day_all!N7="","",_tag_day_all!N7*100)</f>
         <v/>
       </c>
-      <c r="P10" s="24" t="str">
+      <c r="P10" s="26" t="str">
+        <f>IF(_tag_day_all!AL7="","",_tag_day_all!AL7)</f>
+        <v/>
+      </c>
+      <c r="Q10" s="25" t="str">
+        <f>IF(_tag_day_all!AM7="","",_tag_day_all!AM7)</f>
+        <v/>
+      </c>
+      <c r="R10" s="25" t="str">
         <f>IF(_tag_day_all!O7="","",_tag_day_all!O7)</f>
         <v/>
       </c>
-      <c r="Q10" s="24" t="str">
+      <c r="S10" s="25" t="str">
         <f>IF(_tag_day_all!P7="","",_tag_day_all!P7)</f>
         <v/>
       </c>
-      <c r="R10" s="24" t="str">
+      <c r="T10" s="25" t="str">
         <f>IF(_tag_day_all!Q7="","",_tag_day_all!Q7)</f>
         <v/>
       </c>
-      <c r="S10" s="24" t="str">
+      <c r="U10" s="25" t="str">
         <f>IF(_tag_day_all!R7="","",_tag_day_all!R7)</f>
         <v/>
       </c>
-      <c r="T10" s="24" t="str">
+      <c r="V10" s="25" t="str">
         <f>IF(_tag_day_all!S7="","",_tag_day_all!S7)</f>
         <v/>
       </c>
-      <c r="U10" s="24" t="str">
+      <c r="W10" s="25" t="str">
         <f>IF(_tag_day_all!T7="","",_tag_day_all!T7)</f>
         <v/>
       </c>
-      <c r="V10" s="25" t="str">
+      <c r="X10" s="26" t="str">
         <f>IF(_tag_day_all!U7="","",_tag_day_all!U7)</f>
         <v/>
       </c>
-      <c r="W10" s="25" t="str">
+      <c r="Y10" s="26" t="str">
         <f>IF(_tag_day_all!V7="","",_tag_day_all!V7)</f>
         <v/>
       </c>
-      <c r="X10" s="25" t="str">
+      <c r="Z10" s="26" t="str">
         <f>IF(_tag_day_all!W7="","",_tag_day_all!W7)</f>
         <v/>
       </c>
-      <c r="Y10" s="25" t="str">
+      <c r="AA10" s="26" t="str">
         <f>IF(_tag_day_all!X7="","",_tag_day_all!X7)</f>
         <v/>
       </c>
-      <c r="Z10" s="43" t="str">
+      <c r="AB10" s="46" t="str">
         <f>IF(_tag_day_all!Y7="","",_tag_day_all!Y7)</f>
         <v/>
       </c>
-      <c r="AA10" s="24" t="str">
+      <c r="AC10" s="25" t="str">
         <f>IF(_tag_day_all!Z7="","",_tag_day_all!Z7)</f>
         <v/>
       </c>
-      <c r="AB10" s="24" t="str">
+      <c r="AD10" s="25" t="str">
         <f>IF(_tag_day_all!AA7="","",_tag_day_all!AA7)</f>
         <v/>
       </c>
-      <c r="AC10" s="25" t="str">
+      <c r="AE10" s="26" t="str">
         <f>IF(_tag_day_all!AB7="","",_tag_day_all!AB7)</f>
         <v/>
       </c>
-      <c r="AD10" s="24" t="str">
+      <c r="AF10" s="25" t="str">
         <f>IF(_tag_day_all!AC7="","",_tag_day_all!AC7)</f>
         <v/>
       </c>
-      <c r="AE10" s="24" t="str">
+      <c r="AG10" s="25" t="str">
         <f>IF(_tag_day_all!AD7="","",_tag_day_all!AD7)</f>
         <v/>
       </c>
-      <c r="AF10" s="24" t="str">
+      <c r="AH10" s="25" t="str">
         <f>IF(_tag_day_all!AE7="","",_tag_day_all!AE7)</f>
         <v/>
       </c>
-      <c r="AG10" s="24" t="str">
+      <c r="AI10" s="25" t="str">
         <f>IF(_tag_day_all!AF7="","",_tag_day_all!AF7)</f>
         <v/>
       </c>
-      <c r="AH10" s="24" t="str">
+      <c r="AJ10" s="25" t="str">
         <f>IF(_tag_day_all!AG7="","",_tag_day_all!AG7)</f>
         <v/>
       </c>
-      <c r="AI10" s="25" t="str">
+      <c r="AK10" s="26" t="str">
         <f>IF(_tag_day_all!AH7="","",_tag_day_all!AH7)</f>
         <v/>
       </c>
-      <c r="AJ10" s="25" t="str">
+      <c r="AL10" s="26" t="str">
         <f>IF(_tag_day_all!AI7="","",_tag_day_all!AI7)</f>
         <v/>
       </c>
-      <c r="AK10" s="25" t="str">
+      <c r="AM10" s="26" t="str">
         <f>IF(_tag_day_all!AJ7="","",_tag_day_all!AJ7)</f>
         <v/>
       </c>
-      <c r="AL10" s="25" t="str">
+      <c r="AN10" s="26" t="str">
         <f>IF(_tag_day_all!AK7="","",_tag_day_all!AK7)</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:38">
-      <c r="A11" s="20">
+    <row r="11" ht="13.5" spans="1:40">
+      <c r="A11" s="21">
         <v>7</v>
       </c>
-      <c r="B11" s="21" t="str">
+      <c r="B11" s="22" t="str">
         <f>IF(_tag_day_all!A8="","",_tag_day_all!A8)</f>
         <v/>
       </c>
-      <c r="C11" s="22" t="str">
+      <c r="C11" s="23" t="str">
         <f>IF(_tag_day_all!B8="","",_tag_day_all!B8)</f>
         <v/>
       </c>
-      <c r="D11" s="23" t="str">
+      <c r="D11" s="24" t="str">
         <f>IF(_tag_day_all!C8="","",_tag_day_all!C8)</f>
         <v/>
       </c>
-      <c r="E11" s="24" t="str">
+      <c r="E11" s="25" t="str">
         <f>IF(_tag_day_all!D8="","",_tag_day_all!D8)</f>
         <v/>
       </c>
-      <c r="F11" s="25" t="str">
+      <c r="F11" s="26" t="str">
         <f>IF(_tag_day_all!E8="","",_tag_day_all!E8)</f>
         <v/>
       </c>
-      <c r="G11" s="24" t="str">
+      <c r="G11" s="25" t="str">
         <f>IF(_tag_day_all!F8="","",_tag_day_all!F8)</f>
         <v/>
       </c>
-      <c r="H11" s="25" t="str">
+      <c r="H11" s="26" t="str">
         <f>IF(_tag_day_all!G8="","",_tag_day_all!G8)</f>
         <v/>
       </c>
-      <c r="I11" s="25" t="str">
+      <c r="I11" s="26" t="str">
         <f>IF(_tag_day_all!H8="","",_tag_day_all!H8)</f>
         <v/>
       </c>
-      <c r="J11" s="43" t="str">
+      <c r="J11" s="46" t="str">
         <f>IF(_tag_day_all!I8="","",_tag_day_all!I8)</f>
         <v/>
       </c>
-      <c r="K11" s="43" t="str">
+      <c r="K11" s="46" t="str">
         <f>IF(_tag_day_all!J8="","",_tag_day_all!J8)</f>
         <v/>
       </c>
-      <c r="L11" s="25" t="str">
+      <c r="L11" s="26" t="str">
         <f>IF(_tag_day_all!K8="","",_tag_day_all!K8)</f>
         <v/>
       </c>
-      <c r="M11" s="43" t="str">
+      <c r="M11" s="26" t="str">
         <f>IF(_tag_day_all!L8="","",_tag_day_all!L8)</f>
         <v/>
       </c>
-      <c r="N11" s="43" t="str">
+      <c r="N11" s="46" t="str">
         <f>IF(_tag_day_all!M8="","",_tag_day_all!M8)</f>
         <v/>
       </c>
-      <c r="O11" s="25" t="str">
+      <c r="O11" s="26" t="str">
         <f>IF(_tag_day_all!N8="","",_tag_day_all!N8*100)</f>
         <v/>
       </c>
-      <c r="P11" s="24" t="str">
+      <c r="P11" s="26" t="str">
+        <f>IF(_tag_day_all!AL8="","",_tag_day_all!AL8)</f>
+        <v/>
+      </c>
+      <c r="Q11" s="25" t="str">
+        <f>IF(_tag_day_all!AM8="","",_tag_day_all!AM8)</f>
+        <v/>
+      </c>
+      <c r="R11" s="25" t="str">
         <f>IF(_tag_day_all!O8="","",_tag_day_all!O8)</f>
         <v/>
       </c>
-      <c r="Q11" s="24" t="str">
+      <c r="S11" s="25" t="str">
         <f>IF(_tag_day_all!P8="","",_tag_day_all!P8)</f>
         <v/>
       </c>
-      <c r="R11" s="24" t="str">
+      <c r="T11" s="25" t="str">
         <f>IF(_tag_day_all!Q8="","",_tag_day_all!Q8)</f>
         <v/>
       </c>
-      <c r="S11" s="24" t="str">
+      <c r="U11" s="25" t="str">
         <f>IF(_tag_day_all!R8="","",_tag_day_all!R8)</f>
         <v/>
       </c>
-      <c r="T11" s="24" t="str">
+      <c r="V11" s="25" t="str">
         <f>IF(_tag_day_all!S8="","",_tag_day_all!S8)</f>
         <v/>
       </c>
-      <c r="U11" s="24" t="str">
+      <c r="W11" s="25" t="str">
         <f>IF(_tag_day_all!T8="","",_tag_day_all!T8)</f>
         <v/>
       </c>
-      <c r="V11" s="25" t="str">
+      <c r="X11" s="26" t="str">
         <f>IF(_tag_day_all!U8="","",_tag_day_all!U8)</f>
         <v/>
       </c>
-      <c r="W11" s="25" t="str">
+      <c r="Y11" s="26" t="str">
         <f>IF(_tag_day_all!V8="","",_tag_day_all!V8)</f>
         <v/>
       </c>
-      <c r="X11" s="25" t="str">
+      <c r="Z11" s="26" t="str">
         <f>IF(_tag_day_all!W8="","",_tag_day_all!W8)</f>
         <v/>
       </c>
-      <c r="Y11" s="25" t="str">
+      <c r="AA11" s="26" t="str">
         <f>IF(_tag_day_all!X8="","",_tag_day_all!X8)</f>
         <v/>
       </c>
-      <c r="Z11" s="43" t="str">
+      <c r="AB11" s="46" t="str">
         <f>IF(_tag_day_all!Y8="","",_tag_day_all!Y8)</f>
         <v/>
       </c>
-      <c r="AA11" s="24" t="str">
+      <c r="AC11" s="25" t="str">
         <f>IF(_tag_day_all!Z8="","",_tag_day_all!Z8)</f>
         <v/>
       </c>
-      <c r="AB11" s="24" t="str">
+      <c r="AD11" s="25" t="str">
         <f>IF(_tag_day_all!AA8="","",_tag_day_all!AA8)</f>
         <v/>
       </c>
-      <c r="AC11" s="25" t="str">
+      <c r="AE11" s="26" t="str">
         <f>IF(_tag_day_all!AB8="","",_tag_day_all!AB8)</f>
         <v/>
       </c>
-      <c r="AD11" s="24" t="str">
+      <c r="AF11" s="25" t="str">
         <f>IF(_tag_day_all!AC8="","",_tag_day_all!AC8)</f>
         <v/>
       </c>
-      <c r="AE11" s="24" t="str">
+      <c r="AG11" s="25" t="str">
         <f>IF(_tag_day_all!AD8="","",_tag_day_all!AD8)</f>
         <v/>
       </c>
-      <c r="AF11" s="24" t="str">
+      <c r="AH11" s="25" t="str">
         <f>IF(_tag_day_all!AE8="","",_tag_day_all!AE8)</f>
         <v/>
       </c>
-      <c r="AG11" s="24" t="str">
+      <c r="AI11" s="25" t="str">
         <f>IF(_tag_day_all!AF8="","",_tag_day_all!AF8)</f>
         <v/>
       </c>
-      <c r="AH11" s="24" t="str">
+      <c r="AJ11" s="25" t="str">
         <f>IF(_tag_day_all!AG8="","",_tag_day_all!AG8)</f>
         <v/>
       </c>
-      <c r="AI11" s="25" t="str">
+      <c r="AK11" s="26" t="str">
         <f>IF(_tag_day_all!AH8="","",_tag_day_all!AH8)</f>
         <v/>
       </c>
-      <c r="AJ11" s="25" t="str">
+      <c r="AL11" s="26" t="str">
         <f>IF(_tag_day_all!AI8="","",_tag_day_all!AI8)</f>
         <v/>
       </c>
-      <c r="AK11" s="25" t="str">
+      <c r="AM11" s="26" t="str">
         <f>IF(_tag_day_all!AJ8="","",_tag_day_all!AJ8)</f>
         <v/>
       </c>
-      <c r="AL11" s="25" t="str">
+      <c r="AN11" s="26" t="str">
         <f>IF(_tag_day_all!AK8="","",_tag_day_all!AK8)</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:38">
-      <c r="A12" s="20">
+    <row r="12" ht="13.5" spans="1:40">
+      <c r="A12" s="21">
         <v>8</v>
       </c>
-      <c r="B12" s="21" t="str">
+      <c r="B12" s="22" t="str">
         <f>IF(_tag_day_all!A9="","",_tag_day_all!A9)</f>
         <v/>
       </c>
-      <c r="C12" s="22" t="str">
+      <c r="C12" s="23" t="str">
         <f>IF(_tag_day_all!B9="","",_tag_day_all!B9)</f>
         <v/>
       </c>
-      <c r="D12" s="23" t="str">
+      <c r="D12" s="24" t="str">
         <f>IF(_tag_day_all!C9="","",_tag_day_all!C9)</f>
         <v/>
       </c>
-      <c r="E12" s="24" t="str">
+      <c r="E12" s="25" t="str">
         <f>IF(_tag_day_all!D9="","",_tag_day_all!D9)</f>
         <v/>
       </c>
-      <c r="F12" s="25" t="str">
+      <c r="F12" s="26" t="str">
         <f>IF(_tag_day_all!E9="","",_tag_day_all!E9)</f>
         <v/>
       </c>
-      <c r="G12" s="24" t="str">
+      <c r="G12" s="25" t="str">
         <f>IF(_tag_day_all!F9="","",_tag_day_all!F9)</f>
         <v/>
       </c>
-      <c r="H12" s="25" t="str">
+      <c r="H12" s="26" t="str">
         <f>IF(_tag_day_all!G9="","",_tag_day_all!G9)</f>
         <v/>
       </c>
-      <c r="I12" s="25" t="str">
+      <c r="I12" s="26" t="str">
         <f>IF(_tag_day_all!H9="","",_tag_day_all!H9)</f>
         <v/>
       </c>
-      <c r="J12" s="43" t="str">
+      <c r="J12" s="46" t="str">
         <f>IF(_tag_day_all!I9="","",_tag_day_all!I9)</f>
         <v/>
       </c>
-      <c r="K12" s="43" t="str">
+      <c r="K12" s="46" t="str">
         <f>IF(_tag_day_all!J9="","",_tag_day_all!J9)</f>
         <v/>
       </c>
-      <c r="L12" s="25" t="str">
+      <c r="L12" s="26" t="str">
         <f>IF(_tag_day_all!K9="","",_tag_day_all!K9)</f>
         <v/>
       </c>
-      <c r="M12" s="43" t="str">
+      <c r="M12" s="26" t="str">
         <f>IF(_tag_day_all!L9="","",_tag_day_all!L9)</f>
         <v/>
       </c>
-      <c r="N12" s="43" t="str">
+      <c r="N12" s="46" t="str">
         <f>IF(_tag_day_all!M9="","",_tag_day_all!M9)</f>
         <v/>
       </c>
-      <c r="O12" s="25" t="str">
+      <c r="O12" s="26" t="str">
         <f>IF(_tag_day_all!N9="","",_tag_day_all!N9*100)</f>
         <v/>
       </c>
-      <c r="P12" s="24" t="str">
+      <c r="P12" s="26" t="str">
+        <f>IF(_tag_day_all!AL9="","",_tag_day_all!AL9)</f>
+        <v/>
+      </c>
+      <c r="Q12" s="25" t="str">
+        <f>IF(_tag_day_all!AM9="","",_tag_day_all!AM9)</f>
+        <v/>
+      </c>
+      <c r="R12" s="25" t="str">
         <f>IF(_tag_day_all!O9="","",_tag_day_all!O9)</f>
         <v/>
       </c>
-      <c r="Q12" s="24" t="str">
+      <c r="S12" s="25" t="str">
         <f>IF(_tag_day_all!P9="","",_tag_day_all!P9)</f>
         <v/>
       </c>
-      <c r="R12" s="24" t="str">
+      <c r="T12" s="25" t="str">
         <f>IF(_tag_day_all!Q9="","",_tag_day_all!Q9)</f>
         <v/>
       </c>
-      <c r="S12" s="24" t="str">
+      <c r="U12" s="25" t="str">
         <f>IF(_tag_day_all!R9="","",_tag_day_all!R9)</f>
         <v/>
       </c>
-      <c r="T12" s="24" t="str">
+      <c r="V12" s="25" t="str">
         <f>IF(_tag_day_all!S9="","",_tag_day_all!S9)</f>
         <v/>
       </c>
-      <c r="U12" s="24" t="str">
+      <c r="W12" s="25" t="str">
         <f>IF(_tag_day_all!T9="","",_tag_day_all!T9)</f>
         <v/>
       </c>
-      <c r="V12" s="25" t="str">
+      <c r="X12" s="26" t="str">
         <f>IF(_tag_day_all!U9="","",_tag_day_all!U9)</f>
         <v/>
       </c>
-      <c r="W12" s="25" t="str">
+      <c r="Y12" s="26" t="str">
         <f>IF(_tag_day_all!V9="","",_tag_day_all!V9)</f>
         <v/>
       </c>
-      <c r="X12" s="25" t="str">
+      <c r="Z12" s="26" t="str">
         <f>IF(_tag_day_all!W9="","",_tag_day_all!W9)</f>
         <v/>
       </c>
-      <c r="Y12" s="25" t="str">
+      <c r="AA12" s="26" t="str">
         <f>IF(_tag_day_all!X9="","",_tag_day_all!X9)</f>
         <v/>
       </c>
-      <c r="Z12" s="43" t="str">
+      <c r="AB12" s="46" t="str">
         <f>IF(_tag_day_all!Y9="","",_tag_day_all!Y9)</f>
         <v/>
       </c>
-      <c r="AA12" s="24" t="str">
+      <c r="AC12" s="25" t="str">
         <f>IF(_tag_day_all!Z9="","",_tag_day_all!Z9)</f>
         <v/>
       </c>
-      <c r="AB12" s="24" t="str">
+      <c r="AD12" s="25" t="str">
         <f>IF(_tag_day_all!AA9="","",_tag_day_all!AA9)</f>
         <v/>
       </c>
-      <c r="AC12" s="25" t="str">
+      <c r="AE12" s="26" t="str">
         <f>IF(_tag_day_all!AB9="","",_tag_day_all!AB9)</f>
         <v/>
       </c>
-      <c r="AD12" s="24" t="str">
+      <c r="AF12" s="25" t="str">
         <f>IF(_tag_day_all!AC9="","",_tag_day_all!AC9)</f>
         <v/>
       </c>
-      <c r="AE12" s="24" t="str">
+      <c r="AG12" s="25" t="str">
         <f>IF(_tag_day_all!AD9="","",_tag_day_all!AD9)</f>
         <v/>
       </c>
-      <c r="AF12" s="24" t="str">
+      <c r="AH12" s="25" t="str">
         <f>IF(_tag_day_all!AE9="","",_tag_day_all!AE9)</f>
         <v/>
       </c>
-      <c r="AG12" s="24" t="str">
+      <c r="AI12" s="25" t="str">
         <f>IF(_tag_day_all!AF9="","",_tag_day_all!AF9)</f>
         <v/>
       </c>
-      <c r="AH12" s="24" t="str">
+      <c r="AJ12" s="25" t="str">
         <f>IF(_tag_day_all!AG9="","",_tag_day_all!AG9)</f>
         <v/>
       </c>
-      <c r="AI12" s="25" t="str">
+      <c r="AK12" s="26" t="str">
         <f>IF(_tag_day_all!AH9="","",_tag_day_all!AH9)</f>
         <v/>
       </c>
-      <c r="AJ12" s="25" t="str">
+      <c r="AL12" s="26" t="str">
         <f>IF(_tag_day_all!AI9="","",_tag_day_all!AI9)</f>
         <v/>
       </c>
-      <c r="AK12" s="25" t="str">
+      <c r="AM12" s="26" t="str">
         <f>IF(_tag_day_all!AJ9="","",_tag_day_all!AJ9)</f>
         <v/>
       </c>
-      <c r="AL12" s="25" t="str">
+      <c r="AN12" s="26" t="str">
         <f>IF(_tag_day_all!AK9="","",_tag_day_all!AK9)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:38">
-      <c r="A13" s="20">
+    <row r="13" ht="13.5" spans="1:40">
+      <c r="A13" s="21">
         <v>9</v>
       </c>
-      <c r="B13" s="21" t="str">
+      <c r="B13" s="22" t="str">
         <f>IF(_tag_day_all!A10="","",_tag_day_all!A10)</f>
         <v/>
       </c>
-      <c r="C13" s="22" t="str">
+      <c r="C13" s="23" t="str">
         <f>IF(_tag_day_all!B10="","",_tag_day_all!B10)</f>
         <v/>
       </c>
-      <c r="D13" s="23" t="str">
+      <c r="D13" s="24" t="str">
         <f>IF(_tag_day_all!C10="","",_tag_day_all!C10)</f>
         <v/>
       </c>
-      <c r="E13" s="24" t="str">
+      <c r="E13" s="25" t="str">
         <f>IF(_tag_day_all!D10="","",_tag_day_all!D10)</f>
         <v/>
       </c>
-      <c r="F13" s="25" t="str">
+      <c r="F13" s="26" t="str">
         <f>IF(_tag_day_all!E10="","",_tag_day_all!E10)</f>
         <v/>
       </c>
-      <c r="G13" s="24" t="str">
+      <c r="G13" s="25" t="str">
         <f>IF(_tag_day_all!F10="","",_tag_day_all!F10)</f>
         <v/>
       </c>
-      <c r="H13" s="25" t="str">
+      <c r="H13" s="26" t="str">
         <f>IF(_tag_day_all!G10="","",_tag_day_all!G10)</f>
         <v/>
       </c>
-      <c r="I13" s="25" t="str">
+      <c r="I13" s="26" t="str">
         <f>IF(_tag_day_all!H10="","",_tag_day_all!H10)</f>
         <v/>
       </c>
-      <c r="J13" s="43" t="str">
+      <c r="J13" s="46" t="str">
         <f>IF(_tag_day_all!I10="","",_tag_day_all!I10)</f>
         <v/>
       </c>
-      <c r="K13" s="43" t="str">
+      <c r="K13" s="46" t="str">
         <f>IF(_tag_day_all!J10="","",_tag_day_all!J10)</f>
         <v/>
       </c>
-      <c r="L13" s="25" t="str">
+      <c r="L13" s="26" t="str">
         <f>IF(_tag_day_all!K10="","",_tag_day_all!K10)</f>
         <v/>
       </c>
-      <c r="M13" s="43" t="str">
+      <c r="M13" s="26" t="str">
         <f>IF(_tag_day_all!L10="","",_tag_day_all!L10)</f>
         <v/>
       </c>
-      <c r="N13" s="43" t="str">
+      <c r="N13" s="46" t="str">
         <f>IF(_tag_day_all!M10="","",_tag_day_all!M10)</f>
         <v/>
       </c>
-      <c r="O13" s="25" t="str">
+      <c r="O13" s="26" t="str">
         <f>IF(_tag_day_all!N10="","",_tag_day_all!N10*100)</f>
         <v/>
       </c>
-      <c r="P13" s="24" t="str">
+      <c r="P13" s="26" t="str">
+        <f>IF(_tag_day_all!AL10="","",_tag_day_all!AL10)</f>
+        <v/>
+      </c>
+      <c r="Q13" s="25" t="str">
+        <f>IF(_tag_day_all!AM10="","",_tag_day_all!AM10)</f>
+        <v/>
+      </c>
+      <c r="R13" s="25" t="str">
         <f>IF(_tag_day_all!O10="","",_tag_day_all!O10)</f>
         <v/>
       </c>
-      <c r="Q13" s="24" t="str">
+      <c r="S13" s="25" t="str">
         <f>IF(_tag_day_all!P10="","",_tag_day_all!P10)</f>
         <v/>
       </c>
-      <c r="R13" s="24" t="str">
+      <c r="T13" s="25" t="str">
         <f>IF(_tag_day_all!Q10="","",_tag_day_all!Q10)</f>
         <v/>
       </c>
-      <c r="S13" s="24" t="str">
+      <c r="U13" s="25" t="str">
         <f>IF(_tag_day_all!R10="","",_tag_day_all!R10)</f>
         <v/>
       </c>
-      <c r="T13" s="24" t="str">
+      <c r="V13" s="25" t="str">
         <f>IF(_tag_day_all!S10="","",_tag_day_all!S10)</f>
         <v/>
       </c>
-      <c r="U13" s="24" t="str">
+      <c r="W13" s="25" t="str">
         <f>IF(_tag_day_all!T10="","",_tag_day_all!T10)</f>
         <v/>
       </c>
-      <c r="V13" s="25" t="str">
+      <c r="X13" s="26" t="str">
         <f>IF(_tag_day_all!U10="","",_tag_day_all!U10)</f>
         <v/>
       </c>
-      <c r="W13" s="25" t="str">
+      <c r="Y13" s="26" t="str">
         <f>IF(_tag_day_all!V10="","",_tag_day_all!V10)</f>
         <v/>
       </c>
-      <c r="X13" s="25" t="str">
+      <c r="Z13" s="26" t="str">
         <f>IF(_tag_day_all!W10="","",_tag_day_all!W10)</f>
         <v/>
       </c>
-      <c r="Y13" s="25" t="str">
+      <c r="AA13" s="26" t="str">
         <f>IF(_tag_day_all!X10="","",_tag_day_all!X10)</f>
         <v/>
       </c>
-      <c r="Z13" s="43" t="str">
+      <c r="AB13" s="46" t="str">
         <f>IF(_tag_day_all!Y10="","",_tag_day_all!Y10)</f>
         <v/>
       </c>
-      <c r="AA13" s="24" t="str">
+      <c r="AC13" s="25" t="str">
         <f>IF(_tag_day_all!Z10="","",_tag_day_all!Z10)</f>
         <v/>
       </c>
-      <c r="AB13" s="24" t="str">
+      <c r="AD13" s="25" t="str">
         <f>IF(_tag_day_all!AA10="","",_tag_day_all!AA10)</f>
         <v/>
       </c>
-      <c r="AC13" s="25" t="str">
+      <c r="AE13" s="26" t="str">
         <f>IF(_tag_day_all!AB10="","",_tag_day_all!AB10)</f>
         <v/>
       </c>
-      <c r="AD13" s="24" t="str">
+      <c r="AF13" s="25" t="str">
         <f>IF(_tag_day_all!AC10="","",_tag_day_all!AC10)</f>
         <v/>
       </c>
-      <c r="AE13" s="24" t="str">
+      <c r="AG13" s="25" t="str">
         <f>IF(_tag_day_all!AD10="","",_tag_day_all!AD10)</f>
         <v/>
       </c>
-      <c r="AF13" s="24" t="str">
+      <c r="AH13" s="25" t="str">
         <f>IF(_tag_day_all!AE10="","",_tag_day_all!AE10)</f>
         <v/>
       </c>
-      <c r="AG13" s="24" t="str">
+      <c r="AI13" s="25" t="str">
         <f>IF(_tag_day_all!AF10="","",_tag_day_all!AF10)</f>
         <v/>
       </c>
-      <c r="AH13" s="24" t="str">
+      <c r="AJ13" s="25" t="str">
         <f>IF(_tag_day_all!AG10="","",_tag_day_all!AG10)</f>
         <v/>
       </c>
-      <c r="AI13" s="25" t="str">
+      <c r="AK13" s="26" t="str">
         <f>IF(_tag_day_all!AH10="","",_tag_day_all!AH10)</f>
         <v/>
       </c>
-      <c r="AJ13" s="25" t="str">
+      <c r="AL13" s="26" t="str">
         <f>IF(_tag_day_all!AI10="","",_tag_day_all!AI10)</f>
         <v/>
       </c>
-      <c r="AK13" s="25" t="str">
+      <c r="AM13" s="26" t="str">
         <f>IF(_tag_day_all!AJ10="","",_tag_day_all!AJ10)</f>
         <v/>
       </c>
-      <c r="AL13" s="25" t="str">
+      <c r="AN13" s="26" t="str">
         <f>IF(_tag_day_all!AK10="","",_tag_day_all!AK10)</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:38">
-      <c r="A14" s="20">
+    <row r="14" ht="13.5" spans="1:40">
+      <c r="A14" s="21">
         <v>10</v>
       </c>
-      <c r="B14" s="21" t="str">
+      <c r="B14" s="22" t="str">
         <f>IF(_tag_day_all!A11="","",_tag_day_all!A11)</f>
         <v/>
       </c>
-      <c r="C14" s="22" t="str">
+      <c r="C14" s="23" t="str">
         <f>IF(_tag_day_all!B11="","",_tag_day_all!B11)</f>
         <v/>
       </c>
-      <c r="D14" s="23" t="str">
+      <c r="D14" s="24" t="str">
         <f>IF(_tag_day_all!C11="","",_tag_day_all!C11)</f>
         <v/>
       </c>
-      <c r="E14" s="24" t="str">
+      <c r="E14" s="25" t="str">
         <f>IF(_tag_day_all!D11="","",_tag_day_all!D11)</f>
         <v/>
       </c>
-      <c r="F14" s="25" t="str">
+      <c r="F14" s="26" t="str">
         <f>IF(_tag_day_all!E11="","",_tag_day_all!E11)</f>
         <v/>
       </c>
-      <c r="G14" s="24" t="str">
+      <c r="G14" s="25" t="str">
         <f>IF(_tag_day_all!F11="","",_tag_day_all!F11)</f>
         <v/>
       </c>
-      <c r="H14" s="25" t="str">
+      <c r="H14" s="26" t="str">
         <f>IF(_tag_day_all!G11="","",_tag_day_all!G11)</f>
         <v/>
       </c>
-      <c r="I14" s="25" t="str">
+      <c r="I14" s="26" t="str">
         <f>IF(_tag_day_all!H11="","",_tag_day_all!H11)</f>
         <v/>
       </c>
-      <c r="J14" s="43" t="str">
+      <c r="J14" s="46" t="str">
         <f>IF(_tag_day_all!I11="","",_tag_day_all!I11)</f>
         <v/>
       </c>
-      <c r="K14" s="43" t="str">
+      <c r="K14" s="46" t="str">
         <f>IF(_tag_day_all!J11="","",_tag_day_all!J11)</f>
         <v/>
       </c>
-      <c r="L14" s="25" t="str">
+      <c r="L14" s="26" t="str">
         <f>IF(_tag_day_all!K11="","",_tag_day_all!K11)</f>
         <v/>
       </c>
-      <c r="M14" s="43" t="str">
+      <c r="M14" s="26" t="str">
         <f>IF(_tag_day_all!L11="","",_tag_day_all!L11)</f>
         <v/>
       </c>
-      <c r="N14" s="43" t="str">
+      <c r="N14" s="46" t="str">
         <f>IF(_tag_day_all!M11="","",_tag_day_all!M11)</f>
         <v/>
       </c>
-      <c r="O14" s="25" t="str">
+      <c r="O14" s="26" t="str">
         <f>IF(_tag_day_all!N11="","",_tag_day_all!N11*100)</f>
         <v/>
       </c>
-      <c r="P14" s="24" t="str">
+      <c r="P14" s="26" t="str">
+        <f>IF(_tag_day_all!AL11="","",_tag_day_all!AL11)</f>
+        <v/>
+      </c>
+      <c r="Q14" s="25" t="str">
+        <f>IF(_tag_day_all!AM11="","",_tag_day_all!AM11)</f>
+        <v/>
+      </c>
+      <c r="R14" s="25" t="str">
         <f>IF(_tag_day_all!O11="","",_tag_day_all!O11)</f>
         <v/>
       </c>
-      <c r="Q14" s="24" t="str">
+      <c r="S14" s="25" t="str">
         <f>IF(_tag_day_all!P11="","",_tag_day_all!P11)</f>
         <v/>
       </c>
-      <c r="R14" s="24" t="str">
+      <c r="T14" s="25" t="str">
         <f>IF(_tag_day_all!Q11="","",_tag_day_all!Q11)</f>
         <v/>
       </c>
-      <c r="S14" s="24" t="str">
+      <c r="U14" s="25" t="str">
         <f>IF(_tag_day_all!R11="","",_tag_day_all!R11)</f>
         <v/>
       </c>
-      <c r="T14" s="24" t="str">
+      <c r="V14" s="25" t="str">
         <f>IF(_tag_day_all!S11="","",_tag_day_all!S11)</f>
         <v/>
       </c>
-      <c r="U14" s="24" t="str">
+      <c r="W14" s="25" t="str">
         <f>IF(_tag_day_all!T11="","",_tag_day_all!T11)</f>
         <v/>
       </c>
-      <c r="V14" s="25" t="str">
+      <c r="X14" s="26" t="str">
         <f>IF(_tag_day_all!U11="","",_tag_day_all!U11)</f>
         <v/>
       </c>
-      <c r="W14" s="25" t="str">
+      <c r="Y14" s="26" t="str">
         <f>IF(_tag_day_all!V11="","",_tag_day_all!V11)</f>
         <v/>
       </c>
-      <c r="X14" s="25" t="str">
+      <c r="Z14" s="26" t="str">
         <f>IF(_tag_day_all!W11="","",_tag_day_all!W11)</f>
         <v/>
       </c>
-      <c r="Y14" s="25" t="str">
+      <c r="AA14" s="26" t="str">
         <f>IF(_tag_day_all!X11="","",_tag_day_all!X11)</f>
         <v/>
       </c>
-      <c r="Z14" s="43" t="str">
+      <c r="AB14" s="46" t="str">
         <f>IF(_tag_day_all!Y11="","",_tag_day_all!Y11)</f>
         <v/>
       </c>
-      <c r="AA14" s="24" t="str">
+      <c r="AC14" s="25" t="str">
         <f>IF(_tag_day_all!Z11="","",_tag_day_all!Z11)</f>
         <v/>
       </c>
-      <c r="AB14" s="24" t="str">
+      <c r="AD14" s="25" t="str">
         <f>IF(_tag_day_all!AA11="","",_tag_day_all!AA11)</f>
         <v/>
       </c>
-      <c r="AC14" s="25" t="str">
+      <c r="AE14" s="26" t="str">
         <f>IF(_tag_day_all!AB11="","",_tag_day_all!AB11)</f>
         <v/>
       </c>
-      <c r="AD14" s="24" t="str">
+      <c r="AF14" s="25" t="str">
         <f>IF(_tag_day_all!AC11="","",_tag_day_all!AC11)</f>
         <v/>
       </c>
-      <c r="AE14" s="24" t="str">
+      <c r="AG14" s="25" t="str">
         <f>IF(_tag_day_all!AD11="","",_tag_day_all!AD11)</f>
         <v/>
       </c>
-      <c r="AF14" s="24" t="str">
+      <c r="AH14" s="25" t="str">
         <f>IF(_tag_day_all!AE11="","",_tag_day_all!AE11)</f>
         <v/>
       </c>
-      <c r="AG14" s="24" t="str">
+      <c r="AI14" s="25" t="str">
         <f>IF(_tag_day_all!AF11="","",_tag_day_all!AF11)</f>
         <v/>
       </c>
-      <c r="AH14" s="24" t="str">
+      <c r="AJ14" s="25" t="str">
         <f>IF(_tag_day_all!AG11="","",_tag_day_all!AG11)</f>
         <v/>
       </c>
-      <c r="AI14" s="25" t="str">
+      <c r="AK14" s="26" t="str">
         <f>IF(_tag_day_all!AH11="","",_tag_day_all!AH11)</f>
         <v/>
       </c>
-      <c r="AJ14" s="25" t="str">
+      <c r="AL14" s="26" t="str">
         <f>IF(_tag_day_all!AI11="","",_tag_day_all!AI11)</f>
         <v/>
       </c>
-      <c r="AK14" s="25" t="str">
+      <c r="AM14" s="26" t="str">
         <f>IF(_tag_day_all!AJ11="","",_tag_day_all!AJ11)</f>
         <v/>
       </c>
-      <c r="AL14" s="25" t="str">
+      <c r="AN14" s="26" t="str">
         <f>IF(_tag_day_all!AK11="","",_tag_day_all!AK11)</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:38">
-      <c r="A15" s="20">
+    <row r="15" ht="13.5" spans="1:40">
+      <c r="A15" s="21">
         <v>11</v>
       </c>
-      <c r="B15" s="21" t="str">
+      <c r="B15" s="22" t="str">
         <f>IF(_tag_day_all!A12="","",_tag_day_all!A12)</f>
         <v/>
       </c>
-      <c r="C15" s="22" t="str">
+      <c r="C15" s="23" t="str">
         <f>IF(_tag_day_all!B12="","",_tag_day_all!B12)</f>
         <v/>
       </c>
-      <c r="D15" s="23" t="str">
+      <c r="D15" s="24" t="str">
         <f>IF(_tag_day_all!C12="","",_tag_day_all!C12)</f>
         <v/>
       </c>
-      <c r="E15" s="24" t="str">
+      <c r="E15" s="25" t="str">
         <f>IF(_tag_day_all!D12="","",_tag_day_all!D12)</f>
         <v/>
       </c>
-      <c r="F15" s="25" t="str">
+      <c r="F15" s="26" t="str">
         <f>IF(_tag_day_all!E12="","",_tag_day_all!E12)</f>
         <v/>
       </c>
-      <c r="G15" s="24" t="str">
+      <c r="G15" s="25" t="str">
         <f>IF(_tag_day_all!F12="","",_tag_day_all!F12)</f>
         <v/>
       </c>
-      <c r="H15" s="25" t="str">
+      <c r="H15" s="26" t="str">
         <f>IF(_tag_day_all!G12="","",_tag_day_all!G12)</f>
         <v/>
       </c>
-      <c r="I15" s="25" t="str">
+      <c r="I15" s="26" t="str">
         <f>IF(_tag_day_all!H12="","",_tag_day_all!H12)</f>
         <v/>
       </c>
-      <c r="J15" s="43" t="str">
+      <c r="J15" s="46" t="str">
         <f>IF(_tag_day_all!I12="","",_tag_day_all!I12)</f>
         <v/>
       </c>
-      <c r="K15" s="43" t="str">
+      <c r="K15" s="46" t="str">
         <f>IF(_tag_day_all!J12="","",_tag_day_all!J12)</f>
         <v/>
       </c>
-      <c r="L15" s="25" t="str">
+      <c r="L15" s="26" t="str">
         <f>IF(_tag_day_all!K12="","",_tag_day_all!K12)</f>
         <v/>
       </c>
-      <c r="M15" s="43" t="str">
+      <c r="M15" s="26" t="str">
         <f>IF(_tag_day_all!L12="","",_tag_day_all!L12)</f>
         <v/>
       </c>
-      <c r="N15" s="43" t="str">
+      <c r="N15" s="46" t="str">
         <f>IF(_tag_day_all!M12="","",_tag_day_all!M12)</f>
         <v/>
       </c>
-      <c r="O15" s="25" t="str">
+      <c r="O15" s="26" t="str">
         <f>IF(_tag_day_all!N12="","",_tag_day_all!N12*100)</f>
         <v/>
       </c>
-      <c r="P15" s="24" t="str">
+      <c r="P15" s="26" t="str">
+        <f>IF(_tag_day_all!AL12="","",_tag_day_all!AL12)</f>
+        <v/>
+      </c>
+      <c r="Q15" s="25" t="str">
+        <f>IF(_tag_day_all!AM12="","",_tag_day_all!AM12)</f>
+        <v/>
+      </c>
+      <c r="R15" s="25" t="str">
         <f>IF(_tag_day_all!O12="","",_tag_day_all!O12)</f>
         <v/>
       </c>
-      <c r="Q15" s="24" t="str">
+      <c r="S15" s="25" t="str">
         <f>IF(_tag_day_all!P12="","",_tag_day_all!P12)</f>
         <v/>
       </c>
-      <c r="R15" s="24" t="str">
+      <c r="T15" s="25" t="str">
         <f>IF(_tag_day_all!Q12="","",_tag_day_all!Q12)</f>
         <v/>
       </c>
-      <c r="S15" s="24" t="str">
+      <c r="U15" s="25" t="str">
         <f>IF(_tag_day_all!R12="","",_tag_day_all!R12)</f>
         <v/>
       </c>
-      <c r="T15" s="24" t="str">
+      <c r="V15" s="25" t="str">
         <f>IF(_tag_day_all!S12="","",_tag_day_all!S12)</f>
         <v/>
       </c>
-      <c r="U15" s="24" t="str">
+      <c r="W15" s="25" t="str">
         <f>IF(_tag_day_all!T12="","",_tag_day_all!T12)</f>
         <v/>
       </c>
-      <c r="V15" s="25" t="str">
+      <c r="X15" s="26" t="str">
         <f>IF(_tag_day_all!U12="","",_tag_day_all!U12)</f>
         <v/>
       </c>
-      <c r="W15" s="25" t="str">
+      <c r="Y15" s="26" t="str">
         <f>IF(_tag_day_all!V12="","",_tag_day_all!V12)</f>
         <v/>
       </c>
-      <c r="X15" s="25" t="str">
+      <c r="Z15" s="26" t="str">
         <f>IF(_tag_day_all!W12="","",_tag_day_all!W12)</f>
         <v/>
       </c>
-      <c r="Y15" s="25" t="str">
+      <c r="AA15" s="26" t="str">
         <f>IF(_tag_day_all!X12="","",_tag_day_all!X12)</f>
         <v/>
       </c>
-      <c r="Z15" s="43" t="str">
+      <c r="AB15" s="46" t="str">
         <f>IF(_tag_day_all!Y12="","",_tag_day_all!Y12)</f>
         <v/>
       </c>
-      <c r="AA15" s="24" t="str">
+      <c r="AC15" s="25" t="str">
         <f>IF(_tag_day_all!Z12="","",_tag_day_all!Z12)</f>
         <v/>
       </c>
-      <c r="AB15" s="24" t="str">
+      <c r="AD15" s="25" t="str">
         <f>IF(_tag_day_all!AA12="","",_tag_day_all!AA12)</f>
         <v/>
       </c>
-      <c r="AC15" s="25" t="str">
+      <c r="AE15" s="26" t="str">
         <f>IF(_tag_day_all!AB12="","",_tag_day_all!AB12)</f>
         <v/>
       </c>
-      <c r="AD15" s="24" t="str">
+      <c r="AF15" s="25" t="str">
         <f>IF(_tag_day_all!AC12="","",_tag_day_all!AC12)</f>
         <v/>
       </c>
-      <c r="AE15" s="24" t="str">
+      <c r="AG15" s="25" t="str">
         <f>IF(_tag_day_all!AD12="","",_tag_day_all!AD12)</f>
         <v/>
       </c>
-      <c r="AF15" s="24" t="str">
+      <c r="AH15" s="25" t="str">
         <f>IF(_tag_day_all!AE12="","",_tag_day_all!AE12)</f>
         <v/>
       </c>
-      <c r="AG15" s="24" t="str">
+      <c r="AI15" s="25" t="str">
         <f>IF(_tag_day_all!AF12="","",_tag_day_all!AF12)</f>
         <v/>
       </c>
-      <c r="AH15" s="24" t="str">
+      <c r="AJ15" s="25" t="str">
         <f>IF(_tag_day_all!AG12="","",_tag_day_all!AG12)</f>
         <v/>
       </c>
-      <c r="AI15" s="25" t="str">
+      <c r="AK15" s="26" t="str">
         <f>IF(_tag_day_all!AH12="","",_tag_day_all!AH12)</f>
         <v/>
       </c>
-      <c r="AJ15" s="25" t="str">
+      <c r="AL15" s="26" t="str">
         <f>IF(_tag_day_all!AI12="","",_tag_day_all!AI12)</f>
         <v/>
       </c>
-      <c r="AK15" s="25" t="str">
+      <c r="AM15" s="26" t="str">
         <f>IF(_tag_day_all!AJ12="","",_tag_day_all!AJ12)</f>
         <v/>
       </c>
-      <c r="AL15" s="25" t="str">
+      <c r="AN15" s="26" t="str">
         <f>IF(_tag_day_all!AK12="","",_tag_day_all!AK12)</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:38">
-      <c r="A16" s="20">
+    <row r="16" ht="13.5" spans="1:40">
+      <c r="A16" s="21">
         <v>12</v>
       </c>
-      <c r="B16" s="21" t="str">
+      <c r="B16" s="22" t="str">
         <f>IF(_tag_day_all!A13="","",_tag_day_all!A13)</f>
         <v/>
       </c>
-      <c r="C16" s="22" t="str">
+      <c r="C16" s="23" t="str">
         <f>IF(_tag_day_all!B13="","",_tag_day_all!B13)</f>
         <v/>
       </c>
-      <c r="D16" s="23" t="str">
+      <c r="D16" s="24" t="str">
         <f>IF(_tag_day_all!C13="","",_tag_day_all!C13)</f>
         <v/>
       </c>
-      <c r="E16" s="24" t="str">
+      <c r="E16" s="25" t="str">
         <f>IF(_tag_day_all!D13="","",_tag_day_all!D13)</f>
         <v/>
       </c>
-      <c r="F16" s="25" t="str">
+      <c r="F16" s="26" t="str">
         <f>IF(_tag_day_all!E13="","",_tag_day_all!E13)</f>
         <v/>
       </c>
-      <c r="G16" s="24" t="str">
+      <c r="G16" s="25" t="str">
         <f>IF(_tag_day_all!F13="","",_tag_day_all!F13)</f>
         <v/>
       </c>
-      <c r="H16" s="25" t="str">
+      <c r="H16" s="26" t="str">
         <f>IF(_tag_day_all!G13="","",_tag_day_all!G13)</f>
         <v/>
       </c>
-      <c r="I16" s="25" t="str">
+      <c r="I16" s="26" t="str">
         <f>IF(_tag_day_all!H13="","",_tag_day_all!H13)</f>
         <v/>
       </c>
-      <c r="J16" s="43" t="str">
+      <c r="J16" s="46" t="str">
         <f>IF(_tag_day_all!I13="","",_tag_day_all!I13)</f>
         <v/>
       </c>
-      <c r="K16" s="43" t="str">
+      <c r="K16" s="46" t="str">
         <f>IF(_tag_day_all!J13="","",_tag_day_all!J13)</f>
         <v/>
       </c>
-      <c r="L16" s="25" t="str">
+      <c r="L16" s="26" t="str">
         <f>IF(_tag_day_all!K13="","",_tag_day_all!K13)</f>
         <v/>
       </c>
-      <c r="M16" s="43" t="str">
+      <c r="M16" s="26" t="str">
         <f>IF(_tag_day_all!L13="","",_tag_day_all!L13)</f>
         <v/>
       </c>
-      <c r="N16" s="43" t="str">
+      <c r="N16" s="46" t="str">
         <f>IF(_tag_day_all!M13="","",_tag_day_all!M13)</f>
         <v/>
       </c>
-      <c r="O16" s="25" t="str">
+      <c r="O16" s="26" t="str">
         <f>IF(_tag_day_all!N13="","",_tag_day_all!N13*100)</f>
         <v/>
       </c>
-      <c r="P16" s="24" t="str">
+      <c r="P16" s="26" t="str">
+        <f>IF(_tag_day_all!AL13="","",_tag_day_all!AL13)</f>
+        <v/>
+      </c>
+      <c r="Q16" s="25" t="str">
+        <f>IF(_tag_day_all!AM13="","",_tag_day_all!AM13)</f>
+        <v/>
+      </c>
+      <c r="R16" s="25" t="str">
         <f>IF(_tag_day_all!O13="","",_tag_day_all!O13)</f>
         <v/>
       </c>
-      <c r="Q16" s="24" t="str">
+      <c r="S16" s="25" t="str">
         <f>IF(_tag_day_all!P13="","",_tag_day_all!P13)</f>
         <v/>
       </c>
-      <c r="R16" s="24" t="str">
+      <c r="T16" s="25" t="str">
         <f>IF(_tag_day_all!Q13="","",_tag_day_all!Q13)</f>
         <v/>
       </c>
-      <c r="S16" s="24" t="str">
+      <c r="U16" s="25" t="str">
         <f>IF(_tag_day_all!R13="","",_tag_day_all!R13)</f>
         <v/>
       </c>
-      <c r="T16" s="24" t="str">
+      <c r="V16" s="25" t="str">
         <f>IF(_tag_day_all!S13="","",_tag_day_all!S13)</f>
         <v/>
       </c>
-      <c r="U16" s="24" t="str">
+      <c r="W16" s="25" t="str">
         <f>IF(_tag_day_all!T13="","",_tag_day_all!T13)</f>
         <v/>
       </c>
-      <c r="V16" s="25" t="str">
+      <c r="X16" s="26" t="str">
         <f>IF(_tag_day_all!U13="","",_tag_day_all!U13)</f>
         <v/>
       </c>
-      <c r="W16" s="25" t="str">
+      <c r="Y16" s="26" t="str">
         <f>IF(_tag_day_all!V13="","",_tag_day_all!V13)</f>
         <v/>
       </c>
-      <c r="X16" s="25" t="str">
+      <c r="Z16" s="26" t="str">
         <f>IF(_tag_day_all!W13="","",_tag_day_all!W13)</f>
         <v/>
       </c>
-      <c r="Y16" s="25" t="str">
+      <c r="AA16" s="26" t="str">
         <f>IF(_tag_day_all!X13="","",_tag_day_all!X13)</f>
         <v/>
       </c>
-      <c r="Z16" s="43" t="str">
+      <c r="AB16" s="46" t="str">
         <f>IF(_tag_day_all!Y13="","",_tag_day_all!Y13)</f>
         <v/>
       </c>
-      <c r="AA16" s="24" t="str">
+      <c r="AC16" s="25" t="str">
         <f>IF(_tag_day_all!Z13="","",_tag_day_all!Z13)</f>
         <v/>
       </c>
-      <c r="AB16" s="24" t="str">
+      <c r="AD16" s="25" t="str">
         <f>IF(_tag_day_all!AA13="","",_tag_day_all!AA13)</f>
         <v/>
       </c>
-      <c r="AC16" s="25" t="str">
+      <c r="AE16" s="26" t="str">
         <f>IF(_tag_day_all!AB13="","",_tag_day_all!AB13)</f>
         <v/>
       </c>
-      <c r="AD16" s="24" t="str">
+      <c r="AF16" s="25" t="str">
         <f>IF(_tag_day_all!AC13="","",_tag_day_all!AC13)</f>
         <v/>
       </c>
-      <c r="AE16" s="24" t="str">
+      <c r="AG16" s="25" t="str">
         <f>IF(_tag_day_all!AD13="","",_tag_day_all!AD13)</f>
         <v/>
       </c>
-      <c r="AF16" s="24" t="str">
+      <c r="AH16" s="25" t="str">
         <f>IF(_tag_day_all!AE13="","",_tag_day_all!AE13)</f>
         <v/>
       </c>
-      <c r="AG16" s="24" t="str">
+      <c r="AI16" s="25" t="str">
         <f>IF(_tag_day_all!AF13="","",_tag_day_all!AF13)</f>
         <v/>
       </c>
-      <c r="AH16" s="24" t="str">
+      <c r="AJ16" s="25" t="str">
         <f>IF(_tag_day_all!AG13="","",_tag_day_all!AG13)</f>
         <v/>
       </c>
-      <c r="AI16" s="25" t="str">
+      <c r="AK16" s="26" t="str">
         <f>IF(_tag_day_all!AH13="","",_tag_day_all!AH13)</f>
         <v/>
       </c>
-      <c r="AJ16" s="25" t="str">
+      <c r="AL16" s="26" t="str">
         <f>IF(_tag_day_all!AI13="","",_tag_day_all!AI13)</f>
         <v/>
       </c>
-      <c r="AK16" s="25" t="str">
+      <c r="AM16" s="26" t="str">
         <f>IF(_tag_day_all!AJ13="","",_tag_day_all!AJ13)</f>
         <v/>
       </c>
-      <c r="AL16" s="25" t="str">
+      <c r="AN16" s="26" t="str">
         <f>IF(_tag_day_all!AK13="","",_tag_day_all!AK13)</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:38">
-      <c r="A17" s="20">
+    <row r="17" ht="13.5" spans="1:40">
+      <c r="A17" s="21">
         <v>13</v>
       </c>
-      <c r="B17" s="21" t="str">
+      <c r="B17" s="22" t="str">
         <f>IF(_tag_day_all!A14="","",_tag_day_all!A14)</f>
         <v/>
       </c>
-      <c r="C17" s="22" t="str">
+      <c r="C17" s="23" t="str">
         <f>IF(_tag_day_all!B14="","",_tag_day_all!B14)</f>
         <v/>
       </c>
-      <c r="D17" s="23" t="str">
+      <c r="D17" s="24" t="str">
         <f>IF(_tag_day_all!C14="","",_tag_day_all!C14)</f>
         <v/>
       </c>
-      <c r="E17" s="24" t="str">
+      <c r="E17" s="25" t="str">
         <f>IF(_tag_day_all!D14="","",_tag_day_all!D14)</f>
         <v/>
       </c>
-      <c r="F17" s="25" t="str">
+      <c r="F17" s="26" t="str">
         <f>IF(_tag_day_all!E14="","",_tag_day_all!E14)</f>
         <v/>
       </c>
-      <c r="G17" s="24" t="str">
+      <c r="G17" s="25" t="str">
         <f>IF(_tag_day_all!F14="","",_tag_day_all!F14)</f>
         <v/>
       </c>
-      <c r="H17" s="25" t="str">
+      <c r="H17" s="26" t="str">
         <f>IF(_tag_day_all!G14="","",_tag_day_all!G14)</f>
         <v/>
       </c>
-      <c r="I17" s="25" t="str">
+      <c r="I17" s="26" t="str">
         <f>IF(_tag_day_all!H14="","",_tag_day_all!H14)</f>
         <v/>
       </c>
-      <c r="J17" s="43" t="str">
+      <c r="J17" s="46" t="str">
         <f>IF(_tag_day_all!I14="","",_tag_day_all!I14)</f>
         <v/>
       </c>
-      <c r="K17" s="43" t="str">
+      <c r="K17" s="46" t="str">
         <f>IF(_tag_day_all!J14="","",_tag_day_all!J14)</f>
         <v/>
       </c>
-      <c r="L17" s="25" t="str">
+      <c r="L17" s="26" t="str">
         <f>IF(_tag_day_all!K14="","",_tag_day_all!K14)</f>
         <v/>
       </c>
-      <c r="M17" s="43" t="str">
+      <c r="M17" s="26" t="str">
         <f>IF(_tag_day_all!L14="","",_tag_day_all!L14)</f>
         <v/>
       </c>
-      <c r="N17" s="43" t="str">
+      <c r="N17" s="46" t="str">
         <f>IF(_tag_day_all!M14="","",_tag_day_all!M14)</f>
         <v/>
       </c>
-      <c r="O17" s="25" t="str">
+      <c r="O17" s="26" t="str">
         <f>IF(_tag_day_all!N14="","",_tag_day_all!N14*100)</f>
         <v/>
       </c>
-      <c r="P17" s="24" t="str">
+      <c r="P17" s="26" t="str">
+        <f>IF(_tag_day_all!AL14="","",_tag_day_all!AL14)</f>
+        <v/>
+      </c>
+      <c r="Q17" s="25" t="str">
+        <f>IF(_tag_day_all!AM14="","",_tag_day_all!AM14)</f>
+        <v/>
+      </c>
+      <c r="R17" s="25" t="str">
         <f>IF(_tag_day_all!O14="","",_tag_day_all!O14)</f>
         <v/>
       </c>
-      <c r="Q17" s="24" t="str">
+      <c r="S17" s="25" t="str">
         <f>IF(_tag_day_all!P14="","",_tag_day_all!P14)</f>
         <v/>
       </c>
-      <c r="R17" s="24" t="str">
+      <c r="T17" s="25" t="str">
         <f>IF(_tag_day_all!Q14="","",_tag_day_all!Q14)</f>
         <v/>
       </c>
-      <c r="S17" s="24" t="str">
+      <c r="U17" s="25" t="str">
         <f>IF(_tag_day_all!R14="","",_tag_day_all!R14)</f>
         <v/>
       </c>
-      <c r="T17" s="24" t="str">
+      <c r="V17" s="25" t="str">
         <f>IF(_tag_day_all!S14="","",_tag_day_all!S14)</f>
         <v/>
       </c>
-      <c r="U17" s="24" t="str">
+      <c r="W17" s="25" t="str">
         <f>IF(_tag_day_all!T14="","",_tag_day_all!T14)</f>
         <v/>
       </c>
-      <c r="V17" s="25" t="str">
+      <c r="X17" s="26" t="str">
         <f>IF(_tag_day_all!U14="","",_tag_day_all!U14)</f>
         <v/>
       </c>
-      <c r="W17" s="25" t="str">
+      <c r="Y17" s="26" t="str">
         <f>IF(_tag_day_all!V14="","",_tag_day_all!V14)</f>
         <v/>
       </c>
-      <c r="X17" s="25" t="str">
+      <c r="Z17" s="26" t="str">
         <f>IF(_tag_day_all!W14="","",_tag_day_all!W14)</f>
         <v/>
       </c>
-      <c r="Y17" s="25" t="str">
+      <c r="AA17" s="26" t="str">
         <f>IF(_tag_day_all!X14="","",_tag_day_all!X14)</f>
         <v/>
       </c>
-      <c r="Z17" s="43" t="str">
+      <c r="AB17" s="46" t="str">
         <f>IF(_tag_day_all!Y14="","",_tag_day_all!Y14)</f>
         <v/>
       </c>
-      <c r="AA17" s="24" t="str">
+      <c r="AC17" s="25" t="str">
         <f>IF(_tag_day_all!Z14="","",_tag_day_all!Z14)</f>
         <v/>
       </c>
-      <c r="AB17" s="24" t="str">
+      <c r="AD17" s="25" t="str">
         <f>IF(_tag_day_all!AA14="","",_tag_day_all!AA14)</f>
         <v/>
       </c>
-      <c r="AC17" s="25" t="str">
+      <c r="AE17" s="26" t="str">
         <f>IF(_tag_day_all!AB14="","",_tag_day_all!AB14)</f>
         <v/>
       </c>
-      <c r="AD17" s="24" t="str">
+      <c r="AF17" s="25" t="str">
         <f>IF(_tag_day_all!AC14="","",_tag_day_all!AC14)</f>
         <v/>
       </c>
-      <c r="AE17" s="24" t="str">
+      <c r="AG17" s="25" t="str">
         <f>IF(_tag_day_all!AD14="","",_tag_day_all!AD14)</f>
         <v/>
       </c>
-      <c r="AF17" s="24" t="str">
+      <c r="AH17" s="25" t="str">
         <f>IF(_tag_day_all!AE14="","",_tag_day_all!AE14)</f>
         <v/>
       </c>
-      <c r="AG17" s="24" t="str">
+      <c r="AI17" s="25" t="str">
         <f>IF(_tag_day_all!AF14="","",_tag_day_all!AF14)</f>
         <v/>
       </c>
-      <c r="AH17" s="24" t="str">
+      <c r="AJ17" s="25" t="str">
         <f>IF(_tag_day_all!AG14="","",_tag_day_all!AG14)</f>
         <v/>
       </c>
-      <c r="AI17" s="25" t="str">
+      <c r="AK17" s="26" t="str">
         <f>IF(_tag_day_all!AH14="","",_tag_day_all!AH14)</f>
         <v/>
       </c>
-      <c r="AJ17" s="25" t="str">
+      <c r="AL17" s="26" t="str">
         <f>IF(_tag_day_all!AI14="","",_tag_day_all!AI14)</f>
         <v/>
       </c>
-      <c r="AK17" s="25" t="str">
+      <c r="AM17" s="26" t="str">
         <f>IF(_tag_day_all!AJ14="","",_tag_day_all!AJ14)</f>
         <v/>
       </c>
-      <c r="AL17" s="25" t="str">
+      <c r="AN17" s="26" t="str">
         <f>IF(_tag_day_all!AK14="","",_tag_day_all!AK14)</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:38">
-      <c r="A18" s="20">
+    <row r="18" ht="13.5" spans="1:40">
+      <c r="A18" s="21">
         <v>14</v>
       </c>
-      <c r="B18" s="21" t="str">
+      <c r="B18" s="22" t="str">
         <f>IF(_tag_day_all!A15="","",_tag_day_all!A15)</f>
         <v/>
       </c>
-      <c r="C18" s="22" t="str">
+      <c r="C18" s="23" t="str">
         <f>IF(_tag_day_all!B15="","",_tag_day_all!B15)</f>
         <v/>
       </c>
-      <c r="D18" s="23" t="str">
+      <c r="D18" s="24" t="str">
         <f>IF(_tag_day_all!C15="","",_tag_day_all!C15)</f>
         <v/>
       </c>
-      <c r="E18" s="24" t="str">
+      <c r="E18" s="25" t="str">
         <f>IF(_tag_day_all!D15="","",_tag_day_all!D15)</f>
         <v/>
       </c>
-      <c r="F18" s="25" t="str">
+      <c r="F18" s="26" t="str">
         <f>IF(_tag_day_all!E15="","",_tag_day_all!E15)</f>
         <v/>
       </c>
-      <c r="G18" s="24" t="str">
+      <c r="G18" s="25" t="str">
         <f>IF(_tag_day_all!F15="","",_tag_day_all!F15)</f>
         <v/>
       </c>
-      <c r="H18" s="25" t="str">
+      <c r="H18" s="26" t="str">
         <f>IF(_tag_day_all!G15="","",_tag_day_all!G15)</f>
         <v/>
       </c>
-      <c r="I18" s="25" t="str">
+      <c r="I18" s="26" t="str">
         <f>IF(_tag_day_all!H15="","",_tag_day_all!H15)</f>
         <v/>
       </c>
-      <c r="J18" s="43" t="str">
+      <c r="J18" s="46" t="str">
         <f>IF(_tag_day_all!I15="","",_tag_day_all!I15)</f>
         <v/>
       </c>
-      <c r="K18" s="43" t="str">
+      <c r="K18" s="46" t="str">
         <f>IF(_tag_day_all!J15="","",_tag_day_all!J15)</f>
         <v/>
       </c>
-      <c r="L18" s="25" t="str">
+      <c r="L18" s="26" t="str">
         <f>IF(_tag_day_all!K15="","",_tag_day_all!K15)</f>
         <v/>
       </c>
-      <c r="M18" s="43" t="str">
+      <c r="M18" s="26" t="str">
         <f>IF(_tag_day_all!L15="","",_tag_day_all!L15)</f>
         <v/>
       </c>
-      <c r="N18" s="43" t="str">
+      <c r="N18" s="46" t="str">
         <f>IF(_tag_day_all!M15="","",_tag_day_all!M15)</f>
         <v/>
       </c>
-      <c r="O18" s="25" t="str">
+      <c r="O18" s="26" t="str">
         <f>IF(_tag_day_all!N15="","",_tag_day_all!N15*100)</f>
         <v/>
       </c>
-      <c r="P18" s="24" t="str">
+      <c r="P18" s="26" t="str">
+        <f>IF(_tag_day_all!AL15="","",_tag_day_all!AL15)</f>
+        <v/>
+      </c>
+      <c r="Q18" s="25" t="str">
+        <f>IF(_tag_day_all!AM15="","",_tag_day_all!AM15)</f>
+        <v/>
+      </c>
+      <c r="R18" s="25" t="str">
         <f>IF(_tag_day_all!O15="","",_tag_day_all!O15)</f>
         <v/>
       </c>
-      <c r="Q18" s="24" t="str">
+      <c r="S18" s="25" t="str">
         <f>IF(_tag_day_all!P15="","",_tag_day_all!P15)</f>
         <v/>
       </c>
-      <c r="R18" s="24" t="str">
+      <c r="T18" s="25" t="str">
         <f>IF(_tag_day_all!Q15="","",_tag_day_all!Q15)</f>
         <v/>
       </c>
-      <c r="S18" s="24" t="str">
+      <c r="U18" s="25" t="str">
         <f>IF(_tag_day_all!R15="","",_tag_day_all!R15)</f>
         <v/>
       </c>
-      <c r="T18" s="24" t="str">
+      <c r="V18" s="25" t="str">
         <f>IF(_tag_day_all!S15="","",_tag_day_all!S15)</f>
         <v/>
       </c>
-      <c r="U18" s="24" t="str">
+      <c r="W18" s="25" t="str">
         <f>IF(_tag_day_all!T15="","",_tag_day_all!T15)</f>
         <v/>
       </c>
-      <c r="V18" s="25" t="str">
+      <c r="X18" s="26" t="str">
         <f>IF(_tag_day_all!U15="","",_tag_day_all!U15)</f>
         <v/>
       </c>
-      <c r="W18" s="25" t="str">
+      <c r="Y18" s="26" t="str">
         <f>IF(_tag_day_all!V15="","",_tag_day_all!V15)</f>
         <v/>
       </c>
-      <c r="X18" s="25" t="str">
+      <c r="Z18" s="26" t="str">
         <f>IF(_tag_day_all!W15="","",_tag_day_all!W15)</f>
         <v/>
       </c>
-      <c r="Y18" s="25" t="str">
+      <c r="AA18" s="26" t="str">
         <f>IF(_tag_day_all!X15="","",_tag_day_all!X15)</f>
         <v/>
       </c>
-      <c r="Z18" s="43" t="str">
+      <c r="AB18" s="46" t="str">
         <f>IF(_tag_day_all!Y15="","",_tag_day_all!Y15)</f>
         <v/>
       </c>
-      <c r="AA18" s="24" t="str">
+      <c r="AC18" s="25" t="str">
         <f>IF(_tag_day_all!Z15="","",_tag_day_all!Z15)</f>
         <v/>
       </c>
-      <c r="AB18" s="24" t="str">
+      <c r="AD18" s="25" t="str">
         <f>IF(_tag_day_all!AA15="","",_tag_day_all!AA15)</f>
         <v/>
       </c>
-      <c r="AC18" s="25" t="str">
+      <c r="AE18" s="26" t="str">
         <f>IF(_tag_day_all!AB15="","",_tag_day_all!AB15)</f>
         <v/>
       </c>
-      <c r="AD18" s="24" t="str">
+      <c r="AF18" s="25" t="str">
         <f>IF(_tag_day_all!AC15="","",_tag_day_all!AC15)</f>
         <v/>
       </c>
-      <c r="AE18" s="24" t="str">
+      <c r="AG18" s="25" t="str">
         <f>IF(_tag_day_all!AD15="","",_tag_day_all!AD15)</f>
         <v/>
       </c>
-      <c r="AF18" s="24" t="str">
+      <c r="AH18" s="25" t="str">
         <f>IF(_tag_day_all!AE15="","",_tag_day_all!AE15)</f>
         <v/>
       </c>
-      <c r="AG18" s="24" t="str">
+      <c r="AI18" s="25" t="str">
         <f>IF(_tag_day_all!AF15="","",_tag_day_all!AF15)</f>
         <v/>
       </c>
-      <c r="AH18" s="24" t="str">
+      <c r="AJ18" s="25" t="str">
         <f>IF(_tag_day_all!AG15="","",_tag_day_all!AG15)</f>
         <v/>
       </c>
-      <c r="AI18" s="25" t="str">
+      <c r="AK18" s="26" t="str">
         <f>IF(_tag_day_all!AH15="","",_tag_day_all!AH15)</f>
         <v/>
       </c>
-      <c r="AJ18" s="25" t="str">
+      <c r="AL18" s="26" t="str">
         <f>IF(_tag_day_all!AI15="","",_tag_day_all!AI15)</f>
         <v/>
       </c>
-      <c r="AK18" s="25" t="str">
+      <c r="AM18" s="26" t="str">
         <f>IF(_tag_day_all!AJ15="","",_tag_day_all!AJ15)</f>
         <v/>
       </c>
-      <c r="AL18" s="25" t="str">
+      <c r="AN18" s="26" t="str">
         <f>IF(_tag_day_all!AK15="","",_tag_day_all!AK15)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:38">
-      <c r="A19" s="20">
+    <row r="19" ht="13.5" spans="1:40">
+      <c r="A19" s="21">
         <v>15</v>
       </c>
-      <c r="B19" s="21" t="str">
+      <c r="B19" s="22" t="str">
         <f>IF(_tag_day_all!A16="","",_tag_day_all!A16)</f>
         <v/>
       </c>
-      <c r="C19" s="22" t="str">
+      <c r="C19" s="23" t="str">
         <f>IF(_tag_day_all!B16="","",_tag_day_all!B16)</f>
         <v/>
       </c>
-      <c r="D19" s="23" t="str">
+      <c r="D19" s="24" t="str">
         <f>IF(_tag_day_all!C16="","",_tag_day_all!C16)</f>
         <v/>
       </c>
-      <c r="E19" s="24" t="str">
+      <c r="E19" s="25" t="str">
         <f>IF(_tag_day_all!D16="","",_tag_day_all!D16)</f>
         <v/>
       </c>
-      <c r="F19" s="25" t="str">
+      <c r="F19" s="26" t="str">
         <f>IF(_tag_day_all!E16="","",_tag_day_all!E16)</f>
         <v/>
       </c>
-      <c r="G19" s="24" t="str">
+      <c r="G19" s="25" t="str">
         <f>IF(_tag_day_all!F16="","",_tag_day_all!F16)</f>
         <v/>
       </c>
-      <c r="H19" s="25" t="str">
+      <c r="H19" s="26" t="str">
         <f>IF(_tag_day_all!G16="","",_tag_day_all!G16)</f>
         <v/>
       </c>
-      <c r="I19" s="25" t="str">
+      <c r="I19" s="26" t="str">
         <f>IF(_tag_day_all!H16="","",_tag_day_all!H16)</f>
         <v/>
       </c>
-      <c r="J19" s="43" t="str">
+      <c r="J19" s="46" t="str">
         <f>IF(_tag_day_all!I16="","",_tag_day_all!I16)</f>
         <v/>
       </c>
-      <c r="K19" s="43" t="str">
+      <c r="K19" s="46" t="str">
         <f>IF(_tag_day_all!J16="","",_tag_day_all!J16)</f>
         <v/>
       </c>
-      <c r="L19" s="25" t="str">
+      <c r="L19" s="26" t="str">
         <f>IF(_tag_day_all!K16="","",_tag_day_all!K16)</f>
         <v/>
       </c>
-      <c r="M19" s="43" t="str">
+      <c r="M19" s="26" t="str">
         <f>IF(_tag_day_all!L16="","",_tag_day_all!L16)</f>
         <v/>
       </c>
-      <c r="N19" s="43" t="str">
+      <c r="N19" s="46" t="str">
         <f>IF(_tag_day_all!M16="","",_tag_day_all!M16)</f>
         <v/>
       </c>
-      <c r="O19" s="25" t="str">
+      <c r="O19" s="26" t="str">
         <f>IF(_tag_day_all!N16="","",_tag_day_all!N16*100)</f>
         <v/>
       </c>
-      <c r="P19" s="24" t="str">
+      <c r="P19" s="26" t="str">
+        <f>IF(_tag_day_all!AL16="","",_tag_day_all!AL16)</f>
+        <v/>
+      </c>
+      <c r="Q19" s="25" t="str">
+        <f>IF(_tag_day_all!AM16="","",_tag_day_all!AM16)</f>
+        <v/>
+      </c>
+      <c r="R19" s="25" t="str">
         <f>IF(_tag_day_all!O16="","",_tag_day_all!O16)</f>
         <v/>
       </c>
-      <c r="Q19" s="24" t="str">
+      <c r="S19" s="25" t="str">
         <f>IF(_tag_day_all!P16="","",_tag_day_all!P16)</f>
         <v/>
       </c>
-      <c r="R19" s="24" t="str">
+      <c r="T19" s="25" t="str">
         <f>IF(_tag_day_all!Q16="","",_tag_day_all!Q16)</f>
         <v/>
       </c>
-      <c r="S19" s="24" t="str">
+      <c r="U19" s="25" t="str">
         <f>IF(_tag_day_all!R16="","",_tag_day_all!R16)</f>
         <v/>
       </c>
-      <c r="T19" s="24" t="str">
+      <c r="V19" s="25" t="str">
         <f>IF(_tag_day_all!S16="","",_tag_day_all!S16)</f>
         <v/>
       </c>
-      <c r="U19" s="24" t="str">
+      <c r="W19" s="25" t="str">
         <f>IF(_tag_day_all!T16="","",_tag_day_all!T16)</f>
         <v/>
       </c>
-      <c r="V19" s="25" t="str">
+      <c r="X19" s="26" t="str">
         <f>IF(_tag_day_all!U16="","",_tag_day_all!U16)</f>
         <v/>
       </c>
-      <c r="W19" s="25" t="str">
+      <c r="Y19" s="26" t="str">
         <f>IF(_tag_day_all!V16="","",_tag_day_all!V16)</f>
         <v/>
       </c>
-      <c r="X19" s="25" t="str">
+      <c r="Z19" s="26" t="str">
         <f>IF(_tag_day_all!W16="","",_tag_day_all!W16)</f>
         <v/>
       </c>
-      <c r="Y19" s="25" t="str">
+      <c r="AA19" s="26" t="str">
         <f>IF(_tag_day_all!X16="","",_tag_day_all!X16)</f>
         <v/>
       </c>
-      <c r="Z19" s="43" t="str">
+      <c r="AB19" s="46" t="str">
         <f>IF(_tag_day_all!Y16="","",_tag_day_all!Y16)</f>
         <v/>
       </c>
-      <c r="AA19" s="24" t="str">
+      <c r="AC19" s="25" t="str">
         <f>IF(_tag_day_all!Z16="","",_tag_day_all!Z16)</f>
         <v/>
       </c>
-      <c r="AB19" s="24" t="str">
+      <c r="AD19" s="25" t="str">
         <f>IF(_tag_day_all!AA16="","",_tag_day_all!AA16)</f>
         <v/>
       </c>
-      <c r="AC19" s="25" t="str">
+      <c r="AE19" s="26" t="str">
         <f>IF(_tag_day_all!AB16="","",_tag_day_all!AB16)</f>
         <v/>
       </c>
-      <c r="AD19" s="24" t="str">
+      <c r="AF19" s="25" t="str">
         <f>IF(_tag_day_all!AC16="","",_tag_day_all!AC16)</f>
         <v/>
       </c>
-      <c r="AE19" s="24" t="str">
+      <c r="AG19" s="25" t="str">
         <f>IF(_tag_day_all!AD16="","",_tag_day_all!AD16)</f>
         <v/>
       </c>
-      <c r="AF19" s="24" t="str">
+      <c r="AH19" s="25" t="str">
         <f>IF(_tag_day_all!AE16="","",_tag_day_all!AE16)</f>
         <v/>
       </c>
-      <c r="AG19" s="24" t="str">
+      <c r="AI19" s="25" t="str">
         <f>IF(_tag_day_all!AF16="","",_tag_day_all!AF16)</f>
         <v/>
       </c>
-      <c r="AH19" s="24" t="str">
+      <c r="AJ19" s="25" t="str">
         <f>IF(_tag_day_all!AG16="","",_tag_day_all!AG16)</f>
         <v/>
       </c>
-      <c r="AI19" s="25" t="str">
+      <c r="AK19" s="26" t="str">
         <f>IF(_tag_day_all!AH16="","",_tag_day_all!AH16)</f>
         <v/>
       </c>
-      <c r="AJ19" s="25" t="str">
+      <c r="AL19" s="26" t="str">
         <f>IF(_tag_day_all!AI16="","",_tag_day_all!AI16)</f>
         <v/>
       </c>
-      <c r="AK19" s="25" t="str">
+      <c r="AM19" s="26" t="str">
         <f>IF(_tag_day_all!AJ16="","",_tag_day_all!AJ16)</f>
         <v/>
       </c>
-      <c r="AL19" s="25" t="str">
+      <c r="AN19" s="26" t="str">
         <f>IF(_tag_day_all!AK16="","",_tag_day_all!AK16)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:38">
-      <c r="A20" s="20">
+    <row r="20" ht="13.5" spans="1:40">
+      <c r="A20" s="21">
         <v>16</v>
       </c>
-      <c r="B20" s="21" t="str">
+      <c r="B20" s="22" t="str">
         <f>IF(_tag_day_all!A17="","",_tag_day_all!A17)</f>
         <v/>
       </c>
-      <c r="C20" s="22" t="str">
+      <c r="C20" s="23" t="str">
         <f>IF(_tag_day_all!B17="","",_tag_day_all!B17)</f>
         <v/>
       </c>
-      <c r="D20" s="23" t="str">
+      <c r="D20" s="24" t="str">
         <f>IF(_tag_day_all!C17="","",_tag_day_all!C17)</f>
         <v/>
       </c>
-      <c r="E20" s="24" t="str">
+      <c r="E20" s="25" t="str">
         <f>IF(_tag_day_all!D17="","",_tag_day_all!D17)</f>
         <v/>
       </c>
-      <c r="F20" s="25" t="str">
+      <c r="F20" s="26" t="str">
         <f>IF(_tag_day_all!E17="","",_tag_day_all!E17)</f>
         <v/>
       </c>
-      <c r="G20" s="24" t="str">
+      <c r="G20" s="25" t="str">
         <f>IF(_tag_day_all!F17="","",_tag_day_all!F17)</f>
         <v/>
       </c>
-      <c r="H20" s="25" t="str">
+      <c r="H20" s="26" t="str">
         <f>IF(_tag_day_all!G17="","",_tag_day_all!G17)</f>
         <v/>
       </c>
-      <c r="I20" s="25" t="str">
+      <c r="I20" s="26" t="str">
         <f>IF(_tag_day_all!H17="","",_tag_day_all!H17)</f>
         <v/>
       </c>
-      <c r="J20" s="43" t="str">
+      <c r="J20" s="46" t="str">
         <f>IF(_tag_day_all!I17="","",_tag_day_all!I17)</f>
         <v/>
       </c>
-      <c r="K20" s="43" t="str">
+      <c r="K20" s="46" t="str">
         <f>IF(_tag_day_all!J17="","",_tag_day_all!J17)</f>
         <v/>
       </c>
-      <c r="L20" s="25" t="str">
+      <c r="L20" s="26" t="str">
         <f>IF(_tag_day_all!K17="","",_tag_day_all!K17)</f>
         <v/>
       </c>
-      <c r="M20" s="43" t="str">
+      <c r="M20" s="26" t="str">
         <f>IF(_tag_day_all!L17="","",_tag_day_all!L17)</f>
         <v/>
       </c>
-      <c r="N20" s="43" t="str">
+      <c r="N20" s="46" t="str">
         <f>IF(_tag_day_all!M17="","",_tag_day_all!M17)</f>
         <v/>
       </c>
-      <c r="O20" s="25" t="str">
+      <c r="O20" s="26" t="str">
         <f>IF(_tag_day_all!N17="","",_tag_day_all!N17*100)</f>
         <v/>
       </c>
-      <c r="P20" s="24" t="str">
+      <c r="P20" s="26" t="str">
+        <f>IF(_tag_day_all!AL17="","",_tag_day_all!AL17)</f>
+        <v/>
+      </c>
+      <c r="Q20" s="25" t="str">
+        <f>IF(_tag_day_all!AM17="","",_tag_day_all!AM17)</f>
+        <v/>
+      </c>
+      <c r="R20" s="25" t="str">
         <f>IF(_tag_day_all!O17="","",_tag_day_all!O17)</f>
         <v/>
       </c>
-      <c r="Q20" s="24" t="str">
+      <c r="S20" s="25" t="str">
         <f>IF(_tag_day_all!P17="","",_tag_day_all!P17)</f>
         <v/>
       </c>
-      <c r="R20" s="24" t="str">
+      <c r="T20" s="25" t="str">
         <f>IF(_tag_day_all!Q17="","",_tag_day_all!Q17)</f>
         <v/>
       </c>
-      <c r="S20" s="24" t="str">
+      <c r="U20" s="25" t="str">
         <f>IF(_tag_day_all!R17="","",_tag_day_all!R17)</f>
         <v/>
       </c>
-      <c r="T20" s="24" t="str">
+      <c r="V20" s="25" t="str">
         <f>IF(_tag_day_all!S17="","",_tag_day_all!S17)</f>
         <v/>
       </c>
-      <c r="U20" s="24" t="str">
+      <c r="W20" s="25" t="str">
         <f>IF(_tag_day_all!T17="","",_tag_day_all!T17)</f>
         <v/>
       </c>
-      <c r="V20" s="25" t="str">
+      <c r="X20" s="26" t="str">
         <f>IF(_tag_day_all!U17="","",_tag_day_all!U17)</f>
         <v/>
       </c>
-      <c r="W20" s="25" t="str">
+      <c r="Y20" s="26" t="str">
         <f>IF(_tag_day_all!V17="","",_tag_day_all!V17)</f>
         <v/>
       </c>
-      <c r="X20" s="25" t="str">
+      <c r="Z20" s="26" t="str">
         <f>IF(_tag_day_all!W17="","",_tag_day_all!W17)</f>
         <v/>
       </c>
-      <c r="Y20" s="25" t="str">
+      <c r="AA20" s="26" t="str">
         <f>IF(_tag_day_all!X17="","",_tag_day_all!X17)</f>
         <v/>
       </c>
-      <c r="Z20" s="43" t="str">
+      <c r="AB20" s="46" t="str">
         <f>IF(_tag_day_all!Y17="","",_tag_day_all!Y17)</f>
         <v/>
       </c>
-      <c r="AA20" s="24" t="str">
+      <c r="AC20" s="25" t="str">
         <f>IF(_tag_day_all!Z17="","",_tag_day_all!Z17)</f>
         <v/>
       </c>
-      <c r="AB20" s="24" t="str">
+      <c r="AD20" s="25" t="str">
         <f>IF(_tag_day_all!AA17="","",_tag_day_all!AA17)</f>
         <v/>
       </c>
-      <c r="AC20" s="25" t="str">
+      <c r="AE20" s="26" t="str">
         <f>IF(_tag_day_all!AB17="","",_tag_day_all!AB17)</f>
         <v/>
       </c>
-      <c r="AD20" s="24" t="str">
+      <c r="AF20" s="25" t="str">
         <f>IF(_tag_day_all!AC17="","",_tag_day_all!AC17)</f>
         <v/>
       </c>
-      <c r="AE20" s="24" t="str">
+      <c r="AG20" s="25" t="str">
         <f>IF(_tag_day_all!AD17="","",_tag_day_all!AD17)</f>
         <v/>
       </c>
-      <c r="AF20" s="24" t="str">
+      <c r="AH20" s="25" t="str">
         <f>IF(_tag_day_all!AE17="","",_tag_day_all!AE17)</f>
         <v/>
       </c>
-      <c r="AG20" s="24" t="str">
+      <c r="AI20" s="25" t="str">
         <f>IF(_tag_day_all!AF17="","",_tag_day_all!AF17)</f>
         <v/>
       </c>
-      <c r="AH20" s="24" t="str">
+      <c r="AJ20" s="25" t="str">
         <f>IF(_tag_day_all!AG17="","",_tag_day_all!AG17)</f>
         <v/>
       </c>
-      <c r="AI20" s="25" t="str">
+      <c r="AK20" s="26" t="str">
         <f>IF(_tag_day_all!AH17="","",_tag_day_all!AH17)</f>
         <v/>
       </c>
-      <c r="AJ20" s="25" t="str">
+      <c r="AL20" s="26" t="str">
         <f>IF(_tag_day_all!AI17="","",_tag_day_all!AI17)</f>
         <v/>
       </c>
-      <c r="AK20" s="25" t="str">
+      <c r="AM20" s="26" t="str">
         <f>IF(_tag_day_all!AJ17="","",_tag_day_all!AJ17)</f>
         <v/>
       </c>
-      <c r="AL20" s="25" t="str">
+      <c r="AN20" s="26" t="str">
         <f>IF(_tag_day_all!AK17="","",_tag_day_all!AK17)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:38">
-      <c r="A21" s="20">
+    <row r="21" ht="13.5" spans="1:40">
+      <c r="A21" s="21">
         <v>17</v>
       </c>
-      <c r="B21" s="21" t="str">
+      <c r="B21" s="22" t="str">
         <f>IF(_tag_day_all!A18="","",_tag_day_all!A18)</f>
         <v/>
       </c>
-      <c r="C21" s="22" t="str">
+      <c r="C21" s="23" t="str">
         <f>IF(_tag_day_all!B18="","",_tag_day_all!B18)</f>
         <v/>
       </c>
-      <c r="D21" s="23" t="str">
+      <c r="D21" s="24" t="str">
         <f>IF(_tag_day_all!C18="","",_tag_day_all!C18)</f>
         <v/>
       </c>
-      <c r="E21" s="24" t="str">
+      <c r="E21" s="25" t="str">
         <f>IF(_tag_day_all!D18="","",_tag_day_all!D18)</f>
         <v/>
       </c>
-      <c r="F21" s="25" t="str">
+      <c r="F21" s="26" t="str">
         <f>IF(_tag_day_all!E18="","",_tag_day_all!E18)</f>
         <v/>
       </c>
-      <c r="G21" s="24" t="str">
+      <c r="G21" s="25" t="str">
         <f>IF(_tag_day_all!F18="","",_tag_day_all!F18)</f>
         <v/>
       </c>
-      <c r="H21" s="25" t="str">
+      <c r="H21" s="26" t="str">
         <f>IF(_tag_day_all!G18="","",_tag_day_all!G18)</f>
         <v/>
       </c>
-      <c r="I21" s="25" t="str">
+      <c r="I21" s="26" t="str">
         <f>IF(_tag_day_all!H18="","",_tag_day_all!H18)</f>
         <v/>
       </c>
-      <c r="J21" s="43" t="str">
+      <c r="J21" s="46" t="str">
         <f>IF(_tag_day_all!I18="","",_tag_day_all!I18)</f>
         <v/>
       </c>
-      <c r="K21" s="43" t="str">
+      <c r="K21" s="46" t="str">
         <f>IF(_tag_day_all!J18="","",_tag_day_all!J18)</f>
         <v/>
       </c>
-      <c r="L21" s="25" t="str">
+      <c r="L21" s="26" t="str">
         <f>IF(_tag_day_all!K18="","",_tag_day_all!K18)</f>
         <v/>
       </c>
-      <c r="M21" s="43" t="str">
+      <c r="M21" s="26" t="str">
         <f>IF(_tag_day_all!L18="","",_tag_day_all!L18)</f>
         <v/>
       </c>
-      <c r="N21" s="43" t="str">
+      <c r="N21" s="46" t="str">
         <f>IF(_tag_day_all!M18="","",_tag_day_all!M18)</f>
         <v/>
       </c>
-      <c r="O21" s="25" t="str">
+      <c r="O21" s="26" t="str">
         <f>IF(_tag_day_all!N18="","",_tag_day_all!N18*100)</f>
         <v/>
       </c>
-      <c r="P21" s="24" t="str">
+      <c r="P21" s="26" t="str">
+        <f>IF(_tag_day_all!AL18="","",_tag_day_all!AL18)</f>
+        <v/>
+      </c>
+      <c r="Q21" s="25" t="str">
+        <f>IF(_tag_day_all!AM18="","",_tag_day_all!AM18)</f>
+        <v/>
+      </c>
+      <c r="R21" s="25" t="str">
         <f>IF(_tag_day_all!O18="","",_tag_day_all!O18)</f>
         <v/>
       </c>
-      <c r="Q21" s="24" t="str">
+      <c r="S21" s="25" t="str">
         <f>IF(_tag_day_all!P18="","",_tag_day_all!P18)</f>
         <v/>
       </c>
-      <c r="R21" s="24" t="str">
+      <c r="T21" s="25" t="str">
         <f>IF(_tag_day_all!Q18="","",_tag_day_all!Q18)</f>
         <v/>
       </c>
-      <c r="S21" s="24" t="str">
+      <c r="U21" s="25" t="str">
         <f>IF(_tag_day_all!R18="","",_tag_day_all!R18)</f>
         <v/>
       </c>
-      <c r="T21" s="24" t="str">
+      <c r="V21" s="25" t="str">
         <f>IF(_tag_day_all!S18="","",_tag_day_all!S18)</f>
         <v/>
       </c>
-      <c r="U21" s="24" t="str">
+      <c r="W21" s="25" t="str">
         <f>IF(_tag_day_all!T18="","",_tag_day_all!T18)</f>
         <v/>
       </c>
-      <c r="V21" s="25" t="str">
+      <c r="X21" s="26" t="str">
         <f>IF(_tag_day_all!U18="","",_tag_day_all!U18)</f>
         <v/>
       </c>
-      <c r="W21" s="25" t="str">
+      <c r="Y21" s="26" t="str">
         <f>IF(_tag_day_all!V18="","",_tag_day_all!V18)</f>
         <v/>
       </c>
-      <c r="X21" s="25" t="str">
+      <c r="Z21" s="26" t="str">
         <f>IF(_tag_day_all!W18="","",_tag_day_all!W18)</f>
         <v/>
       </c>
-      <c r="Y21" s="25" t="str">
+      <c r="AA21" s="26" t="str">
         <f>IF(_tag_day_all!X18="","",_tag_day_all!X18)</f>
         <v/>
       </c>
-      <c r="Z21" s="43" t="str">
+      <c r="AB21" s="46" t="str">
         <f>IF(_tag_day_all!Y18="","",_tag_day_all!Y18)</f>
         <v/>
       </c>
-      <c r="AA21" s="24" t="str">
+      <c r="AC21" s="25" t="str">
         <f>IF(_tag_day_all!Z18="","",_tag_day_all!Z18)</f>
         <v/>
       </c>
-      <c r="AB21" s="24" t="str">
+      <c r="AD21" s="25" t="str">
         <f>IF(_tag_day_all!AA18="","",_tag_day_all!AA18)</f>
         <v/>
       </c>
-      <c r="AC21" s="25" t="str">
+      <c r="AE21" s="26" t="str">
         <f>IF(_tag_day_all!AB18="","",_tag_day_all!AB18)</f>
         <v/>
       </c>
-      <c r="AD21" s="24" t="str">
+      <c r="AF21" s="25" t="str">
         <f>IF(_tag_day_all!AC18="","",_tag_day_all!AC18)</f>
         <v/>
       </c>
-      <c r="AE21" s="24" t="str">
+      <c r="AG21" s="25" t="str">
         <f>IF(_tag_day_all!AD18="","",_tag_day_all!AD18)</f>
         <v/>
       </c>
-      <c r="AF21" s="24" t="str">
+      <c r="AH21" s="25" t="str">
         <f>IF(_tag_day_all!AE18="","",_tag_day_all!AE18)</f>
         <v/>
       </c>
-      <c r="AG21" s="24" t="str">
+      <c r="AI21" s="25" t="str">
         <f>IF(_tag_day_all!AF18="","",_tag_day_all!AF18)</f>
         <v/>
       </c>
-      <c r="AH21" s="24" t="str">
+      <c r="AJ21" s="25" t="str">
         <f>IF(_tag_day_all!AG18="","",_tag_day_all!AG18)</f>
         <v/>
       </c>
-      <c r="AI21" s="25" t="str">
+      <c r="AK21" s="26" t="str">
         <f>IF(_tag_day_all!AH18="","",_tag_day_all!AH18)</f>
         <v/>
       </c>
-      <c r="AJ21" s="25" t="str">
+      <c r="AL21" s="26" t="str">
         <f>IF(_tag_day_all!AI18="","",_tag_day_all!AI18)</f>
         <v/>
       </c>
-      <c r="AK21" s="25" t="str">
+      <c r="AM21" s="26" t="str">
         <f>IF(_tag_day_all!AJ18="","",_tag_day_all!AJ18)</f>
         <v/>
       </c>
-      <c r="AL21" s="25" t="str">
+      <c r="AN21" s="26" t="str">
         <f>IF(_tag_day_all!AK18="","",_tag_day_all!AK18)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:38">
-      <c r="A22" s="20">
+    <row r="22" ht="13.5" spans="1:40">
+      <c r="A22" s="21">
         <v>18</v>
       </c>
-      <c r="B22" s="21" t="str">
+      <c r="B22" s="22" t="str">
         <f>IF(_tag_day_all!A19="","",_tag_day_all!A19)</f>
         <v/>
       </c>
-      <c r="C22" s="22" t="str">
+      <c r="C22" s="23" t="str">
         <f>IF(_tag_day_all!B19="","",_tag_day_all!B19)</f>
         <v/>
       </c>
-      <c r="D22" s="23" t="str">
+      <c r="D22" s="24" t="str">
         <f>IF(_tag_day_all!C19="","",_tag_day_all!C19)</f>
         <v/>
       </c>
-      <c r="E22" s="24" t="str">
+      <c r="E22" s="25" t="str">
         <f>IF(_tag_day_all!D19="","",_tag_day_all!D19)</f>
         <v/>
       </c>
-      <c r="F22" s="25" t="str">
+      <c r="F22" s="26" t="str">
         <f>IF(_tag_day_all!E19="","",_tag_day_all!E19)</f>
         <v/>
       </c>
-      <c r="G22" s="24" t="str">
+      <c r="G22" s="25" t="str">
         <f>IF(_tag_day_all!F19="","",_tag_day_all!F19)</f>
         <v/>
       </c>
-      <c r="H22" s="25" t="str">
+      <c r="H22" s="26" t="str">
         <f>IF(_tag_day_all!G19="","",_tag_day_all!G19)</f>
         <v/>
       </c>
-      <c r="I22" s="25" t="str">
+      <c r="I22" s="26" t="str">
         <f>IF(_tag_day_all!H19="","",_tag_day_all!H19)</f>
         <v/>
       </c>
-      <c r="J22" s="43" t="str">
+      <c r="J22" s="46" t="str">
         <f>IF(_tag_day_all!I19="","",_tag_day_all!I19)</f>
         <v/>
       </c>
-      <c r="K22" s="43" t="str">
+      <c r="K22" s="46" t="str">
         <f>IF(_tag_day_all!J19="","",_tag_day_all!J19)</f>
         <v/>
       </c>
-      <c r="L22" s="25" t="str">
+      <c r="L22" s="26" t="str">
         <f>IF(_tag_day_all!K19="","",_tag_day_all!K19)</f>
         <v/>
       </c>
-      <c r="M22" s="43" t="str">
+      <c r="M22" s="26" t="str">
         <f>IF(_tag_day_all!L19="","",_tag_day_all!L19)</f>
         <v/>
       </c>
-      <c r="N22" s="43" t="str">
+      <c r="N22" s="46" t="str">
         <f>IF(_tag_day_all!M19="","",_tag_day_all!M19)</f>
         <v/>
       </c>
-      <c r="O22" s="25" t="str">
+      <c r="O22" s="26" t="str">
         <f>IF(_tag_day_all!N19="","",_tag_day_all!N19*100)</f>
         <v/>
       </c>
-      <c r="P22" s="24" t="str">
+      <c r="P22" s="26" t="str">
+        <f>IF(_tag_day_all!AL19="","",_tag_day_all!AL19)</f>
+        <v/>
+      </c>
+      <c r="Q22" s="25" t="str">
+        <f>IF(_tag_day_all!AM19="","",_tag_day_all!AM19)</f>
+        <v/>
+      </c>
+      <c r="R22" s="25" t="str">
         <f>IF(_tag_day_all!O19="","",_tag_day_all!O19)</f>
         <v/>
       </c>
-      <c r="Q22" s="24" t="str">
+      <c r="S22" s="25" t="str">
         <f>IF(_tag_day_all!P19="","",_tag_day_all!P19)</f>
         <v/>
       </c>
-      <c r="R22" s="24" t="str">
+      <c r="T22" s="25" t="str">
         <f>IF(_tag_day_all!Q19="","",_tag_day_all!Q19)</f>
         <v/>
       </c>
-      <c r="S22" s="24" t="str">
+      <c r="U22" s="25" t="str">
         <f>IF(_tag_day_all!R19="","",_tag_day_all!R19)</f>
         <v/>
       </c>
-      <c r="T22" s="24" t="str">
+      <c r="V22" s="25" t="str">
         <f>IF(_tag_day_all!S19="","",_tag_day_all!S19)</f>
         <v/>
       </c>
-      <c r="U22" s="24" t="str">
+      <c r="W22" s="25" t="str">
         <f>IF(_tag_day_all!T19="","",_tag_day_all!T19)</f>
         <v/>
       </c>
-      <c r="V22" s="25" t="str">
+      <c r="X22" s="26" t="str">
         <f>IF(_tag_day_all!U19="","",_tag_day_all!U19)</f>
         <v/>
       </c>
-      <c r="W22" s="25" t="str">
+      <c r="Y22" s="26" t="str">
         <f>IF(_tag_day_all!V19="","",_tag_day_all!V19)</f>
         <v/>
       </c>
-      <c r="X22" s="25" t="str">
+      <c r="Z22" s="26" t="str">
         <f>IF(_tag_day_all!W19="","",_tag_day_all!W19)</f>
         <v/>
       </c>
-      <c r="Y22" s="25" t="str">
+      <c r="AA22" s="26" t="str">
         <f>IF(_tag_day_all!X19="","",_tag_day_all!X19)</f>
         <v/>
       </c>
-      <c r="Z22" s="43" t="str">
+      <c r="AB22" s="46" t="str">
         <f>IF(_tag_day_all!Y19="","",_tag_day_all!Y19)</f>
         <v/>
       </c>
-      <c r="AA22" s="24" t="str">
+      <c r="AC22" s="25" t="str">
         <f>IF(_tag_day_all!Z19="","",_tag_day_all!Z19)</f>
         <v/>
       </c>
-      <c r="AB22" s="24" t="str">
+      <c r="AD22" s="25" t="str">
         <f>IF(_tag_day_all!AA19="","",_tag_day_all!AA19)</f>
         <v/>
       </c>
-      <c r="AC22" s="25" t="str">
+      <c r="AE22" s="26" t="str">
         <f>IF(_tag_day_all!AB19="","",_tag_day_all!AB19)</f>
         <v/>
       </c>
-      <c r="AD22" s="24" t="str">
+      <c r="AF22" s="25" t="str">
         <f>IF(_tag_day_all!AC19="","",_tag_day_all!AC19)</f>
         <v/>
       </c>
-      <c r="AE22" s="24" t="str">
+      <c r="AG22" s="25" t="str">
         <f>IF(_tag_day_all!AD19="","",_tag_day_all!AD19)</f>
         <v/>
       </c>
-      <c r="AF22" s="24" t="str">
+      <c r="AH22" s="25" t="str">
         <f>IF(_tag_day_all!AE19="","",_tag_day_all!AE19)</f>
         <v/>
       </c>
-      <c r="AG22" s="24" t="str">
+      <c r="AI22" s="25" t="str">
         <f>IF(_tag_day_all!AF19="","",_tag_day_all!AF19)</f>
         <v/>
       </c>
-      <c r="AH22" s="24" t="str">
+      <c r="AJ22" s="25" t="str">
         <f>IF(_tag_day_all!AG19="","",_tag_day_all!AG19)</f>
         <v/>
       </c>
-      <c r="AI22" s="25" t="str">
+      <c r="AK22" s="26" t="str">
         <f>IF(_tag_day_all!AH19="","",_tag_day_all!AH19)</f>
         <v/>
       </c>
-      <c r="AJ22" s="25" t="str">
+      <c r="AL22" s="26" t="str">
         <f>IF(_tag_day_all!AI19="","",_tag_day_all!AI19)</f>
         <v/>
       </c>
-      <c r="AK22" s="25" t="str">
+      <c r="AM22" s="26" t="str">
         <f>IF(_tag_day_all!AJ19="","",_tag_day_all!AJ19)</f>
         <v/>
       </c>
-      <c r="AL22" s="25" t="str">
+      <c r="AN22" s="26" t="str">
         <f>IF(_tag_day_all!AK19="","",_tag_day_all!AK19)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:38">
-      <c r="A23" s="20">
+    <row r="23" ht="13.5" spans="1:40">
+      <c r="A23" s="21">
         <v>19</v>
       </c>
-      <c r="B23" s="21" t="str">
+      <c r="B23" s="22" t="str">
         <f>IF(_tag_day_all!A20="","",_tag_day_all!A20)</f>
         <v/>
       </c>
-      <c r="C23" s="22" t="str">
+      <c r="C23" s="23" t="str">
         <f>IF(_tag_day_all!B20="","",_tag_day_all!B20)</f>
         <v/>
       </c>
-      <c r="D23" s="23" t="str">
+      <c r="D23" s="24" t="str">
         <f>IF(_tag_day_all!C20="","",_tag_day_all!C20)</f>
         <v/>
       </c>
-      <c r="E23" s="24" t="str">
+      <c r="E23" s="25" t="str">
         <f>IF(_tag_day_all!D20="","",_tag_day_all!D20)</f>
         <v/>
       </c>
-      <c r="F23" s="25" t="str">
+      <c r="F23" s="26" t="str">
         <f>IF(_tag_day_all!E20="","",_tag_day_all!E20)</f>
         <v/>
       </c>
-      <c r="G23" s="24" t="str">
+      <c r="G23" s="25" t="str">
         <f>IF(_tag_day_all!F20="","",_tag_day_all!F20)</f>
         <v/>
       </c>
-      <c r="H23" s="25" t="str">
+      <c r="H23" s="26" t="str">
         <f>IF(_tag_day_all!G20="","",_tag_day_all!G20)</f>
         <v/>
       </c>
-      <c r="I23" s="25" t="str">
+      <c r="I23" s="26" t="str">
         <f>IF(_tag_day_all!H20="","",_tag_day_all!H20)</f>
         <v/>
       </c>
-      <c r="J23" s="43" t="str">
+      <c r="J23" s="46" t="str">
         <f>IF(_tag_day_all!I20="","",_tag_day_all!I20)</f>
         <v/>
       </c>
-      <c r="K23" s="43" t="str">
+      <c r="K23" s="46" t="str">
         <f>IF(_tag_day_all!J20="","",_tag_day_all!J20)</f>
         <v/>
       </c>
-      <c r="L23" s="25" t="str">
+      <c r="L23" s="26" t="str">
         <f>IF(_tag_day_all!K20="","",_tag_day_all!K20)</f>
         <v/>
       </c>
-      <c r="M23" s="43" t="str">
+      <c r="M23" s="26" t="str">
         <f>IF(_tag_day_all!L20="","",_tag_day_all!L20)</f>
         <v/>
       </c>
-      <c r="N23" s="43" t="str">
+      <c r="N23" s="46" t="str">
         <f>IF(_tag_day_all!M20="","",_tag_day_all!M20)</f>
         <v/>
       </c>
-      <c r="O23" s="25" t="str">
+      <c r="O23" s="26" t="str">
         <f>IF(_tag_day_all!N20="","",_tag_day_all!N20*100)</f>
         <v/>
       </c>
-      <c r="P23" s="24" t="str">
+      <c r="P23" s="26" t="str">
+        <f>IF(_tag_day_all!AL20="","",_tag_day_all!AL20)</f>
+        <v/>
+      </c>
+      <c r="Q23" s="25" t="str">
+        <f>IF(_tag_day_all!AM20="","",_tag_day_all!AM20)</f>
+        <v/>
+      </c>
+      <c r="R23" s="25" t="str">
         <f>IF(_tag_day_all!O20="","",_tag_day_all!O20)</f>
         <v/>
       </c>
-      <c r="Q23" s="24" t="str">
+      <c r="S23" s="25" t="str">
         <f>IF(_tag_day_all!P20="","",_tag_day_all!P20)</f>
         <v/>
       </c>
-      <c r="R23" s="24" t="str">
+      <c r="T23" s="25" t="str">
         <f>IF(_tag_day_all!Q20="","",_tag_day_all!Q20)</f>
         <v/>
       </c>
-      <c r="S23" s="24" t="str">
+      <c r="U23" s="25" t="str">
         <f>IF(_tag_day_all!R20="","",_tag_day_all!R20)</f>
         <v/>
       </c>
-      <c r="T23" s="24" t="str">
+      <c r="V23" s="25" t="str">
         <f>IF(_tag_day_all!S20="","",_tag_day_all!S20)</f>
         <v/>
       </c>
-      <c r="U23" s="24" t="str">
+      <c r="W23" s="25" t="str">
         <f>IF(_tag_day_all!T20="","",_tag_day_all!T20)</f>
         <v/>
       </c>
-      <c r="V23" s="25" t="str">
+      <c r="X23" s="26" t="str">
         <f>IF(_tag_day_all!U20="","",_tag_day_all!U20)</f>
         <v/>
       </c>
-      <c r="W23" s="25" t="str">
+      <c r="Y23" s="26" t="str">
         <f>IF(_tag_day_all!V20="","",_tag_day_all!V20)</f>
         <v/>
       </c>
-      <c r="X23" s="25" t="str">
+      <c r="Z23" s="26" t="str">
         <f>IF(_tag_day_all!W20="","",_tag_day_all!W20)</f>
         <v/>
       </c>
-      <c r="Y23" s="25" t="str">
+      <c r="AA23" s="26" t="str">
         <f>IF(_tag_day_all!X20="","",_tag_day_all!X20)</f>
         <v/>
       </c>
-      <c r="Z23" s="43" t="str">
+      <c r="AB23" s="46" t="str">
         <f>IF(_tag_day_all!Y20="","",_tag_day_all!Y20)</f>
         <v/>
       </c>
-      <c r="AA23" s="24" t="str">
+      <c r="AC23" s="25" t="str">
         <f>IF(_tag_day_all!Z20="","",_tag_day_all!Z20)</f>
         <v/>
       </c>
-      <c r="AB23" s="24" t="str">
+      <c r="AD23" s="25" t="str">
         <f>IF(_tag_day_all!AA20="","",_tag_day_all!AA20)</f>
         <v/>
       </c>
-      <c r="AC23" s="25" t="str">
+      <c r="AE23" s="26" t="str">
         <f>IF(_tag_day_all!AB20="","",_tag_day_all!AB20)</f>
         <v/>
       </c>
-      <c r="AD23" s="24" t="str">
+      <c r="AF23" s="25" t="str">
         <f>IF(_tag_day_all!AC20="","",_tag_day_all!AC20)</f>
         <v/>
       </c>
-      <c r="AE23" s="24" t="str">
+      <c r="AG23" s="25" t="str">
         <f>IF(_tag_day_all!AD20="","",_tag_day_all!AD20)</f>
         <v/>
       </c>
-      <c r="AF23" s="24" t="str">
+      <c r="AH23" s="25" t="str">
         <f>IF(_tag_day_all!AE20="","",_tag_day_all!AE20)</f>
         <v/>
       </c>
-      <c r="AG23" s="24" t="str">
+      <c r="AI23" s="25" t="str">
         <f>IF(_tag_day_all!AF20="","",_tag_day_all!AF20)</f>
         <v/>
       </c>
-      <c r="AH23" s="24" t="str">
+      <c r="AJ23" s="25" t="str">
         <f>IF(_tag_day_all!AG20="","",_tag_day_all!AG20)</f>
         <v/>
       </c>
-      <c r="AI23" s="25" t="str">
+      <c r="AK23" s="26" t="str">
         <f>IF(_tag_day_all!AH20="","",_tag_day_all!AH20)</f>
         <v/>
       </c>
-      <c r="AJ23" s="25" t="str">
+      <c r="AL23" s="26" t="str">
         <f>IF(_tag_day_all!AI20="","",_tag_day_all!AI20)</f>
         <v/>
       </c>
-      <c r="AK23" s="25" t="str">
+      <c r="AM23" s="26" t="str">
         <f>IF(_tag_day_all!AJ20="","",_tag_day_all!AJ20)</f>
         <v/>
       </c>
-      <c r="AL23" s="25" t="str">
+      <c r="AN23" s="26" t="str">
         <f>IF(_tag_day_all!AK20="","",_tag_day_all!AK20)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:38">
-      <c r="A24" s="20">
+    <row r="24" ht="13.5" spans="1:40">
+      <c r="A24" s="21">
         <v>20</v>
       </c>
-      <c r="B24" s="21" t="str">
+      <c r="B24" s="22" t="str">
         <f>IF(_tag_day_all!A21="","",_tag_day_all!A21)</f>
         <v/>
       </c>
-      <c r="C24" s="22" t="str">
+      <c r="C24" s="23" t="str">
         <f>IF(_tag_day_all!B21="","",_tag_day_all!B21)</f>
         <v/>
       </c>
-      <c r="D24" s="23" t="str">
+      <c r="D24" s="24" t="str">
         <f>IF(_tag_day_all!C21="","",_tag_day_all!C21)</f>
         <v/>
       </c>
-      <c r="E24" s="24" t="str">
+      <c r="E24" s="25" t="str">
         <f>IF(_tag_day_all!D21="","",_tag_day_all!D21)</f>
         <v/>
       </c>
-      <c r="F24" s="25" t="str">
+      <c r="F24" s="26" t="str">
         <f>IF(_tag_day_all!E21="","",_tag_day_all!E21)</f>
         <v/>
       </c>
-      <c r="G24" s="24" t="str">
+      <c r="G24" s="25" t="str">
         <f>IF(_tag_day_all!F21="","",_tag_day_all!F21)</f>
         <v/>
       </c>
-      <c r="H24" s="25" t="str">
+      <c r="H24" s="26" t="str">
         <f>IF(_tag_day_all!G21="","",_tag_day_all!G21)</f>
         <v/>
       </c>
-      <c r="I24" s="25" t="str">
+      <c r="I24" s="26" t="str">
         <f>IF(_tag_day_all!H21="","",_tag_day_all!H21)</f>
         <v/>
       </c>
-      <c r="J24" s="43" t="str">
+      <c r="J24" s="46" t="str">
         <f>IF(_tag_day_all!I21="","",_tag_day_all!I21)</f>
         <v/>
       </c>
-      <c r="K24" s="43" t="str">
+      <c r="K24" s="46" t="str">
         <f>IF(_tag_day_all!J21="","",_tag_day_all!J21)</f>
         <v/>
       </c>
-      <c r="L24" s="25" t="str">
+      <c r="L24" s="26" t="str">
         <f>IF(_tag_day_all!K21="","",_tag_day_all!K21)</f>
         <v/>
       </c>
-      <c r="M24" s="43" t="str">
+      <c r="M24" s="26" t="str">
         <f>IF(_tag_day_all!L21="","",_tag_day_all!L21)</f>
         <v/>
       </c>
-      <c r="N24" s="43" t="str">
+      <c r="N24" s="46" t="str">
         <f>IF(_tag_day_all!M21="","",_tag_day_all!M21)</f>
         <v/>
       </c>
-      <c r="O24" s="25" t="str">
+      <c r="O24" s="26" t="str">
         <f>IF(_tag_day_all!N21="","",_tag_day_all!N21*100)</f>
         <v/>
       </c>
-      <c r="P24" s="24" t="str">
+      <c r="P24" s="26" t="str">
+        <f>IF(_tag_day_all!AL21="","",_tag_day_all!AL21)</f>
+        <v/>
+      </c>
+      <c r="Q24" s="25" t="str">
+        <f>IF(_tag_day_all!AM21="","",_tag_day_all!AM21)</f>
+        <v/>
+      </c>
+      <c r="R24" s="25" t="str">
         <f>IF(_tag_day_all!O21="","",_tag_day_all!O21)</f>
         <v/>
       </c>
-      <c r="Q24" s="24" t="str">
+      <c r="S24" s="25" t="str">
         <f>IF(_tag_day_all!P21="","",_tag_day_all!P21)</f>
         <v/>
       </c>
-      <c r="R24" s="24" t="str">
+      <c r="T24" s="25" t="str">
         <f>IF(_tag_day_all!Q21="","",_tag_day_all!Q21)</f>
         <v/>
       </c>
-      <c r="S24" s="24" t="str">
+      <c r="U24" s="25" t="str">
         <f>IF(_tag_day_all!R21="","",_tag_day_all!R21)</f>
         <v/>
       </c>
-      <c r="T24" s="24" t="str">
+      <c r="V24" s="25" t="str">
         <f>IF(_tag_day_all!S21="","",_tag_day_all!S21)</f>
         <v/>
       </c>
-      <c r="U24" s="24" t="str">
+      <c r="W24" s="25" t="str">
         <f>IF(_tag_day_all!T21="","",_tag_day_all!T21)</f>
         <v/>
       </c>
-      <c r="V24" s="25" t="str">
+      <c r="X24" s="26" t="str">
         <f>IF(_tag_day_all!U21="","",_tag_day_all!U21)</f>
         <v/>
       </c>
-      <c r="W24" s="25" t="str">
+      <c r="Y24" s="26" t="str">
         <f>IF(_tag_day_all!V21="","",_tag_day_all!V21)</f>
         <v/>
       </c>
-      <c r="X24" s="25" t="str">
+      <c r="Z24" s="26" t="str">
         <f>IF(_tag_day_all!W21="","",_tag_day_all!W21)</f>
         <v/>
       </c>
-      <c r="Y24" s="25" t="str">
+      <c r="AA24" s="26" t="str">
         <f>IF(_tag_day_all!X21="","",_tag_day_all!X21)</f>
         <v/>
       </c>
-      <c r="Z24" s="43" t="str">
+      <c r="AB24" s="46" t="str">
         <f>IF(_tag_day_all!Y21="","",_tag_day_all!Y21)</f>
         <v/>
       </c>
-      <c r="AA24" s="24" t="str">
+      <c r="AC24" s="25" t="str">
         <f>IF(_tag_day_all!Z21="","",_tag_day_all!Z21)</f>
         <v/>
       </c>
-      <c r="AB24" s="24" t="str">
+      <c r="AD24" s="25" t="str">
         <f>IF(_tag_day_all!AA21="","",_tag_day_all!AA21)</f>
         <v/>
       </c>
-      <c r="AC24" s="25" t="str">
+      <c r="AE24" s="26" t="str">
         <f>IF(_tag_day_all!AB21="","",_tag_day_all!AB21)</f>
         <v/>
       </c>
-      <c r="AD24" s="24" t="str">
+      <c r="AF24" s="25" t="str">
         <f>IF(_tag_day_all!AC21="","",_tag_day_all!AC21)</f>
         <v/>
       </c>
-      <c r="AE24" s="24" t="str">
+      <c r="AG24" s="25" t="str">
         <f>IF(_tag_day_all!AD21="","",_tag_day_all!AD21)</f>
         <v/>
       </c>
-      <c r="AF24" s="24" t="str">
+      <c r="AH24" s="25" t="str">
         <f>IF(_tag_day_all!AE21="","",_tag_day_all!AE21)</f>
         <v/>
       </c>
-      <c r="AG24" s="24" t="str">
+      <c r="AI24" s="25" t="str">
         <f>IF(_tag_day_all!AF21="","",_tag_day_all!AF21)</f>
         <v/>
       </c>
-      <c r="AH24" s="24" t="str">
+      <c r="AJ24" s="25" t="str">
         <f>IF(_tag_day_all!AG21="","",_tag_day_all!AG21)</f>
         <v/>
       </c>
-      <c r="AI24" s="25" t="str">
+      <c r="AK24" s="26" t="str">
         <f>IF(_tag_day_all!AH21="","",_tag_day_all!AH21)</f>
         <v/>
       </c>
-      <c r="AJ24" s="25" t="str">
+      <c r="AL24" s="26" t="str">
         <f>IF(_tag_day_all!AI21="","",_tag_day_all!AI21)</f>
         <v/>
       </c>
-      <c r="AK24" s="25" t="str">
+      <c r="AM24" s="26" t="str">
         <f>IF(_tag_day_all!AJ21="","",_tag_day_all!AJ21)</f>
         <v/>
       </c>
-      <c r="AL24" s="25" t="str">
+      <c r="AN24" s="26" t="str">
         <f>IF(_tag_day_all!AK21="","",_tag_day_all!AK21)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:38">
-      <c r="A25" s="20">
+    <row r="25" ht="13.5" spans="1:40">
+      <c r="A25" s="21">
         <v>21</v>
       </c>
-      <c r="B25" s="21" t="str">
+      <c r="B25" s="22" t="str">
         <f>IF(_tag_day_all!A22="","",_tag_day_all!A22)</f>
         <v/>
       </c>
-      <c r="C25" s="22" t="str">
+      <c r="C25" s="23" t="str">
         <f>IF(_tag_day_all!B22="","",_tag_day_all!B22)</f>
         <v/>
       </c>
-      <c r="D25" s="23" t="str">
+      <c r="D25" s="24" t="str">
         <f>IF(_tag_day_all!C22="","",_tag_day_all!C22)</f>
         <v/>
       </c>
-      <c r="E25" s="24" t="str">
+      <c r="E25" s="25" t="str">
         <f>IF(_tag_day_all!D22="","",_tag_day_all!D22)</f>
         <v/>
       </c>
-      <c r="F25" s="25" t="str">
+      <c r="F25" s="26" t="str">
         <f>IF(_tag_day_all!E22="","",_tag_day_all!E22)</f>
         <v/>
       </c>
-      <c r="G25" s="24" t="str">
+      <c r="G25" s="25" t="str">
         <f>IF(_tag_day_all!F22="","",_tag_day_all!F22)</f>
         <v/>
       </c>
-      <c r="H25" s="25" t="str">
+      <c r="H25" s="26" t="str">
         <f>IF(_tag_day_all!G22="","",_tag_day_all!G22)</f>
         <v/>
       </c>
-      <c r="I25" s="25" t="str">
+      <c r="I25" s="26" t="str">
         <f>IF(_tag_day_all!H22="","",_tag_day_all!H22)</f>
         <v/>
       </c>
-      <c r="J25" s="43" t="str">
+      <c r="J25" s="46" t="str">
         <f>IF(_tag_day_all!I22="","",_tag_day_all!I22)</f>
         <v/>
       </c>
-      <c r="K25" s="43" t="str">
+      <c r="K25" s="46" t="str">
         <f>IF(_tag_day_all!J22="","",_tag_day_all!J22)</f>
         <v/>
       </c>
-      <c r="L25" s="25" t="str">
+      <c r="L25" s="26" t="str">
         <f>IF(_tag_day_all!K22="","",_tag_day_all!K22)</f>
         <v/>
       </c>
-      <c r="M25" s="43" t="str">
+      <c r="M25" s="26" t="str">
         <f>IF(_tag_day_all!L22="","",_tag_day_all!L22)</f>
         <v/>
       </c>
-      <c r="N25" s="43" t="str">
+      <c r="N25" s="46" t="str">
         <f>IF(_tag_day_all!M22="","",_tag_day_all!M22)</f>
         <v/>
       </c>
-      <c r="O25" s="25" t="str">
+      <c r="O25" s="26" t="str">
         <f>IF(_tag_day_all!N22="","",_tag_day_all!N22*100)</f>
         <v/>
       </c>
-      <c r="P25" s="24" t="str">
+      <c r="P25" s="26" t="str">
+        <f>IF(_tag_day_all!AL22="","",_tag_day_all!AL22)</f>
+        <v/>
+      </c>
+      <c r="Q25" s="25" t="str">
+        <f>IF(_tag_day_all!AM22="","",_tag_day_all!AM22)</f>
+        <v/>
+      </c>
+      <c r="R25" s="25" t="str">
         <f>IF(_tag_day_all!O22="","",_tag_day_all!O22)</f>
         <v/>
       </c>
-      <c r="Q25" s="24" t="str">
+      <c r="S25" s="25" t="str">
         <f>IF(_tag_day_all!P22="","",_tag_day_all!P22)</f>
         <v/>
       </c>
-      <c r="R25" s="24" t="str">
+      <c r="T25" s="25" t="str">
         <f>IF(_tag_day_all!Q22="","",_tag_day_all!Q22)</f>
         <v/>
       </c>
-      <c r="S25" s="24" t="str">
+      <c r="U25" s="25" t="str">
         <f>IF(_tag_day_all!R22="","",_tag_day_all!R22)</f>
         <v/>
       </c>
-      <c r="T25" s="24" t="str">
+      <c r="V25" s="25" t="str">
         <f>IF(_tag_day_all!S22="","",_tag_day_all!S22)</f>
         <v/>
       </c>
-      <c r="U25" s="24" t="str">
+      <c r="W25" s="25" t="str">
         <f>IF(_tag_day_all!T22="","",_tag_day_all!T22)</f>
         <v/>
       </c>
-      <c r="V25" s="25" t="str">
+      <c r="X25" s="26" t="str">
         <f>IF(_tag_day_all!U22="","",_tag_day_all!U22)</f>
         <v/>
       </c>
-      <c r="W25" s="25" t="str">
+      <c r="Y25" s="26" t="str">
         <f>IF(_tag_day_all!V22="","",_tag_day_all!V22)</f>
         <v/>
       </c>
-      <c r="X25" s="25" t="str">
+      <c r="Z25" s="26" t="str">
         <f>IF(_tag_day_all!W22="","",_tag_day_all!W22)</f>
         <v/>
       </c>
-      <c r="Y25" s="25" t="str">
+      <c r="AA25" s="26" t="str">
         <f>IF(_tag_day_all!X22="","",_tag_day_all!X22)</f>
         <v/>
       </c>
-      <c r="Z25" s="43" t="str">
+      <c r="AB25" s="46" t="str">
         <f>IF(_tag_day_all!Y22="","",_tag_day_all!Y22)</f>
         <v/>
       </c>
-      <c r="AA25" s="24" t="str">
+      <c r="AC25" s="25" t="str">
         <f>IF(_tag_day_all!Z22="","",_tag_day_all!Z22)</f>
         <v/>
       </c>
-      <c r="AB25" s="24" t="str">
+      <c r="AD25" s="25" t="str">
         <f>IF(_tag_day_all!AA22="","",_tag_day_all!AA22)</f>
         <v/>
       </c>
-      <c r="AC25" s="25" t="str">
+      <c r="AE25" s="26" t="str">
         <f>IF(_tag_day_all!AB22="","",_tag_day_all!AB22)</f>
         <v/>
       </c>
-      <c r="AD25" s="24" t="str">
+      <c r="AF25" s="25" t="str">
         <f>IF(_tag_day_all!AC22="","",_tag_day_all!AC22)</f>
         <v/>
       </c>
-      <c r="AE25" s="24" t="str">
+      <c r="AG25" s="25" t="str">
         <f>IF(_tag_day_all!AD22="","",_tag_day_all!AD22)</f>
         <v/>
       </c>
-      <c r="AF25" s="24" t="str">
+      <c r="AH25" s="25" t="str">
         <f>IF(_tag_day_all!AE22="","",_tag_day_all!AE22)</f>
         <v/>
       </c>
-      <c r="AG25" s="24" t="str">
+      <c r="AI25" s="25" t="str">
         <f>IF(_tag_day_all!AF22="","",_tag_day_all!AF22)</f>
         <v/>
       </c>
-      <c r="AH25" s="24" t="str">
+      <c r="AJ25" s="25" t="str">
         <f>IF(_tag_day_all!AG22="","",_tag_day_all!AG22)</f>
         <v/>
       </c>
-      <c r="AI25" s="25" t="str">
+      <c r="AK25" s="26" t="str">
         <f>IF(_tag_day_all!AH22="","",_tag_day_all!AH22)</f>
         <v/>
       </c>
-      <c r="AJ25" s="25" t="str">
+      <c r="AL25" s="26" t="str">
         <f>IF(_tag_day_all!AI22="","",_tag_day_all!AI22)</f>
         <v/>
       </c>
-      <c r="AK25" s="25" t="str">
+      <c r="AM25" s="26" t="str">
         <f>IF(_tag_day_all!AJ22="","",_tag_day_all!AJ22)</f>
         <v/>
       </c>
-      <c r="AL25" s="25" t="str">
+      <c r="AN25" s="26" t="str">
         <f>IF(_tag_day_all!AK22="","",_tag_day_all!AK22)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:38">
-      <c r="A26" s="20">
+    <row r="26" ht="13.5" spans="1:40">
+      <c r="A26" s="21">
         <v>22</v>
       </c>
-      <c r="B26" s="21" t="str">
+      <c r="B26" s="22" t="str">
         <f>IF(_tag_day_all!A23="","",_tag_day_all!A23)</f>
         <v/>
       </c>
-      <c r="C26" s="22" t="str">
+      <c r="C26" s="23" t="str">
         <f>IF(_tag_day_all!B23="","",_tag_day_all!B23)</f>
         <v/>
       </c>
-      <c r="D26" s="23" t="str">
+      <c r="D26" s="24" t="str">
         <f>IF(_tag_day_all!C23="","",_tag_day_all!C23)</f>
         <v/>
       </c>
-      <c r="E26" s="24" t="str">
+      <c r="E26" s="25" t="str">
         <f>IF(_tag_day_all!D23="","",_tag_day_all!D23)</f>
         <v/>
       </c>
-      <c r="F26" s="25" t="str">
+      <c r="F26" s="26" t="str">
         <f>IF(_tag_day_all!E23="","",_tag_day_all!E23)</f>
         <v/>
       </c>
-      <c r="G26" s="24" t="str">
+      <c r="G26" s="25" t="str">
         <f>IF(_tag_day_all!F23="","",_tag_day_all!F23)</f>
         <v/>
       </c>
-      <c r="H26" s="25" t="str">
+      <c r="H26" s="26" t="str">
         <f>IF(_tag_day_all!G23="","",_tag_day_all!G23)</f>
         <v/>
       </c>
-      <c r="I26" s="25" t="str">
+      <c r="I26" s="26" t="str">
         <f>IF(_tag_day_all!H23="","",_tag_day_all!H23)</f>
         <v/>
       </c>
-      <c r="J26" s="43" t="str">
+      <c r="J26" s="46" t="str">
         <f>IF(_tag_day_all!I23="","",_tag_day_all!I23)</f>
         <v/>
       </c>
-      <c r="K26" s="43" t="str">
+      <c r="K26" s="46" t="str">
         <f>IF(_tag_day_all!J23="","",_tag_day_all!J23)</f>
         <v/>
       </c>
-      <c r="L26" s="25" t="str">
+      <c r="L26" s="26" t="str">
         <f>IF(_tag_day_all!K23="","",_tag_day_all!K23)</f>
         <v/>
       </c>
-      <c r="M26" s="43" t="str">
+      <c r="M26" s="26" t="str">
         <f>IF(_tag_day_all!L23="","",_tag_day_all!L23)</f>
         <v/>
       </c>
-      <c r="N26" s="43" t="str">
+      <c r="N26" s="46" t="str">
         <f>IF(_tag_day_all!M23="","",_tag_day_all!M23)</f>
         <v/>
       </c>
-      <c r="O26" s="25" t="str">
+      <c r="O26" s="26" t="str">
         <f>IF(_tag_day_all!N23="","",_tag_day_all!N23*100)</f>
         <v/>
       </c>
-      <c r="P26" s="24" t="str">
+      <c r="P26" s="26" t="str">
+        <f>IF(_tag_day_all!AL23="","",_tag_day_all!AL23)</f>
+        <v/>
+      </c>
+      <c r="Q26" s="25" t="str">
+        <f>IF(_tag_day_all!AM23="","",_tag_day_all!AM23)</f>
+        <v/>
+      </c>
+      <c r="R26" s="25" t="str">
         <f>IF(_tag_day_all!O23="","",_tag_day_all!O23)</f>
         <v/>
       </c>
-      <c r="Q26" s="24" t="str">
+      <c r="S26" s="25" t="str">
         <f>IF(_tag_day_all!P23="","",_tag_day_all!P23)</f>
         <v/>
       </c>
-      <c r="R26" s="24" t="str">
+      <c r="T26" s="25" t="str">
         <f>IF(_tag_day_all!Q23="","",_tag_day_all!Q23)</f>
         <v/>
       </c>
-      <c r="S26" s="24" t="str">
+      <c r="U26" s="25" t="str">
         <f>IF(_tag_day_all!R23="","",_tag_day_all!R23)</f>
         <v/>
       </c>
-      <c r="T26" s="24" t="str">
+      <c r="V26" s="25" t="str">
         <f>IF(_tag_day_all!S23="","",_tag_day_all!S23)</f>
         <v/>
       </c>
-      <c r="U26" s="24" t="str">
+      <c r="W26" s="25" t="str">
         <f>IF(_tag_day_all!T23="","",_tag_day_all!T23)</f>
         <v/>
       </c>
-      <c r="V26" s="25" t="str">
+      <c r="X26" s="26" t="str">
         <f>IF(_tag_day_all!U23="","",_tag_day_all!U23)</f>
         <v/>
       </c>
-      <c r="W26" s="25" t="str">
+      <c r="Y26" s="26" t="str">
         <f>IF(_tag_day_all!V23="","",_tag_day_all!V23)</f>
         <v/>
       </c>
-      <c r="X26" s="25" t="str">
+      <c r="Z26" s="26" t="str">
         <f>IF(_tag_day_all!W23="","",_tag_day_all!W23)</f>
         <v/>
       </c>
-      <c r="Y26" s="25" t="str">
+      <c r="AA26" s="26" t="str">
         <f>IF(_tag_day_all!X23="","",_tag_day_all!X23)</f>
         <v/>
       </c>
-      <c r="Z26" s="43" t="str">
+      <c r="AB26" s="46" t="str">
         <f>IF(_tag_day_all!Y23="","",_tag_day_all!Y23)</f>
         <v/>
       </c>
-      <c r="AA26" s="24" t="str">
+      <c r="AC26" s="25" t="str">
         <f>IF(_tag_day_all!Z23="","",_tag_day_all!Z23)</f>
         <v/>
       </c>
-      <c r="AB26" s="24" t="str">
+      <c r="AD26" s="25" t="str">
         <f>IF(_tag_day_all!AA23="","",_tag_day_all!AA23)</f>
         <v/>
       </c>
-      <c r="AC26" s="25" t="str">
+      <c r="AE26" s="26" t="str">
         <f>IF(_tag_day_all!AB23="","",_tag_day_all!AB23)</f>
         <v/>
       </c>
-      <c r="AD26" s="24" t="str">
+      <c r="AF26" s="25" t="str">
         <f>IF(_tag_day_all!AC23="","",_tag_day_all!AC23)</f>
         <v/>
       </c>
-      <c r="AE26" s="24" t="str">
+      <c r="AG26" s="25" t="str">
         <f>IF(_tag_day_all!AD23="","",_tag_day_all!AD23)</f>
         <v/>
       </c>
-      <c r="AF26" s="24" t="str">
+      <c r="AH26" s="25" t="str">
         <f>IF(_tag_day_all!AE23="","",_tag_day_all!AE23)</f>
         <v/>
       </c>
-      <c r="AG26" s="24" t="str">
+      <c r="AI26" s="25" t="str">
         <f>IF(_tag_day_all!AF23="","",_tag_day_all!AF23)</f>
         <v/>
       </c>
-      <c r="AH26" s="24" t="str">
+      <c r="AJ26" s="25" t="str">
         <f>IF(_tag_day_all!AG23="","",_tag_day_all!AG23)</f>
         <v/>
       </c>
-      <c r="AI26" s="25" t="str">
+      <c r="AK26" s="26" t="str">
         <f>IF(_tag_day_all!AH23="","",_tag_day_all!AH23)</f>
         <v/>
       </c>
-      <c r="AJ26" s="25" t="str">
+      <c r="AL26" s="26" t="str">
         <f>IF(_tag_day_all!AI23="","",_tag_day_all!AI23)</f>
         <v/>
       </c>
-      <c r="AK26" s="25" t="str">
+      <c r="AM26" s="26" t="str">
         <f>IF(_tag_day_all!AJ23="","",_tag_day_all!AJ23)</f>
         <v/>
       </c>
-      <c r="AL26" s="25" t="str">
+      <c r="AN26" s="26" t="str">
         <f>IF(_tag_day_all!AK23="","",_tag_day_all!AK23)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:38">
-      <c r="A27" s="20">
+    <row r="27" ht="13.5" spans="1:40">
+      <c r="A27" s="21">
         <v>23</v>
       </c>
-      <c r="B27" s="21" t="str">
+      <c r="B27" s="22" t="str">
         <f>IF(_tag_day_all!A24="","",_tag_day_all!A24)</f>
         <v/>
       </c>
-      <c r="C27" s="22" t="str">
+      <c r="C27" s="23" t="str">
         <f>IF(_tag_day_all!B24="","",_tag_day_all!B24)</f>
         <v/>
       </c>
-      <c r="D27" s="23" t="str">
+      <c r="D27" s="24" t="str">
         <f>IF(_tag_day_all!C24="","",_tag_day_all!C24)</f>
         <v/>
       </c>
-      <c r="E27" s="24" t="str">
+      <c r="E27" s="25" t="str">
         <f>IF(_tag_day_all!D24="","",_tag_day_all!D24)</f>
         <v/>
       </c>
-      <c r="F27" s="25" t="str">
+      <c r="F27" s="26" t="str">
         <f>IF(_tag_day_all!E24="","",_tag_day_all!E24)</f>
         <v/>
       </c>
-      <c r="G27" s="24" t="str">
+      <c r="G27" s="25" t="str">
         <f>IF(_tag_day_all!F24="","",_tag_day_all!F24)</f>
         <v/>
       </c>
-      <c r="H27" s="25" t="str">
+      <c r="H27" s="26" t="str">
         <f>IF(_tag_day_all!G24="","",_tag_day_all!G24)</f>
         <v/>
       </c>
-      <c r="I27" s="25" t="str">
+      <c r="I27" s="26" t="str">
         <f>IF(_tag_day_all!H24="","",_tag_day_all!H24)</f>
         <v/>
       </c>
-      <c r="J27" s="43" t="str">
+      <c r="J27" s="46" t="str">
         <f>IF(_tag_day_all!I24="","",_tag_day_all!I24)</f>
         <v/>
       </c>
-      <c r="K27" s="43" t="str">
+      <c r="K27" s="46" t="str">
         <f>IF(_tag_day_all!J24="","",_tag_day_all!J24)</f>
         <v/>
       </c>
-      <c r="L27" s="25" t="str">
+      <c r="L27" s="26" t="str">
         <f>IF(_tag_day_all!K24="","",_tag_day_all!K24)</f>
         <v/>
       </c>
-      <c r="M27" s="43" t="str">
+      <c r="M27" s="26" t="str">
         <f>IF(_tag_day_all!L24="","",_tag_day_all!L24)</f>
         <v/>
       </c>
-      <c r="N27" s="43" t="str">
+      <c r="N27" s="46" t="str">
         <f>IF(_tag_day_all!M24="","",_tag_day_all!M24)</f>
         <v/>
       </c>
-      <c r="O27" s="25" t="str">
+      <c r="O27" s="26" t="str">
         <f>IF(_tag_day_all!N24="","",_tag_day_all!N24*100)</f>
         <v/>
       </c>
-      <c r="P27" s="24" t="str">
+      <c r="P27" s="26" t="str">
+        <f>IF(_tag_day_all!AL24="","",_tag_day_all!AL24)</f>
+        <v/>
+      </c>
+      <c r="Q27" s="25" t="str">
+        <f>IF(_tag_day_all!AM24="","",_tag_day_all!AM24)</f>
+        <v/>
+      </c>
+      <c r="R27" s="25" t="str">
         <f>IF(_tag_day_all!O24="","",_tag_day_all!O24)</f>
         <v/>
       </c>
-      <c r="Q27" s="24" t="str">
+      <c r="S27" s="25" t="str">
         <f>IF(_tag_day_all!P24="","",_tag_day_all!P24)</f>
         <v/>
       </c>
-      <c r="R27" s="24" t="str">
+      <c r="T27" s="25" t="str">
         <f>IF(_tag_day_all!Q24="","",_tag_day_all!Q24)</f>
         <v/>
       </c>
-      <c r="S27" s="24" t="str">
+      <c r="U27" s="25" t="str">
         <f>IF(_tag_day_all!R24="","",_tag_day_all!R24)</f>
         <v/>
       </c>
-      <c r="T27" s="24" t="str">
+      <c r="V27" s="25" t="str">
         <f>IF(_tag_day_all!S24="","",_tag_day_all!S24)</f>
         <v/>
       </c>
-      <c r="U27" s="24" t="str">
+      <c r="W27" s="25" t="str">
         <f>IF(_tag_day_all!T24="","",_tag_day_all!T24)</f>
         <v/>
       </c>
-      <c r="V27" s="25" t="str">
+      <c r="X27" s="26" t="str">
         <f>IF(_tag_day_all!U24="","",_tag_day_all!U24)</f>
         <v/>
       </c>
-      <c r="W27" s="25" t="str">
+      <c r="Y27" s="26" t="str">
         <f>IF(_tag_day_all!V24="","",_tag_day_all!V24)</f>
         <v/>
       </c>
-      <c r="X27" s="25" t="str">
+      <c r="Z27" s="26" t="str">
         <f>IF(_tag_day_all!W24="","",_tag_day_all!W24)</f>
         <v/>
       </c>
-      <c r="Y27" s="25" t="str">
+      <c r="AA27" s="26" t="str">
         <f>IF(_tag_day_all!X24="","",_tag_day_all!X24)</f>
         <v/>
       </c>
-      <c r="Z27" s="43" t="str">
+      <c r="AB27" s="46" t="str">
         <f>IF(_tag_day_all!Y24="","",_tag_day_all!Y24)</f>
         <v/>
       </c>
-      <c r="AA27" s="24" t="str">
+      <c r="AC27" s="25" t="str">
         <f>IF(_tag_day_all!Z24="","",_tag_day_all!Z24)</f>
         <v/>
       </c>
-      <c r="AB27" s="24" t="str">
+      <c r="AD27" s="25" t="str">
         <f>IF(_tag_day_all!AA24="","",_tag_day_all!AA24)</f>
         <v/>
       </c>
-      <c r="AC27" s="25" t="str">
+      <c r="AE27" s="26" t="str">
         <f>IF(_tag_day_all!AB24="","",_tag_day_all!AB24)</f>
         <v/>
       </c>
-      <c r="AD27" s="24" t="str">
+      <c r="AF27" s="25" t="str">
         <f>IF(_tag_day_all!AC24="","",_tag_day_all!AC24)</f>
         <v/>
       </c>
-      <c r="AE27" s="24" t="str">
+      <c r="AG27" s="25" t="str">
         <f>IF(_tag_day_all!AD24="","",_tag_day_all!AD24)</f>
         <v/>
       </c>
-      <c r="AF27" s="24" t="str">
+      <c r="AH27" s="25" t="str">
         <f>IF(_tag_day_all!AE24="","",_tag_day_all!AE24)</f>
         <v/>
       </c>
-      <c r="AG27" s="24" t="str">
+      <c r="AI27" s="25" t="str">
         <f>IF(_tag_day_all!AF24="","",_tag_day_all!AF24)</f>
         <v/>
       </c>
-      <c r="AH27" s="24" t="str">
+      <c r="AJ27" s="25" t="str">
         <f>IF(_tag_day_all!AG24="","",_tag_day_all!AG24)</f>
         <v/>
       </c>
-      <c r="AI27" s="25" t="str">
+      <c r="AK27" s="26" t="str">
         <f>IF(_tag_day_all!AH24="","",_tag_day_all!AH24)</f>
         <v/>
       </c>
-      <c r="AJ27" s="25" t="str">
+      <c r="AL27" s="26" t="str">
         <f>IF(_tag_day_all!AI24="","",_tag_day_all!AI24)</f>
         <v/>
       </c>
-      <c r="AK27" s="25" t="str">
+      <c r="AM27" s="26" t="str">
         <f>IF(_tag_day_all!AJ24="","",_tag_day_all!AJ24)</f>
         <v/>
       </c>
-      <c r="AL27" s="25" t="str">
+      <c r="AN27" s="26" t="str">
         <f>IF(_tag_day_all!AK24="","",_tag_day_all!AK24)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:38">
-      <c r="A28" s="20">
+    <row r="28" ht="13.5" spans="1:40">
+      <c r="A28" s="21">
         <v>24</v>
       </c>
-      <c r="B28" s="21" t="str">
+      <c r="B28" s="22" t="str">
         <f>IF(_tag_day_all!A25="","",_tag_day_all!A25)</f>
         <v/>
       </c>
-      <c r="C28" s="22" t="str">
+      <c r="C28" s="23" t="str">
         <f>IF(_tag_day_all!B25="","",_tag_day_all!B25)</f>
         <v/>
       </c>
-      <c r="D28" s="23" t="str">
+      <c r="D28" s="24" t="str">
         <f>IF(_tag_day_all!C25="","",_tag_day_all!C25)</f>
         <v/>
       </c>
-      <c r="E28" s="24" t="str">
+      <c r="E28" s="25" t="str">
         <f>IF(_tag_day_all!D25="","",_tag_day_all!D25)</f>
         <v/>
       </c>
-      <c r="F28" s="25" t="str">
+      <c r="F28" s="26" t="str">
         <f>IF(_tag_day_all!E25="","",_tag_day_all!E25)</f>
         <v/>
       </c>
-      <c r="G28" s="24" t="str">
+      <c r="G28" s="25" t="str">
         <f>IF(_tag_day_all!F25="","",_tag_day_all!F25)</f>
         <v/>
       </c>
-      <c r="H28" s="25" t="str">
+      <c r="H28" s="26" t="str">
         <f>IF(_tag_day_all!G25="","",_tag_day_all!G25)</f>
         <v/>
       </c>
-      <c r="I28" s="25" t="str">
+      <c r="I28" s="26" t="str">
         <f>IF(_tag_day_all!H25="","",_tag_day_all!H25)</f>
         <v/>
       </c>
-      <c r="J28" s="43" t="str">
+      <c r="J28" s="46" t="str">
         <f>IF(_tag_day_all!I25="","",_tag_day_all!I25)</f>
         <v/>
       </c>
-      <c r="K28" s="43" t="str">
+      <c r="K28" s="46" t="str">
         <f>IF(_tag_day_all!J25="","",_tag_day_all!J25)</f>
         <v/>
       </c>
-      <c r="L28" s="25" t="str">
+      <c r="L28" s="26" t="str">
         <f>IF(_tag_day_all!K25="","",_tag_day_all!K25)</f>
         <v/>
       </c>
-      <c r="M28" s="43" t="str">
+      <c r="M28" s="26" t="str">
         <f>IF(_tag_day_all!L25="","",_tag_day_all!L25)</f>
         <v/>
       </c>
-      <c r="N28" s="43" t="str">
+      <c r="N28" s="46" t="str">
         <f>IF(_tag_day_all!M25="","",_tag_day_all!M25)</f>
         <v/>
       </c>
-      <c r="O28" s="25" t="str">
+      <c r="O28" s="26" t="str">
         <f>IF(_tag_day_all!N25="","",_tag_day_all!N25*100)</f>
         <v/>
       </c>
-      <c r="P28" s="24" t="str">
+      <c r="P28" s="26" t="str">
+        <f>IF(_tag_day_all!AL25="","",_tag_day_all!AL25)</f>
+        <v/>
+      </c>
+      <c r="Q28" s="25" t="str">
+        <f>IF(_tag_day_all!AM25="","",_tag_day_all!AM25)</f>
+        <v/>
+      </c>
+      <c r="R28" s="25" t="str">
         <f>IF(_tag_day_all!O25="","",_tag_day_all!O25)</f>
         <v/>
       </c>
-      <c r="Q28" s="24" t="str">
+      <c r="S28" s="25" t="str">
         <f>IF(_tag_day_all!P25="","",_tag_day_all!P25)</f>
         <v/>
       </c>
-      <c r="R28" s="24" t="str">
+      <c r="T28" s="25" t="str">
         <f>IF(_tag_day_all!Q25="","",_tag_day_all!Q25)</f>
         <v/>
       </c>
-      <c r="S28" s="24" t="str">
+      <c r="U28" s="25" t="str">
         <f>IF(_tag_day_all!R25="","",_tag_day_all!R25)</f>
         <v/>
       </c>
-      <c r="T28" s="24" t="str">
+      <c r="V28" s="25" t="str">
         <f>IF(_tag_day_all!S25="","",_tag_day_all!S25)</f>
         <v/>
       </c>
-      <c r="U28" s="24" t="str">
+      <c r="W28" s="25" t="str">
         <f>IF(_tag_day_all!T25="","",_tag_day_all!T25)</f>
         <v/>
       </c>
-      <c r="V28" s="25" t="str">
+      <c r="X28" s="26" t="str">
         <f>IF(_tag_day_all!U25="","",_tag_day_all!U25)</f>
         <v/>
       </c>
-      <c r="W28" s="25" t="str">
+      <c r="Y28" s="26" t="str">
         <f>IF(_tag_day_all!V25="","",_tag_day_all!V25)</f>
         <v/>
       </c>
-      <c r="X28" s="25" t="str">
+      <c r="Z28" s="26" t="str">
         <f>IF(_tag_day_all!W25="","",_tag_day_all!W25)</f>
         <v/>
       </c>
-      <c r="Y28" s="25" t="str">
+      <c r="AA28" s="26" t="str">
         <f>IF(_tag_day_all!X25="","",_tag_day_all!X25)</f>
         <v/>
       </c>
-      <c r="Z28" s="43" t="str">
+      <c r="AB28" s="46" t="str">
         <f>IF(_tag_day_all!Y25="","",_tag_day_all!Y25)</f>
         <v/>
       </c>
-      <c r="AA28" s="24" t="str">
+      <c r="AC28" s="25" t="str">
         <f>IF(_tag_day_all!Z25="","",_tag_day_all!Z25)</f>
         <v/>
       </c>
-      <c r="AB28" s="24" t="str">
+      <c r="AD28" s="25" t="str">
         <f>IF(_tag_day_all!AA25="","",_tag_day_all!AA25)</f>
         <v/>
       </c>
-      <c r="AC28" s="25" t="str">
+      <c r="AE28" s="26" t="str">
         <f>IF(_tag_day_all!AB25="","",_tag_day_all!AB25)</f>
         <v/>
       </c>
-      <c r="AD28" s="24" t="str">
+      <c r="AF28" s="25" t="str">
         <f>IF(_tag_day_all!AC25="","",_tag_day_all!AC25)</f>
         <v/>
       </c>
-      <c r="AE28" s="24" t="str">
+      <c r="AG28" s="25" t="str">
         <f>IF(_tag_day_all!AD25="","",_tag_day_all!AD25)</f>
         <v/>
       </c>
-      <c r="AF28" s="24" t="str">
+      <c r="AH28" s="25" t="str">
         <f>IF(_tag_day_all!AE25="","",_tag_day_all!AE25)</f>
         <v/>
       </c>
-      <c r="AG28" s="24" t="str">
+      <c r="AI28" s="25" t="str">
         <f>IF(_tag_day_all!AF25="","",_tag_day_all!AF25)</f>
         <v/>
       </c>
-      <c r="AH28" s="24" t="str">
+      <c r="AJ28" s="25" t="str">
         <f>IF(_tag_day_all!AG25="","",_tag_day_all!AG25)</f>
         <v/>
       </c>
-      <c r="AI28" s="25" t="str">
+      <c r="AK28" s="26" t="str">
         <f>IF(_tag_day_all!AH25="","",_tag_day_all!AH25)</f>
         <v/>
       </c>
-      <c r="AJ28" s="25" t="str">
+      <c r="AL28" s="26" t="str">
         <f>IF(_tag_day_all!AI25="","",_tag_day_all!AI25)</f>
         <v/>
       </c>
-      <c r="AK28" s="25" t="str">
+      <c r="AM28" s="26" t="str">
         <f>IF(_tag_day_all!AJ25="","",_tag_day_all!AJ25)</f>
         <v/>
       </c>
-      <c r="AL28" s="25" t="str">
+      <c r="AN28" s="26" t="str">
         <f>IF(_tag_day_all!AK25="","",_tag_day_all!AK25)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:38">
-      <c r="A29" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="27" t="str">
+    <row r="29" ht="13.5" spans="1:40">
+      <c r="A29" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="28" t="str">
         <f>IFERROR(AVERAGE(B5:B12),"")</f>
         <v/>
       </c>
-      <c r="C29" s="28" t="str">
-        <f t="shared" ref="C29:Z29" si="0">IFERROR(AVERAGE(C5:C12),"")</f>
-        <v/>
-      </c>
-      <c r="D29" s="28" t="str">
+      <c r="C29" s="29" t="str">
+        <f t="shared" ref="C29:AB29" si="0">IFERROR(AVERAGE(C5:C12),"")</f>
+        <v/>
+      </c>
+      <c r="D29" s="29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E29" s="27" t="str">
+      <c r="E29" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F29" s="29" t="str">
+      <c r="F29" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G29" s="27" t="str">
+      <c r="G29" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H29" s="29" t="str">
+      <c r="H29" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I29" s="29" t="str">
+      <c r="I29" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J29" s="44" t="str">
+      <c r="J29" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K29" s="44" t="str">
+      <c r="K29" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L29" s="29" t="str">
+      <c r="L29" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M29" s="44" t="str">
+      <c r="M29" s="30" t="str">
         <f>IF(SUM(M5:M12)=0,"",SUM(M5:M12))</f>
         <v/>
       </c>
-      <c r="N29" s="44" t="str">
+      <c r="N29" s="47" t="str">
         <f>IF(SUM(N5:N12)=0,"",SUM(N5:N12))</f>
         <v/>
       </c>
-      <c r="O29" s="29" t="str">
+      <c r="O29" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P29" s="27" t="str">
+      <c r="P29" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q29" s="27" t="str">
+      <c r="Q29" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R29" s="27" t="str">
+      <c r="R29" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S29" s="27" t="str">
+      <c r="S29" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="T29" s="27" t="str">
+      <c r="T29" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U29" s="27" t="str">
+      <c r="U29" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="V29" s="29" t="str">
+      <c r="V29" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="W29" s="29" t="str">
+      <c r="W29" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="X29" s="29" t="str">
+      <c r="X29" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y29" s="29" t="str">
+      <c r="Y29" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Z29" s="44" t="str">
+      <c r="Z29" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA29" s="27" t="str">
-        <f t="shared" ref="AA29:AL29" si="1">IFERROR(AVERAGE(AA5:AA12),"")</f>
-        <v/>
-      </c>
-      <c r="AB29" s="27" t="str">
+      <c r="AA29" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB29" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AC29" s="28" t="str">
+        <f t="shared" ref="AC29:AN29" si="1">IFERROR(AVERAGE(AC5:AC12),"")</f>
+        <v/>
+      </c>
+      <c r="AD29" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC29" s="29" t="str">
+      <c r="AE29" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AD29" s="27" t="str">
+      <c r="AF29" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE29" s="27" t="str">
+      <c r="AG29" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF29" s="27" t="str">
+      <c r="AH29" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AG29" s="27" t="str">
+      <c r="AI29" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH29" s="27" t="str">
+      <c r="AJ29" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AI29" s="29" t="str">
+      <c r="AK29" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AJ29" s="29" t="str">
+      <c r="AL29" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AK29" s="29" t="str">
+      <c r="AM29" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AL29" s="29" t="str">
+      <c r="AN29" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:38">
-      <c r="A30" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="27" t="str">
+    <row r="30" ht="13.5" spans="1:40">
+      <c r="A30" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="28" t="str">
         <f>IFERROR(AVERAGE(B13:B20),"")</f>
         <v/>
       </c>
-      <c r="C30" s="28" t="str">
-        <f t="shared" ref="C30:Z30" si="2">IFERROR(AVERAGE(C13:C20),"")</f>
-        <v/>
-      </c>
-      <c r="D30" s="28" t="str">
+      <c r="C30" s="29" t="str">
+        <f t="shared" ref="C30:AB30" si="2">IFERROR(AVERAGE(C13:C20),"")</f>
+        <v/>
+      </c>
+      <c r="D30" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E30" s="27" t="str">
+      <c r="E30" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F30" s="29" t="str">
+      <c r="F30" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G30" s="27" t="str">
+      <c r="G30" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H30" s="29" t="str">
+      <c r="H30" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I30" s="29" t="str">
+      <c r="I30" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J30" s="44" t="str">
+      <c r="J30" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K30" s="44" t="str">
+      <c r="K30" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L30" s="29" t="str">
+      <c r="L30" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M30" s="44" t="str">
+      <c r="M30" s="30" t="str">
         <f>IF(SUM(M13:M20)=0,"",SUM(M13:M20))</f>
         <v/>
       </c>
-      <c r="N30" s="44" t="str">
+      <c r="N30" s="47" t="str">
         <f>IF(SUM(N13:N20)=0,"",SUM(N13:N20))</f>
         <v/>
       </c>
-      <c r="O30" s="29" t="str">
+      <c r="O30" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P30" s="27" t="str">
+      <c r="P30" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q30" s="27" t="str">
+      <c r="Q30" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R30" s="27" t="str">
+      <c r="R30" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S30" s="27" t="str">
+      <c r="S30" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T30" s="27" t="str">
+      <c r="T30" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="U30" s="27" t="str">
+      <c r="U30" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="V30" s="29" t="str">
+      <c r="V30" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W30" s="29" t="str">
+      <c r="W30" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X30" s="29" t="str">
+      <c r="X30" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Y30" s="29" t="str">
+      <c r="Y30" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Z30" s="44" t="str">
+      <c r="Z30" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AA30" s="27" t="str">
-        <f t="shared" ref="AA30:AL30" si="3">IFERROR(AVERAGE(AA13:AA20),"")</f>
-        <v/>
-      </c>
-      <c r="AB30" s="27" t="str">
+      <c r="AA30" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AB30" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AC30" s="28" t="str">
+        <f t="shared" ref="AC30:AN30" si="3">IFERROR(AVERAGE(AC13:AC20),"")</f>
+        <v/>
+      </c>
+      <c r="AD30" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC30" s="29" t="str">
+      <c r="AE30" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AD30" s="27" t="str">
+      <c r="AF30" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AE30" s="27" t="str">
+      <c r="AG30" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AF30" s="27" t="str">
+      <c r="AH30" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AG30" s="27" t="str">
+      <c r="AI30" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH30" s="27" t="str">
+      <c r="AJ30" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AI30" s="29" t="str">
+      <c r="AK30" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AJ30" s="29" t="str">
+      <c r="AL30" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AK30" s="29" t="str">
+      <c r="AM30" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AL30" s="29" t="str">
+      <c r="AN30" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:38">
-      <c r="A31" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="27" t="str">
+    <row r="31" ht="13.5" spans="1:40">
+      <c r="A31" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="28" t="str">
         <f t="shared" ref="B31" si="4">IFERROR(AVERAGE(B21:B28),"")</f>
         <v/>
       </c>
-      <c r="C31" s="28" t="str">
-        <f t="shared" ref="C31:Z31" si="5">IFERROR(AVERAGE(C21:C28),"")</f>
-        <v/>
-      </c>
-      <c r="D31" s="28" t="str">
+      <c r="C31" s="29" t="str">
+        <f t="shared" ref="C31:AB31" si="5">IFERROR(AVERAGE(C21:C28),"")</f>
+        <v/>
+      </c>
+      <c r="D31" s="29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E31" s="27" t="str">
+      <c r="E31" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F31" s="29" t="str">
+      <c r="F31" s="30" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G31" s="27" t="str">
+      <c r="G31" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H31" s="29" t="str">
+      <c r="H31" s="30" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I31" s="29" t="str">
+      <c r="I31" s="30" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J31" s="44" t="str">
+      <c r="J31" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K31" s="44" t="str">
+      <c r="K31" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L31" s="29" t="str">
+      <c r="L31" s="30" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M31" s="44" t="str">
+      <c r="M31" s="30" t="str">
         <f>IF(SUM(M21:M28)=0,"",SUM(M21:M28))</f>
         <v/>
       </c>
-      <c r="N31" s="44" t="str">
+      <c r="N31" s="47" t="str">
         <f>IF(SUM(N21:N28)=0,"",SUM(N21:N28))</f>
         <v/>
       </c>
-      <c r="O31" s="29" t="str">
+      <c r="O31" s="30" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P31" s="27" t="str">
+      <c r="P31" s="30" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q31" s="27" t="str">
+      <c r="Q31" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R31" s="27" t="str">
+      <c r="R31" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S31" s="27" t="str">
+      <c r="S31" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="T31" s="27" t="str">
+      <c r="T31" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="U31" s="27" t="str">
+      <c r="U31" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="V31" s="29" t="str">
+      <c r="V31" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="W31" s="29" t="str">
+      <c r="W31" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X31" s="29" t="str">
+      <c r="X31" s="30" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y31" s="29" t="str">
+      <c r="Y31" s="30" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Z31" s="44" t="str">
+      <c r="Z31" s="30" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AA31" s="27" t="str">
-        <f t="shared" ref="AA31:AL31" si="6">IFERROR(AVERAGE(AA21:AA28),"")</f>
-        <v/>
-      </c>
-      <c r="AB31" s="27" t="str">
+      <c r="AA31" s="30" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AB31" s="47" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC31" s="28" t="str">
+        <f t="shared" ref="AC31:AN31" si="6">IFERROR(AVERAGE(AC21:AC28),"")</f>
+        <v/>
+      </c>
+      <c r="AD31" s="28" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AC31" s="29" t="str">
+      <c r="AE31" s="30" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AD31" s="27" t="str">
+      <c r="AF31" s="28" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AE31" s="27" t="str">
+      <c r="AG31" s="28" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AF31" s="27" t="str">
+      <c r="AH31" s="28" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AG31" s="27" t="str">
+      <c r="AI31" s="28" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH31" s="27" t="str">
+      <c r="AJ31" s="28" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AI31" s="29" t="str">
+      <c r="AK31" s="30" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AJ31" s="29" t="str">
+      <c r="AL31" s="30" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AK31" s="29" t="str">
+      <c r="AM31" s="30" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AL31" s="29" t="str">
+      <c r="AN31" s="30" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:38">
-      <c r="A32" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="31" t="str">
+    <row r="32" ht="13.5" spans="1:40">
+      <c r="A32" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="32" t="str">
         <f t="shared" ref="B32" si="7">IFERROR(AVERAGE(B5:B28),"")</f>
         <v/>
       </c>
-      <c r="C32" s="32" t="str">
-        <f t="shared" ref="C32:Z32" si="8">IFERROR(AVERAGE(C5:C28),"")</f>
-        <v/>
-      </c>
-      <c r="D32" s="32" t="str">
+      <c r="C32" s="33" t="str">
+        <f t="shared" ref="C32:AB32" si="8">IFERROR(AVERAGE(C5:C28),"")</f>
+        <v/>
+      </c>
+      <c r="D32" s="33" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E32" s="31" t="str">
+      <c r="E32" s="32" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F32" s="33" t="str">
+      <c r="F32" s="34" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G32" s="31" t="str">
+      <c r="G32" s="32" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H32" s="33" t="str">
+      <c r="H32" s="34" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I32" s="33" t="str">
+      <c r="I32" s="34" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J32" s="45" t="str">
+      <c r="J32" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K32" s="45" t="str">
+      <c r="K32" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L32" s="33" t="str">
+      <c r="L32" s="34" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M32" s="45" t="str">
+      <c r="M32" s="34" t="str">
         <f>IF(SUM(M5:M28)=0,"",SUM(M5:M28))</f>
         <v/>
       </c>
-      <c r="N32" s="45" t="str">
+      <c r="N32" s="48" t="str">
         <f>IF(SUM(N5:N28)=0,"",SUM(N5:N28))</f>
         <v/>
       </c>
-      <c r="O32" s="33" t="str">
+      <c r="O32" s="34" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P32" s="31" t="str">
+      <c r="P32" s="34" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q32" s="31" t="str">
+      <c r="Q32" s="32" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="R32" s="31" t="str">
+      <c r="R32" s="32" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S32" s="31" t="str">
+      <c r="S32" s="32" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="T32" s="31" t="str">
+      <c r="T32" s="32" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U32" s="31" t="str">
+      <c r="U32" s="32" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="V32" s="33" t="str">
+      <c r="V32" s="32" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="W32" s="33" t="str">
+      <c r="W32" s="32" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X32" s="33" t="str">
+      <c r="X32" s="34" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Y32" s="33" t="str">
+      <c r="Y32" s="34" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Z32" s="45" t="str">
+      <c r="Z32" s="34" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AA32" s="31" t="str">
-        <f t="shared" ref="AA32:AL32" si="9">IFERROR(AVERAGE(AA5:AA28),"")</f>
-        <v/>
-      </c>
-      <c r="AB32" s="31" t="str">
+      <c r="AA32" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB32" s="48" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AC32" s="32" t="str">
+        <f t="shared" ref="AC32:AN32" si="9">IFERROR(AVERAGE(AC5:AC28),"")</f>
+        <v/>
+      </c>
+      <c r="AD32" s="32" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AC32" s="33" t="str">
+      <c r="AE32" s="34" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AD32" s="31" t="str">
+      <c r="AF32" s="32" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AE32" s="31" t="str">
+      <c r="AG32" s="32" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AF32" s="31" t="str">
+      <c r="AH32" s="32" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AG32" s="31" t="str">
+      <c r="AI32" s="32" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AH32" s="31" t="str">
+      <c r="AJ32" s="32" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AI32" s="33" t="str">
+      <c r="AK32" s="34" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AJ32" s="33" t="str">
+      <c r="AL32" s="34" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AK32" s="33" t="str">
+      <c r="AM32" s="34" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AL32" s="33" t="str">
+      <c r="AN32" s="34" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:38">
-      <c r="A33" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="35" t="str">
-        <f t="shared" ref="B33:Z33" si="10">IFERROR(STDEV(B5:B28),"")</f>
-        <v/>
-      </c>
-      <c r="C33" s="36" t="str">
+    <row r="33" spans="1:40">
+      <c r="A33" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="36" t="str">
+        <f t="shared" ref="B33:AB33" si="10">IFERROR(STDEV(B5:B28),"")</f>
+        <v/>
+      </c>
+      <c r="C33" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D33" s="36" t="str">
+      <c r="D33" s="37" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E33" s="35" t="str">
+      <c r="E33" s="36" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F33" s="37" t="str">
+      <c r="F33" s="38" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G33" s="35" t="str">
+      <c r="G33" s="36" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H33" s="37" t="str">
+      <c r="H33" s="38" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I33" s="37" t="str">
+      <c r="I33" s="38" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J33" s="46" t="str">
+      <c r="J33" s="49" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K33" s="46" t="str">
+      <c r="K33" s="49" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L33" s="37" t="str">
+      <c r="L33" s="38" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M33" s="46" t="str">
+      <c r="M33" s="38" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N33" s="46" t="str">
+      <c r="N33" s="49" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="O33" s="37" t="str">
+      <c r="O33" s="38" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P33" s="35" t="str">
+      <c r="P33" s="38" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q33" s="35" t="str">
+      <c r="Q33" s="36" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="R33" s="35" t="str">
+      <c r="R33" s="36" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="S33" s="35" t="str">
+      <c r="S33" s="36" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="T33" s="35" t="str">
+      <c r="T33" s="36" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U33" s="35" t="str">
+      <c r="U33" s="36" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="V33" s="37" t="str">
+      <c r="V33" s="36" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="W33" s="37" t="str">
+      <c r="W33" s="36" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X33" s="37" t="str">
+      <c r="X33" s="38" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y33" s="37" t="str">
+      <c r="Y33" s="38" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Z33" s="46" t="str">
+      <c r="Z33" s="38" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AA33" s="35" t="str">
-        <f t="shared" ref="AA33:AL33" si="11">IFERROR(STDEV(AA5:AA28),"")</f>
-        <v/>
-      </c>
-      <c r="AB33" s="35" t="str">
+      <c r="AA33" s="38" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AB33" s="49" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AC33" s="36" t="str">
+        <f t="shared" ref="AC33:AN33" si="11">IFERROR(STDEV(AC5:AC28),"")</f>
+        <v/>
+      </c>
+      <c r="AD33" s="36" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AC33" s="37" t="str">
+      <c r="AE33" s="38" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AD33" s="35" t="str">
+      <c r="AF33" s="36" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AE33" s="35" t="str">
+      <c r="AG33" s="36" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AF33" s="35" t="str">
+      <c r="AH33" s="36" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AG33" s="35" t="str">
+      <c r="AI33" s="36" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AH33" s="35" t="str">
+      <c r="AJ33" s="36" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AI33" s="37" t="str">
+      <c r="AK33" s="38" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AJ33" s="37" t="str">
+      <c r="AL33" s="38" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AK33" s="37" t="str">
+      <c r="AM33" s="38" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AL33" s="37" t="str">
+      <c r="AN33" s="38" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -6501,11 +6809,11 @@
     <row r="38" ht="38.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="B2:AC2"/>
-    <mergeCell ref="AD2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="B2:AE2"/>
+    <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="AK2:AN2"/>
     <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6542,8 +6850,8 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>83</v>
+      <c r="A1" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="B1">
         <v>7</v>
@@ -6558,125 +6866,131 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AK1"/>
+  <dimension ref="A1:AM1"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AL1" sqref="AL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="88.8" customHeight="1" spans="1:37">
+    <row r="1" s="1" customFormat="1" ht="88.8" customHeight="1" spans="1:39">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH1" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ1" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK1" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/excel/finished/7高炉/7高炉参数日报表.xlsx
+++ b/excel/finished/7高炉/7高炉参数日报表.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="日报表" sheetId="1" r:id="rId1"/>
-    <sheet name="_metadata" sheetId="6" r:id="rId2"/>
-    <sheet name="_dictionary" sheetId="4" r:id="rId3"/>
-    <sheet name="_tag_day_all" sheetId="3" r:id="rId4"/>
+    <sheet name="日报表" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="_metadata" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="_dictionary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="_tag_day_all" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>高炉参数日报</t>
   </si>
@@ -32,74 +31,74 @@
     <t>炉顶煤气分析成分</t>
   </si>
   <si>
-    <t>风量
+    <t xml:space="preserve">风量
 m3/min</t>
   </si>
   <si>
-    <t>冷风压力
+    <t xml:space="preserve">冷风压力
 KPa</t>
   </si>
   <si>
-    <t>热风压力
+    <t xml:space="preserve">热风压力
 Kpa</t>
   </si>
   <si>
-    <t>富氧量
+    <t xml:space="preserve">富氧量
 m3/h</t>
   </si>
   <si>
-    <t>富氧率
+    <t xml:space="preserve">富氧率
 %</t>
   </si>
   <si>
-    <t>风温
+    <t xml:space="preserve">风温
 ℃</t>
   </si>
   <si>
     <t>热负荷MJx10/h</t>
   </si>
   <si>
-    <t>水温差  ℃</t>
-  </si>
-  <si>
-    <t>炉顶压力
+    <t xml:space="preserve">水温差  ℃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">炉顶压力
 Kpa</t>
   </si>
   <si>
-    <t>全压差
+    <t xml:space="preserve">全压差
 Kpa</t>
   </si>
   <si>
-    <t>风湿
+    <t xml:space="preserve">风湿
 g/m3</t>
   </si>
   <si>
     <t>料速</t>
   </si>
   <si>
-    <t>喷煤量
+    <t xml:space="preserve">喷煤量
 t/h</t>
   </si>
   <si>
-    <t>煤气利用率
+    <t xml:space="preserve">煤气利用率
 %</t>
   </si>
   <si>
-    <t>焦比 kg/t</t>
-  </si>
-  <si>
-    <t>小焦比 kg/t</t>
-  </si>
-  <si>
-    <t>煤比
+    <t xml:space="preserve">焦比 kg/t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小焦比 kg/t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">煤比
 kg/t</t>
   </si>
   <si>
-    <t>燃料比
+    <t xml:space="preserve">燃料比
 kg/t</t>
   </si>
   <si>
-    <t>CCT</t>
+    <t>CCT1</t>
   </si>
   <si>
     <t>CCT2</t>
@@ -108,7 +107,7 @@
     <t>W4</t>
   </si>
   <si>
-    <t>炉底中心温度
+    <t xml:space="preserve">炉底中心温度
 ℃</t>
   </si>
   <si>
@@ -124,32 +123,32 @@
     <t>K值</t>
   </si>
   <si>
-    <t>鼓风动能
+    <t xml:space="preserve">鼓风动能
 kj/s</t>
   </si>
   <si>
-    <t>风速
+    <t xml:space="preserve">风速
 m/s</t>
   </si>
   <si>
-    <t>理论燃烧温度
+    <t xml:space="preserve">理论燃烧温度
 ℃</t>
   </si>
   <si>
-    <t>炉腹煤气指数 
+    <t xml:space="preserve">炉腹煤气指数 
 m3/min</t>
   </si>
   <si>
-    <t>45°</t>
-  </si>
-  <si>
-    <t>135°</t>
-  </si>
-  <si>
-    <t>225°</t>
-  </si>
-  <si>
-    <t>315°</t>
+    <t>东北</t>
+  </si>
+  <si>
+    <t>西北</t>
+  </si>
+  <si>
+    <t>西南</t>
+  </si>
+  <si>
+    <t>东南</t>
   </si>
   <si>
     <t>顶温均值</t>
@@ -161,18 +160,16 @@
     <r>
       <rPr>
         <b/>
+        <rFont val="宋体"/>
         <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>C</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <rFont val="宋体"/>
         <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>O</t>
     </r>
@@ -181,18 +178,16 @@
     <r>
       <rPr>
         <b/>
+        <rFont val="宋体"/>
         <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>H</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <rFont val="宋体"/>
         <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -201,18 +196,16 @@
     <r>
       <rPr>
         <b/>
+        <rFont val="宋体"/>
         <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>N</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <rFont val="宋体"/>
         <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -347,6 +340,9 @@
     <t>version</t>
   </si>
   <si>
+    <t>BF7_L2C_BD_OxygenFlow1_1h_avg</t>
+  </si>
+  <si>
     <t>BF7_L2C_BD_topgasn_1h_avg</t>
   </si>
   <si>
@@ -354,6 +350,9 @@
   </si>
   <si>
     <t>BF7_L2M_SHS_FuelRate_1h_avg</t>
+  </si>
+  <si>
+    <t>BF7_L2M_BoshgasFlowIndex_1h_avg</t>
   </si>
   <si>
     <t>BF7_L2M_SHS_CokeRate_1h_avg</t>
@@ -365,219 +364,184 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
-    <numFmt numFmtId="178" formatCode="h:mm;@"/>
+    <numFmt numFmtId="160" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="161" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="162" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="163" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
+      <name val="Calibri"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <color theme="0"/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color indexed="4"/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <color indexed="20"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b/>
+      <color theme="3"/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <color indexed="2"/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
+      <color theme="3"/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="Calibri"/>
+      <i/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
+      <b/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
+      <b/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color indexed="65"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <name val="宋体"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="黑体"/>
+      <b/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+    </font>
+    <font>
       <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <color indexed="2"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <color indexed="64"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="38">
@@ -585,222 +549,222 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="6" tint="0.79998168889431398"/>
+        <bgColor theme="6" tint="0.79998168889431398"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810496"/>
+        <bgColor theme="6" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241899"/>
+        <bgColor theme="6" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241899"/>
+        <bgColor theme="5" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241899"/>
+        <bgColor theme="4" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241899"/>
+        <bgColor theme="7" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431398"/>
+        <bgColor theme="9" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431398"/>
+        <bgColor theme="8" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431398"/>
+        <bgColor theme="4" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810496"/>
+        <bgColor theme="4" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431398"/>
+        <bgColor theme="5" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810496"/>
+        <bgColor theme="5" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431398"/>
+        <bgColor theme="7" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810496"/>
+        <bgColor theme="7" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810496"/>
+        <bgColor theme="8" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241899"/>
+        <bgColor theme="8" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810496"/>
+        <bgColor theme="9" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241899"/>
+        <bgColor theme="9" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.149876400036622"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="0" tint="-0.149876400036622"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
+        <bgColor indexed="22"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
+        <bgColor indexed="55"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="65"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -814,217 +778,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalDown="1">
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal style="medium">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalDown="1">
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="medium">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,22 +811,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1071,8 +819,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1094,6 +857,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1102,325 +874,508 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal style="medium">
+        <color theme="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="medium">
+        <color theme="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="1" fillId="3" borderId="1" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="161" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="162" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="163" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="3" fillId="6" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="7" borderId="2" numFmtId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="3" fillId="8" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="10" fillId="0" borderId="3" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="11" fillId="0" borderId="3" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="3" fillId="9" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="6" fillId="0" borderId="4" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="3" fillId="10" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="12" fillId="11" borderId="5" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="13" fillId="11" borderId="1" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="14" fillId="12" borderId="6" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="13" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="3" fillId="14" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="15" fillId="0" borderId="7" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="16" fillId="0" borderId="8" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="17" fillId="15" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="18" fillId="16" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="17" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="3" fillId="18" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="19" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="20" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="21" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="22" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="3" fillId="23" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="3" fillId="24" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="25" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="26" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="3" fillId="27" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="28" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="3" fillId="29" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="3" fillId="30" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="31" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="3" fillId="32" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="62">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="19" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="19" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="19" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="19" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="19" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="20" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="20" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="20" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="20" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="20" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="20" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="21" fillId="33" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="22" fillId="33" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="22" fillId="33" borderId="10" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="22" fillId="33" borderId="10" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="22" fillId="33" borderId="10" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="22" fillId="33" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="22" fillId="33" borderId="12" numFmtId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="23" fillId="33" borderId="10" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="23" fillId="33" borderId="11" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="22" fillId="33" borderId="12" numFmtId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="23" fillId="33" borderId="10" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="23" fillId="33" borderId="11" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="21" fillId="33" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf fontId="24" fillId="33" borderId="14" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="24" fillId="33" borderId="14" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="24" fillId="33" borderId="14" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="24" fillId="33" borderId="14" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="24" fillId="33" borderId="15" numFmtId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="25" fillId="34" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="25" fillId="34" borderId="15" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="25" fillId="34" borderId="15" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="25" fillId="34" borderId="15" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="25" fillId="34" borderId="17" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="25" fillId="34" borderId="15" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="26" fillId="34" borderId="15" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="26" fillId="34" borderId="15" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="25" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf fontId="25" fillId="0" borderId="15" numFmtId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf fontId="25" fillId="0" borderId="15" numFmtId="164" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="25" fillId="0" borderId="15" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="25" fillId="0" borderId="15" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="25" fillId="0" borderId="15" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="25" fillId="0" borderId="15" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="25" fillId="35" borderId="18" numFmtId="166" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="25" fillId="35" borderId="19" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="25" fillId="35" borderId="19" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="25" fillId="35" borderId="19" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="25" fillId="35" borderId="19" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="25" fillId="36" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="25" fillId="36" borderId="15" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="25" fillId="36" borderId="15" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="25" fillId="36" borderId="15" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="25" fillId="36" borderId="15" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="25" fillId="36" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="25" fillId="36" borderId="21" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="25" fillId="36" borderId="21" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="25" fillId="36" borderId="21" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="4" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="25" fillId="36" borderId="21" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="9" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    </xf>
+    <xf fontId="27" fillId="37" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1474,17 +1429,13 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="Normal_dailyreport_2008-03-14_Form1_translated" xfId="49"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1529,13 +1480,13 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -1558,19 +1509,18 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -1593,7 +1543,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1764,5049 +1713,5257 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AN38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="L20" activeCellId="0" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.775" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="4" width="9" style="10"/>
-    <col min="5" max="5" width="9" style="9"/>
-    <col min="6" max="6" width="9" style="11"/>
-    <col min="7" max="7" width="9" style="9"/>
-    <col min="8" max="9" width="9" style="11"/>
-    <col min="10" max="11" width="9" style="12"/>
-    <col min="12" max="13" width="9" style="11"/>
-    <col min="14" max="14" width="9" style="12"/>
-    <col min="15" max="16" width="9" style="11"/>
-    <col min="17" max="17" width="9" style="9" hidden="1" customWidth="1"/>
-    <col min="18" max="23" width="9" style="9"/>
-    <col min="24" max="27" width="9" style="11"/>
-    <col min="28" max="28" width="9" style="12"/>
-    <col min="29" max="30" width="9" style="9"/>
-    <col min="31" max="31" width="9" style="11"/>
-    <col min="32" max="34" width="9" style="9"/>
-    <col min="35" max="36" width="9" style="9" customWidth="1"/>
-    <col min="37" max="37" width="9.88333333333333" style="11" customWidth="1"/>
-    <col min="38" max="39" width="9" style="11"/>
-    <col min="40" max="40" width="8.66666666666667" style="11" customWidth="1"/>
-    <col min="41" max="16384" width="9" style="1"/>
+    <col customWidth="1" min="1" max="1" style="0" width="9.7750000000000004"/>
+    <col min="2" max="2" style="2" width="9"/>
+    <col min="3" max="4" style="3" width="9"/>
+    <col min="5" max="5" style="2" width="9"/>
+    <col min="6" max="6" style="4" width="9"/>
+    <col min="7" max="7" style="2" width="9"/>
+    <col min="8" max="9" style="4" width="9"/>
+    <col min="10" max="11" style="5" width="9"/>
+    <col min="12" max="13" style="4" width="9"/>
+    <col min="14" max="14" style="5" width="9"/>
+    <col min="15" max="16" style="4" width="9"/>
+    <col customWidth="1" hidden="1" min="17" max="17" style="2" width="9"/>
+    <col min="18" max="23" style="2" width="9"/>
+    <col min="24" max="27" style="4" width="9"/>
+    <col min="28" max="28" style="5" width="9"/>
+    <col min="29" max="30" style="2" width="9"/>
+    <col min="31" max="31" style="4" width="9"/>
+    <col min="32" max="34" style="2" width="9"/>
+    <col customWidth="1" min="35" max="36" style="2" width="9"/>
+    <col customWidth="1" min="37" max="37" style="4" width="9.8833333333333293"/>
+    <col min="38" max="39" style="4" width="9"/>
+    <col customWidth="1" min="40" max="40" style="4" width="8.6666666666666696"/>
+    <col min="41" max="16384" style="1" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" spans="1:38">
-      <c r="A1" s="13" t="s">
+    <row ht="21" r="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13" t="str">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
     </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:40">
-      <c r="A2" s="14" t="s">
+    <row ht="19.5" customHeight="1" r="2">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="57" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="61" t="s">
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="AL2" s="62"/>
-      <c r="AM2" s="62"/>
-      <c r="AN2" s="63"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="24"/>
     </row>
-    <row r="3" ht="36.75" spans="1:40">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17" t="s">
+    <row ht="32.25" r="3">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="43" t="s">
+      <c r="N3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="S3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="T3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="U3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="V3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="17" t="s">
+      <c r="W3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="19" t="s">
+      <c r="X3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="19" t="s">
+      <c r="Y3" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="19" t="s">
+      <c r="Z3" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="19" t="s">
+      <c r="AA3" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AB3" s="43" t="s">
+      <c r="AB3" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="AC3" s="17" t="s">
+      <c r="AC3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="AD3" s="17" t="s">
+      <c r="AD3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="AE3" s="19" t="s">
+      <c r="AE3" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="AF3" s="58" t="s">
+      <c r="AF3" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="AG3" s="58" t="s">
+      <c r="AG3" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="AH3" s="58" t="s">
+      <c r="AH3" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="AI3" s="58" t="s">
+      <c r="AI3" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AJ3" s="58" t="s">
+      <c r="AJ3" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AK3" s="19" t="s">
+      <c r="AK3" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="AL3" s="19" t="s">
+      <c r="AL3" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="AM3" s="19" t="s">
+      <c r="AM3" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="AN3" s="19" t="s">
+      <c r="AN3" s="28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" ht="88.8" hidden="1" customHeight="1" spans="1:40">
-      <c r="A4" s="20" t="s">
+    <row ht="88.799999999999997" customHeight="1" hidden="1" r="4">
+      <c r="A4" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="45" t="s">
+      <c r="O4" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="5" t="s">
+      <c r="P4" s="37"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="V4" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="W4" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Y4" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="Z4" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AA4" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AB4" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AC4" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AD4" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AE4" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AF4" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AG4" s="2" t="s">
+      <c r="AG4" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AH4" s="2" t="s">
+      <c r="AH4" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AI4" s="2" t="s">
+      <c r="AI4" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="AJ4" s="2" t="s">
+      <c r="AJ4" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AK4" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="AL4" s="4" t="s">
+      <c r="AL4" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="AM4" s="4" t="s">
+      <c r="AM4" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="AN4" s="4" t="s">
+      <c r="AN4" s="34" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" ht="13.5" spans="1:40">
-      <c r="A5" s="21">
+    <row r="5">
+      <c r="A5" s="39">
         <v>1</v>
       </c>
-      <c r="B5" s="22" t="str">
+      <c r="B5" s="40" t="str">
         <f>IF(_tag_day_all!A2="","",_tag_day_all!A2)</f>
         <v/>
       </c>
-      <c r="C5" s="23" t="str">
+      <c r="C5" s="41" t="str">
         <f>IF(_tag_day_all!B2="","",_tag_day_all!B2)</f>
         <v/>
       </c>
-      <c r="D5" s="24" t="str">
+      <c r="D5" s="42" t="str">
         <f>IF(_tag_day_all!C2="","",_tag_day_all!C2)</f>
         <v/>
       </c>
-      <c r="E5" s="25" t="str">
-        <f>IF(_tag_day_all!D2="","",_tag_day_all!D2)</f>
-        <v/>
-      </c>
-      <c r="F5" s="26" t="str">
+      <c r="E5" s="43" t="str">
+        <f>IF(_tag_day_all!D2="","",_tag_day_all!D2*10000)</f>
+        <v/>
+      </c>
+      <c r="F5" s="44" t="str">
         <f>IF(_tag_day_all!E2="","",_tag_day_all!E2)</f>
         <v/>
       </c>
-      <c r="G5" s="25" t="str">
+      <c r="G5" s="43" t="str">
         <f>IF(_tag_day_all!F2="","",_tag_day_all!F2)</f>
         <v/>
       </c>
-      <c r="H5" s="26" t="str">
+      <c r="H5" s="44" t="str">
         <f>IF(_tag_day_all!G2="","",_tag_day_all!G2)</f>
         <v/>
       </c>
-      <c r="I5" s="26" t="str">
+      <c r="I5" s="44" t="str">
         <f>IF(_tag_day_all!H2="","",_tag_day_all!H2)</f>
         <v/>
       </c>
-      <c r="J5" s="46" t="str">
+      <c r="J5" s="45" t="str">
         <f>IF(_tag_day_all!I2="","",_tag_day_all!I2)</f>
         <v/>
       </c>
-      <c r="K5" s="46" t="str">
+      <c r="K5" s="45" t="str">
         <f>IF(_tag_day_all!J2="","",_tag_day_all!J2)</f>
         <v/>
       </c>
-      <c r="L5" s="26" t="str">
+      <c r="L5" s="44" t="str">
         <f>IF(_tag_day_all!K2="","",_tag_day_all!K2)</f>
         <v/>
       </c>
-      <c r="M5" s="26" t="str">
+      <c r="M5" s="44" t="str">
         <f>IF(_tag_day_all!L2="","",_tag_day_all!L2)</f>
         <v/>
       </c>
-      <c r="N5" s="46" t="str">
+      <c r="N5" s="45" t="str">
         <f>IF(_tag_day_all!M2="","",_tag_day_all!M2)</f>
         <v/>
       </c>
-      <c r="O5" s="26" t="str">
+      <c r="O5" s="44" t="str">
         <f>IF(_tag_day_all!N2="","",_tag_day_all!N2*100)</f>
         <v/>
       </c>
-      <c r="P5" s="26" t="str">
+      <c r="P5" s="44" t="str">
         <f>IF(_tag_day_all!AL2="","",_tag_day_all!AL2)</f>
         <v/>
       </c>
-      <c r="Q5" s="25" t="str">
+      <c r="Q5" s="43" t="str">
         <f>IF(_tag_day_all!AM2="","",_tag_day_all!AM2)</f>
         <v/>
       </c>
-      <c r="R5" s="25" t="str">
+      <c r="R5" s="43" t="str">
         <f>IF(_tag_day_all!O2="","",_tag_day_all!O2)</f>
         <v/>
       </c>
-      <c r="S5" s="25" t="str">
+      <c r="S5" s="43" t="str">
         <f>IF(_tag_day_all!P2="","",_tag_day_all!P2)</f>
         <v/>
       </c>
-      <c r="T5" s="25" t="str">
+      <c r="T5" s="43" t="str">
         <f>IF(_tag_day_all!Q2="","",_tag_day_all!Q2)</f>
         <v/>
       </c>
-      <c r="U5" s="25" t="str">
+      <c r="U5" s="43" t="str">
         <f>IF(_tag_day_all!R2="","",_tag_day_all!R2)</f>
         <v/>
       </c>
-      <c r="V5" s="25" t="str">
+      <c r="V5" s="43" t="str">
         <f>IF(_tag_day_all!S2="","",_tag_day_all!S2)</f>
         <v/>
       </c>
-      <c r="W5" s="25" t="str">
+      <c r="W5" s="43" t="str">
         <f>IF(_tag_day_all!T2="","",_tag_day_all!T2)</f>
         <v/>
       </c>
-      <c r="X5" s="26" t="str">
+      <c r="X5" s="44" t="str">
         <f>IF(_tag_day_all!U2="","",_tag_day_all!U2)</f>
         <v/>
       </c>
-      <c r="Y5" s="26" t="str">
+      <c r="Y5" s="44" t="str">
         <f>IF(_tag_day_all!V2="","",_tag_day_all!V2)</f>
         <v/>
       </c>
-      <c r="Z5" s="26" t="str">
+      <c r="Z5" s="44" t="str">
         <f>IF(_tag_day_all!W2="","",_tag_day_all!W2)</f>
         <v/>
       </c>
-      <c r="AA5" s="26" t="str">
+      <c r="AA5" s="44" t="str">
         <f>IF(_tag_day_all!X2="","",_tag_day_all!X2)</f>
         <v/>
       </c>
-      <c r="AB5" s="46" t="str">
+      <c r="AB5" s="45" t="str">
         <f>IF(_tag_day_all!Y2="","",_tag_day_all!Y2)</f>
         <v/>
       </c>
-      <c r="AC5" s="25" t="str">
+      <c r="AC5" s="43" t="str">
         <f>IF(_tag_day_all!Z2="","",_tag_day_all!Z2)</f>
         <v/>
       </c>
-      <c r="AD5" s="25" t="str">
+      <c r="AD5" s="43" t="str">
         <f>IF(_tag_day_all!AA2="","",_tag_day_all!AA2)</f>
         <v/>
       </c>
-      <c r="AE5" s="26" t="str">
+      <c r="AE5" s="44" t="str">
         <f>IF(_tag_day_all!AB2="","",_tag_day_all!AB2)</f>
         <v/>
       </c>
-      <c r="AF5" s="25" t="str">
+      <c r="AF5" s="43" t="str">
         <f>IF(_tag_day_all!AC2="","",_tag_day_all!AC2)</f>
         <v/>
       </c>
-      <c r="AG5" s="25" t="str">
+      <c r="AG5" s="43" t="str">
         <f>IF(_tag_day_all!AD2="","",_tag_day_all!AD2)</f>
         <v/>
       </c>
-      <c r="AH5" s="25" t="str">
+      <c r="AH5" s="43" t="str">
         <f>IF(_tag_day_all!AE2="","",_tag_day_all!AE2)</f>
         <v/>
       </c>
-      <c r="AI5" s="25" t="str">
+      <c r="AI5" s="43" t="str">
         <f>IF(_tag_day_all!AF2="","",_tag_day_all!AF2)</f>
         <v/>
       </c>
-      <c r="AJ5" s="25" t="str">
+      <c r="AJ5" s="43" t="str">
         <f>IF(_tag_day_all!AG2="","",_tag_day_all!AG2)</f>
         <v/>
       </c>
-      <c r="AK5" s="26" t="str">
+      <c r="AK5" s="44" t="str">
         <f>IF(_tag_day_all!AH2="","",_tag_day_all!AH2)</f>
         <v/>
       </c>
-      <c r="AL5" s="26" t="str">
+      <c r="AL5" s="44" t="str">
         <f>IF(_tag_day_all!AI2="","",_tag_day_all!AI2)</f>
         <v/>
       </c>
-      <c r="AM5" s="26" t="str">
+      <c r="AM5" s="44" t="str">
         <f>IF(_tag_day_all!AJ2="","",_tag_day_all!AJ2)</f>
         <v/>
       </c>
-      <c r="AN5" s="26" t="str">
+      <c r="AN5" s="44" t="str">
         <f>IF(_tag_day_all!AK2="","",_tag_day_all!AK2)</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="13.5" spans="1:40">
-      <c r="A6" s="21">
+    <row r="6">
+      <c r="A6" s="39">
         <v>2</v>
       </c>
-      <c r="B6" s="22" t="str">
+      <c r="B6" s="40" t="str">
         <f>IF(_tag_day_all!A3="","",_tag_day_all!A3)</f>
         <v/>
       </c>
-      <c r="C6" s="23" t="str">
+      <c r="C6" s="41" t="str">
         <f>IF(_tag_day_all!B3="","",_tag_day_all!B3)</f>
         <v/>
       </c>
-      <c r="D6" s="24" t="str">
+      <c r="D6" s="42" t="str">
         <f>IF(_tag_day_all!C3="","",_tag_day_all!C3)</f>
         <v/>
       </c>
-      <c r="E6" s="25" t="str">
-        <f>IF(_tag_day_all!D3="","",_tag_day_all!D3)</f>
-        <v/>
-      </c>
-      <c r="F6" s="26" t="str">
+      <c r="E6" s="43" t="str">
+        <f>IF(_tag_day_all!D3="","",_tag_day_all!D3*10000)</f>
+        <v/>
+      </c>
+      <c r="F6" s="44" t="str">
         <f>IF(_tag_day_all!E3="","",_tag_day_all!E3)</f>
         <v/>
       </c>
-      <c r="G6" s="25" t="str">
+      <c r="G6" s="43" t="str">
         <f>IF(_tag_day_all!F3="","",_tag_day_all!F3)</f>
         <v/>
       </c>
-      <c r="H6" s="26" t="str">
+      <c r="H6" s="44" t="str">
         <f>IF(_tag_day_all!G3="","",_tag_day_all!G3)</f>
         <v/>
       </c>
-      <c r="I6" s="26" t="str">
+      <c r="I6" s="44" t="str">
         <f>IF(_tag_day_all!H3="","",_tag_day_all!H3)</f>
         <v/>
       </c>
-      <c r="J6" s="46" t="str">
+      <c r="J6" s="45" t="str">
         <f>IF(_tag_day_all!I3="","",_tag_day_all!I3)</f>
         <v/>
       </c>
-      <c r="K6" s="46" t="str">
+      <c r="K6" s="45" t="str">
         <f>IF(_tag_day_all!J3="","",_tag_day_all!J3)</f>
         <v/>
       </c>
-      <c r="L6" s="26" t="str">
+      <c r="L6" s="44" t="str">
         <f>IF(_tag_day_all!K3="","",_tag_day_all!K3)</f>
         <v/>
       </c>
-      <c r="M6" s="26" t="str">
+      <c r="M6" s="44" t="str">
         <f>IF(_tag_day_all!L3="","",_tag_day_all!L3)</f>
         <v/>
       </c>
-      <c r="N6" s="46" t="str">
+      <c r="N6" s="45" t="str">
         <f>IF(_tag_day_all!M3="","",_tag_day_all!M3)</f>
         <v/>
       </c>
-      <c r="O6" s="26" t="str">
+      <c r="O6" s="44" t="str">
         <f>IF(_tag_day_all!N3="","",_tag_day_all!N3*100)</f>
         <v/>
       </c>
-      <c r="P6" s="26" t="str">
+      <c r="P6" s="44" t="str">
         <f>IF(_tag_day_all!AL3="","",_tag_day_all!AL3)</f>
         <v/>
       </c>
-      <c r="Q6" s="25" t="str">
+      <c r="Q6" s="43" t="str">
         <f>IF(_tag_day_all!AM3="","",_tag_day_all!AM3)</f>
         <v/>
       </c>
-      <c r="R6" s="25" t="str">
+      <c r="R6" s="43" t="str">
         <f>IF(_tag_day_all!O3="","",_tag_day_all!O3)</f>
         <v/>
       </c>
-      <c r="S6" s="25" t="str">
+      <c r="S6" s="43" t="str">
         <f>IF(_tag_day_all!P3="","",_tag_day_all!P3)</f>
         <v/>
       </c>
-      <c r="T6" s="25" t="str">
+      <c r="T6" s="43" t="str">
         <f>IF(_tag_day_all!Q3="","",_tag_day_all!Q3)</f>
         <v/>
       </c>
-      <c r="U6" s="25" t="str">
+      <c r="U6" s="43" t="str">
         <f>IF(_tag_day_all!R3="","",_tag_day_all!R3)</f>
         <v/>
       </c>
-      <c r="V6" s="25" t="str">
+      <c r="V6" s="43" t="str">
         <f>IF(_tag_day_all!S3="","",_tag_day_all!S3)</f>
         <v/>
       </c>
-      <c r="W6" s="25" t="str">
+      <c r="W6" s="43" t="str">
         <f>IF(_tag_day_all!T3="","",_tag_day_all!T3)</f>
         <v/>
       </c>
-      <c r="X6" s="26" t="str">
+      <c r="X6" s="44" t="str">
         <f>IF(_tag_day_all!U3="","",_tag_day_all!U3)</f>
         <v/>
       </c>
-      <c r="Y6" s="26" t="str">
+      <c r="Y6" s="44" t="str">
         <f>IF(_tag_day_all!V3="","",_tag_day_all!V3)</f>
         <v/>
       </c>
-      <c r="Z6" s="26" t="str">
+      <c r="Z6" s="44" t="str">
         <f>IF(_tag_day_all!W3="","",_tag_day_all!W3)</f>
         <v/>
       </c>
-      <c r="AA6" s="26" t="str">
+      <c r="AA6" s="44" t="str">
         <f>IF(_tag_day_all!X3="","",_tag_day_all!X3)</f>
         <v/>
       </c>
-      <c r="AB6" s="46" t="str">
+      <c r="AB6" s="45" t="str">
         <f>IF(_tag_day_all!Y3="","",_tag_day_all!Y3)</f>
         <v/>
       </c>
-      <c r="AC6" s="25" t="str">
+      <c r="AC6" s="43" t="str">
         <f>IF(_tag_day_all!Z3="","",_tag_day_all!Z3)</f>
         <v/>
       </c>
-      <c r="AD6" s="25" t="str">
+      <c r="AD6" s="43" t="str">
         <f>IF(_tag_day_all!AA3="","",_tag_day_all!AA3)</f>
         <v/>
       </c>
-      <c r="AE6" s="26" t="str">
+      <c r="AE6" s="44" t="str">
         <f>IF(_tag_day_all!AB3="","",_tag_day_all!AB3)</f>
         <v/>
       </c>
-      <c r="AF6" s="25" t="str">
+      <c r="AF6" s="43" t="str">
         <f>IF(_tag_day_all!AC3="","",_tag_day_all!AC3)</f>
         <v/>
       </c>
-      <c r="AG6" s="25" t="str">
+      <c r="AG6" s="43" t="str">
         <f>IF(_tag_day_all!AD3="","",_tag_day_all!AD3)</f>
         <v/>
       </c>
-      <c r="AH6" s="25" t="str">
+      <c r="AH6" s="43" t="str">
         <f>IF(_tag_day_all!AE3="","",_tag_day_all!AE3)</f>
         <v/>
       </c>
-      <c r="AI6" s="25" t="str">
+      <c r="AI6" s="43" t="str">
         <f>IF(_tag_day_all!AF3="","",_tag_day_all!AF3)</f>
         <v/>
       </c>
-      <c r="AJ6" s="25" t="str">
+      <c r="AJ6" s="43" t="str">
         <f>IF(_tag_day_all!AG3="","",_tag_day_all!AG3)</f>
         <v/>
       </c>
-      <c r="AK6" s="26" t="str">
+      <c r="AK6" s="44" t="str">
         <f>IF(_tag_day_all!AH3="","",_tag_day_all!AH3)</f>
         <v/>
       </c>
-      <c r="AL6" s="26" t="str">
+      <c r="AL6" s="44" t="str">
         <f>IF(_tag_day_all!AI3="","",_tag_day_all!AI3)</f>
         <v/>
       </c>
-      <c r="AM6" s="26" t="str">
+      <c r="AM6" s="44" t="str">
         <f>IF(_tag_day_all!AJ3="","",_tag_day_all!AJ3)</f>
         <v/>
       </c>
-      <c r="AN6" s="26" t="str">
+      <c r="AN6" s="44" t="str">
         <f>IF(_tag_day_all!AK3="","",_tag_day_all!AK3)</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="13.5" spans="1:40">
-      <c r="A7" s="21">
+    <row r="7">
+      <c r="A7" s="39">
         <v>3</v>
       </c>
-      <c r="B7" s="22" t="str">
+      <c r="B7" s="40" t="str">
         <f>IF(_tag_day_all!A4="","",_tag_day_all!A4)</f>
         <v/>
       </c>
-      <c r="C7" s="23" t="str">
+      <c r="C7" s="41" t="str">
         <f>IF(_tag_day_all!B4="","",_tag_day_all!B4)</f>
         <v/>
       </c>
-      <c r="D7" s="24" t="str">
+      <c r="D7" s="42" t="str">
         <f>IF(_tag_day_all!C4="","",_tag_day_all!C4)</f>
         <v/>
       </c>
-      <c r="E7" s="25" t="str">
-        <f>IF(_tag_day_all!D4="","",_tag_day_all!D4)</f>
-        <v/>
-      </c>
-      <c r="F7" s="26" t="str">
+      <c r="E7" s="43" t="str">
+        <f>IF(_tag_day_all!D4="","",_tag_day_all!D4*10000)</f>
+        <v/>
+      </c>
+      <c r="F7" s="44" t="str">
         <f>IF(_tag_day_all!E4="","",_tag_day_all!E4)</f>
         <v/>
       </c>
-      <c r="G7" s="25" t="str">
+      <c r="G7" s="43" t="str">
         <f>IF(_tag_day_all!F4="","",_tag_day_all!F4)</f>
         <v/>
       </c>
-      <c r="H7" s="26" t="str">
+      <c r="H7" s="44" t="str">
         <f>IF(_tag_day_all!G4="","",_tag_day_all!G4)</f>
         <v/>
       </c>
-      <c r="I7" s="26" t="str">
+      <c r="I7" s="44" t="str">
         <f>IF(_tag_day_all!H4="","",_tag_day_all!H4)</f>
         <v/>
       </c>
-      <c r="J7" s="46" t="str">
+      <c r="J7" s="45" t="str">
         <f>IF(_tag_day_all!I4="","",_tag_day_all!I4)</f>
         <v/>
       </c>
-      <c r="K7" s="46" t="str">
+      <c r="K7" s="45" t="str">
         <f>IF(_tag_day_all!J4="","",_tag_day_all!J4)</f>
         <v/>
       </c>
-      <c r="L7" s="26" t="str">
+      <c r="L7" s="44" t="str">
         <f>IF(_tag_day_all!K4="","",_tag_day_all!K4)</f>
         <v/>
       </c>
-      <c r="M7" s="26" t="str">
+      <c r="M7" s="44" t="str">
         <f>IF(_tag_day_all!L4="","",_tag_day_all!L4)</f>
         <v/>
       </c>
-      <c r="N7" s="46" t="str">
+      <c r="N7" s="45" t="str">
         <f>IF(_tag_day_all!M4="","",_tag_day_all!M4)</f>
         <v/>
       </c>
-      <c r="O7" s="26" t="str">
+      <c r="O7" s="44" t="str">
         <f>IF(_tag_day_all!N4="","",_tag_day_all!N4*100)</f>
         <v/>
       </c>
-      <c r="P7" s="26" t="str">
+      <c r="P7" s="44" t="str">
         <f>IF(_tag_day_all!AL4="","",_tag_day_all!AL4)</f>
         <v/>
       </c>
-      <c r="Q7" s="25" t="str">
+      <c r="Q7" s="43" t="str">
         <f>IF(_tag_day_all!AM4="","",_tag_day_all!AM4)</f>
         <v/>
       </c>
-      <c r="R7" s="25" t="str">
+      <c r="R7" s="43" t="str">
         <f>IF(_tag_day_all!O4="","",_tag_day_all!O4)</f>
         <v/>
       </c>
-      <c r="S7" s="25" t="str">
+      <c r="S7" s="43" t="str">
         <f>IF(_tag_day_all!P4="","",_tag_day_all!P4)</f>
         <v/>
       </c>
-      <c r="T7" s="25" t="str">
+      <c r="T7" s="43" t="str">
         <f>IF(_tag_day_all!Q4="","",_tag_day_all!Q4)</f>
         <v/>
       </c>
-      <c r="U7" s="25" t="str">
+      <c r="U7" s="43" t="str">
         <f>IF(_tag_day_all!R4="","",_tag_day_all!R4)</f>
         <v/>
       </c>
-      <c r="V7" s="25" t="str">
+      <c r="V7" s="43" t="str">
         <f>IF(_tag_day_all!S4="","",_tag_day_all!S4)</f>
         <v/>
       </c>
-      <c r="W7" s="25" t="str">
+      <c r="W7" s="43" t="str">
         <f>IF(_tag_day_all!T4="","",_tag_day_all!T4)</f>
         <v/>
       </c>
-      <c r="X7" s="26" t="str">
+      <c r="X7" s="44" t="str">
         <f>IF(_tag_day_all!U4="","",_tag_day_all!U4)</f>
         <v/>
       </c>
-      <c r="Y7" s="26" t="str">
+      <c r="Y7" s="44" t="str">
         <f>IF(_tag_day_all!V4="","",_tag_day_all!V4)</f>
         <v/>
       </c>
-      <c r="Z7" s="26" t="str">
+      <c r="Z7" s="44" t="str">
         <f>IF(_tag_day_all!W4="","",_tag_day_all!W4)</f>
         <v/>
       </c>
-      <c r="AA7" s="26" t="str">
+      <c r="AA7" s="44" t="str">
         <f>IF(_tag_day_all!X4="","",_tag_day_all!X4)</f>
         <v/>
       </c>
-      <c r="AB7" s="46" t="str">
+      <c r="AB7" s="45" t="str">
         <f>IF(_tag_day_all!Y4="","",_tag_day_all!Y4)</f>
         <v/>
       </c>
-      <c r="AC7" s="25" t="str">
+      <c r="AC7" s="43" t="str">
         <f>IF(_tag_day_all!Z4="","",_tag_day_all!Z4)</f>
         <v/>
       </c>
-      <c r="AD7" s="25" t="str">
+      <c r="AD7" s="43" t="str">
         <f>IF(_tag_day_all!AA4="","",_tag_day_all!AA4)</f>
         <v/>
       </c>
-      <c r="AE7" s="26" t="str">
+      <c r="AE7" s="44" t="str">
         <f>IF(_tag_day_all!AB4="","",_tag_day_all!AB4)</f>
         <v/>
       </c>
-      <c r="AF7" s="25" t="str">
+      <c r="AF7" s="43" t="str">
         <f>IF(_tag_day_all!AC4="","",_tag_day_all!AC4)</f>
         <v/>
       </c>
-      <c r="AG7" s="25" t="str">
+      <c r="AG7" s="43" t="str">
         <f>IF(_tag_day_all!AD4="","",_tag_day_all!AD4)</f>
         <v/>
       </c>
-      <c r="AH7" s="25" t="str">
+      <c r="AH7" s="43" t="str">
         <f>IF(_tag_day_all!AE4="","",_tag_day_all!AE4)</f>
         <v/>
       </c>
-      <c r="AI7" s="25" t="str">
+      <c r="AI7" s="43" t="str">
         <f>IF(_tag_day_all!AF4="","",_tag_day_all!AF4)</f>
         <v/>
       </c>
-      <c r="AJ7" s="25" t="str">
+      <c r="AJ7" s="43" t="str">
         <f>IF(_tag_day_all!AG4="","",_tag_day_all!AG4)</f>
         <v/>
       </c>
-      <c r="AK7" s="26" t="str">
+      <c r="AK7" s="44" t="str">
         <f>IF(_tag_day_all!AH4="","",_tag_day_all!AH4)</f>
         <v/>
       </c>
-      <c r="AL7" s="26" t="str">
+      <c r="AL7" s="44" t="str">
         <f>IF(_tag_day_all!AI4="","",_tag_day_all!AI4)</f>
         <v/>
       </c>
-      <c r="AM7" s="26" t="str">
+      <c r="AM7" s="44" t="str">
         <f>IF(_tag_day_all!AJ4="","",_tag_day_all!AJ4)</f>
         <v/>
       </c>
-      <c r="AN7" s="26" t="str">
+      <c r="AN7" s="44" t="str">
         <f>IF(_tag_day_all!AK4="","",_tag_day_all!AK4)</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="13.5" spans="1:40">
-      <c r="A8" s="21">
+    <row r="8">
+      <c r="A8" s="39">
         <v>4</v>
       </c>
-      <c r="B8" s="22" t="str">
+      <c r="B8" s="40" t="str">
         <f>IF(_tag_day_all!A5="","",_tag_day_all!A5)</f>
         <v/>
       </c>
-      <c r="C8" s="23" t="str">
+      <c r="C8" s="41" t="str">
         <f>IF(_tag_day_all!B5="","",_tag_day_all!B5)</f>
         <v/>
       </c>
-      <c r="D8" s="24" t="str">
+      <c r="D8" s="42" t="str">
         <f>IF(_tag_day_all!C5="","",_tag_day_all!C5)</f>
         <v/>
       </c>
-      <c r="E8" s="25" t="str">
-        <f>IF(_tag_day_all!D5="","",_tag_day_all!D5)</f>
-        <v/>
-      </c>
-      <c r="F8" s="26" t="str">
+      <c r="E8" s="43" t="str">
+        <f>IF(_tag_day_all!D5="","",_tag_day_all!D5*10000)</f>
+        <v/>
+      </c>
+      <c r="F8" s="44" t="str">
         <f>IF(_tag_day_all!E5="","",_tag_day_all!E5)</f>
         <v/>
       </c>
-      <c r="G8" s="25" t="str">
+      <c r="G8" s="43" t="str">
         <f>IF(_tag_day_all!F5="","",_tag_day_all!F5)</f>
         <v/>
       </c>
-      <c r="H8" s="26" t="str">
+      <c r="H8" s="44" t="str">
         <f>IF(_tag_day_all!G5="","",_tag_day_all!G5)</f>
         <v/>
       </c>
-      <c r="I8" s="26" t="str">
+      <c r="I8" s="44" t="str">
         <f>IF(_tag_day_all!H5="","",_tag_day_all!H5)</f>
         <v/>
       </c>
-      <c r="J8" s="46" t="str">
+      <c r="J8" s="45" t="str">
         <f>IF(_tag_day_all!I5="","",_tag_day_all!I5)</f>
         <v/>
       </c>
-      <c r="K8" s="46" t="str">
+      <c r="K8" s="45" t="str">
         <f>IF(_tag_day_all!J5="","",_tag_day_all!J5)</f>
         <v/>
       </c>
-      <c r="L8" s="26" t="str">
+      <c r="L8" s="44" t="str">
         <f>IF(_tag_day_all!K5="","",_tag_day_all!K5)</f>
         <v/>
       </c>
-      <c r="M8" s="26" t="str">
+      <c r="M8" s="44" t="str">
         <f>IF(_tag_day_all!L5="","",_tag_day_all!L5)</f>
         <v/>
       </c>
-      <c r="N8" s="46" t="str">
+      <c r="N8" s="45" t="str">
         <f>IF(_tag_day_all!M5="","",_tag_day_all!M5)</f>
         <v/>
       </c>
-      <c r="O8" s="26" t="str">
+      <c r="O8" s="44" t="str">
         <f>IF(_tag_day_all!N5="","",_tag_day_all!N5*100)</f>
         <v/>
       </c>
-      <c r="P8" s="26" t="str">
+      <c r="P8" s="44" t="str">
         <f>IF(_tag_day_all!AL5="","",_tag_day_all!AL5)</f>
         <v/>
       </c>
-      <c r="Q8" s="25" t="str">
+      <c r="Q8" s="43" t="str">
         <f>IF(_tag_day_all!AM5="","",_tag_day_all!AM5)</f>
         <v/>
       </c>
-      <c r="R8" s="25" t="str">
+      <c r="R8" s="43" t="str">
         <f>IF(_tag_day_all!O5="","",_tag_day_all!O5)</f>
         <v/>
       </c>
-      <c r="S8" s="25" t="str">
+      <c r="S8" s="43" t="str">
         <f>IF(_tag_day_all!P5="","",_tag_day_all!P5)</f>
         <v/>
       </c>
-      <c r="T8" s="25" t="str">
+      <c r="T8" s="43" t="str">
         <f>IF(_tag_day_all!Q5="","",_tag_day_all!Q5)</f>
         <v/>
       </c>
-      <c r="U8" s="25" t="str">
+      <c r="U8" s="43" t="str">
         <f>IF(_tag_day_all!R5="","",_tag_day_all!R5)</f>
         <v/>
       </c>
-      <c r="V8" s="25" t="str">
+      <c r="V8" s="43" t="str">
         <f>IF(_tag_day_all!S5="","",_tag_day_all!S5)</f>
         <v/>
       </c>
-      <c r="W8" s="25" t="str">
+      <c r="W8" s="43" t="str">
         <f>IF(_tag_day_all!T5="","",_tag_day_all!T5)</f>
         <v/>
       </c>
-      <c r="X8" s="26" t="str">
+      <c r="X8" s="44" t="str">
         <f>IF(_tag_day_all!U5="","",_tag_day_all!U5)</f>
         <v/>
       </c>
-      <c r="Y8" s="26" t="str">
+      <c r="Y8" s="44" t="str">
         <f>IF(_tag_day_all!V5="","",_tag_day_all!V5)</f>
         <v/>
       </c>
-      <c r="Z8" s="26" t="str">
+      <c r="Z8" s="44" t="str">
         <f>IF(_tag_day_all!W5="","",_tag_day_all!W5)</f>
         <v/>
       </c>
-      <c r="AA8" s="26" t="str">
+      <c r="AA8" s="44" t="str">
         <f>IF(_tag_day_all!X5="","",_tag_day_all!X5)</f>
         <v/>
       </c>
-      <c r="AB8" s="46" t="str">
+      <c r="AB8" s="45" t="str">
         <f>IF(_tag_day_all!Y5="","",_tag_day_all!Y5)</f>
         <v/>
       </c>
-      <c r="AC8" s="25" t="str">
+      <c r="AC8" s="43" t="str">
         <f>IF(_tag_day_all!Z5="","",_tag_day_all!Z5)</f>
         <v/>
       </c>
-      <c r="AD8" s="25" t="str">
+      <c r="AD8" s="43" t="str">
         <f>IF(_tag_day_all!AA5="","",_tag_day_all!AA5)</f>
         <v/>
       </c>
-      <c r="AE8" s="26" t="str">
+      <c r="AE8" s="44" t="str">
         <f>IF(_tag_day_all!AB5="","",_tag_day_all!AB5)</f>
         <v/>
       </c>
-      <c r="AF8" s="25" t="str">
+      <c r="AF8" s="43" t="str">
         <f>IF(_tag_day_all!AC5="","",_tag_day_all!AC5)</f>
         <v/>
       </c>
-      <c r="AG8" s="25" t="str">
+      <c r="AG8" s="43" t="str">
         <f>IF(_tag_day_all!AD5="","",_tag_day_all!AD5)</f>
         <v/>
       </c>
-      <c r="AH8" s="25" t="str">
+      <c r="AH8" s="43" t="str">
         <f>IF(_tag_day_all!AE5="","",_tag_day_all!AE5)</f>
         <v/>
       </c>
-      <c r="AI8" s="25" t="str">
+      <c r="AI8" s="43" t="str">
         <f>IF(_tag_day_all!AF5="","",_tag_day_all!AF5)</f>
         <v/>
       </c>
-      <c r="AJ8" s="25" t="str">
+      <c r="AJ8" s="43" t="str">
         <f>IF(_tag_day_all!AG5="","",_tag_day_all!AG5)</f>
         <v/>
       </c>
-      <c r="AK8" s="26" t="str">
+      <c r="AK8" s="44" t="str">
         <f>IF(_tag_day_all!AH5="","",_tag_day_all!AH5)</f>
         <v/>
       </c>
-      <c r="AL8" s="26" t="str">
+      <c r="AL8" s="44" t="str">
         <f>IF(_tag_day_all!AI5="","",_tag_day_all!AI5)</f>
         <v/>
       </c>
-      <c r="AM8" s="26" t="str">
+      <c r="AM8" s="44" t="str">
         <f>IF(_tag_day_all!AJ5="","",_tag_day_all!AJ5)</f>
         <v/>
       </c>
-      <c r="AN8" s="26" t="str">
+      <c r="AN8" s="44" t="str">
         <f>IF(_tag_day_all!AK5="","",_tag_day_all!AK5)</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="13.5" spans="1:40">
-      <c r="A9" s="21">
+    <row r="9">
+      <c r="A9" s="39">
         <v>5</v>
       </c>
-      <c r="B9" s="22" t="str">
+      <c r="B9" s="40" t="str">
         <f>IF(_tag_day_all!A6="","",_tag_day_all!A6)</f>
         <v/>
       </c>
-      <c r="C9" s="23" t="str">
+      <c r="C9" s="41" t="str">
         <f>IF(_tag_day_all!B6="","",_tag_day_all!B6)</f>
         <v/>
       </c>
-      <c r="D9" s="24" t="str">
+      <c r="D9" s="42" t="str">
         <f>IF(_tag_day_all!C6="","",_tag_day_all!C6)</f>
         <v/>
       </c>
-      <c r="E9" s="25" t="str">
-        <f>IF(_tag_day_all!D6="","",_tag_day_all!D6)</f>
-        <v/>
-      </c>
-      <c r="F9" s="26" t="str">
+      <c r="E9" s="43" t="str">
+        <f>IF(_tag_day_all!D6="","",_tag_day_all!D6*10000)</f>
+        <v/>
+      </c>
+      <c r="F9" s="44" t="str">
         <f>IF(_tag_day_all!E6="","",_tag_day_all!E6)</f>
         <v/>
       </c>
-      <c r="G9" s="25" t="str">
+      <c r="G9" s="43" t="str">
         <f>IF(_tag_day_all!F6="","",_tag_day_all!F6)</f>
         <v/>
       </c>
-      <c r="H9" s="26" t="str">
+      <c r="H9" s="44" t="str">
         <f>IF(_tag_day_all!G6="","",_tag_day_all!G6)</f>
         <v/>
       </c>
-      <c r="I9" s="26" t="str">
+      <c r="I9" s="44" t="str">
         <f>IF(_tag_day_all!H6="","",_tag_day_all!H6)</f>
         <v/>
       </c>
-      <c r="J9" s="46" t="str">
+      <c r="J9" s="45" t="str">
         <f>IF(_tag_day_all!I6="","",_tag_day_all!I6)</f>
         <v/>
       </c>
-      <c r="K9" s="46" t="str">
+      <c r="K9" s="45" t="str">
         <f>IF(_tag_day_all!J6="","",_tag_day_all!J6)</f>
         <v/>
       </c>
-      <c r="L9" s="26" t="str">
+      <c r="L9" s="44" t="str">
         <f>IF(_tag_day_all!K6="","",_tag_day_all!K6)</f>
         <v/>
       </c>
-      <c r="M9" s="26" t="str">
+      <c r="M9" s="44" t="str">
         <f>IF(_tag_day_all!L6="","",_tag_day_all!L6)</f>
         <v/>
       </c>
-      <c r="N9" s="46" t="str">
+      <c r="N9" s="45" t="str">
         <f>IF(_tag_day_all!M6="","",_tag_day_all!M6)</f>
         <v/>
       </c>
-      <c r="O9" s="26" t="str">
+      <c r="O9" s="44" t="str">
         <f>IF(_tag_day_all!N6="","",_tag_day_all!N6*100)</f>
         <v/>
       </c>
-      <c r="P9" s="26" t="str">
+      <c r="P9" s="44" t="str">
         <f>IF(_tag_day_all!AL6="","",_tag_day_all!AL6)</f>
         <v/>
       </c>
-      <c r="Q9" s="25" t="str">
+      <c r="Q9" s="43" t="str">
         <f>IF(_tag_day_all!AM6="","",_tag_day_all!AM6)</f>
         <v/>
       </c>
-      <c r="R9" s="25" t="str">
+      <c r="R9" s="43" t="str">
         <f>IF(_tag_day_all!O6="","",_tag_day_all!O6)</f>
         <v/>
       </c>
-      <c r="S9" s="25" t="str">
+      <c r="S9" s="43" t="str">
         <f>IF(_tag_day_all!P6="","",_tag_day_all!P6)</f>
         <v/>
       </c>
-      <c r="T9" s="25" t="str">
+      <c r="T9" s="43" t="str">
         <f>IF(_tag_day_all!Q6="","",_tag_day_all!Q6)</f>
         <v/>
       </c>
-      <c r="U9" s="25" t="str">
+      <c r="U9" s="43" t="str">
         <f>IF(_tag_day_all!R6="","",_tag_day_all!R6)</f>
         <v/>
       </c>
-      <c r="V9" s="25" t="str">
+      <c r="V9" s="43" t="str">
         <f>IF(_tag_day_all!S6="","",_tag_day_all!S6)</f>
         <v/>
       </c>
-      <c r="W9" s="25" t="str">
+      <c r="W9" s="43" t="str">
         <f>IF(_tag_day_all!T6="","",_tag_day_all!T6)</f>
         <v/>
       </c>
-      <c r="X9" s="26" t="str">
+      <c r="X9" s="44" t="str">
         <f>IF(_tag_day_all!U6="","",_tag_day_all!U6)</f>
         <v/>
       </c>
-      <c r="Y9" s="26" t="str">
+      <c r="Y9" s="44" t="str">
         <f>IF(_tag_day_all!V6="","",_tag_day_all!V6)</f>
         <v/>
       </c>
-      <c r="Z9" s="26" t="str">
+      <c r="Z9" s="44" t="str">
         <f>IF(_tag_day_all!W6="","",_tag_day_all!W6)</f>
         <v/>
       </c>
-      <c r="AA9" s="26" t="str">
+      <c r="AA9" s="44" t="str">
         <f>IF(_tag_day_all!X6="","",_tag_day_all!X6)</f>
         <v/>
       </c>
-      <c r="AB9" s="46" t="str">
+      <c r="AB9" s="45" t="str">
         <f>IF(_tag_day_all!Y6="","",_tag_day_all!Y6)</f>
         <v/>
       </c>
-      <c r="AC9" s="25" t="str">
+      <c r="AC9" s="43" t="str">
         <f>IF(_tag_day_all!Z6="","",_tag_day_all!Z6)</f>
         <v/>
       </c>
-      <c r="AD9" s="25" t="str">
+      <c r="AD9" s="43" t="str">
         <f>IF(_tag_day_all!AA6="","",_tag_day_all!AA6)</f>
         <v/>
       </c>
-      <c r="AE9" s="26" t="str">
+      <c r="AE9" s="44" t="str">
         <f>IF(_tag_day_all!AB6="","",_tag_day_all!AB6)</f>
         <v/>
       </c>
-      <c r="AF9" s="25" t="str">
+      <c r="AF9" s="43" t="str">
         <f>IF(_tag_day_all!AC6="","",_tag_day_all!AC6)</f>
         <v/>
       </c>
-      <c r="AG9" s="25" t="str">
+      <c r="AG9" s="43" t="str">
         <f>IF(_tag_day_all!AD6="","",_tag_day_all!AD6)</f>
         <v/>
       </c>
-      <c r="AH9" s="25" t="str">
+      <c r="AH9" s="43" t="str">
         <f>IF(_tag_day_all!AE6="","",_tag_day_all!AE6)</f>
         <v/>
       </c>
-      <c r="AI9" s="25" t="str">
+      <c r="AI9" s="43" t="str">
         <f>IF(_tag_day_all!AF6="","",_tag_day_all!AF6)</f>
         <v/>
       </c>
-      <c r="AJ9" s="25" t="str">
+      <c r="AJ9" s="43" t="str">
         <f>IF(_tag_day_all!AG6="","",_tag_day_all!AG6)</f>
         <v/>
       </c>
-      <c r="AK9" s="26" t="str">
+      <c r="AK9" s="44" t="str">
         <f>IF(_tag_day_all!AH6="","",_tag_day_all!AH6)</f>
         <v/>
       </c>
-      <c r="AL9" s="26" t="str">
+      <c r="AL9" s="44" t="str">
         <f>IF(_tag_day_all!AI6="","",_tag_day_all!AI6)</f>
         <v/>
       </c>
-      <c r="AM9" s="26" t="str">
+      <c r="AM9" s="44" t="str">
         <f>IF(_tag_day_all!AJ6="","",_tag_day_all!AJ6)</f>
         <v/>
       </c>
-      <c r="AN9" s="26" t="str">
+      <c r="AN9" s="44" t="str">
         <f>IF(_tag_day_all!AK6="","",_tag_day_all!AK6)</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="13.5" spans="1:40">
-      <c r="A10" s="21">
+    <row r="10">
+      <c r="A10" s="39">
         <v>6</v>
       </c>
-      <c r="B10" s="22" t="str">
+      <c r="B10" s="40" t="str">
         <f>IF(_tag_day_all!A7="","",_tag_day_all!A7)</f>
         <v/>
       </c>
-      <c r="C10" s="23" t="str">
+      <c r="C10" s="41" t="str">
         <f>IF(_tag_day_all!B7="","",_tag_day_all!B7)</f>
         <v/>
       </c>
-      <c r="D10" s="24" t="str">
+      <c r="D10" s="42" t="str">
         <f>IF(_tag_day_all!C7="","",_tag_day_all!C7)</f>
         <v/>
       </c>
-      <c r="E10" s="25" t="str">
-        <f>IF(_tag_day_all!D7="","",_tag_day_all!D7)</f>
-        <v/>
-      </c>
-      <c r="F10" s="26" t="str">
+      <c r="E10" s="43" t="str">
+        <f>IF(_tag_day_all!D7="","",_tag_day_all!D7*10000)</f>
+        <v/>
+      </c>
+      <c r="F10" s="44" t="str">
         <f>IF(_tag_day_all!E7="","",_tag_day_all!E7)</f>
         <v/>
       </c>
-      <c r="G10" s="25" t="str">
+      <c r="G10" s="43" t="str">
         <f>IF(_tag_day_all!F7="","",_tag_day_all!F7)</f>
         <v/>
       </c>
-      <c r="H10" s="26" t="str">
+      <c r="H10" s="44" t="str">
         <f>IF(_tag_day_all!G7="","",_tag_day_all!G7)</f>
         <v/>
       </c>
-      <c r="I10" s="26" t="str">
+      <c r="I10" s="44" t="str">
         <f>IF(_tag_day_all!H7="","",_tag_day_all!H7)</f>
         <v/>
       </c>
-      <c r="J10" s="46" t="str">
+      <c r="J10" s="45" t="str">
         <f>IF(_tag_day_all!I7="","",_tag_day_all!I7)</f>
         <v/>
       </c>
-      <c r="K10" s="46" t="str">
+      <c r="K10" s="45" t="str">
         <f>IF(_tag_day_all!J7="","",_tag_day_all!J7)</f>
         <v/>
       </c>
-      <c r="L10" s="26" t="str">
+      <c r="L10" s="44" t="str">
         <f>IF(_tag_day_all!K7="","",_tag_day_all!K7)</f>
         <v/>
       </c>
-      <c r="M10" s="26" t="str">
+      <c r="M10" s="44" t="str">
         <f>IF(_tag_day_all!L7="","",_tag_day_all!L7)</f>
         <v/>
       </c>
-      <c r="N10" s="46" t="str">
+      <c r="N10" s="45" t="str">
         <f>IF(_tag_day_all!M7="","",_tag_day_all!M7)</f>
         <v/>
       </c>
-      <c r="O10" s="26" t="str">
+      <c r="O10" s="44" t="str">
         <f>IF(_tag_day_all!N7="","",_tag_day_all!N7*100)</f>
         <v/>
       </c>
-      <c r="P10" s="26" t="str">
+      <c r="P10" s="44" t="str">
         <f>IF(_tag_day_all!AL7="","",_tag_day_all!AL7)</f>
         <v/>
       </c>
-      <c r="Q10" s="25" t="str">
+      <c r="Q10" s="43" t="str">
         <f>IF(_tag_day_all!AM7="","",_tag_day_all!AM7)</f>
         <v/>
       </c>
-      <c r="R10" s="25" t="str">
+      <c r="R10" s="43" t="str">
         <f>IF(_tag_day_all!O7="","",_tag_day_all!O7)</f>
         <v/>
       </c>
-      <c r="S10" s="25" t="str">
+      <c r="S10" s="43" t="str">
         <f>IF(_tag_day_all!P7="","",_tag_day_all!P7)</f>
         <v/>
       </c>
-      <c r="T10" s="25" t="str">
+      <c r="T10" s="43" t="str">
         <f>IF(_tag_day_all!Q7="","",_tag_day_all!Q7)</f>
         <v/>
       </c>
-      <c r="U10" s="25" t="str">
+      <c r="U10" s="43" t="str">
         <f>IF(_tag_day_all!R7="","",_tag_day_all!R7)</f>
         <v/>
       </c>
-      <c r="V10" s="25" t="str">
+      <c r="V10" s="43" t="str">
         <f>IF(_tag_day_all!S7="","",_tag_day_all!S7)</f>
         <v/>
       </c>
-      <c r="W10" s="25" t="str">
+      <c r="W10" s="43" t="str">
         <f>IF(_tag_day_all!T7="","",_tag_day_all!T7)</f>
         <v/>
       </c>
-      <c r="X10" s="26" t="str">
+      <c r="X10" s="44" t="str">
         <f>IF(_tag_day_all!U7="","",_tag_day_all!U7)</f>
         <v/>
       </c>
-      <c r="Y10" s="26" t="str">
+      <c r="Y10" s="44" t="str">
         <f>IF(_tag_day_all!V7="","",_tag_day_all!V7)</f>
         <v/>
       </c>
-      <c r="Z10" s="26" t="str">
+      <c r="Z10" s="44" t="str">
         <f>IF(_tag_day_all!W7="","",_tag_day_all!W7)</f>
         <v/>
       </c>
-      <c r="AA10" s="26" t="str">
+      <c r="AA10" s="44" t="str">
         <f>IF(_tag_day_all!X7="","",_tag_day_all!X7)</f>
         <v/>
       </c>
-      <c r="AB10" s="46" t="str">
+      <c r="AB10" s="45" t="str">
         <f>IF(_tag_day_all!Y7="","",_tag_day_all!Y7)</f>
         <v/>
       </c>
-      <c r="AC10" s="25" t="str">
+      <c r="AC10" s="43" t="str">
         <f>IF(_tag_day_all!Z7="","",_tag_day_all!Z7)</f>
         <v/>
       </c>
-      <c r="AD10" s="25" t="str">
+      <c r="AD10" s="43" t="str">
         <f>IF(_tag_day_all!AA7="","",_tag_day_all!AA7)</f>
         <v/>
       </c>
-      <c r="AE10" s="26" t="str">
+      <c r="AE10" s="44" t="str">
         <f>IF(_tag_day_all!AB7="","",_tag_day_all!AB7)</f>
         <v/>
       </c>
-      <c r="AF10" s="25" t="str">
+      <c r="AF10" s="43" t="str">
         <f>IF(_tag_day_all!AC7="","",_tag_day_all!AC7)</f>
         <v/>
       </c>
-      <c r="AG10" s="25" t="str">
+      <c r="AG10" s="43" t="str">
         <f>IF(_tag_day_all!AD7="","",_tag_day_all!AD7)</f>
         <v/>
       </c>
-      <c r="AH10" s="25" t="str">
+      <c r="AH10" s="43" t="str">
         <f>IF(_tag_day_all!AE7="","",_tag_day_all!AE7)</f>
         <v/>
       </c>
-      <c r="AI10" s="25" t="str">
+      <c r="AI10" s="43" t="str">
         <f>IF(_tag_day_all!AF7="","",_tag_day_all!AF7)</f>
         <v/>
       </c>
-      <c r="AJ10" s="25" t="str">
+      <c r="AJ10" s="43" t="str">
         <f>IF(_tag_day_all!AG7="","",_tag_day_all!AG7)</f>
         <v/>
       </c>
-      <c r="AK10" s="26" t="str">
+      <c r="AK10" s="44" t="str">
         <f>IF(_tag_day_all!AH7="","",_tag_day_all!AH7)</f>
         <v/>
       </c>
-      <c r="AL10" s="26" t="str">
+      <c r="AL10" s="44" t="str">
         <f>IF(_tag_day_all!AI7="","",_tag_day_all!AI7)</f>
         <v/>
       </c>
-      <c r="AM10" s="26" t="str">
+      <c r="AM10" s="44" t="str">
         <f>IF(_tag_day_all!AJ7="","",_tag_day_all!AJ7)</f>
         <v/>
       </c>
-      <c r="AN10" s="26" t="str">
+      <c r="AN10" s="44" t="str">
         <f>IF(_tag_day_all!AK7="","",_tag_day_all!AK7)</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="13.5" spans="1:40">
-      <c r="A11" s="21">
+    <row r="11">
+      <c r="A11" s="39">
         <v>7</v>
       </c>
-      <c r="B11" s="22" t="str">
+      <c r="B11" s="40" t="str">
         <f>IF(_tag_day_all!A8="","",_tag_day_all!A8)</f>
         <v/>
       </c>
-      <c r="C11" s="23" t="str">
+      <c r="C11" s="41" t="str">
         <f>IF(_tag_day_all!B8="","",_tag_day_all!B8)</f>
         <v/>
       </c>
-      <c r="D11" s="24" t="str">
+      <c r="D11" s="42" t="str">
         <f>IF(_tag_day_all!C8="","",_tag_day_all!C8)</f>
         <v/>
       </c>
-      <c r="E11" s="25" t="str">
-        <f>IF(_tag_day_all!D8="","",_tag_day_all!D8)</f>
-        <v/>
-      </c>
-      <c r="F11" s="26" t="str">
+      <c r="E11" s="43" t="str">
+        <f>IF(_tag_day_all!D8="","",_tag_day_all!D8*10000)</f>
+        <v/>
+      </c>
+      <c r="F11" s="44" t="str">
         <f>IF(_tag_day_all!E8="","",_tag_day_all!E8)</f>
         <v/>
       </c>
-      <c r="G11" s="25" t="str">
+      <c r="G11" s="43" t="str">
         <f>IF(_tag_day_all!F8="","",_tag_day_all!F8)</f>
         <v/>
       </c>
-      <c r="H11" s="26" t="str">
+      <c r="H11" s="44" t="str">
         <f>IF(_tag_day_all!G8="","",_tag_day_all!G8)</f>
         <v/>
       </c>
-      <c r="I11" s="26" t="str">
+      <c r="I11" s="44" t="str">
         <f>IF(_tag_day_all!H8="","",_tag_day_all!H8)</f>
         <v/>
       </c>
-      <c r="J11" s="46" t="str">
+      <c r="J11" s="45" t="str">
         <f>IF(_tag_day_all!I8="","",_tag_day_all!I8)</f>
         <v/>
       </c>
-      <c r="K11" s="46" t="str">
+      <c r="K11" s="45" t="str">
         <f>IF(_tag_day_all!J8="","",_tag_day_all!J8)</f>
         <v/>
       </c>
-      <c r="L11" s="26" t="str">
+      <c r="L11" s="44" t="str">
         <f>IF(_tag_day_all!K8="","",_tag_day_all!K8)</f>
         <v/>
       </c>
-      <c r="M11" s="26" t="str">
+      <c r="M11" s="44" t="str">
         <f>IF(_tag_day_all!L8="","",_tag_day_all!L8)</f>
         <v/>
       </c>
-      <c r="N11" s="46" t="str">
+      <c r="N11" s="45" t="str">
         <f>IF(_tag_day_all!M8="","",_tag_day_all!M8)</f>
         <v/>
       </c>
-      <c r="O11" s="26" t="str">
+      <c r="O11" s="44" t="str">
         <f>IF(_tag_day_all!N8="","",_tag_day_all!N8*100)</f>
         <v/>
       </c>
-      <c r="P11" s="26" t="str">
+      <c r="P11" s="44" t="str">
         <f>IF(_tag_day_all!AL8="","",_tag_day_all!AL8)</f>
         <v/>
       </c>
-      <c r="Q11" s="25" t="str">
+      <c r="Q11" s="43" t="str">
         <f>IF(_tag_day_all!AM8="","",_tag_day_all!AM8)</f>
         <v/>
       </c>
-      <c r="R11" s="25" t="str">
+      <c r="R11" s="43" t="str">
         <f>IF(_tag_day_all!O8="","",_tag_day_all!O8)</f>
         <v/>
       </c>
-      <c r="S11" s="25" t="str">
+      <c r="S11" s="43" t="str">
         <f>IF(_tag_day_all!P8="","",_tag_day_all!P8)</f>
         <v/>
       </c>
-      <c r="T11" s="25" t="str">
+      <c r="T11" s="43" t="str">
         <f>IF(_tag_day_all!Q8="","",_tag_day_all!Q8)</f>
         <v/>
       </c>
-      <c r="U11" s="25" t="str">
+      <c r="U11" s="43" t="str">
         <f>IF(_tag_day_all!R8="","",_tag_day_all!R8)</f>
         <v/>
       </c>
-      <c r="V11" s="25" t="str">
+      <c r="V11" s="43" t="str">
         <f>IF(_tag_day_all!S8="","",_tag_day_all!S8)</f>
         <v/>
       </c>
-      <c r="W11" s="25" t="str">
+      <c r="W11" s="43" t="str">
         <f>IF(_tag_day_all!T8="","",_tag_day_all!T8)</f>
         <v/>
       </c>
-      <c r="X11" s="26" t="str">
+      <c r="X11" s="44" t="str">
         <f>IF(_tag_day_all!U8="","",_tag_day_all!U8)</f>
         <v/>
       </c>
-      <c r="Y11" s="26" t="str">
+      <c r="Y11" s="44" t="str">
         <f>IF(_tag_day_all!V8="","",_tag_day_all!V8)</f>
         <v/>
       </c>
-      <c r="Z11" s="26" t="str">
+      <c r="Z11" s="44" t="str">
         <f>IF(_tag_day_all!W8="","",_tag_day_all!W8)</f>
         <v/>
       </c>
-      <c r="AA11" s="26" t="str">
+      <c r="AA11" s="44" t="str">
         <f>IF(_tag_day_all!X8="","",_tag_day_all!X8)</f>
         <v/>
       </c>
-      <c r="AB11" s="46" t="str">
+      <c r="AB11" s="45" t="str">
         <f>IF(_tag_day_all!Y8="","",_tag_day_all!Y8)</f>
         <v/>
       </c>
-      <c r="AC11" s="25" t="str">
+      <c r="AC11" s="43" t="str">
         <f>IF(_tag_day_all!Z8="","",_tag_day_all!Z8)</f>
         <v/>
       </c>
-      <c r="AD11" s="25" t="str">
+      <c r="AD11" s="43" t="str">
         <f>IF(_tag_day_all!AA8="","",_tag_day_all!AA8)</f>
         <v/>
       </c>
-      <c r="AE11" s="26" t="str">
+      <c r="AE11" s="44" t="str">
         <f>IF(_tag_day_all!AB8="","",_tag_day_all!AB8)</f>
         <v/>
       </c>
-      <c r="AF11" s="25" t="str">
+      <c r="AF11" s="43" t="str">
         <f>IF(_tag_day_all!AC8="","",_tag_day_all!AC8)</f>
         <v/>
       </c>
-      <c r="AG11" s="25" t="str">
+      <c r="AG11" s="43" t="str">
         <f>IF(_tag_day_all!AD8="","",_tag_day_all!AD8)</f>
         <v/>
       </c>
-      <c r="AH11" s="25" t="str">
+      <c r="AH11" s="43" t="str">
         <f>IF(_tag_day_all!AE8="","",_tag_day_all!AE8)</f>
         <v/>
       </c>
-      <c r="AI11" s="25" t="str">
+      <c r="AI11" s="43" t="str">
         <f>IF(_tag_day_all!AF8="","",_tag_day_all!AF8)</f>
         <v/>
       </c>
-      <c r="AJ11" s="25" t="str">
+      <c r="AJ11" s="43" t="str">
         <f>IF(_tag_day_all!AG8="","",_tag_day_all!AG8)</f>
         <v/>
       </c>
-      <c r="AK11" s="26" t="str">
+      <c r="AK11" s="44" t="str">
         <f>IF(_tag_day_all!AH8="","",_tag_day_all!AH8)</f>
         <v/>
       </c>
-      <c r="AL11" s="26" t="str">
+      <c r="AL11" s="44" t="str">
         <f>IF(_tag_day_all!AI8="","",_tag_day_all!AI8)</f>
         <v/>
       </c>
-      <c r="AM11" s="26" t="str">
+      <c r="AM11" s="44" t="str">
         <f>IF(_tag_day_all!AJ8="","",_tag_day_all!AJ8)</f>
         <v/>
       </c>
-      <c r="AN11" s="26" t="str">
+      <c r="AN11" s="44" t="str">
         <f>IF(_tag_day_all!AK8="","",_tag_day_all!AK8)</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="13.5" spans="1:40">
-      <c r="A12" s="21">
+    <row r="12">
+      <c r="A12" s="39">
         <v>8</v>
       </c>
-      <c r="B12" s="22" t="str">
+      <c r="B12" s="40" t="str">
         <f>IF(_tag_day_all!A9="","",_tag_day_all!A9)</f>
         <v/>
       </c>
-      <c r="C12" s="23" t="str">
+      <c r="C12" s="41" t="str">
         <f>IF(_tag_day_all!B9="","",_tag_day_all!B9)</f>
         <v/>
       </c>
-      <c r="D12" s="24" t="str">
+      <c r="D12" s="42" t="str">
         <f>IF(_tag_day_all!C9="","",_tag_day_all!C9)</f>
         <v/>
       </c>
-      <c r="E12" s="25" t="str">
-        <f>IF(_tag_day_all!D9="","",_tag_day_all!D9)</f>
-        <v/>
-      </c>
-      <c r="F12" s="26" t="str">
+      <c r="E12" s="43" t="str">
+        <f>IF(_tag_day_all!D9="","",_tag_day_all!D9*10000)</f>
+        <v/>
+      </c>
+      <c r="F12" s="44" t="str">
         <f>IF(_tag_day_all!E9="","",_tag_day_all!E9)</f>
         <v/>
       </c>
-      <c r="G12" s="25" t="str">
+      <c r="G12" s="43" t="str">
         <f>IF(_tag_day_all!F9="","",_tag_day_all!F9)</f>
         <v/>
       </c>
-      <c r="H12" s="26" t="str">
+      <c r="H12" s="44" t="str">
         <f>IF(_tag_day_all!G9="","",_tag_day_all!G9)</f>
         <v/>
       </c>
-      <c r="I12" s="26" t="str">
+      <c r="I12" s="44" t="str">
         <f>IF(_tag_day_all!H9="","",_tag_day_all!H9)</f>
         <v/>
       </c>
-      <c r="J12" s="46" t="str">
+      <c r="J12" s="45" t="str">
         <f>IF(_tag_day_all!I9="","",_tag_day_all!I9)</f>
         <v/>
       </c>
-      <c r="K12" s="46" t="str">
+      <c r="K12" s="45" t="str">
         <f>IF(_tag_day_all!J9="","",_tag_day_all!J9)</f>
         <v/>
       </c>
-      <c r="L12" s="26" t="str">
+      <c r="L12" s="44" t="str">
         <f>IF(_tag_day_all!K9="","",_tag_day_all!K9)</f>
         <v/>
       </c>
-      <c r="M12" s="26" t="str">
+      <c r="M12" s="44" t="str">
         <f>IF(_tag_day_all!L9="","",_tag_day_all!L9)</f>
         <v/>
       </c>
-      <c r="N12" s="46" t="str">
+      <c r="N12" s="45" t="str">
         <f>IF(_tag_day_all!M9="","",_tag_day_all!M9)</f>
         <v/>
       </c>
-      <c r="O12" s="26" t="str">
+      <c r="O12" s="44" t="str">
         <f>IF(_tag_day_all!N9="","",_tag_day_all!N9*100)</f>
         <v/>
       </c>
-      <c r="P12" s="26" t="str">
+      <c r="P12" s="44" t="str">
         <f>IF(_tag_day_all!AL9="","",_tag_day_all!AL9)</f>
         <v/>
       </c>
-      <c r="Q12" s="25" t="str">
+      <c r="Q12" s="43" t="str">
         <f>IF(_tag_day_all!AM9="","",_tag_day_all!AM9)</f>
         <v/>
       </c>
-      <c r="R12" s="25" t="str">
+      <c r="R12" s="43" t="str">
         <f>IF(_tag_day_all!O9="","",_tag_day_all!O9)</f>
         <v/>
       </c>
-      <c r="S12" s="25" t="str">
+      <c r="S12" s="43" t="str">
         <f>IF(_tag_day_all!P9="","",_tag_day_all!P9)</f>
         <v/>
       </c>
-      <c r="T12" s="25" t="str">
+      <c r="T12" s="43" t="str">
         <f>IF(_tag_day_all!Q9="","",_tag_day_all!Q9)</f>
         <v/>
       </c>
-      <c r="U12" s="25" t="str">
+      <c r="U12" s="43" t="str">
         <f>IF(_tag_day_all!R9="","",_tag_day_all!R9)</f>
         <v/>
       </c>
-      <c r="V12" s="25" t="str">
+      <c r="V12" s="43" t="str">
         <f>IF(_tag_day_all!S9="","",_tag_day_all!S9)</f>
         <v/>
       </c>
-      <c r="W12" s="25" t="str">
+      <c r="W12" s="43" t="str">
         <f>IF(_tag_day_all!T9="","",_tag_day_all!T9)</f>
         <v/>
       </c>
-      <c r="X12" s="26" t="str">
+      <c r="X12" s="44" t="str">
         <f>IF(_tag_day_all!U9="","",_tag_day_all!U9)</f>
         <v/>
       </c>
-      <c r="Y12" s="26" t="str">
+      <c r="Y12" s="44" t="str">
         <f>IF(_tag_day_all!V9="","",_tag_day_all!V9)</f>
         <v/>
       </c>
-      <c r="Z12" s="26" t="str">
+      <c r="Z12" s="44" t="str">
         <f>IF(_tag_day_all!W9="","",_tag_day_all!W9)</f>
         <v/>
       </c>
-      <c r="AA12" s="26" t="str">
+      <c r="AA12" s="44" t="str">
         <f>IF(_tag_day_all!X9="","",_tag_day_all!X9)</f>
         <v/>
       </c>
-      <c r="AB12" s="46" t="str">
+      <c r="AB12" s="45" t="str">
         <f>IF(_tag_day_all!Y9="","",_tag_day_all!Y9)</f>
         <v/>
       </c>
-      <c r="AC12" s="25" t="str">
+      <c r="AC12" s="43" t="str">
         <f>IF(_tag_day_all!Z9="","",_tag_day_all!Z9)</f>
         <v/>
       </c>
-      <c r="AD12" s="25" t="str">
+      <c r="AD12" s="43" t="str">
         <f>IF(_tag_day_all!AA9="","",_tag_day_all!AA9)</f>
         <v/>
       </c>
-      <c r="AE12" s="26" t="str">
+      <c r="AE12" s="44" t="str">
         <f>IF(_tag_day_all!AB9="","",_tag_day_all!AB9)</f>
         <v/>
       </c>
-      <c r="AF12" s="25" t="str">
+      <c r="AF12" s="43" t="str">
         <f>IF(_tag_day_all!AC9="","",_tag_day_all!AC9)</f>
         <v/>
       </c>
-      <c r="AG12" s="25" t="str">
+      <c r="AG12" s="43" t="str">
         <f>IF(_tag_day_all!AD9="","",_tag_day_all!AD9)</f>
         <v/>
       </c>
-      <c r="AH12" s="25" t="str">
+      <c r="AH12" s="43" t="str">
         <f>IF(_tag_day_all!AE9="","",_tag_day_all!AE9)</f>
         <v/>
       </c>
-      <c r="AI12" s="25" t="str">
+      <c r="AI12" s="43" t="str">
         <f>IF(_tag_day_all!AF9="","",_tag_day_all!AF9)</f>
         <v/>
       </c>
-      <c r="AJ12" s="25" t="str">
+      <c r="AJ12" s="43" t="str">
         <f>IF(_tag_day_all!AG9="","",_tag_day_all!AG9)</f>
         <v/>
       </c>
-      <c r="AK12" s="26" t="str">
+      <c r="AK12" s="44" t="str">
         <f>IF(_tag_day_all!AH9="","",_tag_day_all!AH9)</f>
         <v/>
       </c>
-      <c r="AL12" s="26" t="str">
+      <c r="AL12" s="44" t="str">
         <f>IF(_tag_day_all!AI9="","",_tag_day_all!AI9)</f>
         <v/>
       </c>
-      <c r="AM12" s="26" t="str">
+      <c r="AM12" s="44" t="str">
         <f>IF(_tag_day_all!AJ9="","",_tag_day_all!AJ9)</f>
         <v/>
       </c>
-      <c r="AN12" s="26" t="str">
+      <c r="AN12" s="44" t="str">
         <f>IF(_tag_day_all!AK9="","",_tag_day_all!AK9)</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="13.5" spans="1:40">
-      <c r="A13" s="21">
+    <row r="13">
+      <c r="A13" s="39">
         <v>9</v>
       </c>
-      <c r="B13" s="22" t="str">
+      <c r="B13" s="40" t="str">
         <f>IF(_tag_day_all!A10="","",_tag_day_all!A10)</f>
         <v/>
       </c>
-      <c r="C13" s="23" t="str">
+      <c r="C13" s="41" t="str">
         <f>IF(_tag_day_all!B10="","",_tag_day_all!B10)</f>
         <v/>
       </c>
-      <c r="D13" s="24" t="str">
+      <c r="D13" s="42" t="str">
         <f>IF(_tag_day_all!C10="","",_tag_day_all!C10)</f>
         <v/>
       </c>
-      <c r="E13" s="25" t="str">
-        <f>IF(_tag_day_all!D10="","",_tag_day_all!D10)</f>
-        <v/>
-      </c>
-      <c r="F13" s="26" t="str">
+      <c r="E13" s="43" t="str">
+        <f>IF(_tag_day_all!D10="","",_tag_day_all!D10*10000)</f>
+        <v/>
+      </c>
+      <c r="F13" s="44" t="str">
         <f>IF(_tag_day_all!E10="","",_tag_day_all!E10)</f>
         <v/>
       </c>
-      <c r="G13" s="25" t="str">
+      <c r="G13" s="43" t="str">
         <f>IF(_tag_day_all!F10="","",_tag_day_all!F10)</f>
         <v/>
       </c>
-      <c r="H13" s="26" t="str">
+      <c r="H13" s="44" t="str">
         <f>IF(_tag_day_all!G10="","",_tag_day_all!G10)</f>
         <v/>
       </c>
-      <c r="I13" s="26" t="str">
+      <c r="I13" s="44" t="str">
         <f>IF(_tag_day_all!H10="","",_tag_day_all!H10)</f>
         <v/>
       </c>
-      <c r="J13" s="46" t="str">
+      <c r="J13" s="45" t="str">
         <f>IF(_tag_day_all!I10="","",_tag_day_all!I10)</f>
         <v/>
       </c>
-      <c r="K13" s="46" t="str">
+      <c r="K13" s="45" t="str">
         <f>IF(_tag_day_all!J10="","",_tag_day_all!J10)</f>
         <v/>
       </c>
-      <c r="L13" s="26" t="str">
+      <c r="L13" s="44" t="str">
         <f>IF(_tag_day_all!K10="","",_tag_day_all!K10)</f>
         <v/>
       </c>
-      <c r="M13" s="26" t="str">
+      <c r="M13" s="44" t="str">
         <f>IF(_tag_day_all!L10="","",_tag_day_all!L10)</f>
         <v/>
       </c>
-      <c r="N13" s="46" t="str">
+      <c r="N13" s="45" t="str">
         <f>IF(_tag_day_all!M10="","",_tag_day_all!M10)</f>
         <v/>
       </c>
-      <c r="O13" s="26" t="str">
+      <c r="O13" s="44" t="str">
         <f>IF(_tag_day_all!N10="","",_tag_day_all!N10*100)</f>
         <v/>
       </c>
-      <c r="P13" s="26" t="str">
+      <c r="P13" s="44" t="str">
         <f>IF(_tag_day_all!AL10="","",_tag_day_all!AL10)</f>
         <v/>
       </c>
-      <c r="Q13" s="25" t="str">
+      <c r="Q13" s="43" t="str">
         <f>IF(_tag_day_all!AM10="","",_tag_day_all!AM10)</f>
         <v/>
       </c>
-      <c r="R13" s="25" t="str">
+      <c r="R13" s="43" t="str">
         <f>IF(_tag_day_all!O10="","",_tag_day_all!O10)</f>
         <v/>
       </c>
-      <c r="S13" s="25" t="str">
+      <c r="S13" s="43" t="str">
         <f>IF(_tag_day_all!P10="","",_tag_day_all!P10)</f>
         <v/>
       </c>
-      <c r="T13" s="25" t="str">
+      <c r="T13" s="43" t="str">
         <f>IF(_tag_day_all!Q10="","",_tag_day_all!Q10)</f>
         <v/>
       </c>
-      <c r="U13" s="25" t="str">
+      <c r="U13" s="43" t="str">
         <f>IF(_tag_day_all!R10="","",_tag_day_all!R10)</f>
         <v/>
       </c>
-      <c r="V13" s="25" t="str">
+      <c r="V13" s="43" t="str">
         <f>IF(_tag_day_all!S10="","",_tag_day_all!S10)</f>
         <v/>
       </c>
-      <c r="W13" s="25" t="str">
+      <c r="W13" s="43" t="str">
         <f>IF(_tag_day_all!T10="","",_tag_day_all!T10)</f>
         <v/>
       </c>
-      <c r="X13" s="26" t="str">
+      <c r="X13" s="44" t="str">
         <f>IF(_tag_day_all!U10="","",_tag_day_all!U10)</f>
         <v/>
       </c>
-      <c r="Y13" s="26" t="str">
+      <c r="Y13" s="44" t="str">
         <f>IF(_tag_day_all!V10="","",_tag_day_all!V10)</f>
         <v/>
       </c>
-      <c r="Z13" s="26" t="str">
+      <c r="Z13" s="44" t="str">
         <f>IF(_tag_day_all!W10="","",_tag_day_all!W10)</f>
         <v/>
       </c>
-      <c r="AA13" s="26" t="str">
+      <c r="AA13" s="44" t="str">
         <f>IF(_tag_day_all!X10="","",_tag_day_all!X10)</f>
         <v/>
       </c>
-      <c r="AB13" s="46" t="str">
+      <c r="AB13" s="45" t="str">
         <f>IF(_tag_day_all!Y10="","",_tag_day_all!Y10)</f>
         <v/>
       </c>
-      <c r="AC13" s="25" t="str">
+      <c r="AC13" s="43" t="str">
         <f>IF(_tag_day_all!Z10="","",_tag_day_all!Z10)</f>
         <v/>
       </c>
-      <c r="AD13" s="25" t="str">
+      <c r="AD13" s="43" t="str">
         <f>IF(_tag_day_all!AA10="","",_tag_day_all!AA10)</f>
         <v/>
       </c>
-      <c r="AE13" s="26" t="str">
+      <c r="AE13" s="44" t="str">
         <f>IF(_tag_day_all!AB10="","",_tag_day_all!AB10)</f>
         <v/>
       </c>
-      <c r="AF13" s="25" t="str">
+      <c r="AF13" s="43" t="str">
         <f>IF(_tag_day_all!AC10="","",_tag_day_all!AC10)</f>
         <v/>
       </c>
-      <c r="AG13" s="25" t="str">
+      <c r="AG13" s="43" t="str">
         <f>IF(_tag_day_all!AD10="","",_tag_day_all!AD10)</f>
         <v/>
       </c>
-      <c r="AH13" s="25" t="str">
+      <c r="AH13" s="43" t="str">
         <f>IF(_tag_day_all!AE10="","",_tag_day_all!AE10)</f>
         <v/>
       </c>
-      <c r="AI13" s="25" t="str">
+      <c r="AI13" s="43" t="str">
         <f>IF(_tag_day_all!AF10="","",_tag_day_all!AF10)</f>
         <v/>
       </c>
-      <c r="AJ13" s="25" t="str">
+      <c r="AJ13" s="43" t="str">
         <f>IF(_tag_day_all!AG10="","",_tag_day_all!AG10)</f>
         <v/>
       </c>
-      <c r="AK13" s="26" t="str">
+      <c r="AK13" s="44" t="str">
         <f>IF(_tag_day_all!AH10="","",_tag_day_all!AH10)</f>
         <v/>
       </c>
-      <c r="AL13" s="26" t="str">
+      <c r="AL13" s="44" t="str">
         <f>IF(_tag_day_all!AI10="","",_tag_day_all!AI10)</f>
         <v/>
       </c>
-      <c r="AM13" s="26" t="str">
+      <c r="AM13" s="44" t="str">
         <f>IF(_tag_day_all!AJ10="","",_tag_day_all!AJ10)</f>
         <v/>
       </c>
-      <c r="AN13" s="26" t="str">
+      <c r="AN13" s="44" t="str">
         <f>IF(_tag_day_all!AK10="","",_tag_day_all!AK10)</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="13.5" spans="1:40">
-      <c r="A14" s="21">
+    <row r="14">
+      <c r="A14" s="39">
         <v>10</v>
       </c>
-      <c r="B14" s="22" t="str">
+      <c r="B14" s="40" t="str">
         <f>IF(_tag_day_all!A11="","",_tag_day_all!A11)</f>
         <v/>
       </c>
-      <c r="C14" s="23" t="str">
+      <c r="C14" s="41" t="str">
         <f>IF(_tag_day_all!B11="","",_tag_day_all!B11)</f>
         <v/>
       </c>
-      <c r="D14" s="24" t="str">
+      <c r="D14" s="42" t="str">
         <f>IF(_tag_day_all!C11="","",_tag_day_all!C11)</f>
         <v/>
       </c>
-      <c r="E14" s="25" t="str">
-        <f>IF(_tag_day_all!D11="","",_tag_day_all!D11)</f>
-        <v/>
-      </c>
-      <c r="F14" s="26" t="str">
+      <c r="E14" s="43" t="str">
+        <f>IF(_tag_day_all!D11="","",_tag_day_all!D11*10000)</f>
+        <v/>
+      </c>
+      <c r="F14" s="44" t="str">
         <f>IF(_tag_day_all!E11="","",_tag_day_all!E11)</f>
         <v/>
       </c>
-      <c r="G14" s="25" t="str">
+      <c r="G14" s="43" t="str">
         <f>IF(_tag_day_all!F11="","",_tag_day_all!F11)</f>
         <v/>
       </c>
-      <c r="H14" s="26" t="str">
+      <c r="H14" s="44" t="str">
         <f>IF(_tag_day_all!G11="","",_tag_day_all!G11)</f>
         <v/>
       </c>
-      <c r="I14" s="26" t="str">
+      <c r="I14" s="44" t="str">
         <f>IF(_tag_day_all!H11="","",_tag_day_all!H11)</f>
         <v/>
       </c>
-      <c r="J14" s="46" t="str">
+      <c r="J14" s="45" t="str">
         <f>IF(_tag_day_all!I11="","",_tag_day_all!I11)</f>
         <v/>
       </c>
-      <c r="K14" s="46" t="str">
+      <c r="K14" s="45" t="str">
         <f>IF(_tag_day_all!J11="","",_tag_day_all!J11)</f>
         <v/>
       </c>
-      <c r="L14" s="26" t="str">
+      <c r="L14" s="44" t="str">
         <f>IF(_tag_day_all!K11="","",_tag_day_all!K11)</f>
         <v/>
       </c>
-      <c r="M14" s="26" t="str">
+      <c r="M14" s="44" t="str">
         <f>IF(_tag_day_all!L11="","",_tag_day_all!L11)</f>
         <v/>
       </c>
-      <c r="N14" s="46" t="str">
+      <c r="N14" s="45" t="str">
         <f>IF(_tag_day_all!M11="","",_tag_day_all!M11)</f>
         <v/>
       </c>
-      <c r="O14" s="26" t="str">
+      <c r="O14" s="44" t="str">
         <f>IF(_tag_day_all!N11="","",_tag_day_all!N11*100)</f>
         <v/>
       </c>
-      <c r="P14" s="26" t="str">
+      <c r="P14" s="44" t="str">
         <f>IF(_tag_day_all!AL11="","",_tag_day_all!AL11)</f>
         <v/>
       </c>
-      <c r="Q14" s="25" t="str">
+      <c r="Q14" s="43" t="str">
         <f>IF(_tag_day_all!AM11="","",_tag_day_all!AM11)</f>
         <v/>
       </c>
-      <c r="R14" s="25" t="str">
+      <c r="R14" s="43" t="str">
         <f>IF(_tag_day_all!O11="","",_tag_day_all!O11)</f>
         <v/>
       </c>
-      <c r="S14" s="25" t="str">
+      <c r="S14" s="43" t="str">
         <f>IF(_tag_day_all!P11="","",_tag_day_all!P11)</f>
         <v/>
       </c>
-      <c r="T14" s="25" t="str">
+      <c r="T14" s="43" t="str">
         <f>IF(_tag_day_all!Q11="","",_tag_day_all!Q11)</f>
         <v/>
       </c>
-      <c r="U14" s="25" t="str">
+      <c r="U14" s="43" t="str">
         <f>IF(_tag_day_all!R11="","",_tag_day_all!R11)</f>
         <v/>
       </c>
-      <c r="V14" s="25" t="str">
+      <c r="V14" s="43" t="str">
         <f>IF(_tag_day_all!S11="","",_tag_day_all!S11)</f>
         <v/>
       </c>
-      <c r="W14" s="25" t="str">
+      <c r="W14" s="43" t="str">
         <f>IF(_tag_day_all!T11="","",_tag_day_all!T11)</f>
         <v/>
       </c>
-      <c r="X14" s="26" t="str">
+      <c r="X14" s="44" t="str">
         <f>IF(_tag_day_all!U11="","",_tag_day_all!U11)</f>
         <v/>
       </c>
-      <c r="Y14" s="26" t="str">
+      <c r="Y14" s="44" t="str">
         <f>IF(_tag_day_all!V11="","",_tag_day_all!V11)</f>
         <v/>
       </c>
-      <c r="Z14" s="26" t="str">
+      <c r="Z14" s="44" t="str">
         <f>IF(_tag_day_all!W11="","",_tag_day_all!W11)</f>
         <v/>
       </c>
-      <c r="AA14" s="26" t="str">
+      <c r="AA14" s="44" t="str">
         <f>IF(_tag_day_all!X11="","",_tag_day_all!X11)</f>
         <v/>
       </c>
-      <c r="AB14" s="46" t="str">
+      <c r="AB14" s="45" t="str">
         <f>IF(_tag_day_all!Y11="","",_tag_day_all!Y11)</f>
         <v/>
       </c>
-      <c r="AC14" s="25" t="str">
+      <c r="AC14" s="43" t="str">
         <f>IF(_tag_day_all!Z11="","",_tag_day_all!Z11)</f>
         <v/>
       </c>
-      <c r="AD14" s="25" t="str">
+      <c r="AD14" s="43" t="str">
         <f>IF(_tag_day_all!AA11="","",_tag_day_all!AA11)</f>
         <v/>
       </c>
-      <c r="AE14" s="26" t="str">
+      <c r="AE14" s="44" t="str">
         <f>IF(_tag_day_all!AB11="","",_tag_day_all!AB11)</f>
         <v/>
       </c>
-      <c r="AF14" s="25" t="str">
+      <c r="AF14" s="43" t="str">
         <f>IF(_tag_day_all!AC11="","",_tag_day_all!AC11)</f>
         <v/>
       </c>
-      <c r="AG14" s="25" t="str">
+      <c r="AG14" s="43" t="str">
         <f>IF(_tag_day_all!AD11="","",_tag_day_all!AD11)</f>
         <v/>
       </c>
-      <c r="AH14" s="25" t="str">
+      <c r="AH14" s="43" t="str">
         <f>IF(_tag_day_all!AE11="","",_tag_day_all!AE11)</f>
         <v/>
       </c>
-      <c r="AI14" s="25" t="str">
+      <c r="AI14" s="43" t="str">
         <f>IF(_tag_day_all!AF11="","",_tag_day_all!AF11)</f>
         <v/>
       </c>
-      <c r="AJ14" s="25" t="str">
+      <c r="AJ14" s="43" t="str">
         <f>IF(_tag_day_all!AG11="","",_tag_day_all!AG11)</f>
         <v/>
       </c>
-      <c r="AK14" s="26" t="str">
+      <c r="AK14" s="44" t="str">
         <f>IF(_tag_day_all!AH11="","",_tag_day_all!AH11)</f>
         <v/>
       </c>
-      <c r="AL14" s="26" t="str">
+      <c r="AL14" s="44" t="str">
         <f>IF(_tag_day_all!AI11="","",_tag_day_all!AI11)</f>
         <v/>
       </c>
-      <c r="AM14" s="26" t="str">
+      <c r="AM14" s="44" t="str">
         <f>IF(_tag_day_all!AJ11="","",_tag_day_all!AJ11)</f>
         <v/>
       </c>
-      <c r="AN14" s="26" t="str">
+      <c r="AN14" s="44" t="str">
         <f>IF(_tag_day_all!AK11="","",_tag_day_all!AK11)</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="13.5" spans="1:40">
-      <c r="A15" s="21">
+    <row r="15">
+      <c r="A15" s="39">
         <v>11</v>
       </c>
-      <c r="B15" s="22" t="str">
+      <c r="B15" s="40" t="str">
         <f>IF(_tag_day_all!A12="","",_tag_day_all!A12)</f>
         <v/>
       </c>
-      <c r="C15" s="23" t="str">
+      <c r="C15" s="41" t="str">
         <f>IF(_tag_day_all!B12="","",_tag_day_all!B12)</f>
         <v/>
       </c>
-      <c r="D15" s="24" t="str">
+      <c r="D15" s="42" t="str">
         <f>IF(_tag_day_all!C12="","",_tag_day_all!C12)</f>
         <v/>
       </c>
-      <c r="E15" s="25" t="str">
-        <f>IF(_tag_day_all!D12="","",_tag_day_all!D12)</f>
-        <v/>
-      </c>
-      <c r="F15" s="26" t="str">
+      <c r="E15" s="43" t="str">
+        <f>IF(_tag_day_all!D12="","",_tag_day_all!D12*10000)</f>
+        <v/>
+      </c>
+      <c r="F15" s="44" t="str">
         <f>IF(_tag_day_all!E12="","",_tag_day_all!E12)</f>
         <v/>
       </c>
-      <c r="G15" s="25" t="str">
+      <c r="G15" s="43" t="str">
         <f>IF(_tag_day_all!F12="","",_tag_day_all!F12)</f>
         <v/>
       </c>
-      <c r="H15" s="26" t="str">
+      <c r="H15" s="44" t="str">
         <f>IF(_tag_day_all!G12="","",_tag_day_all!G12)</f>
         <v/>
       </c>
-      <c r="I15" s="26" t="str">
+      <c r="I15" s="44" t="str">
         <f>IF(_tag_day_all!H12="","",_tag_day_all!H12)</f>
         <v/>
       </c>
-      <c r="J15" s="46" t="str">
+      <c r="J15" s="45" t="str">
         <f>IF(_tag_day_all!I12="","",_tag_day_all!I12)</f>
         <v/>
       </c>
-      <c r="K15" s="46" t="str">
+      <c r="K15" s="45" t="str">
         <f>IF(_tag_day_all!J12="","",_tag_day_all!J12)</f>
         <v/>
       </c>
-      <c r="L15" s="26" t="str">
+      <c r="L15" s="44" t="str">
         <f>IF(_tag_day_all!K12="","",_tag_day_all!K12)</f>
         <v/>
       </c>
-      <c r="M15" s="26" t="str">
+      <c r="M15" s="44" t="str">
         <f>IF(_tag_day_all!L12="","",_tag_day_all!L12)</f>
         <v/>
       </c>
-      <c r="N15" s="46" t="str">
+      <c r="N15" s="45" t="str">
         <f>IF(_tag_day_all!M12="","",_tag_day_all!M12)</f>
         <v/>
       </c>
-      <c r="O15" s="26" t="str">
+      <c r="O15" s="44" t="str">
         <f>IF(_tag_day_all!N12="","",_tag_day_all!N12*100)</f>
         <v/>
       </c>
-      <c r="P15" s="26" t="str">
+      <c r="P15" s="44" t="str">
         <f>IF(_tag_day_all!AL12="","",_tag_day_all!AL12)</f>
         <v/>
       </c>
-      <c r="Q15" s="25" t="str">
+      <c r="Q15" s="43" t="str">
         <f>IF(_tag_day_all!AM12="","",_tag_day_all!AM12)</f>
         <v/>
       </c>
-      <c r="R15" s="25" t="str">
+      <c r="R15" s="43" t="str">
         <f>IF(_tag_day_all!O12="","",_tag_day_all!O12)</f>
         <v/>
       </c>
-      <c r="S15" s="25" t="str">
+      <c r="S15" s="43" t="str">
         <f>IF(_tag_day_all!P12="","",_tag_day_all!P12)</f>
         <v/>
       </c>
-      <c r="T15" s="25" t="str">
+      <c r="T15" s="43" t="str">
         <f>IF(_tag_day_all!Q12="","",_tag_day_all!Q12)</f>
         <v/>
       </c>
-      <c r="U15" s="25" t="str">
+      <c r="U15" s="43" t="str">
         <f>IF(_tag_day_all!R12="","",_tag_day_all!R12)</f>
         <v/>
       </c>
-      <c r="V15" s="25" t="str">
+      <c r="V15" s="43" t="str">
         <f>IF(_tag_day_all!S12="","",_tag_day_all!S12)</f>
         <v/>
       </c>
-      <c r="W15" s="25" t="str">
+      <c r="W15" s="43" t="str">
         <f>IF(_tag_day_all!T12="","",_tag_day_all!T12)</f>
         <v/>
       </c>
-      <c r="X15" s="26" t="str">
+      <c r="X15" s="44" t="str">
         <f>IF(_tag_day_all!U12="","",_tag_day_all!U12)</f>
         <v/>
       </c>
-      <c r="Y15" s="26" t="str">
+      <c r="Y15" s="44" t="str">
         <f>IF(_tag_day_all!V12="","",_tag_day_all!V12)</f>
         <v/>
       </c>
-      <c r="Z15" s="26" t="str">
+      <c r="Z15" s="44" t="str">
         <f>IF(_tag_day_all!W12="","",_tag_day_all!W12)</f>
         <v/>
       </c>
-      <c r="AA15" s="26" t="str">
+      <c r="AA15" s="44" t="str">
         <f>IF(_tag_day_all!X12="","",_tag_day_all!X12)</f>
         <v/>
       </c>
-      <c r="AB15" s="46" t="str">
+      <c r="AB15" s="45" t="str">
         <f>IF(_tag_day_all!Y12="","",_tag_day_all!Y12)</f>
         <v/>
       </c>
-      <c r="AC15" s="25" t="str">
+      <c r="AC15" s="43" t="str">
         <f>IF(_tag_day_all!Z12="","",_tag_day_all!Z12)</f>
         <v/>
       </c>
-      <c r="AD15" s="25" t="str">
+      <c r="AD15" s="43" t="str">
         <f>IF(_tag_day_all!AA12="","",_tag_day_all!AA12)</f>
         <v/>
       </c>
-      <c r="AE15" s="26" t="str">
+      <c r="AE15" s="44" t="str">
         <f>IF(_tag_day_all!AB12="","",_tag_day_all!AB12)</f>
         <v/>
       </c>
-      <c r="AF15" s="25" t="str">
+      <c r="AF15" s="43" t="str">
         <f>IF(_tag_day_all!AC12="","",_tag_day_all!AC12)</f>
         <v/>
       </c>
-      <c r="AG15" s="25" t="str">
+      <c r="AG15" s="43" t="str">
         <f>IF(_tag_day_all!AD12="","",_tag_day_all!AD12)</f>
         <v/>
       </c>
-      <c r="AH15" s="25" t="str">
+      <c r="AH15" s="43" t="str">
         <f>IF(_tag_day_all!AE12="","",_tag_day_all!AE12)</f>
         <v/>
       </c>
-      <c r="AI15" s="25" t="str">
+      <c r="AI15" s="43" t="str">
         <f>IF(_tag_day_all!AF12="","",_tag_day_all!AF12)</f>
         <v/>
       </c>
-      <c r="AJ15" s="25" t="str">
+      <c r="AJ15" s="43" t="str">
         <f>IF(_tag_day_all!AG12="","",_tag_day_all!AG12)</f>
         <v/>
       </c>
-      <c r="AK15" s="26" t="str">
+      <c r="AK15" s="44" t="str">
         <f>IF(_tag_day_all!AH12="","",_tag_day_all!AH12)</f>
         <v/>
       </c>
-      <c r="AL15" s="26" t="str">
+      <c r="AL15" s="44" t="str">
         <f>IF(_tag_day_all!AI12="","",_tag_day_all!AI12)</f>
         <v/>
       </c>
-      <c r="AM15" s="26" t="str">
+      <c r="AM15" s="44" t="str">
         <f>IF(_tag_day_all!AJ12="","",_tag_day_all!AJ12)</f>
         <v/>
       </c>
-      <c r="AN15" s="26" t="str">
+      <c r="AN15" s="44" t="str">
         <f>IF(_tag_day_all!AK12="","",_tag_day_all!AK12)</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="13.5" spans="1:40">
-      <c r="A16" s="21">
+    <row r="16">
+      <c r="A16" s="39">
         <v>12</v>
       </c>
-      <c r="B16" s="22" t="str">
+      <c r="B16" s="40" t="str">
         <f>IF(_tag_day_all!A13="","",_tag_day_all!A13)</f>
         <v/>
       </c>
-      <c r="C16" s="23" t="str">
+      <c r="C16" s="41" t="str">
         <f>IF(_tag_day_all!B13="","",_tag_day_all!B13)</f>
         <v/>
       </c>
-      <c r="D16" s="24" t="str">
+      <c r="D16" s="42" t="str">
         <f>IF(_tag_day_all!C13="","",_tag_day_all!C13)</f>
         <v/>
       </c>
-      <c r="E16" s="25" t="str">
-        <f>IF(_tag_day_all!D13="","",_tag_day_all!D13)</f>
-        <v/>
-      </c>
-      <c r="F16" s="26" t="str">
+      <c r="E16" s="43" t="str">
+        <f>IF(_tag_day_all!D13="","",_tag_day_all!D13*10000)</f>
+        <v/>
+      </c>
+      <c r="F16" s="44" t="str">
         <f>IF(_tag_day_all!E13="","",_tag_day_all!E13)</f>
         <v/>
       </c>
-      <c r="G16" s="25" t="str">
+      <c r="G16" s="43" t="str">
         <f>IF(_tag_day_all!F13="","",_tag_day_all!F13)</f>
         <v/>
       </c>
-      <c r="H16" s="26" t="str">
+      <c r="H16" s="44" t="str">
         <f>IF(_tag_day_all!G13="","",_tag_day_all!G13)</f>
         <v/>
       </c>
-      <c r="I16" s="26" t="str">
+      <c r="I16" s="44" t="str">
         <f>IF(_tag_day_all!H13="","",_tag_day_all!H13)</f>
         <v/>
       </c>
-      <c r="J16" s="46" t="str">
+      <c r="J16" s="45" t="str">
         <f>IF(_tag_day_all!I13="","",_tag_day_all!I13)</f>
         <v/>
       </c>
-      <c r="K16" s="46" t="str">
+      <c r="K16" s="45" t="str">
         <f>IF(_tag_day_all!J13="","",_tag_day_all!J13)</f>
         <v/>
       </c>
-      <c r="L16" s="26" t="str">
+      <c r="L16" s="44" t="str">
         <f>IF(_tag_day_all!K13="","",_tag_day_all!K13)</f>
         <v/>
       </c>
-      <c r="M16" s="26" t="str">
+      <c r="M16" s="44" t="str">
         <f>IF(_tag_day_all!L13="","",_tag_day_all!L13)</f>
         <v/>
       </c>
-      <c r="N16" s="46" t="str">
+      <c r="N16" s="45" t="str">
         <f>IF(_tag_day_all!M13="","",_tag_day_all!M13)</f>
         <v/>
       </c>
-      <c r="O16" s="26" t="str">
+      <c r="O16" s="44" t="str">
         <f>IF(_tag_day_all!N13="","",_tag_day_all!N13*100)</f>
         <v/>
       </c>
-      <c r="P16" s="26" t="str">
+      <c r="P16" s="44" t="str">
         <f>IF(_tag_day_all!AL13="","",_tag_day_all!AL13)</f>
         <v/>
       </c>
-      <c r="Q16" s="25" t="str">
+      <c r="Q16" s="43" t="str">
         <f>IF(_tag_day_all!AM13="","",_tag_day_all!AM13)</f>
         <v/>
       </c>
-      <c r="R16" s="25" t="str">
+      <c r="R16" s="43" t="str">
         <f>IF(_tag_day_all!O13="","",_tag_day_all!O13)</f>
         <v/>
       </c>
-      <c r="S16" s="25" t="str">
+      <c r="S16" s="43" t="str">
         <f>IF(_tag_day_all!P13="","",_tag_day_all!P13)</f>
         <v/>
       </c>
-      <c r="T16" s="25" t="str">
+      <c r="T16" s="43" t="str">
         <f>IF(_tag_day_all!Q13="","",_tag_day_all!Q13)</f>
         <v/>
       </c>
-      <c r="U16" s="25" t="str">
+      <c r="U16" s="43" t="str">
         <f>IF(_tag_day_all!R13="","",_tag_day_all!R13)</f>
         <v/>
       </c>
-      <c r="V16" s="25" t="str">
+      <c r="V16" s="43" t="str">
         <f>IF(_tag_day_all!S13="","",_tag_day_all!S13)</f>
         <v/>
       </c>
-      <c r="W16" s="25" t="str">
+      <c r="W16" s="43" t="str">
         <f>IF(_tag_day_all!T13="","",_tag_day_all!T13)</f>
         <v/>
       </c>
-      <c r="X16" s="26" t="str">
+      <c r="X16" s="44" t="str">
         <f>IF(_tag_day_all!U13="","",_tag_day_all!U13)</f>
         <v/>
       </c>
-      <c r="Y16" s="26" t="str">
+      <c r="Y16" s="44" t="str">
         <f>IF(_tag_day_all!V13="","",_tag_day_all!V13)</f>
         <v/>
       </c>
-      <c r="Z16" s="26" t="str">
+      <c r="Z16" s="44" t="str">
         <f>IF(_tag_day_all!W13="","",_tag_day_all!W13)</f>
         <v/>
       </c>
-      <c r="AA16" s="26" t="str">
+      <c r="AA16" s="44" t="str">
         <f>IF(_tag_day_all!X13="","",_tag_day_all!X13)</f>
         <v/>
       </c>
-      <c r="AB16" s="46" t="str">
+      <c r="AB16" s="45" t="str">
         <f>IF(_tag_day_all!Y13="","",_tag_day_all!Y13)</f>
         <v/>
       </c>
-      <c r="AC16" s="25" t="str">
+      <c r="AC16" s="43" t="str">
         <f>IF(_tag_day_all!Z13="","",_tag_day_all!Z13)</f>
         <v/>
       </c>
-      <c r="AD16" s="25" t="str">
+      <c r="AD16" s="43" t="str">
         <f>IF(_tag_day_all!AA13="","",_tag_day_all!AA13)</f>
         <v/>
       </c>
-      <c r="AE16" s="26" t="str">
+      <c r="AE16" s="44" t="str">
         <f>IF(_tag_day_all!AB13="","",_tag_day_all!AB13)</f>
         <v/>
       </c>
-      <c r="AF16" s="25" t="str">
+      <c r="AF16" s="43" t="str">
         <f>IF(_tag_day_all!AC13="","",_tag_day_all!AC13)</f>
         <v/>
       </c>
-      <c r="AG16" s="25" t="str">
+      <c r="AG16" s="43" t="str">
         <f>IF(_tag_day_all!AD13="","",_tag_day_all!AD13)</f>
         <v/>
       </c>
-      <c r="AH16" s="25" t="str">
+      <c r="AH16" s="43" t="str">
         <f>IF(_tag_day_all!AE13="","",_tag_day_all!AE13)</f>
         <v/>
       </c>
-      <c r="AI16" s="25" t="str">
+      <c r="AI16" s="43" t="str">
         <f>IF(_tag_day_all!AF13="","",_tag_day_all!AF13)</f>
         <v/>
       </c>
-      <c r="AJ16" s="25" t="str">
+      <c r="AJ16" s="43" t="str">
         <f>IF(_tag_day_all!AG13="","",_tag_day_all!AG13)</f>
         <v/>
       </c>
-      <c r="AK16" s="26" t="str">
+      <c r="AK16" s="44" t="str">
         <f>IF(_tag_day_all!AH13="","",_tag_day_all!AH13)</f>
         <v/>
       </c>
-      <c r="AL16" s="26" t="str">
+      <c r="AL16" s="44" t="str">
         <f>IF(_tag_day_all!AI13="","",_tag_day_all!AI13)</f>
         <v/>
       </c>
-      <c r="AM16" s="26" t="str">
+      <c r="AM16" s="44" t="str">
         <f>IF(_tag_day_all!AJ13="","",_tag_day_all!AJ13)</f>
         <v/>
       </c>
-      <c r="AN16" s="26" t="str">
+      <c r="AN16" s="44" t="str">
         <f>IF(_tag_day_all!AK13="","",_tag_day_all!AK13)</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="13.5" spans="1:40">
-      <c r="A17" s="21">
+    <row r="17">
+      <c r="A17" s="39">
         <v>13</v>
       </c>
-      <c r="B17" s="22" t="str">
+      <c r="B17" s="40" t="str">
         <f>IF(_tag_day_all!A14="","",_tag_day_all!A14)</f>
         <v/>
       </c>
-      <c r="C17" s="23" t="str">
+      <c r="C17" s="41" t="str">
         <f>IF(_tag_day_all!B14="","",_tag_day_all!B14)</f>
         <v/>
       </c>
-      <c r="D17" s="24" t="str">
+      <c r="D17" s="42" t="str">
         <f>IF(_tag_day_all!C14="","",_tag_day_all!C14)</f>
         <v/>
       </c>
-      <c r="E17" s="25" t="str">
-        <f>IF(_tag_day_all!D14="","",_tag_day_all!D14)</f>
-        <v/>
-      </c>
-      <c r="F17" s="26" t="str">
+      <c r="E17" s="43" t="str">
+        <f>IF(_tag_day_all!D14="","",_tag_day_all!D14*10000)</f>
+        <v/>
+      </c>
+      <c r="F17" s="44" t="str">
         <f>IF(_tag_day_all!E14="","",_tag_day_all!E14)</f>
         <v/>
       </c>
-      <c r="G17" s="25" t="str">
+      <c r="G17" s="43" t="str">
         <f>IF(_tag_day_all!F14="","",_tag_day_all!F14)</f>
         <v/>
       </c>
-      <c r="H17" s="26" t="str">
+      <c r="H17" s="44" t="str">
         <f>IF(_tag_day_all!G14="","",_tag_day_all!G14)</f>
         <v/>
       </c>
-      <c r="I17" s="26" t="str">
+      <c r="I17" s="44" t="str">
         <f>IF(_tag_day_all!H14="","",_tag_day_all!H14)</f>
         <v/>
       </c>
-      <c r="J17" s="46" t="str">
+      <c r="J17" s="45" t="str">
         <f>IF(_tag_day_all!I14="","",_tag_day_all!I14)</f>
         <v/>
       </c>
-      <c r="K17" s="46" t="str">
+      <c r="K17" s="45" t="str">
         <f>IF(_tag_day_all!J14="","",_tag_day_all!J14)</f>
         <v/>
       </c>
-      <c r="L17" s="26" t="str">
+      <c r="L17" s="44" t="str">
         <f>IF(_tag_day_all!K14="","",_tag_day_all!K14)</f>
         <v/>
       </c>
-      <c r="M17" s="26" t="str">
+      <c r="M17" s="44" t="str">
         <f>IF(_tag_day_all!L14="","",_tag_day_all!L14)</f>
         <v/>
       </c>
-      <c r="N17" s="46" t="str">
+      <c r="N17" s="45" t="str">
         <f>IF(_tag_day_all!M14="","",_tag_day_all!M14)</f>
         <v/>
       </c>
-      <c r="O17" s="26" t="str">
+      <c r="O17" s="44" t="str">
         <f>IF(_tag_day_all!N14="","",_tag_day_all!N14*100)</f>
         <v/>
       </c>
-      <c r="P17" s="26" t="str">
+      <c r="P17" s="44" t="str">
         <f>IF(_tag_day_all!AL14="","",_tag_day_all!AL14)</f>
         <v/>
       </c>
-      <c r="Q17" s="25" t="str">
+      <c r="Q17" s="43" t="str">
         <f>IF(_tag_day_all!AM14="","",_tag_day_all!AM14)</f>
         <v/>
       </c>
-      <c r="R17" s="25" t="str">
+      <c r="R17" s="43" t="str">
         <f>IF(_tag_day_all!O14="","",_tag_day_all!O14)</f>
         <v/>
       </c>
-      <c r="S17" s="25" t="str">
+      <c r="S17" s="43" t="str">
         <f>IF(_tag_day_all!P14="","",_tag_day_all!P14)</f>
         <v/>
       </c>
-      <c r="T17" s="25" t="str">
+      <c r="T17" s="43" t="str">
         <f>IF(_tag_day_all!Q14="","",_tag_day_all!Q14)</f>
         <v/>
       </c>
-      <c r="U17" s="25" t="str">
+      <c r="U17" s="43" t="str">
         <f>IF(_tag_day_all!R14="","",_tag_day_all!R14)</f>
         <v/>
       </c>
-      <c r="V17" s="25" t="str">
+      <c r="V17" s="43" t="str">
         <f>IF(_tag_day_all!S14="","",_tag_day_all!S14)</f>
         <v/>
       </c>
-      <c r="W17" s="25" t="str">
+      <c r="W17" s="43" t="str">
         <f>IF(_tag_day_all!T14="","",_tag_day_all!T14)</f>
         <v/>
       </c>
-      <c r="X17" s="26" t="str">
+      <c r="X17" s="44" t="str">
         <f>IF(_tag_day_all!U14="","",_tag_day_all!U14)</f>
         <v/>
       </c>
-      <c r="Y17" s="26" t="str">
+      <c r="Y17" s="44" t="str">
         <f>IF(_tag_day_all!V14="","",_tag_day_all!V14)</f>
         <v/>
       </c>
-      <c r="Z17" s="26" t="str">
+      <c r="Z17" s="44" t="str">
         <f>IF(_tag_day_all!W14="","",_tag_day_all!W14)</f>
         <v/>
       </c>
-      <c r="AA17" s="26" t="str">
+      <c r="AA17" s="44" t="str">
         <f>IF(_tag_day_all!X14="","",_tag_day_all!X14)</f>
         <v/>
       </c>
-      <c r="AB17" s="46" t="str">
+      <c r="AB17" s="45" t="str">
         <f>IF(_tag_day_all!Y14="","",_tag_day_all!Y14)</f>
         <v/>
       </c>
-      <c r="AC17" s="25" t="str">
+      <c r="AC17" s="43" t="str">
         <f>IF(_tag_day_all!Z14="","",_tag_day_all!Z14)</f>
         <v/>
       </c>
-      <c r="AD17" s="25" t="str">
+      <c r="AD17" s="43" t="str">
         <f>IF(_tag_day_all!AA14="","",_tag_day_all!AA14)</f>
         <v/>
       </c>
-      <c r="AE17" s="26" t="str">
+      <c r="AE17" s="44" t="str">
         <f>IF(_tag_day_all!AB14="","",_tag_day_all!AB14)</f>
         <v/>
       </c>
-      <c r="AF17" s="25" t="str">
+      <c r="AF17" s="43" t="str">
         <f>IF(_tag_day_all!AC14="","",_tag_day_all!AC14)</f>
         <v/>
       </c>
-      <c r="AG17" s="25" t="str">
+      <c r="AG17" s="43" t="str">
         <f>IF(_tag_day_all!AD14="","",_tag_day_all!AD14)</f>
         <v/>
       </c>
-      <c r="AH17" s="25" t="str">
+      <c r="AH17" s="43" t="str">
         <f>IF(_tag_day_all!AE14="","",_tag_day_all!AE14)</f>
         <v/>
       </c>
-      <c r="AI17" s="25" t="str">
+      <c r="AI17" s="43" t="str">
         <f>IF(_tag_day_all!AF14="","",_tag_day_all!AF14)</f>
         <v/>
       </c>
-      <c r="AJ17" s="25" t="str">
+      <c r="AJ17" s="43" t="str">
         <f>IF(_tag_day_all!AG14="","",_tag_day_all!AG14)</f>
         <v/>
       </c>
-      <c r="AK17" s="26" t="str">
+      <c r="AK17" s="44" t="str">
         <f>IF(_tag_day_all!AH14="","",_tag_day_all!AH14)</f>
         <v/>
       </c>
-      <c r="AL17" s="26" t="str">
+      <c r="AL17" s="44" t="str">
         <f>IF(_tag_day_all!AI14="","",_tag_day_all!AI14)</f>
         <v/>
       </c>
-      <c r="AM17" s="26" t="str">
+      <c r="AM17" s="44" t="str">
         <f>IF(_tag_day_all!AJ14="","",_tag_day_all!AJ14)</f>
         <v/>
       </c>
-      <c r="AN17" s="26" t="str">
+      <c r="AN17" s="44" t="str">
         <f>IF(_tag_day_all!AK14="","",_tag_day_all!AK14)</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="13.5" spans="1:40">
-      <c r="A18" s="21">
+    <row r="18">
+      <c r="A18" s="39">
         <v>14</v>
       </c>
-      <c r="B18" s="22" t="str">
+      <c r="B18" s="40" t="str">
         <f>IF(_tag_day_all!A15="","",_tag_day_all!A15)</f>
         <v/>
       </c>
-      <c r="C18" s="23" t="str">
+      <c r="C18" s="41" t="str">
         <f>IF(_tag_day_all!B15="","",_tag_day_all!B15)</f>
         <v/>
       </c>
-      <c r="D18" s="24" t="str">
+      <c r="D18" s="42" t="str">
         <f>IF(_tag_day_all!C15="","",_tag_day_all!C15)</f>
         <v/>
       </c>
-      <c r="E18" s="25" t="str">
-        <f>IF(_tag_day_all!D15="","",_tag_day_all!D15)</f>
-        <v/>
-      </c>
-      <c r="F18" s="26" t="str">
+      <c r="E18" s="43" t="str">
+        <f>IF(_tag_day_all!D15="","",_tag_day_all!D15*10000)</f>
+        <v/>
+      </c>
+      <c r="F18" s="44" t="str">
         <f>IF(_tag_day_all!E15="","",_tag_day_all!E15)</f>
         <v/>
       </c>
-      <c r="G18" s="25" t="str">
+      <c r="G18" s="43" t="str">
         <f>IF(_tag_day_all!F15="","",_tag_day_all!F15)</f>
         <v/>
       </c>
-      <c r="H18" s="26" t="str">
+      <c r="H18" s="44" t="str">
         <f>IF(_tag_day_all!G15="","",_tag_day_all!G15)</f>
         <v/>
       </c>
-      <c r="I18" s="26" t="str">
+      <c r="I18" s="44" t="str">
         <f>IF(_tag_day_all!H15="","",_tag_day_all!H15)</f>
         <v/>
       </c>
-      <c r="J18" s="46" t="str">
+      <c r="J18" s="45" t="str">
         <f>IF(_tag_day_all!I15="","",_tag_day_all!I15)</f>
         <v/>
       </c>
-      <c r="K18" s="46" t="str">
+      <c r="K18" s="45" t="str">
         <f>IF(_tag_day_all!J15="","",_tag_day_all!J15)</f>
         <v/>
       </c>
-      <c r="L18" s="26" t="str">
+      <c r="L18" s="44" t="str">
         <f>IF(_tag_day_all!K15="","",_tag_day_all!K15)</f>
         <v/>
       </c>
-      <c r="M18" s="26" t="str">
+      <c r="M18" s="44" t="str">
         <f>IF(_tag_day_all!L15="","",_tag_day_all!L15)</f>
         <v/>
       </c>
-      <c r="N18" s="46" t="str">
+      <c r="N18" s="45" t="str">
         <f>IF(_tag_day_all!M15="","",_tag_day_all!M15)</f>
         <v/>
       </c>
-      <c r="O18" s="26" t="str">
+      <c r="O18" s="44" t="str">
         <f>IF(_tag_day_all!N15="","",_tag_day_all!N15*100)</f>
         <v/>
       </c>
-      <c r="P18" s="26" t="str">
+      <c r="P18" s="44" t="str">
         <f>IF(_tag_day_all!AL15="","",_tag_day_all!AL15)</f>
         <v/>
       </c>
-      <c r="Q18" s="25" t="str">
+      <c r="Q18" s="43" t="str">
         <f>IF(_tag_day_all!AM15="","",_tag_day_all!AM15)</f>
         <v/>
       </c>
-      <c r="R18" s="25" t="str">
+      <c r="R18" s="43" t="str">
         <f>IF(_tag_day_all!O15="","",_tag_day_all!O15)</f>
         <v/>
       </c>
-      <c r="S18" s="25" t="str">
+      <c r="S18" s="43" t="str">
         <f>IF(_tag_day_all!P15="","",_tag_day_all!P15)</f>
         <v/>
       </c>
-      <c r="T18" s="25" t="str">
+      <c r="T18" s="43" t="str">
         <f>IF(_tag_day_all!Q15="","",_tag_day_all!Q15)</f>
         <v/>
       </c>
-      <c r="U18" s="25" t="str">
+      <c r="U18" s="43" t="str">
         <f>IF(_tag_day_all!R15="","",_tag_day_all!R15)</f>
         <v/>
       </c>
-      <c r="V18" s="25" t="str">
+      <c r="V18" s="43" t="str">
         <f>IF(_tag_day_all!S15="","",_tag_day_all!S15)</f>
         <v/>
       </c>
-      <c r="W18" s="25" t="str">
+      <c r="W18" s="43" t="str">
         <f>IF(_tag_day_all!T15="","",_tag_day_all!T15)</f>
         <v/>
       </c>
-      <c r="X18" s="26" t="str">
+      <c r="X18" s="44" t="str">
         <f>IF(_tag_day_all!U15="","",_tag_day_all!U15)</f>
         <v/>
       </c>
-      <c r="Y18" s="26" t="str">
+      <c r="Y18" s="44" t="str">
         <f>IF(_tag_day_all!V15="","",_tag_day_all!V15)</f>
         <v/>
       </c>
-      <c r="Z18" s="26" t="str">
+      <c r="Z18" s="44" t="str">
         <f>IF(_tag_day_all!W15="","",_tag_day_all!W15)</f>
         <v/>
       </c>
-      <c r="AA18" s="26" t="str">
+      <c r="AA18" s="44" t="str">
         <f>IF(_tag_day_all!X15="","",_tag_day_all!X15)</f>
         <v/>
       </c>
-      <c r="AB18" s="46" t="str">
+      <c r="AB18" s="45" t="str">
         <f>IF(_tag_day_all!Y15="","",_tag_day_all!Y15)</f>
         <v/>
       </c>
-      <c r="AC18" s="25" t="str">
+      <c r="AC18" s="43" t="str">
         <f>IF(_tag_day_all!Z15="","",_tag_day_all!Z15)</f>
         <v/>
       </c>
-      <c r="AD18" s="25" t="str">
+      <c r="AD18" s="43" t="str">
         <f>IF(_tag_day_all!AA15="","",_tag_day_all!AA15)</f>
         <v/>
       </c>
-      <c r="AE18" s="26" t="str">
+      <c r="AE18" s="44" t="str">
         <f>IF(_tag_day_all!AB15="","",_tag_day_all!AB15)</f>
         <v/>
       </c>
-      <c r="AF18" s="25" t="str">
+      <c r="AF18" s="43" t="str">
         <f>IF(_tag_day_all!AC15="","",_tag_day_all!AC15)</f>
         <v/>
       </c>
-      <c r="AG18" s="25" t="str">
+      <c r="AG18" s="43" t="str">
         <f>IF(_tag_day_all!AD15="","",_tag_day_all!AD15)</f>
         <v/>
       </c>
-      <c r="AH18" s="25" t="str">
+      <c r="AH18" s="43" t="str">
         <f>IF(_tag_day_all!AE15="","",_tag_day_all!AE15)</f>
         <v/>
       </c>
-      <c r="AI18" s="25" t="str">
+      <c r="AI18" s="43" t="str">
         <f>IF(_tag_day_all!AF15="","",_tag_day_all!AF15)</f>
         <v/>
       </c>
-      <c r="AJ18" s="25" t="str">
+      <c r="AJ18" s="43" t="str">
         <f>IF(_tag_day_all!AG15="","",_tag_day_all!AG15)</f>
         <v/>
       </c>
-      <c r="AK18" s="26" t="str">
+      <c r="AK18" s="44" t="str">
         <f>IF(_tag_day_all!AH15="","",_tag_day_all!AH15)</f>
         <v/>
       </c>
-      <c r="AL18" s="26" t="str">
+      <c r="AL18" s="44" t="str">
         <f>IF(_tag_day_all!AI15="","",_tag_day_all!AI15)</f>
         <v/>
       </c>
-      <c r="AM18" s="26" t="str">
+      <c r="AM18" s="44" t="str">
         <f>IF(_tag_day_all!AJ15="","",_tag_day_all!AJ15)</f>
         <v/>
       </c>
-      <c r="AN18" s="26" t="str">
+      <c r="AN18" s="44" t="str">
         <f>IF(_tag_day_all!AK15="","",_tag_day_all!AK15)</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="13.5" spans="1:40">
-      <c r="A19" s="21">
+    <row r="19">
+      <c r="A19" s="39">
         <v>15</v>
       </c>
-      <c r="B19" s="22" t="str">
+      <c r="B19" s="40" t="str">
         <f>IF(_tag_day_all!A16="","",_tag_day_all!A16)</f>
         <v/>
       </c>
-      <c r="C19" s="23" t="str">
+      <c r="C19" s="41" t="str">
         <f>IF(_tag_day_all!B16="","",_tag_day_all!B16)</f>
         <v/>
       </c>
-      <c r="D19" s="24" t="str">
+      <c r="D19" s="42" t="str">
         <f>IF(_tag_day_all!C16="","",_tag_day_all!C16)</f>
         <v/>
       </c>
-      <c r="E19" s="25" t="str">
-        <f>IF(_tag_day_all!D16="","",_tag_day_all!D16)</f>
-        <v/>
-      </c>
-      <c r="F19" s="26" t="str">
+      <c r="E19" s="43" t="str">
+        <f>IF(_tag_day_all!D16="","",_tag_day_all!D16*10000)</f>
+        <v/>
+      </c>
+      <c r="F19" s="44" t="str">
         <f>IF(_tag_day_all!E16="","",_tag_day_all!E16)</f>
         <v/>
       </c>
-      <c r="G19" s="25" t="str">
+      <c r="G19" s="43" t="str">
         <f>IF(_tag_day_all!F16="","",_tag_day_all!F16)</f>
         <v/>
       </c>
-      <c r="H19" s="26" t="str">
+      <c r="H19" s="44" t="str">
         <f>IF(_tag_day_all!G16="","",_tag_day_all!G16)</f>
         <v/>
       </c>
-      <c r="I19" s="26" t="str">
+      <c r="I19" s="44" t="str">
         <f>IF(_tag_day_all!H16="","",_tag_day_all!H16)</f>
         <v/>
       </c>
-      <c r="J19" s="46" t="str">
+      <c r="J19" s="45" t="str">
         <f>IF(_tag_day_all!I16="","",_tag_day_all!I16)</f>
         <v/>
       </c>
-      <c r="K19" s="46" t="str">
+      <c r="K19" s="45" t="str">
         <f>IF(_tag_day_all!J16="","",_tag_day_all!J16)</f>
         <v/>
       </c>
-      <c r="L19" s="26" t="str">
+      <c r="L19" s="44" t="str">
         <f>IF(_tag_day_all!K16="","",_tag_day_all!K16)</f>
         <v/>
       </c>
-      <c r="M19" s="26" t="str">
+      <c r="M19" s="44" t="str">
         <f>IF(_tag_day_all!L16="","",_tag_day_all!L16)</f>
         <v/>
       </c>
-      <c r="N19" s="46" t="str">
+      <c r="N19" s="45" t="str">
         <f>IF(_tag_day_all!M16="","",_tag_day_all!M16)</f>
         <v/>
       </c>
-      <c r="O19" s="26" t="str">
+      <c r="O19" s="44" t="str">
         <f>IF(_tag_day_all!N16="","",_tag_day_all!N16*100)</f>
         <v/>
       </c>
-      <c r="P19" s="26" t="str">
+      <c r="P19" s="44" t="str">
         <f>IF(_tag_day_all!AL16="","",_tag_day_all!AL16)</f>
         <v/>
       </c>
-      <c r="Q19" s="25" t="str">
+      <c r="Q19" s="43" t="str">
         <f>IF(_tag_day_all!AM16="","",_tag_day_all!AM16)</f>
         <v/>
       </c>
-      <c r="R19" s="25" t="str">
+      <c r="R19" s="43" t="str">
         <f>IF(_tag_day_all!O16="","",_tag_day_all!O16)</f>
         <v/>
       </c>
-      <c r="S19" s="25" t="str">
+      <c r="S19" s="43" t="str">
         <f>IF(_tag_day_all!P16="","",_tag_day_all!P16)</f>
         <v/>
       </c>
-      <c r="T19" s="25" t="str">
+      <c r="T19" s="43" t="str">
         <f>IF(_tag_day_all!Q16="","",_tag_day_all!Q16)</f>
         <v/>
       </c>
-      <c r="U19" s="25" t="str">
+      <c r="U19" s="43" t="str">
         <f>IF(_tag_day_all!R16="","",_tag_day_all!R16)</f>
         <v/>
       </c>
-      <c r="V19" s="25" t="str">
+      <c r="V19" s="43" t="str">
         <f>IF(_tag_day_all!S16="","",_tag_day_all!S16)</f>
         <v/>
       </c>
-      <c r="W19" s="25" t="str">
+      <c r="W19" s="43" t="str">
         <f>IF(_tag_day_all!T16="","",_tag_day_all!T16)</f>
         <v/>
       </c>
-      <c r="X19" s="26" t="str">
+      <c r="X19" s="44" t="str">
         <f>IF(_tag_day_all!U16="","",_tag_day_all!U16)</f>
         <v/>
       </c>
-      <c r="Y19" s="26" t="str">
+      <c r="Y19" s="44" t="str">
         <f>IF(_tag_day_all!V16="","",_tag_day_all!V16)</f>
         <v/>
       </c>
-      <c r="Z19" s="26" t="str">
+      <c r="Z19" s="44" t="str">
         <f>IF(_tag_day_all!W16="","",_tag_day_all!W16)</f>
         <v/>
       </c>
-      <c r="AA19" s="26" t="str">
+      <c r="AA19" s="44" t="str">
         <f>IF(_tag_day_all!X16="","",_tag_day_all!X16)</f>
         <v/>
       </c>
-      <c r="AB19" s="46" t="str">
+      <c r="AB19" s="45" t="str">
         <f>IF(_tag_day_all!Y16="","",_tag_day_all!Y16)</f>
         <v/>
       </c>
-      <c r="AC19" s="25" t="str">
+      <c r="AC19" s="43" t="str">
         <f>IF(_tag_day_all!Z16="","",_tag_day_all!Z16)</f>
         <v/>
       </c>
-      <c r="AD19" s="25" t="str">
+      <c r="AD19" s="43" t="str">
         <f>IF(_tag_day_all!AA16="","",_tag_day_all!AA16)</f>
         <v/>
       </c>
-      <c r="AE19" s="26" t="str">
+      <c r="AE19" s="44" t="str">
         <f>IF(_tag_day_all!AB16="","",_tag_day_all!AB16)</f>
         <v/>
       </c>
-      <c r="AF19" s="25" t="str">
+      <c r="AF19" s="43" t="str">
         <f>IF(_tag_day_all!AC16="","",_tag_day_all!AC16)</f>
         <v/>
       </c>
-      <c r="AG19" s="25" t="str">
+      <c r="AG19" s="43" t="str">
         <f>IF(_tag_day_all!AD16="","",_tag_day_all!AD16)</f>
         <v/>
       </c>
-      <c r="AH19" s="25" t="str">
+      <c r="AH19" s="43" t="str">
         <f>IF(_tag_day_all!AE16="","",_tag_day_all!AE16)</f>
         <v/>
       </c>
-      <c r="AI19" s="25" t="str">
+      <c r="AI19" s="43" t="str">
         <f>IF(_tag_day_all!AF16="","",_tag_day_all!AF16)</f>
         <v/>
       </c>
-      <c r="AJ19" s="25" t="str">
+      <c r="AJ19" s="43" t="str">
         <f>IF(_tag_day_all!AG16="","",_tag_day_all!AG16)</f>
         <v/>
       </c>
-      <c r="AK19" s="26" t="str">
+      <c r="AK19" s="44" t="str">
         <f>IF(_tag_day_all!AH16="","",_tag_day_all!AH16)</f>
         <v/>
       </c>
-      <c r="AL19" s="26" t="str">
+      <c r="AL19" s="44" t="str">
         <f>IF(_tag_day_all!AI16="","",_tag_day_all!AI16)</f>
         <v/>
       </c>
-      <c r="AM19" s="26" t="str">
+      <c r="AM19" s="44" t="str">
         <f>IF(_tag_day_all!AJ16="","",_tag_day_all!AJ16)</f>
         <v/>
       </c>
-      <c r="AN19" s="26" t="str">
+      <c r="AN19" s="44" t="str">
         <f>IF(_tag_day_all!AK16="","",_tag_day_all!AK16)</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="13.5" spans="1:40">
-      <c r="A20" s="21">
+    <row r="20">
+      <c r="A20" s="39">
         <v>16</v>
       </c>
-      <c r="B20" s="22" t="str">
+      <c r="B20" s="40" t="str">
         <f>IF(_tag_day_all!A17="","",_tag_day_all!A17)</f>
         <v/>
       </c>
-      <c r="C20" s="23" t="str">
+      <c r="C20" s="41" t="str">
         <f>IF(_tag_day_all!B17="","",_tag_day_all!B17)</f>
         <v/>
       </c>
-      <c r="D20" s="24" t="str">
+      <c r="D20" s="42" t="str">
         <f>IF(_tag_day_all!C17="","",_tag_day_all!C17)</f>
         <v/>
       </c>
-      <c r="E20" s="25" t="str">
-        <f>IF(_tag_day_all!D17="","",_tag_day_all!D17)</f>
-        <v/>
-      </c>
-      <c r="F20" s="26" t="str">
+      <c r="E20" s="43" t="str">
+        <f>IF(_tag_day_all!D17="","",_tag_day_all!D17*10000)</f>
+        <v/>
+      </c>
+      <c r="F20" s="44" t="str">
         <f>IF(_tag_day_all!E17="","",_tag_day_all!E17)</f>
         <v/>
       </c>
-      <c r="G20" s="25" t="str">
+      <c r="G20" s="43" t="str">
         <f>IF(_tag_day_all!F17="","",_tag_day_all!F17)</f>
         <v/>
       </c>
-      <c r="H20" s="26" t="str">
+      <c r="H20" s="44" t="str">
         <f>IF(_tag_day_all!G17="","",_tag_day_all!G17)</f>
         <v/>
       </c>
-      <c r="I20" s="26" t="str">
+      <c r="I20" s="44" t="str">
         <f>IF(_tag_day_all!H17="","",_tag_day_all!H17)</f>
         <v/>
       </c>
-      <c r="J20" s="46" t="str">
+      <c r="J20" s="45" t="str">
         <f>IF(_tag_day_all!I17="","",_tag_day_all!I17)</f>
         <v/>
       </c>
-      <c r="K20" s="46" t="str">
+      <c r="K20" s="45" t="str">
         <f>IF(_tag_day_all!J17="","",_tag_day_all!J17)</f>
         <v/>
       </c>
-      <c r="L20" s="26" t="str">
+      <c r="L20" s="44" t="str">
         <f>IF(_tag_day_all!K17="","",_tag_day_all!K17)</f>
         <v/>
       </c>
-      <c r="M20" s="26" t="str">
+      <c r="M20" s="44" t="str">
         <f>IF(_tag_day_all!L17="","",_tag_day_all!L17)</f>
         <v/>
       </c>
-      <c r="N20" s="46" t="str">
+      <c r="N20" s="45" t="str">
         <f>IF(_tag_day_all!M17="","",_tag_day_all!M17)</f>
         <v/>
       </c>
-      <c r="O20" s="26" t="str">
+      <c r="O20" s="44" t="str">
         <f>IF(_tag_day_all!N17="","",_tag_day_all!N17*100)</f>
         <v/>
       </c>
-      <c r="P20" s="26" t="str">
+      <c r="P20" s="44" t="str">
         <f>IF(_tag_day_all!AL17="","",_tag_day_all!AL17)</f>
         <v/>
       </c>
-      <c r="Q20" s="25" t="str">
+      <c r="Q20" s="43" t="str">
         <f>IF(_tag_day_all!AM17="","",_tag_day_all!AM17)</f>
         <v/>
       </c>
-      <c r="R20" s="25" t="str">
+      <c r="R20" s="43" t="str">
         <f>IF(_tag_day_all!O17="","",_tag_day_all!O17)</f>
         <v/>
       </c>
-      <c r="S20" s="25" t="str">
+      <c r="S20" s="43" t="str">
         <f>IF(_tag_day_all!P17="","",_tag_day_all!P17)</f>
         <v/>
       </c>
-      <c r="T20" s="25" t="str">
+      <c r="T20" s="43" t="str">
         <f>IF(_tag_day_all!Q17="","",_tag_day_all!Q17)</f>
         <v/>
       </c>
-      <c r="U20" s="25" t="str">
+      <c r="U20" s="43" t="str">
         <f>IF(_tag_day_all!R17="","",_tag_day_all!R17)</f>
         <v/>
       </c>
-      <c r="V20" s="25" t="str">
+      <c r="V20" s="43" t="str">
         <f>IF(_tag_day_all!S17="","",_tag_day_all!S17)</f>
         <v/>
       </c>
-      <c r="W20" s="25" t="str">
+      <c r="W20" s="43" t="str">
         <f>IF(_tag_day_all!T17="","",_tag_day_all!T17)</f>
         <v/>
       </c>
-      <c r="X20" s="26" t="str">
+      <c r="X20" s="44" t="str">
         <f>IF(_tag_day_all!U17="","",_tag_day_all!U17)</f>
         <v/>
       </c>
-      <c r="Y20" s="26" t="str">
+      <c r="Y20" s="44" t="str">
         <f>IF(_tag_day_all!V17="","",_tag_day_all!V17)</f>
         <v/>
       </c>
-      <c r="Z20" s="26" t="str">
+      <c r="Z20" s="44" t="str">
         <f>IF(_tag_day_all!W17="","",_tag_day_all!W17)</f>
         <v/>
       </c>
-      <c r="AA20" s="26" t="str">
+      <c r="AA20" s="44" t="str">
         <f>IF(_tag_day_all!X17="","",_tag_day_all!X17)</f>
         <v/>
       </c>
-      <c r="AB20" s="46" t="str">
+      <c r="AB20" s="45" t="str">
         <f>IF(_tag_day_all!Y17="","",_tag_day_all!Y17)</f>
         <v/>
       </c>
-      <c r="AC20" s="25" t="str">
+      <c r="AC20" s="43" t="str">
         <f>IF(_tag_day_all!Z17="","",_tag_day_all!Z17)</f>
         <v/>
       </c>
-      <c r="AD20" s="25" t="str">
+      <c r="AD20" s="43" t="str">
         <f>IF(_tag_day_all!AA17="","",_tag_day_all!AA17)</f>
         <v/>
       </c>
-      <c r="AE20" s="26" t="str">
+      <c r="AE20" s="44" t="str">
         <f>IF(_tag_day_all!AB17="","",_tag_day_all!AB17)</f>
         <v/>
       </c>
-      <c r="AF20" s="25" t="str">
+      <c r="AF20" s="43" t="str">
         <f>IF(_tag_day_all!AC17="","",_tag_day_all!AC17)</f>
         <v/>
       </c>
-      <c r="AG20" s="25" t="str">
+      <c r="AG20" s="43" t="str">
         <f>IF(_tag_day_all!AD17="","",_tag_day_all!AD17)</f>
         <v/>
       </c>
-      <c r="AH20" s="25" t="str">
+      <c r="AH20" s="43" t="str">
         <f>IF(_tag_day_all!AE17="","",_tag_day_all!AE17)</f>
         <v/>
       </c>
-      <c r="AI20" s="25" t="str">
+      <c r="AI20" s="43" t="str">
         <f>IF(_tag_day_all!AF17="","",_tag_day_all!AF17)</f>
         <v/>
       </c>
-      <c r="AJ20" s="25" t="str">
+      <c r="AJ20" s="43" t="str">
         <f>IF(_tag_day_all!AG17="","",_tag_day_all!AG17)</f>
         <v/>
       </c>
-      <c r="AK20" s="26" t="str">
+      <c r="AK20" s="44" t="str">
         <f>IF(_tag_day_all!AH17="","",_tag_day_all!AH17)</f>
         <v/>
       </c>
-      <c r="AL20" s="26" t="str">
+      <c r="AL20" s="44" t="str">
         <f>IF(_tag_day_all!AI17="","",_tag_day_all!AI17)</f>
         <v/>
       </c>
-      <c r="AM20" s="26" t="str">
+      <c r="AM20" s="44" t="str">
         <f>IF(_tag_day_all!AJ17="","",_tag_day_all!AJ17)</f>
         <v/>
       </c>
-      <c r="AN20" s="26" t="str">
+      <c r="AN20" s="44" t="str">
         <f>IF(_tag_day_all!AK17="","",_tag_day_all!AK17)</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="13.5" spans="1:40">
-      <c r="A21" s="21">
+    <row r="21">
+      <c r="A21" s="39">
         <v>17</v>
       </c>
-      <c r="B21" s="22" t="str">
+      <c r="B21" s="40" t="str">
         <f>IF(_tag_day_all!A18="","",_tag_day_all!A18)</f>
         <v/>
       </c>
-      <c r="C21" s="23" t="str">
+      <c r="C21" s="41" t="str">
         <f>IF(_tag_day_all!B18="","",_tag_day_all!B18)</f>
         <v/>
       </c>
-      <c r="D21" s="24" t="str">
+      <c r="D21" s="42" t="str">
         <f>IF(_tag_day_all!C18="","",_tag_day_all!C18)</f>
         <v/>
       </c>
-      <c r="E21" s="25" t="str">
-        <f>IF(_tag_day_all!D18="","",_tag_day_all!D18)</f>
-        <v/>
-      </c>
-      <c r="F21" s="26" t="str">
+      <c r="E21" s="43" t="str">
+        <f>IF(_tag_day_all!D18="","",_tag_day_all!D18*10000)</f>
+        <v/>
+      </c>
+      <c r="F21" s="44" t="str">
         <f>IF(_tag_day_all!E18="","",_tag_day_all!E18)</f>
         <v/>
       </c>
-      <c r="G21" s="25" t="str">
+      <c r="G21" s="43" t="str">
         <f>IF(_tag_day_all!F18="","",_tag_day_all!F18)</f>
         <v/>
       </c>
-      <c r="H21" s="26" t="str">
+      <c r="H21" s="44" t="str">
         <f>IF(_tag_day_all!G18="","",_tag_day_all!G18)</f>
         <v/>
       </c>
-      <c r="I21" s="26" t="str">
+      <c r="I21" s="44" t="str">
         <f>IF(_tag_day_all!H18="","",_tag_day_all!H18)</f>
         <v/>
       </c>
-      <c r="J21" s="46" t="str">
+      <c r="J21" s="45" t="str">
         <f>IF(_tag_day_all!I18="","",_tag_day_all!I18)</f>
         <v/>
       </c>
-      <c r="K21" s="46" t="str">
+      <c r="K21" s="45" t="str">
         <f>IF(_tag_day_all!J18="","",_tag_day_all!J18)</f>
         <v/>
       </c>
-      <c r="L21" s="26" t="str">
+      <c r="L21" s="44" t="str">
         <f>IF(_tag_day_all!K18="","",_tag_day_all!K18)</f>
         <v/>
       </c>
-      <c r="M21" s="26" t="str">
+      <c r="M21" s="44" t="str">
         <f>IF(_tag_day_all!L18="","",_tag_day_all!L18)</f>
         <v/>
       </c>
-      <c r="N21" s="46" t="str">
+      <c r="N21" s="45" t="str">
         <f>IF(_tag_day_all!M18="","",_tag_day_all!M18)</f>
         <v/>
       </c>
-      <c r="O21" s="26" t="str">
+      <c r="O21" s="44" t="str">
         <f>IF(_tag_day_all!N18="","",_tag_day_all!N18*100)</f>
         <v/>
       </c>
-      <c r="P21" s="26" t="str">
+      <c r="P21" s="44" t="str">
         <f>IF(_tag_day_all!AL18="","",_tag_day_all!AL18)</f>
         <v/>
       </c>
-      <c r="Q21" s="25" t="str">
+      <c r="Q21" s="43" t="str">
         <f>IF(_tag_day_all!AM18="","",_tag_day_all!AM18)</f>
         <v/>
       </c>
-      <c r="R21" s="25" t="str">
+      <c r="R21" s="43" t="str">
         <f>IF(_tag_day_all!O18="","",_tag_day_all!O18)</f>
         <v/>
       </c>
-      <c r="S21" s="25" t="str">
+      <c r="S21" s="43" t="str">
         <f>IF(_tag_day_all!P18="","",_tag_day_all!P18)</f>
         <v/>
       </c>
-      <c r="T21" s="25" t="str">
+      <c r="T21" s="43" t="str">
         <f>IF(_tag_day_all!Q18="","",_tag_day_all!Q18)</f>
         <v/>
       </c>
-      <c r="U21" s="25" t="str">
+      <c r="U21" s="43" t="str">
         <f>IF(_tag_day_all!R18="","",_tag_day_all!R18)</f>
         <v/>
       </c>
-      <c r="V21" s="25" t="str">
+      <c r="V21" s="43" t="str">
         <f>IF(_tag_day_all!S18="","",_tag_day_all!S18)</f>
         <v/>
       </c>
-      <c r="W21" s="25" t="str">
+      <c r="W21" s="43" t="str">
         <f>IF(_tag_day_all!T18="","",_tag_day_all!T18)</f>
         <v/>
       </c>
-      <c r="X21" s="26" t="str">
+      <c r="X21" s="44" t="str">
         <f>IF(_tag_day_all!U18="","",_tag_day_all!U18)</f>
         <v/>
       </c>
-      <c r="Y21" s="26" t="str">
+      <c r="Y21" s="44" t="str">
         <f>IF(_tag_day_all!V18="","",_tag_day_all!V18)</f>
         <v/>
       </c>
-      <c r="Z21" s="26" t="str">
+      <c r="Z21" s="44" t="str">
         <f>IF(_tag_day_all!W18="","",_tag_day_all!W18)</f>
         <v/>
       </c>
-      <c r="AA21" s="26" t="str">
+      <c r="AA21" s="44" t="str">
         <f>IF(_tag_day_all!X18="","",_tag_day_all!X18)</f>
         <v/>
       </c>
-      <c r="AB21" s="46" t="str">
+      <c r="AB21" s="45" t="str">
         <f>IF(_tag_day_all!Y18="","",_tag_day_all!Y18)</f>
         <v/>
       </c>
-      <c r="AC21" s="25" t="str">
+      <c r="AC21" s="43" t="str">
         <f>IF(_tag_day_all!Z18="","",_tag_day_all!Z18)</f>
         <v/>
       </c>
-      <c r="AD21" s="25" t="str">
+      <c r="AD21" s="43" t="str">
         <f>IF(_tag_day_all!AA18="","",_tag_day_all!AA18)</f>
         <v/>
       </c>
-      <c r="AE21" s="26" t="str">
+      <c r="AE21" s="44" t="str">
         <f>IF(_tag_day_all!AB18="","",_tag_day_all!AB18)</f>
         <v/>
       </c>
-      <c r="AF21" s="25" t="str">
+      <c r="AF21" s="43" t="str">
         <f>IF(_tag_day_all!AC18="","",_tag_day_all!AC18)</f>
         <v/>
       </c>
-      <c r="AG21" s="25" t="str">
+      <c r="AG21" s="43" t="str">
         <f>IF(_tag_day_all!AD18="","",_tag_day_all!AD18)</f>
         <v/>
       </c>
-      <c r="AH21" s="25" t="str">
+      <c r="AH21" s="43" t="str">
         <f>IF(_tag_day_all!AE18="","",_tag_day_all!AE18)</f>
         <v/>
       </c>
-      <c r="AI21" s="25" t="str">
+      <c r="AI21" s="43" t="str">
         <f>IF(_tag_day_all!AF18="","",_tag_day_all!AF18)</f>
         <v/>
       </c>
-      <c r="AJ21" s="25" t="str">
+      <c r="AJ21" s="43" t="str">
         <f>IF(_tag_day_all!AG18="","",_tag_day_all!AG18)</f>
         <v/>
       </c>
-      <c r="AK21" s="26" t="str">
+      <c r="AK21" s="44" t="str">
         <f>IF(_tag_day_all!AH18="","",_tag_day_all!AH18)</f>
         <v/>
       </c>
-      <c r="AL21" s="26" t="str">
+      <c r="AL21" s="44" t="str">
         <f>IF(_tag_day_all!AI18="","",_tag_day_all!AI18)</f>
         <v/>
       </c>
-      <c r="AM21" s="26" t="str">
+      <c r="AM21" s="44" t="str">
         <f>IF(_tag_day_all!AJ18="","",_tag_day_all!AJ18)</f>
         <v/>
       </c>
-      <c r="AN21" s="26" t="str">
+      <c r="AN21" s="44" t="str">
         <f>IF(_tag_day_all!AK18="","",_tag_day_all!AK18)</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="13.5" spans="1:40">
-      <c r="A22" s="21">
+    <row r="22">
+      <c r="A22" s="39">
         <v>18</v>
       </c>
-      <c r="B22" s="22" t="str">
+      <c r="B22" s="40" t="str">
         <f>IF(_tag_day_all!A19="","",_tag_day_all!A19)</f>
         <v/>
       </c>
-      <c r="C22" s="23" t="str">
+      <c r="C22" s="41" t="str">
         <f>IF(_tag_day_all!B19="","",_tag_day_all!B19)</f>
         <v/>
       </c>
-      <c r="D22" s="24" t="str">
+      <c r="D22" s="42" t="str">
         <f>IF(_tag_day_all!C19="","",_tag_day_all!C19)</f>
         <v/>
       </c>
-      <c r="E22" s="25" t="str">
-        <f>IF(_tag_day_all!D19="","",_tag_day_all!D19)</f>
-        <v/>
-      </c>
-      <c r="F22" s="26" t="str">
+      <c r="E22" s="43" t="str">
+        <f>IF(_tag_day_all!D19="","",_tag_day_all!D19*10000)</f>
+        <v/>
+      </c>
+      <c r="F22" s="44" t="str">
         <f>IF(_tag_day_all!E19="","",_tag_day_all!E19)</f>
         <v/>
       </c>
-      <c r="G22" s="25" t="str">
+      <c r="G22" s="43" t="str">
         <f>IF(_tag_day_all!F19="","",_tag_day_all!F19)</f>
         <v/>
       </c>
-      <c r="H22" s="26" t="str">
+      <c r="H22" s="44" t="str">
         <f>IF(_tag_day_all!G19="","",_tag_day_all!G19)</f>
         <v/>
       </c>
-      <c r="I22" s="26" t="str">
+      <c r="I22" s="44" t="str">
         <f>IF(_tag_day_all!H19="","",_tag_day_all!H19)</f>
         <v/>
       </c>
-      <c r="J22" s="46" t="str">
+      <c r="J22" s="45" t="str">
         <f>IF(_tag_day_all!I19="","",_tag_day_all!I19)</f>
         <v/>
       </c>
-      <c r="K22" s="46" t="str">
+      <c r="K22" s="45" t="str">
         <f>IF(_tag_day_all!J19="","",_tag_day_all!J19)</f>
         <v/>
       </c>
-      <c r="L22" s="26" t="str">
+      <c r="L22" s="44" t="str">
         <f>IF(_tag_day_all!K19="","",_tag_day_all!K19)</f>
         <v/>
       </c>
-      <c r="M22" s="26" t="str">
+      <c r="M22" s="44" t="str">
         <f>IF(_tag_day_all!L19="","",_tag_day_all!L19)</f>
         <v/>
       </c>
-      <c r="N22" s="46" t="str">
+      <c r="N22" s="45" t="str">
         <f>IF(_tag_day_all!M19="","",_tag_day_all!M19)</f>
         <v/>
       </c>
-      <c r="O22" s="26" t="str">
+      <c r="O22" s="44" t="str">
         <f>IF(_tag_day_all!N19="","",_tag_day_all!N19*100)</f>
         <v/>
       </c>
-      <c r="P22" s="26" t="str">
+      <c r="P22" s="44" t="str">
         <f>IF(_tag_day_all!AL19="","",_tag_day_all!AL19)</f>
         <v/>
       </c>
-      <c r="Q22" s="25" t="str">
+      <c r="Q22" s="43" t="str">
         <f>IF(_tag_day_all!AM19="","",_tag_day_all!AM19)</f>
         <v/>
       </c>
-      <c r="R22" s="25" t="str">
+      <c r="R22" s="43" t="str">
         <f>IF(_tag_day_all!O19="","",_tag_day_all!O19)</f>
         <v/>
       </c>
-      <c r="S22" s="25" t="str">
+      <c r="S22" s="43" t="str">
         <f>IF(_tag_day_all!P19="","",_tag_day_all!P19)</f>
         <v/>
       </c>
-      <c r="T22" s="25" t="str">
+      <c r="T22" s="43" t="str">
         <f>IF(_tag_day_all!Q19="","",_tag_day_all!Q19)</f>
         <v/>
       </c>
-      <c r="U22" s="25" t="str">
+      <c r="U22" s="43" t="str">
         <f>IF(_tag_day_all!R19="","",_tag_day_all!R19)</f>
         <v/>
       </c>
-      <c r="V22" s="25" t="str">
+      <c r="V22" s="43" t="str">
         <f>IF(_tag_day_all!S19="","",_tag_day_all!S19)</f>
         <v/>
       </c>
-      <c r="W22" s="25" t="str">
+      <c r="W22" s="43" t="str">
         <f>IF(_tag_day_all!T19="","",_tag_day_all!T19)</f>
         <v/>
       </c>
-      <c r="X22" s="26" t="str">
+      <c r="X22" s="44" t="str">
         <f>IF(_tag_day_all!U19="","",_tag_day_all!U19)</f>
         <v/>
       </c>
-      <c r="Y22" s="26" t="str">
+      <c r="Y22" s="44" t="str">
         <f>IF(_tag_day_all!V19="","",_tag_day_all!V19)</f>
         <v/>
       </c>
-      <c r="Z22" s="26" t="str">
+      <c r="Z22" s="44" t="str">
         <f>IF(_tag_day_all!W19="","",_tag_day_all!W19)</f>
         <v/>
       </c>
-      <c r="AA22" s="26" t="str">
+      <c r="AA22" s="44" t="str">
         <f>IF(_tag_day_all!X19="","",_tag_day_all!X19)</f>
         <v/>
       </c>
-      <c r="AB22" s="46" t="str">
+      <c r="AB22" s="45" t="str">
         <f>IF(_tag_day_all!Y19="","",_tag_day_all!Y19)</f>
         <v/>
       </c>
-      <c r="AC22" s="25" t="str">
+      <c r="AC22" s="43" t="str">
         <f>IF(_tag_day_all!Z19="","",_tag_day_all!Z19)</f>
         <v/>
       </c>
-      <c r="AD22" s="25" t="str">
+      <c r="AD22" s="43" t="str">
         <f>IF(_tag_day_all!AA19="","",_tag_day_all!AA19)</f>
         <v/>
       </c>
-      <c r="AE22" s="26" t="str">
+      <c r="AE22" s="44" t="str">
         <f>IF(_tag_day_all!AB19="","",_tag_day_all!AB19)</f>
         <v/>
       </c>
-      <c r="AF22" s="25" t="str">
+      <c r="AF22" s="43" t="str">
         <f>IF(_tag_day_all!AC19="","",_tag_day_all!AC19)</f>
         <v/>
       </c>
-      <c r="AG22" s="25" t="str">
+      <c r="AG22" s="43" t="str">
         <f>IF(_tag_day_all!AD19="","",_tag_day_all!AD19)</f>
         <v/>
       </c>
-      <c r="AH22" s="25" t="str">
+      <c r="AH22" s="43" t="str">
         <f>IF(_tag_day_all!AE19="","",_tag_day_all!AE19)</f>
         <v/>
       </c>
-      <c r="AI22" s="25" t="str">
+      <c r="AI22" s="43" t="str">
         <f>IF(_tag_day_all!AF19="","",_tag_day_all!AF19)</f>
         <v/>
       </c>
-      <c r="AJ22" s="25" t="str">
+      <c r="AJ22" s="43" t="str">
         <f>IF(_tag_day_all!AG19="","",_tag_day_all!AG19)</f>
         <v/>
       </c>
-      <c r="AK22" s="26" t="str">
+      <c r="AK22" s="44" t="str">
         <f>IF(_tag_day_all!AH19="","",_tag_day_all!AH19)</f>
         <v/>
       </c>
-      <c r="AL22" s="26" t="str">
+      <c r="AL22" s="44" t="str">
         <f>IF(_tag_day_all!AI19="","",_tag_day_all!AI19)</f>
         <v/>
       </c>
-      <c r="AM22" s="26" t="str">
+      <c r="AM22" s="44" t="str">
         <f>IF(_tag_day_all!AJ19="","",_tag_day_all!AJ19)</f>
         <v/>
       </c>
-      <c r="AN22" s="26" t="str">
+      <c r="AN22" s="44" t="str">
         <f>IF(_tag_day_all!AK19="","",_tag_day_all!AK19)</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="13.5" spans="1:40">
-      <c r="A23" s="21">
+    <row r="23">
+      <c r="A23" s="39">
         <v>19</v>
       </c>
-      <c r="B23" s="22" t="str">
+      <c r="B23" s="40" t="str">
         <f>IF(_tag_day_all!A20="","",_tag_day_all!A20)</f>
         <v/>
       </c>
-      <c r="C23" s="23" t="str">
+      <c r="C23" s="41" t="str">
         <f>IF(_tag_day_all!B20="","",_tag_day_all!B20)</f>
         <v/>
       </c>
-      <c r="D23" s="24" t="str">
+      <c r="D23" s="42" t="str">
         <f>IF(_tag_day_all!C20="","",_tag_day_all!C20)</f>
         <v/>
       </c>
-      <c r="E23" s="25" t="str">
-        <f>IF(_tag_day_all!D20="","",_tag_day_all!D20)</f>
-        <v/>
-      </c>
-      <c r="F23" s="26" t="str">
+      <c r="E23" s="43" t="str">
+        <f>IF(_tag_day_all!D20="","",_tag_day_all!D20*10000)</f>
+        <v/>
+      </c>
+      <c r="F23" s="44" t="str">
         <f>IF(_tag_day_all!E20="","",_tag_day_all!E20)</f>
         <v/>
       </c>
-      <c r="G23" s="25" t="str">
+      <c r="G23" s="43" t="str">
         <f>IF(_tag_day_all!F20="","",_tag_day_all!F20)</f>
         <v/>
       </c>
-      <c r="H23" s="26" t="str">
+      <c r="H23" s="44" t="str">
         <f>IF(_tag_day_all!G20="","",_tag_day_all!G20)</f>
         <v/>
       </c>
-      <c r="I23" s="26" t="str">
+      <c r="I23" s="44" t="str">
         <f>IF(_tag_day_all!H20="","",_tag_day_all!H20)</f>
         <v/>
       </c>
-      <c r="J23" s="46" t="str">
+      <c r="J23" s="45" t="str">
         <f>IF(_tag_day_all!I20="","",_tag_day_all!I20)</f>
         <v/>
       </c>
-      <c r="K23" s="46" t="str">
+      <c r="K23" s="45" t="str">
         <f>IF(_tag_day_all!J20="","",_tag_day_all!J20)</f>
         <v/>
       </c>
-      <c r="L23" s="26" t="str">
+      <c r="L23" s="44" t="str">
         <f>IF(_tag_day_all!K20="","",_tag_day_all!K20)</f>
         <v/>
       </c>
-      <c r="M23" s="26" t="str">
+      <c r="M23" s="44" t="str">
         <f>IF(_tag_day_all!L20="","",_tag_day_all!L20)</f>
         <v/>
       </c>
-      <c r="N23" s="46" t="str">
+      <c r="N23" s="45" t="str">
         <f>IF(_tag_day_all!M20="","",_tag_day_all!M20)</f>
         <v/>
       </c>
-      <c r="O23" s="26" t="str">
+      <c r="O23" s="44" t="str">
         <f>IF(_tag_day_all!N20="","",_tag_day_all!N20*100)</f>
         <v/>
       </c>
-      <c r="P23" s="26" t="str">
+      <c r="P23" s="44" t="str">
         <f>IF(_tag_day_all!AL20="","",_tag_day_all!AL20)</f>
         <v/>
       </c>
-      <c r="Q23" s="25" t="str">
+      <c r="Q23" s="43" t="str">
         <f>IF(_tag_day_all!AM20="","",_tag_day_all!AM20)</f>
         <v/>
       </c>
-      <c r="R23" s="25" t="str">
+      <c r="R23" s="43" t="str">
         <f>IF(_tag_day_all!O20="","",_tag_day_all!O20)</f>
         <v/>
       </c>
-      <c r="S23" s="25" t="str">
+      <c r="S23" s="43" t="str">
         <f>IF(_tag_day_all!P20="","",_tag_day_all!P20)</f>
         <v/>
       </c>
-      <c r="T23" s="25" t="str">
+      <c r="T23" s="43" t="str">
         <f>IF(_tag_day_all!Q20="","",_tag_day_all!Q20)</f>
         <v/>
       </c>
-      <c r="U23" s="25" t="str">
+      <c r="U23" s="43" t="str">
         <f>IF(_tag_day_all!R20="","",_tag_day_all!R20)</f>
         <v/>
       </c>
-      <c r="V23" s="25" t="str">
+      <c r="V23" s="43" t="str">
         <f>IF(_tag_day_all!S20="","",_tag_day_all!S20)</f>
         <v/>
       </c>
-      <c r="W23" s="25" t="str">
+      <c r="W23" s="43" t="str">
         <f>IF(_tag_day_all!T20="","",_tag_day_all!T20)</f>
         <v/>
       </c>
-      <c r="X23" s="26" t="str">
+      <c r="X23" s="44" t="str">
         <f>IF(_tag_day_all!U20="","",_tag_day_all!U20)</f>
         <v/>
       </c>
-      <c r="Y23" s="26" t="str">
+      <c r="Y23" s="44" t="str">
         <f>IF(_tag_day_all!V20="","",_tag_day_all!V20)</f>
         <v/>
       </c>
-      <c r="Z23" s="26" t="str">
+      <c r="Z23" s="44" t="str">
         <f>IF(_tag_day_all!W20="","",_tag_day_all!W20)</f>
         <v/>
       </c>
-      <c r="AA23" s="26" t="str">
+      <c r="AA23" s="44" t="str">
         <f>IF(_tag_day_all!X20="","",_tag_day_all!X20)</f>
         <v/>
       </c>
-      <c r="AB23" s="46" t="str">
+      <c r="AB23" s="45" t="str">
         <f>IF(_tag_day_all!Y20="","",_tag_day_all!Y20)</f>
         <v/>
       </c>
-      <c r="AC23" s="25" t="str">
+      <c r="AC23" s="43" t="str">
         <f>IF(_tag_day_all!Z20="","",_tag_day_all!Z20)</f>
         <v/>
       </c>
-      <c r="AD23" s="25" t="str">
+      <c r="AD23" s="43" t="str">
         <f>IF(_tag_day_all!AA20="","",_tag_day_all!AA20)</f>
         <v/>
       </c>
-      <c r="AE23" s="26" t="str">
+      <c r="AE23" s="44" t="str">
         <f>IF(_tag_day_all!AB20="","",_tag_day_all!AB20)</f>
         <v/>
       </c>
-      <c r="AF23" s="25" t="str">
+      <c r="AF23" s="43" t="str">
         <f>IF(_tag_day_all!AC20="","",_tag_day_all!AC20)</f>
         <v/>
       </c>
-      <c r="AG23" s="25" t="str">
+      <c r="AG23" s="43" t="str">
         <f>IF(_tag_day_all!AD20="","",_tag_day_all!AD20)</f>
         <v/>
       </c>
-      <c r="AH23" s="25" t="str">
+      <c r="AH23" s="43" t="str">
         <f>IF(_tag_day_all!AE20="","",_tag_day_all!AE20)</f>
         <v/>
       </c>
-      <c r="AI23" s="25" t="str">
+      <c r="AI23" s="43" t="str">
         <f>IF(_tag_day_all!AF20="","",_tag_day_all!AF20)</f>
         <v/>
       </c>
-      <c r="AJ23" s="25" t="str">
+      <c r="AJ23" s="43" t="str">
         <f>IF(_tag_day_all!AG20="","",_tag_day_all!AG20)</f>
         <v/>
       </c>
-      <c r="AK23" s="26" t="str">
+      <c r="AK23" s="44" t="str">
         <f>IF(_tag_day_all!AH20="","",_tag_day_all!AH20)</f>
         <v/>
       </c>
-      <c r="AL23" s="26" t="str">
+      <c r="AL23" s="44" t="str">
         <f>IF(_tag_day_all!AI20="","",_tag_day_all!AI20)</f>
         <v/>
       </c>
-      <c r="AM23" s="26" t="str">
+      <c r="AM23" s="44" t="str">
         <f>IF(_tag_day_all!AJ20="","",_tag_day_all!AJ20)</f>
         <v/>
       </c>
-      <c r="AN23" s="26" t="str">
+      <c r="AN23" s="44" t="str">
         <f>IF(_tag_day_all!AK20="","",_tag_day_all!AK20)</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="13.5" spans="1:40">
-      <c r="A24" s="21">
+    <row r="24">
+      <c r="A24" s="39">
         <v>20</v>
       </c>
-      <c r="B24" s="22" t="str">
+      <c r="B24" s="40" t="str">
         <f>IF(_tag_day_all!A21="","",_tag_day_all!A21)</f>
         <v/>
       </c>
-      <c r="C24" s="23" t="str">
+      <c r="C24" s="41" t="str">
         <f>IF(_tag_day_all!B21="","",_tag_day_all!B21)</f>
         <v/>
       </c>
-      <c r="D24" s="24" t="str">
+      <c r="D24" s="42" t="str">
         <f>IF(_tag_day_all!C21="","",_tag_day_all!C21)</f>
         <v/>
       </c>
-      <c r="E24" s="25" t="str">
-        <f>IF(_tag_day_all!D21="","",_tag_day_all!D21)</f>
-        <v/>
-      </c>
-      <c r="F24" s="26" t="str">
+      <c r="E24" s="43" t="str">
+        <f>IF(_tag_day_all!D21="","",_tag_day_all!D21*10000)</f>
+        <v/>
+      </c>
+      <c r="F24" s="44" t="str">
         <f>IF(_tag_day_all!E21="","",_tag_day_all!E21)</f>
         <v/>
       </c>
-      <c r="G24" s="25" t="str">
+      <c r="G24" s="43" t="str">
         <f>IF(_tag_day_all!F21="","",_tag_day_all!F21)</f>
         <v/>
       </c>
-      <c r="H24" s="26" t="str">
+      <c r="H24" s="44" t="str">
         <f>IF(_tag_day_all!G21="","",_tag_day_all!G21)</f>
         <v/>
       </c>
-      <c r="I24" s="26" t="str">
+      <c r="I24" s="44" t="str">
         <f>IF(_tag_day_all!H21="","",_tag_day_all!H21)</f>
         <v/>
       </c>
-      <c r="J24" s="46" t="str">
+      <c r="J24" s="45" t="str">
         <f>IF(_tag_day_all!I21="","",_tag_day_all!I21)</f>
         <v/>
       </c>
-      <c r="K24" s="46" t="str">
+      <c r="K24" s="45" t="str">
         <f>IF(_tag_day_all!J21="","",_tag_day_all!J21)</f>
         <v/>
       </c>
-      <c r="L24" s="26" t="str">
+      <c r="L24" s="44" t="str">
         <f>IF(_tag_day_all!K21="","",_tag_day_all!K21)</f>
         <v/>
       </c>
-      <c r="M24" s="26" t="str">
+      <c r="M24" s="44" t="str">
         <f>IF(_tag_day_all!L21="","",_tag_day_all!L21)</f>
         <v/>
       </c>
-      <c r="N24" s="46" t="str">
+      <c r="N24" s="45" t="str">
         <f>IF(_tag_day_all!M21="","",_tag_day_all!M21)</f>
         <v/>
       </c>
-      <c r="O24" s="26" t="str">
+      <c r="O24" s="44" t="str">
         <f>IF(_tag_day_all!N21="","",_tag_day_all!N21*100)</f>
         <v/>
       </c>
-      <c r="P24" s="26" t="str">
+      <c r="P24" s="44" t="str">
         <f>IF(_tag_day_all!AL21="","",_tag_day_all!AL21)</f>
         <v/>
       </c>
-      <c r="Q24" s="25" t="str">
+      <c r="Q24" s="43" t="str">
         <f>IF(_tag_day_all!AM21="","",_tag_day_all!AM21)</f>
         <v/>
       </c>
-      <c r="R24" s="25" t="str">
+      <c r="R24" s="43" t="str">
         <f>IF(_tag_day_all!O21="","",_tag_day_all!O21)</f>
         <v/>
       </c>
-      <c r="S24" s="25" t="str">
+      <c r="S24" s="43" t="str">
         <f>IF(_tag_day_all!P21="","",_tag_day_all!P21)</f>
         <v/>
       </c>
-      <c r="T24" s="25" t="str">
+      <c r="T24" s="43" t="str">
         <f>IF(_tag_day_all!Q21="","",_tag_day_all!Q21)</f>
         <v/>
       </c>
-      <c r="U24" s="25" t="str">
+      <c r="U24" s="43" t="str">
         <f>IF(_tag_day_all!R21="","",_tag_day_all!R21)</f>
         <v/>
       </c>
-      <c r="V24" s="25" t="str">
+      <c r="V24" s="43" t="str">
         <f>IF(_tag_day_all!S21="","",_tag_day_all!S21)</f>
         <v/>
       </c>
-      <c r="W24" s="25" t="str">
+      <c r="W24" s="43" t="str">
         <f>IF(_tag_day_all!T21="","",_tag_day_all!T21)</f>
         <v/>
       </c>
-      <c r="X24" s="26" t="str">
+      <c r="X24" s="44" t="str">
         <f>IF(_tag_day_all!U21="","",_tag_day_all!U21)</f>
         <v/>
       </c>
-      <c r="Y24" s="26" t="str">
+      <c r="Y24" s="44" t="str">
         <f>IF(_tag_day_all!V21="","",_tag_day_all!V21)</f>
         <v/>
       </c>
-      <c r="Z24" s="26" t="str">
+      <c r="Z24" s="44" t="str">
         <f>IF(_tag_day_all!W21="","",_tag_day_all!W21)</f>
         <v/>
       </c>
-      <c r="AA24" s="26" t="str">
+      <c r="AA24" s="44" t="str">
         <f>IF(_tag_day_all!X21="","",_tag_day_all!X21)</f>
         <v/>
       </c>
-      <c r="AB24" s="46" t="str">
+      <c r="AB24" s="45" t="str">
         <f>IF(_tag_day_all!Y21="","",_tag_day_all!Y21)</f>
         <v/>
       </c>
-      <c r="AC24" s="25" t="str">
+      <c r="AC24" s="43" t="str">
         <f>IF(_tag_day_all!Z21="","",_tag_day_all!Z21)</f>
         <v/>
       </c>
-      <c r="AD24" s="25" t="str">
+      <c r="AD24" s="43" t="str">
         <f>IF(_tag_day_all!AA21="","",_tag_day_all!AA21)</f>
         <v/>
       </c>
-      <c r="AE24" s="26" t="str">
+      <c r="AE24" s="44" t="str">
         <f>IF(_tag_day_all!AB21="","",_tag_day_all!AB21)</f>
         <v/>
       </c>
-      <c r="AF24" s="25" t="str">
+      <c r="AF24" s="43" t="str">
         <f>IF(_tag_day_all!AC21="","",_tag_day_all!AC21)</f>
         <v/>
       </c>
-      <c r="AG24" s="25" t="str">
+      <c r="AG24" s="43" t="str">
         <f>IF(_tag_day_all!AD21="","",_tag_day_all!AD21)</f>
         <v/>
       </c>
-      <c r="AH24" s="25" t="str">
+      <c r="AH24" s="43" t="str">
         <f>IF(_tag_day_all!AE21="","",_tag_day_all!AE21)</f>
         <v/>
       </c>
-      <c r="AI24" s="25" t="str">
+      <c r="AI24" s="43" t="str">
         <f>IF(_tag_day_all!AF21="","",_tag_day_all!AF21)</f>
         <v/>
       </c>
-      <c r="AJ24" s="25" t="str">
+      <c r="AJ24" s="43" t="str">
         <f>IF(_tag_day_all!AG21="","",_tag_day_all!AG21)</f>
         <v/>
       </c>
-      <c r="AK24" s="26" t="str">
+      <c r="AK24" s="44" t="str">
         <f>IF(_tag_day_all!AH21="","",_tag_day_all!AH21)</f>
         <v/>
       </c>
-      <c r="AL24" s="26" t="str">
+      <c r="AL24" s="44" t="str">
         <f>IF(_tag_day_all!AI21="","",_tag_day_all!AI21)</f>
         <v/>
       </c>
-      <c r="AM24" s="26" t="str">
+      <c r="AM24" s="44" t="str">
         <f>IF(_tag_day_all!AJ21="","",_tag_day_all!AJ21)</f>
         <v/>
       </c>
-      <c r="AN24" s="26" t="str">
+      <c r="AN24" s="44" t="str">
         <f>IF(_tag_day_all!AK21="","",_tag_day_all!AK21)</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="13.5" spans="1:40">
-      <c r="A25" s="21">
+    <row r="25">
+      <c r="A25" s="39">
         <v>21</v>
       </c>
-      <c r="B25" s="22" t="str">
+      <c r="B25" s="40" t="str">
         <f>IF(_tag_day_all!A22="","",_tag_day_all!A22)</f>
         <v/>
       </c>
-      <c r="C25" s="23" t="str">
+      <c r="C25" s="41" t="str">
         <f>IF(_tag_day_all!B22="","",_tag_day_all!B22)</f>
         <v/>
       </c>
-      <c r="D25" s="24" t="str">
+      <c r="D25" s="42" t="str">
         <f>IF(_tag_day_all!C22="","",_tag_day_all!C22)</f>
         <v/>
       </c>
-      <c r="E25" s="25" t="str">
-        <f>IF(_tag_day_all!D22="","",_tag_day_all!D22)</f>
-        <v/>
-      </c>
-      <c r="F25" s="26" t="str">
+      <c r="E25" s="43" t="str">
+        <f>IF(_tag_day_all!D22="","",_tag_day_all!D22*10000)</f>
+        <v/>
+      </c>
+      <c r="F25" s="44" t="str">
         <f>IF(_tag_day_all!E22="","",_tag_day_all!E22)</f>
         <v/>
       </c>
-      <c r="G25" s="25" t="str">
+      <c r="G25" s="43" t="str">
         <f>IF(_tag_day_all!F22="","",_tag_day_all!F22)</f>
         <v/>
       </c>
-      <c r="H25" s="26" t="str">
+      <c r="H25" s="44" t="str">
         <f>IF(_tag_day_all!G22="","",_tag_day_all!G22)</f>
         <v/>
       </c>
-      <c r="I25" s="26" t="str">
+      <c r="I25" s="44" t="str">
         <f>IF(_tag_day_all!H22="","",_tag_day_all!H22)</f>
         <v/>
       </c>
-      <c r="J25" s="46" t="str">
+      <c r="J25" s="45" t="str">
         <f>IF(_tag_day_all!I22="","",_tag_day_all!I22)</f>
         <v/>
       </c>
-      <c r="K25" s="46" t="str">
+      <c r="K25" s="45" t="str">
         <f>IF(_tag_day_all!J22="","",_tag_day_all!J22)</f>
         <v/>
       </c>
-      <c r="L25" s="26" t="str">
+      <c r="L25" s="44" t="str">
         <f>IF(_tag_day_all!K22="","",_tag_day_all!K22)</f>
         <v/>
       </c>
-      <c r="M25" s="26" t="str">
+      <c r="M25" s="44" t="str">
         <f>IF(_tag_day_all!L22="","",_tag_day_all!L22)</f>
         <v/>
       </c>
-      <c r="N25" s="46" t="str">
+      <c r="N25" s="45" t="str">
         <f>IF(_tag_day_all!M22="","",_tag_day_all!M22)</f>
         <v/>
       </c>
-      <c r="O25" s="26" t="str">
+      <c r="O25" s="44" t="str">
         <f>IF(_tag_day_all!N22="","",_tag_day_all!N22*100)</f>
         <v/>
       </c>
-      <c r="P25" s="26" t="str">
+      <c r="P25" s="44" t="str">
         <f>IF(_tag_day_all!AL22="","",_tag_day_all!AL22)</f>
         <v/>
       </c>
-      <c r="Q25" s="25" t="str">
+      <c r="Q25" s="43" t="str">
         <f>IF(_tag_day_all!AM22="","",_tag_day_all!AM22)</f>
         <v/>
       </c>
-      <c r="R25" s="25" t="str">
+      <c r="R25" s="43" t="str">
         <f>IF(_tag_day_all!O22="","",_tag_day_all!O22)</f>
         <v/>
       </c>
-      <c r="S25" s="25" t="str">
+      <c r="S25" s="43" t="str">
         <f>IF(_tag_day_all!P22="","",_tag_day_all!P22)</f>
         <v/>
       </c>
-      <c r="T25" s="25" t="str">
+      <c r="T25" s="43" t="str">
         <f>IF(_tag_day_all!Q22="","",_tag_day_all!Q22)</f>
         <v/>
       </c>
-      <c r="U25" s="25" t="str">
+      <c r="U25" s="43" t="str">
         <f>IF(_tag_day_all!R22="","",_tag_day_all!R22)</f>
         <v/>
       </c>
-      <c r="V25" s="25" t="str">
+      <c r="V25" s="43" t="str">
         <f>IF(_tag_day_all!S22="","",_tag_day_all!S22)</f>
         <v/>
       </c>
-      <c r="W25" s="25" t="str">
+      <c r="W25" s="43" t="str">
         <f>IF(_tag_day_all!T22="","",_tag_day_all!T22)</f>
         <v/>
       </c>
-      <c r="X25" s="26" t="str">
+      <c r="X25" s="44" t="str">
         <f>IF(_tag_day_all!U22="","",_tag_day_all!U22)</f>
         <v/>
       </c>
-      <c r="Y25" s="26" t="str">
+      <c r="Y25" s="44" t="str">
         <f>IF(_tag_day_all!V22="","",_tag_day_all!V22)</f>
         <v/>
       </c>
-      <c r="Z25" s="26" t="str">
+      <c r="Z25" s="44" t="str">
         <f>IF(_tag_day_all!W22="","",_tag_day_all!W22)</f>
         <v/>
       </c>
-      <c r="AA25" s="26" t="str">
+      <c r="AA25" s="44" t="str">
         <f>IF(_tag_day_all!X22="","",_tag_day_all!X22)</f>
         <v/>
       </c>
-      <c r="AB25" s="46" t="str">
+      <c r="AB25" s="45" t="str">
         <f>IF(_tag_day_all!Y22="","",_tag_day_all!Y22)</f>
         <v/>
       </c>
-      <c r="AC25" s="25" t="str">
+      <c r="AC25" s="43" t="str">
         <f>IF(_tag_day_all!Z22="","",_tag_day_all!Z22)</f>
         <v/>
       </c>
-      <c r="AD25" s="25" t="str">
+      <c r="AD25" s="43" t="str">
         <f>IF(_tag_day_all!AA22="","",_tag_day_all!AA22)</f>
         <v/>
       </c>
-      <c r="AE25" s="26" t="str">
+      <c r="AE25" s="44" t="str">
         <f>IF(_tag_day_all!AB22="","",_tag_day_all!AB22)</f>
         <v/>
       </c>
-      <c r="AF25" s="25" t="str">
+      <c r="AF25" s="43" t="str">
         <f>IF(_tag_day_all!AC22="","",_tag_day_all!AC22)</f>
         <v/>
       </c>
-      <c r="AG25" s="25" t="str">
+      <c r="AG25" s="43" t="str">
         <f>IF(_tag_day_all!AD22="","",_tag_day_all!AD22)</f>
         <v/>
       </c>
-      <c r="AH25" s="25" t="str">
+      <c r="AH25" s="43" t="str">
         <f>IF(_tag_day_all!AE22="","",_tag_day_all!AE22)</f>
         <v/>
       </c>
-      <c r="AI25" s="25" t="str">
+      <c r="AI25" s="43" t="str">
         <f>IF(_tag_day_all!AF22="","",_tag_day_all!AF22)</f>
         <v/>
       </c>
-      <c r="AJ25" s="25" t="str">
+      <c r="AJ25" s="43" t="str">
         <f>IF(_tag_day_all!AG22="","",_tag_day_all!AG22)</f>
         <v/>
       </c>
-      <c r="AK25" s="26" t="str">
+      <c r="AK25" s="44" t="str">
         <f>IF(_tag_day_all!AH22="","",_tag_day_all!AH22)</f>
         <v/>
       </c>
-      <c r="AL25" s="26" t="str">
+      <c r="AL25" s="44" t="str">
         <f>IF(_tag_day_all!AI22="","",_tag_day_all!AI22)</f>
         <v/>
       </c>
-      <c r="AM25" s="26" t="str">
+      <c r="AM25" s="44" t="str">
         <f>IF(_tag_day_all!AJ22="","",_tag_day_all!AJ22)</f>
         <v/>
       </c>
-      <c r="AN25" s="26" t="str">
+      <c r="AN25" s="44" t="str">
         <f>IF(_tag_day_all!AK22="","",_tag_day_all!AK22)</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="13.5" spans="1:40">
-      <c r="A26" s="21">
+    <row r="26">
+      <c r="A26" s="39">
         <v>22</v>
       </c>
-      <c r="B26" s="22" t="str">
+      <c r="B26" s="40" t="str">
         <f>IF(_tag_day_all!A23="","",_tag_day_all!A23)</f>
         <v/>
       </c>
-      <c r="C26" s="23" t="str">
+      <c r="C26" s="41" t="str">
         <f>IF(_tag_day_all!B23="","",_tag_day_all!B23)</f>
         <v/>
       </c>
-      <c r="D26" s="24" t="str">
+      <c r="D26" s="42" t="str">
         <f>IF(_tag_day_all!C23="","",_tag_day_all!C23)</f>
         <v/>
       </c>
-      <c r="E26" s="25" t="str">
-        <f>IF(_tag_day_all!D23="","",_tag_day_all!D23)</f>
-        <v/>
-      </c>
-      <c r="F26" s="26" t="str">
+      <c r="E26" s="43" t="str">
+        <f>IF(_tag_day_all!D23="","",_tag_day_all!D23*10000)</f>
+        <v/>
+      </c>
+      <c r="F26" s="44" t="str">
         <f>IF(_tag_day_all!E23="","",_tag_day_all!E23)</f>
         <v/>
       </c>
-      <c r="G26" s="25" t="str">
+      <c r="G26" s="43" t="str">
         <f>IF(_tag_day_all!F23="","",_tag_day_all!F23)</f>
         <v/>
       </c>
-      <c r="H26" s="26" t="str">
+      <c r="H26" s="44" t="str">
         <f>IF(_tag_day_all!G23="","",_tag_day_all!G23)</f>
         <v/>
       </c>
-      <c r="I26" s="26" t="str">
+      <c r="I26" s="44" t="str">
         <f>IF(_tag_day_all!H23="","",_tag_day_all!H23)</f>
         <v/>
       </c>
-      <c r="J26" s="46" t="str">
+      <c r="J26" s="45" t="str">
         <f>IF(_tag_day_all!I23="","",_tag_day_all!I23)</f>
         <v/>
       </c>
-      <c r="K26" s="46" t="str">
+      <c r="K26" s="45" t="str">
         <f>IF(_tag_day_all!J23="","",_tag_day_all!J23)</f>
         <v/>
       </c>
-      <c r="L26" s="26" t="str">
+      <c r="L26" s="44" t="str">
         <f>IF(_tag_day_all!K23="","",_tag_day_all!K23)</f>
         <v/>
       </c>
-      <c r="M26" s="26" t="str">
+      <c r="M26" s="44" t="str">
         <f>IF(_tag_day_all!L23="","",_tag_day_all!L23)</f>
         <v/>
       </c>
-      <c r="N26" s="46" t="str">
+      <c r="N26" s="45" t="str">
         <f>IF(_tag_day_all!M23="","",_tag_day_all!M23)</f>
         <v/>
       </c>
-      <c r="O26" s="26" t="str">
+      <c r="O26" s="44" t="str">
         <f>IF(_tag_day_all!N23="","",_tag_day_all!N23*100)</f>
         <v/>
       </c>
-      <c r="P26" s="26" t="str">
+      <c r="P26" s="44" t="str">
         <f>IF(_tag_day_all!AL23="","",_tag_day_all!AL23)</f>
         <v/>
       </c>
-      <c r="Q26" s="25" t="str">
+      <c r="Q26" s="43" t="str">
         <f>IF(_tag_day_all!AM23="","",_tag_day_all!AM23)</f>
         <v/>
       </c>
-      <c r="R26" s="25" t="str">
+      <c r="R26" s="43" t="str">
         <f>IF(_tag_day_all!O23="","",_tag_day_all!O23)</f>
         <v/>
       </c>
-      <c r="S26" s="25" t="str">
+      <c r="S26" s="43" t="str">
         <f>IF(_tag_day_all!P23="","",_tag_day_all!P23)</f>
         <v/>
       </c>
-      <c r="T26" s="25" t="str">
+      <c r="T26" s="43" t="str">
         <f>IF(_tag_day_all!Q23="","",_tag_day_all!Q23)</f>
         <v/>
       </c>
-      <c r="U26" s="25" t="str">
+      <c r="U26" s="43" t="str">
         <f>IF(_tag_day_all!R23="","",_tag_day_all!R23)</f>
         <v/>
       </c>
-      <c r="V26" s="25" t="str">
+      <c r="V26" s="43" t="str">
         <f>IF(_tag_day_all!S23="","",_tag_day_all!S23)</f>
         <v/>
       </c>
-      <c r="W26" s="25" t="str">
+      <c r="W26" s="43" t="str">
         <f>IF(_tag_day_all!T23="","",_tag_day_all!T23)</f>
         <v/>
       </c>
-      <c r="X26" s="26" t="str">
+      <c r="X26" s="44" t="str">
         <f>IF(_tag_day_all!U23="","",_tag_day_all!U23)</f>
         <v/>
       </c>
-      <c r="Y26" s="26" t="str">
+      <c r="Y26" s="44" t="str">
         <f>IF(_tag_day_all!V23="","",_tag_day_all!V23)</f>
         <v/>
       </c>
-      <c r="Z26" s="26" t="str">
+      <c r="Z26" s="44" t="str">
         <f>IF(_tag_day_all!W23="","",_tag_day_all!W23)</f>
         <v/>
       </c>
-      <c r="AA26" s="26" t="str">
+      <c r="AA26" s="44" t="str">
         <f>IF(_tag_day_all!X23="","",_tag_day_all!X23)</f>
         <v/>
       </c>
-      <c r="AB26" s="46" t="str">
+      <c r="AB26" s="45" t="str">
         <f>IF(_tag_day_all!Y23="","",_tag_day_all!Y23)</f>
         <v/>
       </c>
-      <c r="AC26" s="25" t="str">
+      <c r="AC26" s="43" t="str">
         <f>IF(_tag_day_all!Z23="","",_tag_day_all!Z23)</f>
         <v/>
       </c>
-      <c r="AD26" s="25" t="str">
+      <c r="AD26" s="43" t="str">
         <f>IF(_tag_day_all!AA23="","",_tag_day_all!AA23)</f>
         <v/>
       </c>
-      <c r="AE26" s="26" t="str">
+      <c r="AE26" s="44" t="str">
         <f>IF(_tag_day_all!AB23="","",_tag_day_all!AB23)</f>
         <v/>
       </c>
-      <c r="AF26" s="25" t="str">
+      <c r="AF26" s="43" t="str">
         <f>IF(_tag_day_all!AC23="","",_tag_day_all!AC23)</f>
         <v/>
       </c>
-      <c r="AG26" s="25" t="str">
+      <c r="AG26" s="43" t="str">
         <f>IF(_tag_day_all!AD23="","",_tag_day_all!AD23)</f>
         <v/>
       </c>
-      <c r="AH26" s="25" t="str">
+      <c r="AH26" s="43" t="str">
         <f>IF(_tag_day_all!AE23="","",_tag_day_all!AE23)</f>
         <v/>
       </c>
-      <c r="AI26" s="25" t="str">
+      <c r="AI26" s="43" t="str">
         <f>IF(_tag_day_all!AF23="","",_tag_day_all!AF23)</f>
         <v/>
       </c>
-      <c r="AJ26" s="25" t="str">
+      <c r="AJ26" s="43" t="str">
         <f>IF(_tag_day_all!AG23="","",_tag_day_all!AG23)</f>
         <v/>
       </c>
-      <c r="AK26" s="26" t="str">
+      <c r="AK26" s="44" t="str">
         <f>IF(_tag_day_all!AH23="","",_tag_day_all!AH23)</f>
         <v/>
       </c>
-      <c r="AL26" s="26" t="str">
+      <c r="AL26" s="44" t="str">
         <f>IF(_tag_day_all!AI23="","",_tag_day_all!AI23)</f>
         <v/>
       </c>
-      <c r="AM26" s="26" t="str">
+      <c r="AM26" s="44" t="str">
         <f>IF(_tag_day_all!AJ23="","",_tag_day_all!AJ23)</f>
         <v/>
       </c>
-      <c r="AN26" s="26" t="str">
+      <c r="AN26" s="44" t="str">
         <f>IF(_tag_day_all!AK23="","",_tag_day_all!AK23)</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="13.5" spans="1:40">
-      <c r="A27" s="21">
+    <row r="27">
+      <c r="A27" s="39">
         <v>23</v>
       </c>
-      <c r="B27" s="22" t="str">
+      <c r="B27" s="40" t="str">
         <f>IF(_tag_day_all!A24="","",_tag_day_all!A24)</f>
         <v/>
       </c>
-      <c r="C27" s="23" t="str">
+      <c r="C27" s="41" t="str">
         <f>IF(_tag_day_all!B24="","",_tag_day_all!B24)</f>
         <v/>
       </c>
-      <c r="D27" s="24" t="str">
+      <c r="D27" s="42" t="str">
         <f>IF(_tag_day_all!C24="","",_tag_day_all!C24)</f>
         <v/>
       </c>
-      <c r="E27" s="25" t="str">
-        <f>IF(_tag_day_all!D24="","",_tag_day_all!D24)</f>
-        <v/>
-      </c>
-      <c r="F27" s="26" t="str">
+      <c r="E27" s="43" t="str">
+        <f>IF(_tag_day_all!D24="","",_tag_day_all!D24*10000)</f>
+        <v/>
+      </c>
+      <c r="F27" s="44" t="str">
         <f>IF(_tag_day_all!E24="","",_tag_day_all!E24)</f>
         <v/>
       </c>
-      <c r="G27" s="25" t="str">
+      <c r="G27" s="43" t="str">
         <f>IF(_tag_day_all!F24="","",_tag_day_all!F24)</f>
         <v/>
       </c>
-      <c r="H27" s="26" t="str">
+      <c r="H27" s="44" t="str">
         <f>IF(_tag_day_all!G24="","",_tag_day_all!G24)</f>
         <v/>
       </c>
-      <c r="I27" s="26" t="str">
+      <c r="I27" s="44" t="str">
         <f>IF(_tag_day_all!H24="","",_tag_day_all!H24)</f>
         <v/>
       </c>
-      <c r="J27" s="46" t="str">
+      <c r="J27" s="45" t="str">
         <f>IF(_tag_day_all!I24="","",_tag_day_all!I24)</f>
         <v/>
       </c>
-      <c r="K27" s="46" t="str">
+      <c r="K27" s="45" t="str">
         <f>IF(_tag_day_all!J24="","",_tag_day_all!J24)</f>
         <v/>
       </c>
-      <c r="L27" s="26" t="str">
+      <c r="L27" s="44" t="str">
         <f>IF(_tag_day_all!K24="","",_tag_day_all!K24)</f>
         <v/>
       </c>
-      <c r="M27" s="26" t="str">
+      <c r="M27" s="44" t="str">
         <f>IF(_tag_day_all!L24="","",_tag_day_all!L24)</f>
         <v/>
       </c>
-      <c r="N27" s="46" t="str">
+      <c r="N27" s="45" t="str">
         <f>IF(_tag_day_all!M24="","",_tag_day_all!M24)</f>
         <v/>
       </c>
-      <c r="O27" s="26" t="str">
+      <c r="O27" s="44" t="str">
         <f>IF(_tag_day_all!N24="","",_tag_day_all!N24*100)</f>
         <v/>
       </c>
-      <c r="P27" s="26" t="str">
+      <c r="P27" s="44" t="str">
         <f>IF(_tag_day_all!AL24="","",_tag_day_all!AL24)</f>
         <v/>
       </c>
-      <c r="Q27" s="25" t="str">
+      <c r="Q27" s="43" t="str">
         <f>IF(_tag_day_all!AM24="","",_tag_day_all!AM24)</f>
         <v/>
       </c>
-      <c r="R27" s="25" t="str">
+      <c r="R27" s="43" t="str">
         <f>IF(_tag_day_all!O24="","",_tag_day_all!O24)</f>
         <v/>
       </c>
-      <c r="S27" s="25" t="str">
+      <c r="S27" s="43" t="str">
         <f>IF(_tag_day_all!P24="","",_tag_day_all!P24)</f>
         <v/>
       </c>
-      <c r="T27" s="25" t="str">
+      <c r="T27" s="43" t="str">
         <f>IF(_tag_day_all!Q24="","",_tag_day_all!Q24)</f>
         <v/>
       </c>
-      <c r="U27" s="25" t="str">
+      <c r="U27" s="43" t="str">
         <f>IF(_tag_day_all!R24="","",_tag_day_all!R24)</f>
         <v/>
       </c>
-      <c r="V27" s="25" t="str">
+      <c r="V27" s="43" t="str">
         <f>IF(_tag_day_all!S24="","",_tag_day_all!S24)</f>
         <v/>
       </c>
-      <c r="W27" s="25" t="str">
+      <c r="W27" s="43" t="str">
         <f>IF(_tag_day_all!T24="","",_tag_day_all!T24)</f>
         <v/>
       </c>
-      <c r="X27" s="26" t="str">
+      <c r="X27" s="44" t="str">
         <f>IF(_tag_day_all!U24="","",_tag_day_all!U24)</f>
         <v/>
       </c>
-      <c r="Y27" s="26" t="str">
+      <c r="Y27" s="44" t="str">
         <f>IF(_tag_day_all!V24="","",_tag_day_all!V24)</f>
         <v/>
       </c>
-      <c r="Z27" s="26" t="str">
+      <c r="Z27" s="44" t="str">
         <f>IF(_tag_day_all!W24="","",_tag_day_all!W24)</f>
         <v/>
       </c>
-      <c r="AA27" s="26" t="str">
+      <c r="AA27" s="44" t="str">
         <f>IF(_tag_day_all!X24="","",_tag_day_all!X24)</f>
         <v/>
       </c>
-      <c r="AB27" s="46" t="str">
+      <c r="AB27" s="45" t="str">
         <f>IF(_tag_day_all!Y24="","",_tag_day_all!Y24)</f>
         <v/>
       </c>
-      <c r="AC27" s="25" t="str">
+      <c r="AC27" s="43" t="str">
         <f>IF(_tag_day_all!Z24="","",_tag_day_all!Z24)</f>
         <v/>
       </c>
-      <c r="AD27" s="25" t="str">
+      <c r="AD27" s="43" t="str">
         <f>IF(_tag_day_all!AA24="","",_tag_day_all!AA24)</f>
         <v/>
       </c>
-      <c r="AE27" s="26" t="str">
+      <c r="AE27" s="44" t="str">
         <f>IF(_tag_day_all!AB24="","",_tag_day_all!AB24)</f>
         <v/>
       </c>
-      <c r="AF27" s="25" t="str">
+      <c r="AF27" s="43" t="str">
         <f>IF(_tag_day_all!AC24="","",_tag_day_all!AC24)</f>
         <v/>
       </c>
-      <c r="AG27" s="25" t="str">
+      <c r="AG27" s="43" t="str">
         <f>IF(_tag_day_all!AD24="","",_tag_day_all!AD24)</f>
         <v/>
       </c>
-      <c r="AH27" s="25" t="str">
+      <c r="AH27" s="43" t="str">
         <f>IF(_tag_day_all!AE24="","",_tag_day_all!AE24)</f>
         <v/>
       </c>
-      <c r="AI27" s="25" t="str">
+      <c r="AI27" s="43" t="str">
         <f>IF(_tag_day_all!AF24="","",_tag_day_all!AF24)</f>
         <v/>
       </c>
-      <c r="AJ27" s="25" t="str">
+      <c r="AJ27" s="43" t="str">
         <f>IF(_tag_day_all!AG24="","",_tag_day_all!AG24)</f>
         <v/>
       </c>
-      <c r="AK27" s="26" t="str">
+      <c r="AK27" s="44" t="str">
         <f>IF(_tag_day_all!AH24="","",_tag_day_all!AH24)</f>
         <v/>
       </c>
-      <c r="AL27" s="26" t="str">
+      <c r="AL27" s="44" t="str">
         <f>IF(_tag_day_all!AI24="","",_tag_day_all!AI24)</f>
         <v/>
       </c>
-      <c r="AM27" s="26" t="str">
+      <c r="AM27" s="44" t="str">
         <f>IF(_tag_day_all!AJ24="","",_tag_day_all!AJ24)</f>
         <v/>
       </c>
-      <c r="AN27" s="26" t="str">
+      <c r="AN27" s="44" t="str">
         <f>IF(_tag_day_all!AK24="","",_tag_day_all!AK24)</f>
         <v/>
       </c>
     </row>
-    <row r="28" ht="13.5" spans="1:40">
-      <c r="A28" s="21">
+    <row r="28">
+      <c r="A28" s="39">
         <v>24</v>
       </c>
-      <c r="B28" s="22" t="str">
+      <c r="B28" s="40" t="str">
         <f>IF(_tag_day_all!A25="","",_tag_day_all!A25)</f>
         <v/>
       </c>
-      <c r="C28" s="23" t="str">
+      <c r="C28" s="41" t="str">
         <f>IF(_tag_day_all!B25="","",_tag_day_all!B25)</f>
         <v/>
       </c>
-      <c r="D28" s="24" t="str">
+      <c r="D28" s="42" t="str">
         <f>IF(_tag_day_all!C25="","",_tag_day_all!C25)</f>
         <v/>
       </c>
-      <c r="E28" s="25" t="str">
-        <f>IF(_tag_day_all!D25="","",_tag_day_all!D25)</f>
-        <v/>
-      </c>
-      <c r="F28" s="26" t="str">
+      <c r="E28" s="43" t="str">
+        <f>IF(_tag_day_all!D25="","",_tag_day_all!D25*10000)</f>
+        <v/>
+      </c>
+      <c r="F28" s="44" t="str">
         <f>IF(_tag_day_all!E25="","",_tag_day_all!E25)</f>
         <v/>
       </c>
-      <c r="G28" s="25" t="str">
+      <c r="G28" s="43" t="str">
         <f>IF(_tag_day_all!F25="","",_tag_day_all!F25)</f>
         <v/>
       </c>
-      <c r="H28" s="26" t="str">
+      <c r="H28" s="44" t="str">
         <f>IF(_tag_day_all!G25="","",_tag_day_all!G25)</f>
         <v/>
       </c>
-      <c r="I28" s="26" t="str">
+      <c r="I28" s="44" t="str">
         <f>IF(_tag_day_all!H25="","",_tag_day_all!H25)</f>
         <v/>
       </c>
-      <c r="J28" s="46" t="str">
+      <c r="J28" s="45" t="str">
         <f>IF(_tag_day_all!I25="","",_tag_day_all!I25)</f>
         <v/>
       </c>
-      <c r="K28" s="46" t="str">
+      <c r="K28" s="45" t="str">
         <f>IF(_tag_day_all!J25="","",_tag_day_all!J25)</f>
         <v/>
       </c>
-      <c r="L28" s="26" t="str">
+      <c r="L28" s="44" t="str">
         <f>IF(_tag_day_all!K25="","",_tag_day_all!K25)</f>
         <v/>
       </c>
-      <c r="M28" s="26" t="str">
+      <c r="M28" s="44" t="str">
         <f>IF(_tag_day_all!L25="","",_tag_day_all!L25)</f>
         <v/>
       </c>
-      <c r="N28" s="46" t="str">
+      <c r="N28" s="45" t="str">
         <f>IF(_tag_day_all!M25="","",_tag_day_all!M25)</f>
         <v/>
       </c>
-      <c r="O28" s="26" t="str">
+      <c r="O28" s="44" t="str">
         <f>IF(_tag_day_all!N25="","",_tag_day_all!N25*100)</f>
         <v/>
       </c>
-      <c r="P28" s="26" t="str">
+      <c r="P28" s="44" t="str">
         <f>IF(_tag_day_all!AL25="","",_tag_day_all!AL25)</f>
         <v/>
       </c>
-      <c r="Q28" s="25" t="str">
+      <c r="Q28" s="43" t="str">
         <f>IF(_tag_day_all!AM25="","",_tag_day_all!AM25)</f>
         <v/>
       </c>
-      <c r="R28" s="25" t="str">
+      <c r="R28" s="43" t="str">
         <f>IF(_tag_day_all!O25="","",_tag_day_all!O25)</f>
         <v/>
       </c>
-      <c r="S28" s="25" t="str">
+      <c r="S28" s="43" t="str">
         <f>IF(_tag_day_all!P25="","",_tag_day_all!P25)</f>
         <v/>
       </c>
-      <c r="T28" s="25" t="str">
+      <c r="T28" s="43" t="str">
         <f>IF(_tag_day_all!Q25="","",_tag_day_all!Q25)</f>
         <v/>
       </c>
-      <c r="U28" s="25" t="str">
+      <c r="U28" s="43" t="str">
         <f>IF(_tag_day_all!R25="","",_tag_day_all!R25)</f>
         <v/>
       </c>
-      <c r="V28" s="25" t="str">
+      <c r="V28" s="43" t="str">
         <f>IF(_tag_day_all!S25="","",_tag_day_all!S25)</f>
         <v/>
       </c>
-      <c r="W28" s="25" t="str">
+      <c r="W28" s="43" t="str">
         <f>IF(_tag_day_all!T25="","",_tag_day_all!T25)</f>
         <v/>
       </c>
-      <c r="X28" s="26" t="str">
+      <c r="X28" s="44" t="str">
         <f>IF(_tag_day_all!U25="","",_tag_day_all!U25)</f>
         <v/>
       </c>
-      <c r="Y28" s="26" t="str">
+      <c r="Y28" s="44" t="str">
         <f>IF(_tag_day_all!V25="","",_tag_day_all!V25)</f>
         <v/>
       </c>
-      <c r="Z28" s="26" t="str">
+      <c r="Z28" s="44" t="str">
         <f>IF(_tag_day_all!W25="","",_tag_day_all!W25)</f>
         <v/>
       </c>
-      <c r="AA28" s="26" t="str">
+      <c r="AA28" s="44" t="str">
         <f>IF(_tag_day_all!X25="","",_tag_day_all!X25)</f>
         <v/>
       </c>
-      <c r="AB28" s="46" t="str">
+      <c r="AB28" s="45" t="str">
         <f>IF(_tag_day_all!Y25="","",_tag_day_all!Y25)</f>
         <v/>
       </c>
-      <c r="AC28" s="25" t="str">
+      <c r="AC28" s="43" t="str">
         <f>IF(_tag_day_all!Z25="","",_tag_day_all!Z25)</f>
         <v/>
       </c>
-      <c r="AD28" s="25" t="str">
+      <c r="AD28" s="43" t="str">
         <f>IF(_tag_day_all!AA25="","",_tag_day_all!AA25)</f>
         <v/>
       </c>
-      <c r="AE28" s="26" t="str">
+      <c r="AE28" s="44" t="str">
         <f>IF(_tag_day_all!AB25="","",_tag_day_all!AB25)</f>
         <v/>
       </c>
-      <c r="AF28" s="25" t="str">
+      <c r="AF28" s="43" t="str">
         <f>IF(_tag_day_all!AC25="","",_tag_day_all!AC25)</f>
         <v/>
       </c>
-      <c r="AG28" s="25" t="str">
+      <c r="AG28" s="43" t="str">
         <f>IF(_tag_day_all!AD25="","",_tag_day_all!AD25)</f>
         <v/>
       </c>
-      <c r="AH28" s="25" t="str">
+      <c r="AH28" s="43" t="str">
         <f>IF(_tag_day_all!AE25="","",_tag_day_all!AE25)</f>
         <v/>
       </c>
-      <c r="AI28" s="25" t="str">
+      <c r="AI28" s="43" t="str">
         <f>IF(_tag_day_all!AF25="","",_tag_day_all!AF25)</f>
         <v/>
       </c>
-      <c r="AJ28" s="25" t="str">
+      <c r="AJ28" s="43" t="str">
         <f>IF(_tag_day_all!AG25="","",_tag_day_all!AG25)</f>
         <v/>
       </c>
-      <c r="AK28" s="26" t="str">
+      <c r="AK28" s="44" t="str">
         <f>IF(_tag_day_all!AH25="","",_tag_day_all!AH25)</f>
         <v/>
       </c>
-      <c r="AL28" s="26" t="str">
+      <c r="AL28" s="44" t="str">
         <f>IF(_tag_day_all!AI25="","",_tag_day_all!AI25)</f>
         <v/>
       </c>
-      <c r="AM28" s="26" t="str">
+      <c r="AM28" s="44" t="str">
         <f>IF(_tag_day_all!AJ25="","",_tag_day_all!AJ25)</f>
         <v/>
       </c>
-      <c r="AN28" s="26" t="str">
+      <c r="AN28" s="44" t="str">
         <f>IF(_tag_day_all!AK25="","",_tag_day_all!AK25)</f>
         <v/>
       </c>
     </row>
-    <row r="29" ht="13.5" spans="1:40">
-      <c r="A29" s="27" t="s">
+    <row r="29">
+      <c r="A29" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="28" t="str">
+      <c r="B29" s="47" t="str">
         <f>IFERROR(AVERAGE(B5:B12),"")</f>
         <v/>
       </c>
-      <c r="C29" s="29" t="str">
-        <f t="shared" ref="C29:AB29" si="0">IFERROR(AVERAGE(C5:C12),"")</f>
-        <v/>
-      </c>
-      <c r="D29" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E29" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F29" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G29" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H29" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I29" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J29" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K29" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L29" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M29" s="30" t="str">
+      <c r="C29" s="48" t="str">
+        <f>IFERROR(AVERAGE(C5:C12),"")</f>
+        <v/>
+      </c>
+      <c r="D29" s="48" t="str">
+        <f>IFERROR(AVERAGE(D5:D12),"")</f>
+        <v/>
+      </c>
+      <c r="E29" s="47" t="str">
+        <f>IFERROR(AVERAGE(E5:E12),"")</f>
+        <v/>
+      </c>
+      <c r="F29" s="49" t="str">
+        <f>IFERROR(AVERAGE(F5:F12),"")</f>
+        <v/>
+      </c>
+      <c r="G29" s="47" t="str">
+        <f>IFERROR(AVERAGE(G5:G12),"")</f>
+        <v/>
+      </c>
+      <c r="H29" s="49" t="str">
+        <f>IFERROR(AVERAGE(H5:H12),"")</f>
+        <v/>
+      </c>
+      <c r="I29" s="49" t="str">
+        <f>IFERROR(AVERAGE(I5:I12),"")</f>
+        <v/>
+      </c>
+      <c r="J29" s="50" t="str">
+        <f>IFERROR(AVERAGE(J5:J12),"")</f>
+        <v/>
+      </c>
+      <c r="K29" s="50" t="str">
+        <f>IFERROR(AVERAGE(K5:K12),"")</f>
+        <v/>
+      </c>
+      <c r="L29" s="49" t="str">
+        <f>IFERROR(AVERAGE(L5:L12),"")</f>
+        <v/>
+      </c>
+      <c r="M29" s="49" t="str">
         <f>IF(SUM(M5:M12)=0,"",SUM(M5:M12))</f>
         <v/>
       </c>
-      <c r="N29" s="47" t="str">
+      <c r="N29" s="50" t="str">
         <f>IF(SUM(N5:N12)=0,"",SUM(N5:N12))</f>
         <v/>
       </c>
-      <c r="O29" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P29" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q29" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R29" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S29" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T29" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="U29" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="V29" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="W29" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X29" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Y29" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Z29" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AA29" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AB29" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AC29" s="28" t="str">
-        <f t="shared" ref="AC29:AN29" si="1">IFERROR(AVERAGE(AC5:AC12),"")</f>
-        <v/>
-      </c>
-      <c r="AD29" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AE29" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AF29" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AG29" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AH29" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AI29" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AJ29" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AK29" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AL29" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AM29" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AN29" s="30" t="str">
-        <f t="shared" si="1"/>
+      <c r="O29" s="49" t="str">
+        <f>IFERROR(AVERAGE(O5:O12),"")</f>
+        <v/>
+      </c>
+      <c r="P29" s="49" t="str">
+        <f>IFERROR(AVERAGE(P5:P12),"")</f>
+        <v/>
+      </c>
+      <c r="Q29" s="47" t="str">
+        <f>IFERROR(AVERAGE(Q5:Q12),"")</f>
+        <v/>
+      </c>
+      <c r="R29" s="47" t="str">
+        <f>IFERROR(AVERAGE(R5:R12),"")</f>
+        <v/>
+      </c>
+      <c r="S29" s="47" t="str">
+        <f>IFERROR(AVERAGE(S5:S12),"")</f>
+        <v/>
+      </c>
+      <c r="T29" s="47" t="str">
+        <f>IFERROR(AVERAGE(T5:T12),"")</f>
+        <v/>
+      </c>
+      <c r="U29" s="47" t="str">
+        <f>IFERROR(AVERAGE(U5:U12),"")</f>
+        <v/>
+      </c>
+      <c r="V29" s="47" t="str">
+        <f>IFERROR(AVERAGE(V5:V12),"")</f>
+        <v/>
+      </c>
+      <c r="W29" s="47" t="str">
+        <f>IFERROR(AVERAGE(W5:W12),"")</f>
+        <v/>
+      </c>
+      <c r="X29" s="49" t="str">
+        <f>IFERROR(AVERAGE(X5:X12),"")</f>
+        <v/>
+      </c>
+      <c r="Y29" s="49" t="str">
+        <f>IFERROR(AVERAGE(Y5:Y12),"")</f>
+        <v/>
+      </c>
+      <c r="Z29" s="49" t="str">
+        <f>IFERROR(AVERAGE(Z5:Z12),"")</f>
+        <v/>
+      </c>
+      <c r="AA29" s="49" t="str">
+        <f>IFERROR(AVERAGE(AA5:AA12),"")</f>
+        <v/>
+      </c>
+      <c r="AB29" s="50" t="str">
+        <f>IFERROR(AVERAGE(AB5:AB12),"")</f>
+        <v/>
+      </c>
+      <c r="AC29" s="47" t="str">
+        <f>IFERROR(AVERAGE(AC5:AC12),"")</f>
+        <v/>
+      </c>
+      <c r="AD29" s="47" t="str">
+        <f>IFERROR(AVERAGE(AD5:AD12),"")</f>
+        <v/>
+      </c>
+      <c r="AE29" s="49" t="str">
+        <f>IFERROR(AVERAGE(AE5:AE12),"")</f>
+        <v/>
+      </c>
+      <c r="AF29" s="47" t="str">
+        <f>IFERROR(AVERAGE(AF5:AF12),"")</f>
+        <v/>
+      </c>
+      <c r="AG29" s="47" t="str">
+        <f>IFERROR(AVERAGE(AG5:AG12),"")</f>
+        <v/>
+      </c>
+      <c r="AH29" s="47" t="str">
+        <f>IFERROR(AVERAGE(AH5:AH12),"")</f>
+        <v/>
+      </c>
+      <c r="AI29" s="47" t="str">
+        <f>IFERROR(AVERAGE(AI5:AI12),"")</f>
+        <v/>
+      </c>
+      <c r="AJ29" s="47" t="str">
+        <f>IFERROR(AVERAGE(AJ5:AJ12),"")</f>
+        <v/>
+      </c>
+      <c r="AK29" s="49" t="str">
+        <f>IFERROR(AVERAGE(AK5:AK12),"")</f>
+        <v/>
+      </c>
+      <c r="AL29" s="49" t="str">
+        <f>IFERROR(AVERAGE(AL5:AL12),"")</f>
+        <v/>
+      </c>
+      <c r="AM29" s="49" t="str">
+        <f>IFERROR(AVERAGE(AM5:AM12),"")</f>
+        <v/>
+      </c>
+      <c r="AN29" s="49" t="str">
+        <f>IFERROR(AVERAGE(AN5:AN12),"")</f>
         <v/>
       </c>
     </row>
-    <row r="30" ht="13.5" spans="1:40">
-      <c r="A30" s="27" t="s">
+    <row ht="13.5" r="30">
+      <c r="A30" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="28" t="str">
+      <c r="B30" s="47" t="str">
         <f>IFERROR(AVERAGE(B13:B20),"")</f>
         <v/>
       </c>
-      <c r="C30" s="29" t="str">
-        <f t="shared" ref="C30:AB30" si="2">IFERROR(AVERAGE(C13:C20),"")</f>
-        <v/>
-      </c>
-      <c r="D30" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E30" s="28" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F30" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G30" s="28" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H30" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I30" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J30" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K30" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L30" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M30" s="30" t="str">
+      <c r="C30" s="48" t="str">
+        <f>IFERROR(AVERAGE(C13:C20),"")</f>
+        <v/>
+      </c>
+      <c r="D30" s="48" t="str">
+        <f>IFERROR(AVERAGE(D13:D20),"")</f>
+        <v/>
+      </c>
+      <c r="E30" s="47" t="str">
+        <f>IFERROR(AVERAGE(E13:E20),"")</f>
+        <v/>
+      </c>
+      <c r="F30" s="49" t="str">
+        <f>IFERROR(AVERAGE(F13:F20),"")</f>
+        <v/>
+      </c>
+      <c r="G30" s="47" t="str">
+        <f>IFERROR(AVERAGE(G13:G20),"")</f>
+        <v/>
+      </c>
+      <c r="H30" s="49" t="str">
+        <f>IFERROR(AVERAGE(H13:H20),"")</f>
+        <v/>
+      </c>
+      <c r="I30" s="49" t="str">
+        <f>IFERROR(AVERAGE(I13:I20),"")</f>
+        <v/>
+      </c>
+      <c r="J30" s="50" t="str">
+        <f>IFERROR(AVERAGE(J13:J20),"")</f>
+        <v/>
+      </c>
+      <c r="K30" s="50" t="str">
+        <f>IFERROR(AVERAGE(K13:K20),"")</f>
+        <v/>
+      </c>
+      <c r="L30" s="49" t="str">
+        <f>IFERROR(AVERAGE(L13:L20),"")</f>
+        <v/>
+      </c>
+      <c r="M30" s="49" t="str">
         <f>IF(SUM(M13:M20)=0,"",SUM(M13:M20))</f>
         <v/>
       </c>
-      <c r="N30" s="47" t="str">
+      <c r="N30" s="50" t="str">
         <f>IF(SUM(N13:N20)=0,"",SUM(N13:N20))</f>
         <v/>
       </c>
-      <c r="O30" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P30" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q30" s="28" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R30" s="28" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S30" s="28" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="T30" s="28" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="U30" s="28" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V30" s="28" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="W30" s="28" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="X30" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Y30" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Z30" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AA30" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB30" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AC30" s="28" t="str">
-        <f t="shared" ref="AC30:AN30" si="3">IFERROR(AVERAGE(AC13:AC20),"")</f>
-        <v/>
-      </c>
-      <c r="AD30" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AE30" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AF30" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AG30" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AH30" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AI30" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AJ30" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AK30" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AL30" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AM30" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AN30" s="30" t="str">
-        <f t="shared" si="3"/>
+      <c r="O30" s="49" t="str">
+        <f>IFERROR(AVERAGE(O13:O20),"")</f>
+        <v/>
+      </c>
+      <c r="P30" s="49" t="str">
+        <f>IFERROR(AVERAGE(P13:P20),"")</f>
+        <v/>
+      </c>
+      <c r="Q30" s="47" t="str">
+        <f>IFERROR(AVERAGE(Q13:Q20),"")</f>
+        <v/>
+      </c>
+      <c r="R30" s="47" t="str">
+        <f>IFERROR(AVERAGE(R13:R20),"")</f>
+        <v/>
+      </c>
+      <c r="S30" s="47" t="str">
+        <f>IFERROR(AVERAGE(S13:S20),"")</f>
+        <v/>
+      </c>
+      <c r="T30" s="47" t="str">
+        <f>IFERROR(AVERAGE(T13:T20),"")</f>
+        <v/>
+      </c>
+      <c r="U30" s="47" t="str">
+        <f>IFERROR(AVERAGE(U13:U20),"")</f>
+        <v/>
+      </c>
+      <c r="V30" s="47" t="str">
+        <f>IFERROR(AVERAGE(V13:V20),"")</f>
+        <v/>
+      </c>
+      <c r="W30" s="47" t="str">
+        <f>IFERROR(AVERAGE(W13:W20),"")</f>
+        <v/>
+      </c>
+      <c r="X30" s="49" t="str">
+        <f>IFERROR(AVERAGE(X13:X20),"")</f>
+        <v/>
+      </c>
+      <c r="Y30" s="49" t="str">
+        <f>IFERROR(AVERAGE(Y13:Y20),"")</f>
+        <v/>
+      </c>
+      <c r="Z30" s="49" t="str">
+        <f>IFERROR(AVERAGE(Z13:Z20),"")</f>
+        <v/>
+      </c>
+      <c r="AA30" s="49" t="str">
+        <f>IFERROR(AVERAGE(AA13:AA20),"")</f>
+        <v/>
+      </c>
+      <c r="AB30" s="50" t="str">
+        <f>IFERROR(AVERAGE(AB13:AB20),"")</f>
+        <v/>
+      </c>
+      <c r="AC30" s="47" t="str">
+        <f>IFERROR(AVERAGE(AC13:AC20),"")</f>
+        <v/>
+      </c>
+      <c r="AD30" s="47" t="str">
+        <f>IFERROR(AVERAGE(AD13:AD20),"")</f>
+        <v/>
+      </c>
+      <c r="AE30" s="49" t="str">
+        <f>IFERROR(AVERAGE(AE13:AE20),"")</f>
+        <v/>
+      </c>
+      <c r="AF30" s="47" t="str">
+        <f>IFERROR(AVERAGE(AF13:AF20),"")</f>
+        <v/>
+      </c>
+      <c r="AG30" s="47" t="str">
+        <f>IFERROR(AVERAGE(AG13:AG20),"")</f>
+        <v/>
+      </c>
+      <c r="AH30" s="47" t="str">
+        <f>IFERROR(AVERAGE(AH13:AH20),"")</f>
+        <v/>
+      </c>
+      <c r="AI30" s="47" t="str">
+        <f>IFERROR(AVERAGE(AI13:AI20),"")</f>
+        <v/>
+      </c>
+      <c r="AJ30" s="47" t="str">
+        <f>IFERROR(AVERAGE(AJ13:AJ20),"")</f>
+        <v/>
+      </c>
+      <c r="AK30" s="49" t="str">
+        <f>IFERROR(AVERAGE(AK13:AK20),"")</f>
+        <v/>
+      </c>
+      <c r="AL30" s="49" t="str">
+        <f>IFERROR(AVERAGE(AL13:AL20),"")</f>
+        <v/>
+      </c>
+      <c r="AM30" s="49" t="str">
+        <f>IFERROR(AVERAGE(AM13:AM20),"")</f>
+        <v/>
+      </c>
+      <c r="AN30" s="49" t="str">
+        <f>IFERROR(AVERAGE(AN13:AN20),"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" ht="13.5" spans="1:40">
-      <c r="A31" s="27" t="s">
+    <row ht="13.5" r="31">
+      <c r="A31" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="28" t="str">
-        <f t="shared" ref="B31" si="4">IFERROR(AVERAGE(B21:B28),"")</f>
-        <v/>
-      </c>
-      <c r="C31" s="29" t="str">
-        <f t="shared" ref="C31:AB31" si="5">IFERROR(AVERAGE(C21:C28),"")</f>
-        <v/>
-      </c>
-      <c r="D31" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E31" s="28" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F31" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G31" s="28" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H31" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I31" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J31" s="47" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K31" s="47" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L31" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M31" s="30" t="str">
+      <c r="B31" s="47" t="str">
+        <f>IFERROR(AVERAGE(B21:B28),"")</f>
+        <v/>
+      </c>
+      <c r="C31" s="48" t="str">
+        <f>IFERROR(AVERAGE(C21:C28),"")</f>
+        <v/>
+      </c>
+      <c r="D31" s="48" t="str">
+        <f>IFERROR(AVERAGE(D21:D28),"")</f>
+        <v/>
+      </c>
+      <c r="E31" s="47" t="str">
+        <f>IFERROR(AVERAGE(E21:E28),"")</f>
+        <v/>
+      </c>
+      <c r="F31" s="49" t="str">
+        <f>IFERROR(AVERAGE(F21:F28),"")</f>
+        <v/>
+      </c>
+      <c r="G31" s="47" t="str">
+        <f>IFERROR(AVERAGE(G21:G28),"")</f>
+        <v/>
+      </c>
+      <c r="H31" s="49" t="str">
+        <f>IFERROR(AVERAGE(H21:H28),"")</f>
+        <v/>
+      </c>
+      <c r="I31" s="49" t="str">
+        <f>IFERROR(AVERAGE(I21:I28),"")</f>
+        <v/>
+      </c>
+      <c r="J31" s="50" t="str">
+        <f>IFERROR(AVERAGE(J21:J28),"")</f>
+        <v/>
+      </c>
+      <c r="K31" s="50" t="str">
+        <f>IFERROR(AVERAGE(K21:K28),"")</f>
+        <v/>
+      </c>
+      <c r="L31" s="49" t="str">
+        <f>IFERROR(AVERAGE(L21:L28),"")</f>
+        <v/>
+      </c>
+      <c r="M31" s="49" t="str">
         <f>IF(SUM(M21:M28)=0,"",SUM(M21:M28))</f>
         <v/>
       </c>
-      <c r="N31" s="47" t="str">
+      <c r="N31" s="50" t="str">
         <f>IF(SUM(N21:N28)=0,"",SUM(N21:N28))</f>
         <v/>
       </c>
-      <c r="O31" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P31" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q31" s="28" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="R31" s="28" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="S31" s="28" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="T31" s="28" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="U31" s="28" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="V31" s="28" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="W31" s="28" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="X31" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y31" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Z31" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AA31" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AB31" s="47" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AC31" s="28" t="str">
-        <f t="shared" ref="AC31:AN31" si="6">IFERROR(AVERAGE(AC21:AC28),"")</f>
-        <v/>
-      </c>
-      <c r="AD31" s="28" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AE31" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AF31" s="28" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AG31" s="28" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AH31" s="28" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AI31" s="28" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AJ31" s="28" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AK31" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AL31" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AM31" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AN31" s="30" t="str">
-        <f t="shared" si="6"/>
+      <c r="O31" s="49" t="str">
+        <f>IFERROR(AVERAGE(O21:O28),"")</f>
+        <v/>
+      </c>
+      <c r="P31" s="49" t="str">
+        <f>IFERROR(AVERAGE(P21:P28),"")</f>
+        <v/>
+      </c>
+      <c r="Q31" s="47" t="str">
+        <f>IFERROR(AVERAGE(Q21:Q28),"")</f>
+        <v/>
+      </c>
+      <c r="R31" s="47" t="str">
+        <f>IFERROR(AVERAGE(R21:R28),"")</f>
+        <v/>
+      </c>
+      <c r="S31" s="47" t="str">
+        <f>IFERROR(AVERAGE(S21:S28),"")</f>
+        <v/>
+      </c>
+      <c r="T31" s="47" t="str">
+        <f>IFERROR(AVERAGE(T21:T28),"")</f>
+        <v/>
+      </c>
+      <c r="U31" s="47" t="str">
+        <f>IFERROR(AVERAGE(U21:U28),"")</f>
+        <v/>
+      </c>
+      <c r="V31" s="47" t="str">
+        <f>IFERROR(AVERAGE(V21:V28),"")</f>
+        <v/>
+      </c>
+      <c r="W31" s="47" t="str">
+        <f>IFERROR(AVERAGE(W21:W28),"")</f>
+        <v/>
+      </c>
+      <c r="X31" s="49" t="str">
+        <f>IFERROR(AVERAGE(X21:X28),"")</f>
+        <v/>
+      </c>
+      <c r="Y31" s="49" t="str">
+        <f>IFERROR(AVERAGE(Y21:Y28),"")</f>
+        <v/>
+      </c>
+      <c r="Z31" s="49" t="str">
+        <f>IFERROR(AVERAGE(Z21:Z28),"")</f>
+        <v/>
+      </c>
+      <c r="AA31" s="49" t="str">
+        <f>IFERROR(AVERAGE(AA21:AA28),"")</f>
+        <v/>
+      </c>
+      <c r="AB31" s="50" t="str">
+        <f>IFERROR(AVERAGE(AB21:AB28),"")</f>
+        <v/>
+      </c>
+      <c r="AC31" s="47" t="str">
+        <f>IFERROR(AVERAGE(AC21:AC28),"")</f>
+        <v/>
+      </c>
+      <c r="AD31" s="47" t="str">
+        <f>IFERROR(AVERAGE(AD21:AD28),"")</f>
+        <v/>
+      </c>
+      <c r="AE31" s="49" t="str">
+        <f>IFERROR(AVERAGE(AE21:AE28),"")</f>
+        <v/>
+      </c>
+      <c r="AF31" s="47" t="str">
+        <f>IFERROR(AVERAGE(AF21:AF28),"")</f>
+        <v/>
+      </c>
+      <c r="AG31" s="47" t="str">
+        <f>IFERROR(AVERAGE(AG21:AG28),"")</f>
+        <v/>
+      </c>
+      <c r="AH31" s="47" t="str">
+        <f>IFERROR(AVERAGE(AH21:AH28),"")</f>
+        <v/>
+      </c>
+      <c r="AI31" s="47" t="str">
+        <f>IFERROR(AVERAGE(AI21:AI28),"")</f>
+        <v/>
+      </c>
+      <c r="AJ31" s="47" t="str">
+        <f>IFERROR(AVERAGE(AJ21:AJ28),"")</f>
+        <v/>
+      </c>
+      <c r="AK31" s="49" t="str">
+        <f>IFERROR(AVERAGE(AK21:AK28),"")</f>
+        <v/>
+      </c>
+      <c r="AL31" s="49" t="str">
+        <f>IFERROR(AVERAGE(AL21:AL28),"")</f>
+        <v/>
+      </c>
+      <c r="AM31" s="49" t="str">
+        <f>IFERROR(AVERAGE(AM21:AM28),"")</f>
+        <v/>
+      </c>
+      <c r="AN31" s="49" t="str">
+        <f>IFERROR(AVERAGE(AN21:AN28),"")</f>
         <v/>
       </c>
     </row>
-    <row r="32" ht="13.5" spans="1:40">
-      <c r="A32" s="31" t="s">
+    <row ht="13.5" r="32">
+      <c r="A32" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="32" t="str">
-        <f t="shared" ref="B32" si="7">IFERROR(AVERAGE(B5:B28),"")</f>
-        <v/>
-      </c>
-      <c r="C32" s="33" t="str">
-        <f t="shared" ref="C32:AB32" si="8">IFERROR(AVERAGE(C5:C28),"")</f>
-        <v/>
-      </c>
-      <c r="D32" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="E32" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F32" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G32" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H32" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I32" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J32" s="48" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K32" s="48" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L32" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="M32" s="34" t="str">
+      <c r="B32" s="52" t="str">
+        <f>IFERROR(AVERAGE(B5:B28),"")</f>
+        <v/>
+      </c>
+      <c r="C32" s="53" t="str">
+        <f>IFERROR(AVERAGE(C5:C28),"")</f>
+        <v/>
+      </c>
+      <c r="D32" s="53" t="str">
+        <f>IFERROR(AVERAGE(D5:D28),"")</f>
+        <v/>
+      </c>
+      <c r="E32" s="52" t="str">
+        <f>IFERROR(AVERAGE(E5:E28),"")</f>
+        <v/>
+      </c>
+      <c r="F32" s="54" t="str">
+        <f>IFERROR(AVERAGE(F5:F28),"")</f>
+        <v/>
+      </c>
+      <c r="G32" s="52" t="str">
+        <f>IFERROR(AVERAGE(G5:G28),"")</f>
+        <v/>
+      </c>
+      <c r="H32" s="54" t="str">
+        <f>IFERROR(AVERAGE(H5:H28),"")</f>
+        <v/>
+      </c>
+      <c r="I32" s="54" t="str">
+        <f>IFERROR(AVERAGE(I5:I28),"")</f>
+        <v/>
+      </c>
+      <c r="J32" s="55" t="str">
+        <f>IFERROR(AVERAGE(J5:J28),"")</f>
+        <v/>
+      </c>
+      <c r="K32" s="55" t="str">
+        <f>IFERROR(AVERAGE(K5:K28),"")</f>
+        <v/>
+      </c>
+      <c r="L32" s="54" t="str">
+        <f>IFERROR(AVERAGE(L5:L28),"")</f>
+        <v/>
+      </c>
+      <c r="M32" s="54" t="str">
         <f>IF(SUM(M5:M28)=0,"",SUM(M5:M28))</f>
         <v/>
       </c>
-      <c r="N32" s="48" t="str">
+      <c r="N32" s="55" t="str">
         <f>IF(SUM(N5:N28)=0,"",SUM(N5:N28))</f>
         <v/>
       </c>
-      <c r="O32" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="P32" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Q32" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="R32" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="S32" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="T32" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="U32" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="V32" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="W32" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="X32" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Y32" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Z32" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AA32" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AB32" s="48" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AC32" s="32" t="str">
-        <f t="shared" ref="AC32:AN32" si="9">IFERROR(AVERAGE(AC5:AC28),"")</f>
-        <v/>
-      </c>
-      <c r="AD32" s="32" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AE32" s="34" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AF32" s="32" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AG32" s="32" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AH32" s="32" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AI32" s="32" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AJ32" s="32" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AK32" s="34" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AL32" s="34" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AM32" s="34" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AN32" s="34" t="str">
-        <f t="shared" si="9"/>
+      <c r="O32" s="54" t="str">
+        <f>IFERROR(AVERAGE(O5:O28),"")</f>
+        <v/>
+      </c>
+      <c r="P32" s="54" t="str">
+        <f>IFERROR(AVERAGE(P5:P28),"")</f>
+        <v/>
+      </c>
+      <c r="Q32" s="52" t="str">
+        <f>IFERROR(AVERAGE(Q5:Q28),"")</f>
+        <v/>
+      </c>
+      <c r="R32" s="52" t="str">
+        <f>IFERROR(AVERAGE(R5:R28),"")</f>
+        <v/>
+      </c>
+      <c r="S32" s="52" t="str">
+        <f>IFERROR(AVERAGE(S5:S28),"")</f>
+        <v/>
+      </c>
+      <c r="T32" s="52" t="str">
+        <f>IFERROR(AVERAGE(T5:T28),"")</f>
+        <v/>
+      </c>
+      <c r="U32" s="52" t="str">
+        <f>IFERROR(AVERAGE(U5:U28),"")</f>
+        <v/>
+      </c>
+      <c r="V32" s="52" t="str">
+        <f>IFERROR(AVERAGE(V5:V28),"")</f>
+        <v/>
+      </c>
+      <c r="W32" s="52" t="str">
+        <f>IFERROR(AVERAGE(W5:W28),"")</f>
+        <v/>
+      </c>
+      <c r="X32" s="54" t="str">
+        <f>IFERROR(AVERAGE(X5:X28),"")</f>
+        <v/>
+      </c>
+      <c r="Y32" s="54" t="str">
+        <f>IFERROR(AVERAGE(Y5:Y28),"")</f>
+        <v/>
+      </c>
+      <c r="Z32" s="54" t="str">
+        <f>IFERROR(AVERAGE(Z5:Z28),"")</f>
+        <v/>
+      </c>
+      <c r="AA32" s="54" t="str">
+        <f>IFERROR(AVERAGE(AA5:AA28),"")</f>
+        <v/>
+      </c>
+      <c r="AB32" s="55" t="str">
+        <f>IFERROR(AVERAGE(AB5:AB28),"")</f>
+        <v/>
+      </c>
+      <c r="AC32" s="52" t="str">
+        <f>IFERROR(AVERAGE(AC5:AC28),"")</f>
+        <v/>
+      </c>
+      <c r="AD32" s="52" t="str">
+        <f>IFERROR(AVERAGE(AD5:AD28),"")</f>
+        <v/>
+      </c>
+      <c r="AE32" s="54" t="str">
+        <f>IFERROR(AVERAGE(AE5:AE28),"")</f>
+        <v/>
+      </c>
+      <c r="AF32" s="52" t="str">
+        <f>IFERROR(AVERAGE(AF5:AF28),"")</f>
+        <v/>
+      </c>
+      <c r="AG32" s="52" t="str">
+        <f>IFERROR(AVERAGE(AG5:AG28),"")</f>
+        <v/>
+      </c>
+      <c r="AH32" s="52" t="str">
+        <f>IFERROR(AVERAGE(AH5:AH28),"")</f>
+        <v/>
+      </c>
+      <c r="AI32" s="52" t="str">
+        <f>IFERROR(AVERAGE(AI5:AI28),"")</f>
+        <v/>
+      </c>
+      <c r="AJ32" s="52" t="str">
+        <f>IFERROR(AVERAGE(AJ5:AJ28),"")</f>
+        <v/>
+      </c>
+      <c r="AK32" s="54" t="str">
+        <f>IFERROR(AVERAGE(AK5:AK28),"")</f>
+        <v/>
+      </c>
+      <c r="AL32" s="54" t="str">
+        <f>IFERROR(AVERAGE(AL5:AL28),"")</f>
+        <v/>
+      </c>
+      <c r="AM32" s="54" t="str">
+        <f>IFERROR(AVERAGE(AM5:AM28),"")</f>
+        <v/>
+      </c>
+      <c r="AN32" s="54" t="str">
+        <f>IFERROR(AVERAGE(AN5:AN28),"")</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" s="35" t="s">
+    <row r="33">
+      <c r="A33" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="36" t="str">
-        <f t="shared" ref="B33:AB33" si="10">IFERROR(STDEV(B5:B28),"")</f>
-        <v/>
-      </c>
-      <c r="C33" s="37" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D33" s="37" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="E33" s="36" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F33" s="38" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G33" s="36" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="H33" s="38" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I33" s="38" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J33" s="49" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="K33" s="49" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L33" s="38" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="M33" s="38" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="N33" s="49" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="O33" s="38" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="P33" s="38" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Q33" s="36" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="R33" s="36" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="S33" s="36" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="T33" s="36" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="U33" s="36" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="V33" s="36" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="W33" s="36" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="X33" s="38" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Y33" s="38" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Z33" s="38" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AA33" s="38" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AB33" s="49" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AC33" s="36" t="str">
-        <f t="shared" ref="AC33:AN33" si="11">IFERROR(STDEV(AC5:AC28),"")</f>
-        <v/>
-      </c>
-      <c r="AD33" s="36" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE33" s="38" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AF33" s="36" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG33" s="36" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AH33" s="36" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AI33" s="36" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AJ33" s="36" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AK33" s="38" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AL33" s="38" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AM33" s="38" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AN33" s="38" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+      <c r="B33" s="57">
+        <f>IFERROR(STDEV(B5:B28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="58">
+        <f>IFERROR(STDEV(C5:C28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="58">
+        <f>IFERROR(STDEV(D5:D28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="57">
+        <f>IFERROR(STDEV(E5:E28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="59">
+        <f>IFERROR(STDEV(F5:F28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="57">
+        <f>IFERROR(STDEV(G5:G28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="59">
+        <f>IFERROR(STDEV(H5:H28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="59">
+        <f>IFERROR(STDEV(I5:I28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="60">
+        <f>IFERROR(STDEV(J5:J28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="60">
+        <f>IFERROR(STDEV(K5:K28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="59">
+        <f>IFERROR(STDEV(L5:L28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="59">
+        <f>IFERROR(STDEV(M5:M28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="60">
+        <f>IFERROR(STDEV(N5:N28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="59">
+        <f>IFERROR(STDEV(O5:O28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="59">
+        <f>IFERROR(STDEV(P5:P28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="57">
+        <f>IFERROR(STDEV(Q5:Q28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="57">
+        <f>IFERROR(STDEV(R5:R28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="57">
+        <f>IFERROR(STDEV(S5:S28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="57">
+        <f>IFERROR(STDEV(T5:T28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="57">
+        <f>IFERROR(STDEV(U5:U28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="V33" s="57">
+        <f>IFERROR(STDEV(V5:V28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="57">
+        <f>IFERROR(STDEV(W5:W28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X33" s="59">
+        <f>IFERROR(STDEV(X5:X28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="59">
+        <f>IFERROR(STDEV(Y5:Y28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="59">
+        <f>IFERROR(STDEV(Z5:Z28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="59">
+        <f>IFERROR(STDEV(AA5:AA28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AB33" s="60">
+        <f>IFERROR(STDEV(AB5:AB28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="57">
+        <f>IFERROR(STDEV(AC5:AC28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="57">
+        <f>IFERROR(STDEV(AD5:AD28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="59">
+        <f>IFERROR(STDEV(AE5:AE28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="57">
+        <f>IFERROR(STDEV(AF5:AF28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="57">
+        <f>IFERROR(STDEV(AG5:AG28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH33" s="57">
+        <f>IFERROR(STDEV(AH5:AH28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI33" s="57">
+        <f>IFERROR(STDEV(AI5:AI28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="57">
+        <f>IFERROR(STDEV(AJ5:AJ28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK33" s="59">
+        <f>IFERROR(STDEV(AK5:AK28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL33" s="59">
+        <f>IFERROR(STDEV(AL5:AL28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AM33" s="59">
+        <f>IFERROR(STDEV(AM5:AM28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AN33" s="59">
+        <f>IFERROR(STDEV(AN5:AN28),"")</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="35" ht="23.25" customHeight="1"/>
-    <row r="36" customHeight="1"/>
-    <row r="37" customHeight="1"/>
-    <row r="38" ht="38.25" customHeight="1"/>
+    <row ht="23.25" customHeight="1" r="35"/>
+    <row customHeight="1" r="36"/>
+    <row customHeight="1" r="37"/>
+    <row ht="38.25" customHeight="1" r="38"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:T1"/>
@@ -6816,185 +6973,182 @@
     <mergeCell ref="AK2:AN2"/>
     <mergeCell ref="A2:A3"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="J17" activeCellId="0" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="0">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AM1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AL1" sqref="AL1"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="88.8" customHeight="1" spans="1:39">
-      <c r="A1" s="2" t="s">
+    <row customFormat="1" ht="88.799999999999997" customHeight="1" r="1" s="1">
+      <c r="A1" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="O1" s="5" t="s">
+      <c r="N1" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="O1" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="P1" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AB1" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC1" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AL1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>90</v>
+      <c r="AL1" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM1" s="61" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/excel/finished/7高炉/7高炉参数日报表.xlsx
+++ b/excel/finished/7高炉/7高炉参数日报表.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
-    <sheet name="日报表" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="_metadata" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="_dictionary" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="_tag_day_all" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="日报表" sheetId="1" r:id="rId1"/>
+    <sheet name="_metadata" sheetId="2" r:id="rId2"/>
+    <sheet name="_dictionary" sheetId="3" r:id="rId3"/>
+    <sheet name="_tag_day_all" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="93">
   <si>
     <t>高炉参数日报</t>
   </si>
@@ -31,70 +32,70 @@
     <t>炉顶煤气分析成分</t>
   </si>
   <si>
-    <t xml:space="preserve">风量
+    <t>风量
 m3/min</t>
   </si>
   <si>
-    <t xml:space="preserve">冷风压力
+    <t>冷风压力
 KPa</t>
   </si>
   <si>
-    <t xml:space="preserve">热风压力
+    <t>热风压力
 Kpa</t>
   </si>
   <si>
-    <t xml:space="preserve">富氧量
+    <t>富氧量
 m3/h</t>
   </si>
   <si>
-    <t xml:space="preserve">富氧率
+    <t>富氧率
 %</t>
   </si>
   <si>
-    <t xml:space="preserve">风温
+    <t>风温
 ℃</t>
   </si>
   <si>
     <t>热负荷MJx10/h</t>
   </si>
   <si>
-    <t xml:space="preserve">水温差  ℃</t>
-  </si>
-  <si>
-    <t xml:space="preserve">炉顶压力
+    <t>水温差  ℃</t>
+  </si>
+  <si>
+    <t>炉顶压力
 Kpa</t>
   </si>
   <si>
-    <t xml:space="preserve">全压差
+    <t>全压差
 Kpa</t>
   </si>
   <si>
-    <t xml:space="preserve">风湿
+    <t>风湿
 g/m3</t>
   </si>
   <si>
     <t>料速</t>
   </si>
   <si>
-    <t xml:space="preserve">喷煤量
+    <t>喷煤量
 t/h</t>
   </si>
   <si>
-    <t xml:space="preserve">煤气利用率
+    <t>煤气利用率
 %</t>
   </si>
   <si>
-    <t xml:space="preserve">焦比 kg/t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小焦比 kg/t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">煤比
+    <t>焦比 kg/t</t>
+  </si>
+  <si>
+    <t>小焦比 kg/t</t>
+  </si>
+  <si>
+    <t>煤比
 kg/t</t>
   </si>
   <si>
-    <t xml:space="preserve">燃料比
+    <t>燃料比
 kg/t</t>
   </si>
   <si>
@@ -107,7 +108,7 @@
     <t>W4</t>
   </si>
   <si>
-    <t xml:space="preserve">炉底中心温度
+    <t>炉底中心温度
 ℃</t>
   </si>
   <si>
@@ -123,19 +124,19 @@
     <t>K值</t>
   </si>
   <si>
-    <t xml:space="preserve">鼓风动能
+    <t>鼓风动能
 kj/s</t>
   </si>
   <si>
-    <t xml:space="preserve">风速
+    <t>风速
 m/s</t>
   </si>
   <si>
-    <t xml:space="preserve">理论燃烧温度
+    <t>理论燃烧温度
 ℃</t>
   </si>
   <si>
-    <t xml:space="preserve">炉腹煤气指数 
+    <t>炉腹煤气指数 
 m3/min</t>
   </si>
   <si>
@@ -160,16 +161,18 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
         <rFont val="宋体"/>
-        <sz val="10"/>
+        <charset val="134"/>
       </rPr>
       <t>C</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
         <rFont val="宋体"/>
-        <sz val="10"/>
+        <charset val="134"/>
       </rPr>
       <t>O</t>
     </r>
@@ -178,16 +181,18 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
         <rFont val="宋体"/>
-        <sz val="10"/>
+        <charset val="134"/>
       </rPr>
       <t>H</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
         <rFont val="宋体"/>
-        <sz val="10"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -196,16 +201,18 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
         <rFont val="宋体"/>
-        <sz val="10"/>
+        <charset val="134"/>
       </rPr>
       <t>N</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
         <rFont val="宋体"/>
-        <sz val="10"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -364,184 +371,206 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="160" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="161" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="162" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="163" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="h:mm;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color rgb="FF9C0006"/>
+      <u/>
       <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color theme="0"/>
       <sz val="11"/>
+      <color indexed="2"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color indexed="4"/>
       <sz val="11"/>
-      <u val="single"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color indexed="20"/>
       <sz val="11"/>
-      <u val="single"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <b/>
-      <color theme="3"/>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color indexed="2"/>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <b/>
-      <color theme="3"/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <i/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
       <sz val="11"/>
+      <color indexed="4"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <b/>
-      <color theme="3"/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color indexed="65"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <b/>
-      <color theme="3"/>
-      <sz val="13"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <b/>
-      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <b/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <b/>
-      <color indexed="65"/>
-      <sz val="11"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <b/>
-      <color theme="1"/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color rgb="FF006100"/>
+      <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="黑体"/>
-      <b/>
-      <sz val="20"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <b/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <b/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <b/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <color indexed="2"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <color indexed="64"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="38">
@@ -549,204 +578,24 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431398"/>
-        <bgColor theme="6" tint="0.79998168889431398"/>
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810496"/>
-        <bgColor theme="6" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241899"/>
-        <bgColor theme="6" tint="0.39997558519241899"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241899"/>
-        <bgColor theme="5" tint="0.39997558519241899"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241899"/>
-        <bgColor theme="4" tint="0.39997558519241899"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241899"/>
-        <bgColor theme="7" tint="0.39997558519241899"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431398"/>
-        <bgColor theme="9" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431398"/>
-        <bgColor theme="8" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431398"/>
-        <bgColor theme="4" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810496"/>
-        <bgColor theme="4" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431398"/>
-        <bgColor theme="5" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810496"/>
-        <bgColor theme="5" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431398"/>
-        <bgColor theme="7" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810496"/>
-        <bgColor theme="7" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810496"/>
-        <bgColor theme="8" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241899"/>
-        <bgColor theme="8" tint="0.39997558519241899"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810496"/>
-        <bgColor theme="9" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241899"/>
-        <bgColor theme="9" tint="0.39997558519241899"/>
+        <fgColor indexed="65"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.149876400036622"/>
         <bgColor theme="0" tint="-0.149876400036622"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
@@ -763,8 +612,188 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="65"/>
-        <bgColor indexed="65"/>
+        <fgColor indexed="26"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor theme="6" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor theme="8" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor theme="6" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor theme="8" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor theme="6" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor theme="9" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor theme="5" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor theme="9" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor theme="5" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor theme="4" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor theme="8" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor theme="7" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor theme="7" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor theme="7" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor theme="5" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor theme="9" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor theme="4" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
       </patternFill>
     </fill>
   </fills>
@@ -778,99 +807,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="medium">
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -891,32 +852,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
       <right/>
       <top style="medium">
         <color theme="1"/>
@@ -955,40 +890,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="1"/>
       </left>
       <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
         <color theme="1"/>
       </right>
       <top style="thin">
@@ -1052,330 +957,454 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color theme="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color theme="1"/>
       </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="3" borderId="1" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="16">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="161" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="162" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="163" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="6" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="7" borderId="2" numFmtId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="8" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="10" fillId="0" borderId="3" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="11" fillId="0" borderId="3" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="9" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="4" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="10" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="12" fillId="11" borderId="5" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="21">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="13" fillId="11" borderId="1" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="16">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="14" fillId="12" borderId="6" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="18">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="13" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="14" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="15" fillId="0" borderId="7" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="16" fillId="0" borderId="8" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="17" fillId="15" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="18" fillId="16" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="17" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="18" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="19" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="20" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="21" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="22" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="23" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="24" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="25" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="26" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="27" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="28" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="29" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="30" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="31" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="32" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="62">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="19" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="19" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="19" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="19" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="19" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="20" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="20" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="20" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="20" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="20" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="20" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="21" fillId="33" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="22" fillId="33" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="22" fillId="33" borderId="10" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="22" fillId="33" borderId="10" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="22" fillId="33" borderId="10" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="22" fillId="33" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="22" fillId="33" borderId="12" numFmtId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="23" fillId="33" borderId="10" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="23" fillId="33" borderId="11" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="22" fillId="33" borderId="12" numFmtId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="23" fillId="33" borderId="10" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="23" fillId="33" borderId="11" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="21" fillId="33" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="24" fillId="33" borderId="14" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="24" fillId="33" borderId="14" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="24" fillId="33" borderId="14" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="24" fillId="33" borderId="14" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="24" fillId="33" borderId="15" numFmtId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="25" fillId="34" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="25" fillId="34" borderId="15" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="25" fillId="34" borderId="15" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="25" fillId="34" borderId="15" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="25" fillId="34" borderId="17" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="25" fillId="34" borderId="15" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="26" fillId="34" borderId="15" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="26" fillId="34" borderId="15" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="25" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="25" fillId="0" borderId="15" numFmtId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="25" fillId="0" borderId="15" numFmtId="164" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="25" fillId="0" borderId="15" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="25" fillId="0" borderId="15" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="25" fillId="0" borderId="15" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="25" fillId="0" borderId="15" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="25" fillId="35" borderId="18" numFmtId="166" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="25" fillId="35" borderId="19" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="25" fillId="35" borderId="19" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="25" fillId="35" borderId="19" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="25" fillId="35" borderId="19" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="25" fillId="36" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="25" fillId="36" borderId="15" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="25" fillId="36" borderId="15" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="25" fillId="36" borderId="15" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="25" fillId="36" borderId="15" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="25" fillId="36" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="25" fillId="36" borderId="21" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="25" fillId="36" borderId="21" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="25" fillId="36" borderId="21" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="25" fillId="36" borderId="21" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="27" fillId="37" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1429,296 +1458,17 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="Normal_dailyreport_2008-03-14_Form1_translated" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1927,5043 +1677,5045 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AN38"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="L20" activeCellId="0" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="0" width="9.7750000000000004"/>
-    <col min="2" max="2" style="2" width="9"/>
-    <col min="3" max="4" style="3" width="9"/>
-    <col min="5" max="5" style="2" width="9"/>
-    <col min="6" max="6" style="4" width="9"/>
-    <col min="7" max="7" style="2" width="9"/>
-    <col min="8" max="9" style="4" width="9"/>
-    <col min="10" max="11" style="5" width="9"/>
-    <col min="12" max="13" style="4" width="9"/>
-    <col min="14" max="14" style="5" width="9"/>
-    <col min="15" max="16" style="4" width="9"/>
-    <col customWidth="1" hidden="1" min="17" max="17" style="2" width="9"/>
-    <col min="18" max="23" style="2" width="9"/>
-    <col min="24" max="27" style="4" width="9"/>
-    <col min="28" max="28" style="5" width="9"/>
-    <col min="29" max="30" style="2" width="9"/>
-    <col min="31" max="31" style="4" width="9"/>
-    <col min="32" max="34" style="2" width="9"/>
-    <col customWidth="1" min="35" max="36" style="2" width="9"/>
-    <col customWidth="1" min="37" max="37" style="4" width="9.8833333333333293"/>
-    <col min="38" max="39" style="4" width="9"/>
-    <col customWidth="1" min="40" max="40" style="4" width="8.6666666666666696"/>
-    <col min="41" max="16384" style="1" width="9"/>
+    <col min="1" max="1" width="9.775" customWidth="1"/>
+    <col min="2" max="2" width="9" style="7"/>
+    <col min="3" max="4" width="9" style="8"/>
+    <col min="5" max="5" width="9" style="7"/>
+    <col min="6" max="6" width="9" style="9"/>
+    <col min="7" max="7" width="9" style="7"/>
+    <col min="8" max="9" width="9" style="9"/>
+    <col min="10" max="11" width="9" style="10"/>
+    <col min="12" max="13" width="9" style="9"/>
+    <col min="14" max="14" width="9" style="10"/>
+    <col min="15" max="16" width="9" style="9"/>
+    <col min="17" max="17" width="9" style="7" hidden="1" customWidth="1"/>
+    <col min="18" max="23" width="9" style="7"/>
+    <col min="24" max="27" width="9" style="9"/>
+    <col min="28" max="28" width="9" style="10"/>
+    <col min="29" max="30" width="9" style="7"/>
+    <col min="31" max="31" width="9" style="9"/>
+    <col min="32" max="34" width="9" style="7"/>
+    <col min="35" max="36" width="9" style="7" customWidth="1"/>
+    <col min="37" max="37" width="9.88333333333333" style="9" customWidth="1"/>
+    <col min="38" max="39" width="9" style="9"/>
+    <col min="40" max="40" width="8.66666666666667" style="9" customWidth="1"/>
+    <col min="41" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row ht="21" r="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="26.25" spans="1:38">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6" t="str">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
     </row>
-    <row ht="19.5" customHeight="1" r="2">
-      <c r="A2" s="13" t="s">
+    <row r="2" ht="19.5" customHeight="1" spans="1:40">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="19" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="22" t="s">
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="24"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="61"/>
     </row>
-    <row ht="32.25" r="3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26" t="s">
+    <row r="3" ht="36.75" spans="1:40">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="28" t="s">
+      <c r="O3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="28" t="s">
+      <c r="P3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="Q3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="26" t="s">
+      <c r="R3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="26" t="s">
+      <c r="S3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="26" t="s">
+      <c r="T3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="26" t="s">
+      <c r="U3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="26" t="s">
+      <c r="V3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="26" t="s">
+      <c r="W3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="28" t="s">
+      <c r="X3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="28" t="s">
+      <c r="Y3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="28" t="s">
+      <c r="Z3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="28" t="s">
+      <c r="AA3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AB3" s="29" t="s">
+      <c r="AB3" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="AC3" s="26" t="s">
+      <c r="AC3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AD3" s="26" t="s">
+      <c r="AD3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AE3" s="28" t="s">
+      <c r="AE3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="AF3" s="30" t="s">
+      <c r="AF3" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="AG3" s="30" t="s">
+      <c r="AG3" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="AH3" s="30" t="s">
+      <c r="AH3" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AI3" s="30" t="s">
+      <c r="AI3" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="AJ3" s="30" t="s">
+      <c r="AJ3" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="AK3" s="28" t="s">
+      <c r="AK3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AL3" s="28" t="s">
+      <c r="AL3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="AM3" s="28" t="s">
+      <c r="AM3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="AN3" s="28" t="s">
+      <c r="AN3" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row ht="88.799999999999997" customHeight="1" hidden="1" r="4">
-      <c r="A4" s="31" t="s">
+    <row r="4" ht="88.8" hidden="1" customHeight="1" spans="1:40">
+      <c r="A4" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="K4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="36" t="s">
+      <c r="N4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="O4" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="36" t="s">
+      <c r="P4" s="43"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="S4" s="36" t="s">
+      <c r="S4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="T4" s="32" t="s">
+      <c r="T4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="U4" s="32" t="s">
+      <c r="U4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="32" t="s">
+      <c r="V4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="W4" s="32" t="s">
+      <c r="W4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="X4" s="34" t="s">
+      <c r="X4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Y4" s="34" t="s">
+      <c r="Y4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Z4" s="34" t="s">
+      <c r="Z4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AA4" s="34" t="s">
+      <c r="AA4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AB4" s="36" t="s">
+      <c r="AB4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AC4" s="32" t="s">
+      <c r="AC4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AD4" s="32" t="s">
+      <c r="AD4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AE4" s="34" t="s">
+      <c r="AE4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AF4" s="32" t="s">
+      <c r="AF4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AG4" s="32" t="s">
+      <c r="AG4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AH4" s="32" t="s">
+      <c r="AH4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AI4" s="32" t="s">
+      <c r="AI4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AJ4" s="32" t="s">
+      <c r="AJ4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AK4" s="34" t="s">
+      <c r="AK4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AL4" s="34" t="s">
+      <c r="AL4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AM4" s="34" t="s">
+      <c r="AM4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AN4" s="34" t="s">
+      <c r="AN4" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="39">
+    <row r="5" spans="1:40">
+      <c r="A5" s="19">
         <v>1</v>
       </c>
-      <c r="B5" s="40" t="str">
+      <c r="B5" s="20" t="str">
         <f>IF(_tag_day_all!A2="","",_tag_day_all!A2)</f>
         <v/>
       </c>
-      <c r="C5" s="41" t="str">
+      <c r="C5" s="21" t="str">
         <f>IF(_tag_day_all!B2="","",_tag_day_all!B2)</f>
         <v/>
       </c>
-      <c r="D5" s="42" t="str">
+      <c r="D5" s="22" t="str">
         <f>IF(_tag_day_all!C2="","",_tag_day_all!C2)</f>
         <v/>
       </c>
-      <c r="E5" s="43" t="str">
+      <c r="E5" s="23" t="str">
         <f>IF(_tag_day_all!D2="","",_tag_day_all!D2*10000)</f>
         <v/>
       </c>
-      <c r="F5" s="44" t="str">
+      <c r="F5" s="24" t="str">
         <f>IF(_tag_day_all!E2="","",_tag_day_all!E2)</f>
         <v/>
       </c>
-      <c r="G5" s="43" t="str">
+      <c r="G5" s="23" t="str">
         <f>IF(_tag_day_all!F2="","",_tag_day_all!F2)</f>
         <v/>
       </c>
-      <c r="H5" s="44" t="str">
+      <c r="H5" s="24" t="str">
         <f>IF(_tag_day_all!G2="","",_tag_day_all!G2)</f>
         <v/>
       </c>
-      <c r="I5" s="44" t="str">
+      <c r="I5" s="24" t="str">
         <f>IF(_tag_day_all!H2="","",_tag_day_all!H2)</f>
         <v/>
       </c>
-      <c r="J5" s="45" t="str">
+      <c r="J5" s="44" t="str">
         <f>IF(_tag_day_all!I2="","",_tag_day_all!I2)</f>
         <v/>
       </c>
-      <c r="K5" s="45" t="str">
+      <c r="K5" s="44" t="str">
         <f>IF(_tag_day_all!J2="","",_tag_day_all!J2)</f>
         <v/>
       </c>
-      <c r="L5" s="44" t="str">
+      <c r="L5" s="24" t="str">
         <f>IF(_tag_day_all!K2="","",_tag_day_all!K2)</f>
         <v/>
       </c>
-      <c r="M5" s="44" t="str">
+      <c r="M5" s="24" t="str">
         <f>IF(_tag_day_all!L2="","",_tag_day_all!L2)</f>
         <v/>
       </c>
-      <c r="N5" s="45" t="str">
+      <c r="N5" s="44" t="str">
         <f>IF(_tag_day_all!M2="","",_tag_day_all!M2)</f>
         <v/>
       </c>
-      <c r="O5" s="44" t="str">
+      <c r="O5" s="24" t="str">
         <f>IF(_tag_day_all!N2="","",_tag_day_all!N2*100)</f>
         <v/>
       </c>
-      <c r="P5" s="44" t="str">
+      <c r="P5" s="24" t="str">
         <f>IF(_tag_day_all!AL2="","",_tag_day_all!AL2)</f>
         <v/>
       </c>
-      <c r="Q5" s="43" t="str">
+      <c r="Q5" s="23" t="str">
         <f>IF(_tag_day_all!AM2="","",_tag_day_all!AM2)</f>
         <v/>
       </c>
-      <c r="R5" s="43" t="str">
+      <c r="R5" s="23" t="str">
         <f>IF(_tag_day_all!O2="","",_tag_day_all!O2)</f>
         <v/>
       </c>
-      <c r="S5" s="43" t="str">
+      <c r="S5" s="23" t="str">
         <f>IF(_tag_day_all!P2="","",_tag_day_all!P2)</f>
         <v/>
       </c>
-      <c r="T5" s="43" t="str">
+      <c r="T5" s="23" t="str">
         <f>IF(_tag_day_all!Q2="","",_tag_day_all!Q2)</f>
         <v/>
       </c>
-      <c r="U5" s="43" t="str">
+      <c r="U5" s="23" t="str">
         <f>IF(_tag_day_all!R2="","",_tag_day_all!R2)</f>
         <v/>
       </c>
-      <c r="V5" s="43" t="str">
+      <c r="V5" s="23" t="str">
         <f>IF(_tag_day_all!S2="","",_tag_day_all!S2)</f>
         <v/>
       </c>
-      <c r="W5" s="43" t="str">
+      <c r="W5" s="23" t="str">
         <f>IF(_tag_day_all!T2="","",_tag_day_all!T2)</f>
         <v/>
       </c>
-      <c r="X5" s="44" t="str">
+      <c r="X5" s="24" t="str">
         <f>IF(_tag_day_all!U2="","",_tag_day_all!U2)</f>
         <v/>
       </c>
-      <c r="Y5" s="44" t="str">
+      <c r="Y5" s="24" t="str">
         <f>IF(_tag_day_all!V2="","",_tag_day_all!V2)</f>
         <v/>
       </c>
-      <c r="Z5" s="44" t="str">
+      <c r="Z5" s="24" t="str">
         <f>IF(_tag_day_all!W2="","",_tag_day_all!W2)</f>
         <v/>
       </c>
-      <c r="AA5" s="44" t="str">
+      <c r="AA5" s="24" t="str">
         <f>IF(_tag_day_all!X2="","",_tag_day_all!X2)</f>
         <v/>
       </c>
-      <c r="AB5" s="45" t="str">
+      <c r="AB5" s="44" t="str">
         <f>IF(_tag_day_all!Y2="","",_tag_day_all!Y2)</f>
         <v/>
       </c>
-      <c r="AC5" s="43" t="str">
+      <c r="AC5" s="23" t="str">
         <f>IF(_tag_day_all!Z2="","",_tag_day_all!Z2)</f>
         <v/>
       </c>
-      <c r="AD5" s="43" t="str">
+      <c r="AD5" s="23" t="str">
         <f>IF(_tag_day_all!AA2="","",_tag_day_all!AA2)</f>
         <v/>
       </c>
-      <c r="AE5" s="44" t="str">
+      <c r="AE5" s="24" t="str">
         <f>IF(_tag_day_all!AB2="","",_tag_day_all!AB2)</f>
         <v/>
       </c>
-      <c r="AF5" s="43" t="str">
+      <c r="AF5" s="23" t="str">
         <f>IF(_tag_day_all!AC2="","",_tag_day_all!AC2)</f>
         <v/>
       </c>
-      <c r="AG5" s="43" t="str">
+      <c r="AG5" s="23" t="str">
         <f>IF(_tag_day_all!AD2="","",_tag_day_all!AD2)</f>
         <v/>
       </c>
-      <c r="AH5" s="43" t="str">
+      <c r="AH5" s="23" t="str">
         <f>IF(_tag_day_all!AE2="","",_tag_day_all!AE2)</f>
         <v/>
       </c>
-      <c r="AI5" s="43" t="str">
+      <c r="AI5" s="23" t="str">
         <f>IF(_tag_day_all!AF2="","",_tag_day_all!AF2)</f>
         <v/>
       </c>
-      <c r="AJ5" s="43" t="str">
+      <c r="AJ5" s="23" t="str">
         <f>IF(_tag_day_all!AG2="","",_tag_day_all!AG2)</f>
         <v/>
       </c>
-      <c r="AK5" s="44" t="str">
+      <c r="AK5" s="24" t="str">
         <f>IF(_tag_day_all!AH2="","",_tag_day_all!AH2)</f>
         <v/>
       </c>
-      <c r="AL5" s="44" t="str">
+      <c r="AL5" s="24" t="str">
         <f>IF(_tag_day_all!AI2="","",_tag_day_all!AI2)</f>
         <v/>
       </c>
-      <c r="AM5" s="44" t="str">
+      <c r="AM5" s="24" t="str">
         <f>IF(_tag_day_all!AJ2="","",_tag_day_all!AJ2)</f>
         <v/>
       </c>
-      <c r="AN5" s="44" t="str">
+      <c r="AN5" s="24" t="str">
         <f>IF(_tag_day_all!AK2="","",_tag_day_all!AK2)</f>
         <v/>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="39">
+    <row r="6" spans="1:40">
+      <c r="A6" s="19">
         <v>2</v>
       </c>
-      <c r="B6" s="40" t="str">
+      <c r="B6" s="20" t="str">
         <f>IF(_tag_day_all!A3="","",_tag_day_all!A3)</f>
         <v/>
       </c>
-      <c r="C6" s="41" t="str">
+      <c r="C6" s="21" t="str">
         <f>IF(_tag_day_all!B3="","",_tag_day_all!B3)</f>
         <v/>
       </c>
-      <c r="D6" s="42" t="str">
+      <c r="D6" s="22" t="str">
         <f>IF(_tag_day_all!C3="","",_tag_day_all!C3)</f>
         <v/>
       </c>
-      <c r="E6" s="43" t="str">
+      <c r="E6" s="23" t="str">
         <f>IF(_tag_day_all!D3="","",_tag_day_all!D3*10000)</f>
         <v/>
       </c>
-      <c r="F6" s="44" t="str">
+      <c r="F6" s="24" t="str">
         <f>IF(_tag_day_all!E3="","",_tag_day_all!E3)</f>
         <v/>
       </c>
-      <c r="G6" s="43" t="str">
+      <c r="G6" s="23" t="str">
         <f>IF(_tag_day_all!F3="","",_tag_day_all!F3)</f>
         <v/>
       </c>
-      <c r="H6" s="44" t="str">
+      <c r="H6" s="24" t="str">
         <f>IF(_tag_day_all!G3="","",_tag_day_all!G3)</f>
         <v/>
       </c>
-      <c r="I6" s="44" t="str">
+      <c r="I6" s="24" t="str">
         <f>IF(_tag_day_all!H3="","",_tag_day_all!H3)</f>
         <v/>
       </c>
-      <c r="J6" s="45" t="str">
+      <c r="J6" s="44" t="str">
         <f>IF(_tag_day_all!I3="","",_tag_day_all!I3)</f>
         <v/>
       </c>
-      <c r="K6" s="45" t="str">
+      <c r="K6" s="44" t="str">
         <f>IF(_tag_day_all!J3="","",_tag_day_all!J3)</f>
         <v/>
       </c>
-      <c r="L6" s="44" t="str">
+      <c r="L6" s="24" t="str">
         <f>IF(_tag_day_all!K3="","",_tag_day_all!K3)</f>
         <v/>
       </c>
-      <c r="M6" s="44" t="str">
+      <c r="M6" s="24" t="str">
         <f>IF(_tag_day_all!L3="","",_tag_day_all!L3)</f>
         <v/>
       </c>
-      <c r="N6" s="45" t="str">
+      <c r="N6" s="44" t="str">
         <f>IF(_tag_day_all!M3="","",_tag_day_all!M3)</f>
         <v/>
       </c>
-      <c r="O6" s="44" t="str">
+      <c r="O6" s="24" t="str">
         <f>IF(_tag_day_all!N3="","",_tag_day_all!N3*100)</f>
         <v/>
       </c>
-      <c r="P6" s="44" t="str">
+      <c r="P6" s="24" t="str">
         <f>IF(_tag_day_all!AL3="","",_tag_day_all!AL3)</f>
         <v/>
       </c>
-      <c r="Q6" s="43" t="str">
+      <c r="Q6" s="23" t="str">
         <f>IF(_tag_day_all!AM3="","",_tag_day_all!AM3)</f>
         <v/>
       </c>
-      <c r="R6" s="43" t="str">
+      <c r="R6" s="23" t="str">
         <f>IF(_tag_day_all!O3="","",_tag_day_all!O3)</f>
         <v/>
       </c>
-      <c r="S6" s="43" t="str">
+      <c r="S6" s="23" t="str">
         <f>IF(_tag_day_all!P3="","",_tag_day_all!P3)</f>
         <v/>
       </c>
-      <c r="T6" s="43" t="str">
+      <c r="T6" s="23" t="str">
         <f>IF(_tag_day_all!Q3="","",_tag_day_all!Q3)</f>
         <v/>
       </c>
-      <c r="U6" s="43" t="str">
+      <c r="U6" s="23" t="str">
         <f>IF(_tag_day_all!R3="","",_tag_day_all!R3)</f>
         <v/>
       </c>
-      <c r="V6" s="43" t="str">
+      <c r="V6" s="23" t="str">
         <f>IF(_tag_day_all!S3="","",_tag_day_all!S3)</f>
         <v/>
       </c>
-      <c r="W6" s="43" t="str">
+      <c r="W6" s="23" t="str">
         <f>IF(_tag_day_all!T3="","",_tag_day_all!T3)</f>
         <v/>
       </c>
-      <c r="X6" s="44" t="str">
+      <c r="X6" s="24" t="str">
         <f>IF(_tag_day_all!U3="","",_tag_day_all!U3)</f>
         <v/>
       </c>
-      <c r="Y6" s="44" t="str">
+      <c r="Y6" s="24" t="str">
         <f>IF(_tag_day_all!V3="","",_tag_day_all!V3)</f>
         <v/>
       </c>
-      <c r="Z6" s="44" t="str">
+      <c r="Z6" s="24" t="str">
         <f>IF(_tag_day_all!W3="","",_tag_day_all!W3)</f>
         <v/>
       </c>
-      <c r="AA6" s="44" t="str">
+      <c r="AA6" s="24" t="str">
         <f>IF(_tag_day_all!X3="","",_tag_day_all!X3)</f>
         <v/>
       </c>
-      <c r="AB6" s="45" t="str">
+      <c r="AB6" s="44" t="str">
         <f>IF(_tag_day_all!Y3="","",_tag_day_all!Y3)</f>
         <v/>
       </c>
-      <c r="AC6" s="43" t="str">
+      <c r="AC6" s="23" t="str">
         <f>IF(_tag_day_all!Z3="","",_tag_day_all!Z3)</f>
         <v/>
       </c>
-      <c r="AD6" s="43" t="str">
+      <c r="AD6" s="23" t="str">
         <f>IF(_tag_day_all!AA3="","",_tag_day_all!AA3)</f>
         <v/>
       </c>
-      <c r="AE6" s="44" t="str">
+      <c r="AE6" s="24" t="str">
         <f>IF(_tag_day_all!AB3="","",_tag_day_all!AB3)</f>
         <v/>
       </c>
-      <c r="AF6" s="43" t="str">
+      <c r="AF6" s="23" t="str">
         <f>IF(_tag_day_all!AC3="","",_tag_day_all!AC3)</f>
         <v/>
       </c>
-      <c r="AG6" s="43" t="str">
+      <c r="AG6" s="23" t="str">
         <f>IF(_tag_day_all!AD3="","",_tag_day_all!AD3)</f>
         <v/>
       </c>
-      <c r="AH6" s="43" t="str">
+      <c r="AH6" s="23" t="str">
         <f>IF(_tag_day_all!AE3="","",_tag_day_all!AE3)</f>
         <v/>
       </c>
-      <c r="AI6" s="43" t="str">
+      <c r="AI6" s="23" t="str">
         <f>IF(_tag_day_all!AF3="","",_tag_day_all!AF3)</f>
         <v/>
       </c>
-      <c r="AJ6" s="43" t="str">
+      <c r="AJ6" s="23" t="str">
         <f>IF(_tag_day_all!AG3="","",_tag_day_all!AG3)</f>
         <v/>
       </c>
-      <c r="AK6" s="44" t="str">
+      <c r="AK6" s="24" t="str">
         <f>IF(_tag_day_all!AH3="","",_tag_day_all!AH3)</f>
         <v/>
       </c>
-      <c r="AL6" s="44" t="str">
+      <c r="AL6" s="24" t="str">
         <f>IF(_tag_day_all!AI3="","",_tag_day_all!AI3)</f>
         <v/>
       </c>
-      <c r="AM6" s="44" t="str">
+      <c r="AM6" s="24" t="str">
         <f>IF(_tag_day_all!AJ3="","",_tag_day_all!AJ3)</f>
         <v/>
       </c>
-      <c r="AN6" s="44" t="str">
+      <c r="AN6" s="24" t="str">
         <f>IF(_tag_day_all!AK3="","",_tag_day_all!AK3)</f>
         <v/>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="39">
+    <row r="7" spans="1:40">
+      <c r="A7" s="19">
         <v>3</v>
       </c>
-      <c r="B7" s="40" t="str">
+      <c r="B7" s="20" t="str">
         <f>IF(_tag_day_all!A4="","",_tag_day_all!A4)</f>
         <v/>
       </c>
-      <c r="C7" s="41" t="str">
+      <c r="C7" s="21" t="str">
         <f>IF(_tag_day_all!B4="","",_tag_day_all!B4)</f>
         <v/>
       </c>
-      <c r="D7" s="42" t="str">
+      <c r="D7" s="22" t="str">
         <f>IF(_tag_day_all!C4="","",_tag_day_all!C4)</f>
         <v/>
       </c>
-      <c r="E7" s="43" t="str">
+      <c r="E7" s="23" t="str">
         <f>IF(_tag_day_all!D4="","",_tag_day_all!D4*10000)</f>
         <v/>
       </c>
-      <c r="F7" s="44" t="str">
+      <c r="F7" s="24" t="str">
         <f>IF(_tag_day_all!E4="","",_tag_day_all!E4)</f>
         <v/>
       </c>
-      <c r="G7" s="43" t="str">
+      <c r="G7" s="23" t="str">
         <f>IF(_tag_day_all!F4="","",_tag_day_all!F4)</f>
         <v/>
       </c>
-      <c r="H7" s="44" t="str">
+      <c r="H7" s="24" t="str">
         <f>IF(_tag_day_all!G4="","",_tag_day_all!G4)</f>
         <v/>
       </c>
-      <c r="I7" s="44" t="str">
+      <c r="I7" s="24" t="str">
         <f>IF(_tag_day_all!H4="","",_tag_day_all!H4)</f>
         <v/>
       </c>
-      <c r="J7" s="45" t="str">
+      <c r="J7" s="44" t="str">
         <f>IF(_tag_day_all!I4="","",_tag_day_all!I4)</f>
         <v/>
       </c>
-      <c r="K7" s="45" t="str">
+      <c r="K7" s="44" t="str">
         <f>IF(_tag_day_all!J4="","",_tag_day_all!J4)</f>
         <v/>
       </c>
-      <c r="L7" s="44" t="str">
+      <c r="L7" s="24" t="str">
         <f>IF(_tag_day_all!K4="","",_tag_day_all!K4)</f>
         <v/>
       </c>
-      <c r="M7" s="44" t="str">
+      <c r="M7" s="24" t="str">
         <f>IF(_tag_day_all!L4="","",_tag_day_all!L4)</f>
         <v/>
       </c>
-      <c r="N7" s="45" t="str">
+      <c r="N7" s="44" t="str">
         <f>IF(_tag_day_all!M4="","",_tag_day_all!M4)</f>
         <v/>
       </c>
-      <c r="O7" s="44" t="str">
+      <c r="O7" s="24" t="str">
         <f>IF(_tag_day_all!N4="","",_tag_day_all!N4*100)</f>
         <v/>
       </c>
-      <c r="P7" s="44" t="str">
+      <c r="P7" s="24" t="str">
         <f>IF(_tag_day_all!AL4="","",_tag_day_all!AL4)</f>
         <v/>
       </c>
-      <c r="Q7" s="43" t="str">
+      <c r="Q7" s="23" t="str">
         <f>IF(_tag_day_all!AM4="","",_tag_day_all!AM4)</f>
         <v/>
       </c>
-      <c r="R7" s="43" t="str">
+      <c r="R7" s="23" t="str">
         <f>IF(_tag_day_all!O4="","",_tag_day_all!O4)</f>
         <v/>
       </c>
-      <c r="S7" s="43" t="str">
+      <c r="S7" s="23" t="str">
         <f>IF(_tag_day_all!P4="","",_tag_day_all!P4)</f>
         <v/>
       </c>
-      <c r="T7" s="43" t="str">
+      <c r="T7" s="23" t="str">
         <f>IF(_tag_day_all!Q4="","",_tag_day_all!Q4)</f>
         <v/>
       </c>
-      <c r="U7" s="43" t="str">
+      <c r="U7" s="23" t="str">
         <f>IF(_tag_day_all!R4="","",_tag_day_all!R4)</f>
         <v/>
       </c>
-      <c r="V7" s="43" t="str">
+      <c r="V7" s="23" t="str">
         <f>IF(_tag_day_all!S4="","",_tag_day_all!S4)</f>
         <v/>
       </c>
-      <c r="W7" s="43" t="str">
+      <c r="W7" s="23" t="str">
         <f>IF(_tag_day_all!T4="","",_tag_day_all!T4)</f>
         <v/>
       </c>
-      <c r="X7" s="44" t="str">
+      <c r="X7" s="24" t="str">
         <f>IF(_tag_day_all!U4="","",_tag_day_all!U4)</f>
         <v/>
       </c>
-      <c r="Y7" s="44" t="str">
+      <c r="Y7" s="24" t="str">
         <f>IF(_tag_day_all!V4="","",_tag_day_all!V4)</f>
         <v/>
       </c>
-      <c r="Z7" s="44" t="str">
+      <c r="Z7" s="24" t="str">
         <f>IF(_tag_day_all!W4="","",_tag_day_all!W4)</f>
         <v/>
       </c>
-      <c r="AA7" s="44" t="str">
+      <c r="AA7" s="24" t="str">
         <f>IF(_tag_day_all!X4="","",_tag_day_all!X4)</f>
         <v/>
       </c>
-      <c r="AB7" s="45" t="str">
+      <c r="AB7" s="44" t="str">
         <f>IF(_tag_day_all!Y4="","",_tag_day_all!Y4)</f>
         <v/>
       </c>
-      <c r="AC7" s="43" t="str">
+      <c r="AC7" s="23" t="str">
         <f>IF(_tag_day_all!Z4="","",_tag_day_all!Z4)</f>
         <v/>
       </c>
-      <c r="AD7" s="43" t="str">
+      <c r="AD7" s="23" t="str">
         <f>IF(_tag_day_all!AA4="","",_tag_day_all!AA4)</f>
         <v/>
       </c>
-      <c r="AE7" s="44" t="str">
+      <c r="AE7" s="24" t="str">
         <f>IF(_tag_day_all!AB4="","",_tag_day_all!AB4)</f>
         <v/>
       </c>
-      <c r="AF7" s="43" t="str">
+      <c r="AF7" s="23" t="str">
         <f>IF(_tag_day_all!AC4="","",_tag_day_all!AC4)</f>
         <v/>
       </c>
-      <c r="AG7" s="43" t="str">
+      <c r="AG7" s="23" t="str">
         <f>IF(_tag_day_all!AD4="","",_tag_day_all!AD4)</f>
         <v/>
       </c>
-      <c r="AH7" s="43" t="str">
+      <c r="AH7" s="23" t="str">
         <f>IF(_tag_day_all!AE4="","",_tag_day_all!AE4)</f>
         <v/>
       </c>
-      <c r="AI7" s="43" t="str">
+      <c r="AI7" s="23" t="str">
         <f>IF(_tag_day_all!AF4="","",_tag_day_all!AF4)</f>
         <v/>
       </c>
-      <c r="AJ7" s="43" t="str">
+      <c r="AJ7" s="23" t="str">
         <f>IF(_tag_day_all!AG4="","",_tag_day_all!AG4)</f>
         <v/>
       </c>
-      <c r="AK7" s="44" t="str">
+      <c r="AK7" s="24" t="str">
         <f>IF(_tag_day_all!AH4="","",_tag_day_all!AH4)</f>
         <v/>
       </c>
-      <c r="AL7" s="44" t="str">
+      <c r="AL7" s="24" t="str">
         <f>IF(_tag_day_all!AI4="","",_tag_day_all!AI4)</f>
         <v/>
       </c>
-      <c r="AM7" s="44" t="str">
+      <c r="AM7" s="24" t="str">
         <f>IF(_tag_day_all!AJ4="","",_tag_day_all!AJ4)</f>
         <v/>
       </c>
-      <c r="AN7" s="44" t="str">
+      <c r="AN7" s="24" t="str">
         <f>IF(_tag_day_all!AK4="","",_tag_day_all!AK4)</f>
         <v/>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="39">
+    <row r="8" spans="1:40">
+      <c r="A8" s="19">
         <v>4</v>
       </c>
-      <c r="B8" s="40" t="str">
+      <c r="B8" s="20" t="str">
         <f>IF(_tag_day_all!A5="","",_tag_day_all!A5)</f>
         <v/>
       </c>
-      <c r="C8" s="41" t="str">
+      <c r="C8" s="21" t="str">
         <f>IF(_tag_day_all!B5="","",_tag_day_all!B5)</f>
         <v/>
       </c>
-      <c r="D8" s="42" t="str">
+      <c r="D8" s="22" t="str">
         <f>IF(_tag_day_all!C5="","",_tag_day_all!C5)</f>
         <v/>
       </c>
-      <c r="E8" s="43" t="str">
+      <c r="E8" s="23" t="str">
         <f>IF(_tag_day_all!D5="","",_tag_day_all!D5*10000)</f>
         <v/>
       </c>
-      <c r="F8" s="44" t="str">
+      <c r="F8" s="24" t="str">
         <f>IF(_tag_day_all!E5="","",_tag_day_all!E5)</f>
         <v/>
       </c>
-      <c r="G8" s="43" t="str">
+      <c r="G8" s="23" t="str">
         <f>IF(_tag_day_all!F5="","",_tag_day_all!F5)</f>
         <v/>
       </c>
-      <c r="H8" s="44" t="str">
+      <c r="H8" s="24" t="str">
         <f>IF(_tag_day_all!G5="","",_tag_day_all!G5)</f>
         <v/>
       </c>
-      <c r="I8" s="44" t="str">
+      <c r="I8" s="24" t="str">
         <f>IF(_tag_day_all!H5="","",_tag_day_all!H5)</f>
         <v/>
       </c>
-      <c r="J8" s="45" t="str">
+      <c r="J8" s="44" t="str">
         <f>IF(_tag_day_all!I5="","",_tag_day_all!I5)</f>
         <v/>
       </c>
-      <c r="K8" s="45" t="str">
+      <c r="K8" s="44" t="str">
         <f>IF(_tag_day_all!J5="","",_tag_day_all!J5)</f>
         <v/>
       </c>
-      <c r="L8" s="44" t="str">
+      <c r="L8" s="24" t="str">
         <f>IF(_tag_day_all!K5="","",_tag_day_all!K5)</f>
         <v/>
       </c>
-      <c r="M8" s="44" t="str">
+      <c r="M8" s="24" t="str">
         <f>IF(_tag_day_all!L5="","",_tag_day_all!L5)</f>
         <v/>
       </c>
-      <c r="N8" s="45" t="str">
+      <c r="N8" s="44" t="str">
         <f>IF(_tag_day_all!M5="","",_tag_day_all!M5)</f>
         <v/>
       </c>
-      <c r="O8" s="44" t="str">
+      <c r="O8" s="24" t="str">
         <f>IF(_tag_day_all!N5="","",_tag_day_all!N5*100)</f>
         <v/>
       </c>
-      <c r="P8" s="44" t="str">
+      <c r="P8" s="24" t="str">
         <f>IF(_tag_day_all!AL5="","",_tag_day_all!AL5)</f>
         <v/>
       </c>
-      <c r="Q8" s="43" t="str">
+      <c r="Q8" s="23" t="str">
         <f>IF(_tag_day_all!AM5="","",_tag_day_all!AM5)</f>
         <v/>
       </c>
-      <c r="R8" s="43" t="str">
+      <c r="R8" s="23" t="str">
         <f>IF(_tag_day_all!O5="","",_tag_day_all!O5)</f>
         <v/>
       </c>
-      <c r="S8" s="43" t="str">
+      <c r="S8" s="23" t="str">
         <f>IF(_tag_day_all!P5="","",_tag_day_all!P5)</f>
         <v/>
       </c>
-      <c r="T8" s="43" t="str">
+      <c r="T8" s="23" t="str">
         <f>IF(_tag_day_all!Q5="","",_tag_day_all!Q5)</f>
         <v/>
       </c>
-      <c r="U8" s="43" t="str">
+      <c r="U8" s="23" t="str">
         <f>IF(_tag_day_all!R5="","",_tag_day_all!R5)</f>
         <v/>
       </c>
-      <c r="V8" s="43" t="str">
+      <c r="V8" s="23" t="str">
         <f>IF(_tag_day_all!S5="","",_tag_day_all!S5)</f>
         <v/>
       </c>
-      <c r="W8" s="43" t="str">
+      <c r="W8" s="23" t="str">
         <f>IF(_tag_day_all!T5="","",_tag_day_all!T5)</f>
         <v/>
       </c>
-      <c r="X8" s="44" t="str">
+      <c r="X8" s="24" t="str">
         <f>IF(_tag_day_all!U5="","",_tag_day_all!U5)</f>
         <v/>
       </c>
-      <c r="Y8" s="44" t="str">
+      <c r="Y8" s="24" t="str">
         <f>IF(_tag_day_all!V5="","",_tag_day_all!V5)</f>
         <v/>
       </c>
-      <c r="Z8" s="44" t="str">
+      <c r="Z8" s="24" t="str">
         <f>IF(_tag_day_all!W5="","",_tag_day_all!W5)</f>
         <v/>
       </c>
-      <c r="AA8" s="44" t="str">
+      <c r="AA8" s="24" t="str">
         <f>IF(_tag_day_all!X5="","",_tag_day_all!X5)</f>
         <v/>
       </c>
-      <c r="AB8" s="45" t="str">
+      <c r="AB8" s="44" t="str">
         <f>IF(_tag_day_all!Y5="","",_tag_day_all!Y5)</f>
         <v/>
       </c>
-      <c r="AC8" s="43" t="str">
+      <c r="AC8" s="23" t="str">
         <f>IF(_tag_day_all!Z5="","",_tag_day_all!Z5)</f>
         <v/>
       </c>
-      <c r="AD8" s="43" t="str">
+      <c r="AD8" s="23" t="str">
         <f>IF(_tag_day_all!AA5="","",_tag_day_all!AA5)</f>
         <v/>
       </c>
-      <c r="AE8" s="44" t="str">
+      <c r="AE8" s="24" t="str">
         <f>IF(_tag_day_all!AB5="","",_tag_day_all!AB5)</f>
         <v/>
       </c>
-      <c r="AF8" s="43" t="str">
+      <c r="AF8" s="23" t="str">
         <f>IF(_tag_day_all!AC5="","",_tag_day_all!AC5)</f>
         <v/>
       </c>
-      <c r="AG8" s="43" t="str">
+      <c r="AG8" s="23" t="str">
         <f>IF(_tag_day_all!AD5="","",_tag_day_all!AD5)</f>
         <v/>
       </c>
-      <c r="AH8" s="43" t="str">
+      <c r="AH8" s="23" t="str">
         <f>IF(_tag_day_all!AE5="","",_tag_day_all!AE5)</f>
         <v/>
       </c>
-      <c r="AI8" s="43" t="str">
+      <c r="AI8" s="23" t="str">
         <f>IF(_tag_day_all!AF5="","",_tag_day_all!AF5)</f>
         <v/>
       </c>
-      <c r="AJ8" s="43" t="str">
+      <c r="AJ8" s="23" t="str">
         <f>IF(_tag_day_all!AG5="","",_tag_day_all!AG5)</f>
         <v/>
       </c>
-      <c r="AK8" s="44" t="str">
+      <c r="AK8" s="24" t="str">
         <f>IF(_tag_day_all!AH5="","",_tag_day_all!AH5)</f>
         <v/>
       </c>
-      <c r="AL8" s="44" t="str">
+      <c r="AL8" s="24" t="str">
         <f>IF(_tag_day_all!AI5="","",_tag_day_all!AI5)</f>
         <v/>
       </c>
-      <c r="AM8" s="44" t="str">
+      <c r="AM8" s="24" t="str">
         <f>IF(_tag_day_all!AJ5="","",_tag_day_all!AJ5)</f>
         <v/>
       </c>
-      <c r="AN8" s="44" t="str">
+      <c r="AN8" s="24" t="str">
         <f>IF(_tag_day_all!AK5="","",_tag_day_all!AK5)</f>
         <v/>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="39">
+    <row r="9" spans="1:40">
+      <c r="A9" s="19">
         <v>5</v>
       </c>
-      <c r="B9" s="40" t="str">
+      <c r="B9" s="20" t="str">
         <f>IF(_tag_day_all!A6="","",_tag_day_all!A6)</f>
         <v/>
       </c>
-      <c r="C9" s="41" t="str">
+      <c r="C9" s="21" t="str">
         <f>IF(_tag_day_all!B6="","",_tag_day_all!B6)</f>
         <v/>
       </c>
-      <c r="D9" s="42" t="str">
+      <c r="D9" s="22" t="str">
         <f>IF(_tag_day_all!C6="","",_tag_day_all!C6)</f>
         <v/>
       </c>
-      <c r="E9" s="43" t="str">
+      <c r="E9" s="23" t="str">
         <f>IF(_tag_day_all!D6="","",_tag_day_all!D6*10000)</f>
         <v/>
       </c>
-      <c r="F9" s="44" t="str">
+      <c r="F9" s="24" t="str">
         <f>IF(_tag_day_all!E6="","",_tag_day_all!E6)</f>
         <v/>
       </c>
-      <c r="G9" s="43" t="str">
+      <c r="G9" s="23" t="str">
         <f>IF(_tag_day_all!F6="","",_tag_day_all!F6)</f>
         <v/>
       </c>
-      <c r="H9" s="44" t="str">
+      <c r="H9" s="24" t="str">
         <f>IF(_tag_day_all!G6="","",_tag_day_all!G6)</f>
         <v/>
       </c>
-      <c r="I9" s="44" t="str">
+      <c r="I9" s="24" t="str">
         <f>IF(_tag_day_all!H6="","",_tag_day_all!H6)</f>
         <v/>
       </c>
-      <c r="J9" s="45" t="str">
+      <c r="J9" s="44" t="str">
         <f>IF(_tag_day_all!I6="","",_tag_day_all!I6)</f>
         <v/>
       </c>
-      <c r="K9" s="45" t="str">
+      <c r="K9" s="44" t="str">
         <f>IF(_tag_day_all!J6="","",_tag_day_all!J6)</f>
         <v/>
       </c>
-      <c r="L9" s="44" t="str">
+      <c r="L9" s="24" t="str">
         <f>IF(_tag_day_all!K6="","",_tag_day_all!K6)</f>
         <v/>
       </c>
-      <c r="M9" s="44" t="str">
+      <c r="M9" s="24" t="str">
         <f>IF(_tag_day_all!L6="","",_tag_day_all!L6)</f>
         <v/>
       </c>
-      <c r="N9" s="45" t="str">
+      <c r="N9" s="44" t="str">
         <f>IF(_tag_day_all!M6="","",_tag_day_all!M6)</f>
         <v/>
       </c>
-      <c r="O9" s="44" t="str">
+      <c r="O9" s="24" t="str">
         <f>IF(_tag_day_all!N6="","",_tag_day_all!N6*100)</f>
         <v/>
       </c>
-      <c r="P9" s="44" t="str">
+      <c r="P9" s="24" t="str">
         <f>IF(_tag_day_all!AL6="","",_tag_day_all!AL6)</f>
         <v/>
       </c>
-      <c r="Q9" s="43" t="str">
+      <c r="Q9" s="23" t="str">
         <f>IF(_tag_day_all!AM6="","",_tag_day_all!AM6)</f>
         <v/>
       </c>
-      <c r="R9" s="43" t="str">
+      <c r="R9" s="23" t="str">
         <f>IF(_tag_day_all!O6="","",_tag_day_all!O6)</f>
         <v/>
       </c>
-      <c r="S9" s="43" t="str">
+      <c r="S9" s="23" t="str">
         <f>IF(_tag_day_all!P6="","",_tag_day_all!P6)</f>
         <v/>
       </c>
-      <c r="T9" s="43" t="str">
+      <c r="T9" s="23" t="str">
         <f>IF(_tag_day_all!Q6="","",_tag_day_all!Q6)</f>
         <v/>
       </c>
-      <c r="U9" s="43" t="str">
+      <c r="U9" s="23" t="str">
         <f>IF(_tag_day_all!R6="","",_tag_day_all!R6)</f>
         <v/>
       </c>
-      <c r="V9" s="43" t="str">
+      <c r="V9" s="23" t="str">
         <f>IF(_tag_day_all!S6="","",_tag_day_all!S6)</f>
         <v/>
       </c>
-      <c r="W9" s="43" t="str">
+      <c r="W9" s="23" t="str">
         <f>IF(_tag_day_all!T6="","",_tag_day_all!T6)</f>
         <v/>
       </c>
-      <c r="X9" s="44" t="str">
+      <c r="X9" s="24" t="str">
         <f>IF(_tag_day_all!U6="","",_tag_day_all!U6)</f>
         <v/>
       </c>
-      <c r="Y9" s="44" t="str">
+      <c r="Y9" s="24" t="str">
         <f>IF(_tag_day_all!V6="","",_tag_day_all!V6)</f>
         <v/>
       </c>
-      <c r="Z9" s="44" t="str">
+      <c r="Z9" s="24" t="str">
         <f>IF(_tag_day_all!W6="","",_tag_day_all!W6)</f>
         <v/>
       </c>
-      <c r="AA9" s="44" t="str">
+      <c r="AA9" s="24" t="str">
         <f>IF(_tag_day_all!X6="","",_tag_day_all!X6)</f>
         <v/>
       </c>
-      <c r="AB9" s="45" t="str">
+      <c r="AB9" s="44" t="str">
         <f>IF(_tag_day_all!Y6="","",_tag_day_all!Y6)</f>
         <v/>
       </c>
-      <c r="AC9" s="43" t="str">
+      <c r="AC9" s="23" t="str">
         <f>IF(_tag_day_all!Z6="","",_tag_day_all!Z6)</f>
         <v/>
       </c>
-      <c r="AD9" s="43" t="str">
+      <c r="AD9" s="23" t="str">
         <f>IF(_tag_day_all!AA6="","",_tag_day_all!AA6)</f>
         <v/>
       </c>
-      <c r="AE9" s="44" t="str">
+      <c r="AE9" s="24" t="str">
         <f>IF(_tag_day_all!AB6="","",_tag_day_all!AB6)</f>
         <v/>
       </c>
-      <c r="AF9" s="43" t="str">
+      <c r="AF9" s="23" t="str">
         <f>IF(_tag_day_all!AC6="","",_tag_day_all!AC6)</f>
         <v/>
       </c>
-      <c r="AG9" s="43" t="str">
+      <c r="AG9" s="23" t="str">
         <f>IF(_tag_day_all!AD6="","",_tag_day_all!AD6)</f>
         <v/>
       </c>
-      <c r="AH9" s="43" t="str">
+      <c r="AH9" s="23" t="str">
         <f>IF(_tag_day_all!AE6="","",_tag_day_all!AE6)</f>
         <v/>
       </c>
-      <c r="AI9" s="43" t="str">
+      <c r="AI9" s="23" t="str">
         <f>IF(_tag_day_all!AF6="","",_tag_day_all!AF6)</f>
         <v/>
       </c>
-      <c r="AJ9" s="43" t="str">
+      <c r="AJ9" s="23" t="str">
         <f>IF(_tag_day_all!AG6="","",_tag_day_all!AG6)</f>
         <v/>
       </c>
-      <c r="AK9" s="44" t="str">
+      <c r="AK9" s="24" t="str">
         <f>IF(_tag_day_all!AH6="","",_tag_day_all!AH6)</f>
         <v/>
       </c>
-      <c r="AL9" s="44" t="str">
+      <c r="AL9" s="24" t="str">
         <f>IF(_tag_day_all!AI6="","",_tag_day_all!AI6)</f>
         <v/>
       </c>
-      <c r="AM9" s="44" t="str">
+      <c r="AM9" s="24" t="str">
         <f>IF(_tag_day_all!AJ6="","",_tag_day_all!AJ6)</f>
         <v/>
       </c>
-      <c r="AN9" s="44" t="str">
+      <c r="AN9" s="24" t="str">
         <f>IF(_tag_day_all!AK6="","",_tag_day_all!AK6)</f>
         <v/>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="39">
+    <row r="10" spans="1:40">
+      <c r="A10" s="19">
         <v>6</v>
       </c>
-      <c r="B10" s="40" t="str">
+      <c r="B10" s="20" t="str">
         <f>IF(_tag_day_all!A7="","",_tag_day_all!A7)</f>
         <v/>
       </c>
-      <c r="C10" s="41" t="str">
+      <c r="C10" s="21" t="str">
         <f>IF(_tag_day_all!B7="","",_tag_day_all!B7)</f>
         <v/>
       </c>
-      <c r="D10" s="42" t="str">
+      <c r="D10" s="22" t="str">
         <f>IF(_tag_day_all!C7="","",_tag_day_all!C7)</f>
         <v/>
       </c>
-      <c r="E10" s="43" t="str">
+      <c r="E10" s="23" t="str">
         <f>IF(_tag_day_all!D7="","",_tag_day_all!D7*10000)</f>
         <v/>
       </c>
-      <c r="F10" s="44" t="str">
+      <c r="F10" s="24" t="str">
         <f>IF(_tag_day_all!E7="","",_tag_day_all!E7)</f>
         <v/>
       </c>
-      <c r="G10" s="43" t="str">
+      <c r="G10" s="23" t="str">
         <f>IF(_tag_day_all!F7="","",_tag_day_all!F7)</f>
         <v/>
       </c>
-      <c r="H10" s="44" t="str">
+      <c r="H10" s="24" t="str">
         <f>IF(_tag_day_all!G7="","",_tag_day_all!G7)</f>
         <v/>
       </c>
-      <c r="I10" s="44" t="str">
+      <c r="I10" s="24" t="str">
         <f>IF(_tag_day_all!H7="","",_tag_day_all!H7)</f>
         <v/>
       </c>
-      <c r="J10" s="45" t="str">
+      <c r="J10" s="44" t="str">
         <f>IF(_tag_day_all!I7="","",_tag_day_all!I7)</f>
         <v/>
       </c>
-      <c r="K10" s="45" t="str">
+      <c r="K10" s="44" t="str">
         <f>IF(_tag_day_all!J7="","",_tag_day_all!J7)</f>
         <v/>
       </c>
-      <c r="L10" s="44" t="str">
+      <c r="L10" s="24" t="str">
         <f>IF(_tag_day_all!K7="","",_tag_day_all!K7)</f>
         <v/>
       </c>
-      <c r="M10" s="44" t="str">
+      <c r="M10" s="24" t="str">
         <f>IF(_tag_day_all!L7="","",_tag_day_all!L7)</f>
         <v/>
       </c>
-      <c r="N10" s="45" t="str">
+      <c r="N10" s="44" t="str">
         <f>IF(_tag_day_all!M7="","",_tag_day_all!M7)</f>
         <v/>
       </c>
-      <c r="O10" s="44" t="str">
+      <c r="O10" s="24" t="str">
         <f>IF(_tag_day_all!N7="","",_tag_day_all!N7*100)</f>
         <v/>
       </c>
-      <c r="P10" s="44" t="str">
+      <c r="P10" s="24" t="str">
         <f>IF(_tag_day_all!AL7="","",_tag_day_all!AL7)</f>
         <v/>
       </c>
-      <c r="Q10" s="43" t="str">
+      <c r="Q10" s="23" t="str">
         <f>IF(_tag_day_all!AM7="","",_tag_day_all!AM7)</f>
         <v/>
       </c>
-      <c r="R10" s="43" t="str">
+      <c r="R10" s="23" t="str">
         <f>IF(_tag_day_all!O7="","",_tag_day_all!O7)</f>
         <v/>
       </c>
-      <c r="S10" s="43" t="str">
+      <c r="S10" s="23" t="str">
         <f>IF(_tag_day_all!P7="","",_tag_day_all!P7)</f>
         <v/>
       </c>
-      <c r="T10" s="43" t="str">
+      <c r="T10" s="23" t="str">
         <f>IF(_tag_day_all!Q7="","",_tag_day_all!Q7)</f>
         <v/>
       </c>
-      <c r="U10" s="43" t="str">
+      <c r="U10" s="23" t="str">
         <f>IF(_tag_day_all!R7="","",_tag_day_all!R7)</f>
         <v/>
       </c>
-      <c r="V10" s="43" t="str">
+      <c r="V10" s="23" t="str">
         <f>IF(_tag_day_all!S7="","",_tag_day_all!S7)</f>
         <v/>
       </c>
-      <c r="W10" s="43" t="str">
+      <c r="W10" s="23" t="str">
         <f>IF(_tag_day_all!T7="","",_tag_day_all!T7)</f>
         <v/>
       </c>
-      <c r="X10" s="44" t="str">
+      <c r="X10" s="24" t="str">
         <f>IF(_tag_day_all!U7="","",_tag_day_all!U7)</f>
         <v/>
       </c>
-      <c r="Y10" s="44" t="str">
+      <c r="Y10" s="24" t="str">
         <f>IF(_tag_day_all!V7="","",_tag_day_all!V7)</f>
         <v/>
       </c>
-      <c r="Z10" s="44" t="str">
+      <c r="Z10" s="24" t="str">
         <f>IF(_tag_day_all!W7="","",_tag_day_all!W7)</f>
         <v/>
       </c>
-      <c r="AA10" s="44" t="str">
+      <c r="AA10" s="24" t="str">
         <f>IF(_tag_day_all!X7="","",_tag_day_all!X7)</f>
         <v/>
       </c>
-      <c r="AB10" s="45" t="str">
+      <c r="AB10" s="44" t="str">
         <f>IF(_tag_day_all!Y7="","",_tag_day_all!Y7)</f>
         <v/>
       </c>
-      <c r="AC10" s="43" t="str">
+      <c r="AC10" s="23" t="str">
         <f>IF(_tag_day_all!Z7="","",_tag_day_all!Z7)</f>
         <v/>
       </c>
-      <c r="AD10" s="43" t="str">
+      <c r="AD10" s="23" t="str">
         <f>IF(_tag_day_all!AA7="","",_tag_day_all!AA7)</f>
         <v/>
       </c>
-      <c r="AE10" s="44" t="str">
+      <c r="AE10" s="24" t="str">
         <f>IF(_tag_day_all!AB7="","",_tag_day_all!AB7)</f>
         <v/>
       </c>
-      <c r="AF10" s="43" t="str">
+      <c r="AF10" s="23" t="str">
         <f>IF(_tag_day_all!AC7="","",_tag_day_all!AC7)</f>
         <v/>
       </c>
-      <c r="AG10" s="43" t="str">
+      <c r="AG10" s="23" t="str">
         <f>IF(_tag_day_all!AD7="","",_tag_day_all!AD7)</f>
         <v/>
       </c>
-      <c r="AH10" s="43" t="str">
+      <c r="AH10" s="23" t="str">
         <f>IF(_tag_day_all!AE7="","",_tag_day_all!AE7)</f>
         <v/>
       </c>
-      <c r="AI10" s="43" t="str">
+      <c r="AI10" s="23" t="str">
         <f>IF(_tag_day_all!AF7="","",_tag_day_all!AF7)</f>
         <v/>
       </c>
-      <c r="AJ10" s="43" t="str">
+      <c r="AJ10" s="23" t="str">
         <f>IF(_tag_day_all!AG7="","",_tag_day_all!AG7)</f>
         <v/>
       </c>
-      <c r="AK10" s="44" t="str">
+      <c r="AK10" s="24" t="str">
         <f>IF(_tag_day_all!AH7="","",_tag_day_all!AH7)</f>
         <v/>
       </c>
-      <c r="AL10" s="44" t="str">
+      <c r="AL10" s="24" t="str">
         <f>IF(_tag_day_all!AI7="","",_tag_day_all!AI7)</f>
         <v/>
       </c>
-      <c r="AM10" s="44" t="str">
+      <c r="AM10" s="24" t="str">
         <f>IF(_tag_day_all!AJ7="","",_tag_day_all!AJ7)</f>
         <v/>
       </c>
-      <c r="AN10" s="44" t="str">
+      <c r="AN10" s="24" t="str">
         <f>IF(_tag_day_all!AK7="","",_tag_day_all!AK7)</f>
         <v/>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="39">
+    <row r="11" spans="1:40">
+      <c r="A11" s="19">
         <v>7</v>
       </c>
-      <c r="B11" s="40" t="str">
+      <c r="B11" s="20" t="str">
         <f>IF(_tag_day_all!A8="","",_tag_day_all!A8)</f>
         <v/>
       </c>
-      <c r="C11" s="41" t="str">
+      <c r="C11" s="21" t="str">
         <f>IF(_tag_day_all!B8="","",_tag_day_all!B8)</f>
         <v/>
       </c>
-      <c r="D11" s="42" t="str">
+      <c r="D11" s="22" t="str">
         <f>IF(_tag_day_all!C8="","",_tag_day_all!C8)</f>
         <v/>
       </c>
-      <c r="E11" s="43" t="str">
+      <c r="E11" s="23" t="str">
         <f>IF(_tag_day_all!D8="","",_tag_day_all!D8*10000)</f>
         <v/>
       </c>
-      <c r="F11" s="44" t="str">
+      <c r="F11" s="24" t="str">
         <f>IF(_tag_day_all!E8="","",_tag_day_all!E8)</f>
         <v/>
       </c>
-      <c r="G11" s="43" t="str">
+      <c r="G11" s="23" t="str">
         <f>IF(_tag_day_all!F8="","",_tag_day_all!F8)</f>
         <v/>
       </c>
-      <c r="H11" s="44" t="str">
+      <c r="H11" s="24" t="str">
         <f>IF(_tag_day_all!G8="","",_tag_day_all!G8)</f>
         <v/>
       </c>
-      <c r="I11" s="44" t="str">
+      <c r="I11" s="24" t="str">
         <f>IF(_tag_day_all!H8="","",_tag_day_all!H8)</f>
         <v/>
       </c>
-      <c r="J11" s="45" t="str">
+      <c r="J11" s="44" t="str">
         <f>IF(_tag_day_all!I8="","",_tag_day_all!I8)</f>
         <v/>
       </c>
-      <c r="K11" s="45" t="str">
+      <c r="K11" s="44" t="str">
         <f>IF(_tag_day_all!J8="","",_tag_day_all!J8)</f>
         <v/>
       </c>
-      <c r="L11" s="44" t="str">
+      <c r="L11" s="24" t="str">
         <f>IF(_tag_day_all!K8="","",_tag_day_all!K8)</f>
         <v/>
       </c>
-      <c r="M11" s="44" t="str">
+      <c r="M11" s="24" t="str">
         <f>IF(_tag_day_all!L8="","",_tag_day_all!L8)</f>
         <v/>
       </c>
-      <c r="N11" s="45" t="str">
+      <c r="N11" s="44" t="str">
         <f>IF(_tag_day_all!M8="","",_tag_day_all!M8)</f>
         <v/>
       </c>
-      <c r="O11" s="44" t="str">
+      <c r="O11" s="24" t="str">
         <f>IF(_tag_day_all!N8="","",_tag_day_all!N8*100)</f>
         <v/>
       </c>
-      <c r="P11" s="44" t="str">
+      <c r="P11" s="24" t="str">
         <f>IF(_tag_day_all!AL8="","",_tag_day_all!AL8)</f>
         <v/>
       </c>
-      <c r="Q11" s="43" t="str">
+      <c r="Q11" s="23" t="str">
         <f>IF(_tag_day_all!AM8="","",_tag_day_all!AM8)</f>
         <v/>
       </c>
-      <c r="R11" s="43" t="str">
+      <c r="R11" s="23" t="str">
         <f>IF(_tag_day_all!O8="","",_tag_day_all!O8)</f>
         <v/>
       </c>
-      <c r="S11" s="43" t="str">
+      <c r="S11" s="23" t="str">
         <f>IF(_tag_day_all!P8="","",_tag_day_all!P8)</f>
         <v/>
       </c>
-      <c r="T11" s="43" t="str">
+      <c r="T11" s="23" t="str">
         <f>IF(_tag_day_all!Q8="","",_tag_day_all!Q8)</f>
         <v/>
       </c>
-      <c r="U11" s="43" t="str">
+      <c r="U11" s="23" t="str">
         <f>IF(_tag_day_all!R8="","",_tag_day_all!R8)</f>
         <v/>
       </c>
-      <c r="V11" s="43" t="str">
+      <c r="V11" s="23" t="str">
         <f>IF(_tag_day_all!S8="","",_tag_day_all!S8)</f>
         <v/>
       </c>
-      <c r="W11" s="43" t="str">
+      <c r="W11" s="23" t="str">
         <f>IF(_tag_day_all!T8="","",_tag_day_all!T8)</f>
         <v/>
       </c>
-      <c r="X11" s="44" t="str">
+      <c r="X11" s="24" t="str">
         <f>IF(_tag_day_all!U8="","",_tag_day_all!U8)</f>
         <v/>
       </c>
-      <c r="Y11" s="44" t="str">
+      <c r="Y11" s="24" t="str">
         <f>IF(_tag_day_all!V8="","",_tag_day_all!V8)</f>
         <v/>
       </c>
-      <c r="Z11" s="44" t="str">
+      <c r="Z11" s="24" t="str">
         <f>IF(_tag_day_all!W8="","",_tag_day_all!W8)</f>
         <v/>
       </c>
-      <c r="AA11" s="44" t="str">
+      <c r="AA11" s="24" t="str">
         <f>IF(_tag_day_all!X8="","",_tag_day_all!X8)</f>
         <v/>
       </c>
-      <c r="AB11" s="45" t="str">
+      <c r="AB11" s="44" t="str">
         <f>IF(_tag_day_all!Y8="","",_tag_day_all!Y8)</f>
         <v/>
       </c>
-      <c r="AC11" s="43" t="str">
+      <c r="AC11" s="23" t="str">
         <f>IF(_tag_day_all!Z8="","",_tag_day_all!Z8)</f>
         <v/>
       </c>
-      <c r="AD11" s="43" t="str">
+      <c r="AD11" s="23" t="str">
         <f>IF(_tag_day_all!AA8="","",_tag_day_all!AA8)</f>
         <v/>
       </c>
-      <c r="AE11" s="44" t="str">
+      <c r="AE11" s="24" t="str">
         <f>IF(_tag_day_all!AB8="","",_tag_day_all!AB8)</f>
         <v/>
       </c>
-      <c r="AF11" s="43" t="str">
+      <c r="AF11" s="23" t="str">
         <f>IF(_tag_day_all!AC8="","",_tag_day_all!AC8)</f>
         <v/>
       </c>
-      <c r="AG11" s="43" t="str">
+      <c r="AG11" s="23" t="str">
         <f>IF(_tag_day_all!AD8="","",_tag_day_all!AD8)</f>
         <v/>
       </c>
-      <c r="AH11" s="43" t="str">
+      <c r="AH11" s="23" t="str">
         <f>IF(_tag_day_all!AE8="","",_tag_day_all!AE8)</f>
         <v/>
       </c>
-      <c r="AI11" s="43" t="str">
+      <c r="AI11" s="23" t="str">
         <f>IF(_tag_day_all!AF8="","",_tag_day_all!AF8)</f>
         <v/>
       </c>
-      <c r="AJ11" s="43" t="str">
+      <c r="AJ11" s="23" t="str">
         <f>IF(_tag_day_all!AG8="","",_tag_day_all!AG8)</f>
         <v/>
       </c>
-      <c r="AK11" s="44" t="str">
+      <c r="AK11" s="24" t="str">
         <f>IF(_tag_day_all!AH8="","",_tag_day_all!AH8)</f>
         <v/>
       </c>
-      <c r="AL11" s="44" t="str">
+      <c r="AL11" s="24" t="str">
         <f>IF(_tag_day_all!AI8="","",_tag_day_all!AI8)</f>
         <v/>
       </c>
-      <c r="AM11" s="44" t="str">
+      <c r="AM11" s="24" t="str">
         <f>IF(_tag_day_all!AJ8="","",_tag_day_all!AJ8)</f>
         <v/>
       </c>
-      <c r="AN11" s="44" t="str">
+      <c r="AN11" s="24" t="str">
         <f>IF(_tag_day_all!AK8="","",_tag_day_all!AK8)</f>
         <v/>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="39">
+    <row r="12" spans="1:40">
+      <c r="A12" s="19">
         <v>8</v>
       </c>
-      <c r="B12" s="40" t="str">
+      <c r="B12" s="20" t="str">
         <f>IF(_tag_day_all!A9="","",_tag_day_all!A9)</f>
         <v/>
       </c>
-      <c r="C12" s="41" t="str">
+      <c r="C12" s="21" t="str">
         <f>IF(_tag_day_all!B9="","",_tag_day_all!B9)</f>
         <v/>
       </c>
-      <c r="D12" s="42" t="str">
+      <c r="D12" s="22" t="str">
         <f>IF(_tag_day_all!C9="","",_tag_day_all!C9)</f>
         <v/>
       </c>
-      <c r="E12" s="43" t="str">
+      <c r="E12" s="23" t="str">
         <f>IF(_tag_day_all!D9="","",_tag_day_all!D9*10000)</f>
         <v/>
       </c>
-      <c r="F12" s="44" t="str">
+      <c r="F12" s="24" t="str">
         <f>IF(_tag_day_all!E9="","",_tag_day_all!E9)</f>
         <v/>
       </c>
-      <c r="G12" s="43" t="str">
+      <c r="G12" s="23" t="str">
         <f>IF(_tag_day_all!F9="","",_tag_day_all!F9)</f>
         <v/>
       </c>
-      <c r="H12" s="44" t="str">
+      <c r="H12" s="24" t="str">
         <f>IF(_tag_day_all!G9="","",_tag_day_all!G9)</f>
         <v/>
       </c>
-      <c r="I12" s="44" t="str">
+      <c r="I12" s="24" t="str">
         <f>IF(_tag_day_all!H9="","",_tag_day_all!H9)</f>
         <v/>
       </c>
-      <c r="J12" s="45" t="str">
+      <c r="J12" s="44" t="str">
         <f>IF(_tag_day_all!I9="","",_tag_day_all!I9)</f>
         <v/>
       </c>
-      <c r="K12" s="45" t="str">
+      <c r="K12" s="44" t="str">
         <f>IF(_tag_day_all!J9="","",_tag_day_all!J9)</f>
         <v/>
       </c>
-      <c r="L12" s="44" t="str">
+      <c r="L12" s="24" t="str">
         <f>IF(_tag_day_all!K9="","",_tag_day_all!K9)</f>
         <v/>
       </c>
-      <c r="M12" s="44" t="str">
+      <c r="M12" s="24" t="str">
         <f>IF(_tag_day_all!L9="","",_tag_day_all!L9)</f>
         <v/>
       </c>
-      <c r="N12" s="45" t="str">
+      <c r="N12" s="44" t="str">
         <f>IF(_tag_day_all!M9="","",_tag_day_all!M9)</f>
         <v/>
       </c>
-      <c r="O12" s="44" t="str">
+      <c r="O12" s="24" t="str">
         <f>IF(_tag_day_all!N9="","",_tag_day_all!N9*100)</f>
         <v/>
       </c>
-      <c r="P12" s="44" t="str">
+      <c r="P12" s="24" t="str">
         <f>IF(_tag_day_all!AL9="","",_tag_day_all!AL9)</f>
         <v/>
       </c>
-      <c r="Q12" s="43" t="str">
+      <c r="Q12" s="23" t="str">
         <f>IF(_tag_day_all!AM9="","",_tag_day_all!AM9)</f>
         <v/>
       </c>
-      <c r="R12" s="43" t="str">
+      <c r="R12" s="23" t="str">
         <f>IF(_tag_day_all!O9="","",_tag_day_all!O9)</f>
         <v/>
       </c>
-      <c r="S12" s="43" t="str">
+      <c r="S12" s="23" t="str">
         <f>IF(_tag_day_all!P9="","",_tag_day_all!P9)</f>
         <v/>
       </c>
-      <c r="T12" s="43" t="str">
+      <c r="T12" s="23" t="str">
         <f>IF(_tag_day_all!Q9="","",_tag_day_all!Q9)</f>
         <v/>
       </c>
-      <c r="U12" s="43" t="str">
+      <c r="U12" s="23" t="str">
         <f>IF(_tag_day_all!R9="","",_tag_day_all!R9)</f>
         <v/>
       </c>
-      <c r="V12" s="43" t="str">
+      <c r="V12" s="23" t="str">
         <f>IF(_tag_day_all!S9="","",_tag_day_all!S9)</f>
         <v/>
       </c>
-      <c r="W12" s="43" t="str">
+      <c r="W12" s="23" t="str">
         <f>IF(_tag_day_all!T9="","",_tag_day_all!T9)</f>
         <v/>
       </c>
-      <c r="X12" s="44" t="str">
+      <c r="X12" s="24" t="str">
         <f>IF(_tag_day_all!U9="","",_tag_day_all!U9)</f>
         <v/>
       </c>
-      <c r="Y12" s="44" t="str">
+      <c r="Y12" s="24" t="str">
         <f>IF(_tag_day_all!V9="","",_tag_day_all!V9)</f>
         <v/>
       </c>
-      <c r="Z12" s="44" t="str">
+      <c r="Z12" s="24" t="str">
         <f>IF(_tag_day_all!W9="","",_tag_day_all!W9)</f>
         <v/>
       </c>
-      <c r="AA12" s="44" t="str">
+      <c r="AA12" s="24" t="str">
         <f>IF(_tag_day_all!X9="","",_tag_day_all!X9)</f>
         <v/>
       </c>
-      <c r="AB12" s="45" t="str">
+      <c r="AB12" s="44" t="str">
         <f>IF(_tag_day_all!Y9="","",_tag_day_all!Y9)</f>
         <v/>
       </c>
-      <c r="AC12" s="43" t="str">
+      <c r="AC12" s="23" t="str">
         <f>IF(_tag_day_all!Z9="","",_tag_day_all!Z9)</f>
         <v/>
       </c>
-      <c r="AD12" s="43" t="str">
+      <c r="AD12" s="23" t="str">
         <f>IF(_tag_day_all!AA9="","",_tag_day_all!AA9)</f>
         <v/>
       </c>
-      <c r="AE12" s="44" t="str">
+      <c r="AE12" s="24" t="str">
         <f>IF(_tag_day_all!AB9="","",_tag_day_all!AB9)</f>
         <v/>
       </c>
-      <c r="AF12" s="43" t="str">
+      <c r="AF12" s="23" t="str">
         <f>IF(_tag_day_all!AC9="","",_tag_day_all!AC9)</f>
         <v/>
       </c>
-      <c r="AG12" s="43" t="str">
+      <c r="AG12" s="23" t="str">
         <f>IF(_tag_day_all!AD9="","",_tag_day_all!AD9)</f>
         <v/>
       </c>
-      <c r="AH12" s="43" t="str">
+      <c r="AH12" s="23" t="str">
         <f>IF(_tag_day_all!AE9="","",_tag_day_all!AE9)</f>
         <v/>
       </c>
-      <c r="AI12" s="43" t="str">
+      <c r="AI12" s="23" t="str">
         <f>IF(_tag_day_all!AF9="","",_tag_day_all!AF9)</f>
         <v/>
       </c>
-      <c r="AJ12" s="43" t="str">
+      <c r="AJ12" s="23" t="str">
         <f>IF(_tag_day_all!AG9="","",_tag_day_all!AG9)</f>
         <v/>
       </c>
-      <c r="AK12" s="44" t="str">
+      <c r="AK12" s="24" t="str">
         <f>IF(_tag_day_all!AH9="","",_tag_day_all!AH9)</f>
         <v/>
       </c>
-      <c r="AL12" s="44" t="str">
+      <c r="AL12" s="24" t="str">
         <f>IF(_tag_day_all!AI9="","",_tag_day_all!AI9)</f>
         <v/>
       </c>
-      <c r="AM12" s="44" t="str">
+      <c r="AM12" s="24" t="str">
         <f>IF(_tag_day_all!AJ9="","",_tag_day_all!AJ9)</f>
         <v/>
       </c>
-      <c r="AN12" s="44" t="str">
+      <c r="AN12" s="24" t="str">
         <f>IF(_tag_day_all!AK9="","",_tag_day_all!AK9)</f>
         <v/>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="39">
+    <row r="13" spans="1:40">
+      <c r="A13" s="19">
         <v>9</v>
       </c>
-      <c r="B13" s="40" t="str">
+      <c r="B13" s="20" t="str">
         <f>IF(_tag_day_all!A10="","",_tag_day_all!A10)</f>
         <v/>
       </c>
-      <c r="C13" s="41" t="str">
+      <c r="C13" s="21" t="str">
         <f>IF(_tag_day_all!B10="","",_tag_day_all!B10)</f>
         <v/>
       </c>
-      <c r="D13" s="42" t="str">
+      <c r="D13" s="22" t="str">
         <f>IF(_tag_day_all!C10="","",_tag_day_all!C10)</f>
         <v/>
       </c>
-      <c r="E13" s="43" t="str">
+      <c r="E13" s="23" t="str">
         <f>IF(_tag_day_all!D10="","",_tag_day_all!D10*10000)</f>
         <v/>
       </c>
-      <c r="F13" s="44" t="str">
+      <c r="F13" s="24" t="str">
         <f>IF(_tag_day_all!E10="","",_tag_day_all!E10)</f>
         <v/>
       </c>
-      <c r="G13" s="43" t="str">
+      <c r="G13" s="23" t="str">
         <f>IF(_tag_day_all!F10="","",_tag_day_all!F10)</f>
         <v/>
       </c>
-      <c r="H13" s="44" t="str">
+      <c r="H13" s="24" t="str">
         <f>IF(_tag_day_all!G10="","",_tag_day_all!G10)</f>
         <v/>
       </c>
-      <c r="I13" s="44" t="str">
+      <c r="I13" s="24" t="str">
         <f>IF(_tag_day_all!H10="","",_tag_day_all!H10)</f>
         <v/>
       </c>
-      <c r="J13" s="45" t="str">
+      <c r="J13" s="44" t="str">
         <f>IF(_tag_day_all!I10="","",_tag_day_all!I10)</f>
         <v/>
       </c>
-      <c r="K13" s="45" t="str">
+      <c r="K13" s="44" t="str">
         <f>IF(_tag_day_all!J10="","",_tag_day_all!J10)</f>
         <v/>
       </c>
-      <c r="L13" s="44" t="str">
+      <c r="L13" s="24" t="str">
         <f>IF(_tag_day_all!K10="","",_tag_day_all!K10)</f>
         <v/>
       </c>
-      <c r="M13" s="44" t="str">
+      <c r="M13" s="24" t="str">
         <f>IF(_tag_day_all!L10="","",_tag_day_all!L10)</f>
         <v/>
       </c>
-      <c r="N13" s="45" t="str">
+      <c r="N13" s="44" t="str">
         <f>IF(_tag_day_all!M10="","",_tag_day_all!M10)</f>
         <v/>
       </c>
-      <c r="O13" s="44" t="str">
+      <c r="O13" s="24" t="str">
         <f>IF(_tag_day_all!N10="","",_tag_day_all!N10*100)</f>
         <v/>
       </c>
-      <c r="P13" s="44" t="str">
+      <c r="P13" s="24" t="str">
         <f>IF(_tag_day_all!AL10="","",_tag_day_all!AL10)</f>
         <v/>
       </c>
-      <c r="Q13" s="43" t="str">
+      <c r="Q13" s="23" t="str">
         <f>IF(_tag_day_all!AM10="","",_tag_day_all!AM10)</f>
         <v/>
       </c>
-      <c r="R13" s="43" t="str">
+      <c r="R13" s="23" t="str">
         <f>IF(_tag_day_all!O10="","",_tag_day_all!O10)</f>
         <v/>
       </c>
-      <c r="S13" s="43" t="str">
+      <c r="S13" s="23" t="str">
         <f>IF(_tag_day_all!P10="","",_tag_day_all!P10)</f>
         <v/>
       </c>
-      <c r="T13" s="43" t="str">
+      <c r="T13" s="23" t="str">
         <f>IF(_tag_day_all!Q10="","",_tag_day_all!Q10)</f>
         <v/>
       </c>
-      <c r="U13" s="43" t="str">
+      <c r="U13" s="23" t="str">
         <f>IF(_tag_day_all!R10="","",_tag_day_all!R10)</f>
         <v/>
       </c>
-      <c r="V13" s="43" t="str">
+      <c r="V13" s="23" t="str">
         <f>IF(_tag_day_all!S10="","",_tag_day_all!S10)</f>
         <v/>
       </c>
-      <c r="W13" s="43" t="str">
+      <c r="W13" s="23" t="str">
         <f>IF(_tag_day_all!T10="","",_tag_day_all!T10)</f>
         <v/>
       </c>
-      <c r="X13" s="44" t="str">
+      <c r="X13" s="24" t="str">
         <f>IF(_tag_day_all!U10="","",_tag_day_all!U10)</f>
         <v/>
       </c>
-      <c r="Y13" s="44" t="str">
+      <c r="Y13" s="24" t="str">
         <f>IF(_tag_day_all!V10="","",_tag_day_all!V10)</f>
         <v/>
       </c>
-      <c r="Z13" s="44" t="str">
+      <c r="Z13" s="24" t="str">
         <f>IF(_tag_day_all!W10="","",_tag_day_all!W10)</f>
         <v/>
       </c>
-      <c r="AA13" s="44" t="str">
+      <c r="AA13" s="24" t="str">
         <f>IF(_tag_day_all!X10="","",_tag_day_all!X10)</f>
         <v/>
       </c>
-      <c r="AB13" s="45" t="str">
+      <c r="AB13" s="44" t="str">
         <f>IF(_tag_day_all!Y10="","",_tag_day_all!Y10)</f>
         <v/>
       </c>
-      <c r="AC13" s="43" t="str">
+      <c r="AC13" s="23" t="str">
         <f>IF(_tag_day_all!Z10="","",_tag_day_all!Z10)</f>
         <v/>
       </c>
-      <c r="AD13" s="43" t="str">
+      <c r="AD13" s="23" t="str">
         <f>IF(_tag_day_all!AA10="","",_tag_day_all!AA10)</f>
         <v/>
       </c>
-      <c r="AE13" s="44" t="str">
+      <c r="AE13" s="24" t="str">
         <f>IF(_tag_day_all!AB10="","",_tag_day_all!AB10)</f>
         <v/>
       </c>
-      <c r="AF13" s="43" t="str">
+      <c r="AF13" s="23" t="str">
         <f>IF(_tag_day_all!AC10="","",_tag_day_all!AC10)</f>
         <v/>
       </c>
-      <c r="AG13" s="43" t="str">
+      <c r="AG13" s="23" t="str">
         <f>IF(_tag_day_all!AD10="","",_tag_day_all!AD10)</f>
         <v/>
       </c>
-      <c r="AH13" s="43" t="str">
+      <c r="AH13" s="23" t="str">
         <f>IF(_tag_day_all!AE10="","",_tag_day_all!AE10)</f>
         <v/>
       </c>
-      <c r="AI13" s="43" t="str">
+      <c r="AI13" s="23" t="str">
         <f>IF(_tag_day_all!AF10="","",_tag_day_all!AF10)</f>
         <v/>
       </c>
-      <c r="AJ13" s="43" t="str">
+      <c r="AJ13" s="23" t="str">
         <f>IF(_tag_day_all!AG10="","",_tag_day_all!AG10)</f>
         <v/>
       </c>
-      <c r="AK13" s="44" t="str">
+      <c r="AK13" s="24" t="str">
         <f>IF(_tag_day_all!AH10="","",_tag_day_all!AH10)</f>
         <v/>
       </c>
-      <c r="AL13" s="44" t="str">
+      <c r="AL13" s="24" t="str">
         <f>IF(_tag_day_all!AI10="","",_tag_day_all!AI10)</f>
         <v/>
       </c>
-      <c r="AM13" s="44" t="str">
+      <c r="AM13" s="24" t="str">
         <f>IF(_tag_day_all!AJ10="","",_tag_day_all!AJ10)</f>
         <v/>
       </c>
-      <c r="AN13" s="44" t="str">
+      <c r="AN13" s="24" t="str">
         <f>IF(_tag_day_all!AK10="","",_tag_day_all!AK10)</f>
         <v/>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="39">
+    <row r="14" spans="1:40">
+      <c r="A14" s="19">
         <v>10</v>
       </c>
-      <c r="B14" s="40" t="str">
+      <c r="B14" s="20" t="str">
         <f>IF(_tag_day_all!A11="","",_tag_day_all!A11)</f>
         <v/>
       </c>
-      <c r="C14" s="41" t="str">
+      <c r="C14" s="21" t="str">
         <f>IF(_tag_day_all!B11="","",_tag_day_all!B11)</f>
         <v/>
       </c>
-      <c r="D14" s="42" t="str">
+      <c r="D14" s="22" t="str">
         <f>IF(_tag_day_all!C11="","",_tag_day_all!C11)</f>
         <v/>
       </c>
-      <c r="E14" s="43" t="str">
+      <c r="E14" s="23" t="str">
         <f>IF(_tag_day_all!D11="","",_tag_day_all!D11*10000)</f>
         <v/>
       </c>
-      <c r="F14" s="44" t="str">
+      <c r="F14" s="24" t="str">
         <f>IF(_tag_day_all!E11="","",_tag_day_all!E11)</f>
         <v/>
       </c>
-      <c r="G14" s="43" t="str">
+      <c r="G14" s="23" t="str">
         <f>IF(_tag_day_all!F11="","",_tag_day_all!F11)</f>
         <v/>
       </c>
-      <c r="H14" s="44" t="str">
+      <c r="H14" s="24" t="str">
         <f>IF(_tag_day_all!G11="","",_tag_day_all!G11)</f>
         <v/>
       </c>
-      <c r="I14" s="44" t="str">
+      <c r="I14" s="24" t="str">
         <f>IF(_tag_day_all!H11="","",_tag_day_all!H11)</f>
         <v/>
       </c>
-      <c r="J14" s="45" t="str">
+      <c r="J14" s="44" t="str">
         <f>IF(_tag_day_all!I11="","",_tag_day_all!I11)</f>
         <v/>
       </c>
-      <c r="K14" s="45" t="str">
+      <c r="K14" s="44" t="str">
         <f>IF(_tag_day_all!J11="","",_tag_day_all!J11)</f>
         <v/>
       </c>
-      <c r="L14" s="44" t="str">
+      <c r="L14" s="24" t="str">
         <f>IF(_tag_day_all!K11="","",_tag_day_all!K11)</f>
         <v/>
       </c>
-      <c r="M14" s="44" t="str">
+      <c r="M14" s="24" t="str">
         <f>IF(_tag_day_all!L11="","",_tag_day_all!L11)</f>
         <v/>
       </c>
-      <c r="N14" s="45" t="str">
+      <c r="N14" s="44" t="str">
         <f>IF(_tag_day_all!M11="","",_tag_day_all!M11)</f>
         <v/>
       </c>
-      <c r="O14" s="44" t="str">
+      <c r="O14" s="24" t="str">
         <f>IF(_tag_day_all!N11="","",_tag_day_all!N11*100)</f>
         <v/>
       </c>
-      <c r="P14" s="44" t="str">
+      <c r="P14" s="24" t="str">
         <f>IF(_tag_day_all!AL11="","",_tag_day_all!AL11)</f>
         <v/>
       </c>
-      <c r="Q14" s="43" t="str">
+      <c r="Q14" s="23" t="str">
         <f>IF(_tag_day_all!AM11="","",_tag_day_all!AM11)</f>
         <v/>
       </c>
-      <c r="R14" s="43" t="str">
+      <c r="R14" s="23" t="str">
         <f>IF(_tag_day_all!O11="","",_tag_day_all!O11)</f>
         <v/>
       </c>
-      <c r="S14" s="43" t="str">
+      <c r="S14" s="23" t="str">
         <f>IF(_tag_day_all!P11="","",_tag_day_all!P11)</f>
         <v/>
       </c>
-      <c r="T14" s="43" t="str">
+      <c r="T14" s="23" t="str">
         <f>IF(_tag_day_all!Q11="","",_tag_day_all!Q11)</f>
         <v/>
       </c>
-      <c r="U14" s="43" t="str">
+      <c r="U14" s="23" t="str">
         <f>IF(_tag_day_all!R11="","",_tag_day_all!R11)</f>
         <v/>
       </c>
-      <c r="V14" s="43" t="str">
+      <c r="V14" s="23" t="str">
         <f>IF(_tag_day_all!S11="","",_tag_day_all!S11)</f>
         <v/>
       </c>
-      <c r="W14" s="43" t="str">
+      <c r="W14" s="23" t="str">
         <f>IF(_tag_day_all!T11="","",_tag_day_all!T11)</f>
         <v/>
       </c>
-      <c r="X14" s="44" t="str">
+      <c r="X14" s="24" t="str">
         <f>IF(_tag_day_all!U11="","",_tag_day_all!U11)</f>
         <v/>
       </c>
-      <c r="Y14" s="44" t="str">
+      <c r="Y14" s="24" t="str">
         <f>IF(_tag_day_all!V11="","",_tag_day_all!V11)</f>
         <v/>
       </c>
-      <c r="Z14" s="44" t="str">
+      <c r="Z14" s="24" t="str">
         <f>IF(_tag_day_all!W11="","",_tag_day_all!W11)</f>
         <v/>
       </c>
-      <c r="AA14" s="44" t="str">
+      <c r="AA14" s="24" t="str">
         <f>IF(_tag_day_all!X11="","",_tag_day_all!X11)</f>
         <v/>
       </c>
-      <c r="AB14" s="45" t="str">
+      <c r="AB14" s="44" t="str">
         <f>IF(_tag_day_all!Y11="","",_tag_day_all!Y11)</f>
         <v/>
       </c>
-      <c r="AC14" s="43" t="str">
+      <c r="AC14" s="23" t="str">
         <f>IF(_tag_day_all!Z11="","",_tag_day_all!Z11)</f>
         <v/>
       </c>
-      <c r="AD14" s="43" t="str">
+      <c r="AD14" s="23" t="str">
         <f>IF(_tag_day_all!AA11="","",_tag_day_all!AA11)</f>
         <v/>
       </c>
-      <c r="AE14" s="44" t="str">
+      <c r="AE14" s="24" t="str">
         <f>IF(_tag_day_all!AB11="","",_tag_day_all!AB11)</f>
         <v/>
       </c>
-      <c r="AF14" s="43" t="str">
+      <c r="AF14" s="23" t="str">
         <f>IF(_tag_day_all!AC11="","",_tag_day_all!AC11)</f>
         <v/>
       </c>
-      <c r="AG14" s="43" t="str">
+      <c r="AG14" s="23" t="str">
         <f>IF(_tag_day_all!AD11="","",_tag_day_all!AD11)</f>
         <v/>
       </c>
-      <c r="AH14" s="43" t="str">
+      <c r="AH14" s="23" t="str">
         <f>IF(_tag_day_all!AE11="","",_tag_day_all!AE11)</f>
         <v/>
       </c>
-      <c r="AI14" s="43" t="str">
+      <c r="AI14" s="23" t="str">
         <f>IF(_tag_day_all!AF11="","",_tag_day_all!AF11)</f>
         <v/>
       </c>
-      <c r="AJ14" s="43" t="str">
+      <c r="AJ14" s="23" t="str">
         <f>IF(_tag_day_all!AG11="","",_tag_day_all!AG11)</f>
         <v/>
       </c>
-      <c r="AK14" s="44" t="str">
+      <c r="AK14" s="24" t="str">
         <f>IF(_tag_day_all!AH11="","",_tag_day_all!AH11)</f>
         <v/>
       </c>
-      <c r="AL14" s="44" t="str">
+      <c r="AL14" s="24" t="str">
         <f>IF(_tag_day_all!AI11="","",_tag_day_all!AI11)</f>
         <v/>
       </c>
-      <c r="AM14" s="44" t="str">
+      <c r="AM14" s="24" t="str">
         <f>IF(_tag_day_all!AJ11="","",_tag_day_all!AJ11)</f>
         <v/>
       </c>
-      <c r="AN14" s="44" t="str">
+      <c r="AN14" s="24" t="str">
         <f>IF(_tag_day_all!AK11="","",_tag_day_all!AK11)</f>
         <v/>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="39">
+    <row r="15" spans="1:40">
+      <c r="A15" s="19">
         <v>11</v>
       </c>
-      <c r="B15" s="40" t="str">
+      <c r="B15" s="20" t="str">
         <f>IF(_tag_day_all!A12="","",_tag_day_all!A12)</f>
         <v/>
       </c>
-      <c r="C15" s="41" t="str">
+      <c r="C15" s="21" t="str">
         <f>IF(_tag_day_all!B12="","",_tag_day_all!B12)</f>
         <v/>
       </c>
-      <c r="D15" s="42" t="str">
+      <c r="D15" s="22" t="str">
         <f>IF(_tag_day_all!C12="","",_tag_day_all!C12)</f>
         <v/>
       </c>
-      <c r="E15" s="43" t="str">
+      <c r="E15" s="23" t="str">
         <f>IF(_tag_day_all!D12="","",_tag_day_all!D12*10000)</f>
         <v/>
       </c>
-      <c r="F15" s="44" t="str">
+      <c r="F15" s="24" t="str">
         <f>IF(_tag_day_all!E12="","",_tag_day_all!E12)</f>
         <v/>
       </c>
-      <c r="G15" s="43" t="str">
+      <c r="G15" s="23" t="str">
         <f>IF(_tag_day_all!F12="","",_tag_day_all!F12)</f>
         <v/>
       </c>
-      <c r="H15" s="44" t="str">
+      <c r="H15" s="24" t="str">
         <f>IF(_tag_day_all!G12="","",_tag_day_all!G12)</f>
         <v/>
       </c>
-      <c r="I15" s="44" t="str">
+      <c r="I15" s="24" t="str">
         <f>IF(_tag_day_all!H12="","",_tag_day_all!H12)</f>
         <v/>
       </c>
-      <c r="J15" s="45" t="str">
+      <c r="J15" s="44" t="str">
         <f>IF(_tag_day_all!I12="","",_tag_day_all!I12)</f>
         <v/>
       </c>
-      <c r="K15" s="45" t="str">
+      <c r="K15" s="44" t="str">
         <f>IF(_tag_day_all!J12="","",_tag_day_all!J12)</f>
         <v/>
       </c>
-      <c r="L15" s="44" t="str">
+      <c r="L15" s="24" t="str">
         <f>IF(_tag_day_all!K12="","",_tag_day_all!K12)</f>
         <v/>
       </c>
-      <c r="M15" s="44" t="str">
+      <c r="M15" s="24" t="str">
         <f>IF(_tag_day_all!L12="","",_tag_day_all!L12)</f>
         <v/>
       </c>
-      <c r="N15" s="45" t="str">
+      <c r="N15" s="44" t="str">
         <f>IF(_tag_day_all!M12="","",_tag_day_all!M12)</f>
         <v/>
       </c>
-      <c r="O15" s="44" t="str">
+      <c r="O15" s="24" t="str">
         <f>IF(_tag_day_all!N12="","",_tag_day_all!N12*100)</f>
         <v/>
       </c>
-      <c r="P15" s="44" t="str">
+      <c r="P15" s="24" t="str">
         <f>IF(_tag_day_all!AL12="","",_tag_day_all!AL12)</f>
         <v/>
       </c>
-      <c r="Q15" s="43" t="str">
+      <c r="Q15" s="23" t="str">
         <f>IF(_tag_day_all!AM12="","",_tag_day_all!AM12)</f>
         <v/>
       </c>
-      <c r="R15" s="43" t="str">
+      <c r="R15" s="23" t="str">
         <f>IF(_tag_day_all!O12="","",_tag_day_all!O12)</f>
         <v/>
       </c>
-      <c r="S15" s="43" t="str">
+      <c r="S15" s="23" t="str">
         <f>IF(_tag_day_all!P12="","",_tag_day_all!P12)</f>
         <v/>
       </c>
-      <c r="T15" s="43" t="str">
+      <c r="T15" s="23" t="str">
         <f>IF(_tag_day_all!Q12="","",_tag_day_all!Q12)</f>
         <v/>
       </c>
-      <c r="U15" s="43" t="str">
+      <c r="U15" s="23" t="str">
         <f>IF(_tag_day_all!R12="","",_tag_day_all!R12)</f>
         <v/>
       </c>
-      <c r="V15" s="43" t="str">
+      <c r="V15" s="23" t="str">
         <f>IF(_tag_day_all!S12="","",_tag_day_all!S12)</f>
         <v/>
       </c>
-      <c r="W15" s="43" t="str">
+      <c r="W15" s="23" t="str">
         <f>IF(_tag_day_all!T12="","",_tag_day_all!T12)</f>
         <v/>
       </c>
-      <c r="X15" s="44" t="str">
+      <c r="X15" s="24" t="str">
         <f>IF(_tag_day_all!U12="","",_tag_day_all!U12)</f>
         <v/>
       </c>
-      <c r="Y15" s="44" t="str">
+      <c r="Y15" s="24" t="str">
         <f>IF(_tag_day_all!V12="","",_tag_day_all!V12)</f>
         <v/>
       </c>
-      <c r="Z15" s="44" t="str">
+      <c r="Z15" s="24" t="str">
         <f>IF(_tag_day_all!W12="","",_tag_day_all!W12)</f>
         <v/>
       </c>
-      <c r="AA15" s="44" t="str">
+      <c r="AA15" s="24" t="str">
         <f>IF(_tag_day_all!X12="","",_tag_day_all!X12)</f>
         <v/>
       </c>
-      <c r="AB15" s="45" t="str">
+      <c r="AB15" s="44" t="str">
         <f>IF(_tag_day_all!Y12="","",_tag_day_all!Y12)</f>
         <v/>
       </c>
-      <c r="AC15" s="43" t="str">
+      <c r="AC15" s="23" t="str">
         <f>IF(_tag_day_all!Z12="","",_tag_day_all!Z12)</f>
         <v/>
       </c>
-      <c r="AD15" s="43" t="str">
+      <c r="AD15" s="23" t="str">
         <f>IF(_tag_day_all!AA12="","",_tag_day_all!AA12)</f>
         <v/>
       </c>
-      <c r="AE15" s="44" t="str">
+      <c r="AE15" s="24" t="str">
         <f>IF(_tag_day_all!AB12="","",_tag_day_all!AB12)</f>
         <v/>
       </c>
-      <c r="AF15" s="43" t="str">
+      <c r="AF15" s="23" t="str">
         <f>IF(_tag_day_all!AC12="","",_tag_day_all!AC12)</f>
         <v/>
       </c>
-      <c r="AG15" s="43" t="str">
+      <c r="AG15" s="23" t="str">
         <f>IF(_tag_day_all!AD12="","",_tag_day_all!AD12)</f>
         <v/>
       </c>
-      <c r="AH15" s="43" t="str">
+      <c r="AH15" s="23" t="str">
         <f>IF(_tag_day_all!AE12="","",_tag_day_all!AE12)</f>
         <v/>
       </c>
-      <c r="AI15" s="43" t="str">
+      <c r="AI15" s="23" t="str">
         <f>IF(_tag_day_all!AF12="","",_tag_day_all!AF12)</f>
         <v/>
       </c>
-      <c r="AJ15" s="43" t="str">
+      <c r="AJ15" s="23" t="str">
         <f>IF(_tag_day_all!AG12="","",_tag_day_all!AG12)</f>
         <v/>
       </c>
-      <c r="AK15" s="44" t="str">
+      <c r="AK15" s="24" t="str">
         <f>IF(_tag_day_all!AH12="","",_tag_day_all!AH12)</f>
         <v/>
       </c>
-      <c r="AL15" s="44" t="str">
+      <c r="AL15" s="24" t="str">
         <f>IF(_tag_day_all!AI12="","",_tag_day_all!AI12)</f>
         <v/>
       </c>
-      <c r="AM15" s="44" t="str">
+      <c r="AM15" s="24" t="str">
         <f>IF(_tag_day_all!AJ12="","",_tag_day_all!AJ12)</f>
         <v/>
       </c>
-      <c r="AN15" s="44" t="str">
+      <c r="AN15" s="24" t="str">
         <f>IF(_tag_day_all!AK12="","",_tag_day_all!AK12)</f>
         <v/>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="39">
+    <row r="16" spans="1:40">
+      <c r="A16" s="19">
         <v>12</v>
       </c>
-      <c r="B16" s="40" t="str">
+      <c r="B16" s="20" t="str">
         <f>IF(_tag_day_all!A13="","",_tag_day_all!A13)</f>
         <v/>
       </c>
-      <c r="C16" s="41" t="str">
+      <c r="C16" s="21" t="str">
         <f>IF(_tag_day_all!B13="","",_tag_day_all!B13)</f>
         <v/>
       </c>
-      <c r="D16" s="42" t="str">
+      <c r="D16" s="22" t="str">
         <f>IF(_tag_day_all!C13="","",_tag_day_all!C13)</f>
         <v/>
       </c>
-      <c r="E16" s="43" t="str">
+      <c r="E16" s="23" t="str">
         <f>IF(_tag_day_all!D13="","",_tag_day_all!D13*10000)</f>
         <v/>
       </c>
-      <c r="F16" s="44" t="str">
+      <c r="F16" s="24" t="str">
         <f>IF(_tag_day_all!E13="","",_tag_day_all!E13)</f>
         <v/>
       </c>
-      <c r="G16" s="43" t="str">
+      <c r="G16" s="23" t="str">
         <f>IF(_tag_day_all!F13="","",_tag_day_all!F13)</f>
         <v/>
       </c>
-      <c r="H16" s="44" t="str">
+      <c r="H16" s="24" t="str">
         <f>IF(_tag_day_all!G13="","",_tag_day_all!G13)</f>
         <v/>
       </c>
-      <c r="I16" s="44" t="str">
+      <c r="I16" s="24" t="str">
         <f>IF(_tag_day_all!H13="","",_tag_day_all!H13)</f>
         <v/>
       </c>
-      <c r="J16" s="45" t="str">
+      <c r="J16" s="44" t="str">
         <f>IF(_tag_day_all!I13="","",_tag_day_all!I13)</f>
         <v/>
       </c>
-      <c r="K16" s="45" t="str">
+      <c r="K16" s="44" t="str">
         <f>IF(_tag_day_all!J13="","",_tag_day_all!J13)</f>
         <v/>
       </c>
-      <c r="L16" s="44" t="str">
+      <c r="L16" s="24" t="str">
         <f>IF(_tag_day_all!K13="","",_tag_day_all!K13)</f>
         <v/>
       </c>
-      <c r="M16" s="44" t="str">
+      <c r="M16" s="24" t="str">
         <f>IF(_tag_day_all!L13="","",_tag_day_all!L13)</f>
         <v/>
       </c>
-      <c r="N16" s="45" t="str">
+      <c r="N16" s="44" t="str">
         <f>IF(_tag_day_all!M13="","",_tag_day_all!M13)</f>
         <v/>
       </c>
-      <c r="O16" s="44" t="str">
+      <c r="O16" s="24" t="str">
         <f>IF(_tag_day_all!N13="","",_tag_day_all!N13*100)</f>
         <v/>
       </c>
-      <c r="P16" s="44" t="str">
+      <c r="P16" s="24" t="str">
         <f>IF(_tag_day_all!AL13="","",_tag_day_all!AL13)</f>
         <v/>
       </c>
-      <c r="Q16" s="43" t="str">
+      <c r="Q16" s="23" t="str">
         <f>IF(_tag_day_all!AM13="","",_tag_day_all!AM13)</f>
         <v/>
       </c>
-      <c r="R16" s="43" t="str">
+      <c r="R16" s="23" t="str">
         <f>IF(_tag_day_all!O13="","",_tag_day_all!O13)</f>
         <v/>
       </c>
-      <c r="S16" s="43" t="str">
+      <c r="S16" s="23" t="str">
         <f>IF(_tag_day_all!P13="","",_tag_day_all!P13)</f>
         <v/>
       </c>
-      <c r="T16" s="43" t="str">
+      <c r="T16" s="23" t="str">
         <f>IF(_tag_day_all!Q13="","",_tag_day_all!Q13)</f>
         <v/>
       </c>
-      <c r="U16" s="43" t="str">
+      <c r="U16" s="23" t="str">
         <f>IF(_tag_day_all!R13="","",_tag_day_all!R13)</f>
         <v/>
       </c>
-      <c r="V16" s="43" t="str">
+      <c r="V16" s="23" t="str">
         <f>IF(_tag_day_all!S13="","",_tag_day_all!S13)</f>
         <v/>
       </c>
-      <c r="W16" s="43" t="str">
+      <c r="W16" s="23" t="str">
         <f>IF(_tag_day_all!T13="","",_tag_day_all!T13)</f>
         <v/>
       </c>
-      <c r="X16" s="44" t="str">
+      <c r="X16" s="24" t="str">
         <f>IF(_tag_day_all!U13="","",_tag_day_all!U13)</f>
         <v/>
       </c>
-      <c r="Y16" s="44" t="str">
+      <c r="Y16" s="24" t="str">
         <f>IF(_tag_day_all!V13="","",_tag_day_all!V13)</f>
         <v/>
       </c>
-      <c r="Z16" s="44" t="str">
+      <c r="Z16" s="24" t="str">
         <f>IF(_tag_day_all!W13="","",_tag_day_all!W13)</f>
         <v/>
       </c>
-      <c r="AA16" s="44" t="str">
+      <c r="AA16" s="24" t="str">
         <f>IF(_tag_day_all!X13="","",_tag_day_all!X13)</f>
         <v/>
       </c>
-      <c r="AB16" s="45" t="str">
+      <c r="AB16" s="44" t="str">
         <f>IF(_tag_day_all!Y13="","",_tag_day_all!Y13)</f>
         <v/>
       </c>
-      <c r="AC16" s="43" t="str">
+      <c r="AC16" s="23" t="str">
         <f>IF(_tag_day_all!Z13="","",_tag_day_all!Z13)</f>
         <v/>
       </c>
-      <c r="AD16" s="43" t="str">
+      <c r="AD16" s="23" t="str">
         <f>IF(_tag_day_all!AA13="","",_tag_day_all!AA13)</f>
         <v/>
       </c>
-      <c r="AE16" s="44" t="str">
+      <c r="AE16" s="24" t="str">
         <f>IF(_tag_day_all!AB13="","",_tag_day_all!AB13)</f>
         <v/>
       </c>
-      <c r="AF16" s="43" t="str">
+      <c r="AF16" s="23" t="str">
         <f>IF(_tag_day_all!AC13="","",_tag_day_all!AC13)</f>
         <v/>
       </c>
-      <c r="AG16" s="43" t="str">
+      <c r="AG16" s="23" t="str">
         <f>IF(_tag_day_all!AD13="","",_tag_day_all!AD13)</f>
         <v/>
       </c>
-      <c r="AH16" s="43" t="str">
+      <c r="AH16" s="23" t="str">
         <f>IF(_tag_day_all!AE13="","",_tag_day_all!AE13)</f>
         <v/>
       </c>
-      <c r="AI16" s="43" t="str">
+      <c r="AI16" s="23" t="str">
         <f>IF(_tag_day_all!AF13="","",_tag_day_all!AF13)</f>
         <v/>
       </c>
-      <c r="AJ16" s="43" t="str">
+      <c r="AJ16" s="23" t="str">
         <f>IF(_tag_day_all!AG13="","",_tag_day_all!AG13)</f>
         <v/>
       </c>
-      <c r="AK16" s="44" t="str">
+      <c r="AK16" s="24" t="str">
         <f>IF(_tag_day_all!AH13="","",_tag_day_all!AH13)</f>
         <v/>
       </c>
-      <c r="AL16" s="44" t="str">
+      <c r="AL16" s="24" t="str">
         <f>IF(_tag_day_all!AI13="","",_tag_day_all!AI13)</f>
         <v/>
       </c>
-      <c r="AM16" s="44" t="str">
+      <c r="AM16" s="24" t="str">
         <f>IF(_tag_day_all!AJ13="","",_tag_day_all!AJ13)</f>
         <v/>
       </c>
-      <c r="AN16" s="44" t="str">
+      <c r="AN16" s="24" t="str">
         <f>IF(_tag_day_all!AK13="","",_tag_day_all!AK13)</f>
         <v/>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="39">
+    <row r="17" spans="1:40">
+      <c r="A17" s="19">
         <v>13</v>
       </c>
-      <c r="B17" s="40" t="str">
+      <c r="B17" s="20" t="str">
         <f>IF(_tag_day_all!A14="","",_tag_day_all!A14)</f>
         <v/>
       </c>
-      <c r="C17" s="41" t="str">
+      <c r="C17" s="21" t="str">
         <f>IF(_tag_day_all!B14="","",_tag_day_all!B14)</f>
         <v/>
       </c>
-      <c r="D17" s="42" t="str">
+      <c r="D17" s="22" t="str">
         <f>IF(_tag_day_all!C14="","",_tag_day_all!C14)</f>
         <v/>
       </c>
-      <c r="E17" s="43" t="str">
+      <c r="E17" s="23" t="str">
         <f>IF(_tag_day_all!D14="","",_tag_day_all!D14*10000)</f>
         <v/>
       </c>
-      <c r="F17" s="44" t="str">
+      <c r="F17" s="24" t="str">
         <f>IF(_tag_day_all!E14="","",_tag_day_all!E14)</f>
         <v/>
       </c>
-      <c r="G17" s="43" t="str">
+      <c r="G17" s="23" t="str">
         <f>IF(_tag_day_all!F14="","",_tag_day_all!F14)</f>
         <v/>
       </c>
-      <c r="H17" s="44" t="str">
+      <c r="H17" s="24" t="str">
         <f>IF(_tag_day_all!G14="","",_tag_day_all!G14)</f>
         <v/>
       </c>
-      <c r="I17" s="44" t="str">
+      <c r="I17" s="24" t="str">
         <f>IF(_tag_day_all!H14="","",_tag_day_all!H14)</f>
         <v/>
       </c>
-      <c r="J17" s="45" t="str">
+      <c r="J17" s="44" t="str">
         <f>IF(_tag_day_all!I14="","",_tag_day_all!I14)</f>
         <v/>
       </c>
-      <c r="K17" s="45" t="str">
+      <c r="K17" s="44" t="str">
         <f>IF(_tag_day_all!J14="","",_tag_day_all!J14)</f>
         <v/>
       </c>
-      <c r="L17" s="44" t="str">
+      <c r="L17" s="24" t="str">
         <f>IF(_tag_day_all!K14="","",_tag_day_all!K14)</f>
         <v/>
       </c>
-      <c r="M17" s="44" t="str">
+      <c r="M17" s="24" t="str">
         <f>IF(_tag_day_all!L14="","",_tag_day_all!L14)</f>
         <v/>
       </c>
-      <c r="N17" s="45" t="str">
+      <c r="N17" s="44" t="str">
         <f>IF(_tag_day_all!M14="","",_tag_day_all!M14)</f>
         <v/>
       </c>
-      <c r="O17" s="44" t="str">
+      <c r="O17" s="24" t="str">
         <f>IF(_tag_day_all!N14="","",_tag_day_all!N14*100)</f>
         <v/>
       </c>
-      <c r="P17" s="44" t="str">
+      <c r="P17" s="24" t="str">
         <f>IF(_tag_day_all!AL14="","",_tag_day_all!AL14)</f>
         <v/>
       </c>
-      <c r="Q17" s="43" t="str">
+      <c r="Q17" s="23" t="str">
         <f>IF(_tag_day_all!AM14="","",_tag_day_all!AM14)</f>
         <v/>
       </c>
-      <c r="R17" s="43" t="str">
+      <c r="R17" s="23" t="str">
         <f>IF(_tag_day_all!O14="","",_tag_day_all!O14)</f>
         <v/>
       </c>
-      <c r="S17" s="43" t="str">
+      <c r="S17" s="23" t="str">
         <f>IF(_tag_day_all!P14="","",_tag_day_all!P14)</f>
         <v/>
       </c>
-      <c r="T17" s="43" t="str">
+      <c r="T17" s="23" t="str">
         <f>IF(_tag_day_all!Q14="","",_tag_day_all!Q14)</f>
         <v/>
       </c>
-      <c r="U17" s="43" t="str">
+      <c r="U17" s="23" t="str">
         <f>IF(_tag_day_all!R14="","",_tag_day_all!R14)</f>
         <v/>
       </c>
-      <c r="V17" s="43" t="str">
+      <c r="V17" s="23" t="str">
         <f>IF(_tag_day_all!S14="","",_tag_day_all!S14)</f>
         <v/>
       </c>
-      <c r="W17" s="43" t="str">
+      <c r="W17" s="23" t="str">
         <f>IF(_tag_day_all!T14="","",_tag_day_all!T14)</f>
         <v/>
       </c>
-      <c r="X17" s="44" t="str">
+      <c r="X17" s="24" t="str">
         <f>IF(_tag_day_all!U14="","",_tag_day_all!U14)</f>
         <v/>
       </c>
-      <c r="Y17" s="44" t="str">
+      <c r="Y17" s="24" t="str">
         <f>IF(_tag_day_all!V14="","",_tag_day_all!V14)</f>
         <v/>
       </c>
-      <c r="Z17" s="44" t="str">
+      <c r="Z17" s="24" t="str">
         <f>IF(_tag_day_all!W14="","",_tag_day_all!W14)</f>
         <v/>
       </c>
-      <c r="AA17" s="44" t="str">
+      <c r="AA17" s="24" t="str">
         <f>IF(_tag_day_all!X14="","",_tag_day_all!X14)</f>
         <v/>
       </c>
-      <c r="AB17" s="45" t="str">
+      <c r="AB17" s="44" t="str">
         <f>IF(_tag_day_all!Y14="","",_tag_day_all!Y14)</f>
         <v/>
       </c>
-      <c r="AC17" s="43" t="str">
+      <c r="AC17" s="23" t="str">
         <f>IF(_tag_day_all!Z14="","",_tag_day_all!Z14)</f>
         <v/>
       </c>
-      <c r="AD17" s="43" t="str">
+      <c r="AD17" s="23" t="str">
         <f>IF(_tag_day_all!AA14="","",_tag_day_all!AA14)</f>
         <v/>
       </c>
-      <c r="AE17" s="44" t="str">
+      <c r="AE17" s="24" t="str">
         <f>IF(_tag_day_all!AB14="","",_tag_day_all!AB14)</f>
         <v/>
       </c>
-      <c r="AF17" s="43" t="str">
+      <c r="AF17" s="23" t="str">
         <f>IF(_tag_day_all!AC14="","",_tag_day_all!AC14)</f>
         <v/>
       </c>
-      <c r="AG17" s="43" t="str">
+      <c r="AG17" s="23" t="str">
         <f>IF(_tag_day_all!AD14="","",_tag_day_all!AD14)</f>
         <v/>
       </c>
-      <c r="AH17" s="43" t="str">
+      <c r="AH17" s="23" t="str">
         <f>IF(_tag_day_all!AE14="","",_tag_day_all!AE14)</f>
         <v/>
       </c>
-      <c r="AI17" s="43" t="str">
+      <c r="AI17" s="23" t="str">
         <f>IF(_tag_day_all!AF14="","",_tag_day_all!AF14)</f>
         <v/>
       </c>
-      <c r="AJ17" s="43" t="str">
+      <c r="AJ17" s="23" t="str">
         <f>IF(_tag_day_all!AG14="","",_tag_day_all!AG14)</f>
         <v/>
       </c>
-      <c r="AK17" s="44" t="str">
+      <c r="AK17" s="24" t="str">
         <f>IF(_tag_day_all!AH14="","",_tag_day_all!AH14)</f>
         <v/>
       </c>
-      <c r="AL17" s="44" t="str">
+      <c r="AL17" s="24" t="str">
         <f>IF(_tag_day_all!AI14="","",_tag_day_all!AI14)</f>
         <v/>
       </c>
-      <c r="AM17" s="44" t="str">
+      <c r="AM17" s="24" t="str">
         <f>IF(_tag_day_all!AJ14="","",_tag_day_all!AJ14)</f>
         <v/>
       </c>
-      <c r="AN17" s="44" t="str">
+      <c r="AN17" s="24" t="str">
         <f>IF(_tag_day_all!AK14="","",_tag_day_all!AK14)</f>
         <v/>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="39">
+    <row r="18" spans="1:40">
+      <c r="A18" s="19">
         <v>14</v>
       </c>
-      <c r="B18" s="40" t="str">
+      <c r="B18" s="20" t="str">
         <f>IF(_tag_day_all!A15="","",_tag_day_all!A15)</f>
         <v/>
       </c>
-      <c r="C18" s="41" t="str">
+      <c r="C18" s="21" t="str">
         <f>IF(_tag_day_all!B15="","",_tag_day_all!B15)</f>
         <v/>
       </c>
-      <c r="D18" s="42" t="str">
+      <c r="D18" s="22" t="str">
         <f>IF(_tag_day_all!C15="","",_tag_day_all!C15)</f>
         <v/>
       </c>
-      <c r="E18" s="43" t="str">
+      <c r="E18" s="23" t="str">
         <f>IF(_tag_day_all!D15="","",_tag_day_all!D15*10000)</f>
         <v/>
       </c>
-      <c r="F18" s="44" t="str">
+      <c r="F18" s="24" t="str">
         <f>IF(_tag_day_all!E15="","",_tag_day_all!E15)</f>
         <v/>
       </c>
-      <c r="G18" s="43" t="str">
+      <c r="G18" s="23" t="str">
         <f>IF(_tag_day_all!F15="","",_tag_day_all!F15)</f>
         <v/>
       </c>
-      <c r="H18" s="44" t="str">
+      <c r="H18" s="24" t="str">
         <f>IF(_tag_day_all!G15="","",_tag_day_all!G15)</f>
         <v/>
       </c>
-      <c r="I18" s="44" t="str">
+      <c r="I18" s="24" t="str">
         <f>IF(_tag_day_all!H15="","",_tag_day_all!H15)</f>
         <v/>
       </c>
-      <c r="J18" s="45" t="str">
+      <c r="J18" s="44" t="str">
         <f>IF(_tag_day_all!I15="","",_tag_day_all!I15)</f>
         <v/>
       </c>
-      <c r="K18" s="45" t="str">
+      <c r="K18" s="44" t="str">
         <f>IF(_tag_day_all!J15="","",_tag_day_all!J15)</f>
         <v/>
       </c>
-      <c r="L18" s="44" t="str">
+      <c r="L18" s="24" t="str">
         <f>IF(_tag_day_all!K15="","",_tag_day_all!K15)</f>
         <v/>
       </c>
-      <c r="M18" s="44" t="str">
+      <c r="M18" s="24" t="str">
         <f>IF(_tag_day_all!L15="","",_tag_day_all!L15)</f>
         <v/>
       </c>
-      <c r="N18" s="45" t="str">
+      <c r="N18" s="44" t="str">
         <f>IF(_tag_day_all!M15="","",_tag_day_all!M15)</f>
         <v/>
       </c>
-      <c r="O18" s="44" t="str">
+      <c r="O18" s="24" t="str">
         <f>IF(_tag_day_all!N15="","",_tag_day_all!N15*100)</f>
         <v/>
       </c>
-      <c r="P18" s="44" t="str">
+      <c r="P18" s="24" t="str">
         <f>IF(_tag_day_all!AL15="","",_tag_day_all!AL15)</f>
         <v/>
       </c>
-      <c r="Q18" s="43" t="str">
+      <c r="Q18" s="23" t="str">
         <f>IF(_tag_day_all!AM15="","",_tag_day_all!AM15)</f>
         <v/>
       </c>
-      <c r="R18" s="43" t="str">
+      <c r="R18" s="23" t="str">
         <f>IF(_tag_day_all!O15="","",_tag_day_all!O15)</f>
         <v/>
       </c>
-      <c r="S18" s="43" t="str">
+      <c r="S18" s="23" t="str">
         <f>IF(_tag_day_all!P15="","",_tag_day_all!P15)</f>
         <v/>
       </c>
-      <c r="T18" s="43" t="str">
+      <c r="T18" s="23" t="str">
         <f>IF(_tag_day_all!Q15="","",_tag_day_all!Q15)</f>
         <v/>
       </c>
-      <c r="U18" s="43" t="str">
+      <c r="U18" s="23" t="str">
         <f>IF(_tag_day_all!R15="","",_tag_day_all!R15)</f>
         <v/>
       </c>
-      <c r="V18" s="43" t="str">
+      <c r="V18" s="23" t="str">
         <f>IF(_tag_day_all!S15="","",_tag_day_all!S15)</f>
         <v/>
       </c>
-      <c r="W18" s="43" t="str">
+      <c r="W18" s="23" t="str">
         <f>IF(_tag_day_all!T15="","",_tag_day_all!T15)</f>
         <v/>
       </c>
-      <c r="X18" s="44" t="str">
+      <c r="X18" s="24" t="str">
         <f>IF(_tag_day_all!U15="","",_tag_day_all!U15)</f>
         <v/>
       </c>
-      <c r="Y18" s="44" t="str">
+      <c r="Y18" s="24" t="str">
         <f>IF(_tag_day_all!V15="","",_tag_day_all!V15)</f>
         <v/>
       </c>
-      <c r="Z18" s="44" t="str">
+      <c r="Z18" s="24" t="str">
         <f>IF(_tag_day_all!W15="","",_tag_day_all!W15)</f>
         <v/>
       </c>
-      <c r="AA18" s="44" t="str">
+      <c r="AA18" s="24" t="str">
         <f>IF(_tag_day_all!X15="","",_tag_day_all!X15)</f>
         <v/>
       </c>
-      <c r="AB18" s="45" t="str">
+      <c r="AB18" s="44" t="str">
         <f>IF(_tag_day_all!Y15="","",_tag_day_all!Y15)</f>
         <v/>
       </c>
-      <c r="AC18" s="43" t="str">
+      <c r="AC18" s="23" t="str">
         <f>IF(_tag_day_all!Z15="","",_tag_day_all!Z15)</f>
         <v/>
       </c>
-      <c r="AD18" s="43" t="str">
+      <c r="AD18" s="23" t="str">
         <f>IF(_tag_day_all!AA15="","",_tag_day_all!AA15)</f>
         <v/>
       </c>
-      <c r="AE18" s="44" t="str">
+      <c r="AE18" s="24" t="str">
         <f>IF(_tag_day_all!AB15="","",_tag_day_all!AB15)</f>
         <v/>
       </c>
-      <c r="AF18" s="43" t="str">
+      <c r="AF18" s="23" t="str">
         <f>IF(_tag_day_all!AC15="","",_tag_day_all!AC15)</f>
         <v/>
       </c>
-      <c r="AG18" s="43" t="str">
+      <c r="AG18" s="23" t="str">
         <f>IF(_tag_day_all!AD15="","",_tag_day_all!AD15)</f>
         <v/>
       </c>
-      <c r="AH18" s="43" t="str">
+      <c r="AH18" s="23" t="str">
         <f>IF(_tag_day_all!AE15="","",_tag_day_all!AE15)</f>
         <v/>
       </c>
-      <c r="AI18" s="43" t="str">
+      <c r="AI18" s="23" t="str">
         <f>IF(_tag_day_all!AF15="","",_tag_day_all!AF15)</f>
         <v/>
       </c>
-      <c r="AJ18" s="43" t="str">
+      <c r="AJ18" s="23" t="str">
         <f>IF(_tag_day_all!AG15="","",_tag_day_all!AG15)</f>
         <v/>
       </c>
-      <c r="AK18" s="44" t="str">
+      <c r="AK18" s="24" t="str">
         <f>IF(_tag_day_all!AH15="","",_tag_day_all!AH15)</f>
         <v/>
       </c>
-      <c r="AL18" s="44" t="str">
+      <c r="AL18" s="24" t="str">
         <f>IF(_tag_day_all!AI15="","",_tag_day_all!AI15)</f>
         <v/>
       </c>
-      <c r="AM18" s="44" t="str">
+      <c r="AM18" s="24" t="str">
         <f>IF(_tag_day_all!AJ15="","",_tag_day_all!AJ15)</f>
         <v/>
       </c>
-      <c r="AN18" s="44" t="str">
+      <c r="AN18" s="24" t="str">
         <f>IF(_tag_day_all!AK15="","",_tag_day_all!AK15)</f>
         <v/>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="39">
+    <row r="19" spans="1:40">
+      <c r="A19" s="19">
         <v>15</v>
       </c>
-      <c r="B19" s="40" t="str">
+      <c r="B19" s="20" t="str">
         <f>IF(_tag_day_all!A16="","",_tag_day_all!A16)</f>
         <v/>
       </c>
-      <c r="C19" s="41" t="str">
+      <c r="C19" s="21" t="str">
         <f>IF(_tag_day_all!B16="","",_tag_day_all!B16)</f>
         <v/>
       </c>
-      <c r="D19" s="42" t="str">
+      <c r="D19" s="22" t="str">
         <f>IF(_tag_day_all!C16="","",_tag_day_all!C16)</f>
         <v/>
       </c>
-      <c r="E19" s="43" t="str">
+      <c r="E19" s="23" t="str">
         <f>IF(_tag_day_all!D16="","",_tag_day_all!D16*10000)</f>
         <v/>
       </c>
-      <c r="F19" s="44" t="str">
+      <c r="F19" s="24" t="str">
         <f>IF(_tag_day_all!E16="","",_tag_day_all!E16)</f>
         <v/>
       </c>
-      <c r="G19" s="43" t="str">
+      <c r="G19" s="23" t="str">
         <f>IF(_tag_day_all!F16="","",_tag_day_all!F16)</f>
         <v/>
       </c>
-      <c r="H19" s="44" t="str">
+      <c r="H19" s="24" t="str">
         <f>IF(_tag_day_all!G16="","",_tag_day_all!G16)</f>
         <v/>
       </c>
-      <c r="I19" s="44" t="str">
+      <c r="I19" s="24" t="str">
         <f>IF(_tag_day_all!H16="","",_tag_day_all!H16)</f>
         <v/>
       </c>
-      <c r="J19" s="45" t="str">
+      <c r="J19" s="44" t="str">
         <f>IF(_tag_day_all!I16="","",_tag_day_all!I16)</f>
         <v/>
       </c>
-      <c r="K19" s="45" t="str">
+      <c r="K19" s="44" t="str">
         <f>IF(_tag_day_all!J16="","",_tag_day_all!J16)</f>
         <v/>
       </c>
-      <c r="L19" s="44" t="str">
+      <c r="L19" s="24" t="str">
         <f>IF(_tag_day_all!K16="","",_tag_day_all!K16)</f>
         <v/>
       </c>
-      <c r="M19" s="44" t="str">
+      <c r="M19" s="24" t="str">
         <f>IF(_tag_day_all!L16="","",_tag_day_all!L16)</f>
         <v/>
       </c>
-      <c r="N19" s="45" t="str">
+      <c r="N19" s="44" t="str">
         <f>IF(_tag_day_all!M16="","",_tag_day_all!M16)</f>
         <v/>
       </c>
-      <c r="O19" s="44" t="str">
+      <c r="O19" s="24" t="str">
         <f>IF(_tag_day_all!N16="","",_tag_day_all!N16*100)</f>
         <v/>
       </c>
-      <c r="P19" s="44" t="str">
+      <c r="P19" s="24" t="str">
         <f>IF(_tag_day_all!AL16="","",_tag_day_all!AL16)</f>
         <v/>
       </c>
-      <c r="Q19" s="43" t="str">
+      <c r="Q19" s="23" t="str">
         <f>IF(_tag_day_all!AM16="","",_tag_day_all!AM16)</f>
         <v/>
       </c>
-      <c r="R19" s="43" t="str">
+      <c r="R19" s="23" t="str">
         <f>IF(_tag_day_all!O16="","",_tag_day_all!O16)</f>
         <v/>
       </c>
-      <c r="S19" s="43" t="str">
+      <c r="S19" s="23" t="str">
         <f>IF(_tag_day_all!P16="","",_tag_day_all!P16)</f>
         <v/>
       </c>
-      <c r="T19" s="43" t="str">
+      <c r="T19" s="23" t="str">
         <f>IF(_tag_day_all!Q16="","",_tag_day_all!Q16)</f>
         <v/>
       </c>
-      <c r="U19" s="43" t="str">
+      <c r="U19" s="23" t="str">
         <f>IF(_tag_day_all!R16="","",_tag_day_all!R16)</f>
         <v/>
       </c>
-      <c r="V19" s="43" t="str">
+      <c r="V19" s="23" t="str">
         <f>IF(_tag_day_all!S16="","",_tag_day_all!S16)</f>
         <v/>
       </c>
-      <c r="W19" s="43" t="str">
+      <c r="W19" s="23" t="str">
         <f>IF(_tag_day_all!T16="","",_tag_day_all!T16)</f>
         <v/>
       </c>
-      <c r="X19" s="44" t="str">
+      <c r="X19" s="24" t="str">
         <f>IF(_tag_day_all!U16="","",_tag_day_all!U16)</f>
         <v/>
       </c>
-      <c r="Y19" s="44" t="str">
+      <c r="Y19" s="24" t="str">
         <f>IF(_tag_day_all!V16="","",_tag_day_all!V16)</f>
         <v/>
       </c>
-      <c r="Z19" s="44" t="str">
+      <c r="Z19" s="24" t="str">
         <f>IF(_tag_day_all!W16="","",_tag_day_all!W16)</f>
         <v/>
       </c>
-      <c r="AA19" s="44" t="str">
+      <c r="AA19" s="24" t="str">
         <f>IF(_tag_day_all!X16="","",_tag_day_all!X16)</f>
         <v/>
       </c>
-      <c r="AB19" s="45" t="str">
+      <c r="AB19" s="44" t="str">
         <f>IF(_tag_day_all!Y16="","",_tag_day_all!Y16)</f>
         <v/>
       </c>
-      <c r="AC19" s="43" t="str">
+      <c r="AC19" s="23" t="str">
         <f>IF(_tag_day_all!Z16="","",_tag_day_all!Z16)</f>
         <v/>
       </c>
-      <c r="AD19" s="43" t="str">
+      <c r="AD19" s="23" t="str">
         <f>IF(_tag_day_all!AA16="","",_tag_day_all!AA16)</f>
         <v/>
       </c>
-      <c r="AE19" s="44" t="str">
+      <c r="AE19" s="24" t="str">
         <f>IF(_tag_day_all!AB16="","",_tag_day_all!AB16)</f>
         <v/>
       </c>
-      <c r="AF19" s="43" t="str">
+      <c r="AF19" s="23" t="str">
         <f>IF(_tag_day_all!AC16="","",_tag_day_all!AC16)</f>
         <v/>
       </c>
-      <c r="AG19" s="43" t="str">
+      <c r="AG19" s="23" t="str">
         <f>IF(_tag_day_all!AD16="","",_tag_day_all!AD16)</f>
         <v/>
       </c>
-      <c r="AH19" s="43" t="str">
+      <c r="AH19" s="23" t="str">
         <f>IF(_tag_day_all!AE16="","",_tag_day_all!AE16)</f>
         <v/>
       </c>
-      <c r="AI19" s="43" t="str">
+      <c r="AI19" s="23" t="str">
         <f>IF(_tag_day_all!AF16="","",_tag_day_all!AF16)</f>
         <v/>
       </c>
-      <c r="AJ19" s="43" t="str">
+      <c r="AJ19" s="23" t="str">
         <f>IF(_tag_day_all!AG16="","",_tag_day_all!AG16)</f>
         <v/>
       </c>
-      <c r="AK19" s="44" t="str">
+      <c r="AK19" s="24" t="str">
         <f>IF(_tag_day_all!AH16="","",_tag_day_all!AH16)</f>
         <v/>
       </c>
-      <c r="AL19" s="44" t="str">
+      <c r="AL19" s="24" t="str">
         <f>IF(_tag_day_all!AI16="","",_tag_day_all!AI16)</f>
         <v/>
       </c>
-      <c r="AM19" s="44" t="str">
+      <c r="AM19" s="24" t="str">
         <f>IF(_tag_day_all!AJ16="","",_tag_day_all!AJ16)</f>
         <v/>
       </c>
-      <c r="AN19" s="44" t="str">
+      <c r="AN19" s="24" t="str">
         <f>IF(_tag_day_all!AK16="","",_tag_day_all!AK16)</f>
         <v/>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="39">
+    <row r="20" spans="1:40">
+      <c r="A20" s="19">
         <v>16</v>
       </c>
-      <c r="B20" s="40" t="str">
+      <c r="B20" s="20" t="str">
         <f>IF(_tag_day_all!A17="","",_tag_day_all!A17)</f>
         <v/>
       </c>
-      <c r="C20" s="41" t="str">
+      <c r="C20" s="21" t="str">
         <f>IF(_tag_day_all!B17="","",_tag_day_all!B17)</f>
         <v/>
       </c>
-      <c r="D20" s="42" t="str">
+      <c r="D20" s="22" t="str">
         <f>IF(_tag_day_all!C17="","",_tag_day_all!C17)</f>
         <v/>
       </c>
-      <c r="E20" s="43" t="str">
+      <c r="E20" s="23" t="str">
         <f>IF(_tag_day_all!D17="","",_tag_day_all!D17*10000)</f>
         <v/>
       </c>
-      <c r="F20" s="44" t="str">
+      <c r="F20" s="24" t="str">
         <f>IF(_tag_day_all!E17="","",_tag_day_all!E17)</f>
         <v/>
       </c>
-      <c r="G20" s="43" t="str">
+      <c r="G20" s="23" t="str">
         <f>IF(_tag_day_all!F17="","",_tag_day_all!F17)</f>
         <v/>
       </c>
-      <c r="H20" s="44" t="str">
+      <c r="H20" s="24" t="str">
         <f>IF(_tag_day_all!G17="","",_tag_day_all!G17)</f>
         <v/>
       </c>
-      <c r="I20" s="44" t="str">
+      <c r="I20" s="24" t="str">
         <f>IF(_tag_day_all!H17="","",_tag_day_all!H17)</f>
         <v/>
       </c>
-      <c r="J20" s="45" t="str">
+      <c r="J20" s="44" t="str">
         <f>IF(_tag_day_all!I17="","",_tag_day_all!I17)</f>
         <v/>
       </c>
-      <c r="K20" s="45" t="str">
+      <c r="K20" s="44" t="str">
         <f>IF(_tag_day_all!J17="","",_tag_day_all!J17)</f>
         <v/>
       </c>
-      <c r="L20" s="44" t="str">
+      <c r="L20" s="24" t="str">
         <f>IF(_tag_day_all!K17="","",_tag_day_all!K17)</f>
         <v/>
       </c>
-      <c r="M20" s="44" t="str">
+      <c r="M20" s="24" t="str">
         <f>IF(_tag_day_all!L17="","",_tag_day_all!L17)</f>
         <v/>
       </c>
-      <c r="N20" s="45" t="str">
+      <c r="N20" s="44" t="str">
         <f>IF(_tag_day_all!M17="","",_tag_day_all!M17)</f>
         <v/>
       </c>
-      <c r="O20" s="44" t="str">
+      <c r="O20" s="24" t="str">
         <f>IF(_tag_day_all!N17="","",_tag_day_all!N17*100)</f>
         <v/>
       </c>
-      <c r="P20" s="44" t="str">
+      <c r="P20" s="24" t="str">
         <f>IF(_tag_day_all!AL17="","",_tag_day_all!AL17)</f>
         <v/>
       </c>
-      <c r="Q20" s="43" t="str">
+      <c r="Q20" s="23" t="str">
         <f>IF(_tag_day_all!AM17="","",_tag_day_all!AM17)</f>
         <v/>
       </c>
-      <c r="R20" s="43" t="str">
+      <c r="R20" s="23" t="str">
         <f>IF(_tag_day_all!O17="","",_tag_day_all!O17)</f>
         <v/>
       </c>
-      <c r="S20" s="43" t="str">
+      <c r="S20" s="23" t="str">
         <f>IF(_tag_day_all!P17="","",_tag_day_all!P17)</f>
         <v/>
       </c>
-      <c r="T20" s="43" t="str">
+      <c r="T20" s="23" t="str">
         <f>IF(_tag_day_all!Q17="","",_tag_day_all!Q17)</f>
         <v/>
       </c>
-      <c r="U20" s="43" t="str">
+      <c r="U20" s="23" t="str">
         <f>IF(_tag_day_all!R17="","",_tag_day_all!R17)</f>
         <v/>
       </c>
-      <c r="V20" s="43" t="str">
+      <c r="V20" s="23" t="str">
         <f>IF(_tag_day_all!S17="","",_tag_day_all!S17)</f>
         <v/>
       </c>
-      <c r="W20" s="43" t="str">
+      <c r="W20" s="23" t="str">
         <f>IF(_tag_day_all!T17="","",_tag_day_all!T17)</f>
         <v/>
       </c>
-      <c r="X20" s="44" t="str">
+      <c r="X20" s="24" t="str">
         <f>IF(_tag_day_all!U17="","",_tag_day_all!U17)</f>
         <v/>
       </c>
-      <c r="Y20" s="44" t="str">
+      <c r="Y20" s="24" t="str">
         <f>IF(_tag_day_all!V17="","",_tag_day_all!V17)</f>
         <v/>
       </c>
-      <c r="Z20" s="44" t="str">
+      <c r="Z20" s="24" t="str">
         <f>IF(_tag_day_all!W17="","",_tag_day_all!W17)</f>
         <v/>
       </c>
-      <c r="AA20" s="44" t="str">
+      <c r="AA20" s="24" t="str">
         <f>IF(_tag_day_all!X17="","",_tag_day_all!X17)</f>
         <v/>
       </c>
-      <c r="AB20" s="45" t="str">
+      <c r="AB20" s="44" t="str">
         <f>IF(_tag_day_all!Y17="","",_tag_day_all!Y17)</f>
         <v/>
       </c>
-      <c r="AC20" s="43" t="str">
+      <c r="AC20" s="23" t="str">
         <f>IF(_tag_day_all!Z17="","",_tag_day_all!Z17)</f>
         <v/>
       </c>
-      <c r="AD20" s="43" t="str">
+      <c r="AD20" s="23" t="str">
         <f>IF(_tag_day_all!AA17="","",_tag_day_all!AA17)</f>
         <v/>
       </c>
-      <c r="AE20" s="44" t="str">
+      <c r="AE20" s="24" t="str">
         <f>IF(_tag_day_all!AB17="","",_tag_day_all!AB17)</f>
         <v/>
       </c>
-      <c r="AF20" s="43" t="str">
+      <c r="AF20" s="23" t="str">
         <f>IF(_tag_day_all!AC17="","",_tag_day_all!AC17)</f>
         <v/>
       </c>
-      <c r="AG20" s="43" t="str">
+      <c r="AG20" s="23" t="str">
         <f>IF(_tag_day_all!AD17="","",_tag_day_all!AD17)</f>
         <v/>
       </c>
-      <c r="AH20" s="43" t="str">
+      <c r="AH20" s="23" t="str">
         <f>IF(_tag_day_all!AE17="","",_tag_day_all!AE17)</f>
         <v/>
       </c>
-      <c r="AI20" s="43" t="str">
+      <c r="AI20" s="23" t="str">
         <f>IF(_tag_day_all!AF17="","",_tag_day_all!AF17)</f>
         <v/>
       </c>
-      <c r="AJ20" s="43" t="str">
+      <c r="AJ20" s="23" t="str">
         <f>IF(_tag_day_all!AG17="","",_tag_day_all!AG17)</f>
         <v/>
       </c>
-      <c r="AK20" s="44" t="str">
+      <c r="AK20" s="24" t="str">
         <f>IF(_tag_day_all!AH17="","",_tag_day_all!AH17)</f>
         <v/>
       </c>
-      <c r="AL20" s="44" t="str">
+      <c r="AL20" s="24" t="str">
         <f>IF(_tag_day_all!AI17="","",_tag_day_all!AI17)</f>
         <v/>
       </c>
-      <c r="AM20" s="44" t="str">
+      <c r="AM20" s="24" t="str">
         <f>IF(_tag_day_all!AJ17="","",_tag_day_all!AJ17)</f>
         <v/>
       </c>
-      <c r="AN20" s="44" t="str">
+      <c r="AN20" s="24" t="str">
         <f>IF(_tag_day_all!AK17="","",_tag_day_all!AK17)</f>
         <v/>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="39">
+    <row r="21" spans="1:40">
+      <c r="A21" s="19">
         <v>17</v>
       </c>
-      <c r="B21" s="40" t="str">
+      <c r="B21" s="20" t="str">
         <f>IF(_tag_day_all!A18="","",_tag_day_all!A18)</f>
         <v/>
       </c>
-      <c r="C21" s="41" t="str">
+      <c r="C21" s="21" t="str">
         <f>IF(_tag_day_all!B18="","",_tag_day_all!B18)</f>
         <v/>
       </c>
-      <c r="D21" s="42" t="str">
+      <c r="D21" s="22" t="str">
         <f>IF(_tag_day_all!C18="","",_tag_day_all!C18)</f>
         <v/>
       </c>
-      <c r="E21" s="43" t="str">
+      <c r="E21" s="23" t="str">
         <f>IF(_tag_day_all!D18="","",_tag_day_all!D18*10000)</f>
         <v/>
       </c>
-      <c r="F21" s="44" t="str">
+      <c r="F21" s="24" t="str">
         <f>IF(_tag_day_all!E18="","",_tag_day_all!E18)</f>
         <v/>
       </c>
-      <c r="G21" s="43" t="str">
+      <c r="G21" s="23" t="str">
         <f>IF(_tag_day_all!F18="","",_tag_day_all!F18)</f>
         <v/>
       </c>
-      <c r="H21" s="44" t="str">
+      <c r="H21" s="24" t="str">
         <f>IF(_tag_day_all!G18="","",_tag_day_all!G18)</f>
         <v/>
       </c>
-      <c r="I21" s="44" t="str">
+      <c r="I21" s="24" t="str">
         <f>IF(_tag_day_all!H18="","",_tag_day_all!H18)</f>
         <v/>
       </c>
-      <c r="J21" s="45" t="str">
+      <c r="J21" s="44" t="str">
         <f>IF(_tag_day_all!I18="","",_tag_day_all!I18)</f>
         <v/>
       </c>
-      <c r="K21" s="45" t="str">
+      <c r="K21" s="44" t="str">
         <f>IF(_tag_day_all!J18="","",_tag_day_all!J18)</f>
         <v/>
       </c>
-      <c r="L21" s="44" t="str">
+      <c r="L21" s="24" t="str">
         <f>IF(_tag_day_all!K18="","",_tag_day_all!K18)</f>
         <v/>
       </c>
-      <c r="M21" s="44" t="str">
+      <c r="M21" s="24" t="str">
         <f>IF(_tag_day_all!L18="","",_tag_day_all!L18)</f>
         <v/>
       </c>
-      <c r="N21" s="45" t="str">
+      <c r="N21" s="44" t="str">
         <f>IF(_tag_day_all!M18="","",_tag_day_all!M18)</f>
         <v/>
       </c>
-      <c r="O21" s="44" t="str">
+      <c r="O21" s="24" t="str">
         <f>IF(_tag_day_all!N18="","",_tag_day_all!N18*100)</f>
         <v/>
       </c>
-      <c r="P21" s="44" t="str">
+      <c r="P21" s="24" t="str">
         <f>IF(_tag_day_all!AL18="","",_tag_day_all!AL18)</f>
         <v/>
       </c>
-      <c r="Q21" s="43" t="str">
+      <c r="Q21" s="23" t="str">
         <f>IF(_tag_day_all!AM18="","",_tag_day_all!AM18)</f>
         <v/>
       </c>
-      <c r="R21" s="43" t="str">
+      <c r="R21" s="23" t="str">
         <f>IF(_tag_day_all!O18="","",_tag_day_all!O18)</f>
         <v/>
       </c>
-      <c r="S21" s="43" t="str">
+      <c r="S21" s="23" t="str">
         <f>IF(_tag_day_all!P18="","",_tag_day_all!P18)</f>
         <v/>
       </c>
-      <c r="T21" s="43" t="str">
+      <c r="T21" s="23" t="str">
         <f>IF(_tag_day_all!Q18="","",_tag_day_all!Q18)</f>
         <v/>
       </c>
-      <c r="U21" s="43" t="str">
+      <c r="U21" s="23" t="str">
         <f>IF(_tag_day_all!R18="","",_tag_day_all!R18)</f>
         <v/>
       </c>
-      <c r="V21" s="43" t="str">
+      <c r="V21" s="23" t="str">
         <f>IF(_tag_day_all!S18="","",_tag_day_all!S18)</f>
         <v/>
       </c>
-      <c r="W21" s="43" t="str">
+      <c r="W21" s="23" t="str">
         <f>IF(_tag_day_all!T18="","",_tag_day_all!T18)</f>
         <v/>
       </c>
-      <c r="X21" s="44" t="str">
+      <c r="X21" s="24" t="str">
         <f>IF(_tag_day_all!U18="","",_tag_day_all!U18)</f>
         <v/>
       </c>
-      <c r="Y21" s="44" t="str">
+      <c r="Y21" s="24" t="str">
         <f>IF(_tag_day_all!V18="","",_tag_day_all!V18)</f>
         <v/>
       </c>
-      <c r="Z21" s="44" t="str">
+      <c r="Z21" s="24" t="str">
         <f>IF(_tag_day_all!W18="","",_tag_day_all!W18)</f>
         <v/>
       </c>
-      <c r="AA21" s="44" t="str">
+      <c r="AA21" s="24" t="str">
         <f>IF(_tag_day_all!X18="","",_tag_day_all!X18)</f>
         <v/>
       </c>
-      <c r="AB21" s="45" t="str">
+      <c r="AB21" s="44" t="str">
         <f>IF(_tag_day_all!Y18="","",_tag_day_all!Y18)</f>
         <v/>
       </c>
-      <c r="AC21" s="43" t="str">
+      <c r="AC21" s="23" t="str">
         <f>IF(_tag_day_all!Z18="","",_tag_day_all!Z18)</f>
         <v/>
       </c>
-      <c r="AD21" s="43" t="str">
+      <c r="AD21" s="23" t="str">
         <f>IF(_tag_day_all!AA18="","",_tag_day_all!AA18)</f>
         <v/>
       </c>
-      <c r="AE21" s="44" t="str">
+      <c r="AE21" s="24" t="str">
         <f>IF(_tag_day_all!AB18="","",_tag_day_all!AB18)</f>
         <v/>
       </c>
-      <c r="AF21" s="43" t="str">
+      <c r="AF21" s="23" t="str">
         <f>IF(_tag_day_all!AC18="","",_tag_day_all!AC18)</f>
         <v/>
       </c>
-      <c r="AG21" s="43" t="str">
+      <c r="AG21" s="23" t="str">
         <f>IF(_tag_day_all!AD18="","",_tag_day_all!AD18)</f>
         <v/>
       </c>
-      <c r="AH21" s="43" t="str">
+      <c r="AH21" s="23" t="str">
         <f>IF(_tag_day_all!AE18="","",_tag_day_all!AE18)</f>
         <v/>
       </c>
-      <c r="AI21" s="43" t="str">
+      <c r="AI21" s="23" t="str">
         <f>IF(_tag_day_all!AF18="","",_tag_day_all!AF18)</f>
         <v/>
       </c>
-      <c r="AJ21" s="43" t="str">
+      <c r="AJ21" s="23" t="str">
         <f>IF(_tag_day_all!AG18="","",_tag_day_all!AG18)</f>
         <v/>
       </c>
-      <c r="AK21" s="44" t="str">
+      <c r="AK21" s="24" t="str">
         <f>IF(_tag_day_all!AH18="","",_tag_day_all!AH18)</f>
         <v/>
       </c>
-      <c r="AL21" s="44" t="str">
+      <c r="AL21" s="24" t="str">
         <f>IF(_tag_day_all!AI18="","",_tag_day_all!AI18)</f>
         <v/>
       </c>
-      <c r="AM21" s="44" t="str">
+      <c r="AM21" s="24" t="str">
         <f>IF(_tag_day_all!AJ18="","",_tag_day_all!AJ18)</f>
         <v/>
       </c>
-      <c r="AN21" s="44" t="str">
+      <c r="AN21" s="24" t="str">
         <f>IF(_tag_day_all!AK18="","",_tag_day_all!AK18)</f>
         <v/>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="39">
+    <row r="22" spans="1:40">
+      <c r="A22" s="19">
         <v>18</v>
       </c>
-      <c r="B22" s="40" t="str">
+      <c r="B22" s="20" t="str">
         <f>IF(_tag_day_all!A19="","",_tag_day_all!A19)</f>
         <v/>
       </c>
-      <c r="C22" s="41" t="str">
+      <c r="C22" s="21" t="str">
         <f>IF(_tag_day_all!B19="","",_tag_day_all!B19)</f>
         <v/>
       </c>
-      <c r="D22" s="42" t="str">
+      <c r="D22" s="22" t="str">
         <f>IF(_tag_day_all!C19="","",_tag_day_all!C19)</f>
         <v/>
       </c>
-      <c r="E22" s="43" t="str">
+      <c r="E22" s="23" t="str">
         <f>IF(_tag_day_all!D19="","",_tag_day_all!D19*10000)</f>
         <v/>
       </c>
-      <c r="F22" s="44" t="str">
+      <c r="F22" s="24" t="str">
         <f>IF(_tag_day_all!E19="","",_tag_day_all!E19)</f>
         <v/>
       </c>
-      <c r="G22" s="43" t="str">
+      <c r="G22" s="23" t="str">
         <f>IF(_tag_day_all!F19="","",_tag_day_all!F19)</f>
         <v/>
       </c>
-      <c r="H22" s="44" t="str">
+      <c r="H22" s="24" t="str">
         <f>IF(_tag_day_all!G19="","",_tag_day_all!G19)</f>
         <v/>
       </c>
-      <c r="I22" s="44" t="str">
+      <c r="I22" s="24" t="str">
         <f>IF(_tag_day_all!H19="","",_tag_day_all!H19)</f>
         <v/>
       </c>
-      <c r="J22" s="45" t="str">
+      <c r="J22" s="44" t="str">
         <f>IF(_tag_day_all!I19="","",_tag_day_all!I19)</f>
         <v/>
       </c>
-      <c r="K22" s="45" t="str">
+      <c r="K22" s="44" t="str">
         <f>IF(_tag_day_all!J19="","",_tag_day_all!J19)</f>
         <v/>
       </c>
-      <c r="L22" s="44" t="str">
+      <c r="L22" s="24" t="str">
         <f>IF(_tag_day_all!K19="","",_tag_day_all!K19)</f>
         <v/>
       </c>
-      <c r="M22" s="44" t="str">
+      <c r="M22" s="24" t="str">
         <f>IF(_tag_day_all!L19="","",_tag_day_all!L19)</f>
         <v/>
       </c>
-      <c r="N22" s="45" t="str">
+      <c r="N22" s="44" t="str">
         <f>IF(_tag_day_all!M19="","",_tag_day_all!M19)</f>
         <v/>
       </c>
-      <c r="O22" s="44" t="str">
+      <c r="O22" s="24" t="str">
         <f>IF(_tag_day_all!N19="","",_tag_day_all!N19*100)</f>
         <v/>
       </c>
-      <c r="P22" s="44" t="str">
+      <c r="P22" s="24" t="str">
         <f>IF(_tag_day_all!AL19="","",_tag_day_all!AL19)</f>
         <v/>
       </c>
-      <c r="Q22" s="43" t="str">
+      <c r="Q22" s="23" t="str">
         <f>IF(_tag_day_all!AM19="","",_tag_day_all!AM19)</f>
         <v/>
       </c>
-      <c r="R22" s="43" t="str">
+      <c r="R22" s="23" t="str">
         <f>IF(_tag_day_all!O19="","",_tag_day_all!O19)</f>
         <v/>
       </c>
-      <c r="S22" s="43" t="str">
+      <c r="S22" s="23" t="str">
         <f>IF(_tag_day_all!P19="","",_tag_day_all!P19)</f>
         <v/>
       </c>
-      <c r="T22" s="43" t="str">
+      <c r="T22" s="23" t="str">
         <f>IF(_tag_day_all!Q19="","",_tag_day_all!Q19)</f>
         <v/>
       </c>
-      <c r="U22" s="43" t="str">
+      <c r="U22" s="23" t="str">
         <f>IF(_tag_day_all!R19="","",_tag_day_all!R19)</f>
         <v/>
       </c>
-      <c r="V22" s="43" t="str">
+      <c r="V22" s="23" t="str">
         <f>IF(_tag_day_all!S19="","",_tag_day_all!S19)</f>
         <v/>
       </c>
-      <c r="W22" s="43" t="str">
+      <c r="W22" s="23" t="str">
         <f>IF(_tag_day_all!T19="","",_tag_day_all!T19)</f>
         <v/>
       </c>
-      <c r="X22" s="44" t="str">
+      <c r="X22" s="24" t="str">
         <f>IF(_tag_day_all!U19="","",_tag_day_all!U19)</f>
         <v/>
       </c>
-      <c r="Y22" s="44" t="str">
+      <c r="Y22" s="24" t="str">
         <f>IF(_tag_day_all!V19="","",_tag_day_all!V19)</f>
         <v/>
       </c>
-      <c r="Z22" s="44" t="str">
+      <c r="Z22" s="24" t="str">
         <f>IF(_tag_day_all!W19="","",_tag_day_all!W19)</f>
         <v/>
       </c>
-      <c r="AA22" s="44" t="str">
+      <c r="AA22" s="24" t="str">
         <f>IF(_tag_day_all!X19="","",_tag_day_all!X19)</f>
         <v/>
       </c>
-      <c r="AB22" s="45" t="str">
+      <c r="AB22" s="44" t="str">
         <f>IF(_tag_day_all!Y19="","",_tag_day_all!Y19)</f>
         <v/>
       </c>
-      <c r="AC22" s="43" t="str">
+      <c r="AC22" s="23" t="str">
         <f>IF(_tag_day_all!Z19="","",_tag_day_all!Z19)</f>
         <v/>
       </c>
-      <c r="AD22" s="43" t="str">
+      <c r="AD22" s="23" t="str">
         <f>IF(_tag_day_all!AA19="","",_tag_day_all!AA19)</f>
         <v/>
       </c>
-      <c r="AE22" s="44" t="str">
+      <c r="AE22" s="24" t="str">
         <f>IF(_tag_day_all!AB19="","",_tag_day_all!AB19)</f>
         <v/>
       </c>
-      <c r="AF22" s="43" t="str">
+      <c r="AF22" s="23" t="str">
         <f>IF(_tag_day_all!AC19="","",_tag_day_all!AC19)</f>
         <v/>
       </c>
-      <c r="AG22" s="43" t="str">
+      <c r="AG22" s="23" t="str">
         <f>IF(_tag_day_all!AD19="","",_tag_day_all!AD19)</f>
         <v/>
       </c>
-      <c r="AH22" s="43" t="str">
+      <c r="AH22" s="23" t="str">
         <f>IF(_tag_day_all!AE19="","",_tag_day_all!AE19)</f>
         <v/>
       </c>
-      <c r="AI22" s="43" t="str">
+      <c r="AI22" s="23" t="str">
         <f>IF(_tag_day_all!AF19="","",_tag_day_all!AF19)</f>
         <v/>
       </c>
-      <c r="AJ22" s="43" t="str">
+      <c r="AJ22" s="23" t="str">
         <f>IF(_tag_day_all!AG19="","",_tag_day_all!AG19)</f>
         <v/>
       </c>
-      <c r="AK22" s="44" t="str">
+      <c r="AK22" s="24" t="str">
         <f>IF(_tag_day_all!AH19="","",_tag_day_all!AH19)</f>
         <v/>
       </c>
-      <c r="AL22" s="44" t="str">
+      <c r="AL22" s="24" t="str">
         <f>IF(_tag_day_all!AI19="","",_tag_day_all!AI19)</f>
         <v/>
       </c>
-      <c r="AM22" s="44" t="str">
+      <c r="AM22" s="24" t="str">
         <f>IF(_tag_day_all!AJ19="","",_tag_day_all!AJ19)</f>
         <v/>
       </c>
-      <c r="AN22" s="44" t="str">
+      <c r="AN22" s="24" t="str">
         <f>IF(_tag_day_all!AK19="","",_tag_day_all!AK19)</f>
         <v/>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="39">
+    <row r="23" spans="1:40">
+      <c r="A23" s="19">
         <v>19</v>
       </c>
-      <c r="B23" s="40" t="str">
+      <c r="B23" s="20" t="str">
         <f>IF(_tag_day_all!A20="","",_tag_day_all!A20)</f>
         <v/>
       </c>
-      <c r="C23" s="41" t="str">
+      <c r="C23" s="21" t="str">
         <f>IF(_tag_day_all!B20="","",_tag_day_all!B20)</f>
         <v/>
       </c>
-      <c r="D23" s="42" t="str">
+      <c r="D23" s="22" t="str">
         <f>IF(_tag_day_all!C20="","",_tag_day_all!C20)</f>
         <v/>
       </c>
-      <c r="E23" s="43" t="str">
+      <c r="E23" s="23" t="str">
         <f>IF(_tag_day_all!D20="","",_tag_day_all!D20*10000)</f>
         <v/>
       </c>
-      <c r="F23" s="44" t="str">
+      <c r="F23" s="24" t="str">
         <f>IF(_tag_day_all!E20="","",_tag_day_all!E20)</f>
         <v/>
       </c>
-      <c r="G23" s="43" t="str">
+      <c r="G23" s="23" t="str">
         <f>IF(_tag_day_all!F20="","",_tag_day_all!F20)</f>
         <v/>
       </c>
-      <c r="H23" s="44" t="str">
+      <c r="H23" s="24" t="str">
         <f>IF(_tag_day_all!G20="","",_tag_day_all!G20)</f>
         <v/>
       </c>
-      <c r="I23" s="44" t="str">
+      <c r="I23" s="24" t="str">
         <f>IF(_tag_day_all!H20="","",_tag_day_all!H20)</f>
         <v/>
       </c>
-      <c r="J23" s="45" t="str">
+      <c r="J23" s="44" t="str">
         <f>IF(_tag_day_all!I20="","",_tag_day_all!I20)</f>
         <v/>
       </c>
-      <c r="K23" s="45" t="str">
+      <c r="K23" s="44" t="str">
         <f>IF(_tag_day_all!J20="","",_tag_day_all!J20)</f>
         <v/>
       </c>
-      <c r="L23" s="44" t="str">
+      <c r="L23" s="24" t="str">
         <f>IF(_tag_day_all!K20="","",_tag_day_all!K20)</f>
         <v/>
       </c>
-      <c r="M23" s="44" t="str">
+      <c r="M23" s="24" t="str">
         <f>IF(_tag_day_all!L20="","",_tag_day_all!L20)</f>
         <v/>
       </c>
-      <c r="N23" s="45" t="str">
+      <c r="N23" s="44" t="str">
         <f>IF(_tag_day_all!M20="","",_tag_day_all!M20)</f>
         <v/>
       </c>
-      <c r="O23" s="44" t="str">
+      <c r="O23" s="24" t="str">
         <f>IF(_tag_day_all!N20="","",_tag_day_all!N20*100)</f>
         <v/>
       </c>
-      <c r="P23" s="44" t="str">
+      <c r="P23" s="24" t="str">
         <f>IF(_tag_day_all!AL20="","",_tag_day_all!AL20)</f>
         <v/>
       </c>
-      <c r="Q23" s="43" t="str">
+      <c r="Q23" s="23" t="str">
         <f>IF(_tag_day_all!AM20="","",_tag_day_all!AM20)</f>
         <v/>
       </c>
-      <c r="R23" s="43" t="str">
+      <c r="R23" s="23" t="str">
         <f>IF(_tag_day_all!O20="","",_tag_day_all!O20)</f>
         <v/>
       </c>
-      <c r="S23" s="43" t="str">
+      <c r="S23" s="23" t="str">
         <f>IF(_tag_day_all!P20="","",_tag_day_all!P20)</f>
         <v/>
       </c>
-      <c r="T23" s="43" t="str">
+      <c r="T23" s="23" t="str">
         <f>IF(_tag_day_all!Q20="","",_tag_day_all!Q20)</f>
         <v/>
       </c>
-      <c r="U23" s="43" t="str">
+      <c r="U23" s="23" t="str">
         <f>IF(_tag_day_all!R20="","",_tag_day_all!R20)</f>
         <v/>
       </c>
-      <c r="V23" s="43" t="str">
+      <c r="V23" s="23" t="str">
         <f>IF(_tag_day_all!S20="","",_tag_day_all!S20)</f>
         <v/>
       </c>
-      <c r="W23" s="43" t="str">
+      <c r="W23" s="23" t="str">
         <f>IF(_tag_day_all!T20="","",_tag_day_all!T20)</f>
         <v/>
       </c>
-      <c r="X23" s="44" t="str">
+      <c r="X23" s="24" t="str">
         <f>IF(_tag_day_all!U20="","",_tag_day_all!U20)</f>
         <v/>
       </c>
-      <c r="Y23" s="44" t="str">
+      <c r="Y23" s="24" t="str">
         <f>IF(_tag_day_all!V20="","",_tag_day_all!V20)</f>
         <v/>
       </c>
-      <c r="Z23" s="44" t="str">
+      <c r="Z23" s="24" t="str">
         <f>IF(_tag_day_all!W20="","",_tag_day_all!W20)</f>
         <v/>
       </c>
-      <c r="AA23" s="44" t="str">
+      <c r="AA23" s="24" t="str">
         <f>IF(_tag_day_all!X20="","",_tag_day_all!X20)</f>
         <v/>
       </c>
-      <c r="AB23" s="45" t="str">
+      <c r="AB23" s="44" t="str">
         <f>IF(_tag_day_all!Y20="","",_tag_day_all!Y20)</f>
         <v/>
       </c>
-      <c r="AC23" s="43" t="str">
+      <c r="AC23" s="23" t="str">
         <f>IF(_tag_day_all!Z20="","",_tag_day_all!Z20)</f>
         <v/>
       </c>
-      <c r="AD23" s="43" t="str">
+      <c r="AD23" s="23" t="str">
         <f>IF(_tag_day_all!AA20="","",_tag_day_all!AA20)</f>
         <v/>
       </c>
-      <c r="AE23" s="44" t="str">
+      <c r="AE23" s="24" t="str">
         <f>IF(_tag_day_all!AB20="","",_tag_day_all!AB20)</f>
         <v/>
       </c>
-      <c r="AF23" s="43" t="str">
+      <c r="AF23" s="23" t="str">
         <f>IF(_tag_day_all!AC20="","",_tag_day_all!AC20)</f>
         <v/>
       </c>
-      <c r="AG23" s="43" t="str">
+      <c r="AG23" s="23" t="str">
         <f>IF(_tag_day_all!AD20="","",_tag_day_all!AD20)</f>
         <v/>
       </c>
-      <c r="AH23" s="43" t="str">
+      <c r="AH23" s="23" t="str">
         <f>IF(_tag_day_all!AE20="","",_tag_day_all!AE20)</f>
         <v/>
       </c>
-      <c r="AI23" s="43" t="str">
+      <c r="AI23" s="23" t="str">
         <f>IF(_tag_day_all!AF20="","",_tag_day_all!AF20)</f>
         <v/>
       </c>
-      <c r="AJ23" s="43" t="str">
+      <c r="AJ23" s="23" t="str">
         <f>IF(_tag_day_all!AG20="","",_tag_day_all!AG20)</f>
         <v/>
       </c>
-      <c r="AK23" s="44" t="str">
+      <c r="AK23" s="24" t="str">
         <f>IF(_tag_day_all!AH20="","",_tag_day_all!AH20)</f>
         <v/>
       </c>
-      <c r="AL23" s="44" t="str">
+      <c r="AL23" s="24" t="str">
         <f>IF(_tag_day_all!AI20="","",_tag_day_all!AI20)</f>
         <v/>
       </c>
-      <c r="AM23" s="44" t="str">
+      <c r="AM23" s="24" t="str">
         <f>IF(_tag_day_all!AJ20="","",_tag_day_all!AJ20)</f>
         <v/>
       </c>
-      <c r="AN23" s="44" t="str">
+      <c r="AN23" s="24" t="str">
         <f>IF(_tag_day_all!AK20="","",_tag_day_all!AK20)</f>
         <v/>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="39">
+    <row r="24" spans="1:40">
+      <c r="A24" s="19">
         <v>20</v>
       </c>
-      <c r="B24" s="40" t="str">
+      <c r="B24" s="20" t="str">
         <f>IF(_tag_day_all!A21="","",_tag_day_all!A21)</f>
         <v/>
       </c>
-      <c r="C24" s="41" t="str">
+      <c r="C24" s="21" t="str">
         <f>IF(_tag_day_all!B21="","",_tag_day_all!B21)</f>
         <v/>
       </c>
-      <c r="D24" s="42" t="str">
+      <c r="D24" s="22" t="str">
         <f>IF(_tag_day_all!C21="","",_tag_day_all!C21)</f>
         <v/>
       </c>
-      <c r="E24" s="43" t="str">
+      <c r="E24" s="23" t="str">
         <f>IF(_tag_day_all!D21="","",_tag_day_all!D21*10000)</f>
         <v/>
       </c>
-      <c r="F24" s="44" t="str">
+      <c r="F24" s="24" t="str">
         <f>IF(_tag_day_all!E21="","",_tag_day_all!E21)</f>
         <v/>
       </c>
-      <c r="G24" s="43" t="str">
+      <c r="G24" s="23" t="str">
         <f>IF(_tag_day_all!F21="","",_tag_day_all!F21)</f>
         <v/>
       </c>
-      <c r="H24" s="44" t="str">
+      <c r="H24" s="24" t="str">
         <f>IF(_tag_day_all!G21="","",_tag_day_all!G21)</f>
         <v/>
       </c>
-      <c r="I24" s="44" t="str">
+      <c r="I24" s="24" t="str">
         <f>IF(_tag_day_all!H21="","",_tag_day_all!H21)</f>
         <v/>
       </c>
-      <c r="J24" s="45" t="str">
+      <c r="J24" s="44" t="str">
         <f>IF(_tag_day_all!I21="","",_tag_day_all!I21)</f>
         <v/>
       </c>
-      <c r="K24" s="45" t="str">
+      <c r="K24" s="44" t="str">
         <f>IF(_tag_day_all!J21="","",_tag_day_all!J21)</f>
         <v/>
       </c>
-      <c r="L24" s="44" t="str">
+      <c r="L24" s="24" t="str">
         <f>IF(_tag_day_all!K21="","",_tag_day_all!K21)</f>
         <v/>
       </c>
-      <c r="M24" s="44" t="str">
+      <c r="M24" s="24" t="str">
         <f>IF(_tag_day_all!L21="","",_tag_day_all!L21)</f>
         <v/>
       </c>
-      <c r="N24" s="45" t="str">
+      <c r="N24" s="44" t="str">
         <f>IF(_tag_day_all!M21="","",_tag_day_all!M21)</f>
         <v/>
       </c>
-      <c r="O24" s="44" t="str">
+      <c r="O24" s="24" t="str">
         <f>IF(_tag_day_all!N21="","",_tag_day_all!N21*100)</f>
         <v/>
       </c>
-      <c r="P24" s="44" t="str">
+      <c r="P24" s="24" t="str">
         <f>IF(_tag_day_all!AL21="","",_tag_day_all!AL21)</f>
         <v/>
       </c>
-      <c r="Q24" s="43" t="str">
+      <c r="Q24" s="23" t="str">
         <f>IF(_tag_day_all!AM21="","",_tag_day_all!AM21)</f>
         <v/>
       </c>
-      <c r="R24" s="43" t="str">
+      <c r="R24" s="23" t="str">
         <f>IF(_tag_day_all!O21="","",_tag_day_all!O21)</f>
         <v/>
       </c>
-      <c r="S24" s="43" t="str">
+      <c r="S24" s="23" t="str">
         <f>IF(_tag_day_all!P21="","",_tag_day_all!P21)</f>
         <v/>
       </c>
-      <c r="T24" s="43" t="str">
+      <c r="T24" s="23" t="str">
         <f>IF(_tag_day_all!Q21="","",_tag_day_all!Q21)</f>
         <v/>
       </c>
-      <c r="U24" s="43" t="str">
+      <c r="U24" s="23" t="str">
         <f>IF(_tag_day_all!R21="","",_tag_day_all!R21)</f>
         <v/>
       </c>
-      <c r="V24" s="43" t="str">
+      <c r="V24" s="23" t="str">
         <f>IF(_tag_day_all!S21="","",_tag_day_all!S21)</f>
         <v/>
       </c>
-      <c r="W24" s="43" t="str">
+      <c r="W24" s="23" t="str">
         <f>IF(_tag_day_all!T21="","",_tag_day_all!T21)</f>
         <v/>
       </c>
-      <c r="X24" s="44" t="str">
+      <c r="X24" s="24" t="str">
         <f>IF(_tag_day_all!U21="","",_tag_day_all!U21)</f>
         <v/>
       </c>
-      <c r="Y24" s="44" t="str">
+      <c r="Y24" s="24" t="str">
         <f>IF(_tag_day_all!V21="","",_tag_day_all!V21)</f>
         <v/>
       </c>
-      <c r="Z24" s="44" t="str">
+      <c r="Z24" s="24" t="str">
         <f>IF(_tag_day_all!W21="","",_tag_day_all!W21)</f>
         <v/>
       </c>
-      <c r="AA24" s="44" t="str">
+      <c r="AA24" s="24" t="str">
         <f>IF(_tag_day_all!X21="","",_tag_day_all!X21)</f>
         <v/>
       </c>
-      <c r="AB24" s="45" t="str">
+      <c r="AB24" s="44" t="str">
         <f>IF(_tag_day_all!Y21="","",_tag_day_all!Y21)</f>
         <v/>
       </c>
-      <c r="AC24" s="43" t="str">
+      <c r="AC24" s="23" t="str">
         <f>IF(_tag_day_all!Z21="","",_tag_day_all!Z21)</f>
         <v/>
       </c>
-      <c r="AD24" s="43" t="str">
+      <c r="AD24" s="23" t="str">
         <f>IF(_tag_day_all!AA21="","",_tag_day_all!AA21)</f>
         <v/>
       </c>
-      <c r="AE24" s="44" t="str">
+      <c r="AE24" s="24" t="str">
         <f>IF(_tag_day_all!AB21="","",_tag_day_all!AB21)</f>
         <v/>
       </c>
-      <c r="AF24" s="43" t="str">
+      <c r="AF24" s="23" t="str">
         <f>IF(_tag_day_all!AC21="","",_tag_day_all!AC21)</f>
         <v/>
       </c>
-      <c r="AG24" s="43" t="str">
+      <c r="AG24" s="23" t="str">
         <f>IF(_tag_day_all!AD21="","",_tag_day_all!AD21)</f>
         <v/>
       </c>
-      <c r="AH24" s="43" t="str">
+      <c r="AH24" s="23" t="str">
         <f>IF(_tag_day_all!AE21="","",_tag_day_all!AE21)</f>
         <v/>
       </c>
-      <c r="AI24" s="43" t="str">
+      <c r="AI24" s="23" t="str">
         <f>IF(_tag_day_all!AF21="","",_tag_day_all!AF21)</f>
         <v/>
       </c>
-      <c r="AJ24" s="43" t="str">
+      <c r="AJ24" s="23" t="str">
         <f>IF(_tag_day_all!AG21="","",_tag_day_all!AG21)</f>
         <v/>
       </c>
-      <c r="AK24" s="44" t="str">
+      <c r="AK24" s="24" t="str">
         <f>IF(_tag_day_all!AH21="","",_tag_day_all!AH21)</f>
         <v/>
       </c>
-      <c r="AL24" s="44" t="str">
+      <c r="AL24" s="24" t="str">
         <f>IF(_tag_day_all!AI21="","",_tag_day_all!AI21)</f>
         <v/>
       </c>
-      <c r="AM24" s="44" t="str">
+      <c r="AM24" s="24" t="str">
         <f>IF(_tag_day_all!AJ21="","",_tag_day_all!AJ21)</f>
         <v/>
       </c>
-      <c r="AN24" s="44" t="str">
+      <c r="AN24" s="24" t="str">
         <f>IF(_tag_day_all!AK21="","",_tag_day_all!AK21)</f>
         <v/>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="39">
+    <row r="25" spans="1:40">
+      <c r="A25" s="19">
         <v>21</v>
       </c>
-      <c r="B25" s="40" t="str">
+      <c r="B25" s="20" t="str">
         <f>IF(_tag_day_all!A22="","",_tag_day_all!A22)</f>
         <v/>
       </c>
-      <c r="C25" s="41" t="str">
+      <c r="C25" s="21" t="str">
         <f>IF(_tag_day_all!B22="","",_tag_day_all!B22)</f>
         <v/>
       </c>
-      <c r="D25" s="42" t="str">
+      <c r="D25" s="22" t="str">
         <f>IF(_tag_day_all!C22="","",_tag_day_all!C22)</f>
         <v/>
       </c>
-      <c r="E25" s="43" t="str">
+      <c r="E25" s="23" t="str">
         <f>IF(_tag_day_all!D22="","",_tag_day_all!D22*10000)</f>
         <v/>
       </c>
-      <c r="F25" s="44" t="str">
+      <c r="F25" s="24" t="str">
         <f>IF(_tag_day_all!E22="","",_tag_day_all!E22)</f>
         <v/>
       </c>
-      <c r="G25" s="43" t="str">
+      <c r="G25" s="23" t="str">
         <f>IF(_tag_day_all!F22="","",_tag_day_all!F22)</f>
         <v/>
       </c>
-      <c r="H25" s="44" t="str">
+      <c r="H25" s="24" t="str">
         <f>IF(_tag_day_all!G22="","",_tag_day_all!G22)</f>
         <v/>
       </c>
-      <c r="I25" s="44" t="str">
+      <c r="I25" s="24" t="str">
         <f>IF(_tag_day_all!H22="","",_tag_day_all!H22)</f>
         <v/>
       </c>
-      <c r="J25" s="45" t="str">
+      <c r="J25" s="44" t="str">
         <f>IF(_tag_day_all!I22="","",_tag_day_all!I22)</f>
         <v/>
       </c>
-      <c r="K25" s="45" t="str">
+      <c r="K25" s="44" t="str">
         <f>IF(_tag_day_all!J22="","",_tag_day_all!J22)</f>
         <v/>
       </c>
-      <c r="L25" s="44" t="str">
+      <c r="L25" s="24" t="str">
         <f>IF(_tag_day_all!K22="","",_tag_day_all!K22)</f>
         <v/>
       </c>
-      <c r="M25" s="44" t="str">
+      <c r="M25" s="24" t="str">
         <f>IF(_tag_day_all!L22="","",_tag_day_all!L22)</f>
         <v/>
       </c>
-      <c r="N25" s="45" t="str">
+      <c r="N25" s="44" t="str">
         <f>IF(_tag_day_all!M22="","",_tag_day_all!M22)</f>
         <v/>
       </c>
-      <c r="O25" s="44" t="str">
+      <c r="O25" s="24" t="str">
         <f>IF(_tag_day_all!N22="","",_tag_day_all!N22*100)</f>
         <v/>
       </c>
-      <c r="P25" s="44" t="str">
+      <c r="P25" s="24" t="str">
         <f>IF(_tag_day_all!AL22="","",_tag_day_all!AL22)</f>
         <v/>
       </c>
-      <c r="Q25" s="43" t="str">
+      <c r="Q25" s="23" t="str">
         <f>IF(_tag_day_all!AM22="","",_tag_day_all!AM22)</f>
         <v/>
       </c>
-      <c r="R25" s="43" t="str">
+      <c r="R25" s="23" t="str">
         <f>IF(_tag_day_all!O22="","",_tag_day_all!O22)</f>
         <v/>
       </c>
-      <c r="S25" s="43" t="str">
+      <c r="S25" s="23" t="str">
         <f>IF(_tag_day_all!P22="","",_tag_day_all!P22)</f>
         <v/>
       </c>
-      <c r="T25" s="43" t="str">
+      <c r="T25" s="23" t="str">
         <f>IF(_tag_day_all!Q22="","",_tag_day_all!Q22)</f>
         <v/>
       </c>
-      <c r="U25" s="43" t="str">
+      <c r="U25" s="23" t="str">
         <f>IF(_tag_day_all!R22="","",_tag_day_all!R22)</f>
         <v/>
       </c>
-      <c r="V25" s="43" t="str">
+      <c r="V25" s="23" t="str">
         <f>IF(_tag_day_all!S22="","",_tag_day_all!S22)</f>
         <v/>
       </c>
-      <c r="W25" s="43" t="str">
+      <c r="W25" s="23" t="str">
         <f>IF(_tag_day_all!T22="","",_tag_day_all!T22)</f>
         <v/>
       </c>
-      <c r="X25" s="44" t="str">
+      <c r="X25" s="24" t="str">
         <f>IF(_tag_day_all!U22="","",_tag_day_all!U22)</f>
         <v/>
       </c>
-      <c r="Y25" s="44" t="str">
+      <c r="Y25" s="24" t="str">
         <f>IF(_tag_day_all!V22="","",_tag_day_all!V22)</f>
         <v/>
       </c>
-      <c r="Z25" s="44" t="str">
+      <c r="Z25" s="24" t="str">
         <f>IF(_tag_day_all!W22="","",_tag_day_all!W22)</f>
         <v/>
       </c>
-      <c r="AA25" s="44" t="str">
+      <c r="AA25" s="24" t="str">
         <f>IF(_tag_day_all!X22="","",_tag_day_all!X22)</f>
         <v/>
       </c>
-      <c r="AB25" s="45" t="str">
+      <c r="AB25" s="44" t="str">
         <f>IF(_tag_day_all!Y22="","",_tag_day_all!Y22)</f>
         <v/>
       </c>
-      <c r="AC25" s="43" t="str">
+      <c r="AC25" s="23" t="str">
         <f>IF(_tag_day_all!Z22="","",_tag_day_all!Z22)</f>
         <v/>
       </c>
-      <c r="AD25" s="43" t="str">
+      <c r="AD25" s="23" t="str">
         <f>IF(_tag_day_all!AA22="","",_tag_day_all!AA22)</f>
         <v/>
       </c>
-      <c r="AE25" s="44" t="str">
+      <c r="AE25" s="24" t="str">
         <f>IF(_tag_day_all!AB22="","",_tag_day_all!AB22)</f>
         <v/>
       </c>
-      <c r="AF25" s="43" t="str">
+      <c r="AF25" s="23" t="str">
         <f>IF(_tag_day_all!AC22="","",_tag_day_all!AC22)</f>
         <v/>
       </c>
-      <c r="AG25" s="43" t="str">
+      <c r="AG25" s="23" t="str">
         <f>IF(_tag_day_all!AD22="","",_tag_day_all!AD22)</f>
         <v/>
       </c>
-      <c r="AH25" s="43" t="str">
+      <c r="AH25" s="23" t="str">
         <f>IF(_tag_day_all!AE22="","",_tag_day_all!AE22)</f>
         <v/>
       </c>
-      <c r="AI25" s="43" t="str">
+      <c r="AI25" s="23" t="str">
         <f>IF(_tag_day_all!AF22="","",_tag_day_all!AF22)</f>
         <v/>
       </c>
-      <c r="AJ25" s="43" t="str">
+      <c r="AJ25" s="23" t="str">
         <f>IF(_tag_day_all!AG22="","",_tag_day_all!AG22)</f>
         <v/>
       </c>
-      <c r="AK25" s="44" t="str">
+      <c r="AK25" s="24" t="str">
         <f>IF(_tag_day_all!AH22="","",_tag_day_all!AH22)</f>
         <v/>
       </c>
-      <c r="AL25" s="44" t="str">
+      <c r="AL25" s="24" t="str">
         <f>IF(_tag_day_all!AI22="","",_tag_day_all!AI22)</f>
         <v/>
       </c>
-      <c r="AM25" s="44" t="str">
+      <c r="AM25" s="24" t="str">
         <f>IF(_tag_day_all!AJ22="","",_tag_day_all!AJ22)</f>
         <v/>
       </c>
-      <c r="AN25" s="44" t="str">
+      <c r="AN25" s="24" t="str">
         <f>IF(_tag_day_all!AK22="","",_tag_day_all!AK22)</f>
         <v/>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="39">
+    <row r="26" spans="1:40">
+      <c r="A26" s="19">
         <v>22</v>
       </c>
-      <c r="B26" s="40" t="str">
+      <c r="B26" s="20" t="str">
         <f>IF(_tag_day_all!A23="","",_tag_day_all!A23)</f>
         <v/>
       </c>
-      <c r="C26" s="41" t="str">
+      <c r="C26" s="21" t="str">
         <f>IF(_tag_day_all!B23="","",_tag_day_all!B23)</f>
         <v/>
       </c>
-      <c r="D26" s="42" t="str">
+      <c r="D26" s="22" t="str">
         <f>IF(_tag_day_all!C23="","",_tag_day_all!C23)</f>
         <v/>
       </c>
-      <c r="E26" s="43" t="str">
+      <c r="E26" s="23" t="str">
         <f>IF(_tag_day_all!D23="","",_tag_day_all!D23*10000)</f>
         <v/>
       </c>
-      <c r="F26" s="44" t="str">
+      <c r="F26" s="24" t="str">
         <f>IF(_tag_day_all!E23="","",_tag_day_all!E23)</f>
         <v/>
       </c>
-      <c r="G26" s="43" t="str">
+      <c r="G26" s="23" t="str">
         <f>IF(_tag_day_all!F23="","",_tag_day_all!F23)</f>
         <v/>
       </c>
-      <c r="H26" s="44" t="str">
+      <c r="H26" s="24" t="str">
         <f>IF(_tag_day_all!G23="","",_tag_day_all!G23)</f>
         <v/>
       </c>
-      <c r="I26" s="44" t="str">
+      <c r="I26" s="24" t="str">
         <f>IF(_tag_day_all!H23="","",_tag_day_all!H23)</f>
         <v/>
       </c>
-      <c r="J26" s="45" t="str">
+      <c r="J26" s="44" t="str">
         <f>IF(_tag_day_all!I23="","",_tag_day_all!I23)</f>
         <v/>
       </c>
-      <c r="K26" s="45" t="str">
+      <c r="K26" s="44" t="str">
         <f>IF(_tag_day_all!J23="","",_tag_day_all!J23)</f>
         <v/>
       </c>
-      <c r="L26" s="44" t="str">
+      <c r="L26" s="24" t="str">
         <f>IF(_tag_day_all!K23="","",_tag_day_all!K23)</f>
         <v/>
       </c>
-      <c r="M26" s="44" t="str">
+      <c r="M26" s="24" t="str">
         <f>IF(_tag_day_all!L23="","",_tag_day_all!L23)</f>
         <v/>
       </c>
-      <c r="N26" s="45" t="str">
+      <c r="N26" s="44" t="str">
         <f>IF(_tag_day_all!M23="","",_tag_day_all!M23)</f>
         <v/>
       </c>
-      <c r="O26" s="44" t="str">
+      <c r="O26" s="24" t="str">
         <f>IF(_tag_day_all!N23="","",_tag_day_all!N23*100)</f>
         <v/>
       </c>
-      <c r="P26" s="44" t="str">
+      <c r="P26" s="24" t="str">
         <f>IF(_tag_day_all!AL23="","",_tag_day_all!AL23)</f>
         <v/>
       </c>
-      <c r="Q26" s="43" t="str">
+      <c r="Q26" s="23" t="str">
         <f>IF(_tag_day_all!AM23="","",_tag_day_all!AM23)</f>
         <v/>
       </c>
-      <c r="R26" s="43" t="str">
+      <c r="R26" s="23" t="str">
         <f>IF(_tag_day_all!O23="","",_tag_day_all!O23)</f>
         <v/>
       </c>
-      <c r="S26" s="43" t="str">
+      <c r="S26" s="23" t="str">
         <f>IF(_tag_day_all!P23="","",_tag_day_all!P23)</f>
         <v/>
       </c>
-      <c r="T26" s="43" t="str">
+      <c r="T26" s="23" t="str">
         <f>IF(_tag_day_all!Q23="","",_tag_day_all!Q23)</f>
         <v/>
       </c>
-      <c r="U26" s="43" t="str">
+      <c r="U26" s="23" t="str">
         <f>IF(_tag_day_all!R23="","",_tag_day_all!R23)</f>
         <v/>
       </c>
-      <c r="V26" s="43" t="str">
+      <c r="V26" s="23" t="str">
         <f>IF(_tag_day_all!S23="","",_tag_day_all!S23)</f>
         <v/>
       </c>
-      <c r="W26" s="43" t="str">
+      <c r="W26" s="23" t="str">
         <f>IF(_tag_day_all!T23="","",_tag_day_all!T23)</f>
         <v/>
       </c>
-      <c r="X26" s="44" t="str">
+      <c r="X26" s="24" t="str">
         <f>IF(_tag_day_all!U23="","",_tag_day_all!U23)</f>
         <v/>
       </c>
-      <c r="Y26" s="44" t="str">
+      <c r="Y26" s="24" t="str">
         <f>IF(_tag_day_all!V23="","",_tag_day_all!V23)</f>
         <v/>
       </c>
-      <c r="Z26" s="44" t="str">
+      <c r="Z26" s="24" t="str">
         <f>IF(_tag_day_all!W23="","",_tag_day_all!W23)</f>
         <v/>
       </c>
-      <c r="AA26" s="44" t="str">
+      <c r="AA26" s="24" t="str">
         <f>IF(_tag_day_all!X23="","",_tag_day_all!X23)</f>
         <v/>
       </c>
-      <c r="AB26" s="45" t="str">
+      <c r="AB26" s="44" t="str">
         <f>IF(_tag_day_all!Y23="","",_tag_day_all!Y23)</f>
         <v/>
       </c>
-      <c r="AC26" s="43" t="str">
+      <c r="AC26" s="23" t="str">
         <f>IF(_tag_day_all!Z23="","",_tag_day_all!Z23)</f>
         <v/>
       </c>
-      <c r="AD26" s="43" t="str">
+      <c r="AD26" s="23" t="str">
         <f>IF(_tag_day_all!AA23="","",_tag_day_all!AA23)</f>
         <v/>
       </c>
-      <c r="AE26" s="44" t="str">
+      <c r="AE26" s="24" t="str">
         <f>IF(_tag_day_all!AB23="","",_tag_day_all!AB23)</f>
         <v/>
       </c>
-      <c r="AF26" s="43" t="str">
+      <c r="AF26" s="23" t="str">
         <f>IF(_tag_day_all!AC23="","",_tag_day_all!AC23)</f>
         <v/>
       </c>
-      <c r="AG26" s="43" t="str">
+      <c r="AG26" s="23" t="str">
         <f>IF(_tag_day_all!AD23="","",_tag_day_all!AD23)</f>
         <v/>
       </c>
-      <c r="AH26" s="43" t="str">
+      <c r="AH26" s="23" t="str">
         <f>IF(_tag_day_all!AE23="","",_tag_day_all!AE23)</f>
         <v/>
       </c>
-      <c r="AI26" s="43" t="str">
+      <c r="AI26" s="23" t="str">
         <f>IF(_tag_day_all!AF23="","",_tag_day_all!AF23)</f>
         <v/>
       </c>
-      <c r="AJ26" s="43" t="str">
+      <c r="AJ26" s="23" t="str">
         <f>IF(_tag_day_all!AG23="","",_tag_day_all!AG23)</f>
         <v/>
       </c>
-      <c r="AK26" s="44" t="str">
+      <c r="AK26" s="24" t="str">
         <f>IF(_tag_day_all!AH23="","",_tag_day_all!AH23)</f>
         <v/>
       </c>
-      <c r="AL26" s="44" t="str">
+      <c r="AL26" s="24" t="str">
         <f>IF(_tag_day_all!AI23="","",_tag_day_all!AI23)</f>
         <v/>
       </c>
-      <c r="AM26" s="44" t="str">
+      <c r="AM26" s="24" t="str">
         <f>IF(_tag_day_all!AJ23="","",_tag_day_all!AJ23)</f>
         <v/>
       </c>
-      <c r="AN26" s="44" t="str">
+      <c r="AN26" s="24" t="str">
         <f>IF(_tag_day_all!AK23="","",_tag_day_all!AK23)</f>
         <v/>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="39">
+    <row r="27" spans="1:40">
+      <c r="A27" s="19">
         <v>23</v>
       </c>
-      <c r="B27" s="40" t="str">
+      <c r="B27" s="20" t="str">
         <f>IF(_tag_day_all!A24="","",_tag_day_all!A24)</f>
         <v/>
       </c>
-      <c r="C27" s="41" t="str">
+      <c r="C27" s="21" t="str">
         <f>IF(_tag_day_all!B24="","",_tag_day_all!B24)</f>
         <v/>
       </c>
-      <c r="D27" s="42" t="str">
+      <c r="D27" s="22" t="str">
         <f>IF(_tag_day_all!C24="","",_tag_day_all!C24)</f>
         <v/>
       </c>
-      <c r="E27" s="43" t="str">
+      <c r="E27" s="23" t="str">
         <f>IF(_tag_day_all!D24="","",_tag_day_all!D24*10000)</f>
         <v/>
       </c>
-      <c r="F27" s="44" t="str">
+      <c r="F27" s="24" t="str">
         <f>IF(_tag_day_all!E24="","",_tag_day_all!E24)</f>
         <v/>
       </c>
-      <c r="G27" s="43" t="str">
+      <c r="G27" s="23" t="str">
         <f>IF(_tag_day_all!F24="","",_tag_day_all!F24)</f>
         <v/>
       </c>
-      <c r="H27" s="44" t="str">
+      <c r="H27" s="24" t="str">
         <f>IF(_tag_day_all!G24="","",_tag_day_all!G24)</f>
         <v/>
       </c>
-      <c r="I27" s="44" t="str">
+      <c r="I27" s="24" t="str">
         <f>IF(_tag_day_all!H24="","",_tag_day_all!H24)</f>
         <v/>
       </c>
-      <c r="J27" s="45" t="str">
+      <c r="J27" s="44" t="str">
         <f>IF(_tag_day_all!I24="","",_tag_day_all!I24)</f>
         <v/>
       </c>
-      <c r="K27" s="45" t="str">
+      <c r="K27" s="44" t="str">
         <f>IF(_tag_day_all!J24="","",_tag_day_all!J24)</f>
         <v/>
       </c>
-      <c r="L27" s="44" t="str">
+      <c r="L27" s="24" t="str">
         <f>IF(_tag_day_all!K24="","",_tag_day_all!K24)</f>
         <v/>
       </c>
-      <c r="M27" s="44" t="str">
+      <c r="M27" s="24" t="str">
         <f>IF(_tag_day_all!L24="","",_tag_day_all!L24)</f>
         <v/>
       </c>
-      <c r="N27" s="45" t="str">
+      <c r="N27" s="44" t="str">
         <f>IF(_tag_day_all!M24="","",_tag_day_all!M24)</f>
         <v/>
       </c>
-      <c r="O27" s="44" t="str">
+      <c r="O27" s="24" t="str">
         <f>IF(_tag_day_all!N24="","",_tag_day_all!N24*100)</f>
         <v/>
       </c>
-      <c r="P27" s="44" t="str">
+      <c r="P27" s="24" t="str">
         <f>IF(_tag_day_all!AL24="","",_tag_day_all!AL24)</f>
         <v/>
       </c>
-      <c r="Q27" s="43" t="str">
+      <c r="Q27" s="23" t="str">
         <f>IF(_tag_day_all!AM24="","",_tag_day_all!AM24)</f>
         <v/>
       </c>
-      <c r="R27" s="43" t="str">
+      <c r="R27" s="23" t="str">
         <f>IF(_tag_day_all!O24="","",_tag_day_all!O24)</f>
         <v/>
       </c>
-      <c r="S27" s="43" t="str">
+      <c r="S27" s="23" t="str">
         <f>IF(_tag_day_all!P24="","",_tag_day_all!P24)</f>
         <v/>
       </c>
-      <c r="T27" s="43" t="str">
+      <c r="T27" s="23" t="str">
         <f>IF(_tag_day_all!Q24="","",_tag_day_all!Q24)</f>
         <v/>
       </c>
-      <c r="U27" s="43" t="str">
+      <c r="U27" s="23" t="str">
         <f>IF(_tag_day_all!R24="","",_tag_day_all!R24)</f>
         <v/>
       </c>
-      <c r="V27" s="43" t="str">
+      <c r="V27" s="23" t="str">
         <f>IF(_tag_day_all!S24="","",_tag_day_all!S24)</f>
         <v/>
       </c>
-      <c r="W27" s="43" t="str">
+      <c r="W27" s="23" t="str">
         <f>IF(_tag_day_all!T24="","",_tag_day_all!T24)</f>
         <v/>
       </c>
-      <c r="X27" s="44" t="str">
+      <c r="X27" s="24" t="str">
         <f>IF(_tag_day_all!U24="","",_tag_day_all!U24)</f>
         <v/>
       </c>
-      <c r="Y27" s="44" t="str">
+      <c r="Y27" s="24" t="str">
         <f>IF(_tag_day_all!V24="","",_tag_day_all!V24)</f>
         <v/>
       </c>
-      <c r="Z27" s="44" t="str">
+      <c r="Z27" s="24" t="str">
         <f>IF(_tag_day_all!W24="","",_tag_day_all!W24)</f>
         <v/>
       </c>
-      <c r="AA27" s="44" t="str">
+      <c r="AA27" s="24" t="str">
         <f>IF(_tag_day_all!X24="","",_tag_day_all!X24)</f>
         <v/>
       </c>
-      <c r="AB27" s="45" t="str">
+      <c r="AB27" s="44" t="str">
         <f>IF(_tag_day_all!Y24="","",_tag_day_all!Y24)</f>
         <v/>
       </c>
-      <c r="AC27" s="43" t="str">
+      <c r="AC27" s="23" t="str">
         <f>IF(_tag_day_all!Z24="","",_tag_day_all!Z24)</f>
         <v/>
       </c>
-      <c r="AD27" s="43" t="str">
+      <c r="AD27" s="23" t="str">
         <f>IF(_tag_day_all!AA24="","",_tag_day_all!AA24)</f>
         <v/>
       </c>
-      <c r="AE27" s="44" t="str">
+      <c r="AE27" s="24" t="str">
         <f>IF(_tag_day_all!AB24="","",_tag_day_all!AB24)</f>
         <v/>
       </c>
-      <c r="AF27" s="43" t="str">
+      <c r="AF27" s="23" t="str">
         <f>IF(_tag_day_all!AC24="","",_tag_day_all!AC24)</f>
         <v/>
       </c>
-      <c r="AG27" s="43" t="str">
+      <c r="AG27" s="23" t="str">
         <f>IF(_tag_day_all!AD24="","",_tag_day_all!AD24)</f>
         <v/>
       </c>
-      <c r="AH27" s="43" t="str">
+      <c r="AH27" s="23" t="str">
         <f>IF(_tag_day_all!AE24="","",_tag_day_all!AE24)</f>
         <v/>
       </c>
-      <c r="AI27" s="43" t="str">
+      <c r="AI27" s="23" t="str">
         <f>IF(_tag_day_all!AF24="","",_tag_day_all!AF24)</f>
         <v/>
       </c>
-      <c r="AJ27" s="43" t="str">
+      <c r="AJ27" s="23" t="str">
         <f>IF(_tag_day_all!AG24="","",_tag_day_all!AG24)</f>
         <v/>
       </c>
-      <c r="AK27" s="44" t="str">
+      <c r="AK27" s="24" t="str">
         <f>IF(_tag_day_all!AH24="","",_tag_day_all!AH24)</f>
         <v/>
       </c>
-      <c r="AL27" s="44" t="str">
+      <c r="AL27" s="24" t="str">
         <f>IF(_tag_day_all!AI24="","",_tag_day_all!AI24)</f>
         <v/>
       </c>
-      <c r="AM27" s="44" t="str">
+      <c r="AM27" s="24" t="str">
         <f>IF(_tag_day_all!AJ24="","",_tag_day_all!AJ24)</f>
         <v/>
       </c>
-      <c r="AN27" s="44" t="str">
+      <c r="AN27" s="24" t="str">
         <f>IF(_tag_day_all!AK24="","",_tag_day_all!AK24)</f>
         <v/>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="39">
+    <row r="28" spans="1:40">
+      <c r="A28" s="19">
         <v>24</v>
       </c>
-      <c r="B28" s="40" t="str">
+      <c r="B28" s="20" t="str">
         <f>IF(_tag_day_all!A25="","",_tag_day_all!A25)</f>
         <v/>
       </c>
-      <c r="C28" s="41" t="str">
+      <c r="C28" s="21" t="str">
         <f>IF(_tag_day_all!B25="","",_tag_day_all!B25)</f>
         <v/>
       </c>
-      <c r="D28" s="42" t="str">
+      <c r="D28" s="22" t="str">
         <f>IF(_tag_day_all!C25="","",_tag_day_all!C25)</f>
         <v/>
       </c>
-      <c r="E28" s="43" t="str">
+      <c r="E28" s="23" t="str">
         <f>IF(_tag_day_all!D25="","",_tag_day_all!D25*10000)</f>
         <v/>
       </c>
-      <c r="F28" s="44" t="str">
+      <c r="F28" s="24" t="str">
         <f>IF(_tag_day_all!E25="","",_tag_day_all!E25)</f>
         <v/>
       </c>
-      <c r="G28" s="43" t="str">
+      <c r="G28" s="23" t="str">
         <f>IF(_tag_day_all!F25="","",_tag_day_all!F25)</f>
         <v/>
       </c>
-      <c r="H28" s="44" t="str">
+      <c r="H28" s="24" t="str">
         <f>IF(_tag_day_all!G25="","",_tag_day_all!G25)</f>
         <v/>
       </c>
-      <c r="I28" s="44" t="str">
+      <c r="I28" s="24" t="str">
         <f>IF(_tag_day_all!H25="","",_tag_day_all!H25)</f>
         <v/>
       </c>
-      <c r="J28" s="45" t="str">
+      <c r="J28" s="44" t="str">
         <f>IF(_tag_day_all!I25="","",_tag_day_all!I25)</f>
         <v/>
       </c>
-      <c r="K28" s="45" t="str">
+      <c r="K28" s="44" t="str">
         <f>IF(_tag_day_all!J25="","",_tag_day_all!J25)</f>
         <v/>
       </c>
-      <c r="L28" s="44" t="str">
+      <c r="L28" s="24" t="str">
         <f>IF(_tag_day_all!K25="","",_tag_day_all!K25)</f>
         <v/>
       </c>
-      <c r="M28" s="44" t="str">
+      <c r="M28" s="24" t="str">
         <f>IF(_tag_day_all!L25="","",_tag_day_all!L25)</f>
         <v/>
       </c>
-      <c r="N28" s="45" t="str">
+      <c r="N28" s="44" t="str">
         <f>IF(_tag_day_all!M25="","",_tag_day_all!M25)</f>
         <v/>
       </c>
-      <c r="O28" s="44" t="str">
+      <c r="O28" s="24" t="str">
         <f>IF(_tag_day_all!N25="","",_tag_day_all!N25*100)</f>
         <v/>
       </c>
-      <c r="P28" s="44" t="str">
+      <c r="P28" s="24" t="str">
         <f>IF(_tag_day_all!AL25="","",_tag_day_all!AL25)</f>
         <v/>
       </c>
-      <c r="Q28" s="43" t="str">
+      <c r="Q28" s="23" t="str">
         <f>IF(_tag_day_all!AM25="","",_tag_day_all!AM25)</f>
         <v/>
       </c>
-      <c r="R28" s="43" t="str">
+      <c r="R28" s="23" t="str">
         <f>IF(_tag_day_all!O25="","",_tag_day_all!O25)</f>
         <v/>
       </c>
-      <c r="S28" s="43" t="str">
+      <c r="S28" s="23" t="str">
         <f>IF(_tag_day_all!P25="","",_tag_day_all!P25)</f>
         <v/>
       </c>
-      <c r="T28" s="43" t="str">
+      <c r="T28" s="23" t="str">
         <f>IF(_tag_day_all!Q25="","",_tag_day_all!Q25)</f>
         <v/>
       </c>
-      <c r="U28" s="43" t="str">
+      <c r="U28" s="23" t="str">
         <f>IF(_tag_day_all!R25="","",_tag_day_all!R25)</f>
         <v/>
       </c>
-      <c r="V28" s="43" t="str">
+      <c r="V28" s="23" t="str">
         <f>IF(_tag_day_all!S25="","",_tag_day_all!S25)</f>
         <v/>
       </c>
-      <c r="W28" s="43" t="str">
+      <c r="W28" s="23" t="str">
         <f>IF(_tag_day_all!T25="","",_tag_day_all!T25)</f>
         <v/>
       </c>
-      <c r="X28" s="44" t="str">
+      <c r="X28" s="24" t="str">
         <f>IF(_tag_day_all!U25="","",_tag_day_all!U25)</f>
         <v/>
       </c>
-      <c r="Y28" s="44" t="str">
+      <c r="Y28" s="24" t="str">
         <f>IF(_tag_day_all!V25="","",_tag_day_all!V25)</f>
         <v/>
       </c>
-      <c r="Z28" s="44" t="str">
+      <c r="Z28" s="24" t="str">
         <f>IF(_tag_day_all!W25="","",_tag_day_all!W25)</f>
         <v/>
       </c>
-      <c r="AA28" s="44" t="str">
+      <c r="AA28" s="24" t="str">
         <f>IF(_tag_day_all!X25="","",_tag_day_all!X25)</f>
         <v/>
       </c>
-      <c r="AB28" s="45" t="str">
+      <c r="AB28" s="44" t="str">
         <f>IF(_tag_day_all!Y25="","",_tag_day_all!Y25)</f>
         <v/>
       </c>
-      <c r="AC28" s="43" t="str">
+      <c r="AC28" s="23" t="str">
         <f>IF(_tag_day_all!Z25="","",_tag_day_all!Z25)</f>
         <v/>
       </c>
-      <c r="AD28" s="43" t="str">
+      <c r="AD28" s="23" t="str">
         <f>IF(_tag_day_all!AA25="","",_tag_day_all!AA25)</f>
         <v/>
       </c>
-      <c r="AE28" s="44" t="str">
+      <c r="AE28" s="24" t="str">
         <f>IF(_tag_day_all!AB25="","",_tag_day_all!AB25)</f>
         <v/>
       </c>
-      <c r="AF28" s="43" t="str">
+      <c r="AF28" s="23" t="str">
         <f>IF(_tag_day_all!AC25="","",_tag_day_all!AC25)</f>
         <v/>
       </c>
-      <c r="AG28" s="43" t="str">
+      <c r="AG28" s="23" t="str">
         <f>IF(_tag_day_all!AD25="","",_tag_day_all!AD25)</f>
         <v/>
       </c>
-      <c r="AH28" s="43" t="str">
+      <c r="AH28" s="23" t="str">
         <f>IF(_tag_day_all!AE25="","",_tag_day_all!AE25)</f>
         <v/>
       </c>
-      <c r="AI28" s="43" t="str">
+      <c r="AI28" s="23" t="str">
         <f>IF(_tag_day_all!AF25="","",_tag_day_all!AF25)</f>
         <v/>
       </c>
-      <c r="AJ28" s="43" t="str">
+      <c r="AJ28" s="23" t="str">
         <f>IF(_tag_day_all!AG25="","",_tag_day_all!AG25)</f>
         <v/>
       </c>
-      <c r="AK28" s="44" t="str">
+      <c r="AK28" s="24" t="str">
         <f>IF(_tag_day_all!AH25="","",_tag_day_all!AH25)</f>
         <v/>
       </c>
-      <c r="AL28" s="44" t="str">
+      <c r="AL28" s="24" t="str">
         <f>IF(_tag_day_all!AI25="","",_tag_day_all!AI25)</f>
         <v/>
       </c>
-      <c r="AM28" s="44" t="str">
+      <c r="AM28" s="24" t="str">
         <f>IF(_tag_day_all!AJ25="","",_tag_day_all!AJ25)</f>
         <v/>
       </c>
-      <c r="AN28" s="44" t="str">
+      <c r="AN28" s="24" t="str">
         <f>IF(_tag_day_all!AK25="","",_tag_day_all!AK25)</f>
         <v/>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="46" t="s">
+    <row r="29" spans="1:40">
+      <c r="A29" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="47" t="str">
-        <f>IFERROR(AVERAGE(B5:B12),"")</f>
-        <v/>
-      </c>
-      <c r="C29" s="48" t="str">
-        <f>IFERROR(AVERAGE(C5:C12),"")</f>
-        <v/>
-      </c>
-      <c r="D29" s="48" t="str">
-        <f>IFERROR(AVERAGE(D5:D12),"")</f>
-        <v/>
-      </c>
-      <c r="E29" s="47" t="str">
-        <f>IFERROR(AVERAGE(E5:E12),"")</f>
-        <v/>
-      </c>
-      <c r="F29" s="49" t="str">
-        <f>IFERROR(AVERAGE(F5:F12),"")</f>
-        <v/>
-      </c>
-      <c r="G29" s="47" t="str">
-        <f>IFERROR(AVERAGE(G5:G12),"")</f>
-        <v/>
-      </c>
-      <c r="H29" s="49" t="str">
-        <f>IFERROR(AVERAGE(H5:H12),"")</f>
-        <v/>
-      </c>
-      <c r="I29" s="49" t="str">
-        <f>IFERROR(AVERAGE(I5:I12),"")</f>
-        <v/>
-      </c>
-      <c r="J29" s="50" t="str">
-        <f>IFERROR(AVERAGE(J5:J12),"")</f>
-        <v/>
-      </c>
-      <c r="K29" s="50" t="str">
-        <f>IFERROR(AVERAGE(K5:K12),"")</f>
-        <v/>
-      </c>
-      <c r="L29" s="49" t="str">
+      <c r="B29" s="26" t="str">
+        <f t="shared" ref="B29:L29" si="0">IFERROR(AVERAGE(B5:B12),"")</f>
+        <v/>
+      </c>
+      <c r="C29" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D29" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E29" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F29" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G29" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H29" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I29" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J29" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K29" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L29" s="28" t="str">
         <f>IFERROR(AVERAGE(L5:L12),"")</f>
         <v/>
       </c>
-      <c r="M29" s="49" t="str">
-        <f>IF(SUM(M5:M12)=0,"",SUM(M5:M12))</f>
-        <v/>
-      </c>
-      <c r="N29" s="50" t="str">
-        <f>IF(SUM(N5:N12)=0,"",SUM(N5:N12))</f>
-        <v/>
-      </c>
-      <c r="O29" s="49" t="str">
-        <f>IFERROR(AVERAGE(O5:O12),"")</f>
-        <v/>
-      </c>
-      <c r="P29" s="49" t="str">
-        <f>IFERROR(AVERAGE(P5:P12),"")</f>
-        <v/>
-      </c>
-      <c r="Q29" s="47" t="str">
-        <f>IFERROR(AVERAGE(Q5:Q12),"")</f>
-        <v/>
-      </c>
-      <c r="R29" s="47" t="str">
-        <f>IFERROR(AVERAGE(R5:R12),"")</f>
-        <v/>
-      </c>
-      <c r="S29" s="47" t="str">
-        <f>IFERROR(AVERAGE(S5:S12),"")</f>
-        <v/>
-      </c>
-      <c r="T29" s="47" t="str">
-        <f>IFERROR(AVERAGE(T5:T12),"")</f>
-        <v/>
-      </c>
-      <c r="U29" s="47" t="str">
-        <f>IFERROR(AVERAGE(U5:U12),"")</f>
-        <v/>
-      </c>
-      <c r="V29" s="47" t="str">
-        <f>IFERROR(AVERAGE(V5:V12),"")</f>
-        <v/>
-      </c>
-      <c r="W29" s="47" t="str">
-        <f>IFERROR(AVERAGE(W5:W12),"")</f>
-        <v/>
-      </c>
-      <c r="X29" s="49" t="str">
-        <f>IFERROR(AVERAGE(X5:X12),"")</f>
-        <v/>
-      </c>
-      <c r="Y29" s="49" t="str">
-        <f>IFERROR(AVERAGE(Y5:Y12),"")</f>
-        <v/>
-      </c>
-      <c r="Z29" s="49" t="str">
-        <f>IFERROR(AVERAGE(Z5:Z12),"")</f>
-        <v/>
-      </c>
-      <c r="AA29" s="49" t="str">
-        <f>IFERROR(AVERAGE(AA5:AA12),"")</f>
-        <v/>
-      </c>
-      <c r="AB29" s="50" t="str">
-        <f>IFERROR(AVERAGE(AB5:AB12),"")</f>
-        <v/>
-      </c>
-      <c r="AC29" s="47" t="str">
-        <f>IFERROR(AVERAGE(AC5:AC12),"")</f>
-        <v/>
-      </c>
-      <c r="AD29" s="47" t="str">
-        <f>IFERROR(AVERAGE(AD5:AD12),"")</f>
-        <v/>
-      </c>
-      <c r="AE29" s="49" t="str">
-        <f>IFERROR(AVERAGE(AE5:AE12),"")</f>
-        <v/>
-      </c>
-      <c r="AF29" s="47" t="str">
-        <f>IFERROR(AVERAGE(AF5:AF12),"")</f>
-        <v/>
-      </c>
-      <c r="AG29" s="47" t="str">
-        <f>IFERROR(AVERAGE(AG5:AG12),"")</f>
-        <v/>
-      </c>
-      <c r="AH29" s="47" t="str">
-        <f>IFERROR(AVERAGE(AH5:AH12),"")</f>
-        <v/>
-      </c>
-      <c r="AI29" s="47" t="str">
-        <f>IFERROR(AVERAGE(AI5:AI12),"")</f>
-        <v/>
-      </c>
-      <c r="AJ29" s="47" t="str">
-        <f>IFERROR(AVERAGE(AJ5:AJ12),"")</f>
-        <v/>
-      </c>
-      <c r="AK29" s="49" t="str">
-        <f>IFERROR(AVERAGE(AK5:AK12),"")</f>
-        <v/>
-      </c>
-      <c r="AL29" s="49" t="str">
-        <f>IFERROR(AVERAGE(AL5:AL12),"")</f>
-        <v/>
-      </c>
-      <c r="AM29" s="49" t="str">
-        <f>IFERROR(AVERAGE(AM5:AM12),"")</f>
-        <v/>
-      </c>
-      <c r="AN29" s="49" t="str">
-        <f>IFERROR(AVERAGE(AN5:AN12),"")</f>
+      <c r="M29" s="28" t="str">
+        <f>IFERROR(AVERAGE(M5:M12),"")</f>
+        <v/>
+      </c>
+      <c r="N29" s="45" t="str">
+        <f>IFERROR(AVERAGE(N5:N12),"")</f>
+        <v/>
+      </c>
+      <c r="O29" s="28" t="str">
+        <f t="shared" ref="O29:AN29" si="1">IFERROR(AVERAGE(O5:O12),"")</f>
+        <v/>
+      </c>
+      <c r="P29" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q29" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R29" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S29" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T29" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U29" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V29" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W29" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X29" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y29" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z29" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA29" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AB29" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AC29" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AD29" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AE29" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AF29" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AG29" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AH29" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AI29" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AJ29" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AK29" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AL29" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AM29" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AN29" s="28" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row ht="13.5" r="30">
-      <c r="A30" s="46" t="s">
+    <row r="30" spans="1:40">
+      <c r="A30" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="47" t="str">
-        <f>IFERROR(AVERAGE(B13:B20),"")</f>
-        <v/>
-      </c>
-      <c r="C30" s="48" t="str">
-        <f>IFERROR(AVERAGE(C13:C20),"")</f>
-        <v/>
-      </c>
-      <c r="D30" s="48" t="str">
-        <f>IFERROR(AVERAGE(D13:D20),"")</f>
-        <v/>
-      </c>
-      <c r="E30" s="47" t="str">
-        <f>IFERROR(AVERAGE(E13:E20),"")</f>
-        <v/>
-      </c>
-      <c r="F30" s="49" t="str">
-        <f>IFERROR(AVERAGE(F13:F20),"")</f>
-        <v/>
-      </c>
-      <c r="G30" s="47" t="str">
-        <f>IFERROR(AVERAGE(G13:G20),"")</f>
-        <v/>
-      </c>
-      <c r="H30" s="49" t="str">
-        <f>IFERROR(AVERAGE(H13:H20),"")</f>
-        <v/>
-      </c>
-      <c r="I30" s="49" t="str">
-        <f>IFERROR(AVERAGE(I13:I20),"")</f>
-        <v/>
-      </c>
-      <c r="J30" s="50" t="str">
-        <f>IFERROR(AVERAGE(J13:J20),"")</f>
-        <v/>
-      </c>
-      <c r="K30" s="50" t="str">
-        <f>IFERROR(AVERAGE(K13:K20),"")</f>
-        <v/>
-      </c>
-      <c r="L30" s="49" t="str">
+      <c r="B30" s="26" t="str">
+        <f t="shared" ref="B30:L30" si="2">IFERROR(AVERAGE(B13:B20),"")</f>
+        <v/>
+      </c>
+      <c r="C30" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D30" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E30" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F30" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G30" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H30" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I30" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J30" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K30" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L30" s="28" t="str">
         <f>IFERROR(AVERAGE(L13:L20),"")</f>
         <v/>
       </c>
-      <c r="M30" s="49" t="str">
-        <f>IF(SUM(M13:M20)=0,"",SUM(M13:M20))</f>
-        <v/>
-      </c>
-      <c r="N30" s="50" t="str">
-        <f>IF(SUM(N13:N20)=0,"",SUM(N13:N20))</f>
-        <v/>
-      </c>
-      <c r="O30" s="49" t="str">
-        <f>IFERROR(AVERAGE(O13:O20),"")</f>
-        <v/>
-      </c>
-      <c r="P30" s="49" t="str">
-        <f>IFERROR(AVERAGE(P13:P20),"")</f>
-        <v/>
-      </c>
-      <c r="Q30" s="47" t="str">
-        <f>IFERROR(AVERAGE(Q13:Q20),"")</f>
-        <v/>
-      </c>
-      <c r="R30" s="47" t="str">
-        <f>IFERROR(AVERAGE(R13:R20),"")</f>
-        <v/>
-      </c>
-      <c r="S30" s="47" t="str">
-        <f>IFERROR(AVERAGE(S13:S20),"")</f>
-        <v/>
-      </c>
-      <c r="T30" s="47" t="str">
-        <f>IFERROR(AVERAGE(T13:T20),"")</f>
-        <v/>
-      </c>
-      <c r="U30" s="47" t="str">
-        <f>IFERROR(AVERAGE(U13:U20),"")</f>
-        <v/>
-      </c>
-      <c r="V30" s="47" t="str">
-        <f>IFERROR(AVERAGE(V13:V20),"")</f>
-        <v/>
-      </c>
-      <c r="W30" s="47" t="str">
-        <f>IFERROR(AVERAGE(W13:W20),"")</f>
-        <v/>
-      </c>
-      <c r="X30" s="49" t="str">
-        <f>IFERROR(AVERAGE(X13:X20),"")</f>
-        <v/>
-      </c>
-      <c r="Y30" s="49" t="str">
-        <f>IFERROR(AVERAGE(Y13:Y20),"")</f>
-        <v/>
-      </c>
-      <c r="Z30" s="49" t="str">
-        <f>IFERROR(AVERAGE(Z13:Z20),"")</f>
-        <v/>
-      </c>
-      <c r="AA30" s="49" t="str">
-        <f>IFERROR(AVERAGE(AA13:AA20),"")</f>
-        <v/>
-      </c>
-      <c r="AB30" s="50" t="str">
-        <f>IFERROR(AVERAGE(AB13:AB20),"")</f>
-        <v/>
-      </c>
-      <c r="AC30" s="47" t="str">
-        <f>IFERROR(AVERAGE(AC13:AC20),"")</f>
-        <v/>
-      </c>
-      <c r="AD30" s="47" t="str">
-        <f>IFERROR(AVERAGE(AD13:AD20),"")</f>
-        <v/>
-      </c>
-      <c r="AE30" s="49" t="str">
-        <f>IFERROR(AVERAGE(AE13:AE20),"")</f>
-        <v/>
-      </c>
-      <c r="AF30" s="47" t="str">
-        <f>IFERROR(AVERAGE(AF13:AF20),"")</f>
-        <v/>
-      </c>
-      <c r="AG30" s="47" t="str">
-        <f>IFERROR(AVERAGE(AG13:AG20),"")</f>
-        <v/>
-      </c>
-      <c r="AH30" s="47" t="str">
-        <f>IFERROR(AVERAGE(AH13:AH20),"")</f>
-        <v/>
-      </c>
-      <c r="AI30" s="47" t="str">
-        <f>IFERROR(AVERAGE(AI13:AI20),"")</f>
-        <v/>
-      </c>
-      <c r="AJ30" s="47" t="str">
-        <f>IFERROR(AVERAGE(AJ13:AJ20),"")</f>
-        <v/>
-      </c>
-      <c r="AK30" s="49" t="str">
-        <f>IFERROR(AVERAGE(AK13:AK20),"")</f>
-        <v/>
-      </c>
-      <c r="AL30" s="49" t="str">
-        <f>IFERROR(AVERAGE(AL13:AL20),"")</f>
-        <v/>
-      </c>
-      <c r="AM30" s="49" t="str">
-        <f>IFERROR(AVERAGE(AM13:AM20),"")</f>
-        <v/>
-      </c>
-      <c r="AN30" s="49" t="str">
-        <f>IFERROR(AVERAGE(AN13:AN20),"")</f>
+      <c r="M30" s="28" t="str">
+        <f>IFERROR(AVERAGE(M13:M20),"")</f>
+        <v/>
+      </c>
+      <c r="N30" s="45" t="str">
+        <f>IFERROR(AVERAGE(N13:N20),"")</f>
+        <v/>
+      </c>
+      <c r="O30" s="28" t="str">
+        <f t="shared" ref="O30:AN30" si="3">IFERROR(AVERAGE(O13:O20),"")</f>
+        <v/>
+      </c>
+      <c r="P30" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q30" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R30" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S30" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T30" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U30" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V30" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="W30" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="X30" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Y30" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z30" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA30" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AB30" s="45" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AC30" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AD30" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AE30" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AF30" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AG30" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AH30" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AI30" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AJ30" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AK30" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AL30" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AM30" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AN30" s="28" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row ht="13.5" r="31">
-      <c r="A31" s="46" t="s">
+    <row r="31" spans="1:40">
+      <c r="A31" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="47" t="str">
-        <f>IFERROR(AVERAGE(B21:B28),"")</f>
-        <v/>
-      </c>
-      <c r="C31" s="48" t="str">
-        <f>IFERROR(AVERAGE(C21:C28),"")</f>
-        <v/>
-      </c>
-      <c r="D31" s="48" t="str">
-        <f>IFERROR(AVERAGE(D21:D28),"")</f>
-        <v/>
-      </c>
-      <c r="E31" s="47" t="str">
-        <f>IFERROR(AVERAGE(E21:E28),"")</f>
-        <v/>
-      </c>
-      <c r="F31" s="49" t="str">
-        <f>IFERROR(AVERAGE(F21:F28),"")</f>
-        <v/>
-      </c>
-      <c r="G31" s="47" t="str">
-        <f>IFERROR(AVERAGE(G21:G28),"")</f>
-        <v/>
-      </c>
-      <c r="H31" s="49" t="str">
-        <f>IFERROR(AVERAGE(H21:H28),"")</f>
-        <v/>
-      </c>
-      <c r="I31" s="49" t="str">
-        <f>IFERROR(AVERAGE(I21:I28),"")</f>
-        <v/>
-      </c>
-      <c r="J31" s="50" t="str">
-        <f>IFERROR(AVERAGE(J21:J28),"")</f>
-        <v/>
-      </c>
-      <c r="K31" s="50" t="str">
-        <f>IFERROR(AVERAGE(K21:K28),"")</f>
-        <v/>
-      </c>
-      <c r="L31" s="49" t="str">
+      <c r="B31" s="26" t="str">
+        <f t="shared" ref="B31:L31" si="4">IFERROR(AVERAGE(B21:B28),"")</f>
+        <v/>
+      </c>
+      <c r="C31" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D31" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E31" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F31" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G31" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H31" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I31" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J31" s="45" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K31" s="45" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L31" s="28" t="str">
         <f>IFERROR(AVERAGE(L21:L28),"")</f>
         <v/>
       </c>
-      <c r="M31" s="49" t="str">
-        <f>IF(SUM(M21:M28)=0,"",SUM(M21:M28))</f>
-        <v/>
-      </c>
-      <c r="N31" s="50" t="str">
-        <f>IF(SUM(N21:N28)=0,"",SUM(N21:N28))</f>
-        <v/>
-      </c>
-      <c r="O31" s="49" t="str">
-        <f>IFERROR(AVERAGE(O21:O28),"")</f>
-        <v/>
-      </c>
-      <c r="P31" s="49" t="str">
-        <f>IFERROR(AVERAGE(P21:P28),"")</f>
-        <v/>
-      </c>
-      <c r="Q31" s="47" t="str">
-        <f>IFERROR(AVERAGE(Q21:Q28),"")</f>
-        <v/>
-      </c>
-      <c r="R31" s="47" t="str">
-        <f>IFERROR(AVERAGE(R21:R28),"")</f>
-        <v/>
-      </c>
-      <c r="S31" s="47" t="str">
-        <f>IFERROR(AVERAGE(S21:S28),"")</f>
-        <v/>
-      </c>
-      <c r="T31" s="47" t="str">
-        <f>IFERROR(AVERAGE(T21:T28),"")</f>
-        <v/>
-      </c>
-      <c r="U31" s="47" t="str">
-        <f>IFERROR(AVERAGE(U21:U28),"")</f>
-        <v/>
-      </c>
-      <c r="V31" s="47" t="str">
-        <f>IFERROR(AVERAGE(V21:V28),"")</f>
-        <v/>
-      </c>
-      <c r="W31" s="47" t="str">
-        <f>IFERROR(AVERAGE(W21:W28),"")</f>
-        <v/>
-      </c>
-      <c r="X31" s="49" t="str">
-        <f>IFERROR(AVERAGE(X21:X28),"")</f>
-        <v/>
-      </c>
-      <c r="Y31" s="49" t="str">
-        <f>IFERROR(AVERAGE(Y21:Y28),"")</f>
-        <v/>
-      </c>
-      <c r="Z31" s="49" t="str">
-        <f>IFERROR(AVERAGE(Z21:Z28),"")</f>
-        <v/>
-      </c>
-      <c r="AA31" s="49" t="str">
-        <f>IFERROR(AVERAGE(AA21:AA28),"")</f>
-        <v/>
-      </c>
-      <c r="AB31" s="50" t="str">
-        <f>IFERROR(AVERAGE(AB21:AB28),"")</f>
-        <v/>
-      </c>
-      <c r="AC31" s="47" t="str">
-        <f>IFERROR(AVERAGE(AC21:AC28),"")</f>
-        <v/>
-      </c>
-      <c r="AD31" s="47" t="str">
-        <f>IFERROR(AVERAGE(AD21:AD28),"")</f>
-        <v/>
-      </c>
-      <c r="AE31" s="49" t="str">
-        <f>IFERROR(AVERAGE(AE21:AE28),"")</f>
-        <v/>
-      </c>
-      <c r="AF31" s="47" t="str">
-        <f>IFERROR(AVERAGE(AF21:AF28),"")</f>
-        <v/>
-      </c>
-      <c r="AG31" s="47" t="str">
-        <f>IFERROR(AVERAGE(AG21:AG28),"")</f>
-        <v/>
-      </c>
-      <c r="AH31" s="47" t="str">
-        <f>IFERROR(AVERAGE(AH21:AH28),"")</f>
-        <v/>
-      </c>
-      <c r="AI31" s="47" t="str">
-        <f>IFERROR(AVERAGE(AI21:AI28),"")</f>
-        <v/>
-      </c>
-      <c r="AJ31" s="47" t="str">
-        <f>IFERROR(AVERAGE(AJ21:AJ28),"")</f>
-        <v/>
-      </c>
-      <c r="AK31" s="49" t="str">
-        <f>IFERROR(AVERAGE(AK21:AK28),"")</f>
-        <v/>
-      </c>
-      <c r="AL31" s="49" t="str">
-        <f>IFERROR(AVERAGE(AL21:AL28),"")</f>
-        <v/>
-      </c>
-      <c r="AM31" s="49" t="str">
-        <f>IFERROR(AVERAGE(AM21:AM28),"")</f>
-        <v/>
-      </c>
-      <c r="AN31" s="49" t="str">
-        <f>IFERROR(AVERAGE(AN21:AN28),"")</f>
+      <c r="M31" s="28" t="str">
+        <f>IFERROR(AVERAGE(M21:M28),"")</f>
+        <v/>
+      </c>
+      <c r="N31" s="45" t="str">
+        <f>IFERROR(AVERAGE(N21:N28),"")</f>
+        <v/>
+      </c>
+      <c r="O31" s="28" t="str">
+        <f t="shared" ref="O31:AN31" si="5">IFERROR(AVERAGE(O21:O28),"")</f>
+        <v/>
+      </c>
+      <c r="P31" s="28" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q31" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R31" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S31" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T31" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U31" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V31" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W31" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X31" s="28" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y31" s="28" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z31" s="28" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA31" s="28" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AB31" s="45" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC31" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD31" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AE31" s="28" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF31" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AG31" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AH31" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AI31" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AJ31" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AK31" s="28" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AL31" s="28" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AM31" s="28" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AN31" s="28" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row ht="13.5" r="32">
-      <c r="A32" s="51" t="s">
+    <row r="32" spans="1:40">
+      <c r="A32" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="52" t="str">
-        <f>IFERROR(AVERAGE(B5:B28),"")</f>
-        <v/>
-      </c>
-      <c r="C32" s="53" t="str">
-        <f>IFERROR(AVERAGE(C5:C28),"")</f>
-        <v/>
-      </c>
-      <c r="D32" s="53" t="str">
-        <f>IFERROR(AVERAGE(D5:D28),"")</f>
-        <v/>
-      </c>
-      <c r="E32" s="52" t="str">
-        <f>IFERROR(AVERAGE(E5:E28),"")</f>
-        <v/>
-      </c>
-      <c r="F32" s="54" t="str">
-        <f>IFERROR(AVERAGE(F5:F28),"")</f>
-        <v/>
-      </c>
-      <c r="G32" s="52" t="str">
-        <f>IFERROR(AVERAGE(G5:G28),"")</f>
-        <v/>
-      </c>
-      <c r="H32" s="54" t="str">
-        <f>IFERROR(AVERAGE(H5:H28),"")</f>
-        <v/>
-      </c>
-      <c r="I32" s="54" t="str">
-        <f>IFERROR(AVERAGE(I5:I28),"")</f>
-        <v/>
-      </c>
-      <c r="J32" s="55" t="str">
-        <f>IFERROR(AVERAGE(J5:J28),"")</f>
-        <v/>
-      </c>
-      <c r="K32" s="55" t="str">
-        <f>IFERROR(AVERAGE(K5:K28),"")</f>
-        <v/>
-      </c>
-      <c r="L32" s="54" t="str">
+      <c r="B32" s="30" t="str">
+        <f t="shared" ref="B32:L32" si="6">IFERROR(AVERAGE(B5:B28),"")</f>
+        <v/>
+      </c>
+      <c r="C32" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D32" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E32" s="30" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F32" s="32" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G32" s="30" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H32" s="32" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I32" s="32" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J32" s="46" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K32" s="46" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L32" s="32" t="str">
         <f>IFERROR(AVERAGE(L5:L28),"")</f>
         <v/>
       </c>
-      <c r="M32" s="54" t="str">
-        <f>IF(SUM(M5:M28)=0,"",SUM(M5:M28))</f>
-        <v/>
-      </c>
-      <c r="N32" s="55" t="str">
-        <f>IF(SUM(N5:N28)=0,"",SUM(N5:N28))</f>
-        <v/>
-      </c>
-      <c r="O32" s="54" t="str">
-        <f>IFERROR(AVERAGE(O5:O28),"")</f>
-        <v/>
-      </c>
-      <c r="P32" s="54" t="str">
-        <f>IFERROR(AVERAGE(P5:P28),"")</f>
-        <v/>
-      </c>
-      <c r="Q32" s="52" t="str">
-        <f>IFERROR(AVERAGE(Q5:Q28),"")</f>
-        <v/>
-      </c>
-      <c r="R32" s="52" t="str">
-        <f>IFERROR(AVERAGE(R5:R28),"")</f>
-        <v/>
-      </c>
-      <c r="S32" s="52" t="str">
-        <f>IFERROR(AVERAGE(S5:S28),"")</f>
-        <v/>
-      </c>
-      <c r="T32" s="52" t="str">
-        <f>IFERROR(AVERAGE(T5:T28),"")</f>
-        <v/>
-      </c>
-      <c r="U32" s="52" t="str">
-        <f>IFERROR(AVERAGE(U5:U28),"")</f>
-        <v/>
-      </c>
-      <c r="V32" s="52" t="str">
-        <f>IFERROR(AVERAGE(V5:V28),"")</f>
-        <v/>
-      </c>
-      <c r="W32" s="52" t="str">
-        <f>IFERROR(AVERAGE(W5:W28),"")</f>
-        <v/>
-      </c>
-      <c r="X32" s="54" t="str">
-        <f>IFERROR(AVERAGE(X5:X28),"")</f>
-        <v/>
-      </c>
-      <c r="Y32" s="54" t="str">
-        <f>IFERROR(AVERAGE(Y5:Y28),"")</f>
-        <v/>
-      </c>
-      <c r="Z32" s="54" t="str">
-        <f>IFERROR(AVERAGE(Z5:Z28),"")</f>
-        <v/>
-      </c>
-      <c r="AA32" s="54" t="str">
-        <f>IFERROR(AVERAGE(AA5:AA28),"")</f>
-        <v/>
-      </c>
-      <c r="AB32" s="55" t="str">
-        <f>IFERROR(AVERAGE(AB5:AB28),"")</f>
-        <v/>
-      </c>
-      <c r="AC32" s="52" t="str">
-        <f>IFERROR(AVERAGE(AC5:AC28),"")</f>
-        <v/>
-      </c>
-      <c r="AD32" s="52" t="str">
-        <f>IFERROR(AVERAGE(AD5:AD28),"")</f>
-        <v/>
-      </c>
-      <c r="AE32" s="54" t="str">
-        <f>IFERROR(AVERAGE(AE5:AE28),"")</f>
-        <v/>
-      </c>
-      <c r="AF32" s="52" t="str">
-        <f>IFERROR(AVERAGE(AF5:AF28),"")</f>
-        <v/>
-      </c>
-      <c r="AG32" s="52" t="str">
-        <f>IFERROR(AVERAGE(AG5:AG28),"")</f>
-        <v/>
-      </c>
-      <c r="AH32" s="52" t="str">
-        <f>IFERROR(AVERAGE(AH5:AH28),"")</f>
-        <v/>
-      </c>
-      <c r="AI32" s="52" t="str">
-        <f>IFERROR(AVERAGE(AI5:AI28),"")</f>
-        <v/>
-      </c>
-      <c r="AJ32" s="52" t="str">
-        <f>IFERROR(AVERAGE(AJ5:AJ28),"")</f>
-        <v/>
-      </c>
-      <c r="AK32" s="54" t="str">
-        <f>IFERROR(AVERAGE(AK5:AK28),"")</f>
-        <v/>
-      </c>
-      <c r="AL32" s="54" t="str">
-        <f>IFERROR(AVERAGE(AL5:AL28),"")</f>
-        <v/>
-      </c>
-      <c r="AM32" s="54" t="str">
-        <f>IFERROR(AVERAGE(AM5:AM28),"")</f>
-        <v/>
-      </c>
-      <c r="AN32" s="54" t="str">
-        <f>IFERROR(AVERAGE(AN5:AN28),"")</f>
+      <c r="M32" s="32" t="str">
+        <f>IFERROR(AVERAGE(M5:M28),"")</f>
+        <v/>
+      </c>
+      <c r="N32" s="46" t="str">
+        <f>IFERROR(AVERAGE(N5:N28),"")</f>
+        <v/>
+      </c>
+      <c r="O32" s="32" t="str">
+        <f t="shared" ref="O32:AN32" si="7">IFERROR(AVERAGE(O5:O28),"")</f>
+        <v/>
+      </c>
+      <c r="P32" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Q32" s="30" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R32" s="30" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S32" s="30" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T32" s="30" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U32" s="30" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="V32" s="30" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W32" s="30" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X32" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Y32" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Z32" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AA32" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB32" s="46" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC32" s="30" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD32" s="30" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE32" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF32" s="30" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AG32" s="30" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AH32" s="30" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI32" s="30" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AJ32" s="30" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AK32" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AL32" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AM32" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AN32" s="32" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="56" t="s">
+    <row r="33" spans="1:40">
+      <c r="A33" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="57">
-        <f>IFERROR(STDEV(B5:B28),"")</f>
+      <c r="B33" s="34">
+        <f t="shared" ref="B33:AN33" si="8">IFERROR(STDEV(B5:B28),"")</f>
         <v>0</v>
       </c>
-      <c r="C33" s="58">
-        <f>IFERROR(STDEV(C5:C28),"")</f>
+      <c r="C33" s="35">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D33" s="58">
-        <f>IFERROR(STDEV(D5:D28),"")</f>
+      <c r="D33" s="35">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E33" s="57">
-        <f>IFERROR(STDEV(E5:E28),"")</f>
+      <c r="E33" s="34">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F33" s="59">
-        <f>IFERROR(STDEV(F5:F28),"")</f>
+      <c r="F33" s="36">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G33" s="57">
-        <f>IFERROR(STDEV(G5:G28),"")</f>
+      <c r="G33" s="34">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H33" s="59">
-        <f>IFERROR(STDEV(H5:H28),"")</f>
+      <c r="H33" s="36">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I33" s="59">
-        <f>IFERROR(STDEV(I5:I28),"")</f>
+      <c r="I33" s="36">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J33" s="60">
-        <f>IFERROR(STDEV(J5:J28),"")</f>
+      <c r="J33" s="47">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K33" s="60">
-        <f>IFERROR(STDEV(K5:K28),"")</f>
+      <c r="K33" s="47">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L33" s="59">
-        <f>IFERROR(STDEV(L5:L28),"")</f>
+      <c r="L33" s="36">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M33" s="59">
-        <f>IFERROR(STDEV(M5:M28),"")</f>
+      <c r="M33" s="36">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N33" s="60">
-        <f>IFERROR(STDEV(N5:N28),"")</f>
+      <c r="N33" s="47">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O33" s="59">
-        <f>IFERROR(STDEV(O5:O28),"")</f>
+      <c r="O33" s="36">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P33" s="59">
-        <f>IFERROR(STDEV(P5:P28),"")</f>
+      <c r="P33" s="36">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="57">
-        <f>IFERROR(STDEV(Q5:Q28),"")</f>
+      <c r="Q33" s="34">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R33" s="57">
-        <f>IFERROR(STDEV(R5:R28),"")</f>
+      <c r="R33" s="34">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S33" s="57">
-        <f>IFERROR(STDEV(S5:S28),"")</f>
+      <c r="S33" s="34">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T33" s="57">
-        <f>IFERROR(STDEV(T5:T28),"")</f>
+      <c r="T33" s="34">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U33" s="57">
-        <f>IFERROR(STDEV(U5:U28),"")</f>
+      <c r="U33" s="34">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V33" s="57">
-        <f>IFERROR(STDEV(V5:V28),"")</f>
+      <c r="V33" s="34">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W33" s="57">
-        <f>IFERROR(STDEV(W5:W28),"")</f>
+      <c r="W33" s="34">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X33" s="59">
-        <f>IFERROR(STDEV(X5:X28),"")</f>
+      <c r="X33" s="36">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="59">
-        <f>IFERROR(STDEV(Y5:Y28),"")</f>
+      <c r="Y33" s="36">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z33" s="59">
-        <f>IFERROR(STDEV(Z5:Z28),"")</f>
+      <c r="Z33" s="36">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA33" s="59">
-        <f>IFERROR(STDEV(AA5:AA28),"")</f>
+      <c r="AA33" s="36">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB33" s="60">
-        <f>IFERROR(STDEV(AB5:AB28),"")</f>
+      <c r="AB33" s="47">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC33" s="57">
-        <f>IFERROR(STDEV(AC5:AC28),"")</f>
+      <c r="AC33" s="34">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD33" s="57">
-        <f>IFERROR(STDEV(AD5:AD28),"")</f>
+      <c r="AD33" s="34">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AE33" s="59">
-        <f>IFERROR(STDEV(AE5:AE28),"")</f>
+      <c r="AE33" s="36">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AF33" s="57">
-        <f>IFERROR(STDEV(AF5:AF28),"")</f>
+      <c r="AF33" s="34">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG33" s="57">
-        <f>IFERROR(STDEV(AG5:AG28),"")</f>
+      <c r="AG33" s="34">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AH33" s="57">
-        <f>IFERROR(STDEV(AH5:AH28),"")</f>
+      <c r="AH33" s="34">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI33" s="57">
-        <f>IFERROR(STDEV(AI5:AI28),"")</f>
+      <c r="AI33" s="34">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ33" s="57">
-        <f>IFERROR(STDEV(AJ5:AJ28),"")</f>
+      <c r="AJ33" s="34">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK33" s="59">
-        <f>IFERROR(STDEV(AK5:AK28),"")</f>
+      <c r="AK33" s="36">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AL33" s="59">
-        <f>IFERROR(STDEV(AL5:AL28),"")</f>
+      <c r="AL33" s="36">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AM33" s="59">
-        <f>IFERROR(STDEV(AM5:AM28),"")</f>
+      <c r="AM33" s="36">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AN33" s="59">
-        <f>IFERROR(STDEV(AN5:AN28),"")</f>
+      <c r="AN33" s="36">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row ht="23.25" customHeight="1" r="35"/>
-    <row customHeight="1" r="36"/>
-    <row customHeight="1" r="37"/>
-    <row ht="38.25" customHeight="1" r="38"/>
+    <row r="35" ht="23.25" customHeight="1"/>
+    <row r="36" customHeight="1"/>
+    <row r="37" customHeight="1"/>
+    <row r="38" ht="38.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:T1"/>
@@ -6973,182 +6725,188 @@
     <mergeCell ref="AK2:AN2"/>
     <mergeCell ref="A2:A3"/>
   </mergeCells>
-  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="J17" activeCellId="0" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="0">
+      <c r="B1">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AM1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row customFormat="1" ht="88.799999999999997" customHeight="1" r="1" s="1">
-      <c r="A1" s="32" t="s">
+    <row r="1" s="1" customFormat="1" ht="88.8" customHeight="1" spans="1:39">
+      <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="Q1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="S1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="T1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="V1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="W1" s="34" t="s">
+      <c r="W1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="X1" s="34" t="s">
+      <c r="X1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="Y1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="Z1" s="32" t="s">
+      <c r="Z1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AA1" s="32" t="s">
+      <c r="AA1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="34" t="s">
+      <c r="AB1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AC1" s="32" t="s">
+      <c r="AC1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="32" t="s">
+      <c r="AD1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AE1" s="32" t="s">
+      <c r="AE1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AF1" s="32" t="s">
+      <c r="AF1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AG1" s="32" t="s">
+      <c r="AG1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AH1" s="34" t="s">
+      <c r="AH1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AI1" s="34" t="s">
+      <c r="AI1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AJ1" s="34" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AK1" s="34" t="s">
+      <c r="AK1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AL1" s="61" t="s">
+      <c r="AL1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AM1" s="61" t="s">
+      <c r="AM1" s="6" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/7高炉/7高炉参数日报表.xlsx
+++ b/excel/finished/7高炉/7高炉参数日报表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="日报表" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="_dictionary" sheetId="3" r:id="rId3"/>
     <sheet name="_tag_day_all" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="93">
   <si>
     <t>高炉参数日报</t>
   </si>
@@ -236,6 +236,9 @@
     <t>BF7_L2M_OxygenEnrichmentRate_1h_avg</t>
   </si>
   <si>
+    <t>BF7_L2C_BD_HotBlastTemp_1h_avg</t>
+  </si>
+  <si>
     <t>BF7_L2C_BD_WT6_Q_1h_avg</t>
   </si>
   <si>
@@ -363,25 +366,22 @@
   </si>
   <si>
     <t>BF7_L2M_NTCokeRate_1h_avg</t>
-  </si>
-  <si>
-    <t>BF7_L2C_BD_HotBlastTemp2_1h_avg</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF7_L2C_BD_HotBlastTemp2_1h_avg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="7">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
     <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,30 +432,148 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="2"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="4"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="65"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -476,8 +594,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1498458815271462"/>
-        <bgColor theme="0" tint="-0.1498458815271462"/>
+        <fgColor theme="0" tint="-0.149876400036622"/>
+        <bgColor theme="0" tint="-0.149876400036622"/>
       </patternFill>
     </fill>
     <fill>
@@ -492,8 +610,194 @@
         <bgColor indexed="55"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor theme="6" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor theme="8" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor theme="6" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor theme="8" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor theme="6" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor theme="9" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor theme="5" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor theme="9" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor theme="5" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor theme="4" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor theme="8" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor theme="7" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor theme="7" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor theme="7" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor theme="5" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor theme="9" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor theme="4" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -693,12 +997,254 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="16">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="21">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="16">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="18">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -720,6 +1266,18 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -735,10 +1293,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -786,6 +1344,18 @@
     <xf numFmtId="2" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -806,6 +1376,12 @@
     </xf>
     <xf numFmtId="178" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -813,61 +1389,75 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal_dailyreport_2008-03-14_Form1_translated" xfId="1"/>
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal_dailyreport_2008-03-14_Form1_translated" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1083,21 +1673,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AN38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.75" customWidth="1"/>
+    <col min="1" max="1" width="9.775" customWidth="1"/>
     <col min="2" max="2" width="9" style="7"/>
     <col min="3" max="4" width="9" style="8"/>
     <col min="5" max="5" width="9" style="7"/>
@@ -1116,227 +1706,227 @@
     <col min="31" max="31" width="9" style="9"/>
     <col min="32" max="34" width="9" style="7"/>
     <col min="35" max="36" width="9" style="7" customWidth="1"/>
-    <col min="37" max="37" width="9.875" style="9" customWidth="1"/>
+    <col min="37" max="37" width="9.88333333333333" style="9" customWidth="1"/>
     <col min="38" max="39" width="9" style="9"/>
-    <col min="40" max="40" width="8.625" style="9" customWidth="1"/>
+    <col min="40" max="40" width="8.66666666666667" style="9" customWidth="1"/>
     <col min="41" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="25.5">
-      <c r="A1" s="46" t="s">
+    <row r="1" ht="26.25" spans="1:38">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46" t="str">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
     </row>
-    <row r="2" spans="1:40" ht="19.5" customHeight="1">
-      <c r="A2" s="61" t="s">
+    <row r="2" ht="19.5" customHeight="1" spans="1:40">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
       <c r="AE2" s="54"/>
       <c r="AF2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="58" t="s">
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="59"/>
-      <c r="AN2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="61"/>
     </row>
-    <row r="3" spans="1:40" ht="36">
-      <c r="A3" s="62"/>
-      <c r="B3" s="11" t="s">
+    <row r="3" ht="36.75" spans="1:40">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="33" t="s">
+      <c r="N3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="U3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="V3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="W3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="13" t="s">
+      <c r="X3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="13" t="s">
+      <c r="Y3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="13" t="s">
+      <c r="Z3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="13" t="s">
+      <c r="AA3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AB3" s="33" t="s">
+      <c r="AB3" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="AC3" s="11" t="s">
+      <c r="AC3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AD3" s="11" t="s">
+      <c r="AD3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AE3" s="13" t="s">
+      <c r="AE3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="AF3" s="44" t="s">
+      <c r="AF3" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="AG3" s="44" t="s">
+      <c r="AG3" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="AH3" s="44" t="s">
+      <c r="AH3" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AI3" s="44" t="s">
+      <c r="AI3" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="AJ3" s="44" t="s">
+      <c r="AJ3" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="AK3" s="13" t="s">
+      <c r="AK3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AL3" s="13" t="s">
+      <c r="AL3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="AM3" s="13" t="s">
+      <c r="AM3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="AN3" s="13" t="s">
+      <c r="AN3" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="88.9" hidden="1" customHeight="1">
-      <c r="A4" s="14" t="s">
+    <row r="4" ht="88.8" hidden="1" customHeight="1" spans="1:40">
+      <c r="A4" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1355,4777 +1945,4777 @@
         <v>48</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="34" t="s">
         <v>50</v>
       </c>
+      <c r="I4" s="42" t="s">
+        <v>51</v>
+      </c>
       <c r="J4" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O4" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="40"/>
+      <c r="O4" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="50"/>
       <c r="R4" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL4" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM4" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN4" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="14.25">
-      <c r="A5" s="15">
+    <row r="5" spans="1:40">
+      <c r="A5" s="19">
         <v>1</v>
       </c>
-      <c r="B5" s="16" t="str">
+      <c r="B5" s="20" t="str">
         <f>IF(_tag_day_all!A2="","",_tag_day_all!A2)</f>
         <v/>
       </c>
-      <c r="C5" s="17" t="str">
+      <c r="C5" s="21" t="str">
         <f>IF(_tag_day_all!B2="","",_tag_day_all!B2)</f>
         <v/>
       </c>
-      <c r="D5" s="18" t="str">
+      <c r="D5" s="22" t="str">
         <f>IF(_tag_day_all!C2="","",_tag_day_all!C2)</f>
         <v/>
       </c>
-      <c r="E5" s="19" t="str">
+      <c r="E5" s="23" t="str">
         <f>IF(_tag_day_all!D2="","",_tag_day_all!D2*10000)</f>
         <v/>
       </c>
-      <c r="F5" s="20" t="str">
+      <c r="F5" s="24" t="str">
         <f>IF(_tag_day_all!E2="","",_tag_day_all!E2)</f>
         <v/>
       </c>
-      <c r="G5" s="19" t="str">
+      <c r="G5" s="23" t="str">
         <f>IF(_tag_day_all!F2="","",_tag_day_all!F2)</f>
         <v/>
       </c>
-      <c r="H5" s="20" t="str">
+      <c r="H5" s="24" t="str">
         <f>IF(_tag_day_all!G2="","",_tag_day_all!G2)</f>
         <v/>
       </c>
-      <c r="I5" s="20" t="str">
+      <c r="I5" s="24" t="str">
         <f>IF(_tag_day_all!H2="","",_tag_day_all!H2)</f>
         <v/>
       </c>
-      <c r="J5" s="36" t="str">
+      <c r="J5" s="44" t="str">
         <f>IF(_tag_day_all!I2="","",_tag_day_all!I2)</f>
         <v/>
       </c>
-      <c r="K5" s="36" t="str">
+      <c r="K5" s="44" t="str">
         <f>IF(_tag_day_all!J2="","",_tag_day_all!J2)</f>
         <v/>
       </c>
-      <c r="L5" s="20" t="str">
+      <c r="L5" s="24" t="str">
         <f>IF(_tag_day_all!K2="","",_tag_day_all!K2)</f>
         <v/>
       </c>
-      <c r="M5" s="20" t="str">
+      <c r="M5" s="24" t="str">
         <f>IF(_tag_day_all!L2="","",_tag_day_all!L2)</f>
         <v/>
       </c>
-      <c r="N5" s="36" t="str">
+      <c r="N5" s="44" t="str">
         <f>IF(_tag_day_all!M2="","",_tag_day_all!M2)</f>
         <v/>
       </c>
-      <c r="O5" s="20" t="str">
+      <c r="O5" s="24" t="str">
         <f>IF(_tag_day_all!N2="","",_tag_day_all!N2*100)</f>
         <v/>
       </c>
-      <c r="P5" s="20" t="str">
+      <c r="P5" s="24" t="str">
         <f>IF(_tag_day_all!AL2="","",_tag_day_all!AL2)</f>
         <v/>
       </c>
-      <c r="Q5" s="19" t="str">
+      <c r="Q5" s="23" t="str">
         <f>IF(_tag_day_all!AM2="","",_tag_day_all!AM2)</f>
         <v/>
       </c>
-      <c r="R5" s="19" t="str">
+      <c r="R5" s="23" t="str">
         <f>IF(_tag_day_all!O2="","",_tag_day_all!O2)</f>
         <v/>
       </c>
-      <c r="S5" s="19" t="str">
+      <c r="S5" s="23" t="str">
         <f>IF(_tag_day_all!P2="","",_tag_day_all!P2)</f>
         <v/>
       </c>
-      <c r="T5" s="19" t="str">
+      <c r="T5" s="23" t="str">
         <f>IF(_tag_day_all!Q2="","",_tag_day_all!Q2)</f>
         <v/>
       </c>
-      <c r="U5" s="19" t="str">
+      <c r="U5" s="23" t="str">
         <f>IF(_tag_day_all!R2="","",_tag_day_all!R2)</f>
         <v/>
       </c>
-      <c r="V5" s="19" t="str">
+      <c r="V5" s="23" t="str">
         <f>IF(_tag_day_all!S2="","",_tag_day_all!S2)</f>
         <v/>
       </c>
-      <c r="W5" s="19" t="str">
+      <c r="W5" s="23" t="str">
         <f>IF(_tag_day_all!T2="","",_tag_day_all!T2)</f>
         <v/>
       </c>
-      <c r="X5" s="20" t="str">
+      <c r="X5" s="24" t="str">
         <f>IF(_tag_day_all!U2="","",_tag_day_all!U2)</f>
         <v/>
       </c>
-      <c r="Y5" s="20" t="str">
+      <c r="Y5" s="24" t="str">
         <f>IF(_tag_day_all!V2="","",_tag_day_all!V2)</f>
         <v/>
       </c>
-      <c r="Z5" s="20" t="str">
+      <c r="Z5" s="24" t="str">
         <f>IF(_tag_day_all!W2="","",_tag_day_all!W2)</f>
         <v/>
       </c>
-      <c r="AA5" s="20" t="str">
+      <c r="AA5" s="24" t="str">
         <f>IF(_tag_day_all!X2="","",_tag_day_all!X2)</f>
         <v/>
       </c>
-      <c r="AB5" s="36" t="str">
+      <c r="AB5" s="44" t="str">
         <f>IF(_tag_day_all!Y2="","",_tag_day_all!Y2)</f>
         <v/>
       </c>
-      <c r="AC5" s="19" t="str">
+      <c r="AC5" s="23" t="str">
         <f>IF(_tag_day_all!Z2="","",_tag_day_all!Z2)</f>
         <v/>
       </c>
-      <c r="AD5" s="19" t="str">
+      <c r="AD5" s="23" t="str">
         <f>IF(_tag_day_all!AA2="","",_tag_day_all!AA2)</f>
         <v/>
       </c>
-      <c r="AE5" s="20" t="str">
+      <c r="AE5" s="24" t="str">
         <f>IF(_tag_day_all!AB2="","",_tag_day_all!AB2)</f>
         <v/>
       </c>
-      <c r="AF5" s="19" t="str">
+      <c r="AF5" s="23" t="str">
         <f>IF(_tag_day_all!AC2="","",_tag_day_all!AC2)</f>
         <v/>
       </c>
-      <c r="AG5" s="19" t="str">
+      <c r="AG5" s="23" t="str">
         <f>IF(_tag_day_all!AD2="","",_tag_day_all!AD2)</f>
         <v/>
       </c>
-      <c r="AH5" s="19" t="str">
+      <c r="AH5" s="23" t="str">
         <f>IF(_tag_day_all!AE2="","",_tag_day_all!AE2)</f>
         <v/>
       </c>
-      <c r="AI5" s="19" t="str">
+      <c r="AI5" s="23" t="str">
         <f>IF(_tag_day_all!AF2="","",_tag_day_all!AF2)</f>
         <v/>
       </c>
-      <c r="AJ5" s="19" t="str">
+      <c r="AJ5" s="23" t="str">
         <f>IF(_tag_day_all!AG2="","",_tag_day_all!AG2)</f>
         <v/>
       </c>
-      <c r="AK5" s="20" t="str">
+      <c r="AK5" s="24" t="str">
         <f>IF(_tag_day_all!AH2="","",_tag_day_all!AH2)</f>
         <v/>
       </c>
-      <c r="AL5" s="20" t="str">
+      <c r="AL5" s="24" t="str">
         <f>IF(_tag_day_all!AI2="","",_tag_day_all!AI2)</f>
         <v/>
       </c>
-      <c r="AM5" s="20" t="str">
+      <c r="AM5" s="24" t="str">
         <f>IF(_tag_day_all!AJ2="","",_tag_day_all!AJ2)</f>
         <v/>
       </c>
-      <c r="AN5" s="20" t="str">
+      <c r="AN5" s="24" t="str">
         <f>IF(_tag_day_all!AK2="","",_tag_day_all!AK2)</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="14.25">
-      <c r="A6" s="15">
+    <row r="6" spans="1:40">
+      <c r="A6" s="19">
         <v>2</v>
       </c>
-      <c r="B6" s="16" t="str">
+      <c r="B6" s="20" t="str">
         <f>IF(_tag_day_all!A3="","",_tag_day_all!A3)</f>
         <v/>
       </c>
-      <c r="C6" s="17" t="str">
+      <c r="C6" s="21" t="str">
         <f>IF(_tag_day_all!B3="","",_tag_day_all!B3)</f>
         <v/>
       </c>
-      <c r="D6" s="18" t="str">
+      <c r="D6" s="22" t="str">
         <f>IF(_tag_day_all!C3="","",_tag_day_all!C3)</f>
         <v/>
       </c>
-      <c r="E6" s="19" t="str">
+      <c r="E6" s="23" t="str">
         <f>IF(_tag_day_all!D3="","",_tag_day_all!D3*10000)</f>
         <v/>
       </c>
-      <c r="F6" s="20" t="str">
+      <c r="F6" s="24" t="str">
         <f>IF(_tag_day_all!E3="","",_tag_day_all!E3)</f>
         <v/>
       </c>
-      <c r="G6" s="19" t="str">
+      <c r="G6" s="23" t="str">
         <f>IF(_tag_day_all!F3="","",_tag_day_all!F3)</f>
         <v/>
       </c>
-      <c r="H6" s="20" t="str">
+      <c r="H6" s="24" t="str">
         <f>IF(_tag_day_all!G3="","",_tag_day_all!G3)</f>
         <v/>
       </c>
-      <c r="I6" s="20" t="str">
+      <c r="I6" s="24" t="str">
         <f>IF(_tag_day_all!H3="","",_tag_day_all!H3)</f>
         <v/>
       </c>
-      <c r="J6" s="36" t="str">
+      <c r="J6" s="44" t="str">
         <f>IF(_tag_day_all!I3="","",_tag_day_all!I3)</f>
         <v/>
       </c>
-      <c r="K6" s="36" t="str">
+      <c r="K6" s="44" t="str">
         <f>IF(_tag_day_all!J3="","",_tag_day_all!J3)</f>
         <v/>
       </c>
-      <c r="L6" s="20" t="str">
+      <c r="L6" s="24" t="str">
         <f>IF(_tag_day_all!K3="","",_tag_day_all!K3)</f>
         <v/>
       </c>
-      <c r="M6" s="20" t="str">
+      <c r="M6" s="24" t="str">
         <f>IF(_tag_day_all!L3="","",_tag_day_all!L3)</f>
         <v/>
       </c>
-      <c r="N6" s="36" t="str">
+      <c r="N6" s="44" t="str">
         <f>IF(_tag_day_all!M3="","",_tag_day_all!M3)</f>
         <v/>
       </c>
-      <c r="O6" s="20" t="str">
+      <c r="O6" s="24" t="str">
         <f>IF(_tag_day_all!N3="","",_tag_day_all!N3*100)</f>
         <v/>
       </c>
-      <c r="P6" s="20" t="str">
+      <c r="P6" s="24" t="str">
         <f>IF(_tag_day_all!AL3="","",_tag_day_all!AL3)</f>
         <v/>
       </c>
-      <c r="Q6" s="19" t="str">
+      <c r="Q6" s="23" t="str">
         <f>IF(_tag_day_all!AM3="","",_tag_day_all!AM3)</f>
         <v/>
       </c>
-      <c r="R6" s="19" t="str">
+      <c r="R6" s="23" t="str">
         <f>IF(_tag_day_all!O3="","",_tag_day_all!O3)</f>
         <v/>
       </c>
-      <c r="S6" s="19" t="str">
+      <c r="S6" s="23" t="str">
         <f>IF(_tag_day_all!P3="","",_tag_day_all!P3)</f>
         <v/>
       </c>
-      <c r="T6" s="19" t="str">
+      <c r="T6" s="23" t="str">
         <f>IF(_tag_day_all!Q3="","",_tag_day_all!Q3)</f>
         <v/>
       </c>
-      <c r="U6" s="19" t="str">
+      <c r="U6" s="23" t="str">
         <f>IF(_tag_day_all!R3="","",_tag_day_all!R3)</f>
         <v/>
       </c>
-      <c r="V6" s="19" t="str">
+      <c r="V6" s="23" t="str">
         <f>IF(_tag_day_all!S3="","",_tag_day_all!S3)</f>
         <v/>
       </c>
-      <c r="W6" s="19" t="str">
+      <c r="W6" s="23" t="str">
         <f>IF(_tag_day_all!T3="","",_tag_day_all!T3)</f>
         <v/>
       </c>
-      <c r="X6" s="20" t="str">
+      <c r="X6" s="24" t="str">
         <f>IF(_tag_day_all!U3="","",_tag_day_all!U3)</f>
         <v/>
       </c>
-      <c r="Y6" s="20" t="str">
+      <c r="Y6" s="24" t="str">
         <f>IF(_tag_day_all!V3="","",_tag_day_all!V3)</f>
         <v/>
       </c>
-      <c r="Z6" s="20" t="str">
+      <c r="Z6" s="24" t="str">
         <f>IF(_tag_day_all!W3="","",_tag_day_all!W3)</f>
         <v/>
       </c>
-      <c r="AA6" s="20" t="str">
+      <c r="AA6" s="24" t="str">
         <f>IF(_tag_day_all!X3="","",_tag_day_all!X3)</f>
         <v/>
       </c>
-      <c r="AB6" s="36" t="str">
+      <c r="AB6" s="44" t="str">
         <f>IF(_tag_day_all!Y3="","",_tag_day_all!Y3)</f>
         <v/>
       </c>
-      <c r="AC6" s="19" t="str">
+      <c r="AC6" s="23" t="str">
         <f>IF(_tag_day_all!Z3="","",_tag_day_all!Z3)</f>
         <v/>
       </c>
-      <c r="AD6" s="19" t="str">
+      <c r="AD6" s="23" t="str">
         <f>IF(_tag_day_all!AA3="","",_tag_day_all!AA3)</f>
         <v/>
       </c>
-      <c r="AE6" s="20" t="str">
+      <c r="AE6" s="24" t="str">
         <f>IF(_tag_day_all!AB3="","",_tag_day_all!AB3)</f>
         <v/>
       </c>
-      <c r="AF6" s="19" t="str">
+      <c r="AF6" s="23" t="str">
         <f>IF(_tag_day_all!AC3="","",_tag_day_all!AC3)</f>
         <v/>
       </c>
-      <c r="AG6" s="19" t="str">
+      <c r="AG6" s="23" t="str">
         <f>IF(_tag_day_all!AD3="","",_tag_day_all!AD3)</f>
         <v/>
       </c>
-      <c r="AH6" s="19" t="str">
+      <c r="AH6" s="23" t="str">
         <f>IF(_tag_day_all!AE3="","",_tag_day_all!AE3)</f>
         <v/>
       </c>
-      <c r="AI6" s="19" t="str">
+      <c r="AI6" s="23" t="str">
         <f>IF(_tag_day_all!AF3="","",_tag_day_all!AF3)</f>
         <v/>
       </c>
-      <c r="AJ6" s="19" t="str">
+      <c r="AJ6" s="23" t="str">
         <f>IF(_tag_day_all!AG3="","",_tag_day_all!AG3)</f>
         <v/>
       </c>
-      <c r="AK6" s="20" t="str">
+      <c r="AK6" s="24" t="str">
         <f>IF(_tag_day_all!AH3="","",_tag_day_all!AH3)</f>
         <v/>
       </c>
-      <c r="AL6" s="20" t="str">
+      <c r="AL6" s="24" t="str">
         <f>IF(_tag_day_all!AI3="","",_tag_day_all!AI3)</f>
         <v/>
       </c>
-      <c r="AM6" s="20" t="str">
+      <c r="AM6" s="24" t="str">
         <f>IF(_tag_day_all!AJ3="","",_tag_day_all!AJ3)</f>
         <v/>
       </c>
-      <c r="AN6" s="20" t="str">
+      <c r="AN6" s="24" t="str">
         <f>IF(_tag_day_all!AK3="","",_tag_day_all!AK3)</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="14.25">
-      <c r="A7" s="15">
+    <row r="7" spans="1:40">
+      <c r="A7" s="19">
         <v>3</v>
       </c>
-      <c r="B7" s="16" t="str">
+      <c r="B7" s="20" t="str">
         <f>IF(_tag_day_all!A4="","",_tag_day_all!A4)</f>
         <v/>
       </c>
-      <c r="C7" s="17" t="str">
+      <c r="C7" s="21" t="str">
         <f>IF(_tag_day_all!B4="","",_tag_day_all!B4)</f>
         <v/>
       </c>
-      <c r="D7" s="18" t="str">
+      <c r="D7" s="22" t="str">
         <f>IF(_tag_day_all!C4="","",_tag_day_all!C4)</f>
         <v/>
       </c>
-      <c r="E7" s="19" t="str">
+      <c r="E7" s="23" t="str">
         <f>IF(_tag_day_all!D4="","",_tag_day_all!D4*10000)</f>
         <v/>
       </c>
-      <c r="F7" s="20" t="str">
+      <c r="F7" s="24" t="str">
         <f>IF(_tag_day_all!E4="","",_tag_day_all!E4)</f>
         <v/>
       </c>
-      <c r="G7" s="19" t="str">
+      <c r="G7" s="23" t="str">
         <f>IF(_tag_day_all!F4="","",_tag_day_all!F4)</f>
         <v/>
       </c>
-      <c r="H7" s="20" t="str">
+      <c r="H7" s="24" t="str">
         <f>IF(_tag_day_all!G4="","",_tag_day_all!G4)</f>
         <v/>
       </c>
-      <c r="I7" s="20" t="str">
+      <c r="I7" s="24" t="str">
         <f>IF(_tag_day_all!H4="","",_tag_day_all!H4)</f>
         <v/>
       </c>
-      <c r="J7" s="36" t="str">
+      <c r="J7" s="44" t="str">
         <f>IF(_tag_day_all!I4="","",_tag_day_all!I4)</f>
         <v/>
       </c>
-      <c r="K7" s="36" t="str">
+      <c r="K7" s="44" t="str">
         <f>IF(_tag_day_all!J4="","",_tag_day_all!J4)</f>
         <v/>
       </c>
-      <c r="L7" s="20" t="str">
+      <c r="L7" s="24" t="str">
         <f>IF(_tag_day_all!K4="","",_tag_day_all!K4)</f>
         <v/>
       </c>
-      <c r="M7" s="20" t="str">
+      <c r="M7" s="24" t="str">
         <f>IF(_tag_day_all!L4="","",_tag_day_all!L4)</f>
         <v/>
       </c>
-      <c r="N7" s="36" t="str">
+      <c r="N7" s="44" t="str">
         <f>IF(_tag_day_all!M4="","",_tag_day_all!M4)</f>
         <v/>
       </c>
-      <c r="O7" s="20" t="str">
+      <c r="O7" s="24" t="str">
         <f>IF(_tag_day_all!N4="","",_tag_day_all!N4*100)</f>
         <v/>
       </c>
-      <c r="P7" s="20" t="str">
+      <c r="P7" s="24" t="str">
         <f>IF(_tag_day_all!AL4="","",_tag_day_all!AL4)</f>
         <v/>
       </c>
-      <c r="Q7" s="19" t="str">
+      <c r="Q7" s="23" t="str">
         <f>IF(_tag_day_all!AM4="","",_tag_day_all!AM4)</f>
         <v/>
       </c>
-      <c r="R7" s="19" t="str">
+      <c r="R7" s="23" t="str">
         <f>IF(_tag_day_all!O4="","",_tag_day_all!O4)</f>
         <v/>
       </c>
-      <c r="S7" s="19" t="str">
+      <c r="S7" s="23" t="str">
         <f>IF(_tag_day_all!P4="","",_tag_day_all!P4)</f>
         <v/>
       </c>
-      <c r="T7" s="19" t="str">
+      <c r="T7" s="23" t="str">
         <f>IF(_tag_day_all!Q4="","",_tag_day_all!Q4)</f>
         <v/>
       </c>
-      <c r="U7" s="19" t="str">
+      <c r="U7" s="23" t="str">
         <f>IF(_tag_day_all!R4="","",_tag_day_all!R4)</f>
         <v/>
       </c>
-      <c r="V7" s="19" t="str">
+      <c r="V7" s="23" t="str">
         <f>IF(_tag_day_all!S4="","",_tag_day_all!S4)</f>
         <v/>
       </c>
-      <c r="W7" s="19" t="str">
+      <c r="W7" s="23" t="str">
         <f>IF(_tag_day_all!T4="","",_tag_day_all!T4)</f>
         <v/>
       </c>
-      <c r="X7" s="20" t="str">
+      <c r="X7" s="24" t="str">
         <f>IF(_tag_day_all!U4="","",_tag_day_all!U4)</f>
         <v/>
       </c>
-      <c r="Y7" s="20" t="str">
+      <c r="Y7" s="24" t="str">
         <f>IF(_tag_day_all!V4="","",_tag_day_all!V4)</f>
         <v/>
       </c>
-      <c r="Z7" s="20" t="str">
+      <c r="Z7" s="24" t="str">
         <f>IF(_tag_day_all!W4="","",_tag_day_all!W4)</f>
         <v/>
       </c>
-      <c r="AA7" s="20" t="str">
+      <c r="AA7" s="24" t="str">
         <f>IF(_tag_day_all!X4="","",_tag_day_all!X4)</f>
         <v/>
       </c>
-      <c r="AB7" s="36" t="str">
+      <c r="AB7" s="44" t="str">
         <f>IF(_tag_day_all!Y4="","",_tag_day_all!Y4)</f>
         <v/>
       </c>
-      <c r="AC7" s="19" t="str">
+      <c r="AC7" s="23" t="str">
         <f>IF(_tag_day_all!Z4="","",_tag_day_all!Z4)</f>
         <v/>
       </c>
-      <c r="AD7" s="19" t="str">
+      <c r="AD7" s="23" t="str">
         <f>IF(_tag_day_all!AA4="","",_tag_day_all!AA4)</f>
         <v/>
       </c>
-      <c r="AE7" s="20" t="str">
+      <c r="AE7" s="24" t="str">
         <f>IF(_tag_day_all!AB4="","",_tag_day_all!AB4)</f>
         <v/>
       </c>
-      <c r="AF7" s="19" t="str">
+      <c r="AF7" s="23" t="str">
         <f>IF(_tag_day_all!AC4="","",_tag_day_all!AC4)</f>
         <v/>
       </c>
-      <c r="AG7" s="19" t="str">
+      <c r="AG7" s="23" t="str">
         <f>IF(_tag_day_all!AD4="","",_tag_day_all!AD4)</f>
         <v/>
       </c>
-      <c r="AH7" s="19" t="str">
+      <c r="AH7" s="23" t="str">
         <f>IF(_tag_day_all!AE4="","",_tag_day_all!AE4)</f>
         <v/>
       </c>
-      <c r="AI7" s="19" t="str">
+      <c r="AI7" s="23" t="str">
         <f>IF(_tag_day_all!AF4="","",_tag_day_all!AF4)</f>
         <v/>
       </c>
-      <c r="AJ7" s="19" t="str">
+      <c r="AJ7" s="23" t="str">
         <f>IF(_tag_day_all!AG4="","",_tag_day_all!AG4)</f>
         <v/>
       </c>
-      <c r="AK7" s="20" t="str">
+      <c r="AK7" s="24" t="str">
         <f>IF(_tag_day_all!AH4="","",_tag_day_all!AH4)</f>
         <v/>
       </c>
-      <c r="AL7" s="20" t="str">
+      <c r="AL7" s="24" t="str">
         <f>IF(_tag_day_all!AI4="","",_tag_day_all!AI4)</f>
         <v/>
       </c>
-      <c r="AM7" s="20" t="str">
+      <c r="AM7" s="24" t="str">
         <f>IF(_tag_day_all!AJ4="","",_tag_day_all!AJ4)</f>
         <v/>
       </c>
-      <c r="AN7" s="20" t="str">
+      <c r="AN7" s="24" t="str">
         <f>IF(_tag_day_all!AK4="","",_tag_day_all!AK4)</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="14.25">
-      <c r="A8" s="15">
+    <row r="8" spans="1:40">
+      <c r="A8" s="19">
         <v>4</v>
       </c>
-      <c r="B8" s="16" t="str">
+      <c r="B8" s="20" t="str">
         <f>IF(_tag_day_all!A5="","",_tag_day_all!A5)</f>
         <v/>
       </c>
-      <c r="C8" s="17" t="str">
+      <c r="C8" s="21" t="str">
         <f>IF(_tag_day_all!B5="","",_tag_day_all!B5)</f>
         <v/>
       </c>
-      <c r="D8" s="18" t="str">
+      <c r="D8" s="22" t="str">
         <f>IF(_tag_day_all!C5="","",_tag_day_all!C5)</f>
         <v/>
       </c>
-      <c r="E8" s="19" t="str">
+      <c r="E8" s="23" t="str">
         <f>IF(_tag_day_all!D5="","",_tag_day_all!D5*10000)</f>
         <v/>
       </c>
-      <c r="F8" s="20" t="str">
+      <c r="F8" s="24" t="str">
         <f>IF(_tag_day_all!E5="","",_tag_day_all!E5)</f>
         <v/>
       </c>
-      <c r="G8" s="19" t="str">
+      <c r="G8" s="23" t="str">
         <f>IF(_tag_day_all!F5="","",_tag_day_all!F5)</f>
         <v/>
       </c>
-      <c r="H8" s="20" t="str">
+      <c r="H8" s="24" t="str">
         <f>IF(_tag_day_all!G5="","",_tag_day_all!G5)</f>
         <v/>
       </c>
-      <c r="I8" s="20" t="str">
+      <c r="I8" s="24" t="str">
         <f>IF(_tag_day_all!H5="","",_tag_day_all!H5)</f>
         <v/>
       </c>
-      <c r="J8" s="36" t="str">
+      <c r="J8" s="44" t="str">
         <f>IF(_tag_day_all!I5="","",_tag_day_all!I5)</f>
         <v/>
       </c>
-      <c r="K8" s="36" t="str">
+      <c r="K8" s="44" t="str">
         <f>IF(_tag_day_all!J5="","",_tag_day_all!J5)</f>
         <v/>
       </c>
-      <c r="L8" s="20" t="str">
+      <c r="L8" s="24" t="str">
         <f>IF(_tag_day_all!K5="","",_tag_day_all!K5)</f>
         <v/>
       </c>
-      <c r="M8" s="20" t="str">
+      <c r="M8" s="24" t="str">
         <f>IF(_tag_day_all!L5="","",_tag_day_all!L5)</f>
         <v/>
       </c>
-      <c r="N8" s="36" t="str">
+      <c r="N8" s="44" t="str">
         <f>IF(_tag_day_all!M5="","",_tag_day_all!M5)</f>
         <v/>
       </c>
-      <c r="O8" s="20" t="str">
+      <c r="O8" s="24" t="str">
         <f>IF(_tag_day_all!N5="","",_tag_day_all!N5*100)</f>
         <v/>
       </c>
-      <c r="P8" s="20" t="str">
+      <c r="P8" s="24" t="str">
         <f>IF(_tag_day_all!AL5="","",_tag_day_all!AL5)</f>
         <v/>
       </c>
-      <c r="Q8" s="19" t="str">
+      <c r="Q8" s="23" t="str">
         <f>IF(_tag_day_all!AM5="","",_tag_day_all!AM5)</f>
         <v/>
       </c>
-      <c r="R8" s="19" t="str">
+      <c r="R8" s="23" t="str">
         <f>IF(_tag_day_all!O5="","",_tag_day_all!O5)</f>
         <v/>
       </c>
-      <c r="S8" s="19" t="str">
+      <c r="S8" s="23" t="str">
         <f>IF(_tag_day_all!P5="","",_tag_day_all!P5)</f>
         <v/>
       </c>
-      <c r="T8" s="19" t="str">
+      <c r="T8" s="23" t="str">
         <f>IF(_tag_day_all!Q5="","",_tag_day_all!Q5)</f>
         <v/>
       </c>
-      <c r="U8" s="19" t="str">
+      <c r="U8" s="23" t="str">
         <f>IF(_tag_day_all!R5="","",_tag_day_all!R5)</f>
         <v/>
       </c>
-      <c r="V8" s="19" t="str">
+      <c r="V8" s="23" t="str">
         <f>IF(_tag_day_all!S5="","",_tag_day_all!S5)</f>
         <v/>
       </c>
-      <c r="W8" s="19" t="str">
+      <c r="W8" s="23" t="str">
         <f>IF(_tag_day_all!T5="","",_tag_day_all!T5)</f>
         <v/>
       </c>
-      <c r="X8" s="20" t="str">
+      <c r="X8" s="24" t="str">
         <f>IF(_tag_day_all!U5="","",_tag_day_all!U5)</f>
         <v/>
       </c>
-      <c r="Y8" s="20" t="str">
+      <c r="Y8" s="24" t="str">
         <f>IF(_tag_day_all!V5="","",_tag_day_all!V5)</f>
         <v/>
       </c>
-      <c r="Z8" s="20" t="str">
+      <c r="Z8" s="24" t="str">
         <f>IF(_tag_day_all!W5="","",_tag_day_all!W5)</f>
         <v/>
       </c>
-      <c r="AA8" s="20" t="str">
+      <c r="AA8" s="24" t="str">
         <f>IF(_tag_day_all!X5="","",_tag_day_all!X5)</f>
         <v/>
       </c>
-      <c r="AB8" s="36" t="str">
+      <c r="AB8" s="44" t="str">
         <f>IF(_tag_day_all!Y5="","",_tag_day_all!Y5)</f>
         <v/>
       </c>
-      <c r="AC8" s="19" t="str">
+      <c r="AC8" s="23" t="str">
         <f>IF(_tag_day_all!Z5="","",_tag_day_all!Z5)</f>
         <v/>
       </c>
-      <c r="AD8" s="19" t="str">
+      <c r="AD8" s="23" t="str">
         <f>IF(_tag_day_all!AA5="","",_tag_day_all!AA5)</f>
         <v/>
       </c>
-      <c r="AE8" s="20" t="str">
+      <c r="AE8" s="24" t="str">
         <f>IF(_tag_day_all!AB5="","",_tag_day_all!AB5)</f>
         <v/>
       </c>
-      <c r="AF8" s="19" t="str">
+      <c r="AF8" s="23" t="str">
         <f>IF(_tag_day_all!AC5="","",_tag_day_all!AC5)</f>
         <v/>
       </c>
-      <c r="AG8" s="19" t="str">
+      <c r="AG8" s="23" t="str">
         <f>IF(_tag_day_all!AD5="","",_tag_day_all!AD5)</f>
         <v/>
       </c>
-      <c r="AH8" s="19" t="str">
+      <c r="AH8" s="23" t="str">
         <f>IF(_tag_day_all!AE5="","",_tag_day_all!AE5)</f>
         <v/>
       </c>
-      <c r="AI8" s="19" t="str">
+      <c r="AI8" s="23" t="str">
         <f>IF(_tag_day_all!AF5="","",_tag_day_all!AF5)</f>
         <v/>
       </c>
-      <c r="AJ8" s="19" t="str">
+      <c r="AJ8" s="23" t="str">
         <f>IF(_tag_day_all!AG5="","",_tag_day_all!AG5)</f>
         <v/>
       </c>
-      <c r="AK8" s="20" t="str">
+      <c r="AK8" s="24" t="str">
         <f>IF(_tag_day_all!AH5="","",_tag_day_all!AH5)</f>
         <v/>
       </c>
-      <c r="AL8" s="20" t="str">
+      <c r="AL8" s="24" t="str">
         <f>IF(_tag_day_all!AI5="","",_tag_day_all!AI5)</f>
         <v/>
       </c>
-      <c r="AM8" s="20" t="str">
+      <c r="AM8" s="24" t="str">
         <f>IF(_tag_day_all!AJ5="","",_tag_day_all!AJ5)</f>
         <v/>
       </c>
-      <c r="AN8" s="20" t="str">
+      <c r="AN8" s="24" t="str">
         <f>IF(_tag_day_all!AK5="","",_tag_day_all!AK5)</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="14.25">
-      <c r="A9" s="15">
+    <row r="9" spans="1:40">
+      <c r="A9" s="19">
         <v>5</v>
       </c>
-      <c r="B9" s="16" t="str">
+      <c r="B9" s="20" t="str">
         <f>IF(_tag_day_all!A6="","",_tag_day_all!A6)</f>
         <v/>
       </c>
-      <c r="C9" s="17" t="str">
+      <c r="C9" s="21" t="str">
         <f>IF(_tag_day_all!B6="","",_tag_day_all!B6)</f>
         <v/>
       </c>
-      <c r="D9" s="18" t="str">
+      <c r="D9" s="22" t="str">
         <f>IF(_tag_day_all!C6="","",_tag_day_all!C6)</f>
         <v/>
       </c>
-      <c r="E9" s="19" t="str">
+      <c r="E9" s="23" t="str">
         <f>IF(_tag_day_all!D6="","",_tag_day_all!D6*10000)</f>
         <v/>
       </c>
-      <c r="F9" s="20" t="str">
+      <c r="F9" s="24" t="str">
         <f>IF(_tag_day_all!E6="","",_tag_day_all!E6)</f>
         <v/>
       </c>
-      <c r="G9" s="19" t="str">
+      <c r="G9" s="23" t="str">
         <f>IF(_tag_day_all!F6="","",_tag_day_all!F6)</f>
         <v/>
       </c>
-      <c r="H9" s="20" t="str">
+      <c r="H9" s="24" t="str">
         <f>IF(_tag_day_all!G6="","",_tag_day_all!G6)</f>
         <v/>
       </c>
-      <c r="I9" s="20" t="str">
+      <c r="I9" s="24" t="str">
         <f>IF(_tag_day_all!H6="","",_tag_day_all!H6)</f>
         <v/>
       </c>
-      <c r="J9" s="36" t="str">
+      <c r="J9" s="44" t="str">
         <f>IF(_tag_day_all!I6="","",_tag_day_all!I6)</f>
         <v/>
       </c>
-      <c r="K9" s="36" t="str">
+      <c r="K9" s="44" t="str">
         <f>IF(_tag_day_all!J6="","",_tag_day_all!J6)</f>
         <v/>
       </c>
-      <c r="L9" s="20" t="str">
+      <c r="L9" s="24" t="str">
         <f>IF(_tag_day_all!K6="","",_tag_day_all!K6)</f>
         <v/>
       </c>
-      <c r="M9" s="20" t="str">
+      <c r="M9" s="24" t="str">
         <f>IF(_tag_day_all!L6="","",_tag_day_all!L6)</f>
         <v/>
       </c>
-      <c r="N9" s="36" t="str">
+      <c r="N9" s="44" t="str">
         <f>IF(_tag_day_all!M6="","",_tag_day_all!M6)</f>
         <v/>
       </c>
-      <c r="O9" s="20" t="str">
+      <c r="O9" s="24" t="str">
         <f>IF(_tag_day_all!N6="","",_tag_day_all!N6*100)</f>
         <v/>
       </c>
-      <c r="P9" s="20" t="str">
+      <c r="P9" s="24" t="str">
         <f>IF(_tag_day_all!AL6="","",_tag_day_all!AL6)</f>
         <v/>
       </c>
-      <c r="Q9" s="19" t="str">
+      <c r="Q9" s="23" t="str">
         <f>IF(_tag_day_all!AM6="","",_tag_day_all!AM6)</f>
         <v/>
       </c>
-      <c r="R9" s="19" t="str">
+      <c r="R9" s="23" t="str">
         <f>IF(_tag_day_all!O6="","",_tag_day_all!O6)</f>
         <v/>
       </c>
-      <c r="S9" s="19" t="str">
+      <c r="S9" s="23" t="str">
         <f>IF(_tag_day_all!P6="","",_tag_day_all!P6)</f>
         <v/>
       </c>
-      <c r="T9" s="19" t="str">
+      <c r="T9" s="23" t="str">
         <f>IF(_tag_day_all!Q6="","",_tag_day_all!Q6)</f>
         <v/>
       </c>
-      <c r="U9" s="19" t="str">
+      <c r="U9" s="23" t="str">
         <f>IF(_tag_day_all!R6="","",_tag_day_all!R6)</f>
         <v/>
       </c>
-      <c r="V9" s="19" t="str">
+      <c r="V9" s="23" t="str">
         <f>IF(_tag_day_all!S6="","",_tag_day_all!S6)</f>
         <v/>
       </c>
-      <c r="W9" s="19" t="str">
+      <c r="W9" s="23" t="str">
         <f>IF(_tag_day_all!T6="","",_tag_day_all!T6)</f>
         <v/>
       </c>
-      <c r="X9" s="20" t="str">
+      <c r="X9" s="24" t="str">
         <f>IF(_tag_day_all!U6="","",_tag_day_all!U6)</f>
         <v/>
       </c>
-      <c r="Y9" s="20" t="str">
+      <c r="Y9" s="24" t="str">
         <f>IF(_tag_day_all!V6="","",_tag_day_all!V6)</f>
         <v/>
       </c>
-      <c r="Z9" s="20" t="str">
+      <c r="Z9" s="24" t="str">
         <f>IF(_tag_day_all!W6="","",_tag_day_all!W6)</f>
         <v/>
       </c>
-      <c r="AA9" s="20" t="str">
+      <c r="AA9" s="24" t="str">
         <f>IF(_tag_day_all!X6="","",_tag_day_all!X6)</f>
         <v/>
       </c>
-      <c r="AB9" s="36" t="str">
+      <c r="AB9" s="44" t="str">
         <f>IF(_tag_day_all!Y6="","",_tag_day_all!Y6)</f>
         <v/>
       </c>
-      <c r="AC9" s="19" t="str">
+      <c r="AC9" s="23" t="str">
         <f>IF(_tag_day_all!Z6="","",_tag_day_all!Z6)</f>
         <v/>
       </c>
-      <c r="AD9" s="19" t="str">
+      <c r="AD9" s="23" t="str">
         <f>IF(_tag_day_all!AA6="","",_tag_day_all!AA6)</f>
         <v/>
       </c>
-      <c r="AE9" s="20" t="str">
+      <c r="AE9" s="24" t="str">
         <f>IF(_tag_day_all!AB6="","",_tag_day_all!AB6)</f>
         <v/>
       </c>
-      <c r="AF9" s="19" t="str">
+      <c r="AF9" s="23" t="str">
         <f>IF(_tag_day_all!AC6="","",_tag_day_all!AC6)</f>
         <v/>
       </c>
-      <c r="AG9" s="19" t="str">
+      <c r="AG9" s="23" t="str">
         <f>IF(_tag_day_all!AD6="","",_tag_day_all!AD6)</f>
         <v/>
       </c>
-      <c r="AH9" s="19" t="str">
+      <c r="AH9" s="23" t="str">
         <f>IF(_tag_day_all!AE6="","",_tag_day_all!AE6)</f>
         <v/>
       </c>
-      <c r="AI9" s="19" t="str">
+      <c r="AI9" s="23" t="str">
         <f>IF(_tag_day_all!AF6="","",_tag_day_all!AF6)</f>
         <v/>
       </c>
-      <c r="AJ9" s="19" t="str">
+      <c r="AJ9" s="23" t="str">
         <f>IF(_tag_day_all!AG6="","",_tag_day_all!AG6)</f>
         <v/>
       </c>
-      <c r="AK9" s="20" t="str">
+      <c r="AK9" s="24" t="str">
         <f>IF(_tag_day_all!AH6="","",_tag_day_all!AH6)</f>
         <v/>
       </c>
-      <c r="AL9" s="20" t="str">
+      <c r="AL9" s="24" t="str">
         <f>IF(_tag_day_all!AI6="","",_tag_day_all!AI6)</f>
         <v/>
       </c>
-      <c r="AM9" s="20" t="str">
+      <c r="AM9" s="24" t="str">
         <f>IF(_tag_day_all!AJ6="","",_tag_day_all!AJ6)</f>
         <v/>
       </c>
-      <c r="AN9" s="20" t="str">
+      <c r="AN9" s="24" t="str">
         <f>IF(_tag_day_all!AK6="","",_tag_day_all!AK6)</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="14.25">
-      <c r="A10" s="15">
+    <row r="10" spans="1:40">
+      <c r="A10" s="19">
         <v>6</v>
       </c>
-      <c r="B10" s="16" t="str">
+      <c r="B10" s="20" t="str">
         <f>IF(_tag_day_all!A7="","",_tag_day_all!A7)</f>
         <v/>
       </c>
-      <c r="C10" s="17" t="str">
+      <c r="C10" s="21" t="str">
         <f>IF(_tag_day_all!B7="","",_tag_day_all!B7)</f>
         <v/>
       </c>
-      <c r="D10" s="18" t="str">
+      <c r="D10" s="22" t="str">
         <f>IF(_tag_day_all!C7="","",_tag_day_all!C7)</f>
         <v/>
       </c>
-      <c r="E10" s="19" t="str">
+      <c r="E10" s="23" t="str">
         <f>IF(_tag_day_all!D7="","",_tag_day_all!D7*10000)</f>
         <v/>
       </c>
-      <c r="F10" s="20" t="str">
+      <c r="F10" s="24" t="str">
         <f>IF(_tag_day_all!E7="","",_tag_day_all!E7)</f>
         <v/>
       </c>
-      <c r="G10" s="19" t="str">
+      <c r="G10" s="23" t="str">
         <f>IF(_tag_day_all!F7="","",_tag_day_all!F7)</f>
         <v/>
       </c>
-      <c r="H10" s="20" t="str">
+      <c r="H10" s="24" t="str">
         <f>IF(_tag_day_all!G7="","",_tag_day_all!G7)</f>
         <v/>
       </c>
-      <c r="I10" s="20" t="str">
+      <c r="I10" s="24" t="str">
         <f>IF(_tag_day_all!H7="","",_tag_day_all!H7)</f>
         <v/>
       </c>
-      <c r="J10" s="36" t="str">
+      <c r="J10" s="44" t="str">
         <f>IF(_tag_day_all!I7="","",_tag_day_all!I7)</f>
         <v/>
       </c>
-      <c r="K10" s="36" t="str">
+      <c r="K10" s="44" t="str">
         <f>IF(_tag_day_all!J7="","",_tag_day_all!J7)</f>
         <v/>
       </c>
-      <c r="L10" s="20" t="str">
+      <c r="L10" s="24" t="str">
         <f>IF(_tag_day_all!K7="","",_tag_day_all!K7)</f>
         <v/>
       </c>
-      <c r="M10" s="20" t="str">
+      <c r="M10" s="24" t="str">
         <f>IF(_tag_day_all!L7="","",_tag_day_all!L7)</f>
         <v/>
       </c>
-      <c r="N10" s="36" t="str">
+      <c r="N10" s="44" t="str">
         <f>IF(_tag_day_all!M7="","",_tag_day_all!M7)</f>
         <v/>
       </c>
-      <c r="O10" s="20" t="str">
+      <c r="O10" s="24" t="str">
         <f>IF(_tag_day_all!N7="","",_tag_day_all!N7*100)</f>
         <v/>
       </c>
-      <c r="P10" s="20" t="str">
+      <c r="P10" s="24" t="str">
         <f>IF(_tag_day_all!AL7="","",_tag_day_all!AL7)</f>
         <v/>
       </c>
-      <c r="Q10" s="19" t="str">
+      <c r="Q10" s="23" t="str">
         <f>IF(_tag_day_all!AM7="","",_tag_day_all!AM7)</f>
         <v/>
       </c>
-      <c r="R10" s="19" t="str">
+      <c r="R10" s="23" t="str">
         <f>IF(_tag_day_all!O7="","",_tag_day_all!O7)</f>
         <v/>
       </c>
-      <c r="S10" s="19" t="str">
+      <c r="S10" s="23" t="str">
         <f>IF(_tag_day_all!P7="","",_tag_day_all!P7)</f>
         <v/>
       </c>
-      <c r="T10" s="19" t="str">
+      <c r="T10" s="23" t="str">
         <f>IF(_tag_day_all!Q7="","",_tag_day_all!Q7)</f>
         <v/>
       </c>
-      <c r="U10" s="19" t="str">
+      <c r="U10" s="23" t="str">
         <f>IF(_tag_day_all!R7="","",_tag_day_all!R7)</f>
         <v/>
       </c>
-      <c r="V10" s="19" t="str">
+      <c r="V10" s="23" t="str">
         <f>IF(_tag_day_all!S7="","",_tag_day_all!S7)</f>
         <v/>
       </c>
-      <c r="W10" s="19" t="str">
+      <c r="W10" s="23" t="str">
         <f>IF(_tag_day_all!T7="","",_tag_day_all!T7)</f>
         <v/>
       </c>
-      <c r="X10" s="20" t="str">
+      <c r="X10" s="24" t="str">
         <f>IF(_tag_day_all!U7="","",_tag_day_all!U7)</f>
         <v/>
       </c>
-      <c r="Y10" s="20" t="str">
+      <c r="Y10" s="24" t="str">
         <f>IF(_tag_day_all!V7="","",_tag_day_all!V7)</f>
         <v/>
       </c>
-      <c r="Z10" s="20" t="str">
+      <c r="Z10" s="24" t="str">
         <f>IF(_tag_day_all!W7="","",_tag_day_all!W7)</f>
         <v/>
       </c>
-      <c r="AA10" s="20" t="str">
+      <c r="AA10" s="24" t="str">
         <f>IF(_tag_day_all!X7="","",_tag_day_all!X7)</f>
         <v/>
       </c>
-      <c r="AB10" s="36" t="str">
+      <c r="AB10" s="44" t="str">
         <f>IF(_tag_day_all!Y7="","",_tag_day_all!Y7)</f>
         <v/>
       </c>
-      <c r="AC10" s="19" t="str">
+      <c r="AC10" s="23" t="str">
         <f>IF(_tag_day_all!Z7="","",_tag_day_all!Z7)</f>
         <v/>
       </c>
-      <c r="AD10" s="19" t="str">
+      <c r="AD10" s="23" t="str">
         <f>IF(_tag_day_all!AA7="","",_tag_day_all!AA7)</f>
         <v/>
       </c>
-      <c r="AE10" s="20" t="str">
+      <c r="AE10" s="24" t="str">
         <f>IF(_tag_day_all!AB7="","",_tag_day_all!AB7)</f>
         <v/>
       </c>
-      <c r="AF10" s="19" t="str">
+      <c r="AF10" s="23" t="str">
         <f>IF(_tag_day_all!AC7="","",_tag_day_all!AC7)</f>
         <v/>
       </c>
-      <c r="AG10" s="19" t="str">
+      <c r="AG10" s="23" t="str">
         <f>IF(_tag_day_all!AD7="","",_tag_day_all!AD7)</f>
         <v/>
       </c>
-      <c r="AH10" s="19" t="str">
+      <c r="AH10" s="23" t="str">
         <f>IF(_tag_day_all!AE7="","",_tag_day_all!AE7)</f>
         <v/>
       </c>
-      <c r="AI10" s="19" t="str">
+      <c r="AI10" s="23" t="str">
         <f>IF(_tag_day_all!AF7="","",_tag_day_all!AF7)</f>
         <v/>
       </c>
-      <c r="AJ10" s="19" t="str">
+      <c r="AJ10" s="23" t="str">
         <f>IF(_tag_day_all!AG7="","",_tag_day_all!AG7)</f>
         <v/>
       </c>
-      <c r="AK10" s="20" t="str">
+      <c r="AK10" s="24" t="str">
         <f>IF(_tag_day_all!AH7="","",_tag_day_all!AH7)</f>
         <v/>
       </c>
-      <c r="AL10" s="20" t="str">
+      <c r="AL10" s="24" t="str">
         <f>IF(_tag_day_all!AI7="","",_tag_day_all!AI7)</f>
         <v/>
       </c>
-      <c r="AM10" s="20" t="str">
+      <c r="AM10" s="24" t="str">
         <f>IF(_tag_day_all!AJ7="","",_tag_day_all!AJ7)</f>
         <v/>
       </c>
-      <c r="AN10" s="20" t="str">
+      <c r="AN10" s="24" t="str">
         <f>IF(_tag_day_all!AK7="","",_tag_day_all!AK7)</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="14.25">
-      <c r="A11" s="15">
+    <row r="11" spans="1:40">
+      <c r="A11" s="19">
         <v>7</v>
       </c>
-      <c r="B11" s="16" t="str">
+      <c r="B11" s="20" t="str">
         <f>IF(_tag_day_all!A8="","",_tag_day_all!A8)</f>
         <v/>
       </c>
-      <c r="C11" s="17" t="str">
+      <c r="C11" s="21" t="str">
         <f>IF(_tag_day_all!B8="","",_tag_day_all!B8)</f>
         <v/>
       </c>
-      <c r="D11" s="18" t="str">
+      <c r="D11" s="22" t="str">
         <f>IF(_tag_day_all!C8="","",_tag_day_all!C8)</f>
         <v/>
       </c>
-      <c r="E11" s="19" t="str">
+      <c r="E11" s="23" t="str">
         <f>IF(_tag_day_all!D8="","",_tag_day_all!D8*10000)</f>
         <v/>
       </c>
-      <c r="F11" s="20" t="str">
+      <c r="F11" s="24" t="str">
         <f>IF(_tag_day_all!E8="","",_tag_day_all!E8)</f>
         <v/>
       </c>
-      <c r="G11" s="19" t="str">
+      <c r="G11" s="23" t="str">
         <f>IF(_tag_day_all!F8="","",_tag_day_all!F8)</f>
         <v/>
       </c>
-      <c r="H11" s="20" t="str">
+      <c r="H11" s="24" t="str">
         <f>IF(_tag_day_all!G8="","",_tag_day_all!G8)</f>
         <v/>
       </c>
-      <c r="I11" s="20" t="str">
+      <c r="I11" s="24" t="str">
         <f>IF(_tag_day_all!H8="","",_tag_day_all!H8)</f>
         <v/>
       </c>
-      <c r="J11" s="36" t="str">
+      <c r="J11" s="44" t="str">
         <f>IF(_tag_day_all!I8="","",_tag_day_all!I8)</f>
         <v/>
       </c>
-      <c r="K11" s="36" t="str">
+      <c r="K11" s="44" t="str">
         <f>IF(_tag_day_all!J8="","",_tag_day_all!J8)</f>
         <v/>
       </c>
-      <c r="L11" s="20" t="str">
+      <c r="L11" s="24" t="str">
         <f>IF(_tag_day_all!K8="","",_tag_day_all!K8)</f>
         <v/>
       </c>
-      <c r="M11" s="20" t="str">
+      <c r="M11" s="24" t="str">
         <f>IF(_tag_day_all!L8="","",_tag_day_all!L8)</f>
         <v/>
       </c>
-      <c r="N11" s="36" t="str">
+      <c r="N11" s="44" t="str">
         <f>IF(_tag_day_all!M8="","",_tag_day_all!M8)</f>
         <v/>
       </c>
-      <c r="O11" s="20" t="str">
+      <c r="O11" s="24" t="str">
         <f>IF(_tag_day_all!N8="","",_tag_day_all!N8*100)</f>
         <v/>
       </c>
-      <c r="P11" s="20" t="str">
+      <c r="P11" s="24" t="str">
         <f>IF(_tag_day_all!AL8="","",_tag_day_all!AL8)</f>
         <v/>
       </c>
-      <c r="Q11" s="19" t="str">
+      <c r="Q11" s="23" t="str">
         <f>IF(_tag_day_all!AM8="","",_tag_day_all!AM8)</f>
         <v/>
       </c>
-      <c r="R11" s="19" t="str">
+      <c r="R11" s="23" t="str">
         <f>IF(_tag_day_all!O8="","",_tag_day_all!O8)</f>
         <v/>
       </c>
-      <c r="S11" s="19" t="str">
+      <c r="S11" s="23" t="str">
         <f>IF(_tag_day_all!P8="","",_tag_day_all!P8)</f>
         <v/>
       </c>
-      <c r="T11" s="19" t="str">
+      <c r="T11" s="23" t="str">
         <f>IF(_tag_day_all!Q8="","",_tag_day_all!Q8)</f>
         <v/>
       </c>
-      <c r="U11" s="19" t="str">
+      <c r="U11" s="23" t="str">
         <f>IF(_tag_day_all!R8="","",_tag_day_all!R8)</f>
         <v/>
       </c>
-      <c r="V11" s="19" t="str">
+      <c r="V11" s="23" t="str">
         <f>IF(_tag_day_all!S8="","",_tag_day_all!S8)</f>
         <v/>
       </c>
-      <c r="W11" s="19" t="str">
+      <c r="W11" s="23" t="str">
         <f>IF(_tag_day_all!T8="","",_tag_day_all!T8)</f>
         <v/>
       </c>
-      <c r="X11" s="20" t="str">
+      <c r="X11" s="24" t="str">
         <f>IF(_tag_day_all!U8="","",_tag_day_all!U8)</f>
         <v/>
       </c>
-      <c r="Y11" s="20" t="str">
+      <c r="Y11" s="24" t="str">
         <f>IF(_tag_day_all!V8="","",_tag_day_all!V8)</f>
         <v/>
       </c>
-      <c r="Z11" s="20" t="str">
+      <c r="Z11" s="24" t="str">
         <f>IF(_tag_day_all!W8="","",_tag_day_all!W8)</f>
         <v/>
       </c>
-      <c r="AA11" s="20" t="str">
+      <c r="AA11" s="24" t="str">
         <f>IF(_tag_day_all!X8="","",_tag_day_all!X8)</f>
         <v/>
       </c>
-      <c r="AB11" s="36" t="str">
+      <c r="AB11" s="44" t="str">
         <f>IF(_tag_day_all!Y8="","",_tag_day_all!Y8)</f>
         <v/>
       </c>
-      <c r="AC11" s="19" t="str">
+      <c r="AC11" s="23" t="str">
         <f>IF(_tag_day_all!Z8="","",_tag_day_all!Z8)</f>
         <v/>
       </c>
-      <c r="AD11" s="19" t="str">
+      <c r="AD11" s="23" t="str">
         <f>IF(_tag_day_all!AA8="","",_tag_day_all!AA8)</f>
         <v/>
       </c>
-      <c r="AE11" s="20" t="str">
+      <c r="AE11" s="24" t="str">
         <f>IF(_tag_day_all!AB8="","",_tag_day_all!AB8)</f>
         <v/>
       </c>
-      <c r="AF11" s="19" t="str">
+      <c r="AF11" s="23" t="str">
         <f>IF(_tag_day_all!AC8="","",_tag_day_all!AC8)</f>
         <v/>
       </c>
-      <c r="AG11" s="19" t="str">
+      <c r="AG11" s="23" t="str">
         <f>IF(_tag_day_all!AD8="","",_tag_day_all!AD8)</f>
         <v/>
       </c>
-      <c r="AH11" s="19" t="str">
+      <c r="AH11" s="23" t="str">
         <f>IF(_tag_day_all!AE8="","",_tag_day_all!AE8)</f>
         <v/>
       </c>
-      <c r="AI11" s="19" t="str">
+      <c r="AI11" s="23" t="str">
         <f>IF(_tag_day_all!AF8="","",_tag_day_all!AF8)</f>
         <v/>
       </c>
-      <c r="AJ11" s="19" t="str">
+      <c r="AJ11" s="23" t="str">
         <f>IF(_tag_day_all!AG8="","",_tag_day_all!AG8)</f>
         <v/>
       </c>
-      <c r="AK11" s="20" t="str">
+      <c r="AK11" s="24" t="str">
         <f>IF(_tag_day_all!AH8="","",_tag_day_all!AH8)</f>
         <v/>
       </c>
-      <c r="AL11" s="20" t="str">
+      <c r="AL11" s="24" t="str">
         <f>IF(_tag_day_all!AI8="","",_tag_day_all!AI8)</f>
         <v/>
       </c>
-      <c r="AM11" s="20" t="str">
+      <c r="AM11" s="24" t="str">
         <f>IF(_tag_day_all!AJ8="","",_tag_day_all!AJ8)</f>
         <v/>
       </c>
-      <c r="AN11" s="20" t="str">
+      <c r="AN11" s="24" t="str">
         <f>IF(_tag_day_all!AK8="","",_tag_day_all!AK8)</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="14.25">
-      <c r="A12" s="15">
+    <row r="12" spans="1:40">
+      <c r="A12" s="19">
         <v>8</v>
       </c>
-      <c r="B12" s="16" t="str">
+      <c r="B12" s="20" t="str">
         <f>IF(_tag_day_all!A9="","",_tag_day_all!A9)</f>
         <v/>
       </c>
-      <c r="C12" s="17" t="str">
+      <c r="C12" s="21" t="str">
         <f>IF(_tag_day_all!B9="","",_tag_day_all!B9)</f>
         <v/>
       </c>
-      <c r="D12" s="18" t="str">
+      <c r="D12" s="22" t="str">
         <f>IF(_tag_day_all!C9="","",_tag_day_all!C9)</f>
         <v/>
       </c>
-      <c r="E12" s="19" t="str">
+      <c r="E12" s="23" t="str">
         <f>IF(_tag_day_all!D9="","",_tag_day_all!D9*10000)</f>
         <v/>
       </c>
-      <c r="F12" s="20" t="str">
+      <c r="F12" s="24" t="str">
         <f>IF(_tag_day_all!E9="","",_tag_day_all!E9)</f>
         <v/>
       </c>
-      <c r="G12" s="19" t="str">
+      <c r="G12" s="23" t="str">
         <f>IF(_tag_day_all!F9="","",_tag_day_all!F9)</f>
         <v/>
       </c>
-      <c r="H12" s="20" t="str">
+      <c r="H12" s="24" t="str">
         <f>IF(_tag_day_all!G9="","",_tag_day_all!G9)</f>
         <v/>
       </c>
-      <c r="I12" s="20" t="str">
+      <c r="I12" s="24" t="str">
         <f>IF(_tag_day_all!H9="","",_tag_day_all!H9)</f>
         <v/>
       </c>
-      <c r="J12" s="36" t="str">
+      <c r="J12" s="44" t="str">
         <f>IF(_tag_day_all!I9="","",_tag_day_all!I9)</f>
         <v/>
       </c>
-      <c r="K12" s="36" t="str">
+      <c r="K12" s="44" t="str">
         <f>IF(_tag_day_all!J9="","",_tag_day_all!J9)</f>
         <v/>
       </c>
-      <c r="L12" s="20" t="str">
+      <c r="L12" s="24" t="str">
         <f>IF(_tag_day_all!K9="","",_tag_day_all!K9)</f>
         <v/>
       </c>
-      <c r="M12" s="20" t="str">
+      <c r="M12" s="24" t="str">
         <f>IF(_tag_day_all!L9="","",_tag_day_all!L9)</f>
         <v/>
       </c>
-      <c r="N12" s="36" t="str">
+      <c r="N12" s="44" t="str">
         <f>IF(_tag_day_all!M9="","",_tag_day_all!M9)</f>
         <v/>
       </c>
-      <c r="O12" s="20" t="str">
+      <c r="O12" s="24" t="str">
         <f>IF(_tag_day_all!N9="","",_tag_day_all!N9*100)</f>
         <v/>
       </c>
-      <c r="P12" s="20" t="str">
+      <c r="P12" s="24" t="str">
         <f>IF(_tag_day_all!AL9="","",_tag_day_all!AL9)</f>
         <v/>
       </c>
-      <c r="Q12" s="19" t="str">
+      <c r="Q12" s="23" t="str">
         <f>IF(_tag_day_all!AM9="","",_tag_day_all!AM9)</f>
         <v/>
       </c>
-      <c r="R12" s="19" t="str">
+      <c r="R12" s="23" t="str">
         <f>IF(_tag_day_all!O9="","",_tag_day_all!O9)</f>
         <v/>
       </c>
-      <c r="S12" s="19" t="str">
+      <c r="S12" s="23" t="str">
         <f>IF(_tag_day_all!P9="","",_tag_day_all!P9)</f>
         <v/>
       </c>
-      <c r="T12" s="19" t="str">
+      <c r="T12" s="23" t="str">
         <f>IF(_tag_day_all!Q9="","",_tag_day_all!Q9)</f>
         <v/>
       </c>
-      <c r="U12" s="19" t="str">
+      <c r="U12" s="23" t="str">
         <f>IF(_tag_day_all!R9="","",_tag_day_all!R9)</f>
         <v/>
       </c>
-      <c r="V12" s="19" t="str">
+      <c r="V12" s="23" t="str">
         <f>IF(_tag_day_all!S9="","",_tag_day_all!S9)</f>
         <v/>
       </c>
-      <c r="W12" s="19" t="str">
+      <c r="W12" s="23" t="str">
         <f>IF(_tag_day_all!T9="","",_tag_day_all!T9)</f>
         <v/>
       </c>
-      <c r="X12" s="20" t="str">
+      <c r="X12" s="24" t="str">
         <f>IF(_tag_day_all!U9="","",_tag_day_all!U9)</f>
         <v/>
       </c>
-      <c r="Y12" s="20" t="str">
+      <c r="Y12" s="24" t="str">
         <f>IF(_tag_day_all!V9="","",_tag_day_all!V9)</f>
         <v/>
       </c>
-      <c r="Z12" s="20" t="str">
+      <c r="Z12" s="24" t="str">
         <f>IF(_tag_day_all!W9="","",_tag_day_all!W9)</f>
         <v/>
       </c>
-      <c r="AA12" s="20" t="str">
+      <c r="AA12" s="24" t="str">
         <f>IF(_tag_day_all!X9="","",_tag_day_all!X9)</f>
         <v/>
       </c>
-      <c r="AB12" s="36" t="str">
+      <c r="AB12" s="44" t="str">
         <f>IF(_tag_day_all!Y9="","",_tag_day_all!Y9)</f>
         <v/>
       </c>
-      <c r="AC12" s="19" t="str">
+      <c r="AC12" s="23" t="str">
         <f>IF(_tag_day_all!Z9="","",_tag_day_all!Z9)</f>
         <v/>
       </c>
-      <c r="AD12" s="19" t="str">
+      <c r="AD12" s="23" t="str">
         <f>IF(_tag_day_all!AA9="","",_tag_day_all!AA9)</f>
         <v/>
       </c>
-      <c r="AE12" s="20" t="str">
+      <c r="AE12" s="24" t="str">
         <f>IF(_tag_day_all!AB9="","",_tag_day_all!AB9)</f>
         <v/>
       </c>
-      <c r="AF12" s="19" t="str">
+      <c r="AF12" s="23" t="str">
         <f>IF(_tag_day_all!AC9="","",_tag_day_all!AC9)</f>
         <v/>
       </c>
-      <c r="AG12" s="19" t="str">
+      <c r="AG12" s="23" t="str">
         <f>IF(_tag_day_all!AD9="","",_tag_day_all!AD9)</f>
         <v/>
       </c>
-      <c r="AH12" s="19" t="str">
+      <c r="AH12" s="23" t="str">
         <f>IF(_tag_day_all!AE9="","",_tag_day_all!AE9)</f>
         <v/>
       </c>
-      <c r="AI12" s="19" t="str">
+      <c r="AI12" s="23" t="str">
         <f>IF(_tag_day_all!AF9="","",_tag_day_all!AF9)</f>
         <v/>
       </c>
-      <c r="AJ12" s="19" t="str">
+      <c r="AJ12" s="23" t="str">
         <f>IF(_tag_day_all!AG9="","",_tag_day_all!AG9)</f>
         <v/>
       </c>
-      <c r="AK12" s="20" t="str">
+      <c r="AK12" s="24" t="str">
         <f>IF(_tag_day_all!AH9="","",_tag_day_all!AH9)</f>
         <v/>
       </c>
-      <c r="AL12" s="20" t="str">
+      <c r="AL12" s="24" t="str">
         <f>IF(_tag_day_all!AI9="","",_tag_day_all!AI9)</f>
         <v/>
       </c>
-      <c r="AM12" s="20" t="str">
+      <c r="AM12" s="24" t="str">
         <f>IF(_tag_day_all!AJ9="","",_tag_day_all!AJ9)</f>
         <v/>
       </c>
-      <c r="AN12" s="20" t="str">
+      <c r="AN12" s="24" t="str">
         <f>IF(_tag_day_all!AK9="","",_tag_day_all!AK9)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="14.25">
-      <c r="A13" s="15">
+    <row r="13" spans="1:40">
+      <c r="A13" s="19">
         <v>9</v>
       </c>
-      <c r="B13" s="16" t="str">
+      <c r="B13" s="20" t="str">
         <f>IF(_tag_day_all!A10="","",_tag_day_all!A10)</f>
         <v/>
       </c>
-      <c r="C13" s="17" t="str">
+      <c r="C13" s="21" t="str">
         <f>IF(_tag_day_all!B10="","",_tag_day_all!B10)</f>
         <v/>
       </c>
-      <c r="D13" s="18" t="str">
+      <c r="D13" s="22" t="str">
         <f>IF(_tag_day_all!C10="","",_tag_day_all!C10)</f>
         <v/>
       </c>
-      <c r="E13" s="19" t="str">
+      <c r="E13" s="23" t="str">
         <f>IF(_tag_day_all!D10="","",_tag_day_all!D10*10000)</f>
         <v/>
       </c>
-      <c r="F13" s="20" t="str">
+      <c r="F13" s="24" t="str">
         <f>IF(_tag_day_all!E10="","",_tag_day_all!E10)</f>
         <v/>
       </c>
-      <c r="G13" s="19" t="str">
+      <c r="G13" s="23" t="str">
         <f>IF(_tag_day_all!F10="","",_tag_day_all!F10)</f>
         <v/>
       </c>
-      <c r="H13" s="20" t="str">
+      <c r="H13" s="24" t="str">
         <f>IF(_tag_day_all!G10="","",_tag_day_all!G10)</f>
         <v/>
       </c>
-      <c r="I13" s="20" t="str">
+      <c r="I13" s="24" t="str">
         <f>IF(_tag_day_all!H10="","",_tag_day_all!H10)</f>
         <v/>
       </c>
-      <c r="J13" s="36" t="str">
+      <c r="J13" s="44" t="str">
         <f>IF(_tag_day_all!I10="","",_tag_day_all!I10)</f>
         <v/>
       </c>
-      <c r="K13" s="36" t="str">
+      <c r="K13" s="44" t="str">
         <f>IF(_tag_day_all!J10="","",_tag_day_all!J10)</f>
         <v/>
       </c>
-      <c r="L13" s="20" t="str">
+      <c r="L13" s="24" t="str">
         <f>IF(_tag_day_all!K10="","",_tag_day_all!K10)</f>
         <v/>
       </c>
-      <c r="M13" s="20" t="str">
+      <c r="M13" s="24" t="str">
         <f>IF(_tag_day_all!L10="","",_tag_day_all!L10)</f>
         <v/>
       </c>
-      <c r="N13" s="36" t="str">
+      <c r="N13" s="44" t="str">
         <f>IF(_tag_day_all!M10="","",_tag_day_all!M10)</f>
         <v/>
       </c>
-      <c r="O13" s="20" t="str">
+      <c r="O13" s="24" t="str">
         <f>IF(_tag_day_all!N10="","",_tag_day_all!N10*100)</f>
         <v/>
       </c>
-      <c r="P13" s="20" t="str">
+      <c r="P13" s="24" t="str">
         <f>IF(_tag_day_all!AL10="","",_tag_day_all!AL10)</f>
         <v/>
       </c>
-      <c r="Q13" s="19" t="str">
+      <c r="Q13" s="23" t="str">
         <f>IF(_tag_day_all!AM10="","",_tag_day_all!AM10)</f>
         <v/>
       </c>
-      <c r="R13" s="19" t="str">
+      <c r="R13" s="23" t="str">
         <f>IF(_tag_day_all!O10="","",_tag_day_all!O10)</f>
         <v/>
       </c>
-      <c r="S13" s="19" t="str">
+      <c r="S13" s="23" t="str">
         <f>IF(_tag_day_all!P10="","",_tag_day_all!P10)</f>
         <v/>
       </c>
-      <c r="T13" s="19" t="str">
+      <c r="T13" s="23" t="str">
         <f>IF(_tag_day_all!Q10="","",_tag_day_all!Q10)</f>
         <v/>
       </c>
-      <c r="U13" s="19" t="str">
+      <c r="U13" s="23" t="str">
         <f>IF(_tag_day_all!R10="","",_tag_day_all!R10)</f>
         <v/>
       </c>
-      <c r="V13" s="19" t="str">
+      <c r="V13" s="23" t="str">
         <f>IF(_tag_day_all!S10="","",_tag_day_all!S10)</f>
         <v/>
       </c>
-      <c r="W13" s="19" t="str">
+      <c r="W13" s="23" t="str">
         <f>IF(_tag_day_all!T10="","",_tag_day_all!T10)</f>
         <v/>
       </c>
-      <c r="X13" s="20" t="str">
+      <c r="X13" s="24" t="str">
         <f>IF(_tag_day_all!U10="","",_tag_day_all!U10)</f>
         <v/>
       </c>
-      <c r="Y13" s="20" t="str">
+      <c r="Y13" s="24" t="str">
         <f>IF(_tag_day_all!V10="","",_tag_day_all!V10)</f>
         <v/>
       </c>
-      <c r="Z13" s="20" t="str">
+      <c r="Z13" s="24" t="str">
         <f>IF(_tag_day_all!W10="","",_tag_day_all!W10)</f>
         <v/>
       </c>
-      <c r="AA13" s="20" t="str">
+      <c r="AA13" s="24" t="str">
         <f>IF(_tag_day_all!X10="","",_tag_day_all!X10)</f>
         <v/>
       </c>
-      <c r="AB13" s="36" t="str">
+      <c r="AB13" s="44" t="str">
         <f>IF(_tag_day_all!Y10="","",_tag_day_all!Y10)</f>
         <v/>
       </c>
-      <c r="AC13" s="19" t="str">
+      <c r="AC13" s="23" t="str">
         <f>IF(_tag_day_all!Z10="","",_tag_day_all!Z10)</f>
         <v/>
       </c>
-      <c r="AD13" s="19" t="str">
+      <c r="AD13" s="23" t="str">
         <f>IF(_tag_day_all!AA10="","",_tag_day_all!AA10)</f>
         <v/>
       </c>
-      <c r="AE13" s="20" t="str">
+      <c r="AE13" s="24" t="str">
         <f>IF(_tag_day_all!AB10="","",_tag_day_all!AB10)</f>
         <v/>
       </c>
-      <c r="AF13" s="19" t="str">
+      <c r="AF13" s="23" t="str">
         <f>IF(_tag_day_all!AC10="","",_tag_day_all!AC10)</f>
         <v/>
       </c>
-      <c r="AG13" s="19" t="str">
+      <c r="AG13" s="23" t="str">
         <f>IF(_tag_day_all!AD10="","",_tag_day_all!AD10)</f>
         <v/>
       </c>
-      <c r="AH13" s="19" t="str">
+      <c r="AH13" s="23" t="str">
         <f>IF(_tag_day_all!AE10="","",_tag_day_all!AE10)</f>
         <v/>
       </c>
-      <c r="AI13" s="19" t="str">
+      <c r="AI13" s="23" t="str">
         <f>IF(_tag_day_all!AF10="","",_tag_day_all!AF10)</f>
         <v/>
       </c>
-      <c r="AJ13" s="19" t="str">
+      <c r="AJ13" s="23" t="str">
         <f>IF(_tag_day_all!AG10="","",_tag_day_all!AG10)</f>
         <v/>
       </c>
-      <c r="AK13" s="20" t="str">
+      <c r="AK13" s="24" t="str">
         <f>IF(_tag_day_all!AH10="","",_tag_day_all!AH10)</f>
         <v/>
       </c>
-      <c r="AL13" s="20" t="str">
+      <c r="AL13" s="24" t="str">
         <f>IF(_tag_day_all!AI10="","",_tag_day_all!AI10)</f>
         <v/>
       </c>
-      <c r="AM13" s="20" t="str">
+      <c r="AM13" s="24" t="str">
         <f>IF(_tag_day_all!AJ10="","",_tag_day_all!AJ10)</f>
         <v/>
       </c>
-      <c r="AN13" s="20" t="str">
+      <c r="AN13" s="24" t="str">
         <f>IF(_tag_day_all!AK10="","",_tag_day_all!AK10)</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="14.25">
-      <c r="A14" s="15">
+    <row r="14" spans="1:40">
+      <c r="A14" s="19">
         <v>10</v>
       </c>
-      <c r="B14" s="16" t="str">
+      <c r="B14" s="20" t="str">
         <f>IF(_tag_day_all!A11="","",_tag_day_all!A11)</f>
         <v/>
       </c>
-      <c r="C14" s="17" t="str">
+      <c r="C14" s="21" t="str">
         <f>IF(_tag_day_all!B11="","",_tag_day_all!B11)</f>
         <v/>
       </c>
-      <c r="D14" s="18" t="str">
+      <c r="D14" s="22" t="str">
         <f>IF(_tag_day_all!C11="","",_tag_day_all!C11)</f>
         <v/>
       </c>
-      <c r="E14" s="19" t="str">
+      <c r="E14" s="23" t="str">
         <f>IF(_tag_day_all!D11="","",_tag_day_all!D11*10000)</f>
         <v/>
       </c>
-      <c r="F14" s="20" t="str">
+      <c r="F14" s="24" t="str">
         <f>IF(_tag_day_all!E11="","",_tag_day_all!E11)</f>
         <v/>
       </c>
-      <c r="G14" s="19" t="str">
+      <c r="G14" s="23" t="str">
         <f>IF(_tag_day_all!F11="","",_tag_day_all!F11)</f>
         <v/>
       </c>
-      <c r="H14" s="20" t="str">
+      <c r="H14" s="24" t="str">
         <f>IF(_tag_day_all!G11="","",_tag_day_all!G11)</f>
         <v/>
       </c>
-      <c r="I14" s="20" t="str">
+      <c r="I14" s="24" t="str">
         <f>IF(_tag_day_all!H11="","",_tag_day_all!H11)</f>
         <v/>
       </c>
-      <c r="J14" s="36" t="str">
+      <c r="J14" s="44" t="str">
         <f>IF(_tag_day_all!I11="","",_tag_day_all!I11)</f>
         <v/>
       </c>
-      <c r="K14" s="36" t="str">
+      <c r="K14" s="44" t="str">
         <f>IF(_tag_day_all!J11="","",_tag_day_all!J11)</f>
         <v/>
       </c>
-      <c r="L14" s="20" t="str">
+      <c r="L14" s="24" t="str">
         <f>IF(_tag_day_all!K11="","",_tag_day_all!K11)</f>
         <v/>
       </c>
-      <c r="M14" s="20" t="str">
+      <c r="M14" s="24" t="str">
         <f>IF(_tag_day_all!L11="","",_tag_day_all!L11)</f>
         <v/>
       </c>
-      <c r="N14" s="36" t="str">
+      <c r="N14" s="44" t="str">
         <f>IF(_tag_day_all!M11="","",_tag_day_all!M11)</f>
         <v/>
       </c>
-      <c r="O14" s="20" t="str">
+      <c r="O14" s="24" t="str">
         <f>IF(_tag_day_all!N11="","",_tag_day_all!N11*100)</f>
         <v/>
       </c>
-      <c r="P14" s="20" t="str">
+      <c r="P14" s="24" t="str">
         <f>IF(_tag_day_all!AL11="","",_tag_day_all!AL11)</f>
         <v/>
       </c>
-      <c r="Q14" s="19" t="str">
+      <c r="Q14" s="23" t="str">
         <f>IF(_tag_day_all!AM11="","",_tag_day_all!AM11)</f>
         <v/>
       </c>
-      <c r="R14" s="19" t="str">
+      <c r="R14" s="23" t="str">
         <f>IF(_tag_day_all!O11="","",_tag_day_all!O11)</f>
         <v/>
       </c>
-      <c r="S14" s="19" t="str">
+      <c r="S14" s="23" t="str">
         <f>IF(_tag_day_all!P11="","",_tag_day_all!P11)</f>
         <v/>
       </c>
-      <c r="T14" s="19" t="str">
+      <c r="T14" s="23" t="str">
         <f>IF(_tag_day_all!Q11="","",_tag_day_all!Q11)</f>
         <v/>
       </c>
-      <c r="U14" s="19" t="str">
+      <c r="U14" s="23" t="str">
         <f>IF(_tag_day_all!R11="","",_tag_day_all!R11)</f>
         <v/>
       </c>
-      <c r="V14" s="19" t="str">
+      <c r="V14" s="23" t="str">
         <f>IF(_tag_day_all!S11="","",_tag_day_all!S11)</f>
         <v/>
       </c>
-      <c r="W14" s="19" t="str">
+      <c r="W14" s="23" t="str">
         <f>IF(_tag_day_all!T11="","",_tag_day_all!T11)</f>
         <v/>
       </c>
-      <c r="X14" s="20" t="str">
+      <c r="X14" s="24" t="str">
         <f>IF(_tag_day_all!U11="","",_tag_day_all!U11)</f>
         <v/>
       </c>
-      <c r="Y14" s="20" t="str">
+      <c r="Y14" s="24" t="str">
         <f>IF(_tag_day_all!V11="","",_tag_day_all!V11)</f>
         <v/>
       </c>
-      <c r="Z14" s="20" t="str">
+      <c r="Z14" s="24" t="str">
         <f>IF(_tag_day_all!W11="","",_tag_day_all!W11)</f>
         <v/>
       </c>
-      <c r="AA14" s="20" t="str">
+      <c r="AA14" s="24" t="str">
         <f>IF(_tag_day_all!X11="","",_tag_day_all!X11)</f>
         <v/>
       </c>
-      <c r="AB14" s="36" t="str">
+      <c r="AB14" s="44" t="str">
         <f>IF(_tag_day_all!Y11="","",_tag_day_all!Y11)</f>
         <v/>
       </c>
-      <c r="AC14" s="19" t="str">
+      <c r="AC14" s="23" t="str">
         <f>IF(_tag_day_all!Z11="","",_tag_day_all!Z11)</f>
         <v/>
       </c>
-      <c r="AD14" s="19" t="str">
+      <c r="AD14" s="23" t="str">
         <f>IF(_tag_day_all!AA11="","",_tag_day_all!AA11)</f>
         <v/>
       </c>
-      <c r="AE14" s="20" t="str">
+      <c r="AE14" s="24" t="str">
         <f>IF(_tag_day_all!AB11="","",_tag_day_all!AB11)</f>
         <v/>
       </c>
-      <c r="AF14" s="19" t="str">
+      <c r="AF14" s="23" t="str">
         <f>IF(_tag_day_all!AC11="","",_tag_day_all!AC11)</f>
         <v/>
       </c>
-      <c r="AG14" s="19" t="str">
+      <c r="AG14" s="23" t="str">
         <f>IF(_tag_day_all!AD11="","",_tag_day_all!AD11)</f>
         <v/>
       </c>
-      <c r="AH14" s="19" t="str">
+      <c r="AH14" s="23" t="str">
         <f>IF(_tag_day_all!AE11="","",_tag_day_all!AE11)</f>
         <v/>
       </c>
-      <c r="AI14" s="19" t="str">
+      <c r="AI14" s="23" t="str">
         <f>IF(_tag_day_all!AF11="","",_tag_day_all!AF11)</f>
         <v/>
       </c>
-      <c r="AJ14" s="19" t="str">
+      <c r="AJ14" s="23" t="str">
         <f>IF(_tag_day_all!AG11="","",_tag_day_all!AG11)</f>
         <v/>
       </c>
-      <c r="AK14" s="20" t="str">
+      <c r="AK14" s="24" t="str">
         <f>IF(_tag_day_all!AH11="","",_tag_day_all!AH11)</f>
         <v/>
       </c>
-      <c r="AL14" s="20" t="str">
+      <c r="AL14" s="24" t="str">
         <f>IF(_tag_day_all!AI11="","",_tag_day_all!AI11)</f>
         <v/>
       </c>
-      <c r="AM14" s="20" t="str">
+      <c r="AM14" s="24" t="str">
         <f>IF(_tag_day_all!AJ11="","",_tag_day_all!AJ11)</f>
         <v/>
       </c>
-      <c r="AN14" s="20" t="str">
+      <c r="AN14" s="24" t="str">
         <f>IF(_tag_day_all!AK11="","",_tag_day_all!AK11)</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="14.25">
-      <c r="A15" s="15">
+    <row r="15" spans="1:40">
+      <c r="A15" s="19">
         <v>11</v>
       </c>
-      <c r="B15" s="16" t="str">
+      <c r="B15" s="20" t="str">
         <f>IF(_tag_day_all!A12="","",_tag_day_all!A12)</f>
         <v/>
       </c>
-      <c r="C15" s="17" t="str">
+      <c r="C15" s="21" t="str">
         <f>IF(_tag_day_all!B12="","",_tag_day_all!B12)</f>
         <v/>
       </c>
-      <c r="D15" s="18" t="str">
+      <c r="D15" s="22" t="str">
         <f>IF(_tag_day_all!C12="","",_tag_day_all!C12)</f>
         <v/>
       </c>
-      <c r="E15" s="19" t="str">
+      <c r="E15" s="23" t="str">
         <f>IF(_tag_day_all!D12="","",_tag_day_all!D12*10000)</f>
         <v/>
       </c>
-      <c r="F15" s="20" t="str">
+      <c r="F15" s="24" t="str">
         <f>IF(_tag_day_all!E12="","",_tag_day_all!E12)</f>
         <v/>
       </c>
-      <c r="G15" s="19" t="str">
+      <c r="G15" s="23" t="str">
         <f>IF(_tag_day_all!F12="","",_tag_day_all!F12)</f>
         <v/>
       </c>
-      <c r="H15" s="20" t="str">
+      <c r="H15" s="24" t="str">
         <f>IF(_tag_day_all!G12="","",_tag_day_all!G12)</f>
         <v/>
       </c>
-      <c r="I15" s="20" t="str">
+      <c r="I15" s="24" t="str">
         <f>IF(_tag_day_all!H12="","",_tag_day_all!H12)</f>
         <v/>
       </c>
-      <c r="J15" s="36" t="str">
+      <c r="J15" s="44" t="str">
         <f>IF(_tag_day_all!I12="","",_tag_day_all!I12)</f>
         <v/>
       </c>
-      <c r="K15" s="36" t="str">
+      <c r="K15" s="44" t="str">
         <f>IF(_tag_day_all!J12="","",_tag_day_all!J12)</f>
         <v/>
       </c>
-      <c r="L15" s="20" t="str">
+      <c r="L15" s="24" t="str">
         <f>IF(_tag_day_all!K12="","",_tag_day_all!K12)</f>
         <v/>
       </c>
-      <c r="M15" s="20" t="str">
+      <c r="M15" s="24" t="str">
         <f>IF(_tag_day_all!L12="","",_tag_day_all!L12)</f>
         <v/>
       </c>
-      <c r="N15" s="36" t="str">
+      <c r="N15" s="44" t="str">
         <f>IF(_tag_day_all!M12="","",_tag_day_all!M12)</f>
         <v/>
       </c>
-      <c r="O15" s="20" t="str">
+      <c r="O15" s="24" t="str">
         <f>IF(_tag_day_all!N12="","",_tag_day_all!N12*100)</f>
         <v/>
       </c>
-      <c r="P15" s="20" t="str">
+      <c r="P15" s="24" t="str">
         <f>IF(_tag_day_all!AL12="","",_tag_day_all!AL12)</f>
         <v/>
       </c>
-      <c r="Q15" s="19" t="str">
+      <c r="Q15" s="23" t="str">
         <f>IF(_tag_day_all!AM12="","",_tag_day_all!AM12)</f>
         <v/>
       </c>
-      <c r="R15" s="19" t="str">
+      <c r="R15" s="23" t="str">
         <f>IF(_tag_day_all!O12="","",_tag_day_all!O12)</f>
         <v/>
       </c>
-      <c r="S15" s="19" t="str">
+      <c r="S15" s="23" t="str">
         <f>IF(_tag_day_all!P12="","",_tag_day_all!P12)</f>
         <v/>
       </c>
-      <c r="T15" s="19" t="str">
+      <c r="T15" s="23" t="str">
         <f>IF(_tag_day_all!Q12="","",_tag_day_all!Q12)</f>
         <v/>
       </c>
-      <c r="U15" s="19" t="str">
+      <c r="U15" s="23" t="str">
         <f>IF(_tag_day_all!R12="","",_tag_day_all!R12)</f>
         <v/>
       </c>
-      <c r="V15" s="19" t="str">
+      <c r="V15" s="23" t="str">
         <f>IF(_tag_day_all!S12="","",_tag_day_all!S12)</f>
         <v/>
       </c>
-      <c r="W15" s="19" t="str">
+      <c r="W15" s="23" t="str">
         <f>IF(_tag_day_all!T12="","",_tag_day_all!T12)</f>
         <v/>
       </c>
-      <c r="X15" s="20" t="str">
+      <c r="X15" s="24" t="str">
         <f>IF(_tag_day_all!U12="","",_tag_day_all!U12)</f>
         <v/>
       </c>
-      <c r="Y15" s="20" t="str">
+      <c r="Y15" s="24" t="str">
         <f>IF(_tag_day_all!V12="","",_tag_day_all!V12)</f>
         <v/>
       </c>
-      <c r="Z15" s="20" t="str">
+      <c r="Z15" s="24" t="str">
         <f>IF(_tag_day_all!W12="","",_tag_day_all!W12)</f>
         <v/>
       </c>
-      <c r="AA15" s="20" t="str">
+      <c r="AA15" s="24" t="str">
         <f>IF(_tag_day_all!X12="","",_tag_day_all!X12)</f>
         <v/>
       </c>
-      <c r="AB15" s="36" t="str">
+      <c r="AB15" s="44" t="str">
         <f>IF(_tag_day_all!Y12="","",_tag_day_all!Y12)</f>
         <v/>
       </c>
-      <c r="AC15" s="19" t="str">
+      <c r="AC15" s="23" t="str">
         <f>IF(_tag_day_all!Z12="","",_tag_day_all!Z12)</f>
         <v/>
       </c>
-      <c r="AD15" s="19" t="str">
+      <c r="AD15" s="23" t="str">
         <f>IF(_tag_day_all!AA12="","",_tag_day_all!AA12)</f>
         <v/>
       </c>
-      <c r="AE15" s="20" t="str">
+      <c r="AE15" s="24" t="str">
         <f>IF(_tag_day_all!AB12="","",_tag_day_all!AB12)</f>
         <v/>
       </c>
-      <c r="AF15" s="19" t="str">
+      <c r="AF15" s="23" t="str">
         <f>IF(_tag_day_all!AC12="","",_tag_day_all!AC12)</f>
         <v/>
       </c>
-      <c r="AG15" s="19" t="str">
+      <c r="AG15" s="23" t="str">
         <f>IF(_tag_day_all!AD12="","",_tag_day_all!AD12)</f>
         <v/>
       </c>
-      <c r="AH15" s="19" t="str">
+      <c r="AH15" s="23" t="str">
         <f>IF(_tag_day_all!AE12="","",_tag_day_all!AE12)</f>
         <v/>
       </c>
-      <c r="AI15" s="19" t="str">
+      <c r="AI15" s="23" t="str">
         <f>IF(_tag_day_all!AF12="","",_tag_day_all!AF12)</f>
         <v/>
       </c>
-      <c r="AJ15" s="19" t="str">
+      <c r="AJ15" s="23" t="str">
         <f>IF(_tag_day_all!AG12="","",_tag_day_all!AG12)</f>
         <v/>
       </c>
-      <c r="AK15" s="20" t="str">
+      <c r="AK15" s="24" t="str">
         <f>IF(_tag_day_all!AH12="","",_tag_day_all!AH12)</f>
         <v/>
       </c>
-      <c r="AL15" s="20" t="str">
+      <c r="AL15" s="24" t="str">
         <f>IF(_tag_day_all!AI12="","",_tag_day_all!AI12)</f>
         <v/>
       </c>
-      <c r="AM15" s="20" t="str">
+      <c r="AM15" s="24" t="str">
         <f>IF(_tag_day_all!AJ12="","",_tag_day_all!AJ12)</f>
         <v/>
       </c>
-      <c r="AN15" s="20" t="str">
+      <c r="AN15" s="24" t="str">
         <f>IF(_tag_day_all!AK12="","",_tag_day_all!AK12)</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="14.25">
-      <c r="A16" s="15">
+    <row r="16" spans="1:40">
+      <c r="A16" s="19">
         <v>12</v>
       </c>
-      <c r="B16" s="16" t="str">
+      <c r="B16" s="20" t="str">
         <f>IF(_tag_day_all!A13="","",_tag_day_all!A13)</f>
         <v/>
       </c>
-      <c r="C16" s="17" t="str">
+      <c r="C16" s="21" t="str">
         <f>IF(_tag_day_all!B13="","",_tag_day_all!B13)</f>
         <v/>
       </c>
-      <c r="D16" s="18" t="str">
+      <c r="D16" s="22" t="str">
         <f>IF(_tag_day_all!C13="","",_tag_day_all!C13)</f>
         <v/>
       </c>
-      <c r="E16" s="19" t="str">
+      <c r="E16" s="23" t="str">
         <f>IF(_tag_day_all!D13="","",_tag_day_all!D13*10000)</f>
         <v/>
       </c>
-      <c r="F16" s="20" t="str">
+      <c r="F16" s="24" t="str">
         <f>IF(_tag_day_all!E13="","",_tag_day_all!E13)</f>
         <v/>
       </c>
-      <c r="G16" s="19" t="str">
+      <c r="G16" s="23" t="str">
         <f>IF(_tag_day_all!F13="","",_tag_day_all!F13)</f>
         <v/>
       </c>
-      <c r="H16" s="20" t="str">
+      <c r="H16" s="24" t="str">
         <f>IF(_tag_day_all!G13="","",_tag_day_all!G13)</f>
         <v/>
       </c>
-      <c r="I16" s="20" t="str">
+      <c r="I16" s="24" t="str">
         <f>IF(_tag_day_all!H13="","",_tag_day_all!H13)</f>
         <v/>
       </c>
-      <c r="J16" s="36" t="str">
+      <c r="J16" s="44" t="str">
         <f>IF(_tag_day_all!I13="","",_tag_day_all!I13)</f>
         <v/>
       </c>
-      <c r="K16" s="36" t="str">
+      <c r="K16" s="44" t="str">
         <f>IF(_tag_day_all!J13="","",_tag_day_all!J13)</f>
         <v/>
       </c>
-      <c r="L16" s="20" t="str">
+      <c r="L16" s="24" t="str">
         <f>IF(_tag_day_all!K13="","",_tag_day_all!K13)</f>
         <v/>
       </c>
-      <c r="M16" s="20" t="str">
+      <c r="M16" s="24" t="str">
         <f>IF(_tag_day_all!L13="","",_tag_day_all!L13)</f>
         <v/>
       </c>
-      <c r="N16" s="36" t="str">
+      <c r="N16" s="44" t="str">
         <f>IF(_tag_day_all!M13="","",_tag_day_all!M13)</f>
         <v/>
       </c>
-      <c r="O16" s="20" t="str">
+      <c r="O16" s="24" t="str">
         <f>IF(_tag_day_all!N13="","",_tag_day_all!N13*100)</f>
         <v/>
       </c>
-      <c r="P16" s="20" t="str">
+      <c r="P16" s="24" t="str">
         <f>IF(_tag_day_all!AL13="","",_tag_day_all!AL13)</f>
         <v/>
       </c>
-      <c r="Q16" s="19" t="str">
+      <c r="Q16" s="23" t="str">
         <f>IF(_tag_day_all!AM13="","",_tag_day_all!AM13)</f>
         <v/>
       </c>
-      <c r="R16" s="19" t="str">
+      <c r="R16" s="23" t="str">
         <f>IF(_tag_day_all!O13="","",_tag_day_all!O13)</f>
         <v/>
       </c>
-      <c r="S16" s="19" t="str">
+      <c r="S16" s="23" t="str">
         <f>IF(_tag_day_all!P13="","",_tag_day_all!P13)</f>
         <v/>
       </c>
-      <c r="T16" s="19" t="str">
+      <c r="T16" s="23" t="str">
         <f>IF(_tag_day_all!Q13="","",_tag_day_all!Q13)</f>
         <v/>
       </c>
-      <c r="U16" s="19" t="str">
+      <c r="U16" s="23" t="str">
         <f>IF(_tag_day_all!R13="","",_tag_day_all!R13)</f>
         <v/>
       </c>
-      <c r="V16" s="19" t="str">
+      <c r="V16" s="23" t="str">
         <f>IF(_tag_day_all!S13="","",_tag_day_all!S13)</f>
         <v/>
       </c>
-      <c r="W16" s="19" t="str">
+      <c r="W16" s="23" t="str">
         <f>IF(_tag_day_all!T13="","",_tag_day_all!T13)</f>
         <v/>
       </c>
-      <c r="X16" s="20" t="str">
+      <c r="X16" s="24" t="str">
         <f>IF(_tag_day_all!U13="","",_tag_day_all!U13)</f>
         <v/>
       </c>
-      <c r="Y16" s="20" t="str">
+      <c r="Y16" s="24" t="str">
         <f>IF(_tag_day_all!V13="","",_tag_day_all!V13)</f>
         <v/>
       </c>
-      <c r="Z16" s="20" t="str">
+      <c r="Z16" s="24" t="str">
         <f>IF(_tag_day_all!W13="","",_tag_day_all!W13)</f>
         <v/>
       </c>
-      <c r="AA16" s="20" t="str">
+      <c r="AA16" s="24" t="str">
         <f>IF(_tag_day_all!X13="","",_tag_day_all!X13)</f>
         <v/>
       </c>
-      <c r="AB16" s="36" t="str">
+      <c r="AB16" s="44" t="str">
         <f>IF(_tag_day_all!Y13="","",_tag_day_all!Y13)</f>
         <v/>
       </c>
-      <c r="AC16" s="19" t="str">
+      <c r="AC16" s="23" t="str">
         <f>IF(_tag_day_all!Z13="","",_tag_day_all!Z13)</f>
         <v/>
       </c>
-      <c r="AD16" s="19" t="str">
+      <c r="AD16" s="23" t="str">
         <f>IF(_tag_day_all!AA13="","",_tag_day_all!AA13)</f>
         <v/>
       </c>
-      <c r="AE16" s="20" t="str">
+      <c r="AE16" s="24" t="str">
         <f>IF(_tag_day_all!AB13="","",_tag_day_all!AB13)</f>
         <v/>
       </c>
-      <c r="AF16" s="19" t="str">
+      <c r="AF16" s="23" t="str">
         <f>IF(_tag_day_all!AC13="","",_tag_day_all!AC13)</f>
         <v/>
       </c>
-      <c r="AG16" s="19" t="str">
+      <c r="AG16" s="23" t="str">
         <f>IF(_tag_day_all!AD13="","",_tag_day_all!AD13)</f>
         <v/>
       </c>
-      <c r="AH16" s="19" t="str">
+      <c r="AH16" s="23" t="str">
         <f>IF(_tag_day_all!AE13="","",_tag_day_all!AE13)</f>
         <v/>
       </c>
-      <c r="AI16" s="19" t="str">
+      <c r="AI16" s="23" t="str">
         <f>IF(_tag_day_all!AF13="","",_tag_day_all!AF13)</f>
         <v/>
       </c>
-      <c r="AJ16" s="19" t="str">
+      <c r="AJ16" s="23" t="str">
         <f>IF(_tag_day_all!AG13="","",_tag_day_all!AG13)</f>
         <v/>
       </c>
-      <c r="AK16" s="20" t="str">
+      <c r="AK16" s="24" t="str">
         <f>IF(_tag_day_all!AH13="","",_tag_day_all!AH13)</f>
         <v/>
       </c>
-      <c r="AL16" s="20" t="str">
+      <c r="AL16" s="24" t="str">
         <f>IF(_tag_day_all!AI13="","",_tag_day_all!AI13)</f>
         <v/>
       </c>
-      <c r="AM16" s="20" t="str">
+      <c r="AM16" s="24" t="str">
         <f>IF(_tag_day_all!AJ13="","",_tag_day_all!AJ13)</f>
         <v/>
       </c>
-      <c r="AN16" s="20" t="str">
+      <c r="AN16" s="24" t="str">
         <f>IF(_tag_day_all!AK13="","",_tag_day_all!AK13)</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="14.25">
-      <c r="A17" s="15">
+    <row r="17" spans="1:40">
+      <c r="A17" s="19">
         <v>13</v>
       </c>
-      <c r="B17" s="16" t="str">
+      <c r="B17" s="20" t="str">
         <f>IF(_tag_day_all!A14="","",_tag_day_all!A14)</f>
         <v/>
       </c>
-      <c r="C17" s="17" t="str">
+      <c r="C17" s="21" t="str">
         <f>IF(_tag_day_all!B14="","",_tag_day_all!B14)</f>
         <v/>
       </c>
-      <c r="D17" s="18" t="str">
+      <c r="D17" s="22" t="str">
         <f>IF(_tag_day_all!C14="","",_tag_day_all!C14)</f>
         <v/>
       </c>
-      <c r="E17" s="19" t="str">
+      <c r="E17" s="23" t="str">
         <f>IF(_tag_day_all!D14="","",_tag_day_all!D14*10000)</f>
         <v/>
       </c>
-      <c r="F17" s="20" t="str">
+      <c r="F17" s="24" t="str">
         <f>IF(_tag_day_all!E14="","",_tag_day_all!E14)</f>
         <v/>
       </c>
-      <c r="G17" s="19" t="str">
+      <c r="G17" s="23" t="str">
         <f>IF(_tag_day_all!F14="","",_tag_day_all!F14)</f>
         <v/>
       </c>
-      <c r="H17" s="20" t="str">
+      <c r="H17" s="24" t="str">
         <f>IF(_tag_day_all!G14="","",_tag_day_all!G14)</f>
         <v/>
       </c>
-      <c r="I17" s="20" t="str">
+      <c r="I17" s="24" t="str">
         <f>IF(_tag_day_all!H14="","",_tag_day_all!H14)</f>
         <v/>
       </c>
-      <c r="J17" s="36" t="str">
+      <c r="J17" s="44" t="str">
         <f>IF(_tag_day_all!I14="","",_tag_day_all!I14)</f>
         <v/>
       </c>
-      <c r="K17" s="36" t="str">
+      <c r="K17" s="44" t="str">
         <f>IF(_tag_day_all!J14="","",_tag_day_all!J14)</f>
         <v/>
       </c>
-      <c r="L17" s="20" t="str">
+      <c r="L17" s="24" t="str">
         <f>IF(_tag_day_all!K14="","",_tag_day_all!K14)</f>
         <v/>
       </c>
-      <c r="M17" s="20" t="str">
+      <c r="M17" s="24" t="str">
         <f>IF(_tag_day_all!L14="","",_tag_day_all!L14)</f>
         <v/>
       </c>
-      <c r="N17" s="36" t="str">
+      <c r="N17" s="44" t="str">
         <f>IF(_tag_day_all!M14="","",_tag_day_all!M14)</f>
         <v/>
       </c>
-      <c r="O17" s="20" t="str">
+      <c r="O17" s="24" t="str">
         <f>IF(_tag_day_all!N14="","",_tag_day_all!N14*100)</f>
         <v/>
       </c>
-      <c r="P17" s="20" t="str">
+      <c r="P17" s="24" t="str">
         <f>IF(_tag_day_all!AL14="","",_tag_day_all!AL14)</f>
         <v/>
       </c>
-      <c r="Q17" s="19" t="str">
+      <c r="Q17" s="23" t="str">
         <f>IF(_tag_day_all!AM14="","",_tag_day_all!AM14)</f>
         <v/>
       </c>
-      <c r="R17" s="19" t="str">
+      <c r="R17" s="23" t="str">
         <f>IF(_tag_day_all!O14="","",_tag_day_all!O14)</f>
         <v/>
       </c>
-      <c r="S17" s="19" t="str">
+      <c r="S17" s="23" t="str">
         <f>IF(_tag_day_all!P14="","",_tag_day_all!P14)</f>
         <v/>
       </c>
-      <c r="T17" s="19" t="str">
+      <c r="T17" s="23" t="str">
         <f>IF(_tag_day_all!Q14="","",_tag_day_all!Q14)</f>
         <v/>
       </c>
-      <c r="U17" s="19" t="str">
+      <c r="U17" s="23" t="str">
         <f>IF(_tag_day_all!R14="","",_tag_day_all!R14)</f>
         <v/>
       </c>
-      <c r="V17" s="19" t="str">
+      <c r="V17" s="23" t="str">
         <f>IF(_tag_day_all!S14="","",_tag_day_all!S14)</f>
         <v/>
       </c>
-      <c r="W17" s="19" t="str">
+      <c r="W17" s="23" t="str">
         <f>IF(_tag_day_all!T14="","",_tag_day_all!T14)</f>
         <v/>
       </c>
-      <c r="X17" s="20" t="str">
+      <c r="X17" s="24" t="str">
         <f>IF(_tag_day_all!U14="","",_tag_day_all!U14)</f>
         <v/>
       </c>
-      <c r="Y17" s="20" t="str">
+      <c r="Y17" s="24" t="str">
         <f>IF(_tag_day_all!V14="","",_tag_day_all!V14)</f>
         <v/>
       </c>
-      <c r="Z17" s="20" t="str">
+      <c r="Z17" s="24" t="str">
         <f>IF(_tag_day_all!W14="","",_tag_day_all!W14)</f>
         <v/>
       </c>
-      <c r="AA17" s="20" t="str">
+      <c r="AA17" s="24" t="str">
         <f>IF(_tag_day_all!X14="","",_tag_day_all!X14)</f>
         <v/>
       </c>
-      <c r="AB17" s="36" t="str">
+      <c r="AB17" s="44" t="str">
         <f>IF(_tag_day_all!Y14="","",_tag_day_all!Y14)</f>
         <v/>
       </c>
-      <c r="AC17" s="19" t="str">
+      <c r="AC17" s="23" t="str">
         <f>IF(_tag_day_all!Z14="","",_tag_day_all!Z14)</f>
         <v/>
       </c>
-      <c r="AD17" s="19" t="str">
+      <c r="AD17" s="23" t="str">
         <f>IF(_tag_day_all!AA14="","",_tag_day_all!AA14)</f>
         <v/>
       </c>
-      <c r="AE17" s="20" t="str">
+      <c r="AE17" s="24" t="str">
         <f>IF(_tag_day_all!AB14="","",_tag_day_all!AB14)</f>
         <v/>
       </c>
-      <c r="AF17" s="19" t="str">
+      <c r="AF17" s="23" t="str">
         <f>IF(_tag_day_all!AC14="","",_tag_day_all!AC14)</f>
         <v/>
       </c>
-      <c r="AG17" s="19" t="str">
+      <c r="AG17" s="23" t="str">
         <f>IF(_tag_day_all!AD14="","",_tag_day_all!AD14)</f>
         <v/>
       </c>
-      <c r="AH17" s="19" t="str">
+      <c r="AH17" s="23" t="str">
         <f>IF(_tag_day_all!AE14="","",_tag_day_all!AE14)</f>
         <v/>
       </c>
-      <c r="AI17" s="19" t="str">
+      <c r="AI17" s="23" t="str">
         <f>IF(_tag_day_all!AF14="","",_tag_day_all!AF14)</f>
         <v/>
       </c>
-      <c r="AJ17" s="19" t="str">
+      <c r="AJ17" s="23" t="str">
         <f>IF(_tag_day_all!AG14="","",_tag_day_all!AG14)</f>
         <v/>
       </c>
-      <c r="AK17" s="20" t="str">
+      <c r="AK17" s="24" t="str">
         <f>IF(_tag_day_all!AH14="","",_tag_day_all!AH14)</f>
         <v/>
       </c>
-      <c r="AL17" s="20" t="str">
+      <c r="AL17" s="24" t="str">
         <f>IF(_tag_day_all!AI14="","",_tag_day_all!AI14)</f>
         <v/>
       </c>
-      <c r="AM17" s="20" t="str">
+      <c r="AM17" s="24" t="str">
         <f>IF(_tag_day_all!AJ14="","",_tag_day_all!AJ14)</f>
         <v/>
       </c>
-      <c r="AN17" s="20" t="str">
+      <c r="AN17" s="24" t="str">
         <f>IF(_tag_day_all!AK14="","",_tag_day_all!AK14)</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="14.25">
-      <c r="A18" s="15">
+    <row r="18" spans="1:40">
+      <c r="A18" s="19">
         <v>14</v>
       </c>
-      <c r="B18" s="16" t="str">
+      <c r="B18" s="20" t="str">
         <f>IF(_tag_day_all!A15="","",_tag_day_all!A15)</f>
         <v/>
       </c>
-      <c r="C18" s="17" t="str">
+      <c r="C18" s="21" t="str">
         <f>IF(_tag_day_all!B15="","",_tag_day_all!B15)</f>
         <v/>
       </c>
-      <c r="D18" s="18" t="str">
+      <c r="D18" s="22" t="str">
         <f>IF(_tag_day_all!C15="","",_tag_day_all!C15)</f>
         <v/>
       </c>
-      <c r="E18" s="19" t="str">
+      <c r="E18" s="23" t="str">
         <f>IF(_tag_day_all!D15="","",_tag_day_all!D15*10000)</f>
         <v/>
       </c>
-      <c r="F18" s="20" t="str">
+      <c r="F18" s="24" t="str">
         <f>IF(_tag_day_all!E15="","",_tag_day_all!E15)</f>
         <v/>
       </c>
-      <c r="G18" s="19" t="str">
+      <c r="G18" s="23" t="str">
         <f>IF(_tag_day_all!F15="","",_tag_day_all!F15)</f>
         <v/>
       </c>
-      <c r="H18" s="20" t="str">
+      <c r="H18" s="24" t="str">
         <f>IF(_tag_day_all!G15="","",_tag_day_all!G15)</f>
         <v/>
       </c>
-      <c r="I18" s="20" t="str">
+      <c r="I18" s="24" t="str">
         <f>IF(_tag_day_all!H15="","",_tag_day_all!H15)</f>
         <v/>
       </c>
-      <c r="J18" s="36" t="str">
+      <c r="J18" s="44" t="str">
         <f>IF(_tag_day_all!I15="","",_tag_day_all!I15)</f>
         <v/>
       </c>
-      <c r="K18" s="36" t="str">
+      <c r="K18" s="44" t="str">
         <f>IF(_tag_day_all!J15="","",_tag_day_all!J15)</f>
         <v/>
       </c>
-      <c r="L18" s="20" t="str">
+      <c r="L18" s="24" t="str">
         <f>IF(_tag_day_all!K15="","",_tag_day_all!K15)</f>
         <v/>
       </c>
-      <c r="M18" s="20" t="str">
+      <c r="M18" s="24" t="str">
         <f>IF(_tag_day_all!L15="","",_tag_day_all!L15)</f>
         <v/>
       </c>
-      <c r="N18" s="36" t="str">
+      <c r="N18" s="44" t="str">
         <f>IF(_tag_day_all!M15="","",_tag_day_all!M15)</f>
         <v/>
       </c>
-      <c r="O18" s="20" t="str">
+      <c r="O18" s="24" t="str">
         <f>IF(_tag_day_all!N15="","",_tag_day_all!N15*100)</f>
         <v/>
       </c>
-      <c r="P18" s="20" t="str">
+      <c r="P18" s="24" t="str">
         <f>IF(_tag_day_all!AL15="","",_tag_day_all!AL15)</f>
         <v/>
       </c>
-      <c r="Q18" s="19" t="str">
+      <c r="Q18" s="23" t="str">
         <f>IF(_tag_day_all!AM15="","",_tag_day_all!AM15)</f>
         <v/>
       </c>
-      <c r="R18" s="19" t="str">
+      <c r="R18" s="23" t="str">
         <f>IF(_tag_day_all!O15="","",_tag_day_all!O15)</f>
         <v/>
       </c>
-      <c r="S18" s="19" t="str">
+      <c r="S18" s="23" t="str">
         <f>IF(_tag_day_all!P15="","",_tag_day_all!P15)</f>
         <v/>
       </c>
-      <c r="T18" s="19" t="str">
+      <c r="T18" s="23" t="str">
         <f>IF(_tag_day_all!Q15="","",_tag_day_all!Q15)</f>
         <v/>
       </c>
-      <c r="U18" s="19" t="str">
+      <c r="U18" s="23" t="str">
         <f>IF(_tag_day_all!R15="","",_tag_day_all!R15)</f>
         <v/>
       </c>
-      <c r="V18" s="19" t="str">
+      <c r="V18" s="23" t="str">
         <f>IF(_tag_day_all!S15="","",_tag_day_all!S15)</f>
         <v/>
       </c>
-      <c r="W18" s="19" t="str">
+      <c r="W18" s="23" t="str">
         <f>IF(_tag_day_all!T15="","",_tag_day_all!T15)</f>
         <v/>
       </c>
-      <c r="X18" s="20" t="str">
+      <c r="X18" s="24" t="str">
         <f>IF(_tag_day_all!U15="","",_tag_day_all!U15)</f>
         <v/>
       </c>
-      <c r="Y18" s="20" t="str">
+      <c r="Y18" s="24" t="str">
         <f>IF(_tag_day_all!V15="","",_tag_day_all!V15)</f>
         <v/>
       </c>
-      <c r="Z18" s="20" t="str">
+      <c r="Z18" s="24" t="str">
         <f>IF(_tag_day_all!W15="","",_tag_day_all!W15)</f>
         <v/>
       </c>
-      <c r="AA18" s="20" t="str">
+      <c r="AA18" s="24" t="str">
         <f>IF(_tag_day_all!X15="","",_tag_day_all!X15)</f>
         <v/>
       </c>
-      <c r="AB18" s="36" t="str">
+      <c r="AB18" s="44" t="str">
         <f>IF(_tag_day_all!Y15="","",_tag_day_all!Y15)</f>
         <v/>
       </c>
-      <c r="AC18" s="19" t="str">
+      <c r="AC18" s="23" t="str">
         <f>IF(_tag_day_all!Z15="","",_tag_day_all!Z15)</f>
         <v/>
       </c>
-      <c r="AD18" s="19" t="str">
+      <c r="AD18" s="23" t="str">
         <f>IF(_tag_day_all!AA15="","",_tag_day_all!AA15)</f>
         <v/>
       </c>
-      <c r="AE18" s="20" t="str">
+      <c r="AE18" s="24" t="str">
         <f>IF(_tag_day_all!AB15="","",_tag_day_all!AB15)</f>
         <v/>
       </c>
-      <c r="AF18" s="19" t="str">
+      <c r="AF18" s="23" t="str">
         <f>IF(_tag_day_all!AC15="","",_tag_day_all!AC15)</f>
         <v/>
       </c>
-      <c r="AG18" s="19" t="str">
+      <c r="AG18" s="23" t="str">
         <f>IF(_tag_day_all!AD15="","",_tag_day_all!AD15)</f>
         <v/>
       </c>
-      <c r="AH18" s="19" t="str">
+      <c r="AH18" s="23" t="str">
         <f>IF(_tag_day_all!AE15="","",_tag_day_all!AE15)</f>
         <v/>
       </c>
-      <c r="AI18" s="19" t="str">
+      <c r="AI18" s="23" t="str">
         <f>IF(_tag_day_all!AF15="","",_tag_day_all!AF15)</f>
         <v/>
       </c>
-      <c r="AJ18" s="19" t="str">
+      <c r="AJ18" s="23" t="str">
         <f>IF(_tag_day_all!AG15="","",_tag_day_all!AG15)</f>
         <v/>
       </c>
-      <c r="AK18" s="20" t="str">
+      <c r="AK18" s="24" t="str">
         <f>IF(_tag_day_all!AH15="","",_tag_day_all!AH15)</f>
         <v/>
       </c>
-      <c r="AL18" s="20" t="str">
+      <c r="AL18" s="24" t="str">
         <f>IF(_tag_day_all!AI15="","",_tag_day_all!AI15)</f>
         <v/>
       </c>
-      <c r="AM18" s="20" t="str">
+      <c r="AM18" s="24" t="str">
         <f>IF(_tag_day_all!AJ15="","",_tag_day_all!AJ15)</f>
         <v/>
       </c>
-      <c r="AN18" s="20" t="str">
+      <c r="AN18" s="24" t="str">
         <f>IF(_tag_day_all!AK15="","",_tag_day_all!AK15)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="14.25">
-      <c r="A19" s="15">
+    <row r="19" spans="1:40">
+      <c r="A19" s="19">
         <v>15</v>
       </c>
-      <c r="B19" s="16" t="str">
+      <c r="B19" s="20" t="str">
         <f>IF(_tag_day_all!A16="","",_tag_day_all!A16)</f>
         <v/>
       </c>
-      <c r="C19" s="17" t="str">
+      <c r="C19" s="21" t="str">
         <f>IF(_tag_day_all!B16="","",_tag_day_all!B16)</f>
         <v/>
       </c>
-      <c r="D19" s="18" t="str">
+      <c r="D19" s="22" t="str">
         <f>IF(_tag_day_all!C16="","",_tag_day_all!C16)</f>
         <v/>
       </c>
-      <c r="E19" s="19" t="str">
+      <c r="E19" s="23" t="str">
         <f>IF(_tag_day_all!D16="","",_tag_day_all!D16*10000)</f>
         <v/>
       </c>
-      <c r="F19" s="20" t="str">
+      <c r="F19" s="24" t="str">
         <f>IF(_tag_day_all!E16="","",_tag_day_all!E16)</f>
         <v/>
       </c>
-      <c r="G19" s="19" t="str">
+      <c r="G19" s="23" t="str">
         <f>IF(_tag_day_all!F16="","",_tag_day_all!F16)</f>
         <v/>
       </c>
-      <c r="H19" s="20" t="str">
+      <c r="H19" s="24" t="str">
         <f>IF(_tag_day_all!G16="","",_tag_day_all!G16)</f>
         <v/>
       </c>
-      <c r="I19" s="20" t="str">
+      <c r="I19" s="24" t="str">
         <f>IF(_tag_day_all!H16="","",_tag_day_all!H16)</f>
         <v/>
       </c>
-      <c r="J19" s="36" t="str">
+      <c r="J19" s="44" t="str">
         <f>IF(_tag_day_all!I16="","",_tag_day_all!I16)</f>
         <v/>
       </c>
-      <c r="K19" s="36" t="str">
+      <c r="K19" s="44" t="str">
         <f>IF(_tag_day_all!J16="","",_tag_day_all!J16)</f>
         <v/>
       </c>
-      <c r="L19" s="20" t="str">
+      <c r="L19" s="24" t="str">
         <f>IF(_tag_day_all!K16="","",_tag_day_all!K16)</f>
         <v/>
       </c>
-      <c r="M19" s="20" t="str">
+      <c r="M19" s="24" t="str">
         <f>IF(_tag_day_all!L16="","",_tag_day_all!L16)</f>
         <v/>
       </c>
-      <c r="N19" s="36" t="str">
+      <c r="N19" s="44" t="str">
         <f>IF(_tag_day_all!M16="","",_tag_day_all!M16)</f>
         <v/>
       </c>
-      <c r="O19" s="20" t="str">
+      <c r="O19" s="24" t="str">
         <f>IF(_tag_day_all!N16="","",_tag_day_all!N16*100)</f>
         <v/>
       </c>
-      <c r="P19" s="20" t="str">
+      <c r="P19" s="24" t="str">
         <f>IF(_tag_day_all!AL16="","",_tag_day_all!AL16)</f>
         <v/>
       </c>
-      <c r="Q19" s="19" t="str">
+      <c r="Q19" s="23" t="str">
         <f>IF(_tag_day_all!AM16="","",_tag_day_all!AM16)</f>
         <v/>
       </c>
-      <c r="R19" s="19" t="str">
+      <c r="R19" s="23" t="str">
         <f>IF(_tag_day_all!O16="","",_tag_day_all!O16)</f>
         <v/>
       </c>
-      <c r="S19" s="19" t="str">
+      <c r="S19" s="23" t="str">
         <f>IF(_tag_day_all!P16="","",_tag_day_all!P16)</f>
         <v/>
       </c>
-      <c r="T19" s="19" t="str">
+      <c r="T19" s="23" t="str">
         <f>IF(_tag_day_all!Q16="","",_tag_day_all!Q16)</f>
         <v/>
       </c>
-      <c r="U19" s="19" t="str">
+      <c r="U19" s="23" t="str">
         <f>IF(_tag_day_all!R16="","",_tag_day_all!R16)</f>
         <v/>
       </c>
-      <c r="V19" s="19" t="str">
+      <c r="V19" s="23" t="str">
         <f>IF(_tag_day_all!S16="","",_tag_day_all!S16)</f>
         <v/>
       </c>
-      <c r="W19" s="19" t="str">
+      <c r="W19" s="23" t="str">
         <f>IF(_tag_day_all!T16="","",_tag_day_all!T16)</f>
         <v/>
       </c>
-      <c r="X19" s="20" t="str">
+      <c r="X19" s="24" t="str">
         <f>IF(_tag_day_all!U16="","",_tag_day_all!U16)</f>
         <v/>
       </c>
-      <c r="Y19" s="20" t="str">
+      <c r="Y19" s="24" t="str">
         <f>IF(_tag_day_all!V16="","",_tag_day_all!V16)</f>
         <v/>
       </c>
-      <c r="Z19" s="20" t="str">
+      <c r="Z19" s="24" t="str">
         <f>IF(_tag_day_all!W16="","",_tag_day_all!W16)</f>
         <v/>
       </c>
-      <c r="AA19" s="20" t="str">
+      <c r="AA19" s="24" t="str">
         <f>IF(_tag_day_all!X16="","",_tag_day_all!X16)</f>
         <v/>
       </c>
-      <c r="AB19" s="36" t="str">
+      <c r="AB19" s="44" t="str">
         <f>IF(_tag_day_all!Y16="","",_tag_day_all!Y16)</f>
         <v/>
       </c>
-      <c r="AC19" s="19" t="str">
+      <c r="AC19" s="23" t="str">
         <f>IF(_tag_day_all!Z16="","",_tag_day_all!Z16)</f>
         <v/>
       </c>
-      <c r="AD19" s="19" t="str">
+      <c r="AD19" s="23" t="str">
         <f>IF(_tag_day_all!AA16="","",_tag_day_all!AA16)</f>
         <v/>
       </c>
-      <c r="AE19" s="20" t="str">
+      <c r="AE19" s="24" t="str">
         <f>IF(_tag_day_all!AB16="","",_tag_day_all!AB16)</f>
         <v/>
       </c>
-      <c r="AF19" s="19" t="str">
+      <c r="AF19" s="23" t="str">
         <f>IF(_tag_day_all!AC16="","",_tag_day_all!AC16)</f>
         <v/>
       </c>
-      <c r="AG19" s="19" t="str">
+      <c r="AG19" s="23" t="str">
         <f>IF(_tag_day_all!AD16="","",_tag_day_all!AD16)</f>
         <v/>
       </c>
-      <c r="AH19" s="19" t="str">
+      <c r="AH19" s="23" t="str">
         <f>IF(_tag_day_all!AE16="","",_tag_day_all!AE16)</f>
         <v/>
       </c>
-      <c r="AI19" s="19" t="str">
+      <c r="AI19" s="23" t="str">
         <f>IF(_tag_day_all!AF16="","",_tag_day_all!AF16)</f>
         <v/>
       </c>
-      <c r="AJ19" s="19" t="str">
+      <c r="AJ19" s="23" t="str">
         <f>IF(_tag_day_all!AG16="","",_tag_day_all!AG16)</f>
         <v/>
       </c>
-      <c r="AK19" s="20" t="str">
+      <c r="AK19" s="24" t="str">
         <f>IF(_tag_day_all!AH16="","",_tag_day_all!AH16)</f>
         <v/>
       </c>
-      <c r="AL19" s="20" t="str">
+      <c r="AL19" s="24" t="str">
         <f>IF(_tag_day_all!AI16="","",_tag_day_all!AI16)</f>
         <v/>
       </c>
-      <c r="AM19" s="20" t="str">
+      <c r="AM19" s="24" t="str">
         <f>IF(_tag_day_all!AJ16="","",_tag_day_all!AJ16)</f>
         <v/>
       </c>
-      <c r="AN19" s="20" t="str">
+      <c r="AN19" s="24" t="str">
         <f>IF(_tag_day_all!AK16="","",_tag_day_all!AK16)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="14.25">
-      <c r="A20" s="15">
+    <row r="20" spans="1:40">
+      <c r="A20" s="19">
         <v>16</v>
       </c>
-      <c r="B20" s="16" t="str">
+      <c r="B20" s="20" t="str">
         <f>IF(_tag_day_all!A17="","",_tag_day_all!A17)</f>
         <v/>
       </c>
-      <c r="C20" s="17" t="str">
+      <c r="C20" s="21" t="str">
         <f>IF(_tag_day_all!B17="","",_tag_day_all!B17)</f>
         <v/>
       </c>
-      <c r="D20" s="18" t="str">
+      <c r="D20" s="22" t="str">
         <f>IF(_tag_day_all!C17="","",_tag_day_all!C17)</f>
         <v/>
       </c>
-      <c r="E20" s="19" t="str">
+      <c r="E20" s="23" t="str">
         <f>IF(_tag_day_all!D17="","",_tag_day_all!D17*10000)</f>
         <v/>
       </c>
-      <c r="F20" s="20" t="str">
+      <c r="F20" s="24" t="str">
         <f>IF(_tag_day_all!E17="","",_tag_day_all!E17)</f>
         <v/>
       </c>
-      <c r="G20" s="19" t="str">
+      <c r="G20" s="23" t="str">
         <f>IF(_tag_day_all!F17="","",_tag_day_all!F17)</f>
         <v/>
       </c>
-      <c r="H20" s="20" t="str">
+      <c r="H20" s="24" t="str">
         <f>IF(_tag_day_all!G17="","",_tag_day_all!G17)</f>
         <v/>
       </c>
-      <c r="I20" s="20" t="str">
+      <c r="I20" s="24" t="str">
         <f>IF(_tag_day_all!H17="","",_tag_day_all!H17)</f>
         <v/>
       </c>
-      <c r="J20" s="36" t="str">
+      <c r="J20" s="44" t="str">
         <f>IF(_tag_day_all!I17="","",_tag_day_all!I17)</f>
         <v/>
       </c>
-      <c r="K20" s="36" t="str">
+      <c r="K20" s="44" t="str">
         <f>IF(_tag_day_all!J17="","",_tag_day_all!J17)</f>
         <v/>
       </c>
-      <c r="L20" s="20" t="str">
+      <c r="L20" s="24" t="str">
         <f>IF(_tag_day_all!K17="","",_tag_day_all!K17)</f>
         <v/>
       </c>
-      <c r="M20" s="20" t="str">
+      <c r="M20" s="24" t="str">
         <f>IF(_tag_day_all!L17="","",_tag_day_all!L17)</f>
         <v/>
       </c>
-      <c r="N20" s="36" t="str">
+      <c r="N20" s="44" t="str">
         <f>IF(_tag_day_all!M17="","",_tag_day_all!M17)</f>
         <v/>
       </c>
-      <c r="O20" s="20" t="str">
+      <c r="O20" s="24" t="str">
         <f>IF(_tag_day_all!N17="","",_tag_day_all!N17*100)</f>
         <v/>
       </c>
-      <c r="P20" s="20" t="str">
+      <c r="P20" s="24" t="str">
         <f>IF(_tag_day_all!AL17="","",_tag_day_all!AL17)</f>
         <v/>
       </c>
-      <c r="Q20" s="19" t="str">
+      <c r="Q20" s="23" t="str">
         <f>IF(_tag_day_all!AM17="","",_tag_day_all!AM17)</f>
         <v/>
       </c>
-      <c r="R20" s="19" t="str">
+      <c r="R20" s="23" t="str">
         <f>IF(_tag_day_all!O17="","",_tag_day_all!O17)</f>
         <v/>
       </c>
-      <c r="S20" s="19" t="str">
+      <c r="S20" s="23" t="str">
         <f>IF(_tag_day_all!P17="","",_tag_day_all!P17)</f>
         <v/>
       </c>
-      <c r="T20" s="19" t="str">
+      <c r="T20" s="23" t="str">
         <f>IF(_tag_day_all!Q17="","",_tag_day_all!Q17)</f>
         <v/>
       </c>
-      <c r="U20" s="19" t="str">
+      <c r="U20" s="23" t="str">
         <f>IF(_tag_day_all!R17="","",_tag_day_all!R17)</f>
         <v/>
       </c>
-      <c r="V20" s="19" t="str">
+      <c r="V20" s="23" t="str">
         <f>IF(_tag_day_all!S17="","",_tag_day_all!S17)</f>
         <v/>
       </c>
-      <c r="W20" s="19" t="str">
+      <c r="W20" s="23" t="str">
         <f>IF(_tag_day_all!T17="","",_tag_day_all!T17)</f>
         <v/>
       </c>
-      <c r="X20" s="20" t="str">
+      <c r="X20" s="24" t="str">
         <f>IF(_tag_day_all!U17="","",_tag_day_all!U17)</f>
         <v/>
       </c>
-      <c r="Y20" s="20" t="str">
+      <c r="Y20" s="24" t="str">
         <f>IF(_tag_day_all!V17="","",_tag_day_all!V17)</f>
         <v/>
       </c>
-      <c r="Z20" s="20" t="str">
+      <c r="Z20" s="24" t="str">
         <f>IF(_tag_day_all!W17="","",_tag_day_all!W17)</f>
         <v/>
       </c>
-      <c r="AA20" s="20" t="str">
+      <c r="AA20" s="24" t="str">
         <f>IF(_tag_day_all!X17="","",_tag_day_all!X17)</f>
         <v/>
       </c>
-      <c r="AB20" s="36" t="str">
+      <c r="AB20" s="44" t="str">
         <f>IF(_tag_day_all!Y17="","",_tag_day_all!Y17)</f>
         <v/>
       </c>
-      <c r="AC20" s="19" t="str">
+      <c r="AC20" s="23" t="str">
         <f>IF(_tag_day_all!Z17="","",_tag_day_all!Z17)</f>
         <v/>
       </c>
-      <c r="AD20" s="19" t="str">
+      <c r="AD20" s="23" t="str">
         <f>IF(_tag_day_all!AA17="","",_tag_day_all!AA17)</f>
         <v/>
       </c>
-      <c r="AE20" s="20" t="str">
+      <c r="AE20" s="24" t="str">
         <f>IF(_tag_day_all!AB17="","",_tag_day_all!AB17)</f>
         <v/>
       </c>
-      <c r="AF20" s="19" t="str">
+      <c r="AF20" s="23" t="str">
         <f>IF(_tag_day_all!AC17="","",_tag_day_all!AC17)</f>
         <v/>
       </c>
-      <c r="AG20" s="19" t="str">
+      <c r="AG20" s="23" t="str">
         <f>IF(_tag_day_all!AD17="","",_tag_day_all!AD17)</f>
         <v/>
       </c>
-      <c r="AH20" s="19" t="str">
+      <c r="AH20" s="23" t="str">
         <f>IF(_tag_day_all!AE17="","",_tag_day_all!AE17)</f>
         <v/>
       </c>
-      <c r="AI20" s="19" t="str">
+      <c r="AI20" s="23" t="str">
         <f>IF(_tag_day_all!AF17="","",_tag_day_all!AF17)</f>
         <v/>
       </c>
-      <c r="AJ20" s="19" t="str">
+      <c r="AJ20" s="23" t="str">
         <f>IF(_tag_day_all!AG17="","",_tag_day_all!AG17)</f>
         <v/>
       </c>
-      <c r="AK20" s="20" t="str">
+      <c r="AK20" s="24" t="str">
         <f>IF(_tag_day_all!AH17="","",_tag_day_all!AH17)</f>
         <v/>
       </c>
-      <c r="AL20" s="20" t="str">
+      <c r="AL20" s="24" t="str">
         <f>IF(_tag_day_all!AI17="","",_tag_day_all!AI17)</f>
         <v/>
       </c>
-      <c r="AM20" s="20" t="str">
+      <c r="AM20" s="24" t="str">
         <f>IF(_tag_day_all!AJ17="","",_tag_day_all!AJ17)</f>
         <v/>
       </c>
-      <c r="AN20" s="20" t="str">
+      <c r="AN20" s="24" t="str">
         <f>IF(_tag_day_all!AK17="","",_tag_day_all!AK17)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="14.25">
-      <c r="A21" s="15">
+    <row r="21" spans="1:40">
+      <c r="A21" s="19">
         <v>17</v>
       </c>
-      <c r="B21" s="16" t="str">
+      <c r="B21" s="20" t="str">
         <f>IF(_tag_day_all!A18="","",_tag_day_all!A18)</f>
         <v/>
       </c>
-      <c r="C21" s="17" t="str">
+      <c r="C21" s="21" t="str">
         <f>IF(_tag_day_all!B18="","",_tag_day_all!B18)</f>
         <v/>
       </c>
-      <c r="D21" s="18" t="str">
+      <c r="D21" s="22" t="str">
         <f>IF(_tag_day_all!C18="","",_tag_day_all!C18)</f>
         <v/>
       </c>
-      <c r="E21" s="19" t="str">
+      <c r="E21" s="23" t="str">
         <f>IF(_tag_day_all!D18="","",_tag_day_all!D18*10000)</f>
         <v/>
       </c>
-      <c r="F21" s="20" t="str">
+      <c r="F21" s="24" t="str">
         <f>IF(_tag_day_all!E18="","",_tag_day_all!E18)</f>
         <v/>
       </c>
-      <c r="G21" s="19" t="str">
+      <c r="G21" s="23" t="str">
         <f>IF(_tag_day_all!F18="","",_tag_day_all!F18)</f>
         <v/>
       </c>
-      <c r="H21" s="20" t="str">
+      <c r="H21" s="24" t="str">
         <f>IF(_tag_day_all!G18="","",_tag_day_all!G18)</f>
         <v/>
       </c>
-      <c r="I21" s="20" t="str">
+      <c r="I21" s="24" t="str">
         <f>IF(_tag_day_all!H18="","",_tag_day_all!H18)</f>
         <v/>
       </c>
-      <c r="J21" s="36" t="str">
+      <c r="J21" s="44" t="str">
         <f>IF(_tag_day_all!I18="","",_tag_day_all!I18)</f>
         <v/>
       </c>
-      <c r="K21" s="36" t="str">
+      <c r="K21" s="44" t="str">
         <f>IF(_tag_day_all!J18="","",_tag_day_all!J18)</f>
         <v/>
       </c>
-      <c r="L21" s="20" t="str">
+      <c r="L21" s="24" t="str">
         <f>IF(_tag_day_all!K18="","",_tag_day_all!K18)</f>
         <v/>
       </c>
-      <c r="M21" s="20" t="str">
+      <c r="M21" s="24" t="str">
         <f>IF(_tag_day_all!L18="","",_tag_day_all!L18)</f>
         <v/>
       </c>
-      <c r="N21" s="36" t="str">
+      <c r="N21" s="44" t="str">
         <f>IF(_tag_day_all!M18="","",_tag_day_all!M18)</f>
         <v/>
       </c>
-      <c r="O21" s="20" t="str">
+      <c r="O21" s="24" t="str">
         <f>IF(_tag_day_all!N18="","",_tag_day_all!N18*100)</f>
         <v/>
       </c>
-      <c r="P21" s="20" t="str">
+      <c r="P21" s="24" t="str">
         <f>IF(_tag_day_all!AL18="","",_tag_day_all!AL18)</f>
         <v/>
       </c>
-      <c r="Q21" s="19" t="str">
+      <c r="Q21" s="23" t="str">
         <f>IF(_tag_day_all!AM18="","",_tag_day_all!AM18)</f>
         <v/>
       </c>
-      <c r="R21" s="19" t="str">
+      <c r="R21" s="23" t="str">
         <f>IF(_tag_day_all!O18="","",_tag_day_all!O18)</f>
         <v/>
       </c>
-      <c r="S21" s="19" t="str">
+      <c r="S21" s="23" t="str">
         <f>IF(_tag_day_all!P18="","",_tag_day_all!P18)</f>
         <v/>
       </c>
-      <c r="T21" s="19" t="str">
+      <c r="T21" s="23" t="str">
         <f>IF(_tag_day_all!Q18="","",_tag_day_all!Q18)</f>
         <v/>
       </c>
-      <c r="U21" s="19" t="str">
+      <c r="U21" s="23" t="str">
         <f>IF(_tag_day_all!R18="","",_tag_day_all!R18)</f>
         <v/>
       </c>
-      <c r="V21" s="19" t="str">
+      <c r="V21" s="23" t="str">
         <f>IF(_tag_day_all!S18="","",_tag_day_all!S18)</f>
         <v/>
       </c>
-      <c r="W21" s="19" t="str">
+      <c r="W21" s="23" t="str">
         <f>IF(_tag_day_all!T18="","",_tag_day_all!T18)</f>
         <v/>
       </c>
-      <c r="X21" s="20" t="str">
+      <c r="X21" s="24" t="str">
         <f>IF(_tag_day_all!U18="","",_tag_day_all!U18)</f>
         <v/>
       </c>
-      <c r="Y21" s="20" t="str">
+      <c r="Y21" s="24" t="str">
         <f>IF(_tag_day_all!V18="","",_tag_day_all!V18)</f>
         <v/>
       </c>
-      <c r="Z21" s="20" t="str">
+      <c r="Z21" s="24" t="str">
         <f>IF(_tag_day_all!W18="","",_tag_day_all!W18)</f>
         <v/>
       </c>
-      <c r="AA21" s="20" t="str">
+      <c r="AA21" s="24" t="str">
         <f>IF(_tag_day_all!X18="","",_tag_day_all!X18)</f>
         <v/>
       </c>
-      <c r="AB21" s="36" t="str">
+      <c r="AB21" s="44" t="str">
         <f>IF(_tag_day_all!Y18="","",_tag_day_all!Y18)</f>
         <v/>
       </c>
-      <c r="AC21" s="19" t="str">
+      <c r="AC21" s="23" t="str">
         <f>IF(_tag_day_all!Z18="","",_tag_day_all!Z18)</f>
         <v/>
       </c>
-      <c r="AD21" s="19" t="str">
+      <c r="AD21" s="23" t="str">
         <f>IF(_tag_day_all!AA18="","",_tag_day_all!AA18)</f>
         <v/>
       </c>
-      <c r="AE21" s="20" t="str">
+      <c r="AE21" s="24" t="str">
         <f>IF(_tag_day_all!AB18="","",_tag_day_all!AB18)</f>
         <v/>
       </c>
-      <c r="AF21" s="19" t="str">
+      <c r="AF21" s="23" t="str">
         <f>IF(_tag_day_all!AC18="","",_tag_day_all!AC18)</f>
         <v/>
       </c>
-      <c r="AG21" s="19" t="str">
+      <c r="AG21" s="23" t="str">
         <f>IF(_tag_day_all!AD18="","",_tag_day_all!AD18)</f>
         <v/>
       </c>
-      <c r="AH21" s="19" t="str">
+      <c r="AH21" s="23" t="str">
         <f>IF(_tag_day_all!AE18="","",_tag_day_all!AE18)</f>
         <v/>
       </c>
-      <c r="AI21" s="19" t="str">
+      <c r="AI21" s="23" t="str">
         <f>IF(_tag_day_all!AF18="","",_tag_day_all!AF18)</f>
         <v/>
       </c>
-      <c r="AJ21" s="19" t="str">
+      <c r="AJ21" s="23" t="str">
         <f>IF(_tag_day_all!AG18="","",_tag_day_all!AG18)</f>
         <v/>
       </c>
-      <c r="AK21" s="20" t="str">
+      <c r="AK21" s="24" t="str">
         <f>IF(_tag_day_all!AH18="","",_tag_day_all!AH18)</f>
         <v/>
       </c>
-      <c r="AL21" s="20" t="str">
+      <c r="AL21" s="24" t="str">
         <f>IF(_tag_day_all!AI18="","",_tag_day_all!AI18)</f>
         <v/>
       </c>
-      <c r="AM21" s="20" t="str">
+      <c r="AM21" s="24" t="str">
         <f>IF(_tag_day_all!AJ18="","",_tag_day_all!AJ18)</f>
         <v/>
       </c>
-      <c r="AN21" s="20" t="str">
+      <c r="AN21" s="24" t="str">
         <f>IF(_tag_day_all!AK18="","",_tag_day_all!AK18)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="14.25">
-      <c r="A22" s="15">
+    <row r="22" spans="1:40">
+      <c r="A22" s="19">
         <v>18</v>
       </c>
-      <c r="B22" s="16" t="str">
+      <c r="B22" s="20" t="str">
         <f>IF(_tag_day_all!A19="","",_tag_day_all!A19)</f>
         <v/>
       </c>
-      <c r="C22" s="17" t="str">
+      <c r="C22" s="21" t="str">
         <f>IF(_tag_day_all!B19="","",_tag_day_all!B19)</f>
         <v/>
       </c>
-      <c r="D22" s="18" t="str">
+      <c r="D22" s="22" t="str">
         <f>IF(_tag_day_all!C19="","",_tag_day_all!C19)</f>
         <v/>
       </c>
-      <c r="E22" s="19" t="str">
+      <c r="E22" s="23" t="str">
         <f>IF(_tag_day_all!D19="","",_tag_day_all!D19*10000)</f>
         <v/>
       </c>
-      <c r="F22" s="20" t="str">
+      <c r="F22" s="24" t="str">
         <f>IF(_tag_day_all!E19="","",_tag_day_all!E19)</f>
         <v/>
       </c>
-      <c r="G22" s="19" t="str">
+      <c r="G22" s="23" t="str">
         <f>IF(_tag_day_all!F19="","",_tag_day_all!F19)</f>
         <v/>
       </c>
-      <c r="H22" s="20" t="str">
+      <c r="H22" s="24" t="str">
         <f>IF(_tag_day_all!G19="","",_tag_day_all!G19)</f>
         <v/>
       </c>
-      <c r="I22" s="20" t="str">
+      <c r="I22" s="24" t="str">
         <f>IF(_tag_day_all!H19="","",_tag_day_all!H19)</f>
         <v/>
       </c>
-      <c r="J22" s="36" t="str">
+      <c r="J22" s="44" t="str">
         <f>IF(_tag_day_all!I19="","",_tag_day_all!I19)</f>
         <v/>
       </c>
-      <c r="K22" s="36" t="str">
+      <c r="K22" s="44" t="str">
         <f>IF(_tag_day_all!J19="","",_tag_day_all!J19)</f>
         <v/>
       </c>
-      <c r="L22" s="20" t="str">
+      <c r="L22" s="24" t="str">
         <f>IF(_tag_day_all!K19="","",_tag_day_all!K19)</f>
         <v/>
       </c>
-      <c r="M22" s="20" t="str">
+      <c r="M22" s="24" t="str">
         <f>IF(_tag_day_all!L19="","",_tag_day_all!L19)</f>
         <v/>
       </c>
-      <c r="N22" s="36" t="str">
+      <c r="N22" s="44" t="str">
         <f>IF(_tag_day_all!M19="","",_tag_day_all!M19)</f>
         <v/>
       </c>
-      <c r="O22" s="20" t="str">
+      <c r="O22" s="24" t="str">
         <f>IF(_tag_day_all!N19="","",_tag_day_all!N19*100)</f>
         <v/>
       </c>
-      <c r="P22" s="20" t="str">
+      <c r="P22" s="24" t="str">
         <f>IF(_tag_day_all!AL19="","",_tag_day_all!AL19)</f>
         <v/>
       </c>
-      <c r="Q22" s="19" t="str">
+      <c r="Q22" s="23" t="str">
         <f>IF(_tag_day_all!AM19="","",_tag_day_all!AM19)</f>
         <v/>
       </c>
-      <c r="R22" s="19" t="str">
+      <c r="R22" s="23" t="str">
         <f>IF(_tag_day_all!O19="","",_tag_day_all!O19)</f>
         <v/>
       </c>
-      <c r="S22" s="19" t="str">
+      <c r="S22" s="23" t="str">
         <f>IF(_tag_day_all!P19="","",_tag_day_all!P19)</f>
         <v/>
       </c>
-      <c r="T22" s="19" t="str">
+      <c r="T22" s="23" t="str">
         <f>IF(_tag_day_all!Q19="","",_tag_day_all!Q19)</f>
         <v/>
       </c>
-      <c r="U22" s="19" t="str">
+      <c r="U22" s="23" t="str">
         <f>IF(_tag_day_all!R19="","",_tag_day_all!R19)</f>
         <v/>
       </c>
-      <c r="V22" s="19" t="str">
+      <c r="V22" s="23" t="str">
         <f>IF(_tag_day_all!S19="","",_tag_day_all!S19)</f>
         <v/>
       </c>
-      <c r="W22" s="19" t="str">
+      <c r="W22" s="23" t="str">
         <f>IF(_tag_day_all!T19="","",_tag_day_all!T19)</f>
         <v/>
       </c>
-      <c r="X22" s="20" t="str">
+      <c r="X22" s="24" t="str">
         <f>IF(_tag_day_all!U19="","",_tag_day_all!U19)</f>
         <v/>
       </c>
-      <c r="Y22" s="20" t="str">
+      <c r="Y22" s="24" t="str">
         <f>IF(_tag_day_all!V19="","",_tag_day_all!V19)</f>
         <v/>
       </c>
-      <c r="Z22" s="20" t="str">
+      <c r="Z22" s="24" t="str">
         <f>IF(_tag_day_all!W19="","",_tag_day_all!W19)</f>
         <v/>
       </c>
-      <c r="AA22" s="20" t="str">
+      <c r="AA22" s="24" t="str">
         <f>IF(_tag_day_all!X19="","",_tag_day_all!X19)</f>
         <v/>
       </c>
-      <c r="AB22" s="36" t="str">
+      <c r="AB22" s="44" t="str">
         <f>IF(_tag_day_all!Y19="","",_tag_day_all!Y19)</f>
         <v/>
       </c>
-      <c r="AC22" s="19" t="str">
+      <c r="AC22" s="23" t="str">
         <f>IF(_tag_day_all!Z19="","",_tag_day_all!Z19)</f>
         <v/>
       </c>
-      <c r="AD22" s="19" t="str">
+      <c r="AD22" s="23" t="str">
         <f>IF(_tag_day_all!AA19="","",_tag_day_all!AA19)</f>
         <v/>
       </c>
-      <c r="AE22" s="20" t="str">
+      <c r="AE22" s="24" t="str">
         <f>IF(_tag_day_all!AB19="","",_tag_day_all!AB19)</f>
         <v/>
       </c>
-      <c r="AF22" s="19" t="str">
+      <c r="AF22" s="23" t="str">
         <f>IF(_tag_day_all!AC19="","",_tag_day_all!AC19)</f>
         <v/>
       </c>
-      <c r="AG22" s="19" t="str">
+      <c r="AG22" s="23" t="str">
         <f>IF(_tag_day_all!AD19="","",_tag_day_all!AD19)</f>
         <v/>
       </c>
-      <c r="AH22" s="19" t="str">
+      <c r="AH22" s="23" t="str">
         <f>IF(_tag_day_all!AE19="","",_tag_day_all!AE19)</f>
         <v/>
       </c>
-      <c r="AI22" s="19" t="str">
+      <c r="AI22" s="23" t="str">
         <f>IF(_tag_day_all!AF19="","",_tag_day_all!AF19)</f>
         <v/>
       </c>
-      <c r="AJ22" s="19" t="str">
+      <c r="AJ22" s="23" t="str">
         <f>IF(_tag_day_all!AG19="","",_tag_day_all!AG19)</f>
         <v/>
       </c>
-      <c r="AK22" s="20" t="str">
+      <c r="AK22" s="24" t="str">
         <f>IF(_tag_day_all!AH19="","",_tag_day_all!AH19)</f>
         <v/>
       </c>
-      <c r="AL22" s="20" t="str">
+      <c r="AL22" s="24" t="str">
         <f>IF(_tag_day_all!AI19="","",_tag_day_all!AI19)</f>
         <v/>
       </c>
-      <c r="AM22" s="20" t="str">
+      <c r="AM22" s="24" t="str">
         <f>IF(_tag_day_all!AJ19="","",_tag_day_all!AJ19)</f>
         <v/>
       </c>
-      <c r="AN22" s="20" t="str">
+      <c r="AN22" s="24" t="str">
         <f>IF(_tag_day_all!AK19="","",_tag_day_all!AK19)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="14.25">
-      <c r="A23" s="15">
+    <row r="23" spans="1:40">
+      <c r="A23" s="19">
         <v>19</v>
       </c>
-      <c r="B23" s="16" t="str">
+      <c r="B23" s="20" t="str">
         <f>IF(_tag_day_all!A20="","",_tag_day_all!A20)</f>
         <v/>
       </c>
-      <c r="C23" s="17" t="str">
+      <c r="C23" s="21" t="str">
         <f>IF(_tag_day_all!B20="","",_tag_day_all!B20)</f>
         <v/>
       </c>
-      <c r="D23" s="18" t="str">
+      <c r="D23" s="22" t="str">
         <f>IF(_tag_day_all!C20="","",_tag_day_all!C20)</f>
         <v/>
       </c>
-      <c r="E23" s="19" t="str">
+      <c r="E23" s="23" t="str">
         <f>IF(_tag_day_all!D20="","",_tag_day_all!D20*10000)</f>
         <v/>
       </c>
-      <c r="F23" s="20" t="str">
+      <c r="F23" s="24" t="str">
         <f>IF(_tag_day_all!E20="","",_tag_day_all!E20)</f>
         <v/>
       </c>
-      <c r="G23" s="19" t="str">
+      <c r="G23" s="23" t="str">
         <f>IF(_tag_day_all!F20="","",_tag_day_all!F20)</f>
         <v/>
       </c>
-      <c r="H23" s="20" t="str">
+      <c r="H23" s="24" t="str">
         <f>IF(_tag_day_all!G20="","",_tag_day_all!G20)</f>
         <v/>
       </c>
-      <c r="I23" s="20" t="str">
+      <c r="I23" s="24" t="str">
         <f>IF(_tag_day_all!H20="","",_tag_day_all!H20)</f>
         <v/>
       </c>
-      <c r="J23" s="36" t="str">
+      <c r="J23" s="44" t="str">
         <f>IF(_tag_day_all!I20="","",_tag_day_all!I20)</f>
         <v/>
       </c>
-      <c r="K23" s="36" t="str">
+      <c r="K23" s="44" t="str">
         <f>IF(_tag_day_all!J20="","",_tag_day_all!J20)</f>
         <v/>
       </c>
-      <c r="L23" s="20" t="str">
+      <c r="L23" s="24" t="str">
         <f>IF(_tag_day_all!K20="","",_tag_day_all!K20)</f>
         <v/>
       </c>
-      <c r="M23" s="20" t="str">
+      <c r="M23" s="24" t="str">
         <f>IF(_tag_day_all!L20="","",_tag_day_all!L20)</f>
         <v/>
       </c>
-      <c r="N23" s="36" t="str">
+      <c r="N23" s="44" t="str">
         <f>IF(_tag_day_all!M20="","",_tag_day_all!M20)</f>
         <v/>
       </c>
-      <c r="O23" s="20" t="str">
+      <c r="O23" s="24" t="str">
         <f>IF(_tag_day_all!N20="","",_tag_day_all!N20*100)</f>
         <v/>
       </c>
-      <c r="P23" s="20" t="str">
+      <c r="P23" s="24" t="str">
         <f>IF(_tag_day_all!AL20="","",_tag_day_all!AL20)</f>
         <v/>
       </c>
-      <c r="Q23" s="19" t="str">
+      <c r="Q23" s="23" t="str">
         <f>IF(_tag_day_all!AM20="","",_tag_day_all!AM20)</f>
         <v/>
       </c>
-      <c r="R23" s="19" t="str">
+      <c r="R23" s="23" t="str">
         <f>IF(_tag_day_all!O20="","",_tag_day_all!O20)</f>
         <v/>
       </c>
-      <c r="S23" s="19" t="str">
+      <c r="S23" s="23" t="str">
         <f>IF(_tag_day_all!P20="","",_tag_day_all!P20)</f>
         <v/>
       </c>
-      <c r="T23" s="19" t="str">
+      <c r="T23" s="23" t="str">
         <f>IF(_tag_day_all!Q20="","",_tag_day_all!Q20)</f>
         <v/>
       </c>
-      <c r="U23" s="19" t="str">
+      <c r="U23" s="23" t="str">
         <f>IF(_tag_day_all!R20="","",_tag_day_all!R20)</f>
         <v/>
       </c>
-      <c r="V23" s="19" t="str">
+      <c r="V23" s="23" t="str">
         <f>IF(_tag_day_all!S20="","",_tag_day_all!S20)</f>
         <v/>
       </c>
-      <c r="W23" s="19" t="str">
+      <c r="W23" s="23" t="str">
         <f>IF(_tag_day_all!T20="","",_tag_day_all!T20)</f>
         <v/>
       </c>
-      <c r="X23" s="20" t="str">
+      <c r="X23" s="24" t="str">
         <f>IF(_tag_day_all!U20="","",_tag_day_all!U20)</f>
         <v/>
       </c>
-      <c r="Y23" s="20" t="str">
+      <c r="Y23" s="24" t="str">
         <f>IF(_tag_day_all!V20="","",_tag_day_all!V20)</f>
         <v/>
       </c>
-      <c r="Z23" s="20" t="str">
+      <c r="Z23" s="24" t="str">
         <f>IF(_tag_day_all!W20="","",_tag_day_all!W20)</f>
         <v/>
       </c>
-      <c r="AA23" s="20" t="str">
+      <c r="AA23" s="24" t="str">
         <f>IF(_tag_day_all!X20="","",_tag_day_all!X20)</f>
         <v/>
       </c>
-      <c r="AB23" s="36" t="str">
+      <c r="AB23" s="44" t="str">
         <f>IF(_tag_day_all!Y20="","",_tag_day_all!Y20)</f>
         <v/>
       </c>
-      <c r="AC23" s="19" t="str">
+      <c r="AC23" s="23" t="str">
         <f>IF(_tag_day_all!Z20="","",_tag_day_all!Z20)</f>
         <v/>
       </c>
-      <c r="AD23" s="19" t="str">
+      <c r="AD23" s="23" t="str">
         <f>IF(_tag_day_all!AA20="","",_tag_day_all!AA20)</f>
         <v/>
       </c>
-      <c r="AE23" s="20" t="str">
+      <c r="AE23" s="24" t="str">
         <f>IF(_tag_day_all!AB20="","",_tag_day_all!AB20)</f>
         <v/>
       </c>
-      <c r="AF23" s="19" t="str">
+      <c r="AF23" s="23" t="str">
         <f>IF(_tag_day_all!AC20="","",_tag_day_all!AC20)</f>
         <v/>
       </c>
-      <c r="AG23" s="19" t="str">
+      <c r="AG23" s="23" t="str">
         <f>IF(_tag_day_all!AD20="","",_tag_day_all!AD20)</f>
         <v/>
       </c>
-      <c r="AH23" s="19" t="str">
+      <c r="AH23" s="23" t="str">
         <f>IF(_tag_day_all!AE20="","",_tag_day_all!AE20)</f>
         <v/>
       </c>
-      <c r="AI23" s="19" t="str">
+      <c r="AI23" s="23" t="str">
         <f>IF(_tag_day_all!AF20="","",_tag_day_all!AF20)</f>
         <v/>
       </c>
-      <c r="AJ23" s="19" t="str">
+      <c r="AJ23" s="23" t="str">
         <f>IF(_tag_day_all!AG20="","",_tag_day_all!AG20)</f>
         <v/>
       </c>
-      <c r="AK23" s="20" t="str">
+      <c r="AK23" s="24" t="str">
         <f>IF(_tag_day_all!AH20="","",_tag_day_all!AH20)</f>
         <v/>
       </c>
-      <c r="AL23" s="20" t="str">
+      <c r="AL23" s="24" t="str">
         <f>IF(_tag_day_all!AI20="","",_tag_day_all!AI20)</f>
         <v/>
       </c>
-      <c r="AM23" s="20" t="str">
+      <c r="AM23" s="24" t="str">
         <f>IF(_tag_day_all!AJ20="","",_tag_day_all!AJ20)</f>
         <v/>
       </c>
-      <c r="AN23" s="20" t="str">
+      <c r="AN23" s="24" t="str">
         <f>IF(_tag_day_all!AK20="","",_tag_day_all!AK20)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="14.25">
-      <c r="A24" s="15">
+    <row r="24" spans="1:40">
+      <c r="A24" s="19">
         <v>20</v>
       </c>
-      <c r="B24" s="16" t="str">
+      <c r="B24" s="20" t="str">
         <f>IF(_tag_day_all!A21="","",_tag_day_all!A21)</f>
         <v/>
       </c>
-      <c r="C24" s="17" t="str">
+      <c r="C24" s="21" t="str">
         <f>IF(_tag_day_all!B21="","",_tag_day_all!B21)</f>
         <v/>
       </c>
-      <c r="D24" s="18" t="str">
+      <c r="D24" s="22" t="str">
         <f>IF(_tag_day_all!C21="","",_tag_day_all!C21)</f>
         <v/>
       </c>
-      <c r="E24" s="19" t="str">
+      <c r="E24" s="23" t="str">
         <f>IF(_tag_day_all!D21="","",_tag_day_all!D21*10000)</f>
         <v/>
       </c>
-      <c r="F24" s="20" t="str">
+      <c r="F24" s="24" t="str">
         <f>IF(_tag_day_all!E21="","",_tag_day_all!E21)</f>
         <v/>
       </c>
-      <c r="G24" s="19" t="str">
+      <c r="G24" s="23" t="str">
         <f>IF(_tag_day_all!F21="","",_tag_day_all!F21)</f>
         <v/>
       </c>
-      <c r="H24" s="20" t="str">
+      <c r="H24" s="24" t="str">
         <f>IF(_tag_day_all!G21="","",_tag_day_all!G21)</f>
         <v/>
       </c>
-      <c r="I24" s="20" t="str">
+      <c r="I24" s="24" t="str">
         <f>IF(_tag_day_all!H21="","",_tag_day_all!H21)</f>
         <v/>
       </c>
-      <c r="J24" s="36" t="str">
+      <c r="J24" s="44" t="str">
         <f>IF(_tag_day_all!I21="","",_tag_day_all!I21)</f>
         <v/>
       </c>
-      <c r="K24" s="36" t="str">
+      <c r="K24" s="44" t="str">
         <f>IF(_tag_day_all!J21="","",_tag_day_all!J21)</f>
         <v/>
       </c>
-      <c r="L24" s="20" t="str">
+      <c r="L24" s="24" t="str">
         <f>IF(_tag_day_all!K21="","",_tag_day_all!K21)</f>
         <v/>
       </c>
-      <c r="M24" s="20" t="str">
+      <c r="M24" s="24" t="str">
         <f>IF(_tag_day_all!L21="","",_tag_day_all!L21)</f>
         <v/>
       </c>
-      <c r="N24" s="36" t="str">
+      <c r="N24" s="44" t="str">
         <f>IF(_tag_day_all!M21="","",_tag_day_all!M21)</f>
         <v/>
       </c>
-      <c r="O24" s="20" t="str">
+      <c r="O24" s="24" t="str">
         <f>IF(_tag_day_all!N21="","",_tag_day_all!N21*100)</f>
         <v/>
       </c>
-      <c r="P24" s="20" t="str">
+      <c r="P24" s="24" t="str">
         <f>IF(_tag_day_all!AL21="","",_tag_day_all!AL21)</f>
         <v/>
       </c>
-      <c r="Q24" s="19" t="str">
+      <c r="Q24" s="23" t="str">
         <f>IF(_tag_day_all!AM21="","",_tag_day_all!AM21)</f>
         <v/>
       </c>
-      <c r="R24" s="19" t="str">
+      <c r="R24" s="23" t="str">
         <f>IF(_tag_day_all!O21="","",_tag_day_all!O21)</f>
         <v/>
       </c>
-      <c r="S24" s="19" t="str">
+      <c r="S24" s="23" t="str">
         <f>IF(_tag_day_all!P21="","",_tag_day_all!P21)</f>
         <v/>
       </c>
-      <c r="T24" s="19" t="str">
+      <c r="T24" s="23" t="str">
         <f>IF(_tag_day_all!Q21="","",_tag_day_all!Q21)</f>
         <v/>
       </c>
-      <c r="U24" s="19" t="str">
+      <c r="U24" s="23" t="str">
         <f>IF(_tag_day_all!R21="","",_tag_day_all!R21)</f>
         <v/>
       </c>
-      <c r="V24" s="19" t="str">
+      <c r="V24" s="23" t="str">
         <f>IF(_tag_day_all!S21="","",_tag_day_all!S21)</f>
         <v/>
       </c>
-      <c r="W24" s="19" t="str">
+      <c r="W24" s="23" t="str">
         <f>IF(_tag_day_all!T21="","",_tag_day_all!T21)</f>
         <v/>
       </c>
-      <c r="X24" s="20" t="str">
+      <c r="X24" s="24" t="str">
         <f>IF(_tag_day_all!U21="","",_tag_day_all!U21)</f>
         <v/>
       </c>
-      <c r="Y24" s="20" t="str">
+      <c r="Y24" s="24" t="str">
         <f>IF(_tag_day_all!V21="","",_tag_day_all!V21)</f>
         <v/>
       </c>
-      <c r="Z24" s="20" t="str">
+      <c r="Z24" s="24" t="str">
         <f>IF(_tag_day_all!W21="","",_tag_day_all!W21)</f>
         <v/>
       </c>
-      <c r="AA24" s="20" t="str">
+      <c r="AA24" s="24" t="str">
         <f>IF(_tag_day_all!X21="","",_tag_day_all!X21)</f>
         <v/>
       </c>
-      <c r="AB24" s="36" t="str">
+      <c r="AB24" s="44" t="str">
         <f>IF(_tag_day_all!Y21="","",_tag_day_all!Y21)</f>
         <v/>
       </c>
-      <c r="AC24" s="19" t="str">
+      <c r="AC24" s="23" t="str">
         <f>IF(_tag_day_all!Z21="","",_tag_day_all!Z21)</f>
         <v/>
       </c>
-      <c r="AD24" s="19" t="str">
+      <c r="AD24" s="23" t="str">
         <f>IF(_tag_day_all!AA21="","",_tag_day_all!AA21)</f>
         <v/>
       </c>
-      <c r="AE24" s="20" t="str">
+      <c r="AE24" s="24" t="str">
         <f>IF(_tag_day_all!AB21="","",_tag_day_all!AB21)</f>
         <v/>
       </c>
-      <c r="AF24" s="19" t="str">
+      <c r="AF24" s="23" t="str">
         <f>IF(_tag_day_all!AC21="","",_tag_day_all!AC21)</f>
         <v/>
       </c>
-      <c r="AG24" s="19" t="str">
+      <c r="AG24" s="23" t="str">
         <f>IF(_tag_day_all!AD21="","",_tag_day_all!AD21)</f>
         <v/>
       </c>
-      <c r="AH24" s="19" t="str">
+      <c r="AH24" s="23" t="str">
         <f>IF(_tag_day_all!AE21="","",_tag_day_all!AE21)</f>
         <v/>
       </c>
-      <c r="AI24" s="19" t="str">
+      <c r="AI24" s="23" t="str">
         <f>IF(_tag_day_all!AF21="","",_tag_day_all!AF21)</f>
         <v/>
       </c>
-      <c r="AJ24" s="19" t="str">
+      <c r="AJ24" s="23" t="str">
         <f>IF(_tag_day_all!AG21="","",_tag_day_all!AG21)</f>
         <v/>
       </c>
-      <c r="AK24" s="20" t="str">
+      <c r="AK24" s="24" t="str">
         <f>IF(_tag_day_all!AH21="","",_tag_day_all!AH21)</f>
         <v/>
       </c>
-      <c r="AL24" s="20" t="str">
+      <c r="AL24" s="24" t="str">
         <f>IF(_tag_day_all!AI21="","",_tag_day_all!AI21)</f>
         <v/>
       </c>
-      <c r="AM24" s="20" t="str">
+      <c r="AM24" s="24" t="str">
         <f>IF(_tag_day_all!AJ21="","",_tag_day_all!AJ21)</f>
         <v/>
       </c>
-      <c r="AN24" s="20" t="str">
+      <c r="AN24" s="24" t="str">
         <f>IF(_tag_day_all!AK21="","",_tag_day_all!AK21)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="14.25">
-      <c r="A25" s="15">
+    <row r="25" spans="1:40">
+      <c r="A25" s="19">
         <v>21</v>
       </c>
-      <c r="B25" s="16" t="str">
+      <c r="B25" s="20" t="str">
         <f>IF(_tag_day_all!A22="","",_tag_day_all!A22)</f>
         <v/>
       </c>
-      <c r="C25" s="17" t="str">
+      <c r="C25" s="21" t="str">
         <f>IF(_tag_day_all!B22="","",_tag_day_all!B22)</f>
         <v/>
       </c>
-      <c r="D25" s="18" t="str">
+      <c r="D25" s="22" t="str">
         <f>IF(_tag_day_all!C22="","",_tag_day_all!C22)</f>
         <v/>
       </c>
-      <c r="E25" s="19" t="str">
+      <c r="E25" s="23" t="str">
         <f>IF(_tag_day_all!D22="","",_tag_day_all!D22*10000)</f>
         <v/>
       </c>
-      <c r="F25" s="20" t="str">
+      <c r="F25" s="24" t="str">
         <f>IF(_tag_day_all!E22="","",_tag_day_all!E22)</f>
         <v/>
       </c>
-      <c r="G25" s="19" t="str">
+      <c r="G25" s="23" t="str">
         <f>IF(_tag_day_all!F22="","",_tag_day_all!F22)</f>
         <v/>
       </c>
-      <c r="H25" s="20" t="str">
+      <c r="H25" s="24" t="str">
         <f>IF(_tag_day_all!G22="","",_tag_day_all!G22)</f>
         <v/>
       </c>
-      <c r="I25" s="20" t="str">
+      <c r="I25" s="24" t="str">
         <f>IF(_tag_day_all!H22="","",_tag_day_all!H22)</f>
         <v/>
       </c>
-      <c r="J25" s="36" t="str">
+      <c r="J25" s="44" t="str">
         <f>IF(_tag_day_all!I22="","",_tag_day_all!I22)</f>
         <v/>
       </c>
-      <c r="K25" s="36" t="str">
+      <c r="K25" s="44" t="str">
         <f>IF(_tag_day_all!J22="","",_tag_day_all!J22)</f>
         <v/>
       </c>
-      <c r="L25" s="20" t="str">
+      <c r="L25" s="24" t="str">
         <f>IF(_tag_day_all!K22="","",_tag_day_all!K22)</f>
         <v/>
       </c>
-      <c r="M25" s="20" t="str">
+      <c r="M25" s="24" t="str">
         <f>IF(_tag_day_all!L22="","",_tag_day_all!L22)</f>
         <v/>
       </c>
-      <c r="N25" s="36" t="str">
+      <c r="N25" s="44" t="str">
         <f>IF(_tag_day_all!M22="","",_tag_day_all!M22)</f>
         <v/>
       </c>
-      <c r="O25" s="20" t="str">
+      <c r="O25" s="24" t="str">
         <f>IF(_tag_day_all!N22="","",_tag_day_all!N22*100)</f>
         <v/>
       </c>
-      <c r="P25" s="20" t="str">
+      <c r="P25" s="24" t="str">
         <f>IF(_tag_day_all!AL22="","",_tag_day_all!AL22)</f>
         <v/>
       </c>
-      <c r="Q25" s="19" t="str">
+      <c r="Q25" s="23" t="str">
         <f>IF(_tag_day_all!AM22="","",_tag_day_all!AM22)</f>
         <v/>
       </c>
-      <c r="R25" s="19" t="str">
+      <c r="R25" s="23" t="str">
         <f>IF(_tag_day_all!O22="","",_tag_day_all!O22)</f>
         <v/>
       </c>
-      <c r="S25" s="19" t="str">
+      <c r="S25" s="23" t="str">
         <f>IF(_tag_day_all!P22="","",_tag_day_all!P22)</f>
         <v/>
       </c>
-      <c r="T25" s="19" t="str">
+      <c r="T25" s="23" t="str">
         <f>IF(_tag_day_all!Q22="","",_tag_day_all!Q22)</f>
         <v/>
       </c>
-      <c r="U25" s="19" t="str">
+      <c r="U25" s="23" t="str">
         <f>IF(_tag_day_all!R22="","",_tag_day_all!R22)</f>
         <v/>
       </c>
-      <c r="V25" s="19" t="str">
+      <c r="V25" s="23" t="str">
         <f>IF(_tag_day_all!S22="","",_tag_day_all!S22)</f>
         <v/>
       </c>
-      <c r="W25" s="19" t="str">
+      <c r="W25" s="23" t="str">
         <f>IF(_tag_day_all!T22="","",_tag_day_all!T22)</f>
         <v/>
       </c>
-      <c r="X25" s="20" t="str">
+      <c r="X25" s="24" t="str">
         <f>IF(_tag_day_all!U22="","",_tag_day_all!U22)</f>
         <v/>
       </c>
-      <c r="Y25" s="20" t="str">
+      <c r="Y25" s="24" t="str">
         <f>IF(_tag_day_all!V22="","",_tag_day_all!V22)</f>
         <v/>
       </c>
-      <c r="Z25" s="20" t="str">
+      <c r="Z25" s="24" t="str">
         <f>IF(_tag_day_all!W22="","",_tag_day_all!W22)</f>
         <v/>
       </c>
-      <c r="AA25" s="20" t="str">
+      <c r="AA25" s="24" t="str">
         <f>IF(_tag_day_all!X22="","",_tag_day_all!X22)</f>
         <v/>
       </c>
-      <c r="AB25" s="36" t="str">
+      <c r="AB25" s="44" t="str">
         <f>IF(_tag_day_all!Y22="","",_tag_day_all!Y22)</f>
         <v/>
       </c>
-      <c r="AC25" s="19" t="str">
+      <c r="AC25" s="23" t="str">
         <f>IF(_tag_day_all!Z22="","",_tag_day_all!Z22)</f>
         <v/>
       </c>
-      <c r="AD25" s="19" t="str">
+      <c r="AD25" s="23" t="str">
         <f>IF(_tag_day_all!AA22="","",_tag_day_all!AA22)</f>
         <v/>
       </c>
-      <c r="AE25" s="20" t="str">
+      <c r="AE25" s="24" t="str">
         <f>IF(_tag_day_all!AB22="","",_tag_day_all!AB22)</f>
         <v/>
       </c>
-      <c r="AF25" s="19" t="str">
+      <c r="AF25" s="23" t="str">
         <f>IF(_tag_day_all!AC22="","",_tag_day_all!AC22)</f>
         <v/>
       </c>
-      <c r="AG25" s="19" t="str">
+      <c r="AG25" s="23" t="str">
         <f>IF(_tag_day_all!AD22="","",_tag_day_all!AD22)</f>
         <v/>
       </c>
-      <c r="AH25" s="19" t="str">
+      <c r="AH25" s="23" t="str">
         <f>IF(_tag_day_all!AE22="","",_tag_day_all!AE22)</f>
         <v/>
       </c>
-      <c r="AI25" s="19" t="str">
+      <c r="AI25" s="23" t="str">
         <f>IF(_tag_day_all!AF22="","",_tag_day_all!AF22)</f>
         <v/>
       </c>
-      <c r="AJ25" s="19" t="str">
+      <c r="AJ25" s="23" t="str">
         <f>IF(_tag_day_all!AG22="","",_tag_day_all!AG22)</f>
         <v/>
       </c>
-      <c r="AK25" s="20" t="str">
+      <c r="AK25" s="24" t="str">
         <f>IF(_tag_day_all!AH22="","",_tag_day_all!AH22)</f>
         <v/>
       </c>
-      <c r="AL25" s="20" t="str">
+      <c r="AL25" s="24" t="str">
         <f>IF(_tag_day_all!AI22="","",_tag_day_all!AI22)</f>
         <v/>
       </c>
-      <c r="AM25" s="20" t="str">
+      <c r="AM25" s="24" t="str">
         <f>IF(_tag_day_all!AJ22="","",_tag_day_all!AJ22)</f>
         <v/>
       </c>
-      <c r="AN25" s="20" t="str">
+      <c r="AN25" s="24" t="str">
         <f>IF(_tag_day_all!AK22="","",_tag_day_all!AK22)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="14.25">
-      <c r="A26" s="15">
+    <row r="26" spans="1:40">
+      <c r="A26" s="19">
         <v>22</v>
       </c>
-      <c r="B26" s="16" t="str">
+      <c r="B26" s="20" t="str">
         <f>IF(_tag_day_all!A23="","",_tag_day_all!A23)</f>
         <v/>
       </c>
-      <c r="C26" s="17" t="str">
+      <c r="C26" s="21" t="str">
         <f>IF(_tag_day_all!B23="","",_tag_day_all!B23)</f>
         <v/>
       </c>
-      <c r="D26" s="18" t="str">
+      <c r="D26" s="22" t="str">
         <f>IF(_tag_day_all!C23="","",_tag_day_all!C23)</f>
         <v/>
       </c>
-      <c r="E26" s="19" t="str">
+      <c r="E26" s="23" t="str">
         <f>IF(_tag_day_all!D23="","",_tag_day_all!D23*10000)</f>
         <v/>
       </c>
-      <c r="F26" s="20" t="str">
+      <c r="F26" s="24" t="str">
         <f>IF(_tag_day_all!E23="","",_tag_day_all!E23)</f>
         <v/>
       </c>
-      <c r="G26" s="19" t="str">
+      <c r="G26" s="23" t="str">
         <f>IF(_tag_day_all!F23="","",_tag_day_all!F23)</f>
         <v/>
       </c>
-      <c r="H26" s="20" t="str">
+      <c r="H26" s="24" t="str">
         <f>IF(_tag_day_all!G23="","",_tag_day_all!G23)</f>
         <v/>
       </c>
-      <c r="I26" s="20" t="str">
+      <c r="I26" s="24" t="str">
         <f>IF(_tag_day_all!H23="","",_tag_day_all!H23)</f>
         <v/>
       </c>
-      <c r="J26" s="36" t="str">
+      <c r="J26" s="44" t="str">
         <f>IF(_tag_day_all!I23="","",_tag_day_all!I23)</f>
         <v/>
       </c>
-      <c r="K26" s="36" t="str">
+      <c r="K26" s="44" t="str">
         <f>IF(_tag_day_all!J23="","",_tag_day_all!J23)</f>
         <v/>
       </c>
-      <c r="L26" s="20" t="str">
+      <c r="L26" s="24" t="str">
         <f>IF(_tag_day_all!K23="","",_tag_day_all!K23)</f>
         <v/>
       </c>
-      <c r="M26" s="20" t="str">
+      <c r="M26" s="24" t="str">
         <f>IF(_tag_day_all!L23="","",_tag_day_all!L23)</f>
         <v/>
       </c>
-      <c r="N26" s="36" t="str">
+      <c r="N26" s="44" t="str">
         <f>IF(_tag_day_all!M23="","",_tag_day_all!M23)</f>
         <v/>
       </c>
-      <c r="O26" s="20" t="str">
+      <c r="O26" s="24" t="str">
         <f>IF(_tag_day_all!N23="","",_tag_day_all!N23*100)</f>
         <v/>
       </c>
-      <c r="P26" s="20" t="str">
+      <c r="P26" s="24" t="str">
         <f>IF(_tag_day_all!AL23="","",_tag_day_all!AL23)</f>
         <v/>
       </c>
-      <c r="Q26" s="19" t="str">
+      <c r="Q26" s="23" t="str">
         <f>IF(_tag_day_all!AM23="","",_tag_day_all!AM23)</f>
         <v/>
       </c>
-      <c r="R26" s="19" t="str">
+      <c r="R26" s="23" t="str">
         <f>IF(_tag_day_all!O23="","",_tag_day_all!O23)</f>
         <v/>
       </c>
-      <c r="S26" s="19" t="str">
+      <c r="S26" s="23" t="str">
         <f>IF(_tag_day_all!P23="","",_tag_day_all!P23)</f>
         <v/>
       </c>
-      <c r="T26" s="19" t="str">
+      <c r="T26" s="23" t="str">
         <f>IF(_tag_day_all!Q23="","",_tag_day_all!Q23)</f>
         <v/>
       </c>
-      <c r="U26" s="19" t="str">
+      <c r="U26" s="23" t="str">
         <f>IF(_tag_day_all!R23="","",_tag_day_all!R23)</f>
         <v/>
       </c>
-      <c r="V26" s="19" t="str">
+      <c r="V26" s="23" t="str">
         <f>IF(_tag_day_all!S23="","",_tag_day_all!S23)</f>
         <v/>
       </c>
-      <c r="W26" s="19" t="str">
+      <c r="W26" s="23" t="str">
         <f>IF(_tag_day_all!T23="","",_tag_day_all!T23)</f>
         <v/>
       </c>
-      <c r="X26" s="20" t="str">
+      <c r="X26" s="24" t="str">
         <f>IF(_tag_day_all!U23="","",_tag_day_all!U23)</f>
         <v/>
       </c>
-      <c r="Y26" s="20" t="str">
+      <c r="Y26" s="24" t="str">
         <f>IF(_tag_day_all!V23="","",_tag_day_all!V23)</f>
         <v/>
       </c>
-      <c r="Z26" s="20" t="str">
+      <c r="Z26" s="24" t="str">
         <f>IF(_tag_day_all!W23="","",_tag_day_all!W23)</f>
         <v/>
       </c>
-      <c r="AA26" s="20" t="str">
+      <c r="AA26" s="24" t="str">
         <f>IF(_tag_day_all!X23="","",_tag_day_all!X23)</f>
         <v/>
       </c>
-      <c r="AB26" s="36" t="str">
+      <c r="AB26" s="44" t="str">
         <f>IF(_tag_day_all!Y23="","",_tag_day_all!Y23)</f>
         <v/>
       </c>
-      <c r="AC26" s="19" t="str">
+      <c r="AC26" s="23" t="str">
         <f>IF(_tag_day_all!Z23="","",_tag_day_all!Z23)</f>
         <v/>
       </c>
-      <c r="AD26" s="19" t="str">
+      <c r="AD26" s="23" t="str">
         <f>IF(_tag_day_all!AA23="","",_tag_day_all!AA23)</f>
         <v/>
       </c>
-      <c r="AE26" s="20" t="str">
+      <c r="AE26" s="24" t="str">
         <f>IF(_tag_day_all!AB23="","",_tag_day_all!AB23)</f>
         <v/>
       </c>
-      <c r="AF26" s="19" t="str">
+      <c r="AF26" s="23" t="str">
         <f>IF(_tag_day_all!AC23="","",_tag_day_all!AC23)</f>
         <v/>
       </c>
-      <c r="AG26" s="19" t="str">
+      <c r="AG26" s="23" t="str">
         <f>IF(_tag_day_all!AD23="","",_tag_day_all!AD23)</f>
         <v/>
       </c>
-      <c r="AH26" s="19" t="str">
+      <c r="AH26" s="23" t="str">
         <f>IF(_tag_day_all!AE23="","",_tag_day_all!AE23)</f>
         <v/>
       </c>
-      <c r="AI26" s="19" t="str">
+      <c r="AI26" s="23" t="str">
         <f>IF(_tag_day_all!AF23="","",_tag_day_all!AF23)</f>
         <v/>
       </c>
-      <c r="AJ26" s="19" t="str">
+      <c r="AJ26" s="23" t="str">
         <f>IF(_tag_day_all!AG23="","",_tag_day_all!AG23)</f>
         <v/>
       </c>
-      <c r="AK26" s="20" t="str">
+      <c r="AK26" s="24" t="str">
         <f>IF(_tag_day_all!AH23="","",_tag_day_all!AH23)</f>
         <v/>
       </c>
-      <c r="AL26" s="20" t="str">
+      <c r="AL26" s="24" t="str">
         <f>IF(_tag_day_all!AI23="","",_tag_day_all!AI23)</f>
         <v/>
       </c>
-      <c r="AM26" s="20" t="str">
+      <c r="AM26" s="24" t="str">
         <f>IF(_tag_day_all!AJ23="","",_tag_day_all!AJ23)</f>
         <v/>
       </c>
-      <c r="AN26" s="20" t="str">
+      <c r="AN26" s="24" t="str">
         <f>IF(_tag_day_all!AK23="","",_tag_day_all!AK23)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="14.25">
-      <c r="A27" s="15">
+    <row r="27" spans="1:40">
+      <c r="A27" s="19">
         <v>23</v>
       </c>
-      <c r="B27" s="16" t="str">
+      <c r="B27" s="20" t="str">
         <f>IF(_tag_day_all!A24="","",_tag_day_all!A24)</f>
         <v/>
       </c>
-      <c r="C27" s="17" t="str">
+      <c r="C27" s="21" t="str">
         <f>IF(_tag_day_all!B24="","",_tag_day_all!B24)</f>
         <v/>
       </c>
-      <c r="D27" s="18" t="str">
+      <c r="D27" s="22" t="str">
         <f>IF(_tag_day_all!C24="","",_tag_day_all!C24)</f>
         <v/>
       </c>
-      <c r="E27" s="19" t="str">
+      <c r="E27" s="23" t="str">
         <f>IF(_tag_day_all!D24="","",_tag_day_all!D24*10000)</f>
         <v/>
       </c>
-      <c r="F27" s="20" t="str">
+      <c r="F27" s="24" t="str">
         <f>IF(_tag_day_all!E24="","",_tag_day_all!E24)</f>
         <v/>
       </c>
-      <c r="G27" s="19" t="str">
+      <c r="G27" s="23" t="str">
         <f>IF(_tag_day_all!F24="","",_tag_day_all!F24)</f>
         <v/>
       </c>
-      <c r="H27" s="20" t="str">
+      <c r="H27" s="24" t="str">
         <f>IF(_tag_day_all!G24="","",_tag_day_all!G24)</f>
         <v/>
       </c>
-      <c r="I27" s="20" t="str">
+      <c r="I27" s="24" t="str">
         <f>IF(_tag_day_all!H24="","",_tag_day_all!H24)</f>
         <v/>
       </c>
-      <c r="J27" s="36" t="str">
+      <c r="J27" s="44" t="str">
         <f>IF(_tag_day_all!I24="","",_tag_day_all!I24)</f>
         <v/>
       </c>
-      <c r="K27" s="36" t="str">
+      <c r="K27" s="44" t="str">
         <f>IF(_tag_day_all!J24="","",_tag_day_all!J24)</f>
         <v/>
       </c>
-      <c r="L27" s="20" t="str">
+      <c r="L27" s="24" t="str">
         <f>IF(_tag_day_all!K24="","",_tag_day_all!K24)</f>
         <v/>
       </c>
-      <c r="M27" s="20" t="str">
+      <c r="M27" s="24" t="str">
         <f>IF(_tag_day_all!L24="","",_tag_day_all!L24)</f>
         <v/>
       </c>
-      <c r="N27" s="36" t="str">
+      <c r="N27" s="44" t="str">
         <f>IF(_tag_day_all!M24="","",_tag_day_all!M24)</f>
         <v/>
       </c>
-      <c r="O27" s="20" t="str">
+      <c r="O27" s="24" t="str">
         <f>IF(_tag_day_all!N24="","",_tag_day_all!N24*100)</f>
         <v/>
       </c>
-      <c r="P27" s="20" t="str">
+      <c r="P27" s="24" t="str">
         <f>IF(_tag_day_all!AL24="","",_tag_day_all!AL24)</f>
         <v/>
       </c>
-      <c r="Q27" s="19" t="str">
+      <c r="Q27" s="23" t="str">
         <f>IF(_tag_day_all!AM24="","",_tag_day_all!AM24)</f>
         <v/>
       </c>
-      <c r="R27" s="19" t="str">
+      <c r="R27" s="23" t="str">
         <f>IF(_tag_day_all!O24="","",_tag_day_all!O24)</f>
         <v/>
       </c>
-      <c r="S27" s="19" t="str">
+      <c r="S27" s="23" t="str">
         <f>IF(_tag_day_all!P24="","",_tag_day_all!P24)</f>
         <v/>
       </c>
-      <c r="T27" s="19" t="str">
+      <c r="T27" s="23" t="str">
         <f>IF(_tag_day_all!Q24="","",_tag_day_all!Q24)</f>
         <v/>
       </c>
-      <c r="U27" s="19" t="str">
+      <c r="U27" s="23" t="str">
         <f>IF(_tag_day_all!R24="","",_tag_day_all!R24)</f>
         <v/>
       </c>
-      <c r="V27" s="19" t="str">
+      <c r="V27" s="23" t="str">
         <f>IF(_tag_day_all!S24="","",_tag_day_all!S24)</f>
         <v/>
       </c>
-      <c r="W27" s="19" t="str">
+      <c r="W27" s="23" t="str">
         <f>IF(_tag_day_all!T24="","",_tag_day_all!T24)</f>
         <v/>
       </c>
-      <c r="X27" s="20" t="str">
+      <c r="X27" s="24" t="str">
         <f>IF(_tag_day_all!U24="","",_tag_day_all!U24)</f>
         <v/>
       </c>
-      <c r="Y27" s="20" t="str">
+      <c r="Y27" s="24" t="str">
         <f>IF(_tag_day_all!V24="","",_tag_day_all!V24)</f>
         <v/>
       </c>
-      <c r="Z27" s="20" t="str">
+      <c r="Z27" s="24" t="str">
         <f>IF(_tag_day_all!W24="","",_tag_day_all!W24)</f>
         <v/>
       </c>
-      <c r="AA27" s="20" t="str">
+      <c r="AA27" s="24" t="str">
         <f>IF(_tag_day_all!X24="","",_tag_day_all!X24)</f>
         <v/>
       </c>
-      <c r="AB27" s="36" t="str">
+      <c r="AB27" s="44" t="str">
         <f>IF(_tag_day_all!Y24="","",_tag_day_all!Y24)</f>
         <v/>
       </c>
-      <c r="AC27" s="19" t="str">
+      <c r="AC27" s="23" t="str">
         <f>IF(_tag_day_all!Z24="","",_tag_day_all!Z24)</f>
         <v/>
       </c>
-      <c r="AD27" s="19" t="str">
+      <c r="AD27" s="23" t="str">
         <f>IF(_tag_day_all!AA24="","",_tag_day_all!AA24)</f>
         <v/>
       </c>
-      <c r="AE27" s="20" t="str">
+      <c r="AE27" s="24" t="str">
         <f>IF(_tag_day_all!AB24="","",_tag_day_all!AB24)</f>
         <v/>
       </c>
-      <c r="AF27" s="19" t="str">
+      <c r="AF27" s="23" t="str">
         <f>IF(_tag_day_all!AC24="","",_tag_day_all!AC24)</f>
         <v/>
       </c>
-      <c r="AG27" s="19" t="str">
+      <c r="AG27" s="23" t="str">
         <f>IF(_tag_day_all!AD24="","",_tag_day_all!AD24)</f>
         <v/>
       </c>
-      <c r="AH27" s="19" t="str">
+      <c r="AH27" s="23" t="str">
         <f>IF(_tag_day_all!AE24="","",_tag_day_all!AE24)</f>
         <v/>
       </c>
-      <c r="AI27" s="19" t="str">
+      <c r="AI27" s="23" t="str">
         <f>IF(_tag_day_all!AF24="","",_tag_day_all!AF24)</f>
         <v/>
       </c>
-      <c r="AJ27" s="19" t="str">
+      <c r="AJ27" s="23" t="str">
         <f>IF(_tag_day_all!AG24="","",_tag_day_all!AG24)</f>
         <v/>
       </c>
-      <c r="AK27" s="20" t="str">
+      <c r="AK27" s="24" t="str">
         <f>IF(_tag_day_all!AH24="","",_tag_day_all!AH24)</f>
         <v/>
       </c>
-      <c r="AL27" s="20" t="str">
+      <c r="AL27" s="24" t="str">
         <f>IF(_tag_day_all!AI24="","",_tag_day_all!AI24)</f>
         <v/>
       </c>
-      <c r="AM27" s="20" t="str">
+      <c r="AM27" s="24" t="str">
         <f>IF(_tag_day_all!AJ24="","",_tag_day_all!AJ24)</f>
         <v/>
       </c>
-      <c r="AN27" s="20" t="str">
+      <c r="AN27" s="24" t="str">
         <f>IF(_tag_day_all!AK24="","",_tag_day_all!AK24)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="14.25">
-      <c r="A28" s="15">
+    <row r="28" spans="1:40">
+      <c r="A28" s="19">
         <v>24</v>
       </c>
-      <c r="B28" s="16" t="str">
+      <c r="B28" s="20" t="str">
         <f>IF(_tag_day_all!A25="","",_tag_day_all!A25)</f>
         <v/>
       </c>
-      <c r="C28" s="17" t="str">
+      <c r="C28" s="21" t="str">
         <f>IF(_tag_day_all!B25="","",_tag_day_all!B25)</f>
         <v/>
       </c>
-      <c r="D28" s="18" t="str">
+      <c r="D28" s="22" t="str">
         <f>IF(_tag_day_all!C25="","",_tag_day_all!C25)</f>
         <v/>
       </c>
-      <c r="E28" s="19" t="str">
+      <c r="E28" s="23" t="str">
         <f>IF(_tag_day_all!D25="","",_tag_day_all!D25*10000)</f>
         <v/>
       </c>
-      <c r="F28" s="20" t="str">
+      <c r="F28" s="24" t="str">
         <f>IF(_tag_day_all!E25="","",_tag_day_all!E25)</f>
         <v/>
       </c>
-      <c r="G28" s="19" t="str">
+      <c r="G28" s="23" t="str">
         <f>IF(_tag_day_all!F25="","",_tag_day_all!F25)</f>
         <v/>
       </c>
-      <c r="H28" s="20" t="str">
+      <c r="H28" s="24" t="str">
         <f>IF(_tag_day_all!G25="","",_tag_day_all!G25)</f>
         <v/>
       </c>
-      <c r="I28" s="20" t="str">
+      <c r="I28" s="24" t="str">
         <f>IF(_tag_day_all!H25="","",_tag_day_all!H25)</f>
         <v/>
       </c>
-      <c r="J28" s="36" t="str">
+      <c r="J28" s="44" t="str">
         <f>IF(_tag_day_all!I25="","",_tag_day_all!I25)</f>
         <v/>
       </c>
-      <c r="K28" s="36" t="str">
+      <c r="K28" s="44" t="str">
         <f>IF(_tag_day_all!J25="","",_tag_day_all!J25)</f>
         <v/>
       </c>
-      <c r="L28" s="20" t="str">
+      <c r="L28" s="24" t="str">
         <f>IF(_tag_day_all!K25="","",_tag_day_all!K25)</f>
         <v/>
       </c>
-      <c r="M28" s="20" t="str">
+      <c r="M28" s="24" t="str">
         <f>IF(_tag_day_all!L25="","",_tag_day_all!L25)</f>
         <v/>
       </c>
-      <c r="N28" s="36" t="str">
+      <c r="N28" s="44" t="str">
         <f>IF(_tag_day_all!M25="","",_tag_day_all!M25)</f>
         <v/>
       </c>
-      <c r="O28" s="20" t="str">
+      <c r="O28" s="24" t="str">
         <f>IF(_tag_day_all!N25="","",_tag_day_all!N25*100)</f>
         <v/>
       </c>
-      <c r="P28" s="20" t="str">
+      <c r="P28" s="24" t="str">
         <f>IF(_tag_day_all!AL25="","",_tag_day_all!AL25)</f>
         <v/>
       </c>
-      <c r="Q28" s="19" t="str">
+      <c r="Q28" s="23" t="str">
         <f>IF(_tag_day_all!AM25="","",_tag_day_all!AM25)</f>
         <v/>
       </c>
-      <c r="R28" s="19" t="str">
+      <c r="R28" s="23" t="str">
         <f>IF(_tag_day_all!O25="","",_tag_day_all!O25)</f>
         <v/>
       </c>
-      <c r="S28" s="19" t="str">
+      <c r="S28" s="23" t="str">
         <f>IF(_tag_day_all!P25="","",_tag_day_all!P25)</f>
         <v/>
       </c>
-      <c r="T28" s="19" t="str">
+      <c r="T28" s="23" t="str">
         <f>IF(_tag_day_all!Q25="","",_tag_day_all!Q25)</f>
         <v/>
       </c>
-      <c r="U28" s="19" t="str">
+      <c r="U28" s="23" t="str">
         <f>IF(_tag_day_all!R25="","",_tag_day_all!R25)</f>
         <v/>
       </c>
-      <c r="V28" s="19" t="str">
+      <c r="V28" s="23" t="str">
         <f>IF(_tag_day_all!S25="","",_tag_day_all!S25)</f>
         <v/>
       </c>
-      <c r="W28" s="19" t="str">
+      <c r="W28" s="23" t="str">
         <f>IF(_tag_day_all!T25="","",_tag_day_all!T25)</f>
         <v/>
       </c>
-      <c r="X28" s="20" t="str">
+      <c r="X28" s="24" t="str">
         <f>IF(_tag_day_all!U25="","",_tag_day_all!U25)</f>
         <v/>
       </c>
-      <c r="Y28" s="20" t="str">
+      <c r="Y28" s="24" t="str">
         <f>IF(_tag_day_all!V25="","",_tag_day_all!V25)</f>
         <v/>
       </c>
-      <c r="Z28" s="20" t="str">
+      <c r="Z28" s="24" t="str">
         <f>IF(_tag_day_all!W25="","",_tag_day_all!W25)</f>
         <v/>
       </c>
-      <c r="AA28" s="20" t="str">
+      <c r="AA28" s="24" t="str">
         <f>IF(_tag_day_all!X25="","",_tag_day_all!X25)</f>
         <v/>
       </c>
-      <c r="AB28" s="36" t="str">
+      <c r="AB28" s="44" t="str">
         <f>IF(_tag_day_all!Y25="","",_tag_day_all!Y25)</f>
         <v/>
       </c>
-      <c r="AC28" s="19" t="str">
+      <c r="AC28" s="23" t="str">
         <f>IF(_tag_day_all!Z25="","",_tag_day_all!Z25)</f>
         <v/>
       </c>
-      <c r="AD28" s="19" t="str">
+      <c r="AD28" s="23" t="str">
         <f>IF(_tag_day_all!AA25="","",_tag_day_all!AA25)</f>
         <v/>
       </c>
-      <c r="AE28" s="20" t="str">
+      <c r="AE28" s="24" t="str">
         <f>IF(_tag_day_all!AB25="","",_tag_day_all!AB25)</f>
         <v/>
       </c>
-      <c r="AF28" s="19" t="str">
+      <c r="AF28" s="23" t="str">
         <f>IF(_tag_day_all!AC25="","",_tag_day_all!AC25)</f>
         <v/>
       </c>
-      <c r="AG28" s="19" t="str">
+      <c r="AG28" s="23" t="str">
         <f>IF(_tag_day_all!AD25="","",_tag_day_all!AD25)</f>
         <v/>
       </c>
-      <c r="AH28" s="19" t="str">
+      <c r="AH28" s="23" t="str">
         <f>IF(_tag_day_all!AE25="","",_tag_day_all!AE25)</f>
         <v/>
       </c>
-      <c r="AI28" s="19" t="str">
+      <c r="AI28" s="23" t="str">
         <f>IF(_tag_day_all!AF25="","",_tag_day_all!AF25)</f>
         <v/>
       </c>
-      <c r="AJ28" s="19" t="str">
+      <c r="AJ28" s="23" t="str">
         <f>IF(_tag_day_all!AG25="","",_tag_day_all!AG25)</f>
         <v/>
       </c>
-      <c r="AK28" s="20" t="str">
+      <c r="AK28" s="24" t="str">
         <f>IF(_tag_day_all!AH25="","",_tag_day_all!AH25)</f>
         <v/>
       </c>
-      <c r="AL28" s="20" t="str">
+      <c r="AL28" s="24" t="str">
         <f>IF(_tag_day_all!AI25="","",_tag_day_all!AI25)</f>
         <v/>
       </c>
-      <c r="AM28" s="20" t="str">
+      <c r="AM28" s="24" t="str">
         <f>IF(_tag_day_all!AJ25="","",_tag_day_all!AJ25)</f>
         <v/>
       </c>
-      <c r="AN28" s="20" t="str">
+      <c r="AN28" s="24" t="str">
         <f>IF(_tag_day_all!AK25="","",_tag_day_all!AK25)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="14.25">
-      <c r="A29" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="22" t="str">
-        <f t="shared" ref="B29:K29" si="0">IFERROR(AVERAGE(B5:B12),"")</f>
-        <v/>
-      </c>
-      <c r="C29" s="23" t="str">
+    <row r="29" spans="1:40">
+      <c r="A29" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="26" t="str">
+        <f t="shared" ref="B29:L29" si="0">IFERROR(AVERAGE(B5:B12),"")</f>
+        <v/>
+      </c>
+      <c r="C29" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D29" s="23" t="str">
+      <c r="D29" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E29" s="22" t="str">
+      <c r="E29" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F29" s="24" t="str">
+      <c r="F29" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G29" s="22" t="str">
+      <c r="G29" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H29" s="24" t="str">
+      <c r="H29" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I29" s="24" t="str">
+      <c r="I29" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J29" s="37" t="str">
+      <c r="J29" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K29" s="37" t="str">
+      <c r="K29" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L29" s="24" t="str">
+      <c r="L29" s="28" t="str">
         <f>IFERROR(AVERAGE(L5:L12),"")</f>
         <v/>
       </c>
-      <c r="M29" s="24" t="str">
+      <c r="M29" s="28" t="str">
         <f>IFERROR(AVERAGE(M5:M12),"")</f>
         <v/>
       </c>
-      <c r="N29" s="37" t="str">
+      <c r="N29" s="45" t="str">
         <f>IFERROR(AVERAGE(N5:N12),"")</f>
         <v/>
       </c>
-      <c r="O29" s="24" t="str">
+      <c r="O29" s="28" t="str">
         <f t="shared" ref="O29:AN29" si="1">IFERROR(AVERAGE(O5:O12),"")</f>
         <v/>
       </c>
-      <c r="P29" s="24" t="str">
+      <c r="P29" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q29" s="22" t="str">
+      <c r="Q29" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R29" s="22" t="str">
+      <c r="R29" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S29" s="22" t="str">
+      <c r="S29" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T29" s="22" t="str">
+      <c r="T29" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="U29" s="22" t="str">
+      <c r="U29" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V29" s="22" t="str">
+      <c r="V29" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="W29" s="22" t="str">
+      <c r="W29" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="X29" s="24" t="str">
+      <c r="X29" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Y29" s="24" t="str">
+      <c r="Y29" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z29" s="24" t="str">
+      <c r="Z29" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AA29" s="24" t="str">
+      <c r="AA29" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AB29" s="37" t="str">
+      <c r="AB29" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC29" s="22" t="str">
+      <c r="AC29" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AD29" s="22" t="str">
+      <c r="AD29" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE29" s="24" t="str">
+      <c r="AE29" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF29" s="22" t="str">
+      <c r="AF29" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AG29" s="22" t="str">
+      <c r="AG29" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH29" s="22" t="str">
+      <c r="AH29" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AI29" s="22" t="str">
+      <c r="AI29" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AJ29" s="22" t="str">
+      <c r="AJ29" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AK29" s="24" t="str">
+      <c r="AK29" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AL29" s="24" t="str">
+      <c r="AL29" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AM29" s="24" t="str">
+      <c r="AM29" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AN29" s="24" t="str">
+      <c r="AN29" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="14.25">
-      <c r="A30" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="22" t="str">
-        <f t="shared" ref="B30:K30" si="2">IFERROR(AVERAGE(B13:B20),"")</f>
-        <v/>
-      </c>
-      <c r="C30" s="23" t="str">
+    <row r="30" spans="1:40">
+      <c r="A30" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="26" t="str">
+        <f t="shared" ref="B30:L30" si="2">IFERROR(AVERAGE(B13:B20),"")</f>
+        <v/>
+      </c>
+      <c r="C30" s="27" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D30" s="23" t="str">
+      <c r="D30" s="27" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E30" s="22" t="str">
+      <c r="E30" s="26" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F30" s="24" t="str">
+      <c r="F30" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G30" s="22" t="str">
+      <c r="G30" s="26" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H30" s="24" t="str">
+      <c r="H30" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I30" s="24" t="str">
+      <c r="I30" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J30" s="37" t="str">
+      <c r="J30" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K30" s="37" t="str">
+      <c r="K30" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L30" s="24" t="str">
+      <c r="L30" s="28" t="str">
         <f>IFERROR(AVERAGE(L13:L20),"")</f>
         <v/>
       </c>
-      <c r="M30" s="24" t="str">
+      <c r="M30" s="28" t="str">
         <f>IFERROR(AVERAGE(M13:M20),"")</f>
         <v/>
       </c>
-      <c r="N30" s="37" t="str">
+      <c r="N30" s="45" t="str">
         <f>IFERROR(AVERAGE(N13:N20),"")</f>
         <v/>
       </c>
-      <c r="O30" s="24" t="str">
+      <c r="O30" s="28" t="str">
         <f t="shared" ref="O30:AN30" si="3">IFERROR(AVERAGE(O13:O20),"")</f>
         <v/>
       </c>
-      <c r="P30" s="24" t="str">
+      <c r="P30" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q30" s="22" t="str">
+      <c r="Q30" s="26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R30" s="22" t="str">
+      <c r="R30" s="26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S30" s="22" t="str">
+      <c r="S30" s="26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T30" s="22" t="str">
+      <c r="T30" s="26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="U30" s="22" t="str">
+      <c r="U30" s="26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V30" s="22" t="str">
+      <c r="V30" s="26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="W30" s="22" t="str">
+      <c r="W30" s="26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="X30" s="24" t="str">
+      <c r="X30" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Y30" s="24" t="str">
+      <c r="Y30" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Z30" s="24" t="str">
+      <c r="Z30" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA30" s="24" t="str">
+      <c r="AA30" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AB30" s="37" t="str">
+      <c r="AB30" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC30" s="22" t="str">
+      <c r="AC30" s="26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AD30" s="22" t="str">
+      <c r="AD30" s="26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AE30" s="24" t="str">
+      <c r="AE30" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AF30" s="22" t="str">
+      <c r="AF30" s="26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AG30" s="22" t="str">
+      <c r="AG30" s="26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH30" s="22" t="str">
+      <c r="AH30" s="26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AI30" s="22" t="str">
+      <c r="AI30" s="26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AJ30" s="22" t="str">
+      <c r="AJ30" s="26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AK30" s="24" t="str">
+      <c r="AK30" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AL30" s="24" t="str">
+      <c r="AL30" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AM30" s="24" t="str">
+      <c r="AM30" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AN30" s="24" t="str">
+      <c r="AN30" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:40" ht="14.25">
-      <c r="A31" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="22" t="str">
-        <f t="shared" ref="B31:K31" si="4">IFERROR(AVERAGE(B21:B28),"")</f>
-        <v/>
-      </c>
-      <c r="C31" s="23" t="str">
+    <row r="31" spans="1:40">
+      <c r="A31" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="26" t="str">
+        <f t="shared" ref="B31:L31" si="4">IFERROR(AVERAGE(B21:B28),"")</f>
+        <v/>
+      </c>
+      <c r="C31" s="27" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D31" s="23" t="str">
+      <c r="D31" s="27" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E31" s="22" t="str">
+      <c r="E31" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F31" s="24" t="str">
+      <c r="F31" s="28" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G31" s="22" t="str">
+      <c r="G31" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H31" s="24" t="str">
+      <c r="H31" s="28" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I31" s="24" t="str">
+      <c r="I31" s="28" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J31" s="37" t="str">
+      <c r="J31" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K31" s="37" t="str">
+      <c r="K31" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L31" s="24" t="str">
+      <c r="L31" s="28" t="str">
         <f>IFERROR(AVERAGE(L21:L28),"")</f>
         <v/>
       </c>
-      <c r="M31" s="24" t="str">
+      <c r="M31" s="28" t="str">
         <f>IFERROR(AVERAGE(M21:M28),"")</f>
         <v/>
       </c>
-      <c r="N31" s="37" t="str">
+      <c r="N31" s="45" t="str">
         <f>IFERROR(AVERAGE(N21:N28),"")</f>
         <v/>
       </c>
-      <c r="O31" s="24" t="str">
+      <c r="O31" s="28" t="str">
         <f t="shared" ref="O31:AN31" si="5">IFERROR(AVERAGE(O21:O28),"")</f>
         <v/>
       </c>
-      <c r="P31" s="24" t="str">
+      <c r="P31" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q31" s="22" t="str">
+      <c r="Q31" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R31" s="22" t="str">
+      <c r="R31" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S31" s="22" t="str">
+      <c r="S31" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="T31" s="22" t="str">
+      <c r="T31" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="U31" s="22" t="str">
+      <c r="U31" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="V31" s="22" t="str">
+      <c r="V31" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="W31" s="22" t="str">
+      <c r="W31" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X31" s="24" t="str">
+      <c r="X31" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y31" s="24" t="str">
+      <c r="Y31" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Z31" s="24" t="str">
+      <c r="Z31" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AA31" s="24" t="str">
+      <c r="AA31" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AB31" s="37" t="str">
+      <c r="AB31" s="45" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC31" s="22" t="str">
+      <c r="AC31" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AD31" s="22" t="str">
+      <c r="AD31" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AE31" s="24" t="str">
+      <c r="AE31" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AF31" s="22" t="str">
+      <c r="AF31" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AG31" s="22" t="str">
+      <c r="AG31" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AH31" s="22" t="str">
+      <c r="AH31" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AI31" s="22" t="str">
+      <c r="AI31" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ31" s="22" t="str">
+      <c r="AJ31" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AK31" s="24" t="str">
+      <c r="AK31" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AL31" s="24" t="str">
+      <c r="AL31" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AM31" s="24" t="str">
+      <c r="AM31" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AN31" s="24" t="str">
+      <c r="AN31" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="14.25">
-      <c r="A32" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="26" t="str">
-        <f t="shared" ref="B32:K32" si="6">IFERROR(AVERAGE(B5:B28),"")</f>
-        <v/>
-      </c>
-      <c r="C32" s="27" t="str">
+    <row r="32" spans="1:40">
+      <c r="A32" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="30" t="str">
+        <f t="shared" ref="B32:L32" si="6">IFERROR(AVERAGE(B5:B28),"")</f>
+        <v/>
+      </c>
+      <c r="C32" s="31" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D32" s="27" t="str">
+      <c r="D32" s="31" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E32" s="26" t="str">
+      <c r="E32" s="30" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F32" s="28" t="str">
+      <c r="F32" s="32" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G32" s="26" t="str">
+      <c r="G32" s="30" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H32" s="28" t="str">
+      <c r="H32" s="32" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I32" s="28" t="str">
+      <c r="I32" s="32" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J32" s="38" t="str">
+      <c r="J32" s="46" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K32" s="38" t="str">
+      <c r="K32" s="46" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L32" s="28" t="str">
+      <c r="L32" s="32" t="str">
         <f>IFERROR(AVERAGE(L5:L28),"")</f>
         <v/>
       </c>
-      <c r="M32" s="28" t="str">
+      <c r="M32" s="32" t="str">
         <f>IFERROR(AVERAGE(M5:M28),"")</f>
         <v/>
       </c>
-      <c r="N32" s="38" t="str">
+      <c r="N32" s="46" t="str">
         <f>IFERROR(AVERAGE(N5:N28),"")</f>
         <v/>
       </c>
-      <c r="O32" s="28" t="str">
+      <c r="O32" s="32" t="str">
         <f t="shared" ref="O32:AN32" si="7">IFERROR(AVERAGE(O5:O28),"")</f>
         <v/>
       </c>
-      <c r="P32" s="28" t="str">
+      <c r="P32" s="32" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Q32" s="26" t="str">
+      <c r="Q32" s="30" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R32" s="26" t="str">
+      <c r="R32" s="30" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="S32" s="26" t="str">
+      <c r="S32" s="30" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T32" s="26" t="str">
+      <c r="T32" s="30" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U32" s="26" t="str">
+      <c r="U32" s="30" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="V32" s="26" t="str">
+      <c r="V32" s="30" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W32" s="26" t="str">
+      <c r="W32" s="30" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="X32" s="28" t="str">
+      <c r="X32" s="32" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Y32" s="28" t="str">
+      <c r="Y32" s="32" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Z32" s="28" t="str">
+      <c r="Z32" s="32" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AA32" s="28" t="str">
+      <c r="AA32" s="32" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB32" s="38" t="str">
+      <c r="AB32" s="46" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AC32" s="26" t="str">
+      <c r="AC32" s="30" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AD32" s="26" t="str">
+      <c r="AD32" s="30" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AE32" s="28" t="str">
+      <c r="AE32" s="32" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AF32" s="26" t="str">
+      <c r="AF32" s="30" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AG32" s="26" t="str">
+      <c r="AG32" s="30" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AH32" s="26" t="str">
+      <c r="AH32" s="30" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AI32" s="26" t="str">
+      <c r="AI32" s="30" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AJ32" s="26" t="str">
+      <c r="AJ32" s="30" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AK32" s="28" t="str">
+      <c r="AK32" s="32" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AL32" s="28" t="str">
+      <c r="AL32" s="32" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AM32" s="28" t="str">
+      <c r="AM32" s="32" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AN32" s="28" t="str">
+      <c r="AN32" s="32" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="14.25">
-      <c r="A33" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="30" t="str">
+    <row r="33" spans="1:40">
+      <c r="A33" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="34">
         <f t="shared" ref="B33:AN33" si="8">IFERROR(STDEV(B5:B28),"")</f>
-        <v/>
-      </c>
-      <c r="C33" s="31" t="str">
+        <v>0</v>
+      </c>
+      <c r="C33" s="35">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="D33" s="31" t="str">
+        <v>0</v>
+      </c>
+      <c r="D33" s="35">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="E33" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="E33" s="34">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F33" s="32" t="str">
+        <v>0</v>
+      </c>
+      <c r="F33" s="36">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G33" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="G33" s="34">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H33" s="32" t="str">
+        <v>0</v>
+      </c>
+      <c r="H33" s="36">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I33" s="32" t="str">
+        <v>0</v>
+      </c>
+      <c r="I33" s="36">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J33" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="J33" s="47">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K33" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="K33" s="47">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L33" s="32" t="str">
+        <v>0</v>
+      </c>
+      <c r="L33" s="36">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="M33" s="32" t="str">
+        <v>0</v>
+      </c>
+      <c r="M33" s="36">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N33" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="N33" s="47">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="O33" s="32" t="str">
+        <v>0</v>
+      </c>
+      <c r="O33" s="36">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="P33" s="32" t="str">
+        <v>0</v>
+      </c>
+      <c r="P33" s="36">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Q33" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="34">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="R33" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="R33" s="34">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="S33" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="S33" s="34">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="T33" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="T33" s="34">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="U33" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="U33" s="34">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="V33" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="V33" s="34">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="W33" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="W33" s="34">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="X33" s="32" t="str">
+        <v>0</v>
+      </c>
+      <c r="X33" s="36">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Y33" s="32" t="str">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="36">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Z33" s="32" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="36">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AA33" s="32" t="str">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="36">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AB33" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="47">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AC33" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="34">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AD33" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="34">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AE33" s="32" t="str">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="36">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AF33" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="34">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AG33" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="34">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AH33" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="34">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AI33" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="34">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AJ33" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="34">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AK33" s="32" t="str">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="36">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AL33" s="32" t="str">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="36">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AM33" s="32" t="str">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="36">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AN33" s="32" t="str">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="36">
         <f t="shared" si="8"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="23.25" customHeight="1"/>
-    <row r="36" spans="1:40" ht="14.25" customHeight="1"/>
-    <row r="37" spans="1:40" ht="14.25" customHeight="1"/>
-    <row r="38" spans="1:40" ht="38.25" customHeight="1"/>
+    <row r="35" ht="23.25" customHeight="1"/>
+    <row r="36" customHeight="1"/>
+    <row r="37" customHeight="1"/>
+    <row r="38" ht="38.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:T1"/>
@@ -6135,14 +6725,15 @@
     <mergeCell ref="AK2:AN2"/>
     <mergeCell ref="A2:A3"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6151,48 +6742,50 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AM1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="88.9" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="88.8" customHeight="1" spans="1:39">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -6203,117 +6796,117 @@
         <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM1" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>